--- a/tests/__xlsx__/xlsx_demo_data.xlsx
+++ b/tests/__xlsx__/xlsx_demo_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrien\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA4A409-66E7-4CFC-A548-ECD1D6D1B504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{157AC437-DB84-431C-BDD0-6A0421B0B149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23295" yWindow="195" windowWidth="21600" windowHeight="11385" firstSheet="13" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23295" yWindow="195" windowWidth="21600" windowHeight="11385" firstSheet="13" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,9 @@
   <externalReferences>
     <externalReference r:id="rId15"/>
   </externalReferences>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId16"/>
+    <pivotCache cacheId="3563" r:id="rId16"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="435">
   <si>
     <t>CF =42</t>
   </si>
@@ -1307,6 +1307,9 @@
   <si>
     <t>This text have
  a newLine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      with whitespace before</t>
   </si>
   <si>
     <t>Decimal</t>
@@ -1372,7 +1375,7 @@
     <numFmt numFmtId="168" formatCode="#,##0&quot; EUR €&quot;"/>
     <numFmt numFmtId="169" formatCode="&quot;€&quot;#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2372,7 +2375,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2385,6 +2387,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2392,6 +2395,157 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{1493241F-B85D-4F84-BBA0-86191B8FD032}"/>
   </cellStyles>
   <dxfs count="46">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike/>
+        <u/>
+        <color theme="7"/>
+      </font>
+      <numFmt numFmtId="170" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="lightTrellis">
+          <fgColor theme="4"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE06666"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB6D7A8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2798,157 +2952,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike/>
-        <u/>
-        <color theme="7"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <fill>
-        <patternFill patternType="lightTrellis">
-          <fgColor theme="4"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE06666"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB6D7A8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="4"/>
         </patternFill>
       </fill>
@@ -3370,7 +3373,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3474,7 +3477,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7572,7 +7575,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9B3CE3F5-58D8-48A3-B9C6-24D1506C9F5C}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9B3CE3F5-58D8-48A3-B9C6-24D1506C9F5C}" name="PivotTable1" cacheId="3563" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C3:L21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -7722,7 +7725,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{09C35CC7-7259-4A97-8FEA-EDB47375DF08}" name="Table3" displayName="Table3" ref="C3:J6" totalsRowCount="1" headerRowDxfId="43" dataDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{09C35CC7-7259-4A97-8FEA-EDB47375DF08}" name="Table3" displayName="Table3" ref="C3:J6" totalsRowCount="1" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="C3:J5" xr:uid="{09C35CC7-7259-4A97-8FEA-EDB47375DF08}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -7734,22 +7737,22 @@
     <filterColumn colId="7" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{C4EE018E-238B-42BA-9035-DB01FA5420D3}" name="Name" totalsRowLabel="Total" dataDxfId="41" totalsRowDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{C1F6911F-9482-4C98-BBFB-21D9CAA66DA4}" name="Age" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="38"/>
-    <tableColumn id="5" xr3:uid="{3CE9F5DA-0A57-4696-B4E0-53601C3B7798}" name="Rank" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="36"/>
-    <tableColumn id="6" xr3:uid="{34912838-665C-4472-B558-25990E5B148D}" name="Rank+Age =E4+D4" totalsRowFunction="sum" dataDxfId="35" totalsRowDxfId="34">
+    <tableColumn id="1" xr3:uid="{C4EE018E-238B-42BA-9035-DB01FA5420D3}" name="Name" totalsRowLabel="Total" dataDxfId="14" totalsRowDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{C1F6911F-9482-4C98-BBFB-21D9CAA66DA4}" name="Age" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{3CE9F5DA-0A57-4696-B4E0-53601C3B7798}" name="Rank" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{34912838-665C-4472-B558-25990E5B148D}" name="Rank+Age =E4+D4" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="9">
       <calculatedColumnFormula>Table3[[#This Row],[Rank]]+Table3[[#This Row],[Age]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{89D90022-7073-4067-BAF8-1587D27C4AFB}" name="Data =SUM(E4:E5)" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="32">
+    <tableColumn id="7" xr3:uid="{89D90022-7073-4067-BAF8-1587D27C4AFB}" name="Data =SUM(E4:E5)" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="7">
       <calculatedColumnFormula>SUM(Table3[Rank])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{B2A7E5BB-A379-492B-9484-72F2FD1FF3A0}" name="All =SUM(E3:E6)" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="30">
+    <tableColumn id="8" xr3:uid="{B2A7E5BB-A379-492B-9484-72F2FD1FF3A0}" name="All =SUM(E3:E6)" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="5">
       <calculatedColumnFormula>SUM(Table3[[#All],[Rank]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{3C532A69-E4BC-4A20-A922-4BCAA0D3FEC9}" name="Totals =E6" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="28">
+    <tableColumn id="9" xr3:uid="{3C532A69-E4BC-4A20-A922-4BCAA0D3FEC9}" name="Totals =E6" totalsRowFunction="sum" dataDxfId="2" totalsRowDxfId="3">
       <calculatedColumnFormula>Table3[[#Totals],[Rank]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{35E9E9C3-9148-468A-85B6-19290CEB6F00}" name="Headers =E3" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="26">
+    <tableColumn id="10" xr3:uid="{35E9E9C3-9148-468A-85B6-19290CEB6F00}" name="Headers =E3" totalsRowFunction="sum" dataDxfId="0" totalsRowDxfId="1">
       <calculatedColumnFormula>Table3[[#Headers],[Rank]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7859,9 +7862,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7899,7 +7902,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -8005,7 +8008,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8147,7 +8150,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8164,7 +8167,7 @@
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="22.28515625" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
@@ -8173,7 +8176,7 @@
     <col min="6" max="26" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="38.25" customHeight="1">
       <c r="A1" s="21"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -8182,7 +8185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="27.75">
       <c r="B2" s="22" t="s">
         <v>2</v>
       </c>
@@ -8195,25 +8198,25 @@
       <c r="H2" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="119"/>
+      <c r="I2" s="123"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="17.25" customHeight="1">
       <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="117">
         <v>8</v>
       </c>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="120">
+      <c r="K3" s="119">
         <v>5</v>
       </c>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="17.25" customHeight="1">
       <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
@@ -8226,50 +8229,50 @@
       <c r="G4" s="117">
         <v>9</v>
       </c>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="121"/>
+      <c r="K4" s="120"/>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="17.25" customHeight="1">
       <c r="C5" s="117">
         <v>42</v>
       </c>
       <c r="G5" s="117">
         <v>15</v>
       </c>
-      <c r="H5" s="119"/>
-      <c r="I5" s="119"/>
+      <c r="H5" s="123"/>
+      <c r="I5" s="123"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="121"/>
+      <c r="K5" s="120"/>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="17.25" customHeight="1">
       <c r="G6" s="117">
         <v>22</v>
       </c>
       <c r="J6" s="5"/>
-      <c r="K6" s="121"/>
+      <c r="K6" s="120"/>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="17.25" customHeight="1">
       <c r="C7" s="117">
         <v>3</v>
       </c>
       <c r="J7" s="5"/>
-      <c r="K7" s="121"/>
+      <c r="K7" s="120"/>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="17.25" customHeight="1">
       <c r="G8" s="117">
         <v>30</v>
       </c>
       <c r="J8" s="5"/>
-      <c r="K8" s="122"/>
+      <c r="K8" s="121"/>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="17.25" customHeight="1">
       <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
@@ -8279,7 +8282,7 @@
       </c>
       <c r="K9" s="10"/>
     </row>
-    <row r="10" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="17.25" customHeight="1">
       <c r="C10" s="117">
         <f>SUM(C4:C7)</f>
         <v>57.4</v>
@@ -8288,13 +8291,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="17.25" customHeight="1">
       <c r="C11" s="117">
         <f>-(3+C7*SUM(C4:C7))</f>
         <v>-175.2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="17.25" customHeight="1">
       <c r="C12" s="117">
         <f>SUM(C9:C11)</f>
         <v>-63.399999999999991</v>
@@ -8303,13 +8306,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="17.25" customHeight="1">
       <c r="G13" s="117">
         <f>A1+A2+A3+A4+A5+A6+A7+A8+A9+A10+A11+A12+A13+A14+A15+A16+A17+A18</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="17.25" customHeight="1">
       <c r="B14" s="11" t="s">
         <v>11</v>
       </c>
@@ -8318,32 +8321,32 @@
         <v>#CYCLE</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="17.25" customHeight="1">
       <c r="C15" s="117" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="17.25" customHeight="1">
       <c r="C16" s="117" t="str">
         <f>C15</f>
         <v>=(+</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="17.25" customHeight="1">
       <c r="C17" s="117" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="17.25" customHeight="1">
       <c r="C18" s="117" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="17.25" customHeight="1">
       <c r="E19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="17.25" customHeight="1">
       <c r="B20" s="5"/>
       <c r="C20" s="6" t="s">
         <v>15</v>
@@ -8357,7 +8360,7 @@
       </c>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="17.25" customHeight="1">
       <c r="A21" s="13" t="s">
         <v>18</v>
       </c>
@@ -8367,7 +8370,7 @@
       </c>
       <c r="G21" s="10"/>
     </row>
-    <row r="23" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="17.25" customHeight="1">
       <c r="A23" s="13" t="s">
         <v>19</v>
       </c>
@@ -8381,7 +8384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="17.25" customHeight="1">
       <c r="C24" s="16">
         <v>10</v>
       </c>
@@ -8392,7 +8395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="17.25" customHeight="1">
       <c r="C25" s="16">
         <v>10.122999999999999</v>
       </c>
@@ -8403,7 +8406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="17.25" customHeight="1">
       <c r="B26" s="117" t="s">
         <v>20</v>
       </c>
@@ -8417,7 +8420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="17.25" customHeight="1">
       <c r="A27" s="117" t="s">
         <v>22</v>
       </c>
@@ -8434,7 +8437,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="17.25" customHeight="1">
       <c r="A28" s="117" t="s">
         <v>23</v>
       </c>
@@ -8451,7 +8454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="17.25" customHeight="1">
       <c r="A29" s="117" t="s">
         <v>24</v>
       </c>
@@ -8468,7 +8471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="17.25" customHeight="1">
       <c r="A30" s="117" t="s">
         <v>25</v>
       </c>
@@ -8485,7 +8488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="17.25" customHeight="1">
       <c r="A31" s="117" t="s">
         <v>26</v>
       </c>
@@ -8502,7 +8505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="17.25" customHeight="1">
       <c r="A32" s="117" t="s">
         <v>27</v>
       </c>
@@ -8519,7 +8522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="17.25" customHeight="1">
       <c r="A33" s="117" t="s">
         <v>28</v>
       </c>
@@ -8536,7 +8539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="17.25" customHeight="1">
       <c r="A34" s="117" t="s">
         <v>29</v>
       </c>
@@ -8547,7 +8550,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="17.25" customHeight="1">
       <c r="A35" s="117" t="s">
         <v>30</v>
       </c>
@@ -8564,7 +8567,7 @@
     <mergeCell ref="K3:K8"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:C100 B21">
-    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="1" operator="equal">
       <formula>42</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8614,7 +8617,7 @@
       <selection sqref="A1:N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8626,12 +8629,12 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
       <selection pane="topRight" activeCell="H9" sqref="H9"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8645,7 +8648,7 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="65.140625" customWidth="1"/>
     <col min="2" max="26" width="13.7109375" customWidth="1"/>
@@ -8665,7 +8668,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8676,11 +8679,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025F2510-D243-4DA1-81DE-BBDDA9BC3681}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="3" max="4" width="14.28515625" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" customWidth="1"/>
@@ -8689,36 +8692,36 @@
     <col min="9" max="9" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="114" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B1" s="115" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C1" s="115" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D1" s="115" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E1" s="115" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F1" s="115" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G1" s="115" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H1" s="115" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="I1" s="116" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="104">
         <v>4</v>
       </c>
@@ -8729,7 +8732,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="105" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E2" s="106">
         <v>45575</v>
@@ -8738,7 +8741,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="G2" s="107" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H2" s="106">
         <v>45292</v>
@@ -8747,7 +8750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="104">
         <v>3</v>
       </c>
@@ -8758,7 +8761,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="105" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E3" s="106">
         <v>45576</v>
@@ -8767,16 +8770,16 @@
         <v>0.57638888888888884</v>
       </c>
       <c r="G3" s="107" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H3" s="106">
         <v>45231</v>
       </c>
       <c r="I3" s="108" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="104">
         <v>9</v>
       </c>
@@ -8787,7 +8790,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="105" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E4" s="106">
         <v>45574</v>
@@ -8796,7 +8799,7 @@
         <v>0.73958333333333337</v>
       </c>
       <c r="G4" s="107" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H4" s="106">
         <v>45325</v>
@@ -8805,7 +8808,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="104">
         <v>5</v>
       </c>
@@ -8816,7 +8819,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="105" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E5" s="106">
         <v>45573</v>
@@ -8825,7 +8828,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="G5" s="105" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H5" s="106">
         <v>45084</v>
@@ -8834,7 +8837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="109">
         <v>7</v>
       </c>
@@ -8845,7 +8848,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="110" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E6" s="111">
         <v>45566</v>
@@ -8854,13 +8857,13 @@
         <v>0.5229166666666667</v>
       </c>
       <c r="G6" s="110" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H6" s="111">
         <v>45420</v>
       </c>
       <c r="I6" s="113" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -8912,12 +8915,12 @@
       <selection activeCell="G115" sqref="G115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="26" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="17.25" customHeight="1">
       <c r="A1" s="117" t="s">
         <v>31</v>
       </c>
@@ -8952,7 +8955,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="17.25" customHeight="1">
       <c r="A2" s="117" t="s">
         <v>41</v>
       </c>
@@ -8998,7 +9001,7 @@
         <v>1230.7</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="17.25" customHeight="1">
       <c r="A3" s="117" t="s">
         <v>43</v>
       </c>
@@ -9044,7 +9047,7 @@
         <v>1217.7</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="17.25" customHeight="1">
       <c r="A4" s="117" t="s">
         <v>45</v>
       </c>
@@ -9090,7 +9093,7 @@
         <v>1230.7</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="17.25" customHeight="1">
       <c r="A5" s="117" t="s">
         <v>47</v>
       </c>
@@ -9136,7 +9139,7 @@
         <v>1246.7</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="17.25" customHeight="1">
       <c r="A6" s="117" t="s">
         <v>49</v>
       </c>
@@ -9182,7 +9185,7 @@
         <v>1213.7</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="17.25" customHeight="1">
       <c r="A7" s="117" t="s">
         <v>52</v>
       </c>
@@ -9216,7 +9219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="17.25" customHeight="1">
       <c r="A8" s="117" t="s">
         <v>54</v>
       </c>
@@ -9250,7 +9253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" ht="17.25" customHeight="1">
       <c r="A9" s="117" t="s">
         <v>56</v>
       </c>
@@ -9281,7 +9284,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="17.25" customHeight="1">
       <c r="A10" s="117" t="s">
         <v>58</v>
       </c>
@@ -9297,7 +9300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" ht="17.25" customHeight="1">
       <c r="A11" s="117" t="s">
         <v>59</v>
       </c>
@@ -9316,7 +9319,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" ht="17.25" customHeight="1">
       <c r="A12" s="117" t="s">
         <v>61</v>
       </c>
@@ -9347,7 +9350,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" ht="17.25" customHeight="1">
       <c r="A13" s="117" t="s">
         <v>62</v>
       </c>
@@ -9378,7 +9381,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" ht="17.25" customHeight="1">
       <c r="A14" s="117" t="s">
         <v>67</v>
       </c>
@@ -9394,7 +9397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" ht="17.25" customHeight="1">
       <c r="A15" s="117" t="s">
         <v>68</v>
       </c>
@@ -9410,7 +9413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" ht="17.25" customHeight="1">
       <c r="A16" s="117" t="s">
         <v>69</v>
       </c>
@@ -9426,7 +9429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="17.25" customHeight="1">
       <c r="A17" s="117" t="s">
         <v>70</v>
       </c>
@@ -9442,7 +9445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="17.25" customHeight="1">
       <c r="A18" s="117" t="s">
         <v>71</v>
       </c>
@@ -9458,7 +9461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="17.25" customHeight="1">
       <c r="A19" s="117" t="s">
         <v>72</v>
       </c>
@@ -9474,7 +9477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="17.25" customHeight="1">
       <c r="A20" s="117" t="s">
         <v>73</v>
       </c>
@@ -9490,7 +9493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="17.25" customHeight="1">
       <c r="A21" s="117" t="s">
         <v>74</v>
       </c>
@@ -9506,7 +9509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="17.25" customHeight="1">
       <c r="A22" s="117" t="s">
         <v>76</v>
       </c>
@@ -9522,7 +9525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="17.25" customHeight="1">
       <c r="A23" s="117" t="s">
         <v>77</v>
       </c>
@@ -9538,7 +9541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="17.25" customHeight="1">
       <c r="A24" s="117" t="s">
         <v>78</v>
       </c>
@@ -9555,7 +9558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="17.25" customHeight="1">
       <c r="A25" s="117" t="s">
         <v>79</v>
       </c>
@@ -9571,7 +9574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="17.25" customHeight="1">
       <c r="A26" s="117" t="s">
         <v>81</v>
       </c>
@@ -9587,7 +9590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="17.25" customHeight="1">
       <c r="A27" s="117" t="s">
         <v>82</v>
       </c>
@@ -9603,7 +9606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="17.25" customHeight="1">
       <c r="A28" s="117" t="s">
         <v>83</v>
       </c>
@@ -9620,7 +9623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="17.25" customHeight="1">
       <c r="A29" s="117" t="s">
         <v>84</v>
       </c>
@@ -9636,7 +9639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="17.25" customHeight="1">
       <c r="A30" s="117" t="s">
         <v>85</v>
       </c>
@@ -9652,7 +9655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="17.25" customHeight="1">
       <c r="A31" s="117" t="s">
         <v>86</v>
       </c>
@@ -9668,7 +9671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="17.25" customHeight="1">
       <c r="A32" s="117" t="s">
         <v>87</v>
       </c>
@@ -9684,7 +9687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="17.25" customHeight="1">
       <c r="A33" s="117" t="s">
         <v>88</v>
       </c>
@@ -9700,7 +9703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="17.25" customHeight="1">
       <c r="A34" s="117" t="s">
         <v>89</v>
       </c>
@@ -9716,7 +9719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="17.25" customHeight="1">
       <c r="A35" s="117" t="s">
         <v>90</v>
       </c>
@@ -9732,7 +9735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="17.25" customHeight="1">
       <c r="A36" s="117" t="s">
         <v>91</v>
       </c>
@@ -9748,7 +9751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="17.25" customHeight="1">
       <c r="A37" s="117" t="s">
         <v>92</v>
       </c>
@@ -9764,7 +9767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="17.25" customHeight="1">
       <c r="A38" s="117" t="s">
         <v>93</v>
       </c>
@@ -9781,7 +9784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="17.25" customHeight="1">
       <c r="A39" s="117" t="s">
         <v>94</v>
       </c>
@@ -9797,7 +9800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="17.25" customHeight="1">
       <c r="A40" s="117" t="s">
         <v>95</v>
       </c>
@@ -9813,7 +9816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="17.25" customHeight="1">
       <c r="A41" s="117" t="s">
         <v>96</v>
       </c>
@@ -9829,7 +9832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="17.25" customHeight="1">
       <c r="A42" s="117" t="s">
         <v>97</v>
       </c>
@@ -9845,7 +9848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="17.25" customHeight="1">
       <c r="A43" s="117" t="s">
         <v>98</v>
       </c>
@@ -9861,7 +9864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="17.25" customHeight="1">
       <c r="A44" s="117" t="s">
         <v>99</v>
       </c>
@@ -9877,7 +9880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="17.25" customHeight="1">
       <c r="A45" s="117" t="s">
         <v>100</v>
       </c>
@@ -9893,7 +9896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="17.25" customHeight="1">
       <c r="A46" s="117" t="s">
         <v>101</v>
       </c>
@@ -9909,7 +9912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="17.25" customHeight="1">
       <c r="A47" s="117" t="s">
         <v>102</v>
       </c>
@@ -9925,7 +9928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="17.25" customHeight="1">
       <c r="A48" s="117" t="s">
         <v>103</v>
       </c>
@@ -9941,7 +9944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="17.25" customHeight="1">
       <c r="A49" s="117" t="s">
         <v>104</v>
       </c>
@@ -9957,7 +9960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="17.25" customHeight="1">
       <c r="A50" s="117" t="s">
         <v>105</v>
       </c>
@@ -9974,7 +9977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" ht="17.25" customHeight="1">
       <c r="A51" s="117" t="s">
         <v>106</v>
       </c>
@@ -9991,7 +9994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="17.25" customHeight="1">
       <c r="A52" s="117" t="s">
         <v>107</v>
       </c>
@@ -10007,7 +10010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" ht="17.25" customHeight="1">
       <c r="A53" s="117" t="s">
         <v>108</v>
       </c>
@@ -10023,7 +10026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" ht="17.25" customHeight="1">
       <c r="A54" s="117" t="s">
         <v>109</v>
       </c>
@@ -10039,7 +10042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" ht="17.25" customHeight="1">
       <c r="A55" s="117" t="s">
         <v>110</v>
       </c>
@@ -10055,7 +10058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" ht="17.25" customHeight="1">
       <c r="A56" s="117" t="s">
         <v>111</v>
       </c>
@@ -10071,7 +10074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" ht="17.25" customHeight="1">
       <c r="A57" s="117" t="s">
         <v>112</v>
       </c>
@@ -10087,7 +10090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" ht="17.25" customHeight="1">
       <c r="A58" s="117" t="s">
         <v>113</v>
       </c>
@@ -10103,7 +10106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" ht="17.25" customHeight="1">
       <c r="A59" s="117" t="s">
         <v>114</v>
       </c>
@@ -10119,7 +10122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" ht="17.25" customHeight="1">
       <c r="A60" s="117" t="s">
         <v>115</v>
       </c>
@@ -10135,7 +10138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" ht="17.25" customHeight="1">
       <c r="A61" s="117" t="s">
         <v>116</v>
       </c>
@@ -10151,7 +10154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" ht="17.25" customHeight="1">
       <c r="A62" s="117" t="s">
         <v>117</v>
       </c>
@@ -10167,7 +10170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" ht="17.25" customHeight="1">
       <c r="A63" s="117" t="s">
         <v>118</v>
       </c>
@@ -10183,7 +10186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" ht="17.25" customHeight="1">
       <c r="A64" s="117" t="s">
         <v>119</v>
       </c>
@@ -10199,7 +10202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" ht="17.25" customHeight="1">
       <c r="A65" s="117" t="s">
         <v>120</v>
       </c>
@@ -10215,7 +10218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" ht="17.25" customHeight="1">
       <c r="A66" s="117" t="s">
         <v>121</v>
       </c>
@@ -10231,7 +10234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" ht="17.25" customHeight="1">
       <c r="A67" s="117" t="s">
         <v>122</v>
       </c>
@@ -10247,7 +10250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" ht="17.25" customHeight="1">
       <c r="A68" s="117" t="s">
         <v>123</v>
       </c>
@@ -10263,7 +10266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" ht="17.25" customHeight="1">
       <c r="A69" s="117" t="s">
         <v>125</v>
       </c>
@@ -10279,7 +10282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" ht="17.25" customHeight="1">
       <c r="A70" s="117" t="s">
         <v>127</v>
       </c>
@@ -10295,7 +10298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" ht="17.25" customHeight="1">
       <c r="A71" s="117" t="s">
         <v>129</v>
       </c>
@@ -10311,7 +10314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" ht="17.25" customHeight="1">
       <c r="A72" s="117" t="s">
         <v>130</v>
       </c>
@@ -10327,7 +10330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" ht="17.25" customHeight="1">
       <c r="A73" s="117" t="s">
         <v>131</v>
       </c>
@@ -10343,7 +10346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" ht="17.25" customHeight="1">
       <c r="A74" s="117" t="s">
         <v>132</v>
       </c>
@@ -10359,7 +10362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" ht="17.25" customHeight="1">
       <c r="A75" s="117" t="s">
         <v>133</v>
       </c>
@@ -10375,7 +10378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" ht="17.25" customHeight="1">
       <c r="A76" s="117" t="s">
         <v>134</v>
       </c>
@@ -10391,7 +10394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" ht="17.25" customHeight="1">
       <c r="A77" s="117" t="s">
         <v>135</v>
       </c>
@@ -10407,7 +10410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" ht="17.25" customHeight="1">
       <c r="A78" s="117" t="s">
         <v>136</v>
       </c>
@@ -10423,7 +10426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" ht="17.25" customHeight="1">
       <c r="A79" s="117" t="s">
         <v>137</v>
       </c>
@@ -10439,7 +10442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" ht="17.25" customHeight="1">
       <c r="A80" s="117" t="s">
         <v>138</v>
       </c>
@@ -10455,7 +10458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" ht="17.25" customHeight="1">
       <c r="A81" s="117" t="s">
         <v>139</v>
       </c>
@@ -10471,7 +10474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" ht="17.25" customHeight="1">
       <c r="A82" s="117" t="s">
         <v>141</v>
       </c>
@@ -10487,7 +10490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" ht="17.25" customHeight="1">
       <c r="A83" s="117" t="s">
         <v>142</v>
       </c>
@@ -10503,7 +10506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" ht="17.25" customHeight="1">
       <c r="A84" s="117" t="s">
         <v>143</v>
       </c>
@@ -10519,7 +10522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" ht="17.25" customHeight="1">
       <c r="A85" s="117" t="s">
         <v>144</v>
       </c>
@@ -10535,7 +10538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" ht="17.25" customHeight="1">
       <c r="A86" s="117" t="s">
         <v>146</v>
       </c>
@@ -10551,7 +10554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" ht="17.25" customHeight="1">
       <c r="A87" s="117" t="s">
         <v>147</v>
       </c>
@@ -10567,7 +10570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" ht="17.25" customHeight="1">
       <c r="A88" s="117" t="s">
         <v>148</v>
       </c>
@@ -10583,7 +10586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" ht="17.25" customHeight="1">
       <c r="A89" s="117" t="s">
         <v>149</v>
       </c>
@@ -10599,7 +10602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" ht="17.25" customHeight="1">
       <c r="A90" s="117" t="s">
         <v>150</v>
       </c>
@@ -10615,7 +10618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" ht="17.25" customHeight="1">
       <c r="A91" s="117" t="s">
         <v>151</v>
       </c>
@@ -10631,7 +10634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" ht="17.25" customHeight="1">
       <c r="A92" s="117" t="s">
         <v>152</v>
       </c>
@@ -10647,7 +10650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" ht="17.25" customHeight="1">
       <c r="A93" s="117" t="s">
         <v>153</v>
       </c>
@@ -10663,7 +10666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" ht="17.25" customHeight="1">
       <c r="A94" s="117" t="s">
         <v>154</v>
       </c>
@@ -10679,7 +10682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" ht="17.25" customHeight="1">
       <c r="A95" s="117" t="s">
         <v>155</v>
       </c>
@@ -10695,7 +10698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" ht="17.25" customHeight="1">
       <c r="A96" s="117" t="s">
         <v>156</v>
       </c>
@@ -10711,7 +10714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" ht="17.25" customHeight="1">
       <c r="A97" s="117" t="s">
         <v>157</v>
       </c>
@@ -10727,7 +10730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" ht="17.25" customHeight="1">
       <c r="A98" s="117" t="s">
         <v>158</v>
       </c>
@@ -10743,7 +10746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" ht="17.25" customHeight="1">
       <c r="A99" s="117" t="s">
         <v>159</v>
       </c>
@@ -10759,20 +10762,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" ht="17.25" customHeight="1">
       <c r="A100" s="117" t="s">
         <v>160</v>
       </c>
       <c r="B100" s="19">
         <f ca="1">NOW()</f>
-        <v>45594.46900636574</v>
+        <v>45663.51402037037</v>
       </c>
       <c r="D100" s="117">
         <f ca="1">IF(ISNUMBER(B100),1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" ht="17.25" customHeight="1">
       <c r="A101" s="117" t="s">
         <v>161</v>
       </c>
@@ -10788,7 +10791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" ht="17.25" customHeight="1">
       <c r="A102" s="117" t="s">
         <v>162</v>
       </c>
@@ -10804,7 +10807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" ht="17.25" customHeight="1">
       <c r="A103" s="117" t="s">
         <v>163</v>
       </c>
@@ -10820,7 +10823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" ht="17.25" customHeight="1">
       <c r="A104" s="117" t="s">
         <v>164</v>
       </c>
@@ -10836,7 +10839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" ht="17.25" customHeight="1">
       <c r="A105" s="117" t="s">
         <v>165</v>
       </c>
@@ -10852,7 +10855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" ht="17.25" customHeight="1">
       <c r="A106" s="117" t="s">
         <v>166</v>
       </c>
@@ -10868,7 +10871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" ht="17.25" customHeight="1">
       <c r="A107" s="117" t="s">
         <v>167</v>
       </c>
@@ -10884,7 +10887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" ht="17.25" customHeight="1">
       <c r="A108" s="117" t="s">
         <v>168</v>
       </c>
@@ -10900,7 +10903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" ht="17.25" customHeight="1">
       <c r="A109" s="117" t="s">
         <v>169</v>
       </c>
@@ -10916,7 +10919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" ht="17.25" customHeight="1">
       <c r="A110" s="117" t="s">
         <v>170</v>
       </c>
@@ -10932,7 +10935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" ht="17.25" customHeight="1">
       <c r="A111" s="117" t="s">
         <v>171</v>
       </c>
@@ -10948,12 +10951,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" ht="17.25" customHeight="1">
       <c r="A112" s="117"/>
       <c r="B112" s="117"/>
       <c r="D112" s="117"/>
     </row>
-    <row r="113" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" ht="17.25" customHeight="1">
       <c r="A113" s="117" t="s">
         <v>172</v>
       </c>
@@ -10969,7 +10972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" ht="17.25" customHeight="1">
       <c r="A114" s="117" t="s">
         <v>173</v>
       </c>
@@ -10985,7 +10988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" ht="17.25" customHeight="1">
       <c r="A115" s="117" t="s">
         <v>175</v>
       </c>
@@ -11001,7 +11004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" ht="17.25" customHeight="1">
       <c r="A116" s="117" t="s">
         <v>177</v>
       </c>
@@ -11017,7 +11020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" ht="17.25" customHeight="1">
       <c r="A117" s="117" t="s">
         <v>178</v>
       </c>
@@ -11033,7 +11036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" ht="17.25" customHeight="1">
       <c r="A118" s="117" t="s">
         <v>179</v>
       </c>
@@ -11049,7 +11052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" ht="17.25" customHeight="1">
       <c r="A119" s="117" t="s">
         <v>180</v>
       </c>
@@ -11065,7 +11068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" ht="17.25" customHeight="1">
       <c r="A120" s="117" t="s">
         <v>181</v>
       </c>
@@ -11081,7 +11084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" ht="17.25" customHeight="1">
       <c r="A121" s="117" t="s">
         <v>182</v>
       </c>
@@ -11097,7 +11100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" ht="17.25" customHeight="1">
       <c r="A122" s="117" t="s">
         <v>183</v>
       </c>
@@ -11113,7 +11116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" ht="17.25" customHeight="1">
       <c r="A123" s="117" t="s">
         <v>184</v>
       </c>
@@ -11129,7 +11132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" ht="17.25" customHeight="1">
       <c r="A124" s="117" t="s">
         <v>185</v>
       </c>
@@ -11145,7 +11148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" ht="17.25" customHeight="1">
       <c r="A125" s="117" t="s">
         <v>186</v>
       </c>
@@ -11161,7 +11164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" ht="17.25" customHeight="1">
       <c r="A126" s="117" t="s">
         <v>187</v>
       </c>
@@ -11177,7 +11180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" ht="17.25" customHeight="1">
       <c r="A127" s="117" t="s">
         <v>188</v>
       </c>
@@ -11193,7 +11196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" ht="17.25" customHeight="1">
       <c r="A128" s="117" t="s">
         <v>189</v>
       </c>
@@ -11209,7 +11212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" ht="17.25" customHeight="1">
       <c r="A129" s="117" t="s">
         <v>190</v>
       </c>
@@ -11225,7 +11228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" ht="17.25" customHeight="1">
       <c r="A130" s="117" t="s">
         <v>191</v>
       </c>
@@ -11241,7 +11244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" ht="17.25" customHeight="1">
       <c r="A131" s="117" t="s">
         <v>192</v>
       </c>
@@ -11257,7 +11260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" ht="17.25" customHeight="1">
       <c r="A132" s="117" t="s">
         <v>193</v>
       </c>
@@ -11273,7 +11276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" ht="17.25" customHeight="1">
       <c r="A133" s="117" t="s">
         <v>194</v>
       </c>
@@ -11289,7 +11292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" ht="17.25" customHeight="1">
       <c r="A134" s="117" t="s">
         <v>195</v>
       </c>
@@ -11305,7 +11308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" ht="17.25" customHeight="1">
       <c r="A135" s="117" t="s">
         <v>196</v>
       </c>
@@ -11321,7 +11324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" ht="17.25" customHeight="1">
       <c r="A136" s="117" t="s">
         <v>198</v>
       </c>
@@ -11337,7 +11340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" ht="17.25" customHeight="1">
       <c r="A137" s="117" t="s">
         <v>199</v>
       </c>
@@ -11353,7 +11356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" ht="17.25" customHeight="1">
       <c r="A138" s="117" t="s">
         <v>200</v>
       </c>
@@ -11369,7 +11372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" ht="17.25" customHeight="1">
       <c r="A139" s="117" t="s">
         <v>201</v>
       </c>
@@ -11385,7 +11388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" ht="17.25" customHeight="1">
       <c r="A140" s="117" t="s">
         <v>202</v>
       </c>
@@ -11401,7 +11404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" ht="17.25" customHeight="1">
       <c r="A141" s="117" t="s">
         <v>203</v>
       </c>
@@ -11417,7 +11420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" ht="17.25" customHeight="1">
       <c r="A142" s="117" t="s">
         <v>205</v>
       </c>
@@ -11433,7 +11436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" ht="17.25" customHeight="1">
       <c r="A143" s="117" t="s">
         <v>206</v>
       </c>
@@ -11449,20 +11452,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" ht="17.25" customHeight="1">
       <c r="A144" s="117" t="s">
         <v>207</v>
       </c>
       <c r="B144" s="18">
         <f ca="1">TODAY()</f>
-        <v>45594</v>
+        <v>45663</v>
       </c>
       <c r="D144" s="117">
         <f ca="1">IF(ISNUMBER(B144),1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" ht="17.25" customHeight="1">
       <c r="A145" s="117" t="s">
         <v>208</v>
       </c>
@@ -11478,7 +11481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" ht="17.25" customHeight="1">
       <c r="A146" s="117" t="s">
         <v>210</v>
       </c>
@@ -11494,7 +11497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" ht="17.25" customHeight="1">
       <c r="A147" s="117" t="s">
         <v>211</v>
       </c>
@@ -11510,7 +11513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" ht="17.25" customHeight="1">
       <c r="A148" s="117" t="s">
         <v>213</v>
       </c>
@@ -11526,7 +11529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" ht="17.25" customHeight="1">
       <c r="A149" s="117" t="s">
         <v>214</v>
       </c>
@@ -11542,7 +11545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" ht="17.25" customHeight="1">
       <c r="A150" s="117" t="s">
         <v>215</v>
       </c>
@@ -11558,7 +11561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" ht="17.25" customHeight="1">
       <c r="A151" s="117" t="s">
         <v>216</v>
       </c>
@@ -11574,7 +11577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" ht="17.25" customHeight="1">
       <c r="A152" s="117" t="s">
         <v>217</v>
       </c>
@@ -11590,7 +11593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" ht="17.25" customHeight="1">
       <c r="A153" s="117" t="s">
         <v>218</v>
       </c>
@@ -11606,7 +11609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" ht="17.25" customHeight="1">
       <c r="A154" s="117" t="s">
         <v>219</v>
       </c>
@@ -11623,7 +11626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" ht="17.25" customHeight="1">
       <c r="A155" s="117" t="s">
         <v>220</v>
       </c>
@@ -11639,7 +11642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" ht="17.25" customHeight="1">
       <c r="A156" s="117" t="s">
         <v>221</v>
       </c>
@@ -11655,7 +11658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" ht="17.25" customHeight="1">
       <c r="A157" s="117" t="s">
         <v>222</v>
       </c>
@@ -11671,7 +11674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" ht="17.25" customHeight="1">
       <c r="A158" s="117" t="s">
         <v>223</v>
       </c>
@@ -11687,7 +11690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" ht="17.25" customHeight="1">
       <c r="A159" s="117" t="s">
         <v>224</v>
       </c>
@@ -11703,7 +11706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" ht="17.25" customHeight="1">
       <c r="A160" s="117" t="s">
         <v>225</v>
       </c>
@@ -11719,7 +11722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" ht="17.25" customHeight="1">
       <c r="A161" s="117" t="s">
         <v>226</v>
       </c>
@@ -11735,7 +11738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" ht="17.25" customHeight="1">
       <c r="A162" s="117" t="s">
         <v>227</v>
       </c>
@@ -11751,7 +11754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" ht="17.25" customHeight="1">
       <c r="A163" s="117" t="s">
         <v>229</v>
       </c>
@@ -11769,10 +11772,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D180">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11792,7 +11795,7 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelRow="2" outlineLevelCol="2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" customWidth="1"/>
@@ -11802,17 +11805,17 @@
     <col min="15" max="18" width="9.140625" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>230</v>
       </c>
       <c r="C1" t="s">
         <v>231</v>
       </c>
-      <c r="D1" s="123" t="s">
+      <c r="D1" s="122" t="s">
         <v>232</v>
       </c>
-      <c r="E1" s="123"/>
+      <c r="E1" s="122"/>
       <c r="F1" t="s">
         <v>233</v>
       </c>
@@ -11820,19 +11823,19 @@
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2">
         <f>SUM(A1)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
       <c r="H2" t="str">
         <f>[1]Feuil1!$A$1</f>
         <v>referenced string</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="D3" s="85" t="s">
         <v>235</v>
       </c>
@@ -11840,25 +11843,25 @@
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" hidden="1">
       <c r="A4" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="75" customHeight="1">
       <c r="A5" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="10" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:8" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="17" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="18" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:8" outlineLevel="1"/>
+    <row r="11" spans="1:8" outlineLevel="1"/>
+    <row r="12" spans="1:8" hidden="1" outlineLevel="2"/>
+    <row r="13" spans="1:8" hidden="1" outlineLevel="2"/>
+    <row r="14" spans="1:8" hidden="1" outlineLevel="2"/>
+    <row r="15" spans="1:8" outlineLevel="1" collapsed="1"/>
+    <row r="16" spans="1:8" outlineLevel="1"/>
+    <row r="17" outlineLevel="1"/>
+    <row r="18" outlineLevel="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D1:E2"/>
@@ -11880,14 +11883,14 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" customWidth="1"/>
     <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="13.5" thickBot="1">
       <c r="A1" s="68" t="s">
         <v>239</v>
       </c>
@@ -11909,7 +11912,7 @@
       </c>
       <c r="M1" s="36"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" s="40" t="s">
         <v>245</v>
       </c>
@@ -11935,7 +11938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" s="41" t="s">
         <v>252</v>
       </c>
@@ -11958,7 +11961,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="15">
       <c r="A4" s="42" t="s">
         <v>256</v>
       </c>
@@ -11984,7 +11987,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" s="43" t="s">
         <v>262</v>
       </c>
@@ -12004,7 +12007,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" s="44" t="s">
         <v>266</v>
       </c>
@@ -12027,7 +12030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="15.75">
       <c r="A7" s="45" t="s">
         <v>271</v>
       </c>
@@ -12047,7 +12050,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="21">
       <c r="A8" s="46" t="s">
         <v>275</v>
       </c>
@@ -12070,7 +12073,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" s="47" t="s">
         <v>280</v>
       </c>
@@ -12087,7 +12090,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" s="48" t="s">
         <v>283</v>
       </c>
@@ -12095,7 +12098,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="13.5" thickBot="1">
       <c r="A11" s="49" t="s">
         <v>285</v>
       </c>
@@ -12104,7 +12107,7 @@
       </c>
       <c r="F11" s="36"/>
     </row>
-    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="18.75" customHeight="1">
       <c r="A12" s="50" t="s">
         <v>287</v>
       </c>
@@ -12118,7 +12121,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="18.75" customHeight="1" thickBot="1">
       <c r="A13" s="51" t="s">
         <v>290</v>
       </c>
@@ -12129,7 +12132,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="18.75" customHeight="1" thickBot="1">
       <c r="A14" s="52" t="s">
         <v>291</v>
       </c>
@@ -12143,7 +12146,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="18.75" customHeight="1" thickBot="1">
       <c r="A15" s="53" t="s">
         <v>293</v>
       </c>
@@ -12154,7 +12157,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="19.5" customHeight="1" thickBot="1">
       <c r="A16" s="54" t="s">
         <v>294</v>
       </c>
@@ -12168,12 +12171,12 @@
         <v>248</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="13.5" thickBot="1">
       <c r="A17" s="55" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="13.5" thickBot="1">
       <c r="A18" s="74" t="s">
         <v>297</v>
       </c>
@@ -12185,7 +12188,7 @@
       </c>
       <c r="F18" s="36"/>
     </row>
-    <row r="19" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="13.5" thickBot="1">
       <c r="A19" s="75" t="s">
         <v>300</v>
       </c>
@@ -12196,7 +12199,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="51.75" thickBot="1">
       <c r="A20" s="76" t="s">
         <v>303</v>
       </c>
@@ -12210,12 +12213,12 @@
         <v>302</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="13.5" thickBot="1">
       <c r="A21" s="77" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="13.5" thickBot="1">
       <c r="A22" s="78" t="s">
         <v>307</v>
       </c>
@@ -12224,13 +12227,13 @@
       </c>
       <c r="E22" s="21"/>
     </row>
-    <row r="23" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="13.5" thickBot="1">
       <c r="A23" s="79" t="s">
         <v>309</v>
       </c>
       <c r="E23" s="21"/>
     </row>
-    <row r="24" spans="1:6" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="14.25" thickTop="1" thickBot="1">
       <c r="A24" s="80" t="s">
         <v>310</v>
       </c>
@@ -12239,20 +12242,20 @@
       </c>
       <c r="E24" s="21"/>
     </row>
-    <row r="25" spans="1:6" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:6" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="14.25" thickTop="1" thickBot="1"/>
+    <row r="26" spans="1:6" ht="14.25" thickTop="1" thickBot="1">
       <c r="C26" s="67" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:6" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="14.25" thickTop="1" thickBot="1"/>
+    <row r="28" spans="1:6" ht="14.25" thickTop="1" thickBot="1">
       <c r="C28" s="88" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="13.5" thickTop="1"/>
+    <row r="30" spans="1:6">
       <c r="C30" s="87" t="s">
         <v>314</v>
       </c>
@@ -12271,13 +12274,13 @@
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="19.140625" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="13.5" thickBot="1">
       <c r="A1" s="37" t="s">
         <v>315</v>
       </c>
@@ -12294,7 +12297,7 @@
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="38" t="s">
         <v>319</v>
       </c>
@@ -12317,7 +12320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="38" t="s">
         <v>321</v>
       </c>
@@ -12340,7 +12343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="38" t="s">
         <v>325</v>
       </c>
@@ -12360,7 +12363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="38" t="s">
         <v>328</v>
       </c>
@@ -12384,7 +12387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="38" t="s">
         <v>330</v>
       </c>
@@ -12407,7 +12410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="38" t="s">
         <v>333</v>
       </c>
@@ -12433,7 +12436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="38" t="s">
         <v>337</v>
       </c>
@@ -12444,7 +12447,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="38" t="s">
         <v>339</v>
       </c>
@@ -12453,7 +12456,7 @@
       </c>
       <c r="C9" s="21"/>
     </row>
-    <row r="10" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="13.5" thickBot="1">
       <c r="A10" s="38" t="s">
         <v>340</v>
       </c>
@@ -12471,7 +12474,7 @@
       <c r="I10" s="36"/>
       <c r="J10" s="36"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" s="38" t="s">
         <v>342</v>
       </c>
@@ -12494,13 +12497,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" s="38" t="s">
         <v>344</v>
       </c>
       <c r="B12" s="39">
         <f ca="1">TODAY()</f>
-        <v>45594</v>
+        <v>45663</v>
       </c>
       <c r="C12" s="39">
         <f>DATE(2010,10,2)</f>
@@ -12519,7 +12522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" s="38" t="s">
         <v>346</v>
       </c>
@@ -12542,7 +12545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" s="38" t="s">
         <v>348</v>
       </c>
@@ -12568,7 +12571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" s="38" t="s">
         <v>350</v>
       </c>
@@ -12588,7 +12591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" s="38" t="s">
         <v>352</v>
       </c>
@@ -12611,7 +12614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12">
       <c r="A17" s="38" t="s">
         <v>354</v>
       </c>
@@ -12634,7 +12637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12">
       <c r="A18" s="38" t="s">
         <v>356</v>
       </c>
@@ -12657,7 +12660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12">
       <c r="A19" s="38" t="s">
         <v>358</v>
       </c>
@@ -12680,7 +12683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12">
       <c r="A20" s="38" t="s">
         <v>360</v>
       </c>
@@ -12703,7 +12706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12">
       <c r="A21" s="38" t="s">
         <v>362</v>
       </c>
@@ -12729,7 +12732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12">
       <c r="A22" s="38" t="s">
         <v>364</v>
       </c>
@@ -12755,7 +12758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12">
       <c r="A23" s="38" t="s">
         <v>366</v>
       </c>
@@ -12781,7 +12784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12">
       <c r="G24" s="34" t="s">
         <v>368</v>
       </c>
@@ -12798,7 +12801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12">
       <c r="A25" s="38" t="s">
         <v>369</v>
       </c>
@@ -12824,7 +12827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12">
       <c r="G26" s="34" t="s">
         <v>371</v>
       </c>
@@ -12844,7 +12847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12">
       <c r="A27" s="21" t="s">
         <v>372</v>
       </c>
@@ -12870,7 +12873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12">
       <c r="G28" s="34" t="s">
         <v>374</v>
       </c>
@@ -12890,7 +12893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12">
       <c r="G29" s="34" t="s">
         <v>375</v>
       </c>
@@ -12910,7 +12913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12">
       <c r="G30" s="34" t="s">
         <v>376</v>
       </c>
@@ -12930,7 +12933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="13.5" thickBot="1">
       <c r="G31" s="35" t="s">
         <v>377</v>
       </c>
@@ -12944,7 +12947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12">
       <c r="G32" s="34" t="s">
         <v>378</v>
       </c>
@@ -12958,7 +12961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="7:10">
       <c r="G33" s="34" t="s">
         <v>379</v>
       </c>
@@ -12972,7 +12975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="7:10">
       <c r="G34" s="34" t="s">
         <v>380</v>
       </c>
@@ -12986,7 +12989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="7:10">
       <c r="G35" s="34" t="s">
         <v>381</v>
       </c>
@@ -13000,7 +13003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="7:10">
       <c r="G36" s="34" t="s">
         <v>382</v>
       </c>
@@ -13014,7 +13017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="7:10">
       <c r="G37" s="34" t="s">
         <v>383</v>
       </c>
@@ -13028,110 +13031,110 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="7:10">
       <c r="G39" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="21" type="noConversion"/>
   <conditionalFormatting sqref="B15">
-    <cfRule type="expression" dxfId="22" priority="58">
+    <cfRule type="expression" dxfId="40" priority="58">
       <formula>ODD(B15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B27">
-    <cfRule type="cellIs" dxfId="21" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="46" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C2">
-    <cfRule type="aboveAverage" dxfId="20" priority="114"/>
+    <cfRule type="aboveAverage" dxfId="38" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3">
-    <cfRule type="beginsWith" dxfId="19" priority="73" operator="beginsWith" text="rule">
+    <cfRule type="beginsWith" dxfId="37" priority="73" operator="beginsWith" text="rule">
       <formula>LEFT(B3,LEN("rule"))="rule"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:C4">
-    <cfRule type="containsBlanks" dxfId="18" priority="71">
+    <cfRule type="containsBlanks" dxfId="36" priority="71">
       <formula>LEN(TRIM(B4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="containsErrors" dxfId="17" priority="70">
+    <cfRule type="containsErrors" dxfId="35" priority="70">
       <formula>ISERROR(B5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:C6">
-    <cfRule type="containsText" dxfId="16" priority="69" operator="containsText" text="rule">
+    <cfRule type="containsText" dxfId="34" priority="69" operator="containsText" text="rule">
       <formula>NOT(ISERROR(SEARCH("rule",B6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:C8">
-    <cfRule type="endsWith" dxfId="15" priority="67" operator="endsWith" text="rule">
+    <cfRule type="endsWith" dxfId="33" priority="67" operator="endsWith" text="rule">
       <formula>RIGHT(B8,LEN("rule"))="rule"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:C9">
-    <cfRule type="notContainsBlanks" dxfId="14" priority="66">
+    <cfRule type="notContainsBlanks" dxfId="32" priority="66">
       <formula>LEN(TRIM(B9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:C10">
-    <cfRule type="notContainsErrors" dxfId="13" priority="65">
+    <cfRule type="notContainsErrors" dxfId="31" priority="65">
       <formula>NOT(ISERROR(B10))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11">
-    <cfRule type="notContainsText" dxfId="12" priority="64" operator="notContains" text="rule">
+    <cfRule type="notContainsText" dxfId="30" priority="64" operator="notContains" text="rule">
       <formula>ISERROR(SEARCH("rule",B11))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:C12">
-    <cfRule type="timePeriod" dxfId="11" priority="63" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="29" priority="63" timePeriod="today">
       <formula>FLOOR(B12,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:C13">
-    <cfRule type="top10" dxfId="10" priority="115" rank="1"/>
+    <cfRule type="top10" dxfId="28" priority="115" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:C16">
-    <cfRule type="cellIs" dxfId="9" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="45" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:C17">
-    <cfRule type="cellIs" dxfId="8" priority="56" operator="notEqual">
+    <cfRule type="cellIs" dxfId="26" priority="56" operator="notEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:C18">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="6" operator="greaterThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:C19">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="24" priority="5" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:C20">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="4" operator="lessThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:C21">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="22" priority="3" operator="lessThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:C22">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="between">
       <formula>2</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:C23">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="notBetween">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="notBetween">
       <formula>2</formula>
       <formula>4</formula>
     </cfRule>
@@ -13165,10 +13168,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:D7">
-    <cfRule type="duplicateValues" dxfId="1" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:D14">
-    <cfRule type="uniqueValues" dxfId="0" priority="96"/>
+    <cfRule type="uniqueValues" dxfId="18" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:J2">
     <cfRule type="colorScale" priority="44">
@@ -13596,7 +13599,7 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="3" max="3" width="17.28515625" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" customWidth="1"/>
@@ -13608,12 +13611,12 @@
     <col min="10" max="10" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="15">
       <c r="C3" s="17" t="s">
         <v>35</v>
       </c>
@@ -13639,7 +13642,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="C4" s="117" t="s">
         <v>42</v>
       </c>
@@ -13670,7 +13673,7 @@
         <v>Rank</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="C5" s="117" t="s">
         <v>44</v>
       </c>
@@ -13701,7 +13704,7 @@
         <v>Rank</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="C6" s="117" t="s">
         <v>391</v>
       </c>
@@ -13734,7 +13737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="B8" t="s">
         <v>392</v>
       </c>
@@ -13745,7 +13748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="C9">
         <v>3</v>
       </c>
@@ -13753,7 +13756,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="B11" t="s">
         <v>393</v>
       </c>
@@ -13764,7 +13767,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="C12">
         <v>3</v>
       </c>
@@ -13772,7 +13775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="B14" t="s">
         <v>396</v>
       </c>
@@ -13783,7 +13786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="C15">
         <v>3</v>
       </c>
@@ -13791,7 +13794,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4">
       <c r="B17" t="s">
         <v>397</v>
       </c>
@@ -13802,7 +13805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4">
       <c r="C18">
         <v>3</v>
       </c>
@@ -13810,7 +13813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:4">
       <c r="B20" t="s">
         <v>398</v>
       </c>
@@ -13821,7 +13824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:4">
       <c r="C21">
         <v>3</v>
       </c>
@@ -13829,7 +13832,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:4">
       <c r="B23" t="s">
         <v>399</v>
       </c>
@@ -13840,7 +13843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:4">
       <c r="C24">
         <v>3</v>
       </c>
@@ -13848,7 +13851,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:4">
       <c r="B26" t="s">
         <v>400</v>
       </c>
@@ -13859,7 +13862,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:4">
       <c r="C27">
         <v>3</v>
       </c>
@@ -13867,7 +13870,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:4">
       <c r="C28" t="s">
         <v>391</v>
       </c>
@@ -13876,7 +13879,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:4">
       <c r="B30" t="s">
         <v>401</v>
       </c>
@@ -13887,7 +13890,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="31" spans="2:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:4" hidden="1">
       <c r="C31" t="s">
         <v>404</v>
       </c>
@@ -13895,7 +13898,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:4">
       <c r="C32" t="s">
         <v>405</v>
       </c>
@@ -13903,7 +13906,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2">
       <c r="B34" t="s">
         <v>406</v>
       </c>
@@ -13933,7 +13936,7 @@
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
@@ -13954,7 +13957,7 @@
     <col min="21" max="21" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="15">
       <c r="A1" s="92" t="s">
         <v>407</v>
       </c>
@@ -13964,7 +13967,7 @@
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" s="117"/>
       <c r="B2" s="117"/>
       <c r="C2" s="117"/>
@@ -13972,7 +13975,7 @@
       <c r="E2" s="117"/>
       <c r="F2" s="117"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3" s="117"/>
       <c r="B3" s="117"/>
       <c r="C3" s="89" t="s">
@@ -13982,7 +13985,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" s="117"/>
       <c r="B4" s="117"/>
       <c r="C4" s="89" t="s">
@@ -14016,7 +14019,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" s="117"/>
       <c r="B5" s="117"/>
       <c r="C5" s="90" t="s">
@@ -14029,7 +14032,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6" s="117"/>
       <c r="B6" s="117"/>
       <c r="C6" s="91">
@@ -14042,7 +14045,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7" s="117"/>
       <c r="B7" s="117"/>
       <c r="C7" s="90" t="s">
@@ -14055,7 +14058,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8" s="117"/>
       <c r="B8" s="117"/>
       <c r="C8" s="91">
@@ -14068,7 +14071,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9" s="117"/>
       <c r="B9" s="117"/>
       <c r="C9" s="90" t="s">
@@ -14081,7 +14084,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10" s="117"/>
       <c r="B10" s="117"/>
       <c r="C10" s="91">
@@ -14094,7 +14097,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="C11" s="90" t="s">
         <v>44</v>
       </c>
@@ -14105,7 +14108,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="C12" s="91">
         <v>23000</v>
       </c>
@@ -14116,7 +14119,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="C13" s="90" t="s">
         <v>50</v>
       </c>
@@ -14127,7 +14130,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="C14" s="91">
         <v>2</v>
       </c>
@@ -14138,7 +14141,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="C15" s="90" t="s">
         <v>48</v>
       </c>
@@ -14149,7 +14152,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="C16" s="91">
         <v>50024</v>
       </c>
@@ -14160,7 +14163,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:12">
       <c r="C17" s="90" t="s">
         <v>53</v>
       </c>
@@ -14171,7 +14174,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12">
       <c r="C18" s="91">
         <v>189576</v>
       </c>
@@ -14182,7 +14185,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12">
       <c r="C19" s="90" t="s">
         <v>57</v>
       </c>
@@ -14193,7 +14196,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:12">
       <c r="C20" s="91">
         <v>5000</v>
       </c>
@@ -14204,7 +14207,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12">
       <c r="C21" s="90" t="s">
         <v>411</v>
       </c>
@@ -14250,29 +14253,29 @@
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="65.140625" customWidth="1"/>
     <col min="2" max="26" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>413</v>
       </c>
       <c r="B2" s="117"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>415</v>
       </c>
@@ -14285,17 +14288,20 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE31E21-0350-44E7-AF13-4CA140505B30}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="51">
       <c r="A1" s="99" t="s">
         <v>416</v>
+      </c>
+      <c r="B1" t="s">
+        <v>417</v>
       </c>
     </row>
   </sheetData>

--- a/tests/__xlsx__/xlsx_demo_data.xlsx
+++ b/tests/__xlsx__/xlsx_demo_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27930"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrien\odoo\spreadsheet\tests\__xlsx__\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Odoo\spreadsheet\tests\__xlsx__\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82EC8D04-FB30-4625-805F-DD659B4B146F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0219CD72-FC93-4738-B246-ADCEF801BFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,9 +30,9 @@
   <externalReferences>
     <externalReference r:id="rId14"/>
   </externalReferences>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="828" r:id="rId15"/>
+    <pivotCache cacheId="0" r:id="rId15"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="418">
   <si>
     <t>CF =42</t>
   </si>
@@ -1306,6 +1306,9 @@
   <si>
     <t>This text have
  a newLine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      with whitespace before</t>
   </si>
 </sst>
 </file>
@@ -1321,7 +1324,7 @@
     <numFmt numFmtId="169" formatCode="#,##0&quot; EUR €&quot;"/>
     <numFmt numFmtId="170" formatCode="&quot;€&quot;#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2198,6 +2201,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2210,7 +2214,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2218,157 +2221,6 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{1493241F-B85D-4F84-BBA0-86191B8FD032}"/>
   </cellStyles>
   <dxfs count="46">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike/>
-        <u/>
-        <color theme="7"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <fill>
-        <patternFill patternType="lightTrellis">
-          <fgColor theme="4"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE06666"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB6D7A8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2775,6 +2627,157 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike/>
+        <u/>
+        <color theme="7"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="lightTrellis">
+          <fgColor theme="4"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE06666"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB6D7A8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="4"/>
         </patternFill>
       </fill>
@@ -2873,7 +2876,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3195,7 +3198,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="fr-FR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3228,7 +3231,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="88853993"/>
@@ -3299,7 +3302,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="fr-FR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3332,7 +3335,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="17781237"/>
@@ -3376,7 +3379,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3404,7 +3407,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3731,7 +3734,7 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="88853993"/>
@@ -3793,7 +3796,7 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="17781237"/>
@@ -3821,7 +3824,7 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4439,7 +4442,7 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4805,7 +4808,7 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5017,7 +5020,7 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="88853993"/>
@@ -5076,7 +5079,7 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="17781237"/>
@@ -5104,7 +5107,7 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5450,7 +5453,7 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="88853993"/>
@@ -5512,7 +5515,7 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="17781237"/>
@@ -5540,7 +5543,7 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5867,7 +5870,7 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="344680958"/>
@@ -5943,7 +5946,7 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="998664793"/>
@@ -5966,7 +5969,7 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6942,7 +6945,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9B3CE3F5-58D8-48A3-B9C6-24D1506C9F5C}" name="PivotTable1" cacheId="828" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9B3CE3F5-58D8-48A3-B9C6-24D1506C9F5C}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C3:L21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -7092,7 +7095,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{09C35CC7-7259-4A97-8FEA-EDB47375DF08}" name="Table3" displayName="Table3" ref="C3:J6" totalsRowCount="1" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{09C35CC7-7259-4A97-8FEA-EDB47375DF08}" name="Table3" displayName="Table3" ref="C3:J6" totalsRowCount="1" headerRowDxfId="43" dataDxfId="42">
   <autoFilter ref="C3:J5" xr:uid="{09C35CC7-7259-4A97-8FEA-EDB47375DF08}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -7104,22 +7107,22 @@
     <filterColumn colId="7" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{C4EE018E-238B-42BA-9035-DB01FA5420D3}" name="Name" totalsRowLabel="Total" dataDxfId="14" totalsRowDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{C1F6911F-9482-4C98-BBFB-21D9CAA66DA4}" name="Age" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{3CE9F5DA-0A57-4696-B4E0-53601C3B7798}" name="Rank" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{34912838-665C-4472-B558-25990E5B148D}" name="Rank+Age =E4+D4" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="9">
+    <tableColumn id="1" xr3:uid="{C4EE018E-238B-42BA-9035-DB01FA5420D3}" name="Name" totalsRowLabel="Total" dataDxfId="41" totalsRowDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{C1F6911F-9482-4C98-BBFB-21D9CAA66DA4}" name="Age" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{3CE9F5DA-0A57-4696-B4E0-53601C3B7798}" name="Rank" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="6" xr3:uid="{34912838-665C-4472-B558-25990E5B148D}" name="Rank+Age =E4+D4" totalsRowFunction="sum" dataDxfId="35" totalsRowDxfId="34">
       <calculatedColumnFormula>Table3[[#This Row],[Rank]]+Table3[[#This Row],[Age]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{89D90022-7073-4067-BAF8-1587D27C4AFB}" name="Data =SUM(E4:E5)" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="7">
+    <tableColumn id="7" xr3:uid="{89D90022-7073-4067-BAF8-1587D27C4AFB}" name="Data =SUM(E4:E5)" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="32">
       <calculatedColumnFormula>SUM(Table3[Rank])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{B2A7E5BB-A379-492B-9484-72F2FD1FF3A0}" name="All =SUM(E3:E6)" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="5">
+    <tableColumn id="8" xr3:uid="{B2A7E5BB-A379-492B-9484-72F2FD1FF3A0}" name="All =SUM(E3:E6)" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="30">
       <calculatedColumnFormula>SUM(Table3[[#All],[Rank]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{3C532A69-E4BC-4A20-A922-4BCAA0D3FEC9}" name="Totals =E6" totalsRowFunction="sum" dataDxfId="2" totalsRowDxfId="3">
+    <tableColumn id="9" xr3:uid="{3C532A69-E4BC-4A20-A922-4BCAA0D3FEC9}" name="Totals =E6" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="28">
       <calculatedColumnFormula>Table3[[#Totals],[Rank]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{35E9E9C3-9148-468A-85B6-19290CEB6F00}" name="Headers =E3" totalsRowFunction="sum" dataDxfId="0" totalsRowDxfId="1">
+    <tableColumn id="10" xr3:uid="{35E9E9C3-9148-468A-85B6-19290CEB6F00}" name="Headers =E3" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="26">
       <calculatedColumnFormula>Table3[[#Headers],[Rank]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7229,9 +7232,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7269,7 +7272,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -7375,7 +7378,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7517,7 +7520,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7531,7 +7534,7 @@
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.28515625" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
@@ -7540,7 +7543,7 @@
     <col min="6" max="26" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="38.25" customHeight="1">
+    <row r="1" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -7549,7 +7552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="27.75">
+    <row r="2" spans="1:12" ht="27.75" x14ac:dyDescent="0.2">
       <c r="B2" s="23" t="s">
         <v>2</v>
       </c>
@@ -7562,25 +7565,25 @@
       <c r="H2" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="110"/>
+      <c r="I2" s="106"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:12" ht="17.25" customHeight="1">
+    <row r="3" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="2">
         <v>8</v>
       </c>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
       <c r="J3" s="6"/>
-      <c r="K3" s="106">
+      <c r="K3" s="107">
         <v>5</v>
       </c>
       <c r="L3" s="7"/>
     </row>
-    <row r="4" spans="1:12" ht="17.25" customHeight="1">
+    <row r="4" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
@@ -7593,50 +7596,50 @@
       <c r="G4" s="2">
         <v>9</v>
       </c>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="107"/>
+      <c r="K4" s="108"/>
       <c r="L4" s="7"/>
     </row>
-    <row r="5" spans="1:12" ht="17.25" customHeight="1">
+    <row r="5" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="2">
         <v>42</v>
       </c>
       <c r="G5" s="2">
         <v>15</v>
       </c>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
       <c r="J5" s="6"/>
-      <c r="K5" s="107"/>
+      <c r="K5" s="108"/>
       <c r="L5" s="7"/>
     </row>
-    <row r="6" spans="1:12" ht="17.25" customHeight="1">
+    <row r="6" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G6" s="2">
         <v>22</v>
       </c>
       <c r="J6" s="6"/>
-      <c r="K6" s="107"/>
+      <c r="K6" s="108"/>
       <c r="L6" s="7"/>
     </row>
-    <row r="7" spans="1:12" ht="17.25" customHeight="1">
+    <row r="7" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="2">
         <v>3</v>
       </c>
       <c r="J7" s="6"/>
-      <c r="K7" s="107"/>
+      <c r="K7" s="108"/>
       <c r="L7" s="7"/>
     </row>
-    <row r="8" spans="1:12" ht="17.25" customHeight="1">
+    <row r="8" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G8" s="2">
         <v>30</v>
       </c>
       <c r="J8" s="6"/>
-      <c r="K8" s="108"/>
+      <c r="K8" s="109"/>
       <c r="L8" s="7"/>
     </row>
-    <row r="9" spans="1:12" ht="17.25" customHeight="1">
+    <row r="9" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="10" t="s">
         <v>8</v>
       </c>
@@ -7646,7 +7649,7 @@
       </c>
       <c r="K9" s="11"/>
     </row>
-    <row r="10" spans="1:12" ht="17.25" customHeight="1">
+    <row r="10" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="2">
         <f>SUM(C4:C7)</f>
         <v>57.4</v>
@@ -7655,13 +7658,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="17.25" customHeight="1">
+    <row r="11" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="2">
         <f>-(3+C7*SUM(C4:C7))</f>
         <v>-175.2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="17.25" customHeight="1">
+    <row r="12" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="2">
         <f>SUM(C9:C11)</f>
         <v>-63.399999999999991</v>
@@ -7670,13 +7673,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="17.25" customHeight="1">
+    <row r="13" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G13" s="2">
         <f>A1+A2+A3+A4+A5+A6+A7+A8+A9+A10+A11+A12+A13+A14+A15+A16+A17+A18</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="17.25" customHeight="1">
+    <row r="14" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="12" t="s">
         <v>11</v>
       </c>
@@ -7685,32 +7688,32 @@
         <v>#CYCLE</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="17.25" customHeight="1">
+    <row r="15" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="17.25" customHeight="1">
+    <row r="16" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="2" t="str">
         <f>C15</f>
         <v>=(+</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="17.25" customHeight="1">
+    <row r="17" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="17.25" customHeight="1">
+    <row r="18" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="17.25" customHeight="1">
+    <row r="19" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E19" s="4"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:9" ht="17.25" customHeight="1">
+    <row r="20" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="6"/>
       <c r="C20" s="7" t="s">
         <v>15</v>
@@ -7724,7 +7727,7 @@
       </c>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:9" ht="17.25" customHeight="1">
+    <row r="21" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>18</v>
       </c>
@@ -7734,7 +7737,7 @@
       </c>
       <c r="G21" s="11"/>
     </row>
-    <row r="23" spans="1:9" ht="17.25" customHeight="1">
+    <row r="23" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>19</v>
       </c>
@@ -7748,7 +7751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="17.25" customHeight="1">
+    <row r="24" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="17">
         <v>10</v>
       </c>
@@ -7759,7 +7762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="17.25" customHeight="1">
+    <row r="25" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="17">
         <v>10.122999999999999</v>
       </c>
@@ -7770,7 +7773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="17.25" customHeight="1">
+    <row r="26" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>20</v>
       </c>
@@ -7784,7 +7787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="17.25" customHeight="1">
+    <row r="27" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>22</v>
       </c>
@@ -7801,7 +7804,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="17.25" customHeight="1">
+    <row r="28" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>23</v>
       </c>
@@ -7818,7 +7821,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="17.25" customHeight="1">
+    <row r="29" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>24</v>
       </c>
@@ -7835,7 +7838,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="17.25" customHeight="1">
+    <row r="30" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>25</v>
       </c>
@@ -7852,7 +7855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="17.25" customHeight="1">
+    <row r="31" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>26</v>
       </c>
@@ -7869,7 +7872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="17.25" customHeight="1">
+    <row r="32" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>27</v>
       </c>
@@ -7886,7 +7889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="17.25" customHeight="1">
+    <row r="33" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>28</v>
       </c>
@@ -7903,7 +7906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="17.25" customHeight="1">
+    <row r="34" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>29</v>
       </c>
@@ -7914,7 +7917,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="17.25" customHeight="1">
+    <row r="35" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>30</v>
       </c>
@@ -7931,7 +7934,7 @@
     <mergeCell ref="K3:K8"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:C100 B21">
-    <cfRule type="cellIs" dxfId="43" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
       <formula>42</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7981,7 +7984,7 @@
       <selection sqref="A1:N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7993,12 +7996,12 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
       <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
-      <selection pane="topRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8012,7 +8015,7 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="65.140625" customWidth="1"/>
     <col min="2" max="26" width="13.7109375" customWidth="1"/>
@@ -8032,7 +8035,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8047,12 +8050,12 @@
       <selection activeCell="G115" sqref="G115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="26" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="17.25" customHeight="1">
+    <row r="1" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
@@ -8087,7 +8090,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="17.25" customHeight="1">
+    <row r="2" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>41</v>
       </c>
@@ -8133,7 +8136,7 @@
         <v>1230.7</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="17.25" customHeight="1">
+    <row r="3" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>43</v>
       </c>
@@ -8179,7 +8182,7 @@
         <v>1217.7</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="17.25" customHeight="1">
+    <row r="4" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>45</v>
       </c>
@@ -8225,7 +8228,7 @@
         <v>1230.7</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="17.25" customHeight="1">
+    <row r="5" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>47</v>
       </c>
@@ -8271,7 +8274,7 @@
         <v>1246.7</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="17.25" customHeight="1">
+    <row r="6" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>49</v>
       </c>
@@ -8317,7 +8320,7 @@
         <v>1213.7</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="17.25" customHeight="1">
+    <row r="7" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>52</v>
       </c>
@@ -8351,7 +8354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="17.25" customHeight="1">
+    <row r="8" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>54</v>
       </c>
@@ -8385,7 +8388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="17.25" customHeight="1">
+    <row r="9" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>56</v>
       </c>
@@ -8416,7 +8419,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="17.25" customHeight="1">
+    <row r="10" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>58</v>
       </c>
@@ -8432,7 +8435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="17.25" customHeight="1">
+    <row r="11" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>59</v>
       </c>
@@ -8451,7 +8454,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="17.25" customHeight="1">
+    <row r="12" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>61</v>
       </c>
@@ -8482,7 +8485,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="17.25" customHeight="1">
+    <row r="13" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>62</v>
       </c>
@@ -8513,7 +8516,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="17.25" customHeight="1">
+    <row r="14" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>67</v>
       </c>
@@ -8529,7 +8532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="17.25" customHeight="1">
+    <row r="15" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>68</v>
       </c>
@@ -8545,7 +8548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="17.25" customHeight="1">
+    <row r="16" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>69</v>
       </c>
@@ -8561,7 +8564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="17.25" customHeight="1">
+    <row r="17" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>70</v>
       </c>
@@ -8577,7 +8580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="17.25" customHeight="1">
+    <row r="18" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>71</v>
       </c>
@@ -8593,7 +8596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17.25" customHeight="1">
+    <row r="19" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>72</v>
       </c>
@@ -8609,7 +8612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="17.25" customHeight="1">
+    <row r="20" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>73</v>
       </c>
@@ -8625,7 +8628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="17.25" customHeight="1">
+    <row r="21" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>74</v>
       </c>
@@ -8641,7 +8644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="17.25" customHeight="1">
+    <row r="22" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>76</v>
       </c>
@@ -8657,7 +8660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="17.25" customHeight="1">
+    <row r="23" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>77</v>
       </c>
@@ -8673,7 +8676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="17.25" customHeight="1">
+    <row r="24" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>78</v>
       </c>
@@ -8690,7 +8693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="17.25" customHeight="1">
+    <row r="25" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>79</v>
       </c>
@@ -8706,7 +8709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="17.25" customHeight="1">
+    <row r="26" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>81</v>
       </c>
@@ -8722,7 +8725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="17.25" customHeight="1">
+    <row r="27" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>82</v>
       </c>
@@ -8738,7 +8741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="17.25" customHeight="1">
+    <row r="28" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>83</v>
       </c>
@@ -8755,7 +8758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="17.25" customHeight="1">
+    <row r="29" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>84</v>
       </c>
@@ -8771,7 +8774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="17.25" customHeight="1">
+    <row r="30" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>85</v>
       </c>
@@ -8787,7 +8790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="17.25" customHeight="1">
+    <row r="31" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>86</v>
       </c>
@@ -8803,7 +8806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="17.25" customHeight="1">
+    <row r="32" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>87</v>
       </c>
@@ -8819,7 +8822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="17.25" customHeight="1">
+    <row r="33" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>88</v>
       </c>
@@ -8835,7 +8838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="17.25" customHeight="1">
+    <row r="34" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>89</v>
       </c>
@@ -8851,7 +8854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="17.25" customHeight="1">
+    <row r="35" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>90</v>
       </c>
@@ -8867,7 +8870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="17.25" customHeight="1">
+    <row r="36" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>91</v>
       </c>
@@ -8883,7 +8886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="17.25" customHeight="1">
+    <row r="37" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>92</v>
       </c>
@@ -8899,7 +8902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="17.25" customHeight="1">
+    <row r="38" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>93</v>
       </c>
@@ -8916,7 +8919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="17.25" customHeight="1">
+    <row r="39" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>94</v>
       </c>
@@ -8932,7 +8935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="17.25" customHeight="1">
+    <row r="40" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>95</v>
       </c>
@@ -8948,7 +8951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="17.25" customHeight="1">
+    <row r="41" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>96</v>
       </c>
@@ -8964,7 +8967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="17.25" customHeight="1">
+    <row r="42" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>97</v>
       </c>
@@ -8980,7 +8983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="17.25" customHeight="1">
+    <row r="43" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>98</v>
       </c>
@@ -8996,7 +8999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="17.25" customHeight="1">
+    <row r="44" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>99</v>
       </c>
@@ -9012,7 +9015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="17.25" customHeight="1">
+    <row r="45" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>100</v>
       </c>
@@ -9028,7 +9031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="17.25" customHeight="1">
+    <row r="46" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>101</v>
       </c>
@@ -9044,7 +9047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="17.25" customHeight="1">
+    <row r="47" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>102</v>
       </c>
@@ -9060,7 +9063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="17.25" customHeight="1">
+    <row r="48" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>103</v>
       </c>
@@ -9076,7 +9079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="17.25" customHeight="1">
+    <row r="49" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>104</v>
       </c>
@@ -9092,7 +9095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="17.25" customHeight="1">
+    <row r="50" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>105</v>
       </c>
@@ -9109,7 +9112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="17.25" customHeight="1">
+    <row r="51" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>106</v>
       </c>
@@ -9126,7 +9129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="17.25" customHeight="1">
+    <row r="52" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>107</v>
       </c>
@@ -9142,7 +9145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="17.25" customHeight="1">
+    <row r="53" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>108</v>
       </c>
@@ -9158,7 +9161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="17.25" customHeight="1">
+    <row r="54" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>109</v>
       </c>
@@ -9174,7 +9177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="17.25" customHeight="1">
+    <row r="55" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>110</v>
       </c>
@@ -9190,7 +9193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="17.25" customHeight="1">
+    <row r="56" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>111</v>
       </c>
@@ -9206,7 +9209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="17.25" customHeight="1">
+    <row r="57" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>112</v>
       </c>
@@ -9222,7 +9225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="17.25" customHeight="1">
+    <row r="58" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>113</v>
       </c>
@@ -9238,7 +9241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="17.25" customHeight="1">
+    <row r="59" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>114</v>
       </c>
@@ -9254,7 +9257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="17.25" customHeight="1">
+    <row r="60" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>115</v>
       </c>
@@ -9270,7 +9273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="17.25" customHeight="1">
+    <row r="61" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>116</v>
       </c>
@@ -9286,7 +9289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="17.25" customHeight="1">
+    <row r="62" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>117</v>
       </c>
@@ -9302,7 +9305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="17.25" customHeight="1">
+    <row r="63" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>118</v>
       </c>
@@ -9318,7 +9321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="17.25" customHeight="1">
+    <row r="64" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>119</v>
       </c>
@@ -9334,7 +9337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="17.25" customHeight="1">
+    <row r="65" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>120</v>
       </c>
@@ -9350,7 +9353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="17.25" customHeight="1">
+    <row r="66" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>121</v>
       </c>
@@ -9366,7 +9369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="17.25" customHeight="1">
+    <row r="67" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>122</v>
       </c>
@@ -9382,7 +9385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="17.25" customHeight="1">
+    <row r="68" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>123</v>
       </c>
@@ -9398,7 +9401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="17.25" customHeight="1">
+    <row r="69" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>125</v>
       </c>
@@ -9414,7 +9417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="17.25" customHeight="1">
+    <row r="70" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>127</v>
       </c>
@@ -9430,7 +9433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="17.25" customHeight="1">
+    <row r="71" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>129</v>
       </c>
@@ -9446,7 +9449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="17.25" customHeight="1">
+    <row r="72" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>130</v>
       </c>
@@ -9462,7 +9465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="17.25" customHeight="1">
+    <row r="73" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>131</v>
       </c>
@@ -9478,7 +9481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="17.25" customHeight="1">
+    <row r="74" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>132</v>
       </c>
@@ -9494,7 +9497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="17.25" customHeight="1">
+    <row r="75" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>133</v>
       </c>
@@ -9510,7 +9513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="17.25" customHeight="1">
+    <row r="76" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>134</v>
       </c>
@@ -9526,7 +9529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="17.25" customHeight="1">
+    <row r="77" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>135</v>
       </c>
@@ -9542,7 +9545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="17.25" customHeight="1">
+    <row r="78" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>136</v>
       </c>
@@ -9558,7 +9561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="17.25" customHeight="1">
+    <row r="79" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>137</v>
       </c>
@@ -9574,7 +9577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="17.25" customHeight="1">
+    <row r="80" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>138</v>
       </c>
@@ -9590,7 +9593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="17.25" customHeight="1">
+    <row r="81" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>139</v>
       </c>
@@ -9606,7 +9609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="17.25" customHeight="1">
+    <row r="82" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>141</v>
       </c>
@@ -9622,7 +9625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="17.25" customHeight="1">
+    <row r="83" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>142</v>
       </c>
@@ -9638,7 +9641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="17.25" customHeight="1">
+    <row r="84" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>143</v>
       </c>
@@ -9654,7 +9657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="17.25" customHeight="1">
+    <row r="85" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>144</v>
       </c>
@@ -9670,7 +9673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="17.25" customHeight="1">
+    <row r="86" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>146</v>
       </c>
@@ -9686,7 +9689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="17.25" customHeight="1">
+    <row r="87" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>147</v>
       </c>
@@ -9702,7 +9705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="17.25" customHeight="1">
+    <row r="88" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>148</v>
       </c>
@@ -9718,7 +9721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="17.25" customHeight="1">
+    <row r="89" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>149</v>
       </c>
@@ -9734,7 +9737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="17.25" customHeight="1">
+    <row r="90" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>150</v>
       </c>
@@ -9750,7 +9753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="17.25" customHeight="1">
+    <row r="91" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>151</v>
       </c>
@@ -9766,7 +9769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="17.25" customHeight="1">
+    <row r="92" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>152</v>
       </c>
@@ -9782,7 +9785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="17.25" customHeight="1">
+    <row r="93" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>153</v>
       </c>
@@ -9798,7 +9801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="17.25" customHeight="1">
+    <row r="94" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>154</v>
       </c>
@@ -9814,7 +9817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="17.25" customHeight="1">
+    <row r="95" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>155</v>
       </c>
@@ -9830,7 +9833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="17.25" customHeight="1">
+    <row r="96" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>156</v>
       </c>
@@ -9846,7 +9849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="17.25" customHeight="1">
+    <row r="97" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>157</v>
       </c>
@@ -9862,7 +9865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="17.25" customHeight="1">
+    <row r="98" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>158</v>
       </c>
@@ -9878,7 +9881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="17.25" customHeight="1">
+    <row r="99" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>159</v>
       </c>
@@ -9894,20 +9897,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="17.25" customHeight="1">
+    <row r="100" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>160</v>
       </c>
       <c r="B100" s="20">
         <f ca="1">NOW()</f>
-        <v>45512.434189004627</v>
+        <v>45643.379599189815</v>
       </c>
       <c r="D100" s="2">
         <f ca="1">IF(ISNUMBER(B100),1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="17.25" customHeight="1">
+    <row r="101" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>161</v>
       </c>
@@ -9923,7 +9926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="17.25" customHeight="1">
+    <row r="102" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>162</v>
       </c>
@@ -9939,7 +9942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="17.25" customHeight="1">
+    <row r="103" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>163</v>
       </c>
@@ -9955,7 +9958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="17.25" customHeight="1">
+    <row r="104" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>164</v>
       </c>
@@ -9971,7 +9974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="17.25" customHeight="1">
+    <row r="105" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>165</v>
       </c>
@@ -9987,7 +9990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="17.25" customHeight="1">
+    <row r="106" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>166</v>
       </c>
@@ -10003,7 +10006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="17.25" customHeight="1">
+    <row r="107" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>167</v>
       </c>
@@ -10019,7 +10022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="17.25" customHeight="1">
+    <row r="108" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>168</v>
       </c>
@@ -10035,7 +10038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="17.25" customHeight="1">
+    <row r="109" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>169</v>
       </c>
@@ -10051,7 +10054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="17.25" customHeight="1">
+    <row r="110" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>170</v>
       </c>
@@ -10067,7 +10070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="17.25" customHeight="1">
+    <row r="111" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>171</v>
       </c>
@@ -10083,12 +10086,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="17.25" customHeight="1">
+    <row r="112" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="D112" s="2"/>
     </row>
-    <row r="113" spans="1:4" ht="17.25" customHeight="1">
+    <row r="113" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>172</v>
       </c>
@@ -10104,7 +10107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="17.25" customHeight="1">
+    <row r="114" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>173</v>
       </c>
@@ -10120,7 +10123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="17.25" customHeight="1">
+    <row r="115" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>175</v>
       </c>
@@ -10136,7 +10139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="17.25" customHeight="1">
+    <row r="116" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>177</v>
       </c>
@@ -10152,7 +10155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="17.25" customHeight="1">
+    <row r="117" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>178</v>
       </c>
@@ -10168,7 +10171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="17.25" customHeight="1">
+    <row r="118" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>179</v>
       </c>
@@ -10184,7 +10187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="17.25" customHeight="1">
+    <row r="119" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>180</v>
       </c>
@@ -10200,7 +10203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="17.25" customHeight="1">
+    <row r="120" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>181</v>
       </c>
@@ -10216,7 +10219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="17.25" customHeight="1">
+    <row r="121" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>182</v>
       </c>
@@ -10232,7 +10235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="17.25" customHeight="1">
+    <row r="122" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>183</v>
       </c>
@@ -10248,7 +10251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="17.25" customHeight="1">
+    <row r="123" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>184</v>
       </c>
@@ -10264,7 +10267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="17.25" customHeight="1">
+    <row r="124" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>185</v>
       </c>
@@ -10280,7 +10283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="17.25" customHeight="1">
+    <row r="125" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>186</v>
       </c>
@@ -10296,7 +10299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="17.25" customHeight="1">
+    <row r="126" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>187</v>
       </c>
@@ -10312,7 +10315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="17.25" customHeight="1">
+    <row r="127" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>188</v>
       </c>
@@ -10328,7 +10331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="17.25" customHeight="1">
+    <row r="128" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>189</v>
       </c>
@@ -10344,7 +10347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="17.25" customHeight="1">
+    <row r="129" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>190</v>
       </c>
@@ -10360,7 +10363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="17.25" customHeight="1">
+    <row r="130" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>191</v>
       </c>
@@ -10376,7 +10379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="17.25" customHeight="1">
+    <row r="131" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>192</v>
       </c>
@@ -10392,7 +10395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="17.25" customHeight="1">
+    <row r="132" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>193</v>
       </c>
@@ -10408,7 +10411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="17.25" customHeight="1">
+    <row r="133" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>194</v>
       </c>
@@ -10424,7 +10427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="17.25" customHeight="1">
+    <row r="134" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>195</v>
       </c>
@@ -10440,7 +10443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="17.25" customHeight="1">
+    <row r="135" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>196</v>
       </c>
@@ -10456,7 +10459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="17.25" customHeight="1">
+    <row r="136" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>198</v>
       </c>
@@ -10472,7 +10475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="17.25" customHeight="1">
+    <row r="137" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>199</v>
       </c>
@@ -10488,7 +10491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="17.25" customHeight="1">
+    <row r="138" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>200</v>
       </c>
@@ -10504,7 +10507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="17.25" customHeight="1">
+    <row r="139" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>201</v>
       </c>
@@ -10520,7 +10523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="17.25" customHeight="1">
+    <row r="140" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>202</v>
       </c>
@@ -10536,7 +10539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="17.25" customHeight="1">
+    <row r="141" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>203</v>
       </c>
@@ -10552,7 +10555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="17.25" customHeight="1">
+    <row r="142" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>205</v>
       </c>
@@ -10568,7 +10571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="17.25" customHeight="1">
+    <row r="143" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>206</v>
       </c>
@@ -10584,20 +10587,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="17.25" customHeight="1">
+    <row r="144" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>207</v>
       </c>
       <c r="B144" s="19">
         <f ca="1">TODAY()</f>
-        <v>45512</v>
+        <v>45643</v>
       </c>
       <c r="D144" s="2">
         <f ca="1">IF(ISNUMBER(B144),1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="17.25" customHeight="1">
+    <row r="145" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>208</v>
       </c>
@@ -10613,7 +10616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="17.25" customHeight="1">
+    <row r="146" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>210</v>
       </c>
@@ -10629,7 +10632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="17.25" customHeight="1">
+    <row r="147" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>211</v>
       </c>
@@ -10645,7 +10648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="17.25" customHeight="1">
+    <row r="148" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>213</v>
       </c>
@@ -10661,7 +10664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="17.25" customHeight="1">
+    <row r="149" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>214</v>
       </c>
@@ -10677,7 +10680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="17.25" customHeight="1">
+    <row r="150" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>215</v>
       </c>
@@ -10693,7 +10696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="17.25" customHeight="1">
+    <row r="151" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>216</v>
       </c>
@@ -10709,7 +10712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="17.25" customHeight="1">
+    <row r="152" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>217</v>
       </c>
@@ -10725,7 +10728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="17.25" customHeight="1">
+    <row r="153" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>218</v>
       </c>
@@ -10741,7 +10744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="17.25" customHeight="1">
+    <row r="154" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>219</v>
       </c>
@@ -10758,7 +10761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="17.25" customHeight="1">
+    <row r="155" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>220</v>
       </c>
@@ -10774,7 +10777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="17.25" customHeight="1">
+    <row r="156" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>221</v>
       </c>
@@ -10790,7 +10793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="17.25" customHeight="1">
+    <row r="157" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>222</v>
       </c>
@@ -10806,7 +10809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="17.25" customHeight="1">
+    <row r="158" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>223</v>
       </c>
@@ -10822,7 +10825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="17.25" customHeight="1">
+    <row r="159" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>224</v>
       </c>
@@ -10838,7 +10841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="17.25" customHeight="1">
+    <row r="160" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>225</v>
       </c>
@@ -10854,7 +10857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="17.25" customHeight="1">
+    <row r="161" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>226</v>
       </c>
@@ -10870,7 +10873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="17.25" customHeight="1">
+    <row r="162" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>227</v>
       </c>
@@ -10886,7 +10889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="17.25" customHeight="1">
+    <row r="163" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>229</v>
       </c>
@@ -10904,10 +10907,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D180">
-    <cfRule type="cellIs" dxfId="42" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10926,7 +10929,7 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelRow="2" outlineLevelCol="2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" customWidth="1"/>
@@ -10936,17 +10939,17 @@
     <col min="15" max="18" width="9.140625" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>230</v>
       </c>
       <c r="C1" t="s">
         <v>231</v>
       </c>
-      <c r="D1" s="109" t="s">
+      <c r="D1" s="110" t="s">
         <v>232</v>
       </c>
-      <c r="E1" s="109"/>
+      <c r="E1" s="110"/>
       <c r="F1" t="s">
         <v>233</v>
       </c>
@@ -10954,19 +10957,19 @@
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>SUM(A1)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
       <c r="H2" t="str">
         <f>[1]Feuil1!$A$1</f>
         <v>referenced string</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D3" s="86" t="s">
         <v>235</v>
       </c>
@@ -10974,25 +10977,25 @@
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="75" customHeight="1">
+    <row r="5" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="10" spans="1:8" outlineLevel="1"/>
-    <row r="11" spans="1:8" outlineLevel="1"/>
-    <row r="12" spans="1:8" hidden="1" outlineLevel="2"/>
-    <row r="13" spans="1:8" hidden="1" outlineLevel="2"/>
-    <row r="14" spans="1:8" hidden="1" outlineLevel="2"/>
-    <row r="15" spans="1:8" outlineLevel="1" collapsed="1"/>
-    <row r="16" spans="1:8" outlineLevel="1"/>
-    <row r="17" outlineLevel="1"/>
-    <row r="18" outlineLevel="1"/>
+    <row r="10" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:8" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="17" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="18" outlineLevel="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D1:E2"/>
@@ -11014,14 +11017,14 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" customWidth="1"/>
     <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="13.5" thickBot="1">
+    <row r="1" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
         <v>239</v>
       </c>
@@ -11043,7 +11046,7 @@
       </c>
       <c r="M1" s="37"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="41" t="s">
         <v>245</v>
       </c>
@@ -11069,7 +11072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="42" t="s">
         <v>252</v>
       </c>
@@ -11092,7 +11095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15">
+    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="43" t="s">
         <v>256</v>
       </c>
@@ -11118,7 +11121,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="44" t="s">
         <v>262</v>
       </c>
@@ -11138,7 +11141,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="45" t="s">
         <v>266</v>
       </c>
@@ -11161,7 +11164,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.75">
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="46" t="s">
         <v>271</v>
       </c>
@@ -11181,7 +11184,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="21">
+    <row r="8" spans="1:13" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="47" t="s">
         <v>275</v>
       </c>
@@ -11204,7 +11207,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="48" t="s">
         <v>280</v>
       </c>
@@ -11221,7 +11224,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="49" t="s">
         <v>283</v>
       </c>
@@ -11229,7 +11232,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="13.5" thickBot="1">
+    <row r="11" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="50" t="s">
         <v>285</v>
       </c>
@@ -11238,7 +11241,7 @@
       </c>
       <c r="F11" s="37"/>
     </row>
-    <row r="12" spans="1:13" ht="18.75" customHeight="1">
+    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="51" t="s">
         <v>287</v>
       </c>
@@ -11252,7 +11255,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="18.75" customHeight="1" thickBot="1">
+    <row r="13" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="52" t="s">
         <v>290</v>
       </c>
@@ -11263,7 +11266,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="18.75" customHeight="1" thickBot="1">
+    <row r="14" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="53" t="s">
         <v>291</v>
       </c>
@@ -11277,7 +11280,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="18.75" customHeight="1" thickBot="1">
+    <row r="15" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="54" t="s">
         <v>293</v>
       </c>
@@ -11288,7 +11291,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="19.5" customHeight="1" thickBot="1">
+    <row r="16" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="55" t="s">
         <v>294</v>
       </c>
@@ -11302,12 +11305,12 @@
         <v>248</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.5" thickBot="1">
+    <row r="17" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="56" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.5" thickBot="1">
+    <row r="18" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="75" t="s">
         <v>297</v>
       </c>
@@ -11319,7 +11322,7 @@
       </c>
       <c r="F18" s="37"/>
     </row>
-    <row r="19" spans="1:6" ht="13.5" thickBot="1">
+    <row r="19" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="76" t="s">
         <v>300</v>
       </c>
@@ -11330,7 +11333,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="51.75" thickBot="1">
+    <row r="20" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="77" t="s">
         <v>303</v>
       </c>
@@ -11344,12 +11347,12 @@
         <v>302</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.5" thickBot="1">
+    <row r="21" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="78" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.5" thickBot="1">
+    <row r="22" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="79" t="s">
         <v>307</v>
       </c>
@@ -11358,13 +11361,13 @@
       </c>
       <c r="E22" s="22"/>
     </row>
-    <row r="23" spans="1:6" ht="13.5" thickBot="1">
+    <row r="23" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="80" t="s">
         <v>309</v>
       </c>
       <c r="E23" s="22"/>
     </row>
-    <row r="24" spans="1:6" ht="14.25" thickTop="1" thickBot="1">
+    <row r="24" spans="1:6" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="81" t="s">
         <v>310</v>
       </c>
@@ -11373,20 +11376,20 @@
       </c>
       <c r="E24" s="22"/>
     </row>
-    <row r="25" spans="1:6" ht="14.25" thickTop="1" thickBot="1"/>
-    <row r="26" spans="1:6" ht="14.25" thickTop="1" thickBot="1">
+    <row r="25" spans="1:6" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:6" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C26" s="68" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="14.25" thickTop="1" thickBot="1"/>
-    <row r="28" spans="1:6" ht="14.25" thickTop="1" thickBot="1">
+    <row r="27" spans="1:6" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:6" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C28" s="89" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="13.5" thickTop="1"/>
-    <row r="30" spans="1:6">
+    <row r="29" spans="1:6" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C30" s="88" t="s">
         <v>314</v>
       </c>
@@ -11405,13 +11408,13 @@
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.140625" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13.5" thickBot="1">
+    <row r="1" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>315</v>
       </c>
@@ -11428,7 +11431,7 @@
       <c r="I1" s="37"/>
       <c r="J1" s="37"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="39" t="s">
         <v>319</v>
       </c>
@@ -11451,7 +11454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="39" t="s">
         <v>321</v>
       </c>
@@ -11474,7 +11477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="s">
         <v>325</v>
       </c>
@@ -11494,7 +11497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="s">
         <v>328</v>
       </c>
@@ -11518,7 +11521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="s">
         <v>330</v>
       </c>
@@ -11541,7 +11544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="s">
         <v>333</v>
       </c>
@@ -11567,7 +11570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="s">
         <v>337</v>
       </c>
@@ -11578,7 +11581,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="s">
         <v>339</v>
       </c>
@@ -11587,7 +11590,7 @@
       </c>
       <c r="C9" s="22"/>
     </row>
-    <row r="10" spans="1:10" ht="13.5" thickBot="1">
+    <row r="10" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
         <v>340</v>
       </c>
@@ -11605,7 +11608,7 @@
       <c r="I10" s="37"/>
       <c r="J10" s="37"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="39" t="s">
         <v>342</v>
       </c>
@@ -11628,13 +11631,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="39" t="s">
         <v>344</v>
       </c>
       <c r="B12" s="40">
         <f ca="1">TODAY()</f>
-        <v>45512</v>
+        <v>45643</v>
       </c>
       <c r="C12" s="40">
         <f>DATE(2010,10,2)</f>
@@ -11653,7 +11656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="39" t="s">
         <v>346</v>
       </c>
@@ -11676,7 +11679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="39" t="s">
         <v>348</v>
       </c>
@@ -11702,7 +11705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="39" t="s">
         <v>350</v>
       </c>
@@ -11722,7 +11725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="39" t="s">
         <v>352</v>
       </c>
@@ -11745,7 +11748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="39" t="s">
         <v>354</v>
       </c>
@@ -11768,7 +11771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="39" t="s">
         <v>356</v>
       </c>
@@ -11791,7 +11794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="39" t="s">
         <v>358</v>
       </c>
@@ -11814,7 +11817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="39" t="s">
         <v>360</v>
       </c>
@@ -11837,7 +11840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="39" t="s">
         <v>362</v>
       </c>
@@ -11863,7 +11866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="39" t="s">
         <v>364</v>
       </c>
@@ -11889,7 +11892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="39" t="s">
         <v>366</v>
       </c>
@@ -11915,7 +11918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G24" s="35" t="s">
         <v>368</v>
       </c>
@@ -11932,7 +11935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="39" t="s">
         <v>369</v>
       </c>
@@ -11958,7 +11961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G26" s="35" t="s">
         <v>371</v>
       </c>
@@ -11978,7 +11981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="22" t="s">
         <v>372</v>
       </c>
@@ -12004,7 +12007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G28" s="35" t="s">
         <v>374</v>
       </c>
@@ -12024,7 +12027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G29" s="35" t="s">
         <v>375</v>
       </c>
@@ -12044,7 +12047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G30" s="35" t="s">
         <v>376</v>
       </c>
@@ -12064,7 +12067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="13.5" thickBot="1">
+    <row r="31" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G31" s="36" t="s">
         <v>377</v>
       </c>
@@ -12078,7 +12081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G32" s="35" t="s">
         <v>378</v>
       </c>
@@ -12092,7 +12095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="7:10">
+    <row r="33" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G33" s="35" t="s">
         <v>379</v>
       </c>
@@ -12106,7 +12109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="7:10">
+    <row r="34" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G34" s="35" t="s">
         <v>380</v>
       </c>
@@ -12120,7 +12123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="7:10">
+    <row r="35" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G35" s="35" t="s">
         <v>381</v>
       </c>
@@ -12134,7 +12137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="7:10">
+    <row r="36" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G36" s="35" t="s">
         <v>382</v>
       </c>
@@ -12148,7 +12151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="7:10">
+    <row r="37" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G37" s="35" t="s">
         <v>383</v>
       </c>
@@ -12162,110 +12165,110 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="7:10">
+    <row r="39" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G39" s="35"/>
     </row>
   </sheetData>
   <phoneticPr fontId="21" type="noConversion"/>
   <conditionalFormatting sqref="B15">
-    <cfRule type="expression" dxfId="40" priority="58">
+    <cfRule type="expression" dxfId="22" priority="58">
       <formula>ODD(B15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B27">
-    <cfRule type="cellIs" dxfId="39" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="46" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C2">
-    <cfRule type="aboveAverage" dxfId="38" priority="114"/>
+    <cfRule type="aboveAverage" dxfId="20" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3">
-    <cfRule type="beginsWith" dxfId="37" priority="73" operator="beginsWith" text="rule">
+    <cfRule type="beginsWith" dxfId="19" priority="73" operator="beginsWith" text="rule">
       <formula>LEFT(B3,LEN("rule"))="rule"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:C4">
-    <cfRule type="containsBlanks" dxfId="36" priority="71">
+    <cfRule type="containsBlanks" dxfId="18" priority="71">
       <formula>LEN(TRIM(B4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="containsErrors" dxfId="35" priority="70">
+    <cfRule type="containsErrors" dxfId="17" priority="70">
       <formula>ISERROR(B5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:C6">
-    <cfRule type="containsText" dxfId="34" priority="69" operator="containsText" text="rule">
+    <cfRule type="containsText" dxfId="16" priority="69" operator="containsText" text="rule">
       <formula>NOT(ISERROR(SEARCH("rule",B6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:C8">
-    <cfRule type="endsWith" dxfId="33" priority="67" operator="endsWith" text="rule">
+    <cfRule type="endsWith" dxfId="15" priority="67" operator="endsWith" text="rule">
       <formula>RIGHT(B8,LEN("rule"))="rule"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:C9">
-    <cfRule type="notContainsBlanks" dxfId="32" priority="66">
+    <cfRule type="notContainsBlanks" dxfId="14" priority="66">
       <formula>LEN(TRIM(B9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:C10">
-    <cfRule type="notContainsErrors" dxfId="31" priority="65">
+    <cfRule type="notContainsErrors" dxfId="13" priority="65">
       <formula>NOT(ISERROR(B10))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11">
-    <cfRule type="notContainsText" dxfId="30" priority="64" operator="notContains" text="rule">
+    <cfRule type="notContainsText" dxfId="12" priority="64" operator="notContains" text="rule">
       <formula>ISERROR(SEARCH("rule",B11))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:C12">
-    <cfRule type="timePeriod" dxfId="29" priority="63" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="11" priority="63" timePeriod="today">
       <formula>FLOOR(B12,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:C13">
-    <cfRule type="top10" dxfId="28" priority="115" rank="1"/>
+    <cfRule type="top10" dxfId="10" priority="115" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:C16">
-    <cfRule type="cellIs" dxfId="27" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="45" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:C17">
-    <cfRule type="cellIs" dxfId="26" priority="56" operator="notEqual">
+    <cfRule type="cellIs" dxfId="8" priority="56" operator="notEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:C18">
-    <cfRule type="cellIs" dxfId="25" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="greaterThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:C19">
-    <cfRule type="cellIs" dxfId="24" priority="5" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:C20">
-    <cfRule type="cellIs" dxfId="23" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:C21">
-    <cfRule type="cellIs" dxfId="22" priority="3" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:C22">
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="between">
       <formula>2</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:C23">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="notBetween">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="notBetween">
       <formula>2</formula>
       <formula>4</formula>
     </cfRule>
@@ -12299,10 +12302,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:D7">
-    <cfRule type="duplicateValues" dxfId="19" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:D14">
-    <cfRule type="uniqueValues" dxfId="18" priority="96"/>
+    <cfRule type="uniqueValues" dxfId="0" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:J2">
     <cfRule type="colorScale" priority="44">
@@ -12730,7 +12733,7 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="17.28515625" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" customWidth="1"/>
@@ -12742,12 +12745,12 @@
     <col min="10" max="10" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15">
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C3" s="18" t="s">
         <v>35</v>
       </c>
@@ -12773,7 +12776,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C4" s="2" t="s">
         <v>42</v>
       </c>
@@ -12804,7 +12807,7 @@
         <v>Rank</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
         <v>44</v>
       </c>
@@ -12835,7 +12838,7 @@
         <v>Rank</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
         <v>391</v>
       </c>
@@ -12868,7 +12871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>392</v>
       </c>
@@ -12879,7 +12882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C9">
         <v>3</v>
       </c>
@@ -12887,7 +12890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>393</v>
       </c>
@@ -12898,7 +12901,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C12">
         <v>3</v>
       </c>
@@ -12906,7 +12909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>396</v>
       </c>
@@ -12917,7 +12920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C15">
         <v>3</v>
       </c>
@@ -12925,7 +12928,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>397</v>
       </c>
@@ -12936,7 +12939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C18">
         <v>3</v>
       </c>
@@ -12944,7 +12947,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>398</v>
       </c>
@@ -12955,7 +12958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C21">
         <v>3</v>
       </c>
@@ -12963,7 +12966,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>399</v>
       </c>
@@ -12974,7 +12977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:4">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C24">
         <v>3</v>
       </c>
@@ -12982,7 +12985,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="2:4">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>400</v>
       </c>
@@ -12993,7 +12996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:4">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C27">
         <v>3</v>
       </c>
@@ -13001,7 +13004,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
         <v>391</v>
       </c>
@@ -13010,7 +13013,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="2:4">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>401</v>
       </c>
@@ -13021,7 +13024,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="31" spans="2:4" hidden="1">
+    <row r="31" spans="2:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
         <v>404</v>
       </c>
@@ -13029,7 +13032,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="32" spans="2:4">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
         <v>405</v>
       </c>
@@ -13037,7 +13040,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>406</v>
       </c>
@@ -13067,7 +13070,7 @@
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
@@ -13088,7 +13091,7 @@
     <col min="21" max="21" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15">
+    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="93" t="s">
         <v>407</v>
       </c>
@@ -13098,7 +13101,7 @@
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -13106,7 +13109,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="90" t="s">
@@ -13116,7 +13119,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="90" t="s">
@@ -13150,7 +13153,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="91" t="s">
@@ -13163,7 +13166,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="92">
@@ -13176,7 +13179,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="91" t="s">
@@ -13189,7 +13192,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="92">
@@ -13202,7 +13205,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="91" t="s">
@@ -13215,7 +13218,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="92">
@@ -13228,7 +13231,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="91" t="s">
         <v>44</v>
       </c>
@@ -13239,7 +13242,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="92">
         <v>23000</v>
       </c>
@@ -13250,7 +13253,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="91" t="s">
         <v>50</v>
       </c>
@@ -13261,7 +13264,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="92">
         <v>2</v>
       </c>
@@ -13272,7 +13275,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="91" t="s">
         <v>48</v>
       </c>
@@ -13283,7 +13286,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C16" s="92">
         <v>50024</v>
       </c>
@@ -13294,7 +13297,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="3:12">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="91" t="s">
         <v>53</v>
       </c>
@@ -13305,7 +13308,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="3:12">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="92">
         <v>189576</v>
       </c>
@@ -13316,7 +13319,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="3:12">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="91" t="s">
         <v>57</v>
       </c>
@@ -13327,7 +13330,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="3:12">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="92">
         <v>5000</v>
       </c>
@@ -13338,7 +13341,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="3:12">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="91" t="s">
         <v>411</v>
       </c>
@@ -13380,33 +13383,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C47BF70-BA80-4124-B359-67CBCB635390}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="65.140625" customWidth="1"/>
     <col min="2" max="26" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>413</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>415</v>
       </c>
@@ -13419,17 +13422,20 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE31E21-0350-44E7-AF13-4CA140505B30}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="38.25">
+    <row r="1" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1" s="100" t="s">
         <v>416</v>
+      </c>
+      <c r="B1" t="s">
+        <v>417</v>
       </c>
     </row>
   </sheetData>

--- a/tests/__xlsx__/xlsx_demo_data.xlsx
+++ b/tests/__xlsx__/xlsx_demo_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrien\odoo\spreadsheet\tests\__xlsx__\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05E556DF-B6A9-4914-8E28-82201545992C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A4A413C-5BC9-49E2-A17D-00BCCBD09AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
   </externalReferences>
   <calcPr calcId="191028" calcCompleted="0"/>
   <pivotCaches>
-    <pivotCache cacheId="153" r:id="rId15"/>
+    <pivotCache cacheId="623" r:id="rId15"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="418">
   <si>
     <t>CF =42</t>
   </si>
@@ -1306,6 +1306,9 @@
   <si>
     <t>This text have
  a newLine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      with whitespace before</t>
   </si>
 </sst>
 </file>
@@ -6943,7 +6946,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9B3CE3F5-58D8-48A3-B9C6-24D1506C9F5C}" name="PivotTable1" cacheId="153" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9B3CE3F5-58D8-48A3-B9C6-24D1506C9F5C}" name="PivotTable1" cacheId="623" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C3:L21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -7531,7 +7534,7 @@
   </sheetPr>
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
@@ -9907,7 +9910,7 @@
       </c>
       <c r="B100" s="20">
         <f ca="1">NOW()</f>
-        <v>45526.511599421297</v>
+        <v>45663.395637384259</v>
       </c>
       <c r="D100" s="2">
         <f ca="1">IF(ISNUMBER(B100),1,0)</f>
@@ -10597,7 +10600,7 @@
       </c>
       <c r="B144" s="19">
         <f ca="1">TODAY()</f>
-        <v>45526</v>
+        <v>45663</v>
       </c>
       <c r="D144" s="2">
         <f ca="1">IF(ISNUMBER(B144),1,0)</f>
@@ -11642,7 +11645,7 @@
       </c>
       <c r="B12" s="40">
         <f ca="1">TODAY()</f>
-        <v>45526</v>
+        <v>45663</v>
       </c>
       <c r="C12" s="40">
         <f>DATE(2010,10,2)</f>
@@ -13427,17 +13430,20 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE31E21-0350-44E7-AF13-4CA140505B30}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="38.25">
+    <row r="1" spans="1:2" ht="38.25">
       <c r="A1" s="100" t="s">
         <v>416</v>
+      </c>
+      <c r="B1" t="s">
+        <v>417</v>
       </c>
     </row>
   </sheetData>

--- a/tests/__xlsx__/xlsx_demo_data.xlsx
+++ b/tests/__xlsx__/xlsx_demo_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrien\odoo\spreadsheet\tests\__xlsx__\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrien\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A4A413C-5BC9-49E2-A17D-00BCCBD09AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{157AC437-DB84-431C-BDD0-6A0421B0B149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23295" yWindow="195" windowWidth="21600" windowHeight="11385" firstSheet="13" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,13 +26,14 @@
     <sheet name="jestFreezePane" sheetId="14" r:id="rId11"/>
     <sheet name="jestImages" sheetId="15" r:id="rId12"/>
     <sheet name="jestOneCellAnchor" sheetId="16" r:id="rId13"/>
+    <sheet name="jestDataValidations" sheetId="17" r:id="rId14"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId14"/>
+    <externalReference r:id="rId15"/>
   </externalReferences>
   <calcPr calcId="191028" calcCompleted="0"/>
   <pivotCaches>
-    <pivotCache cacheId="623" r:id="rId15"/>
+    <pivotCache cacheId="3563" r:id="rId16"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="435">
   <si>
     <t>CF =42</t>
   </si>
@@ -1309,22 +1310,72 @@
   </si>
   <si>
     <t xml:space="preserve">      with whitespace before</t>
+  </si>
+  <si>
+    <t>Decimal</t>
+  </si>
+  <si>
+    <t>Whole</t>
+  </si>
+  <si>
+    <t>Value In Range</t>
+  </si>
+  <si>
+    <t>Value In List</t>
+  </si>
+  <si>
+    <t>Date Not Equal</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Text Length</t>
+  </si>
+  <si>
+    <t>Date is Greater Than</t>
+  </si>
+  <si>
+    <t>Custom Formula</t>
+  </si>
+  <si>
+    <t>option1</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>option2</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>option3</t>
+  </si>
+  <si>
+    <t>test123</t>
+  </si>
+  <si>
+    <t>hola</t>
+  </si>
+  <si>
+    <t>A1234556</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="7">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
-    <numFmt numFmtId="165" formatCode="m/d/yyyy\ hh:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;€&quot;"/>
-    <numFmt numFmtId="167" formatCode="[$$-409]#,##0.000"/>
-    <numFmt numFmtId="168" formatCode="[$₪-40D]\ #,##0"/>
-    <numFmt numFmtId="169" formatCode="#,##0&quot; EUR €&quot;"/>
-    <numFmt numFmtId="170" formatCode="&quot;€&quot;#,##0.00\ &quot;€&quot;"/>
+  <numFmts count="6">
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="166" formatCode="[$$-409]#,##0.000"/>
+    <numFmt numFmtId="167" formatCode="[$₪-40D]\ #,##0"/>
+    <numFmt numFmtId="168" formatCode="#,##0&quot; EUR €&quot;"/>
+    <numFmt numFmtId="169" formatCode="&quot;€&quot;#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1482,8 +1533,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="28">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1658,8 +1715,20 @@
         </stop>
       </gradientFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="28">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -2008,18 +2077,101 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2070,10 +2222,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="19" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2187,16 +2339,38 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="29" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="29" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2243,7 +2417,7 @@
         <u/>
         <color theme="7"/>
       </font>
-      <numFmt numFmtId="171" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="170" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="lightTrellis">
           <fgColor theme="4"/>
@@ -2877,7 +3051,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3232,7 +3406,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="88853993"/>
@@ -3336,7 +3510,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="17781237"/>
@@ -3380,7 +3554,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3408,7 +3582,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3735,7 +3909,7 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="88853993"/>
@@ -3797,7 +3971,7 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="17781237"/>
@@ -3825,7 +3999,7 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4443,7 +4617,7 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4809,7 +4983,7 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5021,7 +5195,7 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="88853993"/>
@@ -5080,7 +5254,7 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="17781237"/>
@@ -5108,7 +5282,7 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5454,7 +5628,7 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="88853993"/>
@@ -5516,7 +5690,7 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="17781237"/>
@@ -5544,7 +5718,7 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5571,6 +5745,408 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2200"/>
+              <a:t>radar chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:radarChart>
+        <c:radarStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="1F77B4"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$27:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Emily Anderson (Emmy)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sophie Allen (Saffi)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Chloe Adams</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Megan Alexander (Meg)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Lucy Arnold (Lulu)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Hannah Alvarez</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jessica Alcock (Jess)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Charlotte Anaya</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Lauren Anthony</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$27:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E3B9-4952-B105-568BDB7EC1F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FF7F0E"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$27:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Emily Anderson (Emmy)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sophie Allen (Saffi)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Chloe Adams</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Megan Alexander (Meg)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Lucy Arnold (Lulu)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Hannah Alvarez</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jessica Alcock (Jess)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Charlotte Anaya</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Lauren Anthony</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$27:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E3B9-4952-B105-568BDB7EC1F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="17781237"/>
+        <c:axId val="88853993"/>
+      </c:radarChart>
+      <c:catAx>
+        <c:axId val="17781237"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="1"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr sz="1000" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="88853993"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="88853993"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="1"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr sz="1000" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="17781237"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr sz="1000" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln cmpd="sng">
+      <a:solidFill>
+        <a:srgbClr val="000000"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5871,7 +6447,7 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="344680958"/>
@@ -5947,7 +6523,7 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="998664793"/>
@@ -5970,7 +6546,7 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6557,6 +7133,9 @@
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
@@ -6592,6 +7171,9 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E90E321-E964-46C8-9CE7-DEE1186146D9}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6631,6 +7213,9 @@
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CC27214-40A9-4FF9-BB37-40F876B2768B}"/>
             </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{1E90E321-E964-46C8-9CE7-DEE1186146D9}"/>
+            </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
@@ -6669,6 +7254,9 @@
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5685A00-859E-4641-A529-E7042819F3BF}"/>
             </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6CC27214-40A9-4FF9-BB37-40F876B2768B}"/>
+            </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
@@ -6682,6 +7270,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>70485</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 6" title="Chart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2B20B98-FA84-44C9-8DBB-5852658E9967}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A5685A00-859E-4641-A529-E7042819F3BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6946,7 +7575,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9B3CE3F5-58D8-48A3-B9C6-24D1506C9F5C}" name="PivotTable1" cacheId="623" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9B3CE3F5-58D8-48A3-B9C6-24D1506C9F5C}" name="PivotTable1" cacheId="3563" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C3:L21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -7548,387 +8177,387 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="38.25" customHeight="1">
-      <c r="A1" s="22"/>
+      <c r="A1" s="21"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="117" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="27.75">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="117">
         <v>5</v>
       </c>
-      <c r="H2" s="105" t="s">
+      <c r="H2" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="110"/>
-      <c r="K2" s="4"/>
+      <c r="I2" s="123"/>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:12" ht="17.25" customHeight="1">
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="117">
         <v>8</v>
       </c>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="106">
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="119">
         <v>5</v>
       </c>
-      <c r="L3" s="7"/>
+      <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:12" ht="17.25" customHeight="1">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="117">
         <v>12.4</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="117">
         <v>9</v>
       </c>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="7"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="120"/>
+      <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:12" ht="17.25" customHeight="1">
-      <c r="C5" s="2">
+      <c r="C5" s="117">
         <v>42</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="117">
         <v>15</v>
       </c>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="107"/>
-      <c r="L5" s="7"/>
+      <c r="H5" s="123"/>
+      <c r="I5" s="123"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:12" ht="17.25" customHeight="1">
-      <c r="G6" s="2">
+      <c r="G6" s="117">
         <v>22</v>
       </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="107"/>
-      <c r="L6" s="7"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="120"/>
+      <c r="L6" s="6"/>
     </row>
     <row r="7" spans="1:12" ht="17.25" customHeight="1">
-      <c r="C7" s="2">
+      <c r="C7" s="117">
         <v>3</v>
       </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="7"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:12" ht="17.25" customHeight="1">
-      <c r="G8" s="2">
+      <c r="G8" s="117">
         <v>30</v>
       </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="108"/>
-      <c r="L8" s="7"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="121"/>
+      <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:12" ht="17.25" customHeight="1">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="117">
         <f>SUM(C4:C5)</f>
         <v>54.4</v>
       </c>
-      <c r="K9" s="11"/>
+      <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:12" ht="17.25" customHeight="1">
-      <c r="C10" s="2">
+      <c r="C10" s="117">
         <f>SUM(C4:C7)</f>
         <v>57.4</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="117" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="17.25" customHeight="1">
-      <c r="C11" s="2">
+      <c r="C11" s="117">
         <f>-(3+C7*SUM(C4:C7))</f>
         <v>-175.2</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="17.25" customHeight="1">
-      <c r="C12" s="2">
+      <c r="C12" s="117">
         <f>SUM(C9:C11)</f>
         <v>-63.399999999999991</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="117" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="17.25" customHeight="1">
-      <c r="G13" s="2">
+      <c r="G13" s="117">
         <f>A1+A2+A3+A4+A5+A6+A7+A8+A9+A10+A11+A12+A13+A14+A15+A16+A17+A18</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="17.25" customHeight="1">
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="2" t="str">
+      <c r="C14" s="117" t="str">
         <f ca="1">C14</f>
         <v>#CYCLE</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="17.25" customHeight="1">
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="117" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="17.25" customHeight="1">
-      <c r="C16" s="2" t="str">
+      <c r="C16" s="117" t="str">
         <f>C15</f>
         <v>=(+</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="17.25" customHeight="1">
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="117" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="17.25" customHeight="1">
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="117" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="17.25" customHeight="1">
-      <c r="E19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="E19" s="3"/>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:9" ht="17.25" customHeight="1">
-      <c r="B20" s="6"/>
-      <c r="C20" s="7" t="s">
+      <c r="B20" s="5"/>
+      <c r="C20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="13" t="s">
+      <c r="F20" s="5"/>
+      <c r="G20" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="7"/>
+      <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="14">
         <f>jestCharts!B2</f>
         <v>0</v>
       </c>
-      <c r="G21" s="11"/>
+      <c r="G21" s="10"/>
     </row>
     <row r="23" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="15">
         <v>0.43</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="117">
         <v>0</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="117">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="17.25" customHeight="1">
-      <c r="C24" s="17">
+      <c r="C24" s="16">
         <v>10</v>
       </c>
-      <c r="H24" s="2">
-        <v>1</v>
-      </c>
-      <c r="I24" s="2">
+      <c r="H24" s="117">
+        <v>1</v>
+      </c>
+      <c r="I24" s="117">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="17.25" customHeight="1">
-      <c r="C25" s="17">
+      <c r="C25" s="16">
         <v>10.122999999999999</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="117">
         <v>2</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="117">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="17.25" customHeight="1">
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="117">
         <v>3</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="117">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="117">
         <v>12</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="117">
         <v>24</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="117">
         <v>4</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27" s="117">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="117" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="117">
         <v>48</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="117">
         <v>12</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="117">
         <v>5</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28" s="117">
         <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="117" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="117">
         <v>45</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="117">
         <v>27</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="117">
         <v>6</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="117">
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="2">
-        <v>1</v>
-      </c>
-      <c r="C30" s="2">
+      <c r="B30" s="117">
+        <v>1</v>
+      </c>
+      <c r="C30" s="117">
         <v>9</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="117">
         <v>7</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30" s="117">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="117">
         <v>25</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="117">
         <v>45</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="117">
         <v>8</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="117">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="117" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="117">
         <v>31</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="117">
         <v>17</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="117">
         <v>9</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32" s="117">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="117">
         <v>20</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="117">
         <v>43</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="117">
         <v>10</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33" s="117">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="117" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="117">
         <v>19</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="117">
         <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="117" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="117">
         <v>16</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="117">
         <v>16</v>
       </c>
     </row>
@@ -7988,7 +8617,7 @@
       <selection sqref="A1:N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8046,6 +8675,235 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025F2510-D243-4DA1-81DE-BBDDA9BC3681}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="3" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="114" t="s">
+        <v>418</v>
+      </c>
+      <c r="B1" s="115" t="s">
+        <v>419</v>
+      </c>
+      <c r="C1" s="115" t="s">
+        <v>420</v>
+      </c>
+      <c r="D1" s="115" t="s">
+        <v>421</v>
+      </c>
+      <c r="E1" s="115" t="s">
+        <v>422</v>
+      </c>
+      <c r="F1" s="115" t="s">
+        <v>423</v>
+      </c>
+      <c r="G1" s="115" t="s">
+        <v>424</v>
+      </c>
+      <c r="H1" s="115" t="s">
+        <v>425</v>
+      </c>
+      <c r="I1" s="116" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="104">
+        <v>4</v>
+      </c>
+      <c r="B2" s="105">
+        <v>99.5</v>
+      </c>
+      <c r="C2" s="105">
+        <v>1</v>
+      </c>
+      <c r="D2" s="105" t="s">
+        <v>427</v>
+      </c>
+      <c r="E2" s="106">
+        <v>45575</v>
+      </c>
+      <c r="F2" s="107">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="G2" s="107" t="s">
+        <v>428</v>
+      </c>
+      <c r="H2" s="106">
+        <v>45292</v>
+      </c>
+      <c r="I2" s="108">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="104">
+        <v>3</v>
+      </c>
+      <c r="B3" s="105">
+        <v>40</v>
+      </c>
+      <c r="C3" s="105">
+        <v>2</v>
+      </c>
+      <c r="D3" s="105" t="s">
+        <v>429</v>
+      </c>
+      <c r="E3" s="106">
+        <v>45576</v>
+      </c>
+      <c r="F3" s="107">
+        <v>0.57638888888888884</v>
+      </c>
+      <c r="G3" s="107" t="s">
+        <v>430</v>
+      </c>
+      <c r="H3" s="106">
+        <v>45231</v>
+      </c>
+      <c r="I3" s="108" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="104">
+        <v>9</v>
+      </c>
+      <c r="B4" s="105">
+        <v>0</v>
+      </c>
+      <c r="C4" s="105">
+        <v>3</v>
+      </c>
+      <c r="D4" s="105" t="s">
+        <v>431</v>
+      </c>
+      <c r="E4" s="106">
+        <v>45574</v>
+      </c>
+      <c r="F4" s="107">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="G4" s="107" t="s">
+        <v>432</v>
+      </c>
+      <c r="H4" s="106">
+        <v>45325</v>
+      </c>
+      <c r="I4" s="108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="104">
+        <v>5</v>
+      </c>
+      <c r="B5" s="105">
+        <v>120</v>
+      </c>
+      <c r="C5" s="105">
+        <v>4</v>
+      </c>
+      <c r="D5" s="105" t="s">
+        <v>429</v>
+      </c>
+      <c r="E5" s="106">
+        <v>45573</v>
+      </c>
+      <c r="F5" s="107">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G5" s="105" t="s">
+        <v>433</v>
+      </c>
+      <c r="H5" s="106">
+        <v>45084</v>
+      </c>
+      <c r="I5" s="108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="109">
+        <v>7</v>
+      </c>
+      <c r="B6" s="110">
+        <v>12</v>
+      </c>
+      <c r="C6" s="110">
+        <v>5</v>
+      </c>
+      <c r="D6" s="110" t="s">
+        <v>431</v>
+      </c>
+      <c r="E6" s="111">
+        <v>45566</v>
+      </c>
+      <c r="F6" s="112">
+        <v>0.5229166666666667</v>
+      </c>
+      <c r="G6" s="110" t="s">
+        <v>434</v>
+      </c>
+      <c r="H6" s="111">
+        <v>45420</v>
+      </c>
+      <c r="I6" s="113" t="s">
+        <v>433</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="9">
+    <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A6" xr:uid="{B9309757-E2F4-49A1-880B-2F47F04364D6}">
+      <formula1>1</formula1>
+      <formula2>5</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B6" xr:uid="{7B68D26A-1B1D-4327-906D-753CF39E281C}">
+      <formula1>1</formula1>
+      <formula2>100</formula2>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C6" xr:uid="{1150F523-8C6C-482F-8738-910EECBB2A28}">
+      <formula1>$C$2:$C$6</formula1>
+    </dataValidation>
+    <dataValidation type="date" errorStyle="warning" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6" xr:uid="{54DB89C3-BBA6-4A2D-B5BB-AC6E00AEE4DA}">
+      <formula1>45575</formula1>
+    </dataValidation>
+    <dataValidation type="time" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F6" xr:uid="{EF20CA15-C64F-4A4E-82C5-8291CBEAEB85}">
+      <formula1>0.625</formula1>
+      <formula2>0.75</formula2>
+    </dataValidation>
+    <dataValidation type="textLength" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G6" xr:uid="{C9CA9AA5-9067-42E1-AC95-BEC22F4C4C16}">
+      <formula1>1</formula1>
+      <formula2>5</formula2>
+    </dataValidation>
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I6" xr:uid="{B1282AE0-81A7-4F83-934D-520FB78380E5}">
+      <formula1>ISNUMBER(I2)</formula1>
+    </dataValidation>
+    <dataValidation type="date" errorStyle="warning" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H6" xr:uid="{A800671A-DD3E-492C-AC04-70928416B8CA}">
+      <formula1>45261</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6" xr:uid="{1E18A174-B5CF-4015-B7DC-F1491351E054}">
+      <formula1>"option1,option2,option3"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0630FA18-71FC-4ACD-8379-39A3603D1DD6}">
   <sheetPr>
@@ -8063,71 +8921,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="117" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="117" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="2">
+      <c r="N1" s="117">
         <v>0.1</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="17" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="117" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="117">
         <f>ABS(-5.5)</f>
         <v>5.5</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="117">
         <v>5.5</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="117">
         <f t="shared" ref="D2:D33" si="0">IF(B2=C2,1,0)</f>
         <v>1</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="117">
         <v>26</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="117">
         <v>1204.7</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="117">
         <v>25618</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="117">
         <v>5</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="117">
         <v>0.2</v>
       </c>
       <c r="P2">
@@ -8144,36 +9002,36 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="117" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="117">
         <f>ACOS(1)</f>
         <v>0</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="117">
         <v>0</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="117">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="117">
         <v>13</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="117">
         <v>500.9</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="117">
         <v>23000</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="117">
         <v>7</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="117">
         <v>0.4</v>
       </c>
       <c r="P3">
@@ -8190,36 +9048,36 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="117">
         <f>ROUND(ACOSH(2),5)</f>
         <v>1.3169599999999999</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="117">
         <v>1.3169599999999999</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="117">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="117" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="117">
         <v>26</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="117">
         <v>252.4</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="117">
         <v>110120.5</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="117">
         <v>3</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="117">
         <v>0.5</v>
       </c>
       <c r="P4">
@@ -8236,36 +9094,36 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="117" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="117">
         <f>ROUND(_xlfn.ACOT(1),5)</f>
         <v>0.78539999999999999</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="117">
         <v>0.78539999999999999</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="117">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="117">
         <v>42</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="117">
         <v>4701.3</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="117">
         <v>50024</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="117">
         <v>4</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="117">
         <v>0.6</v>
       </c>
       <c r="P5">
@@ -8282,36 +9140,36 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="117">
         <f>ROUND(_xlfn.ACOTH(2),5)</f>
         <v>0.54930999999999996</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="117">
         <v>0.54930999999999996</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="117">
         <f>IF(B6=C6,1,0)</f>
         <v>1</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="117">
         <v>9</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="117">
         <v>12.1</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="117">
         <v>2</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="117">
         <v>1000</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="N6" s="117" t="s">
         <v>51</v>
       </c>
       <c r="P6">
@@ -8328,2586 +9186,2586 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="2" t="b">
+      <c r="B7" s="117" t="b">
         <f>AND(TRUE,TRUE)</f>
         <v>1</v>
       </c>
-      <c r="C7" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="C7" s="117" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="117">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="117" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="117">
         <v>27</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="117">
         <v>4000</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="117">
         <v>189576</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="117">
         <v>2</v>
       </c>
-      <c r="N7" s="2" t="b">
+      <c r="N7" s="117" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="117">
         <f>ROUND(ASIN(0.5),5)</f>
         <v>0.52359999999999995</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="117">
         <v>0.52359999999999995</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="117">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="117" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="117">
         <v>30</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="117">
         <v>12052</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="117">
         <v>256018</v>
       </c>
-      <c r="K8" s="2">
-        <v>1</v>
-      </c>
-      <c r="N8" s="2" t="b">
+      <c r="K8" s="117">
+        <v>1</v>
+      </c>
+      <c r="N8" s="117" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="117" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="117">
         <f>ROUND(ASINH(2),5)</f>
         <v>1.44364</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="117">
         <v>1.44364</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="117">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="117" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="117">
         <v>37</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="117">
         <v>4890.1000000000004</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="117">
         <v>5000</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="117">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="117" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="117">
         <f>ROUND(ATAN(1),5)</f>
         <v>0.78539999999999999</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="117">
         <v>0.78539999999999999</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="117">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="117" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="117">
         <f>ROUND(ATAN2(-1,0),5)</f>
         <v>3.1415899999999999</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="117">
         <v>3.1415899999999999</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="117">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="117" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="117" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="117">
         <f>ROUND(ATANH(0.7),5)</f>
         <v>0.86729999999999996</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="117">
         <v>0.86729999999999996</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="117">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="18" t="s">
+      <c r="I12" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="18" t="s">
+      <c r="J12" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="K12" s="18" t="s">
+      <c r="K12" s="17" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="117" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="117">
         <f>ROUND(AVEDEV(I2:I9),5)</f>
         <v>2959.1624999999999</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="117">
         <v>2959.1624999999999</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="117">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="117" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="117" t="s">
         <v>63</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="117" t="s">
         <v>64</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" s="117" t="s">
         <v>65</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="117" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="117" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="117">
         <f>ROUND(AVERAGE(H2:H9),5)</f>
         <v>26.25</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="117">
         <v>26.25</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="117">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="117" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="117">
         <f>AVERAGEA(G2:H9)</f>
         <v>13.125</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="117">
         <v>13.125</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="117">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="117" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="117">
         <f>ROUND(AVERAGEIF(J2:J9,"&gt;150000"),5)</f>
         <v>222797</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="117">
         <v>222797</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="117">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="117" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="117">
         <f>ROUND(AVERAGEIFS(I2:I9,H2:H9,"&gt;=30",K2:K9,"&lt;10"),5)</f>
         <v>8376.65</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="117">
         <v>8376.65</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="117">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="117" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="117">
         <f>CEILING(20.4,1)</f>
         <v>21</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="117">
         <v>21</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="117">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="117" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="117">
         <f>_xlfn.CEILING.MATH(-5.5,1,0)</f>
         <v>-5</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="117">
         <v>-5</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="117">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="117" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="117">
         <f>_xlfn.CEILING.PRECISE(230,100)</f>
         <v>300</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="117">
         <v>300</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="117">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="117" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="2" t="str">
+      <c r="B21" s="117" t="str">
         <f>CHAR(74)</f>
         <v>J</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="117" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="117">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="117" t="s">
         <v>76</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="117">
         <f>COLUMN(C4)</f>
         <v>3</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="117">
         <v>3</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="117">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="117" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="117">
         <f>COLUMNS(A5:D12)</f>
         <v>4</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="117">
         <v>4</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="117">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="117" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="2" t="str">
+      <c r="B24" s="117" t="str">
         <f>_xlfn.CONCAT(1,23)</f>
         <v>123</v>
       </c>
-      <c r="C24" s="2" t="str">
+      <c r="C24" s="117" t="str">
         <f>"123"</f>
         <v>123</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="117">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="117" t="s">
         <v>79</v>
       </c>
-      <c r="B25" s="2" t="str">
+      <c r="B25" s="117" t="str">
         <f>CONCATENATE("BUT, ","MICHEL")</f>
         <v>BUT, MICHEL</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="117" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="117">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="117" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="117">
         <f>ROUND(COS(PI()/3),2)</f>
         <v>0.5</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="117">
         <v>0.5</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="117">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="117" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="117">
         <f>ROUND(COSH(2),5)</f>
         <v>3.7622</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="117">
         <v>3.7622</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="117">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="117" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="117">
         <f>ROUND(_xlfn.COT(PI()/6),5)</f>
         <v>1.7320500000000001</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="117">
         <f>ROUND(SQRT(3),5)</f>
         <v>1.7320500000000001</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="117">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="117" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="117">
         <f>ROUND(_xlfn.COTH(0.5),5)</f>
         <v>2.1639499999999998</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="117">
         <v>2.1639499999999998</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="117">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="117" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="117">
         <f>COUNT(1,"a","5","2021-03-14")</f>
         <v>3</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="117">
         <v>2</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="117">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="117" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="117">
         <f>COUNTA(1,"a","5","2021-03-14")</f>
         <v>4</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="117">
         <v>4</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="117">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="117" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="117">
         <f>COUNTBLANK(F1:G1)</f>
         <v>1</v>
       </c>
-      <c r="C32" s="2">
-        <v>1</v>
-      </c>
-      <c r="D32" s="2">
+      <c r="C32" s="117">
+        <v>1</v>
+      </c>
+      <c r="D32" s="117">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="117" t="s">
         <v>88</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="117">
         <f>COUNTIF(H2:H9,"&gt;30")</f>
         <v>2</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="117">
         <v>2</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="117">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="117" t="s">
         <v>89</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="117">
         <f>COUNTIFS(H2:H9,"&gt;25",K2:K9,"&lt;4")</f>
         <v>3</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="117">
         <v>3</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="117">
         <f t="shared" ref="D34:D65" si="4">IF(B34=C34,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="117" t="s">
         <v>90</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="117">
         <f>ROUND(COVAR(H2:H9,K2:K9),5)</f>
         <v>-2119.25</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="117">
         <v>-2119.25</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="117">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="117" t="s">
         <v>91</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="117">
         <f>ROUND(_xlfn.COVARIANCE.P(K2:K9,H2:H9),5)</f>
         <v>-2119.25</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="117">
         <v>-2119.25</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="117">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="117" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="117">
         <f>ROUND(_xlfn.COVARIANCE.P(I2:I9,J2:J9),5)</f>
         <v>237217364.71641001</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="117">
         <v>237217364.71641001</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="117">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="117" t="s">
         <v>93</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="117">
         <f>ROUND(_xlfn.CSC(PI()/4),5)</f>
         <v>1.41421</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="117">
         <f>ROUND(SQRT(2),5)</f>
         <v>1.41421</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="117">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="117" t="s">
         <v>94</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="117">
         <f>ROUND(_xlfn.CSCH(PI()/3),5)</f>
         <v>0.80040999999999995</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="117">
         <v>0.80040999999999995</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="117">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="117" t="s">
         <v>95</v>
       </c>
-      <c r="B40" s="19">
+      <c r="B40" s="18">
         <f>DATE(2020,5,25)</f>
         <v>43976</v>
       </c>
-      <c r="C40" s="19">
+      <c r="C40" s="18">
         <v>43976</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="117">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="117" t="s">
         <v>96</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="117">
         <f>DATEVALUE("1969-08-15")</f>
         <v>25430</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="117">
         <v>25430</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="117">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="117" t="s">
         <v>97</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="117">
         <f>ROUND(DAVERAGE(G1:K9,"Tot. Score",J12:J13),5)</f>
         <v>151434.625</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="117">
         <v>151434.625</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="117">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="117" t="s">
         <v>98</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="117">
         <f>DAY("2020-03-17")</f>
         <v>17</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="117">
         <v>17</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="117">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="117" t="s">
         <v>99</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="117">
         <f>_xlfn.DAYS("2022-03-17","2021-03-17")</f>
         <v>365</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="117">
         <v>365</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="117">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="117" t="s">
         <v>100</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="117">
         <f>DCOUNT(G1:K9,"Name",H12:H13)</f>
         <v>0</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="117">
         <v>0</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="117">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="117" t="s">
         <v>101</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="117">
         <f>DCOUNTA(G1:K9,"Name",H12:H13)</f>
         <v>3</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="117">
         <v>3</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="117">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="117" t="s">
         <v>102</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="117">
         <f>_xlfn.DECIMAL(20,16)</f>
         <v>32</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="117">
         <v>32</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="117">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="117" t="s">
         <v>103</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="117">
         <f>DEGREES(PI()/4)</f>
         <v>45</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="117">
         <v>45</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="117">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="117" t="s">
         <v>104</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="117">
         <f>DGET(G1:K9,"Hours Played",G12:G13)</f>
         <v>252.4</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="117">
         <v>252.4</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="117">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="117" t="s">
         <v>105</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="117">
         <f>DMAX(G1:K9,"Tot. Score",I12:I13)</f>
         <v>189576</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="117">
         <f>J7</f>
         <v>189576</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="117">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="117" t="s">
         <v>106</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="117">
         <f>DMIN(G1:K9,"Tot. Score",H12:H13)</f>
         <v>5000</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="117">
         <f>J9</f>
         <v>5000</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="117">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="117" t="s">
         <v>107</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="117">
         <f>DPRODUCT(G1:K9,"Age",K12:K13)</f>
         <v>333</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="117">
         <v>333</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="117">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="117" t="s">
         <v>108</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="117">
         <f>ROUND(DSTDEV(G1:K9,"Age",H12:H13),5)</f>
         <v>6.0277099999999999</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="117">
         <v>6.0277099999999999</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="117">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="117" t="s">
         <v>109</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="117">
         <f>ROUND(DSTDEVP(G1:K9,"Age",H12:H13),5)</f>
         <v>4.9216100000000003</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="117">
         <v>4.9216100000000003</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="117">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="117" t="s">
         <v>110</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="117">
         <f>DSUM(G1:K9,"Age",I12:I13)</f>
         <v>101</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55" s="117">
         <v>101</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="117">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="117" t="s">
         <v>111</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="117">
         <f>ROUND(DVAR(G1:K9,"Hours Played",H12:H13),5)</f>
         <v>17560207.923330002</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56" s="117">
         <v>17560207.923330002</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="117">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="117" t="s">
         <v>112</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="117">
         <f>ROUND(DVARP(G1:K9,"Hours Played",H12:H13),5)</f>
         <v>11706805.28222</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="117">
         <v>11706805.28222</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="117">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="117" t="s">
         <v>113</v>
       </c>
-      <c r="B58" s="19">
+      <c r="B58" s="18">
         <f>EDATE("1969-07-22",-2)</f>
         <v>25345</v>
       </c>
-      <c r="C58" s="19">
+      <c r="C58" s="18">
         <v>25345</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58" s="117">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="117" t="s">
         <v>114</v>
       </c>
-      <c r="B59" s="19">
+      <c r="B59" s="18">
         <f>EOMONTH("2020-07-21",1)</f>
         <v>44074</v>
       </c>
-      <c r="C59" s="19">
+      <c r="C59" s="18">
         <v>44074</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59" s="117">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="117" t="s">
         <v>115</v>
       </c>
-      <c r="B60" s="2" t="b">
+      <c r="B60" s="117" t="b">
         <f>EXACT("AbsSdf%","AbsSdf%")</f>
         <v>1</v>
       </c>
-      <c r="C60" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D60" s="2">
+      <c r="C60" s="117" t="b">
+        <v>1</v>
+      </c>
+      <c r="D60" s="117">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="117" t="s">
         <v>116</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="117">
         <f>ROUND(EXP(4),5)</f>
         <v>54.598149999999997</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="117">
         <v>54.598149999999997</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61" s="117">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="117" t="s">
         <v>117</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="117">
         <f>FIND("A","qbdahbaazo A")</f>
         <v>12</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C62" s="117">
         <v>12</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D62" s="117">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="117" t="s">
         <v>118</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="117">
         <f>FLOOR(5.5,2)</f>
         <v>4</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63" s="117">
         <v>4</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D63" s="117">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="117" t="s">
         <v>119</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="117">
         <f>_xlfn.FLOOR.MATH(-5.55,2,1)</f>
         <v>-4</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C64" s="117">
         <v>-4</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D64" s="117">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="117" t="s">
         <v>120</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="117">
         <f>_xlfn.FLOOR.PRECISE(199,100)</f>
         <v>100</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C65" s="117">
         <v>100</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D65" s="117">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="117" t="s">
         <v>121</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="117">
         <f>HLOOKUP("Tot. Score",H1:K9,4,FALSE)</f>
         <v>110120.5</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C66" s="117">
         <v>110120.5</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D66" s="117">
         <f t="shared" ref="D66:D97" si="5">IF(B66=C66,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="117" t="s">
         <v>122</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="117">
         <f>HOUR("02:14:56")</f>
         <v>2</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C67" s="117">
         <v>2</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D67" s="117">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="117" t="s">
         <v>123</v>
       </c>
-      <c r="B68" s="2" t="str">
+      <c r="B68" s="117" t="str">
         <f>IF(TRUE,"TABOURET","JAMBON")</f>
         <v>TABOURET</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="117" t="s">
         <v>124</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D68" s="117">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="117" t="s">
         <v>125</v>
       </c>
-      <c r="B69" s="2" t="str">
+      <c r="B69" s="117" t="str">
         <f>IFERROR(0/0,"no diving by zero.")</f>
         <v>no diving by zero.</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="117" t="s">
         <v>126</v>
       </c>
-      <c r="D69" s="2">
+      <c r="D69" s="117">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="117" t="s">
         <v>127</v>
       </c>
-      <c r="B70" s="2" t="str">
+      <c r="B70" s="117" t="str">
         <f>_xlfn.IFS($H2&gt;$H3,"first player is older",$H3&gt;$H2,"second player is older")</f>
         <v>first player is older</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="117" t="s">
         <v>128</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D70" s="117">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="117" t="s">
         <v>129</v>
       </c>
-      <c r="B71" s="2" t="b">
+      <c r="B71" s="117" t="b">
         <f>ISERROR(0/0)</f>
         <v>1</v>
       </c>
-      <c r="C71" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D71" s="2">
+      <c r="C71" s="117" t="b">
+        <v>1</v>
+      </c>
+      <c r="D71" s="117">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="117" t="s">
         <v>130</v>
       </c>
-      <c r="B72" s="2" t="b">
+      <c r="B72" s="117" t="b">
         <f>ISEVEN(3)</f>
         <v>0</v>
       </c>
-      <c r="C72" s="2" t="b">
+      <c r="C72" s="117" t="b">
         <v>0</v>
       </c>
-      <c r="D72" s="2">
+      <c r="D72" s="117">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="117" t="s">
         <v>131</v>
       </c>
-      <c r="B73" s="2" t="b">
+      <c r="B73" s="117" t="b">
         <f>ISLOGICAL("TRUE")</f>
         <v>0</v>
       </c>
-      <c r="C73" s="2" t="b">
+      <c r="C73" s="117" t="b">
         <v>0</v>
       </c>
-      <c r="D73" s="2">
+      <c r="D73" s="117">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A74" s="2" t="s">
+      <c r="A74" s="117" t="s">
         <v>132</v>
       </c>
-      <c r="B74" s="2" t="b">
+      <c r="B74" s="117" t="b">
         <f>ISNONTEXT(TRUE)</f>
         <v>1</v>
       </c>
-      <c r="C74" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D74" s="2">
+      <c r="C74" s="117" t="b">
+        <v>1</v>
+      </c>
+      <c r="D74" s="117">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="117" t="s">
         <v>133</v>
       </c>
-      <c r="B75" s="2" t="b">
+      <c r="B75" s="117" t="b">
         <f>ISNUMBER(1231.5)</f>
         <v>1</v>
       </c>
-      <c r="C75" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D75" s="2">
+      <c r="C75" s="117" t="b">
+        <v>1</v>
+      </c>
+      <c r="D75" s="117">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A76" s="2" t="s">
+      <c r="A76" s="117" t="s">
         <v>134</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76" s="117">
         <f>ISO.CEILING(-7.89)</f>
         <v>-7</v>
       </c>
-      <c r="C76" s="2">
+      <c r="C76" s="117">
         <v>-7</v>
       </c>
-      <c r="D76" s="2">
+      <c r="D76" s="117">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="117" t="s">
         <v>135</v>
       </c>
-      <c r="B77" s="2" t="b">
+      <c r="B77" s="117" t="b">
         <f>ISODD(4)</f>
         <v>0</v>
       </c>
-      <c r="C77" s="2" t="b">
+      <c r="C77" s="117" t="b">
         <v>0</v>
       </c>
-      <c r="D77" s="2">
+      <c r="D77" s="117">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A78" s="2" t="s">
+      <c r="A78" s="117" t="s">
         <v>136</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78" s="117">
         <f>_xlfn.ISOWEEKNUM("2016-01-03")</f>
         <v>53</v>
       </c>
-      <c r="C78" s="2">
+      <c r="C78" s="117">
         <v>53</v>
       </c>
-      <c r="D78" s="2">
+      <c r="D78" s="117">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A79" s="2" t="s">
+      <c r="A79" s="117" t="s">
         <v>137</v>
       </c>
-      <c r="B79" s="2" t="b">
+      <c r="B79" s="117" t="b">
         <f>ISTEXT("123")</f>
         <v>1</v>
       </c>
-      <c r="C79" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D79" s="2">
+      <c r="C79" s="117" t="b">
+        <v>1</v>
+      </c>
+      <c r="D79" s="117">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A80" s="2" t="s">
+      <c r="A80" s="117" t="s">
         <v>138</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B80" s="117">
         <f>LARGE(H2:H9,3)</f>
         <v>30</v>
       </c>
-      <c r="C80" s="2">
+      <c r="C80" s="117">
         <v>30</v>
       </c>
-      <c r="D80" s="2">
+      <c r="D80" s="117">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A81" s="2" t="s">
+      <c r="A81" s="117" t="s">
         <v>139</v>
       </c>
-      <c r="B81" s="2" t="str">
+      <c r="B81" s="117" t="str">
         <f>LEFT("Mich",4)</f>
         <v>Mich</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="117" t="s">
         <v>140</v>
       </c>
-      <c r="D81" s="2">
+      <c r="D81" s="117">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A82" s="2" t="s">
+      <c r="A82" s="117" t="s">
         <v>141</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82" s="117">
         <f>LEN("anticonstitutionnellement")</f>
         <v>25</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C82" s="117">
         <v>25</v>
       </c>
-      <c r="D82" s="2">
+      <c r="D82" s="117">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A83" s="2" t="s">
+      <c r="A83" s="117" t="s">
         <v>142</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83" s="117">
         <f>ROUND(LN(2),5)</f>
         <v>0.69315000000000004</v>
       </c>
-      <c r="C83" s="2">
+      <c r="C83" s="117">
         <v>0.69315000000000004</v>
       </c>
-      <c r="D83" s="2">
+      <c r="D83" s="117">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A84" s="2" t="s">
+      <c r="A84" s="117" t="s">
         <v>143</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84" s="117">
         <f>LOOKUP(23000,H3:J3,H5:J5)</f>
         <v>50024</v>
       </c>
-      <c r="C84" s="2">
+      <c r="C84" s="117">
         <v>50024</v>
       </c>
-      <c r="D84" s="2">
+      <c r="D84" s="117">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A85" s="2" t="s">
+      <c r="A85" s="117" t="s">
         <v>144</v>
       </c>
-      <c r="B85" s="2" t="str">
+      <c r="B85" s="117" t="str">
         <f>LOWER("オAドB")</f>
         <v>オaドb</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="117" t="s">
         <v>145</v>
       </c>
-      <c r="D85" s="2">
+      <c r="D85" s="117">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A86" s="2" t="s">
+      <c r="A86" s="117" t="s">
         <v>146</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B86" s="117">
         <f>MATCH(42,H2:H9,0)</f>
         <v>4</v>
       </c>
-      <c r="C86" s="2">
+      <c r="C86" s="117">
         <v>4</v>
       </c>
-      <c r="D86" s="2">
+      <c r="D86" s="117">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A87" s="2" t="s">
+      <c r="A87" s="117" t="s">
         <v>147</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87" s="117">
         <f>MAX(N1:N8)</f>
         <v>0.6</v>
       </c>
-      <c r="C87" s="2">
+      <c r="C87" s="117">
         <v>0.6</v>
       </c>
-      <c r="D87" s="2">
+      <c r="D87" s="117">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A88" s="2" t="s">
+      <c r="A88" s="117" t="s">
         <v>148</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88" s="117">
         <f>MAXA(N1:N8)</f>
         <v>1</v>
       </c>
-      <c r="C88" s="2">
-        <v>1</v>
-      </c>
-      <c r="D88" s="2">
+      <c r="C88" s="117">
+        <v>1</v>
+      </c>
+      <c r="D88" s="117">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A89" s="2" t="s">
+      <c r="A89" s="117" t="s">
         <v>149</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B89" s="117">
         <f>_xlfn.MAXIFS(H2:H9,K2:K9,"&lt;20",K2:K9,"&lt;&gt;4")</f>
         <v>30</v>
       </c>
-      <c r="C89" s="2">
+      <c r="C89" s="117">
         <v>30</v>
       </c>
-      <c r="D89" s="2">
+      <c r="D89" s="117">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A90" s="2" t="s">
+      <c r="A90" s="117" t="s">
         <v>150</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90" s="117">
         <f>MEDIAN(-1,6,7,234,163845)</f>
         <v>7</v>
       </c>
-      <c r="C90" s="2">
+      <c r="C90" s="117">
         <v>7</v>
       </c>
-      <c r="D90" s="2">
+      <c r="D90" s="117">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A91" s="2" t="s">
+      <c r="A91" s="117" t="s">
         <v>151</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91" s="117">
         <f>MIN(N1:N8)</f>
         <v>0.1</v>
       </c>
-      <c r="C91" s="2">
+      <c r="C91" s="117">
         <v>0.1</v>
       </c>
-      <c r="D91" s="2">
+      <c r="D91" s="117">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A92" s="2" t="s">
+      <c r="A92" s="117" t="s">
         <v>152</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92" s="117">
         <f>MINA(N1:N8)</f>
         <v>0</v>
       </c>
-      <c r="C92" s="2">
+      <c r="C92" s="117">
         <v>0</v>
       </c>
-      <c r="D92" s="2">
+      <c r="D92" s="117">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A93" s="2" t="s">
+      <c r="A93" s="117" t="s">
         <v>153</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93" s="117">
         <f>_xlfn.MINIFS(J2:J9,H2:H9,"&gt;20")</f>
         <v>5000</v>
       </c>
-      <c r="C93" s="2">
+      <c r="C93" s="117">
         <v>5000</v>
       </c>
-      <c r="D93" s="2">
+      <c r="D93" s="117">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A94" s="2" t="s">
+      <c r="A94" s="117" t="s">
         <v>154</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B94" s="117">
         <f>MINUTE(0.126)</f>
         <v>1</v>
       </c>
-      <c r="C94" s="2">
-        <v>1</v>
-      </c>
-      <c r="D94" s="2">
+      <c r="C94" s="117">
+        <v>1</v>
+      </c>
+      <c r="D94" s="117">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A95" s="2" t="s">
+      <c r="A95" s="117" t="s">
         <v>155</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B95" s="117">
         <f>MOD(42,12)</f>
         <v>6</v>
       </c>
-      <c r="C95" s="2">
+      <c r="C95" s="117">
         <v>6</v>
       </c>
-      <c r="D95" s="2">
+      <c r="D95" s="117">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A96" s="2" t="s">
+      <c r="A96" s="117" t="s">
         <v>156</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96" s="117">
         <f>MONTH("1954-05-02")</f>
         <v>5</v>
       </c>
-      <c r="C96" s="2">
+      <c r="C96" s="117">
         <v>5</v>
       </c>
-      <c r="D96" s="2">
+      <c r="D96" s="117">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A97" s="2" t="s">
+      <c r="A97" s="117" t="s">
         <v>157</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97" s="117">
         <f>NETWORKDAYS("2013-01-01","2013-02-01")</f>
         <v>24</v>
       </c>
-      <c r="C97" s="2">
+      <c r="C97" s="117">
         <v>24</v>
       </c>
-      <c r="D97" s="2">
+      <c r="D97" s="117">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A98" s="2" t="s">
+      <c r="A98" s="117" t="s">
         <v>158</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98" s="117">
         <f>NETWORKDAYS.INTL("2013-01-01","2013-02-01","0000111")</f>
         <v>19</v>
       </c>
-      <c r="C98" s="2">
+      <c r="C98" s="117">
         <v>19</v>
       </c>
-      <c r="D98" s="2">
+      <c r="D98" s="117">
         <f t="shared" ref="D98:D99" si="6">IF(B98=C98,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A99" s="2" t="s">
+      <c r="A99" s="117" t="s">
         <v>159</v>
       </c>
-      <c r="B99" s="2" t="b">
+      <c r="B99" s="117" t="b">
         <f>NOT(FALSE)</f>
         <v>1</v>
       </c>
-      <c r="C99" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D99" s="2">
+      <c r="C99" s="117" t="b">
+        <v>1</v>
+      </c>
+      <c r="D99" s="117">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A100" s="2" t="s">
+      <c r="A100" s="117" t="s">
         <v>160</v>
       </c>
-      <c r="B100" s="20">
+      <c r="B100" s="19">
         <f ca="1">NOW()</f>
-        <v>45663.395637384259</v>
-      </c>
-      <c r="D100" s="2">
+        <v>45663.51402037037</v>
+      </c>
+      <c r="D100" s="117">
         <f ca="1">IF(ISNUMBER(B100),1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A101" s="2" t="s">
+      <c r="A101" s="117" t="s">
         <v>161</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B101" s="117">
         <f>ODD(4)</f>
         <v>5</v>
       </c>
-      <c r="C101" s="2">
+      <c r="C101" s="117">
         <v>5</v>
       </c>
-      <c r="D101" s="2">
+      <c r="D101" s="117">
         <f t="shared" ref="D101:D111" si="7">IF(B101=C101,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A102" s="2" t="s">
+      <c r="A102" s="117" t="s">
         <v>162</v>
       </c>
-      <c r="B102" s="2" t="b">
+      <c r="B102" s="117" t="b">
         <f>OR("true",FALSE)</f>
         <v>1</v>
       </c>
-      <c r="C102" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D102" s="2">
+      <c r="C102" s="117" t="b">
+        <v>1</v>
+      </c>
+      <c r="D102" s="117">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A103" s="2" t="s">
+      <c r="A103" s="117" t="s">
         <v>163</v>
       </c>
-      <c r="B103" s="2">
+      <c r="B103" s="117">
         <f>PERCENTILE(N1:N5,1)</f>
         <v>0.6</v>
       </c>
-      <c r="C103" s="2">
+      <c r="C103" s="117">
         <v>0.6</v>
       </c>
-      <c r="D103" s="2">
+      <c r="D103" s="117">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A104" s="2" t="s">
+      <c r="A104" s="117" t="s">
         <v>164</v>
       </c>
-      <c r="B104" s="2">
+      <c r="B104" s="117">
         <f>_xlfn.PERCENTILE.EXC(N1:N5,0.5)</f>
         <v>0.4</v>
       </c>
-      <c r="C104" s="2">
+      <c r="C104" s="117">
         <v>0.4</v>
       </c>
-      <c r="D104" s="2">
+      <c r="D104" s="117">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A105" s="2" t="s">
+      <c r="A105" s="117" t="s">
         <v>165</v>
       </c>
-      <c r="B105" s="2">
+      <c r="B105" s="117">
         <f>_xlfn.PERCENTILE.INC(N1:N5,0)</f>
         <v>0.1</v>
       </c>
-      <c r="C105" s="2">
+      <c r="C105" s="117">
         <v>0.1</v>
       </c>
-      <c r="D105" s="2">
+      <c r="D105" s="117">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A106" s="2" t="s">
+      <c r="A106" s="117" t="s">
         <v>166</v>
       </c>
-      <c r="B106" s="2">
+      <c r="B106" s="117">
         <f>ROUND(PI(),5)</f>
         <v>3.1415899999999999</v>
       </c>
-      <c r="C106" s="2">
+      <c r="C106" s="117">
         <v>3.1415899999999999</v>
       </c>
-      <c r="D106" s="2">
+      <c r="D106" s="117">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A107" s="2" t="s">
+      <c r="A107" s="117" t="s">
         <v>167</v>
       </c>
-      <c r="B107" s="2">
+      <c r="B107" s="117">
         <f>POWER(42,2)</f>
         <v>1764</v>
       </c>
-      <c r="C107" s="2">
+      <c r="C107" s="117">
         <v>1764</v>
       </c>
-      <c r="D107" s="2">
+      <c r="D107" s="117">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A108" s="2" t="s">
+      <c r="A108" s="117" t="s">
         <v>168</v>
       </c>
-      <c r="B108" s="2">
+      <c r="B108" s="117">
         <f>PRODUCT(1,2,3)</f>
         <v>6</v>
       </c>
-      <c r="C108" s="2">
+      <c r="C108" s="117">
         <v>6</v>
       </c>
-      <c r="D108" s="2">
+      <c r="D108" s="117">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A109" s="2" t="s">
+      <c r="A109" s="117" t="s">
         <v>169</v>
       </c>
-      <c r="B109" s="2">
+      <c r="B109" s="117">
         <f>QUARTILE(N1:N5,0)</f>
         <v>0.1</v>
       </c>
-      <c r="C109" s="2">
+      <c r="C109" s="117">
         <v>0.1</v>
       </c>
-      <c r="D109" s="2">
+      <c r="D109" s="117">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A110" s="2" t="s">
+      <c r="A110" s="117" t="s">
         <v>170</v>
       </c>
-      <c r="B110" s="2">
+      <c r="B110" s="117">
         <f>ROUND(_xlfn.QUARTILE.EXC(N1:N5,1),5)</f>
         <v>0.15</v>
       </c>
-      <c r="C110" s="2">
+      <c r="C110" s="117">
         <v>0.15</v>
       </c>
-      <c r="D110" s="2">
+      <c r="D110" s="117">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A111" s="2" t="s">
+      <c r="A111" s="117" t="s">
         <v>171</v>
       </c>
-      <c r="B111" s="2">
+      <c r="B111" s="117">
         <f>_xlfn.QUARTILE.INC(N1:N5,4)</f>
         <v>0.6</v>
       </c>
-      <c r="C111" s="2">
+      <c r="C111" s="117">
         <v>0.6</v>
       </c>
-      <c r="D111" s="2">
+      <c r="D111" s="117">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A112" s="2"/>
-      <c r="B112" s="2"/>
-      <c r="D112" s="2"/>
+      <c r="A112" s="117"/>
+      <c r="B112" s="117"/>
+      <c r="D112" s="117"/>
     </row>
     <row r="113" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A113" s="2" t="s">
+      <c r="A113" s="117" t="s">
         <v>172</v>
       </c>
-      <c r="B113" s="2">
+      <c r="B113" s="117">
         <f ca="1">RANDBETWEEN(1.1,2)</f>
         <v>2</v>
       </c>
-      <c r="C113" s="2">
+      <c r="C113" s="117">
         <v>2</v>
       </c>
-      <c r="D113" s="2">
+      <c r="D113" s="117">
         <f t="shared" ref="D113:D143" ca="1" si="8">IF(B113=C113,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A114" s="2" t="s">
+      <c r="A114" s="117" t="s">
         <v>173</v>
       </c>
-      <c r="B114" s="2" t="str">
+      <c r="B114" s="117" t="str">
         <f>REPLACE("ABZ",2,1,"Y")</f>
         <v>AYZ</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="C114" s="117" t="s">
         <v>174</v>
       </c>
-      <c r="D114" s="2">
+      <c r="D114" s="117">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A115" s="2" t="s">
+      <c r="A115" s="117" t="s">
         <v>175</v>
       </c>
-      <c r="B115" s="2" t="str">
+      <c r="B115" s="117" t="str">
         <f>RIGHT("kikou",2)</f>
         <v>ou</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="C115" s="117" t="s">
         <v>176</v>
       </c>
-      <c r="D115" s="2">
+      <c r="D115" s="117">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A116" s="2" t="s">
+      <c r="A116" s="117" t="s">
         <v>177</v>
       </c>
-      <c r="B116" s="2">
+      <c r="B116" s="117">
         <f>ROUND(49.9,0)</f>
         <v>50</v>
       </c>
-      <c r="C116" s="2">
+      <c r="C116" s="117">
         <v>50</v>
       </c>
-      <c r="D116" s="2">
+      <c r="D116" s="117">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A117" s="2" t="s">
+      <c r="A117" s="117" t="s">
         <v>178</v>
       </c>
-      <c r="B117" s="2">
+      <c r="B117" s="117">
         <f>ROUNDDOWN(42,-1)</f>
         <v>40</v>
       </c>
-      <c r="C117" s="2">
+      <c r="C117" s="117">
         <v>40</v>
       </c>
-      <c r="D117" s="2">
+      <c r="D117" s="117">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A118" s="2" t="s">
+      <c r="A118" s="117" t="s">
         <v>179</v>
       </c>
-      <c r="B118" s="2">
+      <c r="B118" s="117">
         <f>ROUNDUP(-1.6,0)</f>
         <v>-2</v>
       </c>
-      <c r="C118" s="2">
+      <c r="C118" s="117">
         <v>-2</v>
       </c>
-      <c r="D118" s="2">
+      <c r="D118" s="117">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A119" s="2" t="s">
+      <c r="A119" s="117" t="s">
         <v>180</v>
       </c>
-      <c r="B119" s="2">
+      <c r="B119" s="117">
         <f>ROW(A234)</f>
         <v>234</v>
       </c>
-      <c r="C119" s="2">
+      <c r="C119" s="117">
         <v>234</v>
       </c>
-      <c r="D119" s="2">
+      <c r="D119" s="117">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A120" s="2" t="s">
+      <c r="A120" s="117" t="s">
         <v>181</v>
       </c>
-      <c r="B120" s="2">
+      <c r="B120" s="117">
         <f>ROWS(B3:C40)</f>
         <v>38</v>
       </c>
-      <c r="C120" s="2">
+      <c r="C120" s="117">
         <v>38</v>
       </c>
-      <c r="D120" s="2">
+      <c r="D120" s="117">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A121" s="2" t="s">
+      <c r="A121" s="117" t="s">
         <v>182</v>
       </c>
-      <c r="B121" s="2">
+      <c r="B121" s="117">
         <f>SEARCH("C","ABCD")</f>
         <v>3</v>
       </c>
-      <c r="C121" s="2">
+      <c r="C121" s="117">
         <v>3</v>
       </c>
-      <c r="D121" s="2">
+      <c r="D121" s="117">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A122" s="2" t="s">
+      <c r="A122" s="117" t="s">
         <v>183</v>
       </c>
-      <c r="B122" s="2">
+      <c r="B122" s="117">
         <f>ROUND(_xlfn.SEC(PI()/3),5)</f>
         <v>2</v>
       </c>
-      <c r="C122" s="2">
+      <c r="C122" s="117">
         <v>2</v>
       </c>
-      <c r="D122" s="2">
+      <c r="D122" s="117">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A123" s="2" t="s">
+      <c r="A123" s="117" t="s">
         <v>184</v>
       </c>
-      <c r="B123" s="2">
+      <c r="B123" s="117">
         <f>ROUND(_xlfn.SECH(1),5)</f>
         <v>0.64805000000000001</v>
       </c>
-      <c r="C123" s="2">
+      <c r="C123" s="117">
         <v>0.64805000000000001</v>
       </c>
-      <c r="D123" s="2">
+      <c r="D123" s="117">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A124" s="2" t="s">
+      <c r="A124" s="117" t="s">
         <v>185</v>
       </c>
-      <c r="B124" s="2">
+      <c r="B124" s="117">
         <f>SECOND("00:21:42")</f>
         <v>42</v>
       </c>
-      <c r="C124" s="2">
+      <c r="C124" s="117">
         <v>42</v>
       </c>
-      <c r="D124" s="2">
+      <c r="D124" s="117">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A125" s="2" t="s">
+      <c r="A125" s="117" t="s">
         <v>186</v>
       </c>
-      <c r="B125" s="2">
+      <c r="B125" s="117">
         <f>ROUND(SIN(PI()/6),5)</f>
         <v>0.5</v>
       </c>
-      <c r="C125" s="2">
+      <c r="C125" s="117">
         <v>0.5</v>
       </c>
-      <c r="D125" s="2">
+      <c r="D125" s="117">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A126" s="2" t="s">
+      <c r="A126" s="117" t="s">
         <v>187</v>
       </c>
-      <c r="B126" s="2">
+      <c r="B126" s="117">
         <f>ROUND(SINH(1),5)</f>
         <v>1.1752</v>
       </c>
-      <c r="C126" s="2">
+      <c r="C126" s="117">
         <v>1.1752</v>
       </c>
-      <c r="D126" s="2">
+      <c r="D126" s="117">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A127" s="2" t="s">
+      <c r="A127" s="117" t="s">
         <v>188</v>
       </c>
-      <c r="B127" s="2">
+      <c r="B127" s="117">
         <f>SMALL(H2:H9,3)</f>
         <v>26</v>
       </c>
-      <c r="C127" s="2">
+      <c r="C127" s="117">
         <v>26</v>
       </c>
-      <c r="D127" s="2">
+      <c r="D127" s="117">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A128" s="2" t="s">
+      <c r="A128" s="117" t="s">
         <v>189</v>
       </c>
-      <c r="B128" s="2">
+      <c r="B128" s="117">
         <f>SQRT(4)</f>
         <v>2</v>
       </c>
-      <c r="C128" s="2">
+      <c r="C128" s="117">
         <v>2</v>
       </c>
-      <c r="D128" s="2">
+      <c r="D128" s="117">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A129" s="2" t="s">
+      <c r="A129" s="117" t="s">
         <v>190</v>
       </c>
-      <c r="B129" s="2">
+      <c r="B129" s="117">
         <f>STDEV(-2,0,2)</f>
         <v>2</v>
       </c>
-      <c r="C129" s="2">
+      <c r="C129" s="117">
         <v>2</v>
       </c>
-      <c r="D129" s="2">
+      <c r="D129" s="117">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A130" s="2" t="s">
+      <c r="A130" s="117" t="s">
         <v>191</v>
       </c>
-      <c r="B130" s="2">
+      <c r="B130" s="117">
         <f>_xlfn.STDEV.P(2,4)</f>
         <v>1</v>
       </c>
-      <c r="C130" s="2">
-        <v>1</v>
-      </c>
-      <c r="D130" s="2">
+      <c r="C130" s="117">
+        <v>1</v>
+      </c>
+      <c r="D130" s="117">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A131" s="2" t="s">
+      <c r="A131" s="117" t="s">
         <v>192</v>
       </c>
-      <c r="B131" s="2">
+      <c r="B131" s="117">
         <f>_xlfn.STDEV.S(2,4,6)</f>
         <v>2</v>
       </c>
-      <c r="C131" s="2">
+      <c r="C131" s="117">
         <v>2</v>
       </c>
-      <c r="D131" s="2">
+      <c r="D131" s="117">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A132" s="2" t="s">
+      <c r="A132" s="117" t="s">
         <v>193</v>
       </c>
-      <c r="B132" s="2">
+      <c r="B132" s="117">
         <f>STDEVA(TRUE,3,5)</f>
         <v>2</v>
       </c>
-      <c r="C132" s="2">
+      <c r="C132" s="117">
         <v>2</v>
       </c>
-      <c r="D132" s="2">
+      <c r="D132" s="117">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A133" s="2" t="s">
+      <c r="A133" s="117" t="s">
         <v>194</v>
       </c>
-      <c r="B133" s="2">
+      <c r="B133" s="117">
         <f>ROUND(STDEVP(2,5,8),2)</f>
         <v>2.4500000000000002</v>
       </c>
-      <c r="C133" s="2">
+      <c r="C133" s="117">
         <v>2.4500000000000002</v>
       </c>
-      <c r="D133" s="2">
+      <c r="D133" s="117">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A134" s="2" t="s">
+      <c r="A134" s="117" t="s">
         <v>195</v>
       </c>
-      <c r="B134" s="2">
+      <c r="B134" s="117">
         <f>ROUND(STDEVPA(TRUE,4,7),2)</f>
         <v>2.4500000000000002</v>
       </c>
-      <c r="C134" s="2">
+      <c r="C134" s="117">
         <v>2.4500000000000002</v>
       </c>
-      <c r="D134" s="2">
+      <c r="D134" s="117">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A135" s="2" t="s">
+      <c r="A135" s="117" t="s">
         <v>196</v>
       </c>
-      <c r="B135" s="2" t="str">
+      <c r="B135" s="117" t="str">
         <f>SUBSTITUTE("SAP is best","SAP","Odoo")</f>
         <v>Odoo is best</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="C135" s="117" t="s">
         <v>197</v>
       </c>
-      <c r="D135" s="2">
+      <c r="D135" s="117">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A136" s="2" t="s">
+      <c r="A136" s="117" t="s">
         <v>198</v>
       </c>
-      <c r="B136" s="2">
+      <c r="B136" s="117">
         <f>SUM(1,2,3,4,5)</f>
         <v>15</v>
       </c>
-      <c r="C136" s="2">
+      <c r="C136" s="117">
         <v>15</v>
       </c>
-      <c r="D136" s="2">
+      <c r="D136" s="117">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A137" s="2" t="s">
+      <c r="A137" s="117" t="s">
         <v>199</v>
       </c>
-      <c r="B137" s="2">
+      <c r="B137" s="117">
         <f>SUMIF(K2:K9,"&lt;100")</f>
         <v>52</v>
       </c>
-      <c r="C137" s="2">
+      <c r="C137" s="117">
         <v>52</v>
       </c>
-      <c r="D137" s="2">
+      <c r="D137" s="117">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A138" s="2" t="s">
+      <c r="A138" s="117" t="s">
         <v>200</v>
       </c>
-      <c r="B138" s="2">
+      <c r="B138" s="117">
         <f>SUMIFS(H2:H9,K2:K9,"&lt;100")</f>
         <v>201</v>
       </c>
-      <c r="C138" s="2">
+      <c r="C138" s="117">
         <v>201</v>
       </c>
-      <c r="D138" s="2">
+      <c r="D138" s="117">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A139" s="2" t="s">
+      <c r="A139" s="117" t="s">
         <v>201</v>
       </c>
-      <c r="B139" s="2">
+      <c r="B139" s="117">
         <f>ROUND(TAN(PI()/4),5)</f>
         <v>1</v>
       </c>
-      <c r="C139" s="2">
-        <v>1</v>
-      </c>
-      <c r="D139" s="2">
+      <c r="C139" s="117">
+        <v>1</v>
+      </c>
+      <c r="D139" s="117">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A140" s="2" t="s">
+      <c r="A140" s="117" t="s">
         <v>202</v>
       </c>
-      <c r="B140" s="2">
+      <c r="B140" s="117">
         <f>ROUND(TANH(1),5)</f>
         <v>0.76158999999999999</v>
       </c>
-      <c r="C140" s="2">
+      <c r="C140" s="117">
         <v>0.76158999999999999</v>
       </c>
-      <c r="D140" s="2">
+      <c r="D140" s="117">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A141" s="2" t="s">
+      <c r="A141" s="117" t="s">
         <v>203</v>
       </c>
-      <c r="B141" s="2" t="str">
+      <c r="B141" s="117" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,"","1","A","%")</f>
         <v>1-A-%</v>
       </c>
-      <c r="C141" s="2" t="s">
+      <c r="C141" s="117" t="s">
         <v>204</v>
       </c>
-      <c r="D141" s="2">
+      <c r="D141" s="117">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A142" s="2" t="s">
+      <c r="A142" s="117" t="s">
         <v>205</v>
       </c>
-      <c r="B142" s="21">
+      <c r="B142" s="20">
         <f>TIME(9,11,31)</f>
         <v>0.38299768518518523</v>
       </c>
-      <c r="C142" s="21">
+      <c r="C142" s="20">
         <v>0.38299768519999999</v>
       </c>
-      <c r="D142" s="2">
+      <c r="D142" s="117">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A143" s="2" t="s">
+      <c r="A143" s="117" t="s">
         <v>206</v>
       </c>
-      <c r="B143" s="2">
+      <c r="B143" s="117">
         <f>TIMEVALUE("18:00:00")</f>
         <v>0.75</v>
       </c>
-      <c r="C143" s="2">
+      <c r="C143" s="117">
         <v>0.75</v>
       </c>
-      <c r="D143" s="2">
+      <c r="D143" s="117">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A144" s="2" t="s">
+      <c r="A144" s="117" t="s">
         <v>207</v>
       </c>
-      <c r="B144" s="19">
+      <c r="B144" s="18">
         <f ca="1">TODAY()</f>
         <v>45663</v>
       </c>
-      <c r="D144" s="2">
+      <c r="D144" s="117">
         <f ca="1">IF(ISNUMBER(B144),1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A145" s="2" t="s">
+      <c r="A145" s="117" t="s">
         <v>208</v>
       </c>
-      <c r="B145" s="2" t="str">
+      <c r="B145" s="117" t="str">
         <f>TRIM(" Jean Ticonstitutionnalise ")</f>
         <v>Jean Ticonstitutionnalise</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="C145" s="117" t="s">
         <v>209</v>
       </c>
-      <c r="D145" s="2">
+      <c r="D145" s="117">
         <f t="shared" ref="D145:D163" si="9">IF(B145=C145,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A146" s="2" t="s">
+      <c r="A146" s="117" t="s">
         <v>210</v>
       </c>
-      <c r="B146" s="2">
+      <c r="B146" s="117">
         <f>TRUNC(42.42,1)</f>
         <v>42.4</v>
       </c>
-      <c r="C146" s="2">
+      <c r="C146" s="117">
         <v>42.4</v>
       </c>
-      <c r="D146" s="2">
+      <c r="D146" s="117">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A147" s="2" t="s">
+      <c r="A147" s="117" t="s">
         <v>211</v>
       </c>
-      <c r="B147" s="2" t="str">
+      <c r="B147" s="117" t="str">
         <f>UPPER("grrrr !")</f>
         <v>GRRRR !</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="C147" s="117" t="s">
         <v>212</v>
       </c>
-      <c r="D147" s="2">
+      <c r="D147" s="117">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A148" s="2" t="s">
+      <c r="A148" s="117" t="s">
         <v>213</v>
       </c>
-      <c r="B148" s="2">
+      <c r="B148" s="117">
         <f>ROUND(VAR(K1:K5),5)</f>
         <v>2.9166699999999999</v>
       </c>
-      <c r="C148" s="2">
+      <c r="C148" s="117">
         <v>2.9166699999999999</v>
       </c>
-      <c r="D148" s="2">
+      <c r="D148" s="117">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A149" s="2" t="s">
+      <c r="A149" s="117" t="s">
         <v>214</v>
       </c>
-      <c r="B149" s="2">
+      <c r="B149" s="117">
         <f>ROUND(_xlfn.VAR.P(K1:K5),5)</f>
         <v>2.1875</v>
       </c>
-      <c r="C149" s="2">
+      <c r="C149" s="117">
         <v>2.1875</v>
       </c>
-      <c r="D149" s="2">
+      <c r="D149" s="117">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A150" s="2" t="s">
+      <c r="A150" s="117" t="s">
         <v>215</v>
       </c>
-      <c r="B150" s="2">
+      <c r="B150" s="117">
         <f>_xlfn.VAR.S(2,5,8)</f>
         <v>9</v>
       </c>
-      <c r="C150" s="2">
+      <c r="C150" s="117">
         <v>9</v>
       </c>
-      <c r="D150" s="2">
+      <c r="D150" s="117">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A151" s="2" t="s">
+      <c r="A151" s="117" t="s">
         <v>216</v>
       </c>
-      <c r="B151" s="2">
+      <c r="B151" s="117">
         <f>ROUND(VARA(K1:K5),5)</f>
         <v>6.7</v>
       </c>
-      <c r="C151" s="2">
+      <c r="C151" s="117">
         <v>6.7</v>
       </c>
-      <c r="D151" s="2">
+      <c r="D151" s="117">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A152" s="2" t="s">
+      <c r="A152" s="117" t="s">
         <v>217</v>
       </c>
-      <c r="B152" s="2">
+      <c r="B152" s="117">
         <f>ROUND(VARP(K1:K5),5)</f>
         <v>2.1875</v>
       </c>
-      <c r="C152" s="2">
+      <c r="C152" s="117">
         <v>2.1875</v>
       </c>
-      <c r="D152" s="2">
+      <c r="D152" s="117">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A153" s="2" t="s">
+      <c r="A153" s="117" t="s">
         <v>218</v>
       </c>
-      <c r="B153" s="2">
+      <c r="B153" s="117">
         <f>ROUND(VARPA(K1:K5),5)</f>
         <v>5.36</v>
       </c>
-      <c r="C153" s="2">
+      <c r="C153" s="117">
         <v>5.36</v>
       </c>
-      <c r="D153" s="2">
+      <c r="D153" s="117">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A154" s="2" t="s">
+      <c r="A154" s="117" t="s">
         <v>219</v>
       </c>
-      <c r="B154" s="2">
+      <c r="B154" s="117">
         <f>VLOOKUP("NotACheater",G1:K9,3,FALSE)</f>
         <v>252.4</v>
       </c>
-      <c r="C154" s="2">
+      <c r="C154" s="117">
         <f>252.4</f>
         <v>252.4</v>
       </c>
-      <c r="D154" s="2">
+      <c r="D154" s="117">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A155" s="2" t="s">
+      <c r="A155" s="117" t="s">
         <v>220</v>
       </c>
-      <c r="B155" s="2">
+      <c r="B155" s="117">
         <f>WEEKDAY("2021-06-12")</f>
         <v>7</v>
       </c>
-      <c r="C155" s="2">
+      <c r="C155" s="117">
         <v>7</v>
       </c>
-      <c r="D155" s="2">
+      <c r="D155" s="117">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A156" s="2" t="s">
+      <c r="A156" s="117" t="s">
         <v>221</v>
       </c>
-      <c r="B156" s="2">
+      <c r="B156" s="117">
         <f>WEEKNUM("2021-06-29")</f>
         <v>27</v>
       </c>
-      <c r="C156" s="2">
+      <c r="C156" s="117">
         <v>27</v>
       </c>
-      <c r="D156" s="2">
+      <c r="D156" s="117">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A157" s="2" t="s">
+      <c r="A157" s="117" t="s">
         <v>222</v>
       </c>
-      <c r="B157" s="19">
+      <c r="B157" s="18">
         <f>WORKDAY("2021-03-15",6)</f>
         <v>44278</v>
       </c>
-      <c r="C157" s="19">
+      <c r="C157" s="18">
         <v>44278</v>
       </c>
-      <c r="D157" s="2">
+      <c r="D157" s="117">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A158" s="2" t="s">
+      <c r="A158" s="117" t="s">
         <v>223</v>
       </c>
-      <c r="B158" s="19">
+      <c r="B158" s="18">
         <f>WORKDAY.INTL("2021-03-15",6,"0111111")</f>
         <v>44312</v>
       </c>
-      <c r="C158" s="19">
+      <c r="C158" s="18">
         <v>44312</v>
       </c>
-      <c r="D158" s="2">
+      <c r="D158" s="117">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A159" s="2" t="s">
+      <c r="A159" s="117" t="s">
         <v>224</v>
       </c>
-      <c r="B159" s="2" t="b">
+      <c r="B159" s="117" t="b">
         <f>_xlfn.XOR(FALSE,TRUE,FALSE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="C159" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D159" s="2">
+      <c r="C159" s="117" t="b">
+        <v>1</v>
+      </c>
+      <c r="D159" s="117">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A160" s="2" t="s">
+      <c r="A160" s="117" t="s">
         <v>225</v>
       </c>
-      <c r="B160" s="2">
+      <c r="B160" s="117">
         <f>YEAR("2012-03-12")</f>
         <v>2012</v>
       </c>
-      <c r="C160" s="2">
+      <c r="C160" s="117">
         <v>2012</v>
       </c>
-      <c r="D160" s="2">
+      <c r="D160" s="117">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A161" s="2" t="s">
+      <c r="A161" s="117" t="s">
         <v>226</v>
       </c>
-      <c r="B161" s="2">
+      <c r="B161" s="117">
         <f>DELTA(1,1)</f>
         <v>1</v>
       </c>
-      <c r="C161" s="2">
-        <v>1</v>
-      </c>
-      <c r="D161" s="2">
+      <c r="C161" s="117">
+        <v>1</v>
+      </c>
+      <c r="D161" s="117">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A162" s="2" t="s">
+      <c r="A162" s="117" t="s">
         <v>227</v>
       </c>
-      <c r="B162" s="2" t="str">
+      <c r="B162" s="117" t="str">
         <f>ADDRESS(1,1,4,FALSE,"sheet!")</f>
         <v>'sheet!'!R[1]C[1]</v>
       </c>
-      <c r="C162" s="2" t="s">
+      <c r="C162" s="117" t="s">
         <v>228</v>
       </c>
-      <c r="D162" s="2">
+      <c r="D162" s="117">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A163" s="2" t="s">
+      <c r="A163" s="117" t="s">
         <v>229</v>
       </c>
-      <c r="B163" s="2">
+      <c r="B163" s="117">
         <f>DATEDIF("2002/01/01","2002/01/02","D")</f>
         <v>1</v>
       </c>
-      <c r="C163" s="2">
-        <v>1</v>
-      </c>
-      <c r="D163" s="2">
+      <c r="C163" s="117">
+        <v>1</v>
+      </c>
+      <c r="D163" s="117">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -10954,14 +11812,14 @@
       <c r="C1" t="s">
         <v>231</v>
       </c>
-      <c r="D1" s="109" t="s">
+      <c r="D1" s="122" t="s">
         <v>232</v>
       </c>
-      <c r="E1" s="109"/>
+      <c r="E1" s="122"/>
       <c r="F1" t="s">
         <v>233</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="34" t="s">
         <v>234</v>
       </c>
     </row>
@@ -10970,18 +11828,18 @@
         <f>SUM(A1)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
       <c r="H2" t="str">
         <f>[1]Feuil1!$A$1</f>
         <v>referenced string</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="85" t="s">
         <v>235</v>
       </c>
-      <c r="F3" s="86" t="s">
+      <c r="F3" s="85" t="s">
         <v>236</v>
       </c>
     </row>
@@ -11033,308 +11891,308 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="13.5" thickBot="1">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="68" t="s">
         <v>239</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="34" t="s">
         <v>240</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="35" t="s">
         <v>241</v>
       </c>
-      <c r="F1" s="37"/>
-      <c r="H1" s="35" t="s">
+      <c r="F1" s="36"/>
+      <c r="H1" s="34" t="s">
         <v>242</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="34" t="s">
         <v>243</v>
       </c>
-      <c r="L1" s="94" t="s">
+      <c r="L1" s="93" t="s">
         <v>244</v>
       </c>
-      <c r="M1" s="37"/>
+      <c r="M1" s="36"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="40" t="s">
         <v>245</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="86" t="s">
         <v>246</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="38" t="s">
         <v>247</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="H2" s="73" t="s">
+      <c r="H2" s="72" t="s">
         <v>249</v>
       </c>
-      <c r="J2" s="84" t="s">
+      <c r="J2" s="83" t="s">
         <v>250</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="L2" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="M2" s="95">
+      <c r="M2" s="94">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="41" t="s">
         <v>252</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="23" t="s">
         <v>248</v>
       </c>
-      <c r="H3" s="72" t="s">
+      <c r="H3" s="71" t="s">
         <v>253</v>
       </c>
-      <c r="J3" s="74" t="s">
+      <c r="J3" s="73" t="s">
         <v>254</v>
       </c>
-      <c r="L3" s="22" t="s">
+      <c r="L3" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="M3" s="96">
+      <c r="M3" s="95">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="42" t="s">
         <v>256</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="56" t="s">
         <v>257</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="38" t="s">
         <v>258</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="24" t="s">
         <v>248</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="H4" s="34" t="s">
         <v>259</v>
       </c>
-      <c r="J4" s="85" t="s">
+      <c r="J4" s="84" t="s">
         <v>260</v>
       </c>
-      <c r="L4" s="22" t="s">
+      <c r="L4" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="M4" s="97">
+      <c r="M4" s="96">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="43" t="s">
         <v>262</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="38" t="s">
         <v>263</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="H5" s="71" t="s">
+      <c r="H5" s="70" t="s">
         <v>264</v>
       </c>
-      <c r="L5" s="22" t="s">
+      <c r="L5" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="M5" s="98">
+      <c r="M5" s="97">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="44" t="s">
         <v>266</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="57" t="s">
         <v>267</v>
       </c>
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="38" t="s">
         <v>268</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="H6" s="70" t="s">
+      <c r="H6" s="69" t="s">
         <v>269</v>
       </c>
-      <c r="L6" s="22" t="s">
+      <c r="L6" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="M6" s="99">
+      <c r="M6" s="98">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="45" t="s">
         <v>271</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="38" t="s">
         <v>272</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="H7" s="83" t="s">
+      <c r="H7" s="82" t="s">
         <v>273</v>
       </c>
-      <c r="L7" s="39" t="s">
+      <c r="L7" s="38" t="s">
         <v>274</v>
       </c>
-      <c r="M7" s="101">
+      <c r="M7" s="100">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="21">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="46" t="s">
         <v>275</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="58" t="s">
         <v>276</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="38" t="s">
         <v>277</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="28" t="s">
         <v>248</v>
       </c>
-      <c r="H8" s="82" t="s">
+      <c r="H8" s="81" t="s">
         <v>278</v>
       </c>
-      <c r="L8" s="39" t="s">
+      <c r="L8" s="38" t="s">
         <v>279</v>
       </c>
-      <c r="M8" s="102">
+      <c r="M8" s="101">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="47" t="s">
         <v>280</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="38" t="s">
         <v>281</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="L9" s="39" t="s">
+      <c r="L9" s="38" t="s">
         <v>282</v>
       </c>
-      <c r="M9" s="103">
+      <c r="M9" s="102">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="48" t="s">
         <v>283</v>
       </c>
-      <c r="C10" s="60" t="s">
+      <c r="C10" s="59" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="13.5" thickBot="1">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="49" t="s">
         <v>285</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="35" t="s">
         <v>286</v>
       </c>
-      <c r="F11" s="37"/>
+      <c r="F11" s="36"/>
     </row>
     <row r="12" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="50" t="s">
         <v>287</v>
       </c>
-      <c r="C12" s="61" t="s">
+      <c r="C12" s="60" t="s">
         <v>288</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="38" t="s">
         <v>289</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="21" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="51" t="s">
         <v>290</v>
       </c>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="31" t="s">
+      <c r="F13" s="30" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="52" t="s">
         <v>291</v>
       </c>
-      <c r="C14" s="62" t="s">
+      <c r="C14" s="61" t="s">
         <v>292</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="38" t="s">
         <v>258</v>
       </c>
-      <c r="F14" s="32" t="s">
+      <c r="F14" s="31" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="53" t="s">
         <v>293</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="38" t="s">
         <v>272</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="F15" s="32" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A16" s="55" t="s">
+      <c r="A16" s="54" t="s">
         <v>294</v>
       </c>
-      <c r="C16" s="63" t="s">
+      <c r="C16" s="62" t="s">
         <v>295</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="E16" s="38" t="s">
         <v>281</v>
       </c>
-      <c r="F16" s="34" t="s">
+      <c r="F16" s="33" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="13.5" thickBot="1">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="55" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="13.5" thickBot="1">
-      <c r="A18" s="75" t="s">
+      <c r="A18" s="74" t="s">
         <v>297</v>
       </c>
-      <c r="C18" s="64" t="s">
+      <c r="C18" s="63" t="s">
         <v>298</v>
       </c>
-      <c r="E18" s="36" t="s">
+      <c r="E18" s="35" t="s">
         <v>299</v>
       </c>
-      <c r="F18" s="37"/>
+      <c r="F18" s="36"/>
     </row>
     <row r="19" spans="1:6" ht="13.5" thickBot="1">
-      <c r="A19" s="76" t="s">
+      <c r="A19" s="75" t="s">
         <v>300</v>
       </c>
-      <c r="E19" s="39" t="s">
+      <c r="E19" s="38" t="s">
         <v>301</v>
       </c>
       <c r="F19" t="s">
@@ -11342,63 +12200,63 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="51.75" thickBot="1">
-      <c r="A20" s="77" t="s">
+      <c r="A20" s="76" t="s">
         <v>303</v>
       </c>
-      <c r="C20" s="65" t="s">
+      <c r="C20" s="64" t="s">
         <v>304</v>
       </c>
-      <c r="E20" s="39" t="s">
+      <c r="E20" s="38" t="s">
         <v>305</v>
       </c>
-      <c r="F20" s="104" t="s">
+      <c r="F20" s="103" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="13.5" thickBot="1">
-      <c r="A21" s="78" t="s">
+      <c r="A21" s="77" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="13.5" thickBot="1">
-      <c r="A22" s="79" t="s">
+      <c r="A22" s="78" t="s">
         <v>307</v>
       </c>
-      <c r="C22" s="66" t="s">
+      <c r="C22" s="65" t="s">
         <v>308</v>
       </c>
-      <c r="E22" s="22"/>
+      <c r="E22" s="21"/>
     </row>
     <row r="23" spans="1:6" ht="13.5" thickBot="1">
-      <c r="A23" s="80" t="s">
+      <c r="A23" s="79" t="s">
         <v>309</v>
       </c>
-      <c r="E23" s="22"/>
+      <c r="E23" s="21"/>
     </row>
     <row r="24" spans="1:6" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A24" s="81" t="s">
+      <c r="A24" s="80" t="s">
         <v>310</v>
       </c>
-      <c r="C24" s="67" t="s">
+      <c r="C24" s="66" t="s">
         <v>311</v>
       </c>
-      <c r="E24" s="22"/>
+      <c r="E24" s="21"/>
     </row>
     <row r="25" spans="1:6" ht="14.25" thickTop="1" thickBot="1"/>
     <row r="26" spans="1:6" ht="14.25" thickTop="1" thickBot="1">
-      <c r="C26" s="68" t="s">
+      <c r="C26" s="67" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="14.25" thickTop="1" thickBot="1"/>
     <row r="28" spans="1:6" ht="14.25" thickTop="1" thickBot="1">
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="88" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="13.5" thickTop="1"/>
     <row r="30" spans="1:6">
-      <c r="C30" s="88" t="s">
+      <c r="C30" s="87" t="s">
         <v>314</v>
       </c>
     </row>
@@ -11423,24 +12281,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="13.5" thickBot="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>315</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="35" t="s">
         <v>316</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="35" t="s">
         <v>317</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="35" t="s">
         <v>318</v>
       </c>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="38" t="s">
         <v>319</v>
       </c>
       <c r="B2">
@@ -11449,30 +12307,30 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="34" t="s">
         <v>320</v>
       </c>
-      <c r="H2" s="22">
+      <c r="H2" s="21">
         <v>5</v>
       </c>
       <c r="I2">
         <v>3</v>
       </c>
-      <c r="J2" s="22">
+      <c r="J2" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="38" t="s">
         <v>321</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>322</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="34" t="s">
         <v>324</v>
       </c>
       <c r="H3">
@@ -11486,13 +12344,13 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="38" t="s">
         <v>325</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="21" t="s">
         <v>326</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="34" t="s">
         <v>327</v>
       </c>
       <c r="H4">
@@ -11506,7 +12364,7 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="38" t="s">
         <v>328</v>
       </c>
       <c r="B5" t="e">
@@ -11516,7 +12374,7 @@
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="34" t="s">
         <v>329</v>
       </c>
       <c r="H5">
@@ -11530,16 +12388,16 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="38" t="s">
         <v>330</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>331</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="34" t="s">
         <v>332</v>
       </c>
       <c r="H6">
@@ -11553,19 +12411,19 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>334</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="21" t="s">
         <v>335</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="21" t="s">
         <v>334</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="34" t="s">
         <v>336</v>
       </c>
       <c r="H7">
@@ -11579,27 +12437,27 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="38" t="s">
         <v>337</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="21" t="s">
         <v>338</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="21" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="38" t="s">
         <v>339</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="21" t="s">
         <v>326</v>
       </c>
-      <c r="C9" s="22"/>
+      <c r="C9" s="21"/>
     </row>
     <row r="10" spans="1:10" ht="13.5" thickBot="1">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="38" t="s">
         <v>340</v>
       </c>
       <c r="B10">
@@ -11609,24 +12467,24 @@
         <f>0/0</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G10" s="35" t="s">
         <v>341</v>
       </c>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="38" t="s">
         <v>342</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="21" t="s">
         <v>338</v>
       </c>
-      <c r="G11" s="35" t="s">
+      <c r="G11" s="34" t="s">
         <v>343</v>
       </c>
       <c r="H11">
@@ -11640,18 +12498,18 @@
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="38" t="s">
         <v>344</v>
       </c>
-      <c r="B12" s="40">
+      <c r="B12" s="39">
         <f ca="1">TODAY()</f>
         <v>45663</v>
       </c>
-      <c r="C12" s="40">
+      <c r="C12" s="39">
         <f>DATE(2010,10,2)</f>
         <v>40453</v>
       </c>
-      <c r="G12" s="35" t="s">
+      <c r="G12" s="34" t="s">
         <v>345</v>
       </c>
       <c r="H12">
@@ -11665,7 +12523,7 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="38" t="s">
         <v>346</v>
       </c>
       <c r="B13">
@@ -11674,7 +12532,7 @@
       <c r="C13">
         <v>5</v>
       </c>
-      <c r="G13" s="35" t="s">
+      <c r="G13" s="34" t="s">
         <v>347</v>
       </c>
       <c r="H13">
@@ -11688,19 +12546,19 @@
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="38" t="s">
         <v>348</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="21" t="s">
         <v>335</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="21" t="s">
         <v>334</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="21" t="s">
         <v>334</v>
       </c>
-      <c r="G14" s="35" t="s">
+      <c r="G14" s="34" t="s">
         <v>349</v>
       </c>
       <c r="H14">
@@ -11714,13 +12572,13 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="38" t="s">
         <v>350</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="G15" s="35" t="s">
+      <c r="G15" s="34" t="s">
         <v>351</v>
       </c>
       <c r="H15">
@@ -11734,7 +12592,7 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="38" t="s">
         <v>352</v>
       </c>
       <c r="B16">
@@ -11743,7 +12601,7 @@
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="G16" s="35" t="s">
+      <c r="G16" s="34" t="s">
         <v>353</v>
       </c>
       <c r="H16">
@@ -11757,7 +12615,7 @@
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="38" t="s">
         <v>354</v>
       </c>
       <c r="B17">
@@ -11766,7 +12624,7 @@
       <c r="C17">
         <v>2</v>
       </c>
-      <c r="G17" s="35" t="s">
+      <c r="G17" s="34" t="s">
         <v>355</v>
       </c>
       <c r="H17">
@@ -11780,7 +12638,7 @@
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="38" t="s">
         <v>356</v>
       </c>
       <c r="B18">
@@ -11789,7 +12647,7 @@
       <c r="C18">
         <v>0</v>
       </c>
-      <c r="G18" s="35" t="s">
+      <c r="G18" s="34" t="s">
         <v>357</v>
       </c>
       <c r="H18">
@@ -11803,7 +12661,7 @@
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="38" t="s">
         <v>358</v>
       </c>
       <c r="B19">
@@ -11812,7 +12670,7 @@
       <c r="C19">
         <v>0</v>
       </c>
-      <c r="G19" s="35" t="s">
+      <c r="G19" s="34" t="s">
         <v>359</v>
       </c>
       <c r="H19">
@@ -11826,7 +12684,7 @@
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="38" t="s">
         <v>360</v>
       </c>
       <c r="B20">
@@ -11835,7 +12693,7 @@
       <c r="C20">
         <v>2</v>
       </c>
-      <c r="G20" s="35" t="s">
+      <c r="G20" s="34" t="s">
         <v>361</v>
       </c>
       <c r="H20">
@@ -11849,7 +12707,7 @@
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="38" t="s">
         <v>362</v>
       </c>
       <c r="B21">
@@ -11858,7 +12716,7 @@
       <c r="C21">
         <v>3</v>
       </c>
-      <c r="G21" s="35" t="s">
+      <c r="G21" s="34" t="s">
         <v>363</v>
       </c>
       <c r="H21">
@@ -11875,7 +12733,7 @@
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="38" t="s">
         <v>364</v>
       </c>
       <c r="B22">
@@ -11884,7 +12742,7 @@
       <c r="C22">
         <v>0</v>
       </c>
-      <c r="G22" s="35" t="s">
+      <c r="G22" s="34" t="s">
         <v>365</v>
       </c>
       <c r="H22">
@@ -11901,7 +12759,7 @@
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="38" t="s">
         <v>366</v>
       </c>
       <c r="B23">
@@ -11910,7 +12768,7 @@
       <c r="C23">
         <v>2</v>
       </c>
-      <c r="G23" s="35" t="s">
+      <c r="G23" s="34" t="s">
         <v>367</v>
       </c>
       <c r="H23">
@@ -11927,7 +12785,7 @@
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="G24" s="35" t="s">
+      <c r="G24" s="34" t="s">
         <v>368</v>
       </c>
       <c r="H24">
@@ -11944,7 +12802,7 @@
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="38" t="s">
         <v>369</v>
       </c>
       <c r="B25">
@@ -11953,7 +12811,7 @@
       <c r="C25">
         <v>2</v>
       </c>
-      <c r="G25" s="35" t="s">
+      <c r="G25" s="34" t="s">
         <v>370</v>
       </c>
       <c r="H25">
@@ -11970,7 +12828,7 @@
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="G26" s="35" t="s">
+      <c r="G26" s="34" t="s">
         <v>371</v>
       </c>
       <c r="H26">
@@ -11990,13 +12848,13 @@
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="21" t="s">
         <v>372</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
-      <c r="G27" s="35" t="s">
+      <c r="G27" s="34" t="s">
         <v>373</v>
       </c>
       <c r="H27">
@@ -12016,7 +12874,7 @@
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="G28" s="35" t="s">
+      <c r="G28" s="34" t="s">
         <v>374</v>
       </c>
       <c r="H28">
@@ -12036,7 +12894,7 @@
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="G29" s="35" t="s">
+      <c r="G29" s="34" t="s">
         <v>375</v>
       </c>
       <c r="H29">
@@ -12056,7 +12914,7 @@
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="G30" s="35" t="s">
+      <c r="G30" s="34" t="s">
         <v>376</v>
       </c>
       <c r="H30">
@@ -12076,21 +12934,21 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="13.5" thickBot="1">
-      <c r="G31" s="36" t="s">
+      <c r="G31" s="35" t="s">
         <v>377</v>
       </c>
-      <c r="H31" s="37">
+      <c r="H31" s="36">
         <v>5</v>
       </c>
-      <c r="I31" s="37">
+      <c r="I31" s="36">
         <v>3</v>
       </c>
-      <c r="J31" s="37">
+      <c r="J31" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="G32" s="35" t="s">
+      <c r="G32" s="34" t="s">
         <v>378</v>
       </c>
       <c r="H32">
@@ -12104,7 +12962,7 @@
       </c>
     </row>
     <row r="33" spans="7:10">
-      <c r="G33" s="35" t="s">
+      <c r="G33" s="34" t="s">
         <v>379</v>
       </c>
       <c r="H33">
@@ -12118,7 +12976,7 @@
       </c>
     </row>
     <row r="34" spans="7:10">
-      <c r="G34" s="35" t="s">
+      <c r="G34" s="34" t="s">
         <v>380</v>
       </c>
       <c r="H34">
@@ -12132,7 +12990,7 @@
       </c>
     </row>
     <row r="35" spans="7:10">
-      <c r="G35" s="35" t="s">
+      <c r="G35" s="34" t="s">
         <v>381</v>
       </c>
       <c r="H35">
@@ -12146,7 +13004,7 @@
       </c>
     </row>
     <row r="36" spans="7:10">
-      <c r="G36" s="35" t="s">
+      <c r="G36" s="34" t="s">
         <v>382</v>
       </c>
       <c r="H36">
@@ -12160,7 +13018,7 @@
       </c>
     </row>
     <row r="37" spans="7:10">
-      <c r="G37" s="35" t="s">
+      <c r="G37" s="34" t="s">
         <v>383</v>
       </c>
       <c r="H37">
@@ -12174,7 +13032,7 @@
       </c>
     </row>
     <row r="39" spans="7:10">
-      <c r="G39" s="35"/>
+      <c r="G39" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="21" type="noConversion"/>
@@ -12759,122 +13617,122 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15">
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>385</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="17" t="s">
         <v>386</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="17" t="s">
         <v>387</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="17" t="s">
         <v>388</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="17" t="s">
         <v>389</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="17" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="117">
         <v>26</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="117">
         <v>5</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="117">
         <f>Table3[[#This Row],[Rank]]+Table3[[#This Row],[Age]]</f>
         <v>31</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="117">
         <f>SUM(Table3[Rank])</f>
         <v>12</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="117">
         <f>SUM(Table3[[#All],[Rank]])</f>
         <v>24</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="117">
         <f>Table3[[#Totals],[Rank]]</f>
         <v>12</v>
       </c>
-      <c r="J4" s="2" t="str">
+      <c r="J4" s="117" t="str">
         <f>Table3[[#Headers],[Rank]]</f>
         <v>Rank</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="117">
         <v>13</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="117">
         <v>7</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="117">
         <f>Table3[[#This Row],[Rank]]+Table3[[#This Row],[Age]]</f>
         <v>20</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="117">
         <f>SUM(Table3[Rank])</f>
         <v>12</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="117">
         <f>SUM(Table3[[#All],[Rank]])</f>
         <v>24</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="117">
         <f>Table3[[#Totals],[Rank]]</f>
         <v>12</v>
       </c>
-      <c r="J5" s="2" t="str">
+      <c r="J5" s="117" t="str">
         <f>Table3[[#Headers],[Rank]]</f>
         <v>Rank</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="117" t="s">
         <v>391</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="117">
         <f>SUBTOTAL(109,Table3[Age])</f>
         <v>39</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="117">
         <f>SUBTOTAL(109,Table3[Rank])</f>
         <v>12</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="117">
         <f>SUBTOTAL(109,Table3[Rank+Age =E4+D4])</f>
         <v>51</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="117">
         <f>SUBTOTAL(109,Table3[Data =SUM(E4:E5)])</f>
         <v>24</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="117">
         <f>SUBTOTAL(109,Table3[All =SUM(E3:E6)])</f>
         <v>48</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="117">
         <f>SUBTOTAL(109,Table3[Totals =E6])</f>
         <v>24</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="117">
         <f>SUBTOTAL(109,Table3[Headers =E3])</f>
         <v>0</v>
       </c>
@@ -13100,37 +13958,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="92" t="s">
         <v>407</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="A2" s="117"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="90" t="s">
+      <c r="A3" s="117"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="89" t="s">
         <v>408</v>
       </c>
-      <c r="D3" s="90" t="s">
+      <c r="D3" s="89" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="90" t="s">
+      <c r="A4" s="117"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="89" t="s">
         <v>410</v>
       </c>
       <c r="D4">
@@ -13162,9 +14020,9 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="91" t="s">
+      <c r="A5" s="117"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="90" t="s">
         <v>55</v>
       </c>
       <c r="K5">
@@ -13175,9 +14033,9 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="92">
+      <c r="A6" s="117"/>
+      <c r="B6" s="117"/>
+      <c r="C6" s="91">
         <v>256018</v>
       </c>
       <c r="K6">
@@ -13188,9 +14046,9 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="91" t="s">
+      <c r="A7" s="117"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="90" t="s">
         <v>46</v>
       </c>
       <c r="E7">
@@ -13201,9 +14059,9 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="92">
+      <c r="A8" s="117"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="91">
         <v>110120.5</v>
       </c>
       <c r="E8">
@@ -13214,9 +14072,9 @@
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="91" t="s">
+      <c r="A9" s="117"/>
+      <c r="B9" s="117"/>
+      <c r="C9" s="90" t="s">
         <v>42</v>
       </c>
       <c r="G9">
@@ -13227,9 +14085,9 @@
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="92">
+      <c r="A10" s="117"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="91">
         <v>25618</v>
       </c>
       <c r="G10">
@@ -13240,7 +14098,7 @@
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="C11" s="91" t="s">
+      <c r="C11" s="90" t="s">
         <v>44</v>
       </c>
       <c r="F11">
@@ -13251,7 +14109,7 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="C12" s="92">
+      <c r="C12" s="91">
         <v>23000</v>
       </c>
       <c r="F12">
@@ -13262,7 +14120,7 @@
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="C13" s="91" t="s">
+      <c r="C13" s="90" t="s">
         <v>50</v>
       </c>
       <c r="D13">
@@ -13273,7 +14131,7 @@
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="C14" s="92">
+      <c r="C14" s="91">
         <v>2</v>
       </c>
       <c r="D14">
@@ -13284,7 +14142,7 @@
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="C15" s="91" t="s">
+      <c r="C15" s="90" t="s">
         <v>48</v>
       </c>
       <c r="I15">
@@ -13295,7 +14153,7 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="C16" s="92">
+      <c r="C16" s="91">
         <v>50024</v>
       </c>
       <c r="I16">
@@ -13306,7 +14164,7 @@
       </c>
     </row>
     <row r="17" spans="3:12">
-      <c r="C17" s="91" t="s">
+      <c r="C17" s="90" t="s">
         <v>53</v>
       </c>
       <c r="H17">
@@ -13317,7 +14175,7 @@
       </c>
     </row>
     <row r="18" spans="3:12">
-      <c r="C18" s="92">
+      <c r="C18" s="91">
         <v>189576</v>
       </c>
       <c r="H18">
@@ -13328,7 +14186,7 @@
       </c>
     </row>
     <row r="19" spans="3:12">
-      <c r="C19" s="91" t="s">
+      <c r="C19" s="90" t="s">
         <v>57</v>
       </c>
       <c r="J19">
@@ -13339,7 +14197,7 @@
       </c>
     </row>
     <row r="20" spans="3:12">
-      <c r="C20" s="92">
+      <c r="C20" s="91">
         <v>5000</v>
       </c>
       <c r="J20">
@@ -13350,7 +14208,7 @@
       </c>
     </row>
     <row r="21" spans="3:12">
-      <c r="C21" s="91" t="s">
+      <c r="C21" s="90" t="s">
         <v>411</v>
       </c>
       <c r="D21">
@@ -13391,8 +14249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C47BF70-BA80-4124-B359-67CBCB635390}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75"/>
@@ -13410,7 +14268,7 @@
       <c r="A2" t="s">
         <v>413</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="117"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -13436,10 +14294,10 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="38.25">
-      <c r="A1" s="100" t="s">
+    <row r="1" spans="1:2" ht="51">
+      <c r="A1" s="99" t="s">
         <v>416</v>
       </c>
       <c r="B1" t="s">

--- a/tests/__xlsx__/xlsx_demo_data.xlsx
+++ b/tests/__xlsx__/xlsx_demo_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28723"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Odoo\spreadsheet\tests\__xlsx__\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4ABEBB5E-CC42-4D3F-B076-13470D76BC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4533F51F-F931-45DF-A942-2AE56A765B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
   </externalReferences>
   <calcPr calcId="191028" calcCompleted="0"/>
   <pivotCaches>
-    <pivotCache cacheId="3062" r:id="rId16"/>
+    <pivotCache cacheId="5712" r:id="rId16"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -3117,6 +3117,22 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="6350" cap="rnd" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="4472C4"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$27:$A$35</c:f>
@@ -3660,6 +3676,19 @@
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="1"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="ED7D31"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$27:$A$35</c:f>
@@ -5068,6 +5097,19 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="A5A5A5"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$B$27:$B$35</c:f>
@@ -5381,6 +5423,20 @@
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="1"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="70AD47"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="movingAvg"/>
+            <c:period val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$27:$A$35</c:f>
@@ -6193,6 +6249,19 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:strRef>
               <c:f>Sheet1!A27:A35</c:f>
@@ -7902,7 +7971,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9B3CE3F5-58D8-48A3-B9C6-24D1506C9F5C}" name="PivotTable1" cacheId="3062" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9B3CE3F5-58D8-48A3-B9C6-24D1506C9F5C}" name="PivotTable1" cacheId="5712" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C3:L21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -11106,7 +11175,7 @@
       </c>
       <c r="B100" s="19">
         <f ca="1">NOW()</f>
-        <v>45736.475918171294</v>
+        <v>45741.742819212966</v>
       </c>
       <c r="D100" s="117">
         <f ca="1">IF(ISNUMBER(B100),1,0)</f>
@@ -11796,7 +11865,7 @@
       </c>
       <c r="B144" s="18">
         <f ca="1">TODAY()</f>
-        <v>45736</v>
+        <v>45741</v>
       </c>
       <c r="D144" s="117">
         <f ca="1">IF(ISNUMBER(B144),1,0)</f>
@@ -12841,7 +12910,7 @@
       </c>
       <c r="B12" s="39">
         <f ca="1">TODAY()</f>
-        <v>45736</v>
+        <v>45741</v>
       </c>
       <c r="C12" s="39">
         <f>DATE(2010,10,2)</f>
@@ -14622,7 +14691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C47BF70-BA80-4124-B359-67CBCB635390}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>

--- a/tests/__xlsx__/xlsx_demo_data.xlsx
+++ b/tests/__xlsx__/xlsx_demo_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrien\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Odoo\spreadsheet\tests\__xlsx__\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{157AC437-DB84-431C-BDD0-6A0421B0B149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F15F33D-0A5F-4E8A-8973-B5E6D3A30B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23295" yWindow="195" windowWidth="21600" windowHeight="11385" firstSheet="13" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,9 @@
   <externalReferences>
     <externalReference r:id="rId15"/>
   </externalReferences>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="3563" r:id="rId16"/>
+    <pivotCache cacheId="2" r:id="rId16"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="440">
   <si>
     <t>CF =42</t>
   </si>
@@ -1361,6 +1361,21 @@
   </si>
   <si>
     <t>A1234556</t>
+  </si>
+  <si>
+    <t>Total table</t>
+  </si>
+  <si>
+    <t>Column of table of other sheet</t>
+  </si>
+  <si>
+    <t>Multiple columns total</t>
+  </si>
+  <si>
+    <t>Multiple Columns</t>
+  </si>
+  <si>
+    <t>Multiple keywords</t>
   </si>
 </sst>
 </file>
@@ -1375,7 +1390,7 @@
     <numFmt numFmtId="168" formatCode="#,##0&quot; EUR €&quot;"/>
     <numFmt numFmtId="169" formatCode="&quot;€&quot;#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2375,6 +2390,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2387,7 +2403,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2395,157 +2410,6 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{1493241F-B85D-4F84-BBA0-86191B8FD032}"/>
   </cellStyles>
   <dxfs count="46">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike/>
-        <u/>
-        <color theme="7"/>
-      </font>
-      <numFmt numFmtId="170" formatCode="dd/mm/yyyy"/>
-      <fill>
-        <patternFill patternType="lightTrellis">
-          <fgColor theme="4"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE06666"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB6D7A8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2946,6 +2810,157 @@
       <fill>
         <patternFill>
           <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike/>
+        <u/>
+        <color theme="7"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="lightTrellis">
+          <fgColor theme="4"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE06666"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB6D7A8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7575,7 +7590,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9B3CE3F5-58D8-48A3-B9C6-24D1506C9F5C}" name="PivotTable1" cacheId="3563" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9B3CE3F5-58D8-48A3-B9C6-24D1506C9F5C}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C3:L21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -7725,7 +7740,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{09C35CC7-7259-4A97-8FEA-EDB47375DF08}" name="Table3" displayName="Table3" ref="C3:J6" totalsRowCount="1" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{09C35CC7-7259-4A97-8FEA-EDB47375DF08}" name="Table3" displayName="Table3" ref="C3:J6" totalsRowCount="1" headerRowDxfId="43" dataDxfId="42">
   <autoFilter ref="C3:J5" xr:uid="{09C35CC7-7259-4A97-8FEA-EDB47375DF08}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -7737,22 +7752,22 @@
     <filterColumn colId="7" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{C4EE018E-238B-42BA-9035-DB01FA5420D3}" name="Name" totalsRowLabel="Total" dataDxfId="14" totalsRowDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{C1F6911F-9482-4C98-BBFB-21D9CAA66DA4}" name="Age" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{3CE9F5DA-0A57-4696-B4E0-53601C3B7798}" name="Rank" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{34912838-665C-4472-B558-25990E5B148D}" name="Rank+Age =E4+D4" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="9">
+    <tableColumn id="1" xr3:uid="{C4EE018E-238B-42BA-9035-DB01FA5420D3}" name="Name" totalsRowLabel="Total" dataDxfId="41" totalsRowDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{C1F6911F-9482-4C98-BBFB-21D9CAA66DA4}" name="Age" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{3CE9F5DA-0A57-4696-B4E0-53601C3B7798}" name="Rank" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="6" xr3:uid="{34912838-665C-4472-B558-25990E5B148D}" name="Rank+Age =E4+D4" totalsRowFunction="sum" dataDxfId="35" totalsRowDxfId="34">
       <calculatedColumnFormula>Table3[[#This Row],[Rank]]+Table3[[#This Row],[Age]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{89D90022-7073-4067-BAF8-1587D27C4AFB}" name="Data =SUM(E4:E5)" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="7">
+    <tableColumn id="7" xr3:uid="{89D90022-7073-4067-BAF8-1587D27C4AFB}" name="Data =SUM(E4:E5)" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="32">
       <calculatedColumnFormula>SUM(Table3[Rank])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{B2A7E5BB-A379-492B-9484-72F2FD1FF3A0}" name="All =SUM(E3:E6)" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="5">
+    <tableColumn id="8" xr3:uid="{B2A7E5BB-A379-492B-9484-72F2FD1FF3A0}" name="All =SUM(E3:E6)" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="30">
       <calculatedColumnFormula>SUM(Table3[[#All],[Rank]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{3C532A69-E4BC-4A20-A922-4BCAA0D3FEC9}" name="Totals =E6" totalsRowFunction="sum" dataDxfId="2" totalsRowDxfId="3">
+    <tableColumn id="9" xr3:uid="{3C532A69-E4BC-4A20-A922-4BCAA0D3FEC9}" name="Totals =E6" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="28">
       <calculatedColumnFormula>Table3[[#Totals],[Rank]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{35E9E9C3-9148-468A-85B6-19290CEB6F00}" name="Headers =E3" totalsRowFunction="sum" dataDxfId="0" totalsRowDxfId="1">
+    <tableColumn id="10" xr3:uid="{35E9E9C3-9148-468A-85B6-19290CEB6F00}" name="Headers =E3" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="26">
       <calculatedColumnFormula>Table3[[#Headers],[Rank]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7767,6 +7782,17 @@
     <tableColumn id="2" xr3:uid="{2050F373-1538-4D53-8D8B-FBE687F1DDF5}" name="Column2"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{307A681A-7503-48EC-8397-FD5EC6936205}" name="Table10" displayName="Table10" ref="A7:B12" totalsRowShown="0">
+  <autoFilter ref="A7:B12" xr:uid="{307A681A-7503-48EC-8397-FD5EC6936205}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{A9A98D4B-2CD7-48DE-837B-A9DEFDC3FF26}" name="Col1"/>
+    <tableColumn id="2" xr3:uid="{D53EBDCE-CF57-4D22-AF3A-CB3415AFA96E}" name="Col2"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -7862,9 +7888,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7902,7 +7928,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -8008,7 +8034,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8150,7 +8176,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8167,7 +8193,7 @@
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.28515625" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
@@ -8176,7 +8202,7 @@
     <col min="6" max="26" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="38.25" customHeight="1">
+    <row r="1" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="21"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -8185,7 +8211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="27.75">
+    <row r="2" spans="1:12" ht="27.75" x14ac:dyDescent="0.2">
       <c r="B2" s="22" t="s">
         <v>2</v>
       </c>
@@ -8198,25 +8224,25 @@
       <c r="H2" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="123"/>
+      <c r="I2" s="119"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="17.25" customHeight="1">
+    <row r="3" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="117">
         <v>8</v>
       </c>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="119">
+      <c r="K3" s="120">
         <v>5</v>
       </c>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12" ht="17.25" customHeight="1">
+    <row r="4" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
@@ -8229,50 +8255,50 @@
       <c r="G4" s="117">
         <v>9</v>
       </c>
-      <c r="H4" s="123"/>
-      <c r="I4" s="123"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="120"/>
+      <c r="K4" s="121"/>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:12" ht="17.25" customHeight="1">
+    <row r="5" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="117">
         <v>42</v>
       </c>
       <c r="G5" s="117">
         <v>15</v>
       </c>
-      <c r="H5" s="123"/>
-      <c r="I5" s="123"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="120"/>
+      <c r="K5" s="121"/>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:12" ht="17.25" customHeight="1">
+    <row r="6" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G6" s="117">
         <v>22</v>
       </c>
       <c r="J6" s="5"/>
-      <c r="K6" s="120"/>
+      <c r="K6" s="121"/>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:12" ht="17.25" customHeight="1">
+    <row r="7" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="117">
         <v>3</v>
       </c>
       <c r="J7" s="5"/>
-      <c r="K7" s="120"/>
+      <c r="K7" s="121"/>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="1:12" ht="17.25" customHeight="1">
+    <row r="8" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G8" s="117">
         <v>30</v>
       </c>
       <c r="J8" s="5"/>
-      <c r="K8" s="121"/>
+      <c r="K8" s="122"/>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="1:12" ht="17.25" customHeight="1">
+    <row r="9" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
@@ -8282,7 +8308,7 @@
       </c>
       <c r="K9" s="10"/>
     </row>
-    <row r="10" spans="1:12" ht="17.25" customHeight="1">
+    <row r="10" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="117">
         <f>SUM(C4:C7)</f>
         <v>57.4</v>
@@ -8291,13 +8317,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="17.25" customHeight="1">
+    <row r="11" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="117">
         <f>-(3+C7*SUM(C4:C7))</f>
         <v>-175.2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="17.25" customHeight="1">
+    <row r="12" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="117">
         <f>SUM(C9:C11)</f>
         <v>-63.399999999999991</v>
@@ -8306,13 +8332,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="17.25" customHeight="1">
+    <row r="13" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G13" s="117">
         <f>A1+A2+A3+A4+A5+A6+A7+A8+A9+A10+A11+A12+A13+A14+A15+A16+A17+A18</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="17.25" customHeight="1">
+    <row r="14" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="11" t="s">
         <v>11</v>
       </c>
@@ -8321,32 +8347,32 @@
         <v>#CYCLE</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="17.25" customHeight="1">
+    <row r="15" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="117" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="17.25" customHeight="1">
+    <row r="16" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="117" t="str">
         <f>C15</f>
         <v>=(+</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="17.25" customHeight="1">
+    <row r="17" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="117" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="17.25" customHeight="1">
+    <row r="18" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="117" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="17.25" customHeight="1">
+    <row r="19" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:9" ht="17.25" customHeight="1">
+    <row r="20" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="5"/>
       <c r="C20" s="6" t="s">
         <v>15</v>
@@ -8360,7 +8386,7 @@
       </c>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:9" ht="17.25" customHeight="1">
+    <row r="21" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
         <v>18</v>
       </c>
@@ -8370,7 +8396,7 @@
       </c>
       <c r="G21" s="10"/>
     </row>
-    <row r="23" spans="1:9" ht="17.25" customHeight="1">
+    <row r="23" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>19</v>
       </c>
@@ -8384,7 +8410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="17.25" customHeight="1">
+    <row r="24" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="16">
         <v>10</v>
       </c>
@@ -8395,7 +8421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="17.25" customHeight="1">
+    <row r="25" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="16">
         <v>10.122999999999999</v>
       </c>
@@ -8406,7 +8432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="17.25" customHeight="1">
+    <row r="26" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="117" t="s">
         <v>20</v>
       </c>
@@ -8420,7 +8446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="17.25" customHeight="1">
+    <row r="27" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="117" t="s">
         <v>22</v>
       </c>
@@ -8437,7 +8463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="17.25" customHeight="1">
+    <row r="28" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="117" t="s">
         <v>23</v>
       </c>
@@ -8454,7 +8480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="17.25" customHeight="1">
+    <row r="29" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="117" t="s">
         <v>24</v>
       </c>
@@ -8471,7 +8497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="17.25" customHeight="1">
+    <row r="30" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="117" t="s">
         <v>25</v>
       </c>
@@ -8488,7 +8514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="17.25" customHeight="1">
+    <row r="31" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="117" t="s">
         <v>26</v>
       </c>
@@ -8505,7 +8531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="17.25" customHeight="1">
+    <row r="32" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="117" t="s">
         <v>27</v>
       </c>
@@ -8522,7 +8548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="17.25" customHeight="1">
+    <row r="33" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="117" t="s">
         <v>28</v>
       </c>
@@ -8539,7 +8565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="17.25" customHeight="1">
+    <row r="34" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="117" t="s">
         <v>29</v>
       </c>
@@ -8550,7 +8576,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="17.25" customHeight="1">
+    <row r="35" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="117" t="s">
         <v>30</v>
       </c>
@@ -8567,7 +8593,7 @@
     <mergeCell ref="K3:K8"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:C100 B21">
-    <cfRule type="cellIs" dxfId="43" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
       <formula>42</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8617,7 +8643,7 @@
       <selection sqref="A1:N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8629,12 +8655,12 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
       <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
-      <selection pane="topRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8648,7 +8674,7 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="65.140625" customWidth="1"/>
     <col min="2" max="26" width="13.7109375" customWidth="1"/>
@@ -8668,7 +8694,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8683,7 +8709,7 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="4" width="14.28515625" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" customWidth="1"/>
@@ -8692,7 +8718,7 @@
     <col min="9" max="9" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="114" t="s">
         <v>418</v>
       </c>
@@ -8721,7 +8747,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="104">
         <v>4</v>
       </c>
@@ -8750,7 +8776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="104">
         <v>3</v>
       </c>
@@ -8779,7 +8805,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="104">
         <v>9</v>
       </c>
@@ -8808,7 +8834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="104">
         <v>5</v>
       </c>
@@ -8837,7 +8863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="109">
         <v>7</v>
       </c>
@@ -8915,12 +8941,12 @@
       <selection activeCell="G115" sqref="G115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="26" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="17.25" customHeight="1">
+    <row r="1" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="117" t="s">
         <v>31</v>
       </c>
@@ -8955,7 +8981,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="17.25" customHeight="1">
+    <row r="2" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="117" t="s">
         <v>41</v>
       </c>
@@ -9001,7 +9027,7 @@
         <v>1230.7</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="17.25" customHeight="1">
+    <row r="3" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="117" t="s">
         <v>43</v>
       </c>
@@ -9047,7 +9073,7 @@
         <v>1217.7</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="17.25" customHeight="1">
+    <row r="4" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="117" t="s">
         <v>45</v>
       </c>
@@ -9093,7 +9119,7 @@
         <v>1230.7</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="17.25" customHeight="1">
+    <row r="5" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="117" t="s">
         <v>47</v>
       </c>
@@ -9139,7 +9165,7 @@
         <v>1246.7</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="17.25" customHeight="1">
+    <row r="6" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="117" t="s">
         <v>49</v>
       </c>
@@ -9185,7 +9211,7 @@
         <v>1213.7</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="17.25" customHeight="1">
+    <row r="7" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="117" t="s">
         <v>52</v>
       </c>
@@ -9219,7 +9245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="17.25" customHeight="1">
+    <row r="8" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="117" t="s">
         <v>54</v>
       </c>
@@ -9253,7 +9279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="17.25" customHeight="1">
+    <row r="9" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="117" t="s">
         <v>56</v>
       </c>
@@ -9284,7 +9310,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="17.25" customHeight="1">
+    <row r="10" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="117" t="s">
         <v>58</v>
       </c>
@@ -9300,7 +9326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="17.25" customHeight="1">
+    <row r="11" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="117" t="s">
         <v>59</v>
       </c>
@@ -9319,7 +9345,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="17.25" customHeight="1">
+    <row r="12" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="117" t="s">
         <v>61</v>
       </c>
@@ -9350,7 +9376,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="17.25" customHeight="1">
+    <row r="13" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="117" t="s">
         <v>62</v>
       </c>
@@ -9381,7 +9407,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="17.25" customHeight="1">
+    <row r="14" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="117" t="s">
         <v>67</v>
       </c>
@@ -9397,7 +9423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="17.25" customHeight="1">
+    <row r="15" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="117" t="s">
         <v>68</v>
       </c>
@@ -9413,7 +9439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="17.25" customHeight="1">
+    <row r="16" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="117" t="s">
         <v>69</v>
       </c>
@@ -9429,7 +9455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="17.25" customHeight="1">
+    <row r="17" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="117" t="s">
         <v>70</v>
       </c>
@@ -9445,7 +9471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="17.25" customHeight="1">
+    <row r="18" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="117" t="s">
         <v>71</v>
       </c>
@@ -9461,7 +9487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17.25" customHeight="1">
+    <row r="19" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="117" t="s">
         <v>72</v>
       </c>
@@ -9477,7 +9503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="17.25" customHeight="1">
+    <row r="20" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="117" t="s">
         <v>73</v>
       </c>
@@ -9493,7 +9519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="17.25" customHeight="1">
+    <row r="21" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="117" t="s">
         <v>74</v>
       </c>
@@ -9509,7 +9535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="17.25" customHeight="1">
+    <row r="22" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="117" t="s">
         <v>76</v>
       </c>
@@ -9525,7 +9551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="17.25" customHeight="1">
+    <row r="23" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="117" t="s">
         <v>77</v>
       </c>
@@ -9541,7 +9567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="17.25" customHeight="1">
+    <row r="24" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="117" t="s">
         <v>78</v>
       </c>
@@ -9558,7 +9584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="17.25" customHeight="1">
+    <row r="25" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="117" t="s">
         <v>79</v>
       </c>
@@ -9574,7 +9600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="17.25" customHeight="1">
+    <row r="26" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="117" t="s">
         <v>81</v>
       </c>
@@ -9590,7 +9616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="17.25" customHeight="1">
+    <row r="27" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="117" t="s">
         <v>82</v>
       </c>
@@ -9606,7 +9632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="17.25" customHeight="1">
+    <row r="28" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="117" t="s">
         <v>83</v>
       </c>
@@ -9623,7 +9649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="17.25" customHeight="1">
+    <row r="29" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="117" t="s">
         <v>84</v>
       </c>
@@ -9639,7 +9665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="17.25" customHeight="1">
+    <row r="30" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="117" t="s">
         <v>85</v>
       </c>
@@ -9655,7 +9681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="17.25" customHeight="1">
+    <row r="31" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="117" t="s">
         <v>86</v>
       </c>
@@ -9671,7 +9697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="17.25" customHeight="1">
+    <row r="32" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="117" t="s">
         <v>87</v>
       </c>
@@ -9687,7 +9713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="17.25" customHeight="1">
+    <row r="33" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="117" t="s">
         <v>88</v>
       </c>
@@ -9703,7 +9729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="17.25" customHeight="1">
+    <row r="34" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="117" t="s">
         <v>89</v>
       </c>
@@ -9719,7 +9745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="17.25" customHeight="1">
+    <row r="35" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="117" t="s">
         <v>90</v>
       </c>
@@ -9735,7 +9761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="17.25" customHeight="1">
+    <row r="36" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="117" t="s">
         <v>91</v>
       </c>
@@ -9751,7 +9777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="17.25" customHeight="1">
+    <row r="37" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="117" t="s">
         <v>92</v>
       </c>
@@ -9767,7 +9793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="17.25" customHeight="1">
+    <row r="38" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="117" t="s">
         <v>93</v>
       </c>
@@ -9784,7 +9810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="17.25" customHeight="1">
+    <row r="39" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="117" t="s">
         <v>94</v>
       </c>
@@ -9800,7 +9826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="17.25" customHeight="1">
+    <row r="40" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="117" t="s">
         <v>95</v>
       </c>
@@ -9816,7 +9842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="17.25" customHeight="1">
+    <row r="41" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="117" t="s">
         <v>96</v>
       </c>
@@ -9832,7 +9858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="17.25" customHeight="1">
+    <row r="42" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="117" t="s">
         <v>97</v>
       </c>
@@ -9848,7 +9874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="17.25" customHeight="1">
+    <row r="43" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="117" t="s">
         <v>98</v>
       </c>
@@ -9864,7 +9890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="17.25" customHeight="1">
+    <row r="44" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="117" t="s">
         <v>99</v>
       </c>
@@ -9880,7 +9906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="17.25" customHeight="1">
+    <row r="45" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="117" t="s">
         <v>100</v>
       </c>
@@ -9896,7 +9922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="17.25" customHeight="1">
+    <row r="46" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="117" t="s">
         <v>101</v>
       </c>
@@ -9912,7 +9938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="17.25" customHeight="1">
+    <row r="47" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="117" t="s">
         <v>102</v>
       </c>
@@ -9928,7 +9954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="17.25" customHeight="1">
+    <row r="48" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="117" t="s">
         <v>103</v>
       </c>
@@ -9944,7 +9970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="17.25" customHeight="1">
+    <row r="49" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="117" t="s">
         <v>104</v>
       </c>
@@ -9960,7 +9986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="17.25" customHeight="1">
+    <row r="50" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="117" t="s">
         <v>105</v>
       </c>
@@ -9977,7 +10003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="17.25" customHeight="1">
+    <row r="51" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="117" t="s">
         <v>106</v>
       </c>
@@ -9994,7 +10020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="17.25" customHeight="1">
+    <row r="52" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="117" t="s">
         <v>107</v>
       </c>
@@ -10010,7 +10036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="17.25" customHeight="1">
+    <row r="53" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="117" t="s">
         <v>108</v>
       </c>
@@ -10026,7 +10052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="17.25" customHeight="1">
+    <row r="54" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="117" t="s">
         <v>109</v>
       </c>
@@ -10042,7 +10068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="17.25" customHeight="1">
+    <row r="55" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="117" t="s">
         <v>110</v>
       </c>
@@ -10058,7 +10084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="17.25" customHeight="1">
+    <row r="56" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="117" t="s">
         <v>111</v>
       </c>
@@ -10074,7 +10100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="17.25" customHeight="1">
+    <row r="57" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="117" t="s">
         <v>112</v>
       </c>
@@ -10090,7 +10116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="17.25" customHeight="1">
+    <row r="58" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="117" t="s">
         <v>113</v>
       </c>
@@ -10106,7 +10132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="17.25" customHeight="1">
+    <row r="59" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="117" t="s">
         <v>114</v>
       </c>
@@ -10122,7 +10148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="17.25" customHeight="1">
+    <row r="60" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="117" t="s">
         <v>115</v>
       </c>
@@ -10138,7 +10164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="17.25" customHeight="1">
+    <row r="61" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="117" t="s">
         <v>116</v>
       </c>
@@ -10154,7 +10180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="17.25" customHeight="1">
+    <row r="62" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="117" t="s">
         <v>117</v>
       </c>
@@ -10170,7 +10196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="17.25" customHeight="1">
+    <row r="63" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="117" t="s">
         <v>118</v>
       </c>
@@ -10186,7 +10212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="17.25" customHeight="1">
+    <row r="64" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="117" t="s">
         <v>119</v>
       </c>
@@ -10202,7 +10228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="17.25" customHeight="1">
+    <row r="65" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="117" t="s">
         <v>120</v>
       </c>
@@ -10218,7 +10244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="17.25" customHeight="1">
+    <row r="66" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="117" t="s">
         <v>121</v>
       </c>
@@ -10234,7 +10260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="17.25" customHeight="1">
+    <row r="67" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="117" t="s">
         <v>122</v>
       </c>
@@ -10250,7 +10276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="17.25" customHeight="1">
+    <row r="68" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="117" t="s">
         <v>123</v>
       </c>
@@ -10266,7 +10292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="17.25" customHeight="1">
+    <row r="69" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="117" t="s">
         <v>125</v>
       </c>
@@ -10282,7 +10308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="17.25" customHeight="1">
+    <row r="70" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="117" t="s">
         <v>127</v>
       </c>
@@ -10298,7 +10324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="17.25" customHeight="1">
+    <row r="71" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="117" t="s">
         <v>129</v>
       </c>
@@ -10314,7 +10340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="17.25" customHeight="1">
+    <row r="72" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="117" t="s">
         <v>130</v>
       </c>
@@ -10330,7 +10356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="17.25" customHeight="1">
+    <row r="73" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="117" t="s">
         <v>131</v>
       </c>
@@ -10346,7 +10372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="17.25" customHeight="1">
+    <row r="74" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="117" t="s">
         <v>132</v>
       </c>
@@ -10362,7 +10388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="17.25" customHeight="1">
+    <row r="75" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="117" t="s">
         <v>133</v>
       </c>
@@ -10378,7 +10404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="17.25" customHeight="1">
+    <row r="76" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="117" t="s">
         <v>134</v>
       </c>
@@ -10394,7 +10420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="17.25" customHeight="1">
+    <row r="77" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="117" t="s">
         <v>135</v>
       </c>
@@ -10410,7 +10436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="17.25" customHeight="1">
+    <row r="78" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="117" t="s">
         <v>136</v>
       </c>
@@ -10426,7 +10452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="17.25" customHeight="1">
+    <row r="79" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="117" t="s">
         <v>137</v>
       </c>
@@ -10442,7 +10468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="17.25" customHeight="1">
+    <row r="80" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="117" t="s">
         <v>138</v>
       </c>
@@ -10458,7 +10484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="17.25" customHeight="1">
+    <row r="81" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="117" t="s">
         <v>139</v>
       </c>
@@ -10474,7 +10500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="17.25" customHeight="1">
+    <row r="82" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="117" t="s">
         <v>141</v>
       </c>
@@ -10490,7 +10516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="17.25" customHeight="1">
+    <row r="83" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="117" t="s">
         <v>142</v>
       </c>
@@ -10506,7 +10532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="17.25" customHeight="1">
+    <row r="84" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="117" t="s">
         <v>143</v>
       </c>
@@ -10522,7 +10548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="17.25" customHeight="1">
+    <row r="85" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="117" t="s">
         <v>144</v>
       </c>
@@ -10538,7 +10564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="17.25" customHeight="1">
+    <row r="86" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="117" t="s">
         <v>146</v>
       </c>
@@ -10554,7 +10580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="17.25" customHeight="1">
+    <row r="87" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="117" t="s">
         <v>147</v>
       </c>
@@ -10570,7 +10596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="17.25" customHeight="1">
+    <row r="88" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="117" t="s">
         <v>148</v>
       </c>
@@ -10586,7 +10612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="17.25" customHeight="1">
+    <row r="89" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="117" t="s">
         <v>149</v>
       </c>
@@ -10602,7 +10628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="17.25" customHeight="1">
+    <row r="90" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="117" t="s">
         <v>150</v>
       </c>
@@ -10618,7 +10644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="17.25" customHeight="1">
+    <row r="91" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="117" t="s">
         <v>151</v>
       </c>
@@ -10634,7 +10660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="17.25" customHeight="1">
+    <row r="92" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="117" t="s">
         <v>152</v>
       </c>
@@ -10650,7 +10676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="17.25" customHeight="1">
+    <row r="93" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="117" t="s">
         <v>153</v>
       </c>
@@ -10666,7 +10692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="17.25" customHeight="1">
+    <row r="94" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="117" t="s">
         <v>154</v>
       </c>
@@ -10682,7 +10708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="17.25" customHeight="1">
+    <row r="95" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="117" t="s">
         <v>155</v>
       </c>
@@ -10698,7 +10724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="17.25" customHeight="1">
+    <row r="96" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="117" t="s">
         <v>156</v>
       </c>
@@ -10714,7 +10740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="17.25" customHeight="1">
+    <row r="97" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="117" t="s">
         <v>157</v>
       </c>
@@ -10730,7 +10756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="17.25" customHeight="1">
+    <row r="98" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="117" t="s">
         <v>158</v>
       </c>
@@ -10746,7 +10772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="17.25" customHeight="1">
+    <row r="99" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="117" t="s">
         <v>159</v>
       </c>
@@ -10762,20 +10788,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="17.25" customHeight="1">
+    <row r="100" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="117" t="s">
         <v>160</v>
       </c>
       <c r="B100" s="19">
         <f ca="1">NOW()</f>
-        <v>45663.51402037037</v>
+        <v>45716.378380439812</v>
       </c>
       <c r="D100" s="117">
         <f ca="1">IF(ISNUMBER(B100),1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="17.25" customHeight="1">
+    <row r="101" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="117" t="s">
         <v>161</v>
       </c>
@@ -10791,7 +10817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="17.25" customHeight="1">
+    <row r="102" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="117" t="s">
         <v>162</v>
       </c>
@@ -10807,7 +10833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="17.25" customHeight="1">
+    <row r="103" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="117" t="s">
         <v>163</v>
       </c>
@@ -10823,7 +10849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="17.25" customHeight="1">
+    <row r="104" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="117" t="s">
         <v>164</v>
       </c>
@@ -10839,7 +10865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="17.25" customHeight="1">
+    <row r="105" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="117" t="s">
         <v>165</v>
       </c>
@@ -10855,7 +10881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="17.25" customHeight="1">
+    <row r="106" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="117" t="s">
         <v>166</v>
       </c>
@@ -10871,7 +10897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="17.25" customHeight="1">
+    <row r="107" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="117" t="s">
         <v>167</v>
       </c>
@@ -10887,7 +10913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="17.25" customHeight="1">
+    <row r="108" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="117" t="s">
         <v>168</v>
       </c>
@@ -10903,7 +10929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="17.25" customHeight="1">
+    <row r="109" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="117" t="s">
         <v>169</v>
       </c>
@@ -10919,7 +10945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="17.25" customHeight="1">
+    <row r="110" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="117" t="s">
         <v>170</v>
       </c>
@@ -10935,7 +10961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="17.25" customHeight="1">
+    <row r="111" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="117" t="s">
         <v>171</v>
       </c>
@@ -10951,12 +10977,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="17.25" customHeight="1">
+    <row r="112" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="117"/>
       <c r="B112" s="117"/>
       <c r="D112" s="117"/>
     </row>
-    <row r="113" spans="1:4" ht="17.25" customHeight="1">
+    <row r="113" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="117" t="s">
         <v>172</v>
       </c>
@@ -10972,7 +10998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="17.25" customHeight="1">
+    <row r="114" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="117" t="s">
         <v>173</v>
       </c>
@@ -10988,7 +11014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="17.25" customHeight="1">
+    <row r="115" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="117" t="s">
         <v>175</v>
       </c>
@@ -11004,7 +11030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="17.25" customHeight="1">
+    <row r="116" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="117" t="s">
         <v>177</v>
       </c>
@@ -11020,7 +11046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="17.25" customHeight="1">
+    <row r="117" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="117" t="s">
         <v>178</v>
       </c>
@@ -11036,7 +11062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="17.25" customHeight="1">
+    <row r="118" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="117" t="s">
         <v>179</v>
       </c>
@@ -11052,7 +11078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="17.25" customHeight="1">
+    <row r="119" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="117" t="s">
         <v>180</v>
       </c>
@@ -11068,7 +11094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="17.25" customHeight="1">
+    <row r="120" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="117" t="s">
         <v>181</v>
       </c>
@@ -11084,7 +11110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="17.25" customHeight="1">
+    <row r="121" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="117" t="s">
         <v>182</v>
       </c>
@@ -11100,7 +11126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="17.25" customHeight="1">
+    <row r="122" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="117" t="s">
         <v>183</v>
       </c>
@@ -11116,7 +11142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="17.25" customHeight="1">
+    <row r="123" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="117" t="s">
         <v>184</v>
       </c>
@@ -11132,7 +11158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="17.25" customHeight="1">
+    <row r="124" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="117" t="s">
         <v>185</v>
       </c>
@@ -11148,7 +11174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="17.25" customHeight="1">
+    <row r="125" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="117" t="s">
         <v>186</v>
       </c>
@@ -11164,7 +11190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="17.25" customHeight="1">
+    <row r="126" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="117" t="s">
         <v>187</v>
       </c>
@@ -11180,7 +11206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="17.25" customHeight="1">
+    <row r="127" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="117" t="s">
         <v>188</v>
       </c>
@@ -11196,7 +11222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="17.25" customHeight="1">
+    <row r="128" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="117" t="s">
         <v>189</v>
       </c>
@@ -11212,7 +11238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="17.25" customHeight="1">
+    <row r="129" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="117" t="s">
         <v>190</v>
       </c>
@@ -11228,7 +11254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="17.25" customHeight="1">
+    <row r="130" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="117" t="s">
         <v>191</v>
       </c>
@@ -11244,7 +11270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="17.25" customHeight="1">
+    <row r="131" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="117" t="s">
         <v>192</v>
       </c>
@@ -11260,7 +11286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="17.25" customHeight="1">
+    <row r="132" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="117" t="s">
         <v>193</v>
       </c>
@@ -11276,7 +11302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="17.25" customHeight="1">
+    <row r="133" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="117" t="s">
         <v>194</v>
       </c>
@@ -11292,7 +11318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="17.25" customHeight="1">
+    <row r="134" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="117" t="s">
         <v>195</v>
       </c>
@@ -11308,7 +11334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="17.25" customHeight="1">
+    <row r="135" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="117" t="s">
         <v>196</v>
       </c>
@@ -11324,7 +11350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="17.25" customHeight="1">
+    <row r="136" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="117" t="s">
         <v>198</v>
       </c>
@@ -11340,7 +11366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="17.25" customHeight="1">
+    <row r="137" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="117" t="s">
         <v>199</v>
       </c>
@@ -11356,7 +11382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="17.25" customHeight="1">
+    <row r="138" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="117" t="s">
         <v>200</v>
       </c>
@@ -11372,7 +11398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="17.25" customHeight="1">
+    <row r="139" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="117" t="s">
         <v>201</v>
       </c>
@@ -11388,7 +11414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="17.25" customHeight="1">
+    <row r="140" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="117" t="s">
         <v>202</v>
       </c>
@@ -11404,7 +11430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="17.25" customHeight="1">
+    <row r="141" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="117" t="s">
         <v>203</v>
       </c>
@@ -11420,7 +11446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="17.25" customHeight="1">
+    <row r="142" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="117" t="s">
         <v>205</v>
       </c>
@@ -11436,7 +11462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="17.25" customHeight="1">
+    <row r="143" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="117" t="s">
         <v>206</v>
       </c>
@@ -11452,20 +11478,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="17.25" customHeight="1">
+    <row r="144" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="117" t="s">
         <v>207</v>
       </c>
       <c r="B144" s="18">
         <f ca="1">TODAY()</f>
-        <v>45663</v>
+        <v>45716</v>
       </c>
       <c r="D144" s="117">
         <f ca="1">IF(ISNUMBER(B144),1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="17.25" customHeight="1">
+    <row r="145" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="117" t="s">
         <v>208</v>
       </c>
@@ -11481,7 +11507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="17.25" customHeight="1">
+    <row r="146" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="117" t="s">
         <v>210</v>
       </c>
@@ -11497,7 +11523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="17.25" customHeight="1">
+    <row r="147" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="117" t="s">
         <v>211</v>
       </c>
@@ -11513,7 +11539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="17.25" customHeight="1">
+    <row r="148" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="117" t="s">
         <v>213</v>
       </c>
@@ -11529,7 +11555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="17.25" customHeight="1">
+    <row r="149" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="117" t="s">
         <v>214</v>
       </c>
@@ -11545,7 +11571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="17.25" customHeight="1">
+    <row r="150" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="117" t="s">
         <v>215</v>
       </c>
@@ -11561,7 +11587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="17.25" customHeight="1">
+    <row r="151" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="117" t="s">
         <v>216</v>
       </c>
@@ -11577,7 +11603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="17.25" customHeight="1">
+    <row r="152" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="117" t="s">
         <v>217</v>
       </c>
@@ -11593,7 +11619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="17.25" customHeight="1">
+    <row r="153" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="117" t="s">
         <v>218</v>
       </c>
@@ -11609,7 +11635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="17.25" customHeight="1">
+    <row r="154" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="117" t="s">
         <v>219</v>
       </c>
@@ -11626,7 +11652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="17.25" customHeight="1">
+    <row r="155" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="117" t="s">
         <v>220</v>
       </c>
@@ -11642,7 +11668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="17.25" customHeight="1">
+    <row r="156" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="117" t="s">
         <v>221</v>
       </c>
@@ -11658,7 +11684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="17.25" customHeight="1">
+    <row r="157" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="117" t="s">
         <v>222</v>
       </c>
@@ -11674,7 +11700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="17.25" customHeight="1">
+    <row r="158" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="117" t="s">
         <v>223</v>
       </c>
@@ -11690,7 +11716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="17.25" customHeight="1">
+    <row r="159" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="117" t="s">
         <v>224</v>
       </c>
@@ -11706,7 +11732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="17.25" customHeight="1">
+    <row r="160" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="117" t="s">
         <v>225</v>
       </c>
@@ -11722,7 +11748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="17.25" customHeight="1">
+    <row r="161" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="117" t="s">
         <v>226</v>
       </c>
@@ -11738,7 +11764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="17.25" customHeight="1">
+    <row r="162" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="117" t="s">
         <v>227</v>
       </c>
@@ -11754,7 +11780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="17.25" customHeight="1">
+    <row r="163" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="117" t="s">
         <v>229</v>
       </c>
@@ -11772,10 +11798,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D180">
-    <cfRule type="cellIs" dxfId="42" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11795,7 +11821,7 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelRow="2" outlineLevelCol="2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" customWidth="1"/>
@@ -11805,17 +11831,17 @@
     <col min="15" max="18" width="9.140625" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>230</v>
       </c>
       <c r="C1" t="s">
         <v>231</v>
       </c>
-      <c r="D1" s="122" t="s">
+      <c r="D1" s="123" t="s">
         <v>232</v>
       </c>
-      <c r="E1" s="122"/>
+      <c r="E1" s="123"/>
       <c r="F1" t="s">
         <v>233</v>
       </c>
@@ -11823,19 +11849,19 @@
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>SUM(A1)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
       <c r="H2" t="str">
         <f>[1]Feuil1!$A$1</f>
         <v>referenced string</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D3" s="85" t="s">
         <v>235</v>
       </c>
@@ -11843,25 +11869,25 @@
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="75" customHeight="1">
+    <row r="5" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="10" spans="1:8" outlineLevel="1"/>
-    <row r="11" spans="1:8" outlineLevel="1"/>
-    <row r="12" spans="1:8" hidden="1" outlineLevel="2"/>
-    <row r="13" spans="1:8" hidden="1" outlineLevel="2"/>
-    <row r="14" spans="1:8" hidden="1" outlineLevel="2"/>
-    <row r="15" spans="1:8" outlineLevel="1" collapsed="1"/>
-    <row r="16" spans="1:8" outlineLevel="1"/>
-    <row r="17" outlineLevel="1"/>
-    <row r="18" outlineLevel="1"/>
+    <row r="10" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:8" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="17" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="18" outlineLevel="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D1:E2"/>
@@ -11883,14 +11909,14 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" customWidth="1"/>
     <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="13.5" thickBot="1">
+    <row r="1" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="68" t="s">
         <v>239</v>
       </c>
@@ -11912,7 +11938,7 @@
       </c>
       <c r="M1" s="36"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
         <v>245</v>
       </c>
@@ -11938,7 +11964,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="41" t="s">
         <v>252</v>
       </c>
@@ -11961,7 +11987,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15">
+    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="42" t="s">
         <v>256</v>
       </c>
@@ -11987,7 +12013,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="43" t="s">
         <v>262</v>
       </c>
@@ -12007,7 +12033,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="44" t="s">
         <v>266</v>
       </c>
@@ -12030,7 +12056,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.75">
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="45" t="s">
         <v>271</v>
       </c>
@@ -12050,7 +12076,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="21">
+    <row r="8" spans="1:13" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="46" t="s">
         <v>275</v>
       </c>
@@ -12073,7 +12099,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="47" t="s">
         <v>280</v>
       </c>
@@ -12090,7 +12116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="48" t="s">
         <v>283</v>
       </c>
@@ -12098,7 +12124,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="13.5" thickBot="1">
+    <row r="11" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="49" t="s">
         <v>285</v>
       </c>
@@ -12107,7 +12133,7 @@
       </c>
       <c r="F11" s="36"/>
     </row>
-    <row r="12" spans="1:13" ht="18.75" customHeight="1">
+    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="50" t="s">
         <v>287</v>
       </c>
@@ -12121,7 +12147,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="18.75" customHeight="1" thickBot="1">
+    <row r="13" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="51" t="s">
         <v>290</v>
       </c>
@@ -12132,7 +12158,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="18.75" customHeight="1" thickBot="1">
+    <row r="14" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="52" t="s">
         <v>291</v>
       </c>
@@ -12146,7 +12172,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="18.75" customHeight="1" thickBot="1">
+    <row r="15" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="53" t="s">
         <v>293</v>
       </c>
@@ -12157,7 +12183,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="19.5" customHeight="1" thickBot="1">
+    <row r="16" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="54" t="s">
         <v>294</v>
       </c>
@@ -12171,12 +12197,12 @@
         <v>248</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.5" thickBot="1">
+    <row r="17" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.5" thickBot="1">
+    <row r="18" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="74" t="s">
         <v>297</v>
       </c>
@@ -12188,7 +12214,7 @@
       </c>
       <c r="F18" s="36"/>
     </row>
-    <row r="19" spans="1:6" ht="13.5" thickBot="1">
+    <row r="19" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="75" t="s">
         <v>300</v>
       </c>
@@ -12199,7 +12225,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="51.75" thickBot="1">
+    <row r="20" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="76" t="s">
         <v>303</v>
       </c>
@@ -12213,12 +12239,12 @@
         <v>302</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.5" thickBot="1">
+    <row r="21" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="77" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.5" thickBot="1">
+    <row r="22" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="78" t="s">
         <v>307</v>
       </c>
@@ -12227,13 +12253,13 @@
       </c>
       <c r="E22" s="21"/>
     </row>
-    <row r="23" spans="1:6" ht="13.5" thickBot="1">
+    <row r="23" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="79" t="s">
         <v>309</v>
       </c>
       <c r="E23" s="21"/>
     </row>
-    <row r="24" spans="1:6" ht="14.25" thickTop="1" thickBot="1">
+    <row r="24" spans="1:6" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="80" t="s">
         <v>310</v>
       </c>
@@ -12242,20 +12268,20 @@
       </c>
       <c r="E24" s="21"/>
     </row>
-    <row r="25" spans="1:6" ht="14.25" thickTop="1" thickBot="1"/>
-    <row r="26" spans="1:6" ht="14.25" thickTop="1" thickBot="1">
+    <row r="25" spans="1:6" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:6" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C26" s="67" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="14.25" thickTop="1" thickBot="1"/>
-    <row r="28" spans="1:6" ht="14.25" thickTop="1" thickBot="1">
+    <row r="27" spans="1:6" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:6" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C28" s="88" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="13.5" thickTop="1"/>
-    <row r="30" spans="1:6">
+    <row r="29" spans="1:6" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C30" s="87" t="s">
         <v>314</v>
       </c>
@@ -12274,13 +12300,13 @@
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.140625" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13.5" thickBot="1">
+    <row r="1" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
         <v>315</v>
       </c>
@@ -12297,7 +12323,7 @@
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="s">
         <v>319</v>
       </c>
@@ -12320,7 +12346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="38" t="s">
         <v>321</v>
       </c>
@@ -12343,7 +12369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="38" t="s">
         <v>325</v>
       </c>
@@ -12363,7 +12389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="38" t="s">
         <v>328</v>
       </c>
@@ -12387,7 +12413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="38" t="s">
         <v>330</v>
       </c>
@@ -12410,7 +12436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="38" t="s">
         <v>333</v>
       </c>
@@ -12436,7 +12462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="38" t="s">
         <v>337</v>
       </c>
@@ -12447,7 +12473,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="38" t="s">
         <v>339</v>
       </c>
@@ -12456,7 +12482,7 @@
       </c>
       <c r="C9" s="21"/>
     </row>
-    <row r="10" spans="1:10" ht="13.5" thickBot="1">
+    <row r="10" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>340</v>
       </c>
@@ -12474,7 +12500,7 @@
       <c r="I10" s="36"/>
       <c r="J10" s="36"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
         <v>342</v>
       </c>
@@ -12497,13 +12523,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
         <v>344</v>
       </c>
       <c r="B12" s="39">
         <f ca="1">TODAY()</f>
-        <v>45663</v>
+        <v>45716</v>
       </c>
       <c r="C12" s="39">
         <f>DATE(2010,10,2)</f>
@@ -12522,7 +12548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="38" t="s">
         <v>346</v>
       </c>
@@ -12545,7 +12571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="38" t="s">
         <v>348</v>
       </c>
@@ -12571,7 +12597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="38" t="s">
         <v>350</v>
       </c>
@@ -12591,7 +12617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
         <v>352</v>
       </c>
@@ -12614,7 +12640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="38" t="s">
         <v>354</v>
       </c>
@@ -12637,7 +12663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="38" t="s">
         <v>356</v>
       </c>
@@ -12660,7 +12686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="38" t="s">
         <v>358</v>
       </c>
@@ -12683,7 +12709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="38" t="s">
         <v>360</v>
       </c>
@@ -12706,7 +12732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="38" t="s">
         <v>362</v>
       </c>
@@ -12732,7 +12758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="38" t="s">
         <v>364</v>
       </c>
@@ -12758,7 +12784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="38" t="s">
         <v>366</v>
       </c>
@@ -12784,7 +12810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G24" s="34" t="s">
         <v>368</v>
       </c>
@@ -12801,7 +12827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="38" t="s">
         <v>369</v>
       </c>
@@ -12827,7 +12853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G26" s="34" t="s">
         <v>371</v>
       </c>
@@ -12847,7 +12873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="21" t="s">
         <v>372</v>
       </c>
@@ -12873,7 +12899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G28" s="34" t="s">
         <v>374</v>
       </c>
@@ -12893,7 +12919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G29" s="34" t="s">
         <v>375</v>
       </c>
@@ -12913,7 +12939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G30" s="34" t="s">
         <v>376</v>
       </c>
@@ -12933,7 +12959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="13.5" thickBot="1">
+    <row r="31" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G31" s="35" t="s">
         <v>377</v>
       </c>
@@ -12947,7 +12973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G32" s="34" t="s">
         <v>378</v>
       </c>
@@ -12961,7 +12987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="7:10">
+    <row r="33" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G33" s="34" t="s">
         <v>379</v>
       </c>
@@ -12975,7 +13001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="7:10">
+    <row r="34" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G34" s="34" t="s">
         <v>380</v>
       </c>
@@ -12989,7 +13015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="7:10">
+    <row r="35" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G35" s="34" t="s">
         <v>381</v>
       </c>
@@ -13003,7 +13029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="7:10">
+    <row r="36" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G36" s="34" t="s">
         <v>382</v>
       </c>
@@ -13017,7 +13043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="7:10">
+    <row r="37" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G37" s="34" t="s">
         <v>383</v>
       </c>
@@ -13031,110 +13057,110 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="7:10">
+    <row r="39" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G39" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="21" type="noConversion"/>
   <conditionalFormatting sqref="B15">
-    <cfRule type="expression" dxfId="40" priority="58">
+    <cfRule type="expression" dxfId="22" priority="58">
       <formula>ODD(B15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B27">
-    <cfRule type="cellIs" dxfId="39" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="46" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C2">
-    <cfRule type="aboveAverage" dxfId="38" priority="114"/>
+    <cfRule type="aboveAverage" dxfId="20" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3">
-    <cfRule type="beginsWith" dxfId="37" priority="73" operator="beginsWith" text="rule">
+    <cfRule type="beginsWith" dxfId="19" priority="73" operator="beginsWith" text="rule">
       <formula>LEFT(B3,LEN("rule"))="rule"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:C4">
-    <cfRule type="containsBlanks" dxfId="36" priority="71">
+    <cfRule type="containsBlanks" dxfId="18" priority="71">
       <formula>LEN(TRIM(B4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="containsErrors" dxfId="35" priority="70">
+    <cfRule type="containsErrors" dxfId="17" priority="70">
       <formula>ISERROR(B5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:C6">
-    <cfRule type="containsText" dxfId="34" priority="69" operator="containsText" text="rule">
+    <cfRule type="containsText" dxfId="16" priority="69" operator="containsText" text="rule">
       <formula>NOT(ISERROR(SEARCH("rule",B6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:C8">
-    <cfRule type="endsWith" dxfId="33" priority="67" operator="endsWith" text="rule">
+    <cfRule type="endsWith" dxfId="15" priority="67" operator="endsWith" text="rule">
       <formula>RIGHT(B8,LEN("rule"))="rule"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:C9">
-    <cfRule type="notContainsBlanks" dxfId="32" priority="66">
+    <cfRule type="notContainsBlanks" dxfId="14" priority="66">
       <formula>LEN(TRIM(B9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:C10">
-    <cfRule type="notContainsErrors" dxfId="31" priority="65">
+    <cfRule type="notContainsErrors" dxfId="13" priority="65">
       <formula>NOT(ISERROR(B10))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11">
-    <cfRule type="notContainsText" dxfId="30" priority="64" operator="notContains" text="rule">
+    <cfRule type="notContainsText" dxfId="12" priority="64" operator="notContains" text="rule">
       <formula>ISERROR(SEARCH("rule",B11))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:C12">
-    <cfRule type="timePeriod" dxfId="29" priority="63" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="11" priority="63" timePeriod="today">
       <formula>FLOOR(B12,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:C13">
-    <cfRule type="top10" dxfId="28" priority="115" rank="1"/>
+    <cfRule type="top10" dxfId="10" priority="115" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:C16">
-    <cfRule type="cellIs" dxfId="27" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="45" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:C17">
-    <cfRule type="cellIs" dxfId="26" priority="56" operator="notEqual">
+    <cfRule type="cellIs" dxfId="8" priority="56" operator="notEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:C18">
-    <cfRule type="cellIs" dxfId="25" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="greaterThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:C19">
-    <cfRule type="cellIs" dxfId="24" priority="5" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:C20">
-    <cfRule type="cellIs" dxfId="23" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:C21">
-    <cfRule type="cellIs" dxfId="22" priority="3" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:C22">
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="between">
       <formula>2</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:C23">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="notBetween">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="notBetween">
       <formula>2</formula>
       <formula>4</formula>
     </cfRule>
@@ -13168,10 +13194,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:D7">
-    <cfRule type="duplicateValues" dxfId="19" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:D14">
-    <cfRule type="uniqueValues" dxfId="18" priority="96"/>
+    <cfRule type="uniqueValues" dxfId="0" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:J2">
     <cfRule type="colorScale" priority="44">
@@ -13595,11 +13621,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5CCC4B1-5C65-4837-AA26-56CCF06B63BB}">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="17.28515625" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" customWidth="1"/>
@@ -13611,12 +13637,12 @@
     <col min="10" max="10" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15">
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C3" s="17" t="s">
         <v>35</v>
       </c>
@@ -13642,7 +13668,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C4" s="117" t="s">
         <v>42</v>
       </c>
@@ -13673,7 +13699,7 @@
         <v>Rank</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C5" s="117" t="s">
         <v>44</v>
       </c>
@@ -13704,7 +13730,7 @@
         <v>Rank</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C6" s="117" t="s">
         <v>391</v>
       </c>
@@ -13737,7 +13763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>392</v>
       </c>
@@ -13747,16 +13773,51 @@
       <c r="D8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="F8" t="s">
+        <v>435</v>
+      </c>
+      <c r="G8" t="s">
+        <v>436</v>
+      </c>
+      <c r="H8" t="s">
+        <v>437</v>
+      </c>
+      <c r="I8" t="s">
+        <v>438</v>
+      </c>
+      <c r="J8" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="F9">
+        <f>SUM(Table3[#All])</f>
+        <v>396</v>
+      </c>
+      <c r="G9">
+        <f>SUM(Table10[Col2])</f>
+        <v>15</v>
+      </c>
+      <c r="H9">
+        <f>SUM(Table3[[#Totals],[Age]:[Rank]])</f>
+        <v>51</v>
+      </c>
+      <c r="I9">
+        <f>SUM(Table3[[Age]:[Rank]])</f>
+        <v>51</v>
+      </c>
+      <c r="J9">
+        <f>SUM(Table3[[#Data],[#Totals],[Rank]])</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>393</v>
       </c>
@@ -13767,7 +13828,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C12">
         <v>3</v>
       </c>
@@ -13775,7 +13836,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>396</v>
       </c>
@@ -13786,7 +13847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C15">
         <v>3</v>
       </c>
@@ -13794,7 +13855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>397</v>
       </c>
@@ -13805,7 +13866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C18">
         <v>3</v>
       </c>
@@ -13813,7 +13874,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>398</v>
       </c>
@@ -13824,7 +13885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C21">
         <v>3</v>
       </c>
@@ -13832,7 +13893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>399</v>
       </c>
@@ -13843,7 +13904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:4">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C24">
         <v>3</v>
       </c>
@@ -13851,7 +13912,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="2:4">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>400</v>
       </c>
@@ -13862,7 +13923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:4">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C27">
         <v>3</v>
       </c>
@@ -13870,7 +13931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
         <v>391</v>
       </c>
@@ -13879,7 +13940,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="2:4">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>401</v>
       </c>
@@ -13890,7 +13951,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="31" spans="2:4" hidden="1">
+    <row r="31" spans="2:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
         <v>404</v>
       </c>
@@ -13898,7 +13959,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="32" spans="2:4">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
         <v>405</v>
       </c>
@@ -13906,7 +13967,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>406</v>
       </c>
@@ -13936,7 +13997,7 @@
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
@@ -13957,7 +14018,7 @@
     <col min="21" max="21" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15">
+    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="92" t="s">
         <v>407</v>
       </c>
@@ -13967,7 +14028,7 @@
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="117"/>
       <c r="B2" s="117"/>
       <c r="C2" s="117"/>
@@ -13975,7 +14036,7 @@
       <c r="E2" s="117"/>
       <c r="F2" s="117"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="117"/>
       <c r="B3" s="117"/>
       <c r="C3" s="89" t="s">
@@ -13985,7 +14046,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="117"/>
       <c r="B4" s="117"/>
       <c r="C4" s="89" t="s">
@@ -14019,7 +14080,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="117"/>
       <c r="B5" s="117"/>
       <c r="C5" s="90" t="s">
@@ -14032,7 +14093,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="117"/>
       <c r="B6" s="117"/>
       <c r="C6" s="91">
@@ -14045,7 +14106,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="117"/>
       <c r="B7" s="117"/>
       <c r="C7" s="90" t="s">
@@ -14058,7 +14119,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="117"/>
       <c r="B8" s="117"/>
       <c r="C8" s="91">
@@ -14071,7 +14132,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="117"/>
       <c r="B9" s="117"/>
       <c r="C9" s="90" t="s">
@@ -14084,7 +14145,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="117"/>
       <c r="B10" s="117"/>
       <c r="C10" s="91">
@@ -14097,7 +14158,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="90" t="s">
         <v>44</v>
       </c>
@@ -14108,7 +14169,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="91">
         <v>23000</v>
       </c>
@@ -14119,7 +14180,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="90" t="s">
         <v>50</v>
       </c>
@@ -14130,7 +14191,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="91">
         <v>2</v>
       </c>
@@ -14141,7 +14202,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="90" t="s">
         <v>48</v>
       </c>
@@ -14152,7 +14213,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C16" s="91">
         <v>50024</v>
       </c>
@@ -14163,7 +14224,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="3:12">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="90" t="s">
         <v>53</v>
       </c>
@@ -14174,7 +14235,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="3:12">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="91">
         <v>189576</v>
       </c>
@@ -14185,7 +14246,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="3:12">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="90" t="s">
         <v>57</v>
       </c>
@@ -14196,7 +14257,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="3:12">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="91">
         <v>5000</v>
       </c>
@@ -14207,7 +14268,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="3:12">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="90" t="s">
         <v>411</v>
       </c>
@@ -14253,29 +14314,29 @@
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="65.140625" customWidth="1"/>
     <col min="2" max="26" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>413</v>
       </c>
       <c r="B2" s="117"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>415</v>
       </c>
@@ -14288,15 +14349,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE31E21-0350-44E7-AF13-4CA140505B30}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="51">
+    <row r="1" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
         <v>416</v>
       </c>
@@ -14304,7 +14365,58 @@
         <v>417</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>402</v>
+      </c>
+      <c r="B7" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/tests/__xlsx__/xlsx_demo_data.xlsx
+++ b/tests/__xlsx__/xlsx_demo_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28619"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Odoo\spreadsheet\tests\__xlsx__\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0219CD72-FC93-4738-B246-ADCEF801BFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BC587FB-DC30-486B-B048-D0D4A1601548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="8" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,9 +30,9 @@
   <externalReferences>
     <externalReference r:id="rId14"/>
   </externalReferences>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId15"/>
+    <pivotCache cacheId="834" r:id="rId15"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="423">
   <si>
     <t>CF =42</t>
   </si>
@@ -1233,6 +1233,21 @@
   </si>
   <si>
     <t>BasicTable</t>
+  </si>
+  <si>
+    <t>Total table</t>
+  </si>
+  <si>
+    <t>Column of table of other sheet</t>
+  </si>
+  <si>
+    <t>Multiple columns total</t>
+  </si>
+  <si>
+    <t>Multiple Columns</t>
+  </si>
+  <si>
+    <t>Multiple keywords</t>
   </si>
   <si>
     <t>Header</t>
@@ -1324,7 +1339,7 @@
     <numFmt numFmtId="169" formatCode="#,##0&quot; EUR €&quot;"/>
     <numFmt numFmtId="170" formatCode="&quot;€&quot;#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1481,6 +1496,12 @@
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="28">
@@ -2014,7 +2035,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2201,7 +2222,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2214,13 +2234,238 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{1493241F-B85D-4F84-BBA0-86191B8FD032}"/>
   </cellStyles>
-  <dxfs count="46">
+  <dxfs count="50">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike/>
+        <u/>
+        <color theme="7"/>
+      </font>
+      <numFmt numFmtId="171" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="lightTrellis">
+          <fgColor theme="4"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE06666"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB6D7A8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2627,157 +2872,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike/>
-        <u/>
-        <color theme="7"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <fill>
-        <patternFill patternType="lightTrellis">
-          <fgColor theme="4"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE06666"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB6D7A8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="4"/>
         </patternFill>
       </fill>
@@ -2792,8 +2886,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Table Style 1" pivot="0" count="2" xr9:uid="{33B8EB55-D8D8-4B00-B5CF-C84A8AC9E775}">
-      <tableStyleElement type="wholeTable" dxfId="45"/>
-      <tableStyleElement type="firstRowStripe" dxfId="44"/>
+      <tableStyleElement type="wholeTable" dxfId="49"/>
+      <tableStyleElement type="firstRowStripe" dxfId="48"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -3198,7 +3292,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3302,7 +3396,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5848,7 +5942,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -5921,7 +6015,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -6945,7 +7039,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9B3CE3F5-58D8-48A3-B9C6-24D1506C9F5C}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9B3CE3F5-58D8-48A3-B9C6-24D1506C9F5C}" name="PivotTable1" cacheId="834" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C3:L21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -7095,7 +7189,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{09C35CC7-7259-4A97-8FEA-EDB47375DF08}" name="Table3" displayName="Table3" ref="C3:J6" totalsRowCount="1" headerRowDxfId="43" dataDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{09C35CC7-7259-4A97-8FEA-EDB47375DF08}" name="Table3" displayName="Table3" ref="C3:J6" totalsRowCount="1" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="C3:J5" xr:uid="{09C35CC7-7259-4A97-8FEA-EDB47375DF08}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -7107,22 +7201,22 @@
     <filterColumn colId="7" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{C4EE018E-238B-42BA-9035-DB01FA5420D3}" name="Name" totalsRowLabel="Total" dataDxfId="41" totalsRowDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{C1F6911F-9482-4C98-BBFB-21D9CAA66DA4}" name="Age" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="38"/>
-    <tableColumn id="5" xr3:uid="{3CE9F5DA-0A57-4696-B4E0-53601C3B7798}" name="Rank" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="36"/>
-    <tableColumn id="6" xr3:uid="{34912838-665C-4472-B558-25990E5B148D}" name="Rank+Age =E4+D4" totalsRowFunction="sum" dataDxfId="35" totalsRowDxfId="34">
+    <tableColumn id="1" xr3:uid="{C4EE018E-238B-42BA-9035-DB01FA5420D3}" name="Name" totalsRowLabel="Total" dataDxfId="18" totalsRowDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{C1F6911F-9482-4C98-BBFB-21D9CAA66DA4}" name="Age" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{3CE9F5DA-0A57-4696-B4E0-53601C3B7798}" name="Rank" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{34912838-665C-4472-B558-25990E5B148D}" name="Rank+Age =E4+D4" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="13">
       <calculatedColumnFormula>Table3[[#This Row],[Rank]]+Table3[[#This Row],[Age]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{89D90022-7073-4067-BAF8-1587D27C4AFB}" name="Data =SUM(E4:E5)" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="32">
+    <tableColumn id="7" xr3:uid="{89D90022-7073-4067-BAF8-1587D27C4AFB}" name="Data =SUM(E4:E5)" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="11">
       <calculatedColumnFormula>SUM(Table3[Rank])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{B2A7E5BB-A379-492B-9484-72F2FD1FF3A0}" name="All =SUM(E3:E6)" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="30">
+    <tableColumn id="8" xr3:uid="{B2A7E5BB-A379-492B-9484-72F2FD1FF3A0}" name="All =SUM(E3:E6)" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="9">
       <calculatedColumnFormula>SUM(Table3[[#All],[Rank]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{3C532A69-E4BC-4A20-A922-4BCAA0D3FEC9}" name="Totals =E6" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="28">
+    <tableColumn id="9" xr3:uid="{3C532A69-E4BC-4A20-A922-4BCAA0D3FEC9}" name="Totals =E6" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="7">
       <calculatedColumnFormula>Table3[[#Totals],[Rank]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{35E9E9C3-9148-468A-85B6-19290CEB6F00}" name="Headers =E3" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="26">
+    <tableColumn id="10" xr3:uid="{35E9E9C3-9148-468A-85B6-19290CEB6F00}" name="Headers =E3" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="5">
       <calculatedColumnFormula>Table3[[#Headers],[Rank]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7137,6 +7231,17 @@
     <tableColumn id="2" xr3:uid="{2050F373-1538-4D53-8D8B-FBE687F1DDF5}" name="Column2"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{C86BE001-1566-49B5-98DB-0DEBDC9E0D8D}" name="Table10" displayName="Table10" ref="A7:B12" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <autoFilter ref="A7:B12" xr:uid="{C86BE001-1566-49B5-98DB-0DEBDC9E0D8D}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{C4D15F5D-ABE4-48FC-A099-795341958524}" name="Col1" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{51559469-EFF4-4F4F-91AC-5E8CB6A03BDF}" name="Col2" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -7232,9 +7337,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7272,7 +7377,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -7378,7 +7483,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7520,7 +7625,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7534,7 +7639,7 @@
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="22.28515625" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
@@ -7543,7 +7648,7 @@
     <col min="6" max="26" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="38.25" customHeight="1">
       <c r="A1" s="22"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -7552,7 +7657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="27.75">
       <c r="B2" s="23" t="s">
         <v>2</v>
       </c>
@@ -7565,25 +7670,25 @@
       <c r="H2" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="106"/>
+      <c r="I2" s="111"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="17.25" customHeight="1">
       <c r="F3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="2">
         <v>8</v>
       </c>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
       <c r="J3" s="6"/>
-      <c r="K3" s="107">
+      <c r="K3" s="106">
         <v>5</v>
       </c>
       <c r="L3" s="7"/>
     </row>
-    <row r="4" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="17.25" customHeight="1">
       <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
@@ -7596,50 +7701,50 @@
       <c r="G4" s="2">
         <v>9</v>
       </c>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="108"/>
+      <c r="K4" s="107"/>
       <c r="L4" s="7"/>
     </row>
-    <row r="5" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="17.25" customHeight="1">
       <c r="C5" s="2">
         <v>42</v>
       </c>
       <c r="G5" s="2">
         <v>15</v>
       </c>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
       <c r="J5" s="6"/>
-      <c r="K5" s="108"/>
+      <c r="K5" s="107"/>
       <c r="L5" s="7"/>
     </row>
-    <row r="6" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="17.25" customHeight="1">
       <c r="G6" s="2">
         <v>22</v>
       </c>
       <c r="J6" s="6"/>
-      <c r="K6" s="108"/>
+      <c r="K6" s="107"/>
       <c r="L6" s="7"/>
     </row>
-    <row r="7" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="17.25" customHeight="1">
       <c r="C7" s="2">
         <v>3</v>
       </c>
       <c r="J7" s="6"/>
-      <c r="K7" s="108"/>
+      <c r="K7" s="107"/>
       <c r="L7" s="7"/>
     </row>
-    <row r="8" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="17.25" customHeight="1">
       <c r="G8" s="2">
         <v>30</v>
       </c>
       <c r="J8" s="6"/>
-      <c r="K8" s="109"/>
+      <c r="K8" s="108"/>
       <c r="L8" s="7"/>
     </row>
-    <row r="9" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="17.25" customHeight="1">
       <c r="B9" s="10" t="s">
         <v>8</v>
       </c>
@@ -7649,7 +7754,7 @@
       </c>
       <c r="K9" s="11"/>
     </row>
-    <row r="10" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="17.25" customHeight="1">
       <c r="C10" s="2">
         <f>SUM(C4:C7)</f>
         <v>57.4</v>
@@ -7658,13 +7763,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="17.25" customHeight="1">
       <c r="C11" s="2">
         <f>-(3+C7*SUM(C4:C7))</f>
         <v>-175.2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="17.25" customHeight="1">
       <c r="C12" s="2">
         <f>SUM(C9:C11)</f>
         <v>-63.399999999999991</v>
@@ -7673,13 +7778,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="17.25" customHeight="1">
       <c r="G13" s="2">
         <f>A1+A2+A3+A4+A5+A6+A7+A8+A9+A10+A11+A12+A13+A14+A15+A16+A17+A18</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="17.25" customHeight="1">
       <c r="B14" s="12" t="s">
         <v>11</v>
       </c>
@@ -7688,32 +7793,32 @@
         <v>#CYCLE</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="17.25" customHeight="1">
       <c r="C15" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="17.25" customHeight="1">
       <c r="C16" s="2" t="str">
         <f>C15</f>
         <v>=(+</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="17.25" customHeight="1">
       <c r="C17" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="17.25" customHeight="1">
       <c r="C18" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="17.25" customHeight="1">
       <c r="E19" s="4"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="17.25" customHeight="1">
       <c r="B20" s="6"/>
       <c r="C20" s="7" t="s">
         <v>15</v>
@@ -7727,7 +7832,7 @@
       </c>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="17.25" customHeight="1">
       <c r="A21" s="14" t="s">
         <v>18</v>
       </c>
@@ -7737,7 +7842,7 @@
       </c>
       <c r="G21" s="11"/>
     </row>
-    <row r="23" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="17.25" customHeight="1">
       <c r="A23" s="14" t="s">
         <v>19</v>
       </c>
@@ -7751,7 +7856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="17.25" customHeight="1">
       <c r="C24" s="17">
         <v>10</v>
       </c>
@@ -7762,7 +7867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="17.25" customHeight="1">
       <c r="C25" s="17">
         <v>10.122999999999999</v>
       </c>
@@ -7773,7 +7878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="17.25" customHeight="1">
       <c r="B26" s="2" t="s">
         <v>20</v>
       </c>
@@ -7787,7 +7892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="17.25" customHeight="1">
       <c r="A27" s="2" t="s">
         <v>22</v>
       </c>
@@ -7804,7 +7909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="17.25" customHeight="1">
       <c r="A28" s="2" t="s">
         <v>23</v>
       </c>
@@ -7821,7 +7926,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="17.25" customHeight="1">
       <c r="A29" s="2" t="s">
         <v>24</v>
       </c>
@@ -7838,7 +7943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="17.25" customHeight="1">
       <c r="A30" s="2" t="s">
         <v>25</v>
       </c>
@@ -7855,7 +7960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="17.25" customHeight="1">
       <c r="A31" s="2" t="s">
         <v>26</v>
       </c>
@@ -7872,7 +7977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="17.25" customHeight="1">
       <c r="A32" s="2" t="s">
         <v>27</v>
       </c>
@@ -7889,7 +7994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="17.25" customHeight="1">
       <c r="A33" s="2" t="s">
         <v>28</v>
       </c>
@@ -7906,7 +8011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="17.25" customHeight="1">
       <c r="A34" s="2" t="s">
         <v>29</v>
       </c>
@@ -7917,7 +8022,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="17.25" customHeight="1">
       <c r="A35" s="2" t="s">
         <v>30</v>
       </c>
@@ -7934,7 +8039,7 @@
     <mergeCell ref="K3:K8"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:C100 B21">
-    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="1" operator="equal">
       <formula>42</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7984,7 +8089,7 @@
       <selection sqref="A1:N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7995,13 +8100,13 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
       <selection pane="topRight" activeCell="H9" sqref="H9"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8015,7 +8120,7 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="65.140625" customWidth="1"/>
     <col min="2" max="26" width="13.7109375" customWidth="1"/>
@@ -8035,7 +8140,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8050,12 +8155,12 @@
       <selection activeCell="G115" sqref="G115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="26" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="17.25" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
@@ -8090,7 +8195,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>41</v>
       </c>
@@ -8136,7 +8241,7 @@
         <v>1230.7</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>43</v>
       </c>
@@ -8182,7 +8287,7 @@
         <v>1217.7</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>45</v>
       </c>
@@ -8228,7 +8333,7 @@
         <v>1230.7</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="17.25" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>47</v>
       </c>
@@ -8274,7 +8379,7 @@
         <v>1246.7</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="17.25" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>49</v>
       </c>
@@ -8320,7 +8425,7 @@
         <v>1213.7</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="17.25" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>52</v>
       </c>
@@ -8354,7 +8459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="17.25" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>54</v>
       </c>
@@ -8388,7 +8493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" ht="17.25" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>56</v>
       </c>
@@ -8419,7 +8524,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="17.25" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>58</v>
       </c>
@@ -8435,7 +8540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" ht="17.25" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>59</v>
       </c>
@@ -8454,7 +8559,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" ht="17.25" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>61</v>
       </c>
@@ -8485,7 +8590,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" ht="17.25" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>62</v>
       </c>
@@ -8516,7 +8621,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" ht="17.25" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>67</v>
       </c>
@@ -8532,7 +8637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" ht="17.25" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>68</v>
       </c>
@@ -8548,7 +8653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" ht="17.25" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>69</v>
       </c>
@@ -8564,7 +8669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="17.25" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>70</v>
       </c>
@@ -8580,7 +8685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="17.25" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>71</v>
       </c>
@@ -8596,7 +8701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="17.25" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>72</v>
       </c>
@@ -8612,7 +8717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="17.25" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>73</v>
       </c>
@@ -8628,7 +8733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="17.25" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>74</v>
       </c>
@@ -8644,7 +8749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="17.25" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>76</v>
       </c>
@@ -8660,7 +8765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="17.25" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>77</v>
       </c>
@@ -8676,7 +8781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="17.25" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>78</v>
       </c>
@@ -8693,7 +8798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="17.25" customHeight="1">
       <c r="A25" s="2" t="s">
         <v>79</v>
       </c>
@@ -8709,7 +8814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="17.25" customHeight="1">
       <c r="A26" s="2" t="s">
         <v>81</v>
       </c>
@@ -8725,7 +8830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="17.25" customHeight="1">
       <c r="A27" s="2" t="s">
         <v>82</v>
       </c>
@@ -8741,7 +8846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="17.25" customHeight="1">
       <c r="A28" s="2" t="s">
         <v>83</v>
       </c>
@@ -8758,7 +8863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="17.25" customHeight="1">
       <c r="A29" s="2" t="s">
         <v>84</v>
       </c>
@@ -8774,7 +8879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="17.25" customHeight="1">
       <c r="A30" s="2" t="s">
         <v>85</v>
       </c>
@@ -8790,7 +8895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="17.25" customHeight="1">
       <c r="A31" s="2" t="s">
         <v>86</v>
       </c>
@@ -8806,7 +8911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="17.25" customHeight="1">
       <c r="A32" s="2" t="s">
         <v>87</v>
       </c>
@@ -8822,7 +8927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="17.25" customHeight="1">
       <c r="A33" s="2" t="s">
         <v>88</v>
       </c>
@@ -8838,7 +8943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="17.25" customHeight="1">
       <c r="A34" s="2" t="s">
         <v>89</v>
       </c>
@@ -8854,7 +8959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="17.25" customHeight="1">
       <c r="A35" s="2" t="s">
         <v>90</v>
       </c>
@@ -8870,7 +8975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="17.25" customHeight="1">
       <c r="A36" s="2" t="s">
         <v>91</v>
       </c>
@@ -8886,7 +8991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="17.25" customHeight="1">
       <c r="A37" s="2" t="s">
         <v>92</v>
       </c>
@@ -8902,7 +9007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="17.25" customHeight="1">
       <c r="A38" s="2" t="s">
         <v>93</v>
       </c>
@@ -8919,7 +9024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="17.25" customHeight="1">
       <c r="A39" s="2" t="s">
         <v>94</v>
       </c>
@@ -8935,7 +9040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="17.25" customHeight="1">
       <c r="A40" s="2" t="s">
         <v>95</v>
       </c>
@@ -8951,7 +9056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="17.25" customHeight="1">
       <c r="A41" s="2" t="s">
         <v>96</v>
       </c>
@@ -8967,7 +9072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="17.25" customHeight="1">
       <c r="A42" s="2" t="s">
         <v>97</v>
       </c>
@@ -8983,7 +9088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="17.25" customHeight="1">
       <c r="A43" s="2" t="s">
         <v>98</v>
       </c>
@@ -8999,7 +9104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="17.25" customHeight="1">
       <c r="A44" s="2" t="s">
         <v>99</v>
       </c>
@@ -9015,7 +9120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="17.25" customHeight="1">
       <c r="A45" s="2" t="s">
         <v>100</v>
       </c>
@@ -9031,7 +9136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="17.25" customHeight="1">
       <c r="A46" s="2" t="s">
         <v>101</v>
       </c>
@@ -9047,7 +9152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="17.25" customHeight="1">
       <c r="A47" s="2" t="s">
         <v>102</v>
       </c>
@@ -9063,7 +9168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="17.25" customHeight="1">
       <c r="A48" s="2" t="s">
         <v>103</v>
       </c>
@@ -9079,7 +9184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="17.25" customHeight="1">
       <c r="A49" s="2" t="s">
         <v>104</v>
       </c>
@@ -9095,7 +9200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="17.25" customHeight="1">
       <c r="A50" s="2" t="s">
         <v>105</v>
       </c>
@@ -9112,7 +9217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" ht="17.25" customHeight="1">
       <c r="A51" s="2" t="s">
         <v>106</v>
       </c>
@@ -9129,7 +9234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="17.25" customHeight="1">
       <c r="A52" s="2" t="s">
         <v>107</v>
       </c>
@@ -9145,7 +9250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" ht="17.25" customHeight="1">
       <c r="A53" s="2" t="s">
         <v>108</v>
       </c>
@@ -9161,7 +9266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" ht="17.25" customHeight="1">
       <c r="A54" s="2" t="s">
         <v>109</v>
       </c>
@@ -9177,7 +9282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" ht="17.25" customHeight="1">
       <c r="A55" s="2" t="s">
         <v>110</v>
       </c>
@@ -9193,7 +9298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" ht="17.25" customHeight="1">
       <c r="A56" s="2" t="s">
         <v>111</v>
       </c>
@@ -9209,7 +9314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" ht="17.25" customHeight="1">
       <c r="A57" s="2" t="s">
         <v>112</v>
       </c>
@@ -9225,7 +9330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" ht="17.25" customHeight="1">
       <c r="A58" s="2" t="s">
         <v>113</v>
       </c>
@@ -9241,7 +9346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" ht="17.25" customHeight="1">
       <c r="A59" s="2" t="s">
         <v>114</v>
       </c>
@@ -9257,7 +9362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" ht="17.25" customHeight="1">
       <c r="A60" s="2" t="s">
         <v>115</v>
       </c>
@@ -9273,7 +9378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" ht="17.25" customHeight="1">
       <c r="A61" s="2" t="s">
         <v>116</v>
       </c>
@@ -9289,7 +9394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" ht="17.25" customHeight="1">
       <c r="A62" s="2" t="s">
         <v>117</v>
       </c>
@@ -9305,7 +9410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" ht="17.25" customHeight="1">
       <c r="A63" s="2" t="s">
         <v>118</v>
       </c>
@@ -9321,7 +9426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" ht="17.25" customHeight="1">
       <c r="A64" s="2" t="s">
         <v>119</v>
       </c>
@@ -9337,7 +9442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" ht="17.25" customHeight="1">
       <c r="A65" s="2" t="s">
         <v>120</v>
       </c>
@@ -9353,7 +9458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" ht="17.25" customHeight="1">
       <c r="A66" s="2" t="s">
         <v>121</v>
       </c>
@@ -9369,7 +9474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" ht="17.25" customHeight="1">
       <c r="A67" s="2" t="s">
         <v>122</v>
       </c>
@@ -9385,7 +9490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" ht="17.25" customHeight="1">
       <c r="A68" s="2" t="s">
         <v>123</v>
       </c>
@@ -9401,7 +9506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" ht="17.25" customHeight="1">
       <c r="A69" s="2" t="s">
         <v>125</v>
       </c>
@@ -9417,7 +9522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" ht="17.25" customHeight="1">
       <c r="A70" s="2" t="s">
         <v>127</v>
       </c>
@@ -9433,7 +9538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" ht="17.25" customHeight="1">
       <c r="A71" s="2" t="s">
         <v>129</v>
       </c>
@@ -9449,7 +9554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" ht="17.25" customHeight="1">
       <c r="A72" s="2" t="s">
         <v>130</v>
       </c>
@@ -9465,7 +9570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" ht="17.25" customHeight="1">
       <c r="A73" s="2" t="s">
         <v>131</v>
       </c>
@@ -9481,7 +9586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" ht="17.25" customHeight="1">
       <c r="A74" s="2" t="s">
         <v>132</v>
       </c>
@@ -9497,7 +9602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" ht="17.25" customHeight="1">
       <c r="A75" s="2" t="s">
         <v>133</v>
       </c>
@@ -9513,7 +9618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" ht="17.25" customHeight="1">
       <c r="A76" s="2" t="s">
         <v>134</v>
       </c>
@@ -9529,7 +9634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" ht="17.25" customHeight="1">
       <c r="A77" s="2" t="s">
         <v>135</v>
       </c>
@@ -9545,7 +9650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" ht="17.25" customHeight="1">
       <c r="A78" s="2" t="s">
         <v>136</v>
       </c>
@@ -9561,7 +9666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" ht="17.25" customHeight="1">
       <c r="A79" s="2" t="s">
         <v>137</v>
       </c>
@@ -9577,7 +9682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" ht="17.25" customHeight="1">
       <c r="A80" s="2" t="s">
         <v>138</v>
       </c>
@@ -9593,7 +9698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" ht="17.25" customHeight="1">
       <c r="A81" s="2" t="s">
         <v>139</v>
       </c>
@@ -9609,7 +9714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" ht="17.25" customHeight="1">
       <c r="A82" s="2" t="s">
         <v>141</v>
       </c>
@@ -9625,7 +9730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" ht="17.25" customHeight="1">
       <c r="A83" s="2" t="s">
         <v>142</v>
       </c>
@@ -9641,7 +9746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" ht="17.25" customHeight="1">
       <c r="A84" s="2" t="s">
         <v>143</v>
       </c>
@@ -9657,7 +9762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" ht="17.25" customHeight="1">
       <c r="A85" s="2" t="s">
         <v>144</v>
       </c>
@@ -9673,7 +9778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" ht="17.25" customHeight="1">
       <c r="A86" s="2" t="s">
         <v>146</v>
       </c>
@@ -9689,7 +9794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" ht="17.25" customHeight="1">
       <c r="A87" s="2" t="s">
         <v>147</v>
       </c>
@@ -9705,7 +9810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" ht="17.25" customHeight="1">
       <c r="A88" s="2" t="s">
         <v>148</v>
       </c>
@@ -9721,7 +9826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" ht="17.25" customHeight="1">
       <c r="A89" s="2" t="s">
         <v>149</v>
       </c>
@@ -9737,7 +9842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" ht="17.25" customHeight="1">
       <c r="A90" s="2" t="s">
         <v>150</v>
       </c>
@@ -9753,7 +9858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" ht="17.25" customHeight="1">
       <c r="A91" s="2" t="s">
         <v>151</v>
       </c>
@@ -9769,7 +9874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" ht="17.25" customHeight="1">
       <c r="A92" s="2" t="s">
         <v>152</v>
       </c>
@@ -9785,7 +9890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" ht="17.25" customHeight="1">
       <c r="A93" s="2" t="s">
         <v>153</v>
       </c>
@@ -9801,7 +9906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" ht="17.25" customHeight="1">
       <c r="A94" s="2" t="s">
         <v>154</v>
       </c>
@@ -9817,7 +9922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" ht="17.25" customHeight="1">
       <c r="A95" s="2" t="s">
         <v>155</v>
       </c>
@@ -9833,7 +9938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" ht="17.25" customHeight="1">
       <c r="A96" s="2" t="s">
         <v>156</v>
       </c>
@@ -9849,7 +9954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" ht="17.25" customHeight="1">
       <c r="A97" s="2" t="s">
         <v>157</v>
       </c>
@@ -9865,7 +9970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" ht="17.25" customHeight="1">
       <c r="A98" s="2" t="s">
         <v>158</v>
       </c>
@@ -9881,7 +9986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" ht="17.25" customHeight="1">
       <c r="A99" s="2" t="s">
         <v>159</v>
       </c>
@@ -9897,20 +10002,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" ht="17.25" customHeight="1">
       <c r="A100" s="2" t="s">
         <v>160</v>
       </c>
       <c r="B100" s="20">
         <f ca="1">NOW()</f>
-        <v>45643.379599189815</v>
+        <v>45715.516800810183</v>
       </c>
       <c r="D100" s="2">
         <f ca="1">IF(ISNUMBER(B100),1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" ht="17.25" customHeight="1">
       <c r="A101" s="2" t="s">
         <v>161</v>
       </c>
@@ -9926,7 +10031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" ht="17.25" customHeight="1">
       <c r="A102" s="2" t="s">
         <v>162</v>
       </c>
@@ -9942,7 +10047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" ht="17.25" customHeight="1">
       <c r="A103" s="2" t="s">
         <v>163</v>
       </c>
@@ -9958,7 +10063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" ht="17.25" customHeight="1">
       <c r="A104" s="2" t="s">
         <v>164</v>
       </c>
@@ -9974,7 +10079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" ht="17.25" customHeight="1">
       <c r="A105" s="2" t="s">
         <v>165</v>
       </c>
@@ -9990,7 +10095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" ht="17.25" customHeight="1">
       <c r="A106" s="2" t="s">
         <v>166</v>
       </c>
@@ -10006,7 +10111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" ht="17.25" customHeight="1">
       <c r="A107" s="2" t="s">
         <v>167</v>
       </c>
@@ -10022,7 +10127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" ht="17.25" customHeight="1">
       <c r="A108" s="2" t="s">
         <v>168</v>
       </c>
@@ -10038,7 +10143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" ht="17.25" customHeight="1">
       <c r="A109" s="2" t="s">
         <v>169</v>
       </c>
@@ -10054,7 +10159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" ht="17.25" customHeight="1">
       <c r="A110" s="2" t="s">
         <v>170</v>
       </c>
@@ -10070,7 +10175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" ht="17.25" customHeight="1">
       <c r="A111" s="2" t="s">
         <v>171</v>
       </c>
@@ -10086,12 +10191,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" ht="17.25" customHeight="1">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="D112" s="2"/>
     </row>
-    <row r="113" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" ht="17.25" customHeight="1">
       <c r="A113" s="2" t="s">
         <v>172</v>
       </c>
@@ -10107,7 +10212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" ht="17.25" customHeight="1">
       <c r="A114" s="2" t="s">
         <v>173</v>
       </c>
@@ -10123,7 +10228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" ht="17.25" customHeight="1">
       <c r="A115" s="2" t="s">
         <v>175</v>
       </c>
@@ -10139,7 +10244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" ht="17.25" customHeight="1">
       <c r="A116" s="2" t="s">
         <v>177</v>
       </c>
@@ -10155,7 +10260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" ht="17.25" customHeight="1">
       <c r="A117" s="2" t="s">
         <v>178</v>
       </c>
@@ -10171,7 +10276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" ht="17.25" customHeight="1">
       <c r="A118" s="2" t="s">
         <v>179</v>
       </c>
@@ -10187,7 +10292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" ht="17.25" customHeight="1">
       <c r="A119" s="2" t="s">
         <v>180</v>
       </c>
@@ -10203,7 +10308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" ht="17.25" customHeight="1">
       <c r="A120" s="2" t="s">
         <v>181</v>
       </c>
@@ -10219,7 +10324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" ht="17.25" customHeight="1">
       <c r="A121" s="2" t="s">
         <v>182</v>
       </c>
@@ -10235,7 +10340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" ht="17.25" customHeight="1">
       <c r="A122" s="2" t="s">
         <v>183</v>
       </c>
@@ -10251,7 +10356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" ht="17.25" customHeight="1">
       <c r="A123" s="2" t="s">
         <v>184</v>
       </c>
@@ -10267,7 +10372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" ht="17.25" customHeight="1">
       <c r="A124" s="2" t="s">
         <v>185</v>
       </c>
@@ -10283,7 +10388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" ht="17.25" customHeight="1">
       <c r="A125" s="2" t="s">
         <v>186</v>
       </c>
@@ -10299,7 +10404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" ht="17.25" customHeight="1">
       <c r="A126" s="2" t="s">
         <v>187</v>
       </c>
@@ -10315,7 +10420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" ht="17.25" customHeight="1">
       <c r="A127" s="2" t="s">
         <v>188</v>
       </c>
@@ -10331,7 +10436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" ht="17.25" customHeight="1">
       <c r="A128" s="2" t="s">
         <v>189</v>
       </c>
@@ -10347,7 +10452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" ht="17.25" customHeight="1">
       <c r="A129" s="2" t="s">
         <v>190</v>
       </c>
@@ -10363,7 +10468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" ht="17.25" customHeight="1">
       <c r="A130" s="2" t="s">
         <v>191</v>
       </c>
@@ -10379,7 +10484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" ht="17.25" customHeight="1">
       <c r="A131" s="2" t="s">
         <v>192</v>
       </c>
@@ -10395,7 +10500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" ht="17.25" customHeight="1">
       <c r="A132" s="2" t="s">
         <v>193</v>
       </c>
@@ -10411,7 +10516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" ht="17.25" customHeight="1">
       <c r="A133" s="2" t="s">
         <v>194</v>
       </c>
@@ -10427,7 +10532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" ht="17.25" customHeight="1">
       <c r="A134" s="2" t="s">
         <v>195</v>
       </c>
@@ -10443,7 +10548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" ht="17.25" customHeight="1">
       <c r="A135" s="2" t="s">
         <v>196</v>
       </c>
@@ -10459,7 +10564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" ht="17.25" customHeight="1">
       <c r="A136" s="2" t="s">
         <v>198</v>
       </c>
@@ -10475,7 +10580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" ht="17.25" customHeight="1">
       <c r="A137" s="2" t="s">
         <v>199</v>
       </c>
@@ -10491,7 +10596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" ht="17.25" customHeight="1">
       <c r="A138" s="2" t="s">
         <v>200</v>
       </c>
@@ -10507,7 +10612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" ht="17.25" customHeight="1">
       <c r="A139" s="2" t="s">
         <v>201</v>
       </c>
@@ -10523,7 +10628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" ht="17.25" customHeight="1">
       <c r="A140" s="2" t="s">
         <v>202</v>
       </c>
@@ -10539,7 +10644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" ht="17.25" customHeight="1">
       <c r="A141" s="2" t="s">
         <v>203</v>
       </c>
@@ -10555,7 +10660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" ht="17.25" customHeight="1">
       <c r="A142" s="2" t="s">
         <v>205</v>
       </c>
@@ -10571,7 +10676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" ht="17.25" customHeight="1">
       <c r="A143" s="2" t="s">
         <v>206</v>
       </c>
@@ -10587,20 +10692,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" ht="17.25" customHeight="1">
       <c r="A144" s="2" t="s">
         <v>207</v>
       </c>
       <c r="B144" s="19">
         <f ca="1">TODAY()</f>
-        <v>45643</v>
+        <v>45715</v>
       </c>
       <c r="D144" s="2">
         <f ca="1">IF(ISNUMBER(B144),1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" ht="17.25" customHeight="1">
       <c r="A145" s="2" t="s">
         <v>208</v>
       </c>
@@ -10616,7 +10721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" ht="17.25" customHeight="1">
       <c r="A146" s="2" t="s">
         <v>210</v>
       </c>
@@ -10632,7 +10737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" ht="17.25" customHeight="1">
       <c r="A147" s="2" t="s">
         <v>211</v>
       </c>
@@ -10648,7 +10753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" ht="17.25" customHeight="1">
       <c r="A148" s="2" t="s">
         <v>213</v>
       </c>
@@ -10664,7 +10769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" ht="17.25" customHeight="1">
       <c r="A149" s="2" t="s">
         <v>214</v>
       </c>
@@ -10680,7 +10785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" ht="17.25" customHeight="1">
       <c r="A150" s="2" t="s">
         <v>215</v>
       </c>
@@ -10696,7 +10801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" ht="17.25" customHeight="1">
       <c r="A151" s="2" t="s">
         <v>216</v>
       </c>
@@ -10712,7 +10817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" ht="17.25" customHeight="1">
       <c r="A152" s="2" t="s">
         <v>217</v>
       </c>
@@ -10728,7 +10833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" ht="17.25" customHeight="1">
       <c r="A153" s="2" t="s">
         <v>218</v>
       </c>
@@ -10744,7 +10849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" ht="17.25" customHeight="1">
       <c r="A154" s="2" t="s">
         <v>219</v>
       </c>
@@ -10761,7 +10866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" ht="17.25" customHeight="1">
       <c r="A155" s="2" t="s">
         <v>220</v>
       </c>
@@ -10777,7 +10882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" ht="17.25" customHeight="1">
       <c r="A156" s="2" t="s">
         <v>221</v>
       </c>
@@ -10793,7 +10898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" ht="17.25" customHeight="1">
       <c r="A157" s="2" t="s">
         <v>222</v>
       </c>
@@ -10809,7 +10914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" ht="17.25" customHeight="1">
       <c r="A158" s="2" t="s">
         <v>223</v>
       </c>
@@ -10825,7 +10930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" ht="17.25" customHeight="1">
       <c r="A159" s="2" t="s">
         <v>224</v>
       </c>
@@ -10841,7 +10946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" ht="17.25" customHeight="1">
       <c r="A160" s="2" t="s">
         <v>225</v>
       </c>
@@ -10857,7 +10962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" ht="17.25" customHeight="1">
       <c r="A161" s="2" t="s">
         <v>226</v>
       </c>
@@ -10873,7 +10978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" ht="17.25" customHeight="1">
       <c r="A162" s="2" t="s">
         <v>227</v>
       </c>
@@ -10889,7 +10994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" ht="17.25" customHeight="1">
       <c r="A163" s="2" t="s">
         <v>229</v>
       </c>
@@ -10907,10 +11012,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D180">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10929,7 +11034,7 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelRow="2" outlineLevelCol="2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" customWidth="1"/>
@@ -10939,17 +11044,17 @@
     <col min="15" max="18" width="9.140625" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>230</v>
       </c>
       <c r="C1" t="s">
         <v>231</v>
       </c>
-      <c r="D1" s="110" t="s">
+      <c r="D1" s="109" t="s">
         <v>232</v>
       </c>
-      <c r="E1" s="110"/>
+      <c r="E1" s="109"/>
       <c r="F1" t="s">
         <v>233</v>
       </c>
@@ -10957,19 +11062,19 @@
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2">
         <f>SUM(A1)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
       <c r="H2" t="str">
         <f>[1]Feuil1!$A$1</f>
         <v>referenced string</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="D3" s="86" t="s">
         <v>235</v>
       </c>
@@ -10977,25 +11082,25 @@
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" hidden="1">
       <c r="A4" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="75" customHeight="1">
       <c r="A5" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="10" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:8" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="17" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="18" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:8" outlineLevel="1"/>
+    <row r="11" spans="1:8" outlineLevel="1"/>
+    <row r="12" spans="1:8" hidden="1" outlineLevel="2"/>
+    <row r="13" spans="1:8" hidden="1" outlineLevel="2"/>
+    <row r="14" spans="1:8" hidden="1" outlineLevel="2"/>
+    <row r="15" spans="1:8" outlineLevel="1" collapsed="1"/>
+    <row r="16" spans="1:8" outlineLevel="1"/>
+    <row r="17" outlineLevel="1"/>
+    <row r="18" outlineLevel="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D1:E2"/>
@@ -11017,14 +11122,14 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" customWidth="1"/>
     <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="13.5" thickBot="1">
       <c r="A1" s="69" t="s">
         <v>239</v>
       </c>
@@ -11046,7 +11151,7 @@
       </c>
       <c r="M1" s="37"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" s="41" t="s">
         <v>245</v>
       </c>
@@ -11072,7 +11177,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" s="42" t="s">
         <v>252</v>
       </c>
@@ -11095,7 +11200,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="15">
       <c r="A4" s="43" t="s">
         <v>256</v>
       </c>
@@ -11121,7 +11226,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" s="44" t="s">
         <v>262</v>
       </c>
@@ -11141,7 +11246,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" s="45" t="s">
         <v>266</v>
       </c>
@@ -11164,7 +11269,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="15.75">
       <c r="A7" s="46" t="s">
         <v>271</v>
       </c>
@@ -11184,7 +11289,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="21">
       <c r="A8" s="47" t="s">
         <v>275</v>
       </c>
@@ -11207,7 +11312,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" s="48" t="s">
         <v>280</v>
       </c>
@@ -11224,7 +11329,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" s="49" t="s">
         <v>283</v>
       </c>
@@ -11232,7 +11337,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="13.5" thickBot="1">
       <c r="A11" s="50" t="s">
         <v>285</v>
       </c>
@@ -11241,7 +11346,7 @@
       </c>
       <c r="F11" s="37"/>
     </row>
-    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="18.75" customHeight="1">
       <c r="A12" s="51" t="s">
         <v>287</v>
       </c>
@@ -11255,7 +11360,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="18.75" customHeight="1" thickBot="1">
       <c r="A13" s="52" t="s">
         <v>290</v>
       </c>
@@ -11266,7 +11371,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="18.75" customHeight="1" thickBot="1">
       <c r="A14" s="53" t="s">
         <v>291</v>
       </c>
@@ -11280,7 +11385,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="18.75" customHeight="1" thickBot="1">
       <c r="A15" s="54" t="s">
         <v>293</v>
       </c>
@@ -11291,7 +11396,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="19.5" customHeight="1" thickBot="1">
       <c r="A16" s="55" t="s">
         <v>294</v>
       </c>
@@ -11305,12 +11410,12 @@
         <v>248</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="13.5" thickBot="1">
       <c r="A17" s="56" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="13.5" thickBot="1">
       <c r="A18" s="75" t="s">
         <v>297</v>
       </c>
@@ -11322,7 +11427,7 @@
       </c>
       <c r="F18" s="37"/>
     </row>
-    <row r="19" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="13.5" thickBot="1">
       <c r="A19" s="76" t="s">
         <v>300</v>
       </c>
@@ -11333,7 +11438,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="51.75" thickBot="1">
       <c r="A20" s="77" t="s">
         <v>303</v>
       </c>
@@ -11347,12 +11452,12 @@
         <v>302</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="13.5" thickBot="1">
       <c r="A21" s="78" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="13.5" thickBot="1">
       <c r="A22" s="79" t="s">
         <v>307</v>
       </c>
@@ -11361,13 +11466,13 @@
       </c>
       <c r="E22" s="22"/>
     </row>
-    <row r="23" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="13.5" thickBot="1">
       <c r="A23" s="80" t="s">
         <v>309</v>
       </c>
       <c r="E23" s="22"/>
     </row>
-    <row r="24" spans="1:6" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="14.25" thickTop="1" thickBot="1">
       <c r="A24" s="81" t="s">
         <v>310</v>
       </c>
@@ -11376,20 +11481,20 @@
       </c>
       <c r="E24" s="22"/>
     </row>
-    <row r="25" spans="1:6" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:6" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="14.25" thickTop="1" thickBot="1"/>
+    <row r="26" spans="1:6" ht="14.25" thickTop="1" thickBot="1">
       <c r="C26" s="68" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:6" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="14.25" thickTop="1" thickBot="1"/>
+    <row r="28" spans="1:6" ht="14.25" thickTop="1" thickBot="1">
       <c r="C28" s="89" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="13.5" thickTop="1"/>
+    <row r="30" spans="1:6">
       <c r="C30" s="88" t="s">
         <v>314</v>
       </c>
@@ -11408,13 +11513,13 @@
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="19.140625" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="13.5" thickBot="1">
       <c r="A1" s="38" t="s">
         <v>315</v>
       </c>
@@ -11431,7 +11536,7 @@
       <c r="I1" s="37"/>
       <c r="J1" s="37"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="39" t="s">
         <v>319</v>
       </c>
@@ -11454,7 +11559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="39" t="s">
         <v>321</v>
       </c>
@@ -11477,7 +11582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="39" t="s">
         <v>325</v>
       </c>
@@ -11497,7 +11602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="39" t="s">
         <v>328</v>
       </c>
@@ -11521,7 +11626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="39" t="s">
         <v>330</v>
       </c>
@@ -11544,7 +11649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="39" t="s">
         <v>333</v>
       </c>
@@ -11570,7 +11675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="39" t="s">
         <v>337</v>
       </c>
@@ -11581,7 +11686,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="39" t="s">
         <v>339</v>
       </c>
@@ -11590,7 +11695,7 @@
       </c>
       <c r="C9" s="22"/>
     </row>
-    <row r="10" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="13.5" thickBot="1">
       <c r="A10" s="39" t="s">
         <v>340</v>
       </c>
@@ -11608,7 +11713,7 @@
       <c r="I10" s="37"/>
       <c r="J10" s="37"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" s="39" t="s">
         <v>342</v>
       </c>
@@ -11631,13 +11736,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" s="39" t="s">
         <v>344</v>
       </c>
       <c r="B12" s="40">
         <f ca="1">TODAY()</f>
-        <v>45643</v>
+        <v>45715</v>
       </c>
       <c r="C12" s="40">
         <f>DATE(2010,10,2)</f>
@@ -11656,7 +11761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" s="39" t="s">
         <v>346</v>
       </c>
@@ -11679,7 +11784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" s="39" t="s">
         <v>348</v>
       </c>
@@ -11705,7 +11810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" s="39" t="s">
         <v>350</v>
       </c>
@@ -11725,7 +11830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" s="39" t="s">
         <v>352</v>
       </c>
@@ -11748,7 +11853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12">
       <c r="A17" s="39" t="s">
         <v>354</v>
       </c>
@@ -11771,7 +11876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12">
       <c r="A18" s="39" t="s">
         <v>356</v>
       </c>
@@ -11794,7 +11899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12">
       <c r="A19" s="39" t="s">
         <v>358</v>
       </c>
@@ -11817,7 +11922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12">
       <c r="A20" s="39" t="s">
         <v>360</v>
       </c>
@@ -11840,7 +11945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12">
       <c r="A21" s="39" t="s">
         <v>362</v>
       </c>
@@ -11866,7 +11971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12">
       <c r="A22" s="39" t="s">
         <v>364</v>
       </c>
@@ -11892,7 +11997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12">
       <c r="A23" s="39" t="s">
         <v>366</v>
       </c>
@@ -11918,7 +12023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12">
       <c r="G24" s="35" t="s">
         <v>368</v>
       </c>
@@ -11935,7 +12040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12">
       <c r="A25" s="39" t="s">
         <v>369</v>
       </c>
@@ -11961,7 +12066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12">
       <c r="G26" s="35" t="s">
         <v>371</v>
       </c>
@@ -11981,7 +12086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12">
       <c r="A27" s="22" t="s">
         <v>372</v>
       </c>
@@ -12007,7 +12112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12">
       <c r="G28" s="35" t="s">
         <v>374</v>
       </c>
@@ -12027,7 +12132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12">
       <c r="G29" s="35" t="s">
         <v>375</v>
       </c>
@@ -12047,7 +12152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12">
       <c r="G30" s="35" t="s">
         <v>376</v>
       </c>
@@ -12067,7 +12172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="13.5" thickBot="1">
       <c r="G31" s="36" t="s">
         <v>377</v>
       </c>
@@ -12081,7 +12186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12">
       <c r="G32" s="35" t="s">
         <v>378</v>
       </c>
@@ -12095,7 +12200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="7:10">
       <c r="G33" s="35" t="s">
         <v>379</v>
       </c>
@@ -12109,7 +12214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="7:10">
       <c r="G34" s="35" t="s">
         <v>380</v>
       </c>
@@ -12123,7 +12228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="7:10">
       <c r="G35" s="35" t="s">
         <v>381</v>
       </c>
@@ -12137,7 +12242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="7:10">
       <c r="G36" s="35" t="s">
         <v>382</v>
       </c>
@@ -12151,7 +12256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="7:10">
       <c r="G37" s="35" t="s">
         <v>383</v>
       </c>
@@ -12165,110 +12270,110 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="7:10">
       <c r="G39" s="35"/>
     </row>
   </sheetData>
   <phoneticPr fontId="21" type="noConversion"/>
   <conditionalFormatting sqref="B15">
-    <cfRule type="expression" dxfId="22" priority="58">
+    <cfRule type="expression" dxfId="44" priority="58">
       <formula>ODD(B15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B27">
-    <cfRule type="cellIs" dxfId="21" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="46" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C2">
-    <cfRule type="aboveAverage" dxfId="20" priority="114"/>
+    <cfRule type="aboveAverage" dxfId="42" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3">
-    <cfRule type="beginsWith" dxfId="19" priority="73" operator="beginsWith" text="rule">
+    <cfRule type="beginsWith" dxfId="41" priority="73" operator="beginsWith" text="rule">
       <formula>LEFT(B3,LEN("rule"))="rule"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:C4">
-    <cfRule type="containsBlanks" dxfId="18" priority="71">
+    <cfRule type="containsBlanks" dxfId="40" priority="71">
       <formula>LEN(TRIM(B4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="containsErrors" dxfId="17" priority="70">
+    <cfRule type="containsErrors" dxfId="39" priority="70">
       <formula>ISERROR(B5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:C6">
-    <cfRule type="containsText" dxfId="16" priority="69" operator="containsText" text="rule">
+    <cfRule type="containsText" dxfId="38" priority="69" operator="containsText" text="rule">
       <formula>NOT(ISERROR(SEARCH("rule",B6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:C8">
-    <cfRule type="endsWith" dxfId="15" priority="67" operator="endsWith" text="rule">
+    <cfRule type="endsWith" dxfId="37" priority="67" operator="endsWith" text="rule">
       <formula>RIGHT(B8,LEN("rule"))="rule"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:C9">
-    <cfRule type="notContainsBlanks" dxfId="14" priority="66">
+    <cfRule type="notContainsBlanks" dxfId="36" priority="66">
       <formula>LEN(TRIM(B9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:C10">
-    <cfRule type="notContainsErrors" dxfId="13" priority="65">
+    <cfRule type="notContainsErrors" dxfId="35" priority="65">
       <formula>NOT(ISERROR(B10))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11">
-    <cfRule type="notContainsText" dxfId="12" priority="64" operator="notContains" text="rule">
+    <cfRule type="notContainsText" dxfId="34" priority="64" operator="notContains" text="rule">
       <formula>ISERROR(SEARCH("rule",B11))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:C12">
-    <cfRule type="timePeriod" dxfId="11" priority="63" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="33" priority="63" timePeriod="today">
       <formula>FLOOR(B12,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:C13">
-    <cfRule type="top10" dxfId="10" priority="115" rank="1"/>
+    <cfRule type="top10" dxfId="32" priority="115" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:C16">
-    <cfRule type="cellIs" dxfId="9" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="45" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:C17">
-    <cfRule type="cellIs" dxfId="8" priority="56" operator="notEqual">
+    <cfRule type="cellIs" dxfId="30" priority="56" operator="notEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:C18">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="6" operator="greaterThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:C19">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="28" priority="5" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:C20">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="4" operator="lessThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:C21">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="26" priority="3" operator="lessThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:C22">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="between">
       <formula>2</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:C23">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="notBetween">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="notBetween">
       <formula>2</formula>
       <formula>4</formula>
     </cfRule>
@@ -12302,10 +12407,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:D7">
-    <cfRule type="duplicateValues" dxfId="1" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:D14">
-    <cfRule type="uniqueValues" dxfId="0" priority="96"/>
+    <cfRule type="uniqueValues" dxfId="22" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:J2">
     <cfRule type="colorScale" priority="44">
@@ -12729,11 +12834,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5CCC4B1-5C65-4837-AA26-56CCF06B63BB}">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="3" max="3" width="17.28515625" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" customWidth="1"/>
@@ -12745,12 +12850,12 @@
     <col min="10" max="10" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="15">
       <c r="C3" s="18" t="s">
         <v>35</v>
       </c>
@@ -12776,7 +12881,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="C4" s="2" t="s">
         <v>42</v>
       </c>
@@ -12807,7 +12912,7 @@
         <v>Rank</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="C5" s="2" t="s">
         <v>44</v>
       </c>
@@ -12838,7 +12943,7 @@
         <v>Rank</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="C6" s="2" t="s">
         <v>391</v>
       </c>
@@ -12871,7 +12976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="B8" t="s">
         <v>392</v>
       </c>
@@ -12881,27 +12986,62 @@
       <c r="D8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>393</v>
+      </c>
+      <c r="G8" t="s">
+        <v>394</v>
+      </c>
+      <c r="H8" t="s">
+        <v>395</v>
+      </c>
+      <c r="I8" t="s">
+        <v>396</v>
+      </c>
+      <c r="J8" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <f>SUM(Table3[#All])</f>
+        <v>396</v>
+      </c>
+      <c r="G9">
+        <f>SUM(Table10[Col2])</f>
+        <v>15</v>
+      </c>
+      <c r="H9">
+        <f>SUM(Table3[[#Totals],[Age]:[Rank]])</f>
+        <v>51</v>
+      </c>
+      <c r="I9">
+        <f>SUM(Table3[[Age]:[Rank]])</f>
+        <v>51</v>
+      </c>
+      <c r="J9">
+        <f>SUM(Table3[[#Data],[#Totals],[Rank]])</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="B11" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="C11" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="D11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="C12">
         <v>3</v>
       </c>
@@ -12909,9 +13049,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="B14" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -12920,7 +13060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="C15">
         <v>3</v>
       </c>
@@ -12928,9 +13068,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4">
       <c r="B17" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -12939,7 +13079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4">
       <c r="C18">
         <v>3</v>
       </c>
@@ -12947,9 +13087,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:4">
       <c r="B20" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -12958,7 +13098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:4">
       <c r="C21">
         <v>3</v>
       </c>
@@ -12966,9 +13106,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:4">
       <c r="B23" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -12977,7 +13117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:4">
       <c r="C24">
         <v>3</v>
       </c>
@@ -12985,9 +13125,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:4">
       <c r="B26" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -12996,7 +13136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:4">
       <c r="C27">
         <v>3</v>
       </c>
@@ -13004,7 +13144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:4">
       <c r="C28" t="s">
         <v>391</v>
       </c>
@@ -13013,36 +13153,36 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:4">
       <c r="B30" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="C30" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="D30" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" hidden="1" x14ac:dyDescent="0.2">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" hidden="1">
       <c r="C31" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="D31" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
       <c r="C32" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="D32" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -13070,7 +13210,7 @@
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
@@ -13091,9 +13231,9 @@
     <col min="21" max="21" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="15">
       <c r="A1" s="93" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -13101,7 +13241,7 @@
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -13109,21 +13249,21 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="90" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="D3" s="90" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="90" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="D4">
         <v>12.1</v>
@@ -13150,10 +13290,10 @@
         <v>12052</v>
       </c>
       <c r="L4" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="91" t="s">
@@ -13166,7 +13306,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="92">
@@ -13179,7 +13319,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="91" t="s">
@@ -13192,7 +13332,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="92">
@@ -13205,7 +13345,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="91" t="s">
@@ -13218,7 +13358,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="92">
@@ -13231,7 +13371,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="C11" s="91" t="s">
         <v>44</v>
       </c>
@@ -13242,7 +13382,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="C12" s="92">
         <v>23000</v>
       </c>
@@ -13253,7 +13393,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="C13" s="91" t="s">
         <v>50</v>
       </c>
@@ -13264,7 +13404,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="C14" s="92">
         <v>2</v>
       </c>
@@ -13275,7 +13415,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="C15" s="91" t="s">
         <v>48</v>
       </c>
@@ -13286,7 +13426,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="C16" s="92">
         <v>50024</v>
       </c>
@@ -13297,7 +13437,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:12">
       <c r="C17" s="91" t="s">
         <v>53</v>
       </c>
@@ -13308,7 +13448,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12">
       <c r="C18" s="92">
         <v>189576</v>
       </c>
@@ -13319,7 +13459,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12">
       <c r="C19" s="91" t="s">
         <v>57</v>
       </c>
@@ -13330,7 +13470,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:12">
       <c r="C20" s="92">
         <v>5000</v>
       </c>
@@ -13341,9 +13481,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12">
       <c r="C21" s="91" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="D21">
         <v>9</v>
@@ -13387,31 +13527,31 @@
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="65.140625" customWidth="1"/>
     <col min="2" max="26" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -13422,23 +13562,74 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE31E21-0350-44E7-AF13-4CA140505B30}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="38.25">
       <c r="A1" s="100" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="B1" t="s">
-        <v>417</v>
+        <v>422</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="110" t="s">
+        <v>407</v>
+      </c>
+      <c r="B7" s="110" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="110">
+        <v>1</v>
+      </c>
+      <c r="B8" s="110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="110">
+        <v>2</v>
+      </c>
+      <c r="B9" s="110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="110">
+        <v>3</v>
+      </c>
+      <c r="B10" s="110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="110">
+        <v>4</v>
+      </c>
+      <c r="B11" s="110">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="110">
+        <v>5</v>
+      </c>
+      <c r="B12" s="110">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/tests/__xlsx__/xlsx_demo_data.xlsx
+++ b/tests/__xlsx__/xlsx_demo_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrien\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{157AC437-DB84-431C-BDD0-6A0421B0B149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A172513-7452-45A7-99A7-2C64F618926D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23295" yWindow="195" windowWidth="21600" windowHeight="11385" firstSheet="13" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23295" yWindow="195" windowWidth="21600" windowHeight="11385" firstSheet="8" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
   </externalReferences>
   <calcPr calcId="191028" calcCompleted="0"/>
   <pivotCaches>
-    <pivotCache cacheId="3563" r:id="rId16"/>
+    <pivotCache cacheId="2082" r:id="rId16"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2375,6 +2375,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2387,10 +2388,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{1493241F-B85D-4F84-BBA0-86191B8FD032}"/>
   </cellStyles>
@@ -2417,7 +2417,7 @@
         <u/>
         <color theme="7"/>
       </font>
-      <numFmt numFmtId="170" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="lightTrellis">
           <fgColor theme="4"/>
@@ -2995,7 +2995,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3103,39 +3103,61 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$27:$A$35</c:f>
-              <c:strCache>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$G$2:$G$10,Sheet1!$A$27:$A$35</c:f>
+              <c:multiLvlStrCache>
                 <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>Emily Anderson (Emmy)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sophie Allen (Saffi)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Chloe Adams</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Megan Alexander (Meg)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Lucy Arnold (Lulu)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Hannah Alvarez</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Jessica Alcock (Jess)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Charlotte Anaya</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Lauren Anthony</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Emily Anderson (Emmy)</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Sophie Allen (Saffi)</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Chloe Adams</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Megan Alexander (Meg)</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Lucy Arnold (Lulu)</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Hannah Alvarez</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Jessica Alcock (Jess)</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Charlotte Anaya</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Lauren Anthony</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>22</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>30</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3222,39 +3244,61 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$27:$A$35</c:f>
-              <c:strCache>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$G$2:$G$10,Sheet1!$A$27:$A$35</c:f>
+              <c:multiLvlStrCache>
                 <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>Emily Anderson (Emmy)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sophie Allen (Saffi)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Chloe Adams</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Megan Alexander (Meg)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Lucy Arnold (Lulu)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Hannah Alvarez</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Jessica Alcock (Jess)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Charlotte Anaya</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Lauren Anthony</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Emily Anderson (Emmy)</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Sophie Allen (Saffi)</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Chloe Adams</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Megan Alexander (Meg)</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Lucy Arnold (Lulu)</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Hannah Alvarez</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Jessica Alcock (Jess)</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Charlotte Anaya</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Lauren Anthony</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>22</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>30</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3596,7 +3640,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
@@ -4028,7 +4072,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
@@ -4646,7 +4690,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5012,7 +5056,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="1"/>
   <c:style val="2"/>
   <c:chart>
@@ -5311,7 +5355,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5747,7 +5791,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6149,7 +6193,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="1"/>
   <c:style val="2"/>
   <c:chart>
@@ -7575,7 +7619,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9B3CE3F5-58D8-48A3-B9C6-24D1506C9F5C}" name="PivotTable1" cacheId="3563" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9B3CE3F5-58D8-48A3-B9C6-24D1506C9F5C}" name="PivotTable1" cacheId="2082" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C3:L21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -8164,7 +8208,7 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75"/>
@@ -8198,7 +8242,7 @@
       <c r="H2" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="123"/>
+      <c r="I2" s="119"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:12" ht="17.25" customHeight="1">
@@ -8208,10 +8252,10 @@
       <c r="G3" s="117">
         <v>8</v>
       </c>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="119">
+      <c r="K3" s="120">
         <v>5</v>
       </c>
       <c r="L3" s="6"/>
@@ -8229,10 +8273,10 @@
       <c r="G4" s="117">
         <v>9</v>
       </c>
-      <c r="H4" s="123"/>
-      <c r="I4" s="123"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="120"/>
+      <c r="K4" s="121"/>
       <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:12" ht="17.25" customHeight="1">
@@ -8242,10 +8286,10 @@
       <c r="G5" s="117">
         <v>15</v>
       </c>
-      <c r="H5" s="123"/>
-      <c r="I5" s="123"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="120"/>
+      <c r="K5" s="121"/>
       <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:12" ht="17.25" customHeight="1">
@@ -8253,7 +8297,7 @@
         <v>22</v>
       </c>
       <c r="J6" s="5"/>
-      <c r="K6" s="120"/>
+      <c r="K6" s="121"/>
       <c r="L6" s="6"/>
     </row>
     <row r="7" spans="1:12" ht="17.25" customHeight="1">
@@ -8261,7 +8305,7 @@
         <v>3</v>
       </c>
       <c r="J7" s="5"/>
-      <c r="K7" s="120"/>
+      <c r="K7" s="121"/>
       <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:12" ht="17.25" customHeight="1">
@@ -8269,7 +8313,7 @@
         <v>30</v>
       </c>
       <c r="J8" s="5"/>
-      <c r="K8" s="121"/>
+      <c r="K8" s="122"/>
       <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:12" ht="17.25" customHeight="1">
@@ -8911,7 +8955,7 @@
   </sheetPr>
   <dimension ref="A1:R163"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G115" sqref="G115"/>
     </sheetView>
   </sheetViews>
@@ -10768,7 +10812,7 @@
       </c>
       <c r="B100" s="19">
         <f ca="1">NOW()</f>
-        <v>45663.51402037037</v>
+        <v>45691.340992476849</v>
       </c>
       <c r="D100" s="117">
         <f ca="1">IF(ISNUMBER(B100),1,0)</f>
@@ -11458,7 +11502,7 @@
       </c>
       <c r="B144" s="18">
         <f ca="1">TODAY()</f>
-        <v>45663</v>
+        <v>45691</v>
       </c>
       <c r="D144" s="117">
         <f ca="1">IF(ISNUMBER(B144),1,0)</f>
@@ -11812,10 +11856,10 @@
       <c r="C1" t="s">
         <v>231</v>
       </c>
-      <c r="D1" s="122" t="s">
+      <c r="D1" s="123" t="s">
         <v>232</v>
       </c>
-      <c r="E1" s="122"/>
+      <c r="E1" s="123"/>
       <c r="F1" t="s">
         <v>233</v>
       </c>
@@ -11828,8 +11872,8 @@
         <f>SUM(A1)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
       <c r="H2" t="str">
         <f>[1]Feuil1!$A$1</f>
         <v>referenced string</v>
@@ -12503,7 +12547,7 @@
       </c>
       <c r="B12" s="39">
         <f ca="1">TODAY()</f>
-        <v>45663</v>
+        <v>45691</v>
       </c>
       <c r="C12" s="39">
         <f>DATE(2010,10,2)</f>
@@ -14249,7 +14293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C47BF70-BA80-4124-B359-67CBCB635390}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
@@ -14290,7 +14334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE31E21-0350-44E7-AF13-4CA140505B30}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/tests/__xlsx__/xlsx_demo_data.xlsx
+++ b/tests/__xlsx__/xlsx_demo_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28706"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Odoo\spreadsheet\tests\__xlsx__\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F15F33D-0A5F-4E8A-8973-B5E6D3A30B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C3FAEF4-9495-4537-B722-A5A16F9D6A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,9 @@
   <externalReferences>
     <externalReference r:id="rId15"/>
   </externalReferences>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId16"/>
+    <pivotCache cacheId="5972" r:id="rId16"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1236,6 +1236,21 @@
     <t>BasicTable</t>
   </si>
   <si>
+    <t>Total table</t>
+  </si>
+  <si>
+    <t>Column of table of other sheet</t>
+  </si>
+  <si>
+    <t>Multiple columns total</t>
+  </si>
+  <si>
+    <t>Multiple Columns</t>
+  </si>
+  <si>
+    <t>Multiple keywords</t>
+  </si>
+  <si>
     <t>Header</t>
   </si>
   <si>
@@ -1361,21 +1376,6 @@
   </si>
   <si>
     <t>A1234556</t>
-  </si>
-  <si>
-    <t>Total table</t>
-  </si>
-  <si>
-    <t>Column of table of other sheet</t>
-  </si>
-  <si>
-    <t>Multiple columns total</t>
-  </si>
-  <si>
-    <t>Multiple Columns</t>
-  </si>
-  <si>
-    <t>Multiple keywords</t>
   </si>
 </sst>
 </file>
@@ -1390,7 +1390,7 @@
     <numFmt numFmtId="168" formatCode="#,##0&quot; EUR €&quot;"/>
     <numFmt numFmtId="169" formatCode="&quot;€&quot;#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2390,7 +2390,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2403,6 +2402,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2410,6 +2410,157 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{1493241F-B85D-4F84-BBA0-86191B8FD032}"/>
   </cellStyles>
   <dxfs count="46">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike/>
+        <u/>
+        <color theme="7"/>
+      </font>
+      <numFmt numFmtId="170" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="lightTrellis">
+          <fgColor theme="4"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE06666"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB6D7A8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2816,157 +2967,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike/>
-        <u/>
-        <color theme="7"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <fill>
-        <patternFill patternType="lightTrellis">
-          <fgColor theme="4"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE06666"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB6D7A8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="4"/>
         </patternFill>
       </fill>
@@ -6162,6 +6162,311 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2200"/>
+              <a:t>scatter chart with textual labels</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!A27:A35</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Emily Anderson (Emmy)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sophie Allen (Saffi)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Chloe Adams</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Megan Alexander (Meg)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Lucy Arnold (Lulu)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Hannah Alvarez</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jessica Alcock (Jess)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Charlotte Anaya</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Lauren Anthony</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$27:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D820-45B8-B7E8-F475A1A65785}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="17781237"/>
+        <c:axId val="88853993"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="17781237"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="1"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr sz="1000" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="88853993"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="88853993"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="1"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr sz="1000" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="17781237"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr sz="1000" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln cmpd="sng">
+      <a:solidFill>
+        <a:srgbClr val="000000"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7331,6 +7636,47 @@
     </xdr:graphicFrame>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8" title="Chart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D2716A1-A175-44F9-BBD0-26D27F88F15C}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E2B20B98-FA84-44C9-8DBB-5852658E9967}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7590,7 +7936,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9B3CE3F5-58D8-48A3-B9C6-24D1506C9F5C}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9B3CE3F5-58D8-48A3-B9C6-24D1506C9F5C}" name="PivotTable1" cacheId="5972" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C3:L21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -7740,7 +8086,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{09C35CC7-7259-4A97-8FEA-EDB47375DF08}" name="Table3" displayName="Table3" ref="C3:J6" totalsRowCount="1" headerRowDxfId="43" dataDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{09C35CC7-7259-4A97-8FEA-EDB47375DF08}" name="Table3" displayName="Table3" ref="C3:J6" totalsRowCount="1" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="C3:J5" xr:uid="{09C35CC7-7259-4A97-8FEA-EDB47375DF08}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -7752,22 +8098,22 @@
     <filterColumn colId="7" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{C4EE018E-238B-42BA-9035-DB01FA5420D3}" name="Name" totalsRowLabel="Total" dataDxfId="41" totalsRowDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{C1F6911F-9482-4C98-BBFB-21D9CAA66DA4}" name="Age" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="38"/>
-    <tableColumn id="5" xr3:uid="{3CE9F5DA-0A57-4696-B4E0-53601C3B7798}" name="Rank" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="36"/>
-    <tableColumn id="6" xr3:uid="{34912838-665C-4472-B558-25990E5B148D}" name="Rank+Age =E4+D4" totalsRowFunction="sum" dataDxfId="35" totalsRowDxfId="34">
+    <tableColumn id="1" xr3:uid="{C4EE018E-238B-42BA-9035-DB01FA5420D3}" name="Name" totalsRowLabel="Total" dataDxfId="14" totalsRowDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{C1F6911F-9482-4C98-BBFB-21D9CAA66DA4}" name="Age" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{3CE9F5DA-0A57-4696-B4E0-53601C3B7798}" name="Rank" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{34912838-665C-4472-B558-25990E5B148D}" name="Rank+Age =E4+D4" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="9">
       <calculatedColumnFormula>Table3[[#This Row],[Rank]]+Table3[[#This Row],[Age]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{89D90022-7073-4067-BAF8-1587D27C4AFB}" name="Data =SUM(E4:E5)" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="32">
+    <tableColumn id="7" xr3:uid="{89D90022-7073-4067-BAF8-1587D27C4AFB}" name="Data =SUM(E4:E5)" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="7">
       <calculatedColumnFormula>SUM(Table3[Rank])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{B2A7E5BB-A379-492B-9484-72F2FD1FF3A0}" name="All =SUM(E3:E6)" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="30">
+    <tableColumn id="8" xr3:uid="{B2A7E5BB-A379-492B-9484-72F2FD1FF3A0}" name="All =SUM(E3:E6)" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="5">
       <calculatedColumnFormula>SUM(Table3[[#All],[Rank]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{3C532A69-E4BC-4A20-A922-4BCAA0D3FEC9}" name="Totals =E6" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="28">
+    <tableColumn id="9" xr3:uid="{3C532A69-E4BC-4A20-A922-4BCAA0D3FEC9}" name="Totals =E6" totalsRowFunction="sum" dataDxfId="2" totalsRowDxfId="3">
       <calculatedColumnFormula>Table3[[#Totals],[Rank]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{35E9E9C3-9148-468A-85B6-19290CEB6F00}" name="Headers =E3" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="26">
+    <tableColumn id="10" xr3:uid="{35E9E9C3-9148-468A-85B6-19290CEB6F00}" name="Headers =E3" totalsRowFunction="sum" dataDxfId="0" totalsRowDxfId="1">
       <calculatedColumnFormula>Table3[[#Headers],[Rank]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7888,9 +8234,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7928,7 +8274,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -8034,7 +8380,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8176,7 +8522,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8193,7 +8539,7 @@
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="22.28515625" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
@@ -8202,7 +8548,7 @@
     <col min="6" max="26" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="38.25" customHeight="1">
       <c r="A1" s="21"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -8211,7 +8557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="27.75">
       <c r="B2" s="22" t="s">
         <v>2</v>
       </c>
@@ -8224,25 +8570,25 @@
       <c r="H2" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="119"/>
+      <c r="I2" s="123"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="17.25" customHeight="1">
       <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="117">
         <v>8</v>
       </c>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="120">
+      <c r="K3" s="119">
         <v>5</v>
       </c>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="17.25" customHeight="1">
       <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
@@ -8255,50 +8601,50 @@
       <c r="G4" s="117">
         <v>9</v>
       </c>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="121"/>
+      <c r="K4" s="120"/>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="17.25" customHeight="1">
       <c r="C5" s="117">
         <v>42</v>
       </c>
       <c r="G5" s="117">
         <v>15</v>
       </c>
-      <c r="H5" s="119"/>
-      <c r="I5" s="119"/>
+      <c r="H5" s="123"/>
+      <c r="I5" s="123"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="121"/>
+      <c r="K5" s="120"/>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="17.25" customHeight="1">
       <c r="G6" s="117">
         <v>22</v>
       </c>
       <c r="J6" s="5"/>
-      <c r="K6" s="121"/>
+      <c r="K6" s="120"/>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="17.25" customHeight="1">
       <c r="C7" s="117">
         <v>3</v>
       </c>
       <c r="J7" s="5"/>
-      <c r="K7" s="121"/>
+      <c r="K7" s="120"/>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="17.25" customHeight="1">
       <c r="G8" s="117">
         <v>30</v>
       </c>
       <c r="J8" s="5"/>
-      <c r="K8" s="122"/>
+      <c r="K8" s="121"/>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="17.25" customHeight="1">
       <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
@@ -8308,7 +8654,7 @@
       </c>
       <c r="K9" s="10"/>
     </row>
-    <row r="10" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="17.25" customHeight="1">
       <c r="C10" s="117">
         <f>SUM(C4:C7)</f>
         <v>57.4</v>
@@ -8317,13 +8663,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="17.25" customHeight="1">
       <c r="C11" s="117">
         <f>-(3+C7*SUM(C4:C7))</f>
         <v>-175.2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="17.25" customHeight="1">
       <c r="C12" s="117">
         <f>SUM(C9:C11)</f>
         <v>-63.399999999999991</v>
@@ -8332,13 +8678,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="17.25" customHeight="1">
       <c r="G13" s="117">
         <f>A1+A2+A3+A4+A5+A6+A7+A8+A9+A10+A11+A12+A13+A14+A15+A16+A17+A18</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="17.25" customHeight="1">
       <c r="B14" s="11" t="s">
         <v>11</v>
       </c>
@@ -8347,32 +8693,32 @@
         <v>#CYCLE</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="17.25" customHeight="1">
       <c r="C15" s="117" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="17.25" customHeight="1">
       <c r="C16" s="117" t="str">
         <f>C15</f>
         <v>=(+</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="17.25" customHeight="1">
       <c r="C17" s="117" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="17.25" customHeight="1">
       <c r="C18" s="117" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="17.25" customHeight="1">
       <c r="E19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="17.25" customHeight="1">
       <c r="B20" s="5"/>
       <c r="C20" s="6" t="s">
         <v>15</v>
@@ -8386,7 +8732,7 @@
       </c>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="17.25" customHeight="1">
       <c r="A21" s="13" t="s">
         <v>18</v>
       </c>
@@ -8396,7 +8742,7 @@
       </c>
       <c r="G21" s="10"/>
     </row>
-    <row r="23" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="17.25" customHeight="1">
       <c r="A23" s="13" t="s">
         <v>19</v>
       </c>
@@ -8410,7 +8756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="17.25" customHeight="1">
       <c r="C24" s="16">
         <v>10</v>
       </c>
@@ -8421,7 +8767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="17.25" customHeight="1">
       <c r="C25" s="16">
         <v>10.122999999999999</v>
       </c>
@@ -8432,7 +8778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="17.25" customHeight="1">
       <c r="B26" s="117" t="s">
         <v>20</v>
       </c>
@@ -8446,7 +8792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="17.25" customHeight="1">
       <c r="A27" s="117" t="s">
         <v>22</v>
       </c>
@@ -8463,7 +8809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="17.25" customHeight="1">
       <c r="A28" s="117" t="s">
         <v>23</v>
       </c>
@@ -8480,7 +8826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="17.25" customHeight="1">
       <c r="A29" s="117" t="s">
         <v>24</v>
       </c>
@@ -8497,7 +8843,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="17.25" customHeight="1">
       <c r="A30" s="117" t="s">
         <v>25</v>
       </c>
@@ -8514,7 +8860,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="17.25" customHeight="1">
       <c r="A31" s="117" t="s">
         <v>26</v>
       </c>
@@ -8531,7 +8877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="17.25" customHeight="1">
       <c r="A32" s="117" t="s">
         <v>27</v>
       </c>
@@ -8548,7 +8894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="17.25" customHeight="1">
       <c r="A33" s="117" t="s">
         <v>28</v>
       </c>
@@ -8565,7 +8911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="17.25" customHeight="1">
       <c r="A34" s="117" t="s">
         <v>29</v>
       </c>
@@ -8576,7 +8922,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="17.25" customHeight="1">
       <c r="A35" s="117" t="s">
         <v>30</v>
       </c>
@@ -8593,7 +8939,7 @@
     <mergeCell ref="K3:K8"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:C100 B21">
-    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="1" operator="equal">
       <formula>42</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8643,7 +8989,7 @@
       <selection sqref="A1:N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8655,12 +9001,12 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
       <selection pane="topRight" activeCell="H9" sqref="H9"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8674,7 +9020,7 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="65.140625" customWidth="1"/>
     <col min="2" max="26" width="13.7109375" customWidth="1"/>
@@ -8694,7 +9040,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8709,7 +9055,7 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="3" max="4" width="14.28515625" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" customWidth="1"/>
@@ -8718,36 +9064,36 @@
     <col min="9" max="9" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="114" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="B1" s="115" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="C1" s="115" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="D1" s="115" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="E1" s="115" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="F1" s="115" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="G1" s="115" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="H1" s="115" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="I1" s="116" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="104">
         <v>4</v>
       </c>
@@ -8758,7 +9104,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="105" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="E2" s="106">
         <v>45575</v>
@@ -8767,7 +9113,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="G2" s="107" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="H2" s="106">
         <v>45292</v>
@@ -8776,7 +9122,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="104">
         <v>3</v>
       </c>
@@ -8787,7 +9133,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="105" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="E3" s="106">
         <v>45576</v>
@@ -8796,16 +9142,16 @@
         <v>0.57638888888888884</v>
       </c>
       <c r="G3" s="107" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="H3" s="106">
         <v>45231</v>
       </c>
       <c r="I3" s="108" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="104">
         <v>9</v>
       </c>
@@ -8816,7 +9162,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="105" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="E4" s="106">
         <v>45574</v>
@@ -8825,7 +9171,7 @@
         <v>0.73958333333333337</v>
       </c>
       <c r="G4" s="107" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="H4" s="106">
         <v>45325</v>
@@ -8834,7 +9180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="104">
         <v>5</v>
       </c>
@@ -8845,7 +9191,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="105" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="E5" s="106">
         <v>45573</v>
@@ -8854,7 +9200,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="G5" s="105" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="H5" s="106">
         <v>45084</v>
@@ -8863,7 +9209,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="109">
         <v>7</v>
       </c>
@@ -8874,7 +9220,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="110" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="E6" s="111">
         <v>45566</v>
@@ -8883,13 +9229,13 @@
         <v>0.5229166666666667</v>
       </c>
       <c r="G6" s="110" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="H6" s="111">
         <v>45420</v>
       </c>
       <c r="I6" s="113" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>
@@ -8941,12 +9287,12 @@
       <selection activeCell="G115" sqref="G115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="26" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="17.25" customHeight="1">
       <c r="A1" s="117" t="s">
         <v>31</v>
       </c>
@@ -8981,7 +9327,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="17.25" customHeight="1">
       <c r="A2" s="117" t="s">
         <v>41</v>
       </c>
@@ -9027,7 +9373,7 @@
         <v>1230.7</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="17.25" customHeight="1">
       <c r="A3" s="117" t="s">
         <v>43</v>
       </c>
@@ -9073,7 +9419,7 @@
         <v>1217.7</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="17.25" customHeight="1">
       <c r="A4" s="117" t="s">
         <v>45</v>
       </c>
@@ -9119,7 +9465,7 @@
         <v>1230.7</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="17.25" customHeight="1">
       <c r="A5" s="117" t="s">
         <v>47</v>
       </c>
@@ -9165,7 +9511,7 @@
         <v>1246.7</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="17.25" customHeight="1">
       <c r="A6" s="117" t="s">
         <v>49</v>
       </c>
@@ -9211,7 +9557,7 @@
         <v>1213.7</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="17.25" customHeight="1">
       <c r="A7" s="117" t="s">
         <v>52</v>
       </c>
@@ -9245,7 +9591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="17.25" customHeight="1">
       <c r="A8" s="117" t="s">
         <v>54</v>
       </c>
@@ -9279,7 +9625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" ht="17.25" customHeight="1">
       <c r="A9" s="117" t="s">
         <v>56</v>
       </c>
@@ -9310,7 +9656,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="17.25" customHeight="1">
       <c r="A10" s="117" t="s">
         <v>58</v>
       </c>
@@ -9326,7 +9672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" ht="17.25" customHeight="1">
       <c r="A11" s="117" t="s">
         <v>59</v>
       </c>
@@ -9345,7 +9691,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" ht="17.25" customHeight="1">
       <c r="A12" s="117" t="s">
         <v>61</v>
       </c>
@@ -9376,7 +9722,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" ht="17.25" customHeight="1">
       <c r="A13" s="117" t="s">
         <v>62</v>
       </c>
@@ -9407,7 +9753,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" ht="17.25" customHeight="1">
       <c r="A14" s="117" t="s">
         <v>67</v>
       </c>
@@ -9423,7 +9769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" ht="17.25" customHeight="1">
       <c r="A15" s="117" t="s">
         <v>68</v>
       </c>
@@ -9439,7 +9785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" ht="17.25" customHeight="1">
       <c r="A16" s="117" t="s">
         <v>69</v>
       </c>
@@ -9455,7 +9801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="17.25" customHeight="1">
       <c r="A17" s="117" t="s">
         <v>70</v>
       </c>
@@ -9471,7 +9817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="17.25" customHeight="1">
       <c r="A18" s="117" t="s">
         <v>71</v>
       </c>
@@ -9487,7 +9833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="17.25" customHeight="1">
       <c r="A19" s="117" t="s">
         <v>72</v>
       </c>
@@ -9503,7 +9849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="17.25" customHeight="1">
       <c r="A20" s="117" t="s">
         <v>73</v>
       </c>
@@ -9519,7 +9865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="17.25" customHeight="1">
       <c r="A21" s="117" t="s">
         <v>74</v>
       </c>
@@ -9535,7 +9881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="17.25" customHeight="1">
       <c r="A22" s="117" t="s">
         <v>76</v>
       </c>
@@ -9551,7 +9897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="17.25" customHeight="1">
       <c r="A23" s="117" t="s">
         <v>77</v>
       </c>
@@ -9567,7 +9913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="17.25" customHeight="1">
       <c r="A24" s="117" t="s">
         <v>78</v>
       </c>
@@ -9584,7 +9930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="17.25" customHeight="1">
       <c r="A25" s="117" t="s">
         <v>79</v>
       </c>
@@ -9600,7 +9946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="17.25" customHeight="1">
       <c r="A26" s="117" t="s">
         <v>81</v>
       </c>
@@ -9616,7 +9962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="17.25" customHeight="1">
       <c r="A27" s="117" t="s">
         <v>82</v>
       </c>
@@ -9632,7 +9978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="17.25" customHeight="1">
       <c r="A28" s="117" t="s">
         <v>83</v>
       </c>
@@ -9649,7 +9995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="17.25" customHeight="1">
       <c r="A29" s="117" t="s">
         <v>84</v>
       </c>
@@ -9665,7 +10011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="17.25" customHeight="1">
       <c r="A30" s="117" t="s">
         <v>85</v>
       </c>
@@ -9681,7 +10027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="17.25" customHeight="1">
       <c r="A31" s="117" t="s">
         <v>86</v>
       </c>
@@ -9697,7 +10043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="17.25" customHeight="1">
       <c r="A32" s="117" t="s">
         <v>87</v>
       </c>
@@ -9713,7 +10059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="17.25" customHeight="1">
       <c r="A33" s="117" t="s">
         <v>88</v>
       </c>
@@ -9729,7 +10075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="17.25" customHeight="1">
       <c r="A34" s="117" t="s">
         <v>89</v>
       </c>
@@ -9745,7 +10091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="17.25" customHeight="1">
       <c r="A35" s="117" t="s">
         <v>90</v>
       </c>
@@ -9761,7 +10107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="17.25" customHeight="1">
       <c r="A36" s="117" t="s">
         <v>91</v>
       </c>
@@ -9777,7 +10123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="17.25" customHeight="1">
       <c r="A37" s="117" t="s">
         <v>92</v>
       </c>
@@ -9793,7 +10139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="17.25" customHeight="1">
       <c r="A38" s="117" t="s">
         <v>93</v>
       </c>
@@ -9810,7 +10156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="17.25" customHeight="1">
       <c r="A39" s="117" t="s">
         <v>94</v>
       </c>
@@ -9826,7 +10172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="17.25" customHeight="1">
       <c r="A40" s="117" t="s">
         <v>95</v>
       </c>
@@ -9842,7 +10188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="17.25" customHeight="1">
       <c r="A41" s="117" t="s">
         <v>96</v>
       </c>
@@ -9858,7 +10204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="17.25" customHeight="1">
       <c r="A42" s="117" t="s">
         <v>97</v>
       </c>
@@ -9874,7 +10220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="17.25" customHeight="1">
       <c r="A43" s="117" t="s">
         <v>98</v>
       </c>
@@ -9890,7 +10236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="17.25" customHeight="1">
       <c r="A44" s="117" t="s">
         <v>99</v>
       </c>
@@ -9906,7 +10252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="17.25" customHeight="1">
       <c r="A45" s="117" t="s">
         <v>100</v>
       </c>
@@ -9922,7 +10268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="17.25" customHeight="1">
       <c r="A46" s="117" t="s">
         <v>101</v>
       </c>
@@ -9938,7 +10284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="17.25" customHeight="1">
       <c r="A47" s="117" t="s">
         <v>102</v>
       </c>
@@ -9954,7 +10300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="17.25" customHeight="1">
       <c r="A48" s="117" t="s">
         <v>103</v>
       </c>
@@ -9970,7 +10316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="17.25" customHeight="1">
       <c r="A49" s="117" t="s">
         <v>104</v>
       </c>
@@ -9986,7 +10332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="17.25" customHeight="1">
       <c r="A50" s="117" t="s">
         <v>105</v>
       </c>
@@ -10003,7 +10349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" ht="17.25" customHeight="1">
       <c r="A51" s="117" t="s">
         <v>106</v>
       </c>
@@ -10020,7 +10366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="17.25" customHeight="1">
       <c r="A52" s="117" t="s">
         <v>107</v>
       </c>
@@ -10036,7 +10382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" ht="17.25" customHeight="1">
       <c r="A53" s="117" t="s">
         <v>108</v>
       </c>
@@ -10052,7 +10398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" ht="17.25" customHeight="1">
       <c r="A54" s="117" t="s">
         <v>109</v>
       </c>
@@ -10068,7 +10414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" ht="17.25" customHeight="1">
       <c r="A55" s="117" t="s">
         <v>110</v>
       </c>
@@ -10084,7 +10430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" ht="17.25" customHeight="1">
       <c r="A56" s="117" t="s">
         <v>111</v>
       </c>
@@ -10100,7 +10446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" ht="17.25" customHeight="1">
       <c r="A57" s="117" t="s">
         <v>112</v>
       </c>
@@ -10116,7 +10462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" ht="17.25" customHeight="1">
       <c r="A58" s="117" t="s">
         <v>113</v>
       </c>
@@ -10132,7 +10478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" ht="17.25" customHeight="1">
       <c r="A59" s="117" t="s">
         <v>114</v>
       </c>
@@ -10148,7 +10494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" ht="17.25" customHeight="1">
       <c r="A60" s="117" t="s">
         <v>115</v>
       </c>
@@ -10164,7 +10510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" ht="17.25" customHeight="1">
       <c r="A61" s="117" t="s">
         <v>116</v>
       </c>
@@ -10180,7 +10526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" ht="17.25" customHeight="1">
       <c r="A62" s="117" t="s">
         <v>117</v>
       </c>
@@ -10196,7 +10542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" ht="17.25" customHeight="1">
       <c r="A63" s="117" t="s">
         <v>118</v>
       </c>
@@ -10212,7 +10558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" ht="17.25" customHeight="1">
       <c r="A64" s="117" t="s">
         <v>119</v>
       </c>
@@ -10228,7 +10574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" ht="17.25" customHeight="1">
       <c r="A65" s="117" t="s">
         <v>120</v>
       </c>
@@ -10244,7 +10590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" ht="17.25" customHeight="1">
       <c r="A66" s="117" t="s">
         <v>121</v>
       </c>
@@ -10260,7 +10606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" ht="17.25" customHeight="1">
       <c r="A67" s="117" t="s">
         <v>122</v>
       </c>
@@ -10276,7 +10622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" ht="17.25" customHeight="1">
       <c r="A68" s="117" t="s">
         <v>123</v>
       </c>
@@ -10292,7 +10638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" ht="17.25" customHeight="1">
       <c r="A69" s="117" t="s">
         <v>125</v>
       </c>
@@ -10308,7 +10654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" ht="17.25" customHeight="1">
       <c r="A70" s="117" t="s">
         <v>127</v>
       </c>
@@ -10324,7 +10670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" ht="17.25" customHeight="1">
       <c r="A71" s="117" t="s">
         <v>129</v>
       </c>
@@ -10340,7 +10686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" ht="17.25" customHeight="1">
       <c r="A72" s="117" t="s">
         <v>130</v>
       </c>
@@ -10356,7 +10702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" ht="17.25" customHeight="1">
       <c r="A73" s="117" t="s">
         <v>131</v>
       </c>
@@ -10372,7 +10718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" ht="17.25" customHeight="1">
       <c r="A74" s="117" t="s">
         <v>132</v>
       </c>
@@ -10388,7 +10734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" ht="17.25" customHeight="1">
       <c r="A75" s="117" t="s">
         <v>133</v>
       </c>
@@ -10404,7 +10750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" ht="17.25" customHeight="1">
       <c r="A76" s="117" t="s">
         <v>134</v>
       </c>
@@ -10420,7 +10766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" ht="17.25" customHeight="1">
       <c r="A77" s="117" t="s">
         <v>135</v>
       </c>
@@ -10436,7 +10782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" ht="17.25" customHeight="1">
       <c r="A78" s="117" t="s">
         <v>136</v>
       </c>
@@ -10452,7 +10798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" ht="17.25" customHeight="1">
       <c r="A79" s="117" t="s">
         <v>137</v>
       </c>
@@ -10468,7 +10814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" ht="17.25" customHeight="1">
       <c r="A80" s="117" t="s">
         <v>138</v>
       </c>
@@ -10484,7 +10830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" ht="17.25" customHeight="1">
       <c r="A81" s="117" t="s">
         <v>139</v>
       </c>
@@ -10500,7 +10846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" ht="17.25" customHeight="1">
       <c r="A82" s="117" t="s">
         <v>141</v>
       </c>
@@ -10516,7 +10862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" ht="17.25" customHeight="1">
       <c r="A83" s="117" t="s">
         <v>142</v>
       </c>
@@ -10532,7 +10878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" ht="17.25" customHeight="1">
       <c r="A84" s="117" t="s">
         <v>143</v>
       </c>
@@ -10548,7 +10894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" ht="17.25" customHeight="1">
       <c r="A85" s="117" t="s">
         <v>144</v>
       </c>
@@ -10564,7 +10910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" ht="17.25" customHeight="1">
       <c r="A86" s="117" t="s">
         <v>146</v>
       </c>
@@ -10580,7 +10926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" ht="17.25" customHeight="1">
       <c r="A87" s="117" t="s">
         <v>147</v>
       </c>
@@ -10596,7 +10942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" ht="17.25" customHeight="1">
       <c r="A88" s="117" t="s">
         <v>148</v>
       </c>
@@ -10612,7 +10958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" ht="17.25" customHeight="1">
       <c r="A89" s="117" t="s">
         <v>149</v>
       </c>
@@ -10628,7 +10974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" ht="17.25" customHeight="1">
       <c r="A90" s="117" t="s">
         <v>150</v>
       </c>
@@ -10644,7 +10990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" ht="17.25" customHeight="1">
       <c r="A91" s="117" t="s">
         <v>151</v>
       </c>
@@ -10660,7 +11006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" ht="17.25" customHeight="1">
       <c r="A92" s="117" t="s">
         <v>152</v>
       </c>
@@ -10676,7 +11022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" ht="17.25" customHeight="1">
       <c r="A93" s="117" t="s">
         <v>153</v>
       </c>
@@ -10692,7 +11038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" ht="17.25" customHeight="1">
       <c r="A94" s="117" t="s">
         <v>154</v>
       </c>
@@ -10708,7 +11054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" ht="17.25" customHeight="1">
       <c r="A95" s="117" t="s">
         <v>155</v>
       </c>
@@ -10724,7 +11070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" ht="17.25" customHeight="1">
       <c r="A96" s="117" t="s">
         <v>156</v>
       </c>
@@ -10740,7 +11086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" ht="17.25" customHeight="1">
       <c r="A97" s="117" t="s">
         <v>157</v>
       </c>
@@ -10756,7 +11102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" ht="17.25" customHeight="1">
       <c r="A98" s="117" t="s">
         <v>158</v>
       </c>
@@ -10772,7 +11118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" ht="17.25" customHeight="1">
       <c r="A99" s="117" t="s">
         <v>159</v>
       </c>
@@ -10788,20 +11134,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" ht="17.25" customHeight="1">
       <c r="A100" s="117" t="s">
         <v>160</v>
       </c>
       <c r="B100" s="19">
         <f ca="1">NOW()</f>
-        <v>45716.378380439812</v>
+        <v>45728.469061574076</v>
       </c>
       <c r="D100" s="117">
         <f ca="1">IF(ISNUMBER(B100),1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" ht="17.25" customHeight="1">
       <c r="A101" s="117" t="s">
         <v>161</v>
       </c>
@@ -10817,7 +11163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" ht="17.25" customHeight="1">
       <c r="A102" s="117" t="s">
         <v>162</v>
       </c>
@@ -10833,7 +11179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" ht="17.25" customHeight="1">
       <c r="A103" s="117" t="s">
         <v>163</v>
       </c>
@@ -10849,7 +11195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" ht="17.25" customHeight="1">
       <c r="A104" s="117" t="s">
         <v>164</v>
       </c>
@@ -10865,7 +11211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" ht="17.25" customHeight="1">
       <c r="A105" s="117" t="s">
         <v>165</v>
       </c>
@@ -10881,7 +11227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" ht="17.25" customHeight="1">
       <c r="A106" s="117" t="s">
         <v>166</v>
       </c>
@@ -10897,7 +11243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" ht="17.25" customHeight="1">
       <c r="A107" s="117" t="s">
         <v>167</v>
       </c>
@@ -10913,7 +11259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" ht="17.25" customHeight="1">
       <c r="A108" s="117" t="s">
         <v>168</v>
       </c>
@@ -10929,7 +11275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" ht="17.25" customHeight="1">
       <c r="A109" s="117" t="s">
         <v>169</v>
       </c>
@@ -10945,7 +11291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" ht="17.25" customHeight="1">
       <c r="A110" s="117" t="s">
         <v>170</v>
       </c>
@@ -10961,7 +11307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" ht="17.25" customHeight="1">
       <c r="A111" s="117" t="s">
         <v>171</v>
       </c>
@@ -10977,12 +11323,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" ht="17.25" customHeight="1">
       <c r="A112" s="117"/>
       <c r="B112" s="117"/>
       <c r="D112" s="117"/>
     </row>
-    <row r="113" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" ht="17.25" customHeight="1">
       <c r="A113" s="117" t="s">
         <v>172</v>
       </c>
@@ -10998,7 +11344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" ht="17.25" customHeight="1">
       <c r="A114" s="117" t="s">
         <v>173</v>
       </c>
@@ -11014,7 +11360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" ht="17.25" customHeight="1">
       <c r="A115" s="117" t="s">
         <v>175</v>
       </c>
@@ -11030,7 +11376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" ht="17.25" customHeight="1">
       <c r="A116" s="117" t="s">
         <v>177</v>
       </c>
@@ -11046,7 +11392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" ht="17.25" customHeight="1">
       <c r="A117" s="117" t="s">
         <v>178</v>
       </c>
@@ -11062,7 +11408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" ht="17.25" customHeight="1">
       <c r="A118" s="117" t="s">
         <v>179</v>
       </c>
@@ -11078,7 +11424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" ht="17.25" customHeight="1">
       <c r="A119" s="117" t="s">
         <v>180</v>
       </c>
@@ -11094,7 +11440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" ht="17.25" customHeight="1">
       <c r="A120" s="117" t="s">
         <v>181</v>
       </c>
@@ -11110,7 +11456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" ht="17.25" customHeight="1">
       <c r="A121" s="117" t="s">
         <v>182</v>
       </c>
@@ -11126,7 +11472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" ht="17.25" customHeight="1">
       <c r="A122" s="117" t="s">
         <v>183</v>
       </c>
@@ -11142,7 +11488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" ht="17.25" customHeight="1">
       <c r="A123" s="117" t="s">
         <v>184</v>
       </c>
@@ -11158,7 +11504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" ht="17.25" customHeight="1">
       <c r="A124" s="117" t="s">
         <v>185</v>
       </c>
@@ -11174,7 +11520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" ht="17.25" customHeight="1">
       <c r="A125" s="117" t="s">
         <v>186</v>
       </c>
@@ -11190,7 +11536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" ht="17.25" customHeight="1">
       <c r="A126" s="117" t="s">
         <v>187</v>
       </c>
@@ -11206,7 +11552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" ht="17.25" customHeight="1">
       <c r="A127" s="117" t="s">
         <v>188</v>
       </c>
@@ -11222,7 +11568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" ht="17.25" customHeight="1">
       <c r="A128" s="117" t="s">
         <v>189</v>
       </c>
@@ -11238,7 +11584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" ht="17.25" customHeight="1">
       <c r="A129" s="117" t="s">
         <v>190</v>
       </c>
@@ -11254,7 +11600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" ht="17.25" customHeight="1">
       <c r="A130" s="117" t="s">
         <v>191</v>
       </c>
@@ -11270,7 +11616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" ht="17.25" customHeight="1">
       <c r="A131" s="117" t="s">
         <v>192</v>
       </c>
@@ -11286,7 +11632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" ht="17.25" customHeight="1">
       <c r="A132" s="117" t="s">
         <v>193</v>
       </c>
@@ -11302,7 +11648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" ht="17.25" customHeight="1">
       <c r="A133" s="117" t="s">
         <v>194</v>
       </c>
@@ -11318,7 +11664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" ht="17.25" customHeight="1">
       <c r="A134" s="117" t="s">
         <v>195</v>
       </c>
@@ -11334,7 +11680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" ht="17.25" customHeight="1">
       <c r="A135" s="117" t="s">
         <v>196</v>
       </c>
@@ -11350,7 +11696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" ht="17.25" customHeight="1">
       <c r="A136" s="117" t="s">
         <v>198</v>
       </c>
@@ -11366,7 +11712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" ht="17.25" customHeight="1">
       <c r="A137" s="117" t="s">
         <v>199</v>
       </c>
@@ -11382,7 +11728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" ht="17.25" customHeight="1">
       <c r="A138" s="117" t="s">
         <v>200</v>
       </c>
@@ -11398,7 +11744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" ht="17.25" customHeight="1">
       <c r="A139" s="117" t="s">
         <v>201</v>
       </c>
@@ -11414,7 +11760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" ht="17.25" customHeight="1">
       <c r="A140" s="117" t="s">
         <v>202</v>
       </c>
@@ -11430,7 +11776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" ht="17.25" customHeight="1">
       <c r="A141" s="117" t="s">
         <v>203</v>
       </c>
@@ -11446,7 +11792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" ht="17.25" customHeight="1">
       <c r="A142" s="117" t="s">
         <v>205</v>
       </c>
@@ -11462,7 +11808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" ht="17.25" customHeight="1">
       <c r="A143" s="117" t="s">
         <v>206</v>
       </c>
@@ -11478,20 +11824,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" ht="17.25" customHeight="1">
       <c r="A144" s="117" t="s">
         <v>207</v>
       </c>
       <c r="B144" s="18">
         <f ca="1">TODAY()</f>
-        <v>45716</v>
+        <v>45728</v>
       </c>
       <c r="D144" s="117">
         <f ca="1">IF(ISNUMBER(B144),1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" ht="17.25" customHeight="1">
       <c r="A145" s="117" t="s">
         <v>208</v>
       </c>
@@ -11507,7 +11853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" ht="17.25" customHeight="1">
       <c r="A146" s="117" t="s">
         <v>210</v>
       </c>
@@ -11523,7 +11869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" ht="17.25" customHeight="1">
       <c r="A147" s="117" t="s">
         <v>211</v>
       </c>
@@ -11539,7 +11885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" ht="17.25" customHeight="1">
       <c r="A148" s="117" t="s">
         <v>213</v>
       </c>
@@ -11555,7 +11901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" ht="17.25" customHeight="1">
       <c r="A149" s="117" t="s">
         <v>214</v>
       </c>
@@ -11571,7 +11917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" ht="17.25" customHeight="1">
       <c r="A150" s="117" t="s">
         <v>215</v>
       </c>
@@ -11587,7 +11933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" ht="17.25" customHeight="1">
       <c r="A151" s="117" t="s">
         <v>216</v>
       </c>
@@ -11603,7 +11949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" ht="17.25" customHeight="1">
       <c r="A152" s="117" t="s">
         <v>217</v>
       </c>
@@ -11619,7 +11965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" ht="17.25" customHeight="1">
       <c r="A153" s="117" t="s">
         <v>218</v>
       </c>
@@ -11635,7 +11981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" ht="17.25" customHeight="1">
       <c r="A154" s="117" t="s">
         <v>219</v>
       </c>
@@ -11652,7 +11998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" ht="17.25" customHeight="1">
       <c r="A155" s="117" t="s">
         <v>220</v>
       </c>
@@ -11668,7 +12014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" ht="17.25" customHeight="1">
       <c r="A156" s="117" t="s">
         <v>221</v>
       </c>
@@ -11684,7 +12030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" ht="17.25" customHeight="1">
       <c r="A157" s="117" t="s">
         <v>222</v>
       </c>
@@ -11700,7 +12046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" ht="17.25" customHeight="1">
       <c r="A158" s="117" t="s">
         <v>223</v>
       </c>
@@ -11716,7 +12062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" ht="17.25" customHeight="1">
       <c r="A159" s="117" t="s">
         <v>224</v>
       </c>
@@ -11732,7 +12078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" ht="17.25" customHeight="1">
       <c r="A160" s="117" t="s">
         <v>225</v>
       </c>
@@ -11748,7 +12094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" ht="17.25" customHeight="1">
       <c r="A161" s="117" t="s">
         <v>226</v>
       </c>
@@ -11764,7 +12110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" ht="17.25" customHeight="1">
       <c r="A162" s="117" t="s">
         <v>227</v>
       </c>
@@ -11780,7 +12126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" ht="17.25" customHeight="1">
       <c r="A163" s="117" t="s">
         <v>229</v>
       </c>
@@ -11798,10 +12144,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D180">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11821,7 +12167,7 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelRow="2" outlineLevelCol="2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" customWidth="1"/>
@@ -11831,17 +12177,17 @@
     <col min="15" max="18" width="9.140625" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>230</v>
       </c>
       <c r="C1" t="s">
         <v>231</v>
       </c>
-      <c r="D1" s="123" t="s">
+      <c r="D1" s="122" t="s">
         <v>232</v>
       </c>
-      <c r="E1" s="123"/>
+      <c r="E1" s="122"/>
       <c r="F1" t="s">
         <v>233</v>
       </c>
@@ -11849,19 +12195,19 @@
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2">
         <f>SUM(A1)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
       <c r="H2" t="str">
         <f>[1]Feuil1!$A$1</f>
         <v>referenced string</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="D3" s="85" t="s">
         <v>235</v>
       </c>
@@ -11869,25 +12215,25 @@
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" hidden="1">
       <c r="A4" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="75" customHeight="1">
       <c r="A5" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="10" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:8" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="17" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="18" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:8" outlineLevel="1"/>
+    <row r="11" spans="1:8" outlineLevel="1"/>
+    <row r="12" spans="1:8" hidden="1" outlineLevel="2"/>
+    <row r="13" spans="1:8" hidden="1" outlineLevel="2"/>
+    <row r="14" spans="1:8" hidden="1" outlineLevel="2"/>
+    <row r="15" spans="1:8" outlineLevel="1" collapsed="1"/>
+    <row r="16" spans="1:8" outlineLevel="1"/>
+    <row r="17" outlineLevel="1"/>
+    <row r="18" outlineLevel="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D1:E2"/>
@@ -11909,14 +12255,14 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" customWidth="1"/>
     <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="13.5" thickBot="1">
       <c r="A1" s="68" t="s">
         <v>239</v>
       </c>
@@ -11938,7 +12284,7 @@
       </c>
       <c r="M1" s="36"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" s="40" t="s">
         <v>245</v>
       </c>
@@ -11964,7 +12310,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" s="41" t="s">
         <v>252</v>
       </c>
@@ -11987,7 +12333,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="15">
       <c r="A4" s="42" t="s">
         <v>256</v>
       </c>
@@ -12013,7 +12359,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" s="43" t="s">
         <v>262</v>
       </c>
@@ -12033,7 +12379,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" s="44" t="s">
         <v>266</v>
       </c>
@@ -12056,7 +12402,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="15.75">
       <c r="A7" s="45" t="s">
         <v>271</v>
       </c>
@@ -12076,7 +12422,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="21">
       <c r="A8" s="46" t="s">
         <v>275</v>
       </c>
@@ -12099,7 +12445,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" s="47" t="s">
         <v>280</v>
       </c>
@@ -12116,7 +12462,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" s="48" t="s">
         <v>283</v>
       </c>
@@ -12124,7 +12470,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="13.5" thickBot="1">
       <c r="A11" s="49" t="s">
         <v>285</v>
       </c>
@@ -12133,7 +12479,7 @@
       </c>
       <c r="F11" s="36"/>
     </row>
-    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="18.75" customHeight="1">
       <c r="A12" s="50" t="s">
         <v>287</v>
       </c>
@@ -12147,7 +12493,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="18.75" customHeight="1" thickBot="1">
       <c r="A13" s="51" t="s">
         <v>290</v>
       </c>
@@ -12158,7 +12504,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="18.75" customHeight="1" thickBot="1">
       <c r="A14" s="52" t="s">
         <v>291</v>
       </c>
@@ -12172,7 +12518,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="18.75" customHeight="1" thickBot="1">
       <c r="A15" s="53" t="s">
         <v>293</v>
       </c>
@@ -12183,7 +12529,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="19.5" customHeight="1" thickBot="1">
       <c r="A16" s="54" t="s">
         <v>294</v>
       </c>
@@ -12197,12 +12543,12 @@
         <v>248</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="13.5" thickBot="1">
       <c r="A17" s="55" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="13.5" thickBot="1">
       <c r="A18" s="74" t="s">
         <v>297</v>
       </c>
@@ -12214,7 +12560,7 @@
       </c>
       <c r="F18" s="36"/>
     </row>
-    <row r="19" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="13.5" thickBot="1">
       <c r="A19" s="75" t="s">
         <v>300</v>
       </c>
@@ -12225,7 +12571,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="51.75" thickBot="1">
       <c r="A20" s="76" t="s">
         <v>303</v>
       </c>
@@ -12239,12 +12585,12 @@
         <v>302</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="13.5" thickBot="1">
       <c r="A21" s="77" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="13.5" thickBot="1">
       <c r="A22" s="78" t="s">
         <v>307</v>
       </c>
@@ -12253,13 +12599,13 @@
       </c>
       <c r="E22" s="21"/>
     </row>
-    <row r="23" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="13.5" thickBot="1">
       <c r="A23" s="79" t="s">
         <v>309</v>
       </c>
       <c r="E23" s="21"/>
     </row>
-    <row r="24" spans="1:6" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="14.25" thickTop="1" thickBot="1">
       <c r="A24" s="80" t="s">
         <v>310</v>
       </c>
@@ -12268,20 +12614,20 @@
       </c>
       <c r="E24" s="21"/>
     </row>
-    <row r="25" spans="1:6" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:6" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="14.25" thickTop="1" thickBot="1"/>
+    <row r="26" spans="1:6" ht="14.25" thickTop="1" thickBot="1">
       <c r="C26" s="67" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:6" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="14.25" thickTop="1" thickBot="1"/>
+    <row r="28" spans="1:6" ht="14.25" thickTop="1" thickBot="1">
       <c r="C28" s="88" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="13.5" thickTop="1"/>
+    <row r="30" spans="1:6">
       <c r="C30" s="87" t="s">
         <v>314</v>
       </c>
@@ -12300,13 +12646,13 @@
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="19.140625" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="13.5" thickBot="1">
       <c r="A1" s="37" t="s">
         <v>315</v>
       </c>
@@ -12323,7 +12669,7 @@
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="38" t="s">
         <v>319</v>
       </c>
@@ -12346,7 +12692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="38" t="s">
         <v>321</v>
       </c>
@@ -12369,7 +12715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="38" t="s">
         <v>325</v>
       </c>
@@ -12389,7 +12735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="38" t="s">
         <v>328</v>
       </c>
@@ -12413,7 +12759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="38" t="s">
         <v>330</v>
       </c>
@@ -12436,7 +12782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="38" t="s">
         <v>333</v>
       </c>
@@ -12462,7 +12808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="38" t="s">
         <v>337</v>
       </c>
@@ -12473,7 +12819,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="38" t="s">
         <v>339</v>
       </c>
@@ -12482,7 +12828,7 @@
       </c>
       <c r="C9" s="21"/>
     </row>
-    <row r="10" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="13.5" thickBot="1">
       <c r="A10" s="38" t="s">
         <v>340</v>
       </c>
@@ -12500,7 +12846,7 @@
       <c r="I10" s="36"/>
       <c r="J10" s="36"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" s="38" t="s">
         <v>342</v>
       </c>
@@ -12523,13 +12869,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" s="38" t="s">
         <v>344</v>
       </c>
       <c r="B12" s="39">
         <f ca="1">TODAY()</f>
-        <v>45716</v>
+        <v>45728</v>
       </c>
       <c r="C12" s="39">
         <f>DATE(2010,10,2)</f>
@@ -12548,7 +12894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" s="38" t="s">
         <v>346</v>
       </c>
@@ -12571,7 +12917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" s="38" t="s">
         <v>348</v>
       </c>
@@ -12597,7 +12943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" s="38" t="s">
         <v>350</v>
       </c>
@@ -12617,7 +12963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" s="38" t="s">
         <v>352</v>
       </c>
@@ -12640,7 +12986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12">
       <c r="A17" s="38" t="s">
         <v>354</v>
       </c>
@@ -12663,7 +13009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12">
       <c r="A18" s="38" t="s">
         <v>356</v>
       </c>
@@ -12686,7 +13032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12">
       <c r="A19" s="38" t="s">
         <v>358</v>
       </c>
@@ -12709,7 +13055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12">
       <c r="A20" s="38" t="s">
         <v>360</v>
       </c>
@@ -12732,7 +13078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12">
       <c r="A21" s="38" t="s">
         <v>362</v>
       </c>
@@ -12758,7 +13104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12">
       <c r="A22" s="38" t="s">
         <v>364</v>
       </c>
@@ -12784,7 +13130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12">
       <c r="A23" s="38" t="s">
         <v>366</v>
       </c>
@@ -12810,7 +13156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12">
       <c r="G24" s="34" t="s">
         <v>368</v>
       </c>
@@ -12827,7 +13173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12">
       <c r="A25" s="38" t="s">
         <v>369</v>
       </c>
@@ -12853,7 +13199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12">
       <c r="G26" s="34" t="s">
         <v>371</v>
       </c>
@@ -12873,7 +13219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12">
       <c r="A27" s="21" t="s">
         <v>372</v>
       </c>
@@ -12899,7 +13245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12">
       <c r="G28" s="34" t="s">
         <v>374</v>
       </c>
@@ -12919,7 +13265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12">
       <c r="G29" s="34" t="s">
         <v>375</v>
       </c>
@@ -12939,7 +13285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12">
       <c r="G30" s="34" t="s">
         <v>376</v>
       </c>
@@ -12959,7 +13305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="13.5" thickBot="1">
       <c r="G31" s="35" t="s">
         <v>377</v>
       </c>
@@ -12973,7 +13319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12">
       <c r="G32" s="34" t="s">
         <v>378</v>
       </c>
@@ -12987,7 +13333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="7:10">
       <c r="G33" s="34" t="s">
         <v>379</v>
       </c>
@@ -13001,7 +13347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="7:10">
       <c r="G34" s="34" t="s">
         <v>380</v>
       </c>
@@ -13015,7 +13361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="7:10">
       <c r="G35" s="34" t="s">
         <v>381</v>
       </c>
@@ -13029,7 +13375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="7:10">
       <c r="G36" s="34" t="s">
         <v>382</v>
       </c>
@@ -13043,7 +13389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="7:10">
       <c r="G37" s="34" t="s">
         <v>383</v>
       </c>
@@ -13057,110 +13403,110 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="7:10">
       <c r="G39" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="21" type="noConversion"/>
   <conditionalFormatting sqref="B15">
-    <cfRule type="expression" dxfId="22" priority="58">
+    <cfRule type="expression" dxfId="40" priority="58">
       <formula>ODD(B15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B27">
-    <cfRule type="cellIs" dxfId="21" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="46" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C2">
-    <cfRule type="aboveAverage" dxfId="20" priority="114"/>
+    <cfRule type="aboveAverage" dxfId="38" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3">
-    <cfRule type="beginsWith" dxfId="19" priority="73" operator="beginsWith" text="rule">
+    <cfRule type="beginsWith" dxfId="37" priority="73" operator="beginsWith" text="rule">
       <formula>LEFT(B3,LEN("rule"))="rule"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:C4">
-    <cfRule type="containsBlanks" dxfId="18" priority="71">
+    <cfRule type="containsBlanks" dxfId="36" priority="71">
       <formula>LEN(TRIM(B4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="containsErrors" dxfId="17" priority="70">
+    <cfRule type="containsErrors" dxfId="35" priority="70">
       <formula>ISERROR(B5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:C6">
-    <cfRule type="containsText" dxfId="16" priority="69" operator="containsText" text="rule">
+    <cfRule type="containsText" dxfId="34" priority="69" operator="containsText" text="rule">
       <formula>NOT(ISERROR(SEARCH("rule",B6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:C8">
-    <cfRule type="endsWith" dxfId="15" priority="67" operator="endsWith" text="rule">
+    <cfRule type="endsWith" dxfId="33" priority="67" operator="endsWith" text="rule">
       <formula>RIGHT(B8,LEN("rule"))="rule"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:C9">
-    <cfRule type="notContainsBlanks" dxfId="14" priority="66">
+    <cfRule type="notContainsBlanks" dxfId="32" priority="66">
       <formula>LEN(TRIM(B9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:C10">
-    <cfRule type="notContainsErrors" dxfId="13" priority="65">
+    <cfRule type="notContainsErrors" dxfId="31" priority="65">
       <formula>NOT(ISERROR(B10))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11">
-    <cfRule type="notContainsText" dxfId="12" priority="64" operator="notContains" text="rule">
+    <cfRule type="notContainsText" dxfId="30" priority="64" operator="notContains" text="rule">
       <formula>ISERROR(SEARCH("rule",B11))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:C12">
-    <cfRule type="timePeriod" dxfId="11" priority="63" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="29" priority="63" timePeriod="today">
       <formula>FLOOR(B12,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:C13">
-    <cfRule type="top10" dxfId="10" priority="115" rank="1"/>
+    <cfRule type="top10" dxfId="28" priority="115" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:C16">
-    <cfRule type="cellIs" dxfId="9" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="45" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:C17">
-    <cfRule type="cellIs" dxfId="8" priority="56" operator="notEqual">
+    <cfRule type="cellIs" dxfId="26" priority="56" operator="notEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:C18">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="6" operator="greaterThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:C19">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="24" priority="5" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:C20">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="4" operator="lessThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:C21">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="22" priority="3" operator="lessThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:C22">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="between">
       <formula>2</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:C23">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="notBetween">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="notBetween">
       <formula>2</formula>
       <formula>4</formula>
     </cfRule>
@@ -13194,10 +13540,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:D7">
-    <cfRule type="duplicateValues" dxfId="1" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:D14">
-    <cfRule type="uniqueValues" dxfId="0" priority="96"/>
+    <cfRule type="uniqueValues" dxfId="18" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:J2">
     <cfRule type="colorScale" priority="44">
@@ -13621,11 +13967,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5CCC4B1-5C65-4837-AA26-56CCF06B63BB}">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="3" max="3" width="17.28515625" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" customWidth="1"/>
@@ -13637,12 +13983,12 @@
     <col min="10" max="10" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="15">
       <c r="C3" s="17" t="s">
         <v>35</v>
       </c>
@@ -13668,7 +14014,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="C4" s="117" t="s">
         <v>42</v>
       </c>
@@ -13699,7 +14045,7 @@
         <v>Rank</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="C5" s="117" t="s">
         <v>44</v>
       </c>
@@ -13730,7 +14076,7 @@
         <v>Rank</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="C6" s="117" t="s">
         <v>391</v>
       </c>
@@ -13763,7 +14109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="B8" t="s">
         <v>392</v>
       </c>
@@ -13774,22 +14120,22 @@
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>435</v>
+        <v>393</v>
       </c>
       <c r="G8" t="s">
-        <v>436</v>
+        <v>394</v>
       </c>
       <c r="H8" t="s">
-        <v>437</v>
+        <v>395</v>
       </c>
       <c r="I8" t="s">
-        <v>438</v>
+        <v>396</v>
       </c>
       <c r="J8" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="C9">
         <v>3</v>
       </c>
@@ -13817,18 +14163,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="B11" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="C11" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="D11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="C12">
         <v>3</v>
       </c>
@@ -13836,9 +14182,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="B14" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -13847,7 +14193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="C15">
         <v>3</v>
       </c>
@@ -13855,9 +14201,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4">
       <c r="B17" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -13866,7 +14212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4">
       <c r="C18">
         <v>3</v>
       </c>
@@ -13874,9 +14220,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:4">
       <c r="B20" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -13885,7 +14231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:4">
       <c r="C21">
         <v>3</v>
       </c>
@@ -13893,9 +14239,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:4">
       <c r="B23" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -13904,7 +14250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:4">
       <c r="C24">
         <v>3</v>
       </c>
@@ -13912,9 +14258,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:4">
       <c r="B26" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -13923,7 +14269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:4">
       <c r="C27">
         <v>3</v>
       </c>
@@ -13931,7 +14277,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:4">
       <c r="C28" t="s">
         <v>391</v>
       </c>
@@ -13940,36 +14286,36 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:4">
       <c r="B30" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="C30" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="D30" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" hidden="1" x14ac:dyDescent="0.2">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" hidden="1">
       <c r="C31" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="D31" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
       <c r="C32" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="D32" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -13997,7 +14343,7 @@
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
@@ -14018,9 +14364,9 @@
     <col min="21" max="21" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="15">
       <c r="A1" s="92" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -14028,7 +14374,7 @@
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" s="117"/>
       <c r="B2" s="117"/>
       <c r="C2" s="117"/>
@@ -14036,21 +14382,21 @@
       <c r="E2" s="117"/>
       <c r="F2" s="117"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3" s="117"/>
       <c r="B3" s="117"/>
       <c r="C3" s="89" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="D3" s="89" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="117"/>
       <c r="B4" s="117"/>
       <c r="C4" s="89" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="D4">
         <v>12.1</v>
@@ -14077,10 +14423,10 @@
         <v>12052</v>
       </c>
       <c r="L4" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="117"/>
       <c r="B5" s="117"/>
       <c r="C5" s="90" t="s">
@@ -14093,7 +14439,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6" s="117"/>
       <c r="B6" s="117"/>
       <c r="C6" s="91">
@@ -14106,7 +14452,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7" s="117"/>
       <c r="B7" s="117"/>
       <c r="C7" s="90" t="s">
@@ -14119,7 +14465,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8" s="117"/>
       <c r="B8" s="117"/>
       <c r="C8" s="91">
@@ -14132,7 +14478,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9" s="117"/>
       <c r="B9" s="117"/>
       <c r="C9" s="90" t="s">
@@ -14145,7 +14491,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10" s="117"/>
       <c r="B10" s="117"/>
       <c r="C10" s="91">
@@ -14158,7 +14504,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="C11" s="90" t="s">
         <v>44</v>
       </c>
@@ -14169,7 +14515,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="C12" s="91">
         <v>23000</v>
       </c>
@@ -14180,7 +14526,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="C13" s="90" t="s">
         <v>50</v>
       </c>
@@ -14191,7 +14537,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="C14" s="91">
         <v>2</v>
       </c>
@@ -14202,7 +14548,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="C15" s="90" t="s">
         <v>48</v>
       </c>
@@ -14213,7 +14559,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="C16" s="91">
         <v>50024</v>
       </c>
@@ -14224,7 +14570,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:12">
       <c r="C17" s="90" t="s">
         <v>53</v>
       </c>
@@ -14235,7 +14581,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12">
       <c r="C18" s="91">
         <v>189576</v>
       </c>
@@ -14246,7 +14592,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12">
       <c r="C19" s="90" t="s">
         <v>57</v>
       </c>
@@ -14257,7 +14603,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:12">
       <c r="C20" s="91">
         <v>5000</v>
       </c>
@@ -14268,9 +14614,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12">
       <c r="C21" s="90" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="D21">
         <v>9</v>
@@ -14310,35 +14656,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C47BF70-BA80-4124-B359-67CBCB635390}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="65.140625" customWidth="1"/>
     <col min="2" max="26" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="B2" s="117"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -14355,25 +14701,25 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="51">
       <c r="A1" s="99" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="B1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="B7" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -14381,7 +14727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -14389,7 +14735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>3</v>
       </c>
@@ -14397,7 +14743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>4</v>
       </c>
@@ -14405,7 +14751,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>5</v>
       </c>

--- a/tests/__xlsx__/xlsx_demo_data.xlsx
+++ b/tests/__xlsx__/xlsx_demo_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28619"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28627"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Odoo\spreadsheet\tests\__xlsx__\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BC587FB-DC30-486B-B048-D0D4A1601548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C51FAFF-3D07-447D-AAB5-87B45B302B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="8" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
   </externalReferences>
   <calcPr calcId="191028" calcCompleted="0"/>
   <pivotCaches>
-    <pivotCache cacheId="834" r:id="rId15"/>
+    <pivotCache cacheId="8211" r:id="rId15"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1330,14 +1330,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="7">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
-    <numFmt numFmtId="165" formatCode="m/d/yyyy\ hh:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;€&quot;"/>
-    <numFmt numFmtId="167" formatCode="[$$-409]#,##0.000"/>
-    <numFmt numFmtId="168" formatCode="[$₪-40D]\ #,##0"/>
-    <numFmt numFmtId="169" formatCode="#,##0&quot; EUR €&quot;"/>
-    <numFmt numFmtId="170" formatCode="&quot;€&quot;#,##0.00\ &quot;€&quot;"/>
+  <numFmts count="6">
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="166" formatCode="[$$-409]#,##0.000"/>
+    <numFmt numFmtId="167" formatCode="[$₪-40D]\ #,##0"/>
+    <numFmt numFmtId="168" formatCode="#,##0&quot; EUR €&quot;"/>
+    <numFmt numFmtId="169" formatCode="&quot;€&quot;#,##0.00\ &quot;€&quot;"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -2040,9 +2039,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2091,10 +2087,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="19" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2208,20 +2204,25 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2234,8 +2235,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2337,7 +2336,7 @@
         <u/>
         <color theme="7"/>
       </font>
-      <numFmt numFmtId="171" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="170" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="lightTrellis">
           <fgColor theme="4"/>
@@ -5664,6 +5663,311 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr sz="900" b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2200"/>
+              <a:t>scatter chart with textual labels</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!A27:A35</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Emily Anderson (Emmy)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sophie Allen (Saffi)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Chloe Adams</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Megan Alexander (Meg)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Lucy Arnold (Lulu)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Hannah Alvarez</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jessica Alcock (Jess)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Charlotte Anaya</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Lauren Anthony</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$27:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4038-4F42-8D0E-9B5225C69D31}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="17781237"/>
+        <c:axId val="88853993"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="17781237"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="1"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr sz="1000" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="88853993"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="88853993"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="1"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr sz="1000" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="17781237"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr sz="1000" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln cmpd="sng">
+      <a:solidFill>
+        <a:srgbClr val="000000"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6780,6 +7084,47 @@
     </xdr:graphicFrame>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>904875</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4" title="Chart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{555A8B61-A066-4481-9A03-97F8A1210B04}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A5685A00-859E-4641-A529-E7042819F3BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7039,7 +7384,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9B3CE3F5-58D8-48A3-B9C6-24D1506C9F5C}" name="PivotTable1" cacheId="834" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9B3CE3F5-58D8-48A3-B9C6-24D1506C9F5C}" name="PivotTable1" cacheId="8211" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C3:L21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -7635,7 +7980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{385D5EBC-45F5-4C42-AA75-560DF70B9F2E}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
@@ -7649,387 +7994,387 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="38.25" customHeight="1">
-      <c r="A1" s="22"/>
+      <c r="A1" s="21"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="104" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="27.75">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="104">
         <v>5</v>
       </c>
-      <c r="H2" s="105" t="s">
+      <c r="H2" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="111"/>
-      <c r="K2" s="4"/>
+      <c r="I2" s="107"/>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:12" ht="17.25" customHeight="1">
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="104">
         <v>8</v>
       </c>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="106">
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="108">
         <v>5</v>
       </c>
-      <c r="L3" s="7"/>
+      <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:12" ht="17.25" customHeight="1">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="104">
         <v>12.4</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="104">
         <v>9</v>
       </c>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="7"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:12" ht="17.25" customHeight="1">
-      <c r="C5" s="2">
+      <c r="C5" s="104">
         <v>42</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="104">
         <v>15</v>
       </c>
-      <c r="H5" s="111"/>
-      <c r="I5" s="111"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="107"/>
-      <c r="L5" s="7"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:12" ht="17.25" customHeight="1">
-      <c r="G6" s="2">
+      <c r="G6" s="104">
         <v>22</v>
       </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="107"/>
-      <c r="L6" s="7"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="109"/>
+      <c r="L6" s="6"/>
     </row>
     <row r="7" spans="1:12" ht="17.25" customHeight="1">
-      <c r="C7" s="2">
+      <c r="C7" s="104">
         <v>3</v>
       </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="7"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="109"/>
+      <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:12" ht="17.25" customHeight="1">
-      <c r="G8" s="2">
+      <c r="G8" s="104">
         <v>30</v>
       </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="108"/>
-      <c r="L8" s="7"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="110"/>
+      <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:12" ht="17.25" customHeight="1">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="104">
         <f>SUM(C4:C5)</f>
         <v>54.4</v>
       </c>
-      <c r="K9" s="11"/>
+      <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:12" ht="17.25" customHeight="1">
-      <c r="C10" s="2">
+      <c r="C10" s="104">
         <f>SUM(C4:C7)</f>
         <v>57.4</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="104" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="17.25" customHeight="1">
-      <c r="C11" s="2">
+      <c r="C11" s="104">
         <f>-(3+C7*SUM(C4:C7))</f>
         <v>-175.2</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="17.25" customHeight="1">
-      <c r="C12" s="2">
+      <c r="C12" s="104">
         <f>SUM(C9:C11)</f>
         <v>-63.399999999999991</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="104" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="17.25" customHeight="1">
-      <c r="G13" s="2">
+      <c r="G13" s="104">
         <f>A1+A2+A3+A4+A5+A6+A7+A8+A9+A10+A11+A12+A13+A14+A15+A16+A17+A18</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="17.25" customHeight="1">
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="2" t="str">
+      <c r="C14" s="104" t="str">
         <f ca="1">C14</f>
         <v>#CYCLE</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="17.25" customHeight="1">
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="104" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="17.25" customHeight="1">
-      <c r="C16" s="2" t="str">
+      <c r="C16" s="104" t="str">
         <f>C15</f>
         <v>=(+</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="17.25" customHeight="1">
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="104" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="17.25" customHeight="1">
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="104" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="17.25" customHeight="1">
-      <c r="E19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="E19" s="3"/>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:9" ht="17.25" customHeight="1">
-      <c r="B20" s="6"/>
-      <c r="C20" s="7" t="s">
+      <c r="B20" s="5"/>
+      <c r="C20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="13" t="s">
+      <c r="F20" s="5"/>
+      <c r="G20" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="7"/>
+      <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="14">
         <f>jestCharts!B2</f>
         <v>0</v>
       </c>
-      <c r="G21" s="11"/>
+      <c r="G21" s="10"/>
     </row>
     <row r="23" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="15">
         <v>0.43</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="104">
         <v>0</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="104">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="17.25" customHeight="1">
-      <c r="C24" s="17">
+      <c r="C24" s="16">
         <v>10</v>
       </c>
-      <c r="H24" s="2">
-        <v>1</v>
-      </c>
-      <c r="I24" s="2">
+      <c r="H24" s="104">
+        <v>1</v>
+      </c>
+      <c r="I24" s="104">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="17.25" customHeight="1">
-      <c r="C25" s="17">
+      <c r="C25" s="16">
         <v>10.122999999999999</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="104">
         <v>2</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="104">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="17.25" customHeight="1">
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="104">
         <v>3</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="104">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="104">
         <v>12</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="104">
         <v>24</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="104">
         <v>4</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27" s="104">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="104">
         <v>48</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="104">
         <v>12</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="104">
         <v>5</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28" s="104">
         <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="104">
         <v>45</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="104">
         <v>27</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="104">
         <v>6</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="104">
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="2">
-        <v>1</v>
-      </c>
-      <c r="C30" s="2">
+      <c r="B30" s="104">
+        <v>1</v>
+      </c>
+      <c r="C30" s="104">
         <v>9</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="104">
         <v>7</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30" s="104">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="104">
         <v>25</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="104">
         <v>45</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="104">
         <v>8</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="104">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="104">
         <v>31</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="104">
         <v>17</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="104">
         <v>9</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32" s="104">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="104">
         <v>20</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="104">
         <v>43</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="104">
         <v>10</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33" s="104">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="104">
         <v>19</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="104">
         <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="104">
         <v>16</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="104">
         <v>16</v>
       </c>
     </row>
@@ -8161,71 +8506,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="2">
+      <c r="N1" s="104">
         <v>0.1</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="17" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="104">
         <f>ABS(-5.5)</f>
         <v>5.5</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="104">
         <v>5.5</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="104">
         <f t="shared" ref="D2:D33" si="0">IF(B2=C2,1,0)</f>
         <v>1</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="104">
         <v>26</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="104">
         <v>1204.7</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="104">
         <v>25618</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="104">
         <v>5</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="104">
         <v>0.2</v>
       </c>
       <c r="P2">
@@ -8242,36 +8587,36 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="104">
         <f>ACOS(1)</f>
         <v>0</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="104">
         <v>0</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="104">
         <v>13</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="104">
         <v>500.9</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="104">
         <v>23000</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="104">
         <v>7</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="104">
         <v>0.4</v>
       </c>
       <c r="P3">
@@ -8288,36 +8633,36 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="104">
         <f>ROUND(ACOSH(2),5)</f>
         <v>1.3169599999999999</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="104">
         <v>1.3169599999999999</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="104">
         <v>26</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="104">
         <v>252.4</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="104">
         <v>110120.5</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="104">
         <v>3</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="104">
         <v>0.5</v>
       </c>
       <c r="P4">
@@ -8334,36 +8679,36 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="104">
         <f>ROUND(_xlfn.ACOT(1),5)</f>
         <v>0.78539999999999999</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="104">
         <v>0.78539999999999999</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="104" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="104">
         <v>42</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="104">
         <v>4701.3</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="104">
         <v>50024</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="104">
         <v>4</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="104">
         <v>0.6</v>
       </c>
       <c r="P5">
@@ -8380,36 +8725,36 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="104">
         <f>ROUND(_xlfn.ACOTH(2),5)</f>
         <v>0.54930999999999996</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="104">
         <v>0.54930999999999996</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="104">
         <f>IF(B6=C6,1,0)</f>
         <v>1</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="104" t="s">
         <v>50</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="104">
         <v>9</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="104">
         <v>12.1</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="104">
         <v>2</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="104">
         <v>1000</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="N6" s="104" t="s">
         <v>51</v>
       </c>
       <c r="P6">
@@ -8426,2586 +8771,2586 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="104" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="2" t="b">
+      <c r="B7" s="104" t="b">
         <f>AND(TRUE,TRUE)</f>
         <v>1</v>
       </c>
-      <c r="C7" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="C7" s="104" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="104">
         <v>27</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="104">
         <v>4000</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="104">
         <v>189576</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="104">
         <v>2</v>
       </c>
-      <c r="N7" s="2" t="b">
+      <c r="N7" s="104" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="104" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="104">
         <f>ROUND(ASIN(0.5),5)</f>
         <v>0.52359999999999995</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="104">
         <v>0.52359999999999995</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="104" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="104">
         <v>30</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="104">
         <v>12052</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="104">
         <v>256018</v>
       </c>
-      <c r="K8" s="2">
-        <v>1</v>
-      </c>
-      <c r="N8" s="2" t="b">
+      <c r="K8" s="104">
+        <v>1</v>
+      </c>
+      <c r="N8" s="104" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="104">
         <f>ROUND(ASINH(2),5)</f>
         <v>1.44364</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="104">
         <v>1.44364</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="104" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="104">
         <v>37</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="104">
         <v>4890.1000000000004</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="104">
         <v>5000</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="104">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="104" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="104">
         <f>ROUND(ATAN(1),5)</f>
         <v>0.78539999999999999</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="104">
         <v>0.78539999999999999</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="104" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="104">
         <f>ROUND(ATAN2(-1,0),5)</f>
         <v>3.1415899999999999</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="104">
         <v>3.1415899999999999</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="104" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="104">
         <f>ROUND(ATANH(0.7),5)</f>
         <v>0.86729999999999996</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="104">
         <v>0.86729999999999996</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="18" t="s">
+      <c r="I12" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="18" t="s">
+      <c r="J12" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="K12" s="18" t="s">
+      <c r="K12" s="17" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="104">
         <f>ROUND(AVEDEV(I2:I9),5)</f>
         <v>2959.1624999999999</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="104">
         <v>2959.1624999999999</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="104" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="104">
         <f>ROUND(AVERAGE(H2:H9),5)</f>
         <v>26.25</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="104">
         <v>26.25</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="104">
         <f>AVERAGEA(G2:H9)</f>
         <v>13.125</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="104">
         <v>13.125</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="104" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="104">
         <f>ROUND(AVERAGEIF(J2:J9,"&gt;150000"),5)</f>
         <v>222797</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="104">
         <v>222797</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="104" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="104">
         <f>ROUND(AVERAGEIFS(I2:I9,H2:H9,"&gt;=30",K2:K9,"&lt;10"),5)</f>
         <v>8376.65</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="104">
         <v>8376.65</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="104" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="104">
         <f>CEILING(20.4,1)</f>
         <v>21</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="104">
         <v>21</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="104" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="104">
         <f>_xlfn.CEILING.MATH(-5.5,1,0)</f>
         <v>-5</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="104">
         <v>-5</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="104" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="104">
         <f>_xlfn.CEILING.PRECISE(230,100)</f>
         <v>300</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="104">
         <v>300</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="104" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="2" t="str">
+      <c r="B21" s="104" t="str">
         <f>CHAR(74)</f>
         <v>J</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="104" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="104">
         <f>COLUMN(C4)</f>
         <v>3</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="104">
         <v>3</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="104" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="104">
         <f>COLUMNS(A5:D12)</f>
         <v>4</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="104">
         <v>4</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="104" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="2" t="str">
+      <c r="B24" s="104" t="str">
         <f>_xlfn.CONCAT(1,23)</f>
         <v>123</v>
       </c>
-      <c r="C24" s="2" t="str">
+      <c r="C24" s="104" t="str">
         <f>"123"</f>
         <v>123</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="104" t="s">
         <v>79</v>
       </c>
-      <c r="B25" s="2" t="str">
+      <c r="B25" s="104" t="str">
         <f>CONCATENATE("BUT, ","MICHEL")</f>
         <v>BUT, MICHEL</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="104" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="104" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="104">
         <f>ROUND(COS(PI()/3),2)</f>
         <v>0.5</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="104">
         <v>0.5</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="104" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="104">
         <f>ROUND(COSH(2),5)</f>
         <v>3.7622</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="104">
         <v>3.7622</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="104" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="104">
         <f>ROUND(_xlfn.COT(PI()/6),5)</f>
         <v>1.7320500000000001</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="104">
         <f>ROUND(SQRT(3),5)</f>
         <v>1.7320500000000001</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="104" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="104">
         <f>ROUND(_xlfn.COTH(0.5),5)</f>
         <v>2.1639499999999998</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="104">
         <v>2.1639499999999998</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="104" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="104">
         <f>COUNT(1,"a","5","2021-03-14")</f>
         <v>3</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="104">
         <v>2</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="104" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="104">
         <f>COUNTA(1,"a","5","2021-03-14")</f>
         <v>4</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="104">
         <v>4</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="104" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="104">
         <f>COUNTBLANK(F1:G1)</f>
         <v>1</v>
       </c>
-      <c r="C32" s="2">
-        <v>1</v>
-      </c>
-      <c r="D32" s="2">
+      <c r="C32" s="104">
+        <v>1</v>
+      </c>
+      <c r="D32" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="104" t="s">
         <v>88</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="104">
         <f>COUNTIF(H2:H9,"&gt;30")</f>
         <v>2</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="104">
         <v>2</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="104" t="s">
         <v>89</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="104">
         <f>COUNTIFS(H2:H9,"&gt;25",K2:K9,"&lt;4")</f>
         <v>3</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="104">
         <v>3</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="104">
         <f t="shared" ref="D34:D65" si="4">IF(B34=C34,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="104" t="s">
         <v>90</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="104">
         <f>ROUND(COVAR(H2:H9,K2:K9),5)</f>
         <v>-2119.25</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="104">
         <v>-2119.25</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="104" t="s">
         <v>91</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="104">
         <f>ROUND(_xlfn.COVARIANCE.P(K2:K9,H2:H9),5)</f>
         <v>-2119.25</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="104">
         <v>-2119.25</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="104" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="104">
         <f>ROUND(_xlfn.COVARIANCE.P(I2:I9,J2:J9),5)</f>
         <v>237217364.71641001</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="104">
         <v>237217364.71641001</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="104" t="s">
         <v>93</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="104">
         <f>ROUND(_xlfn.CSC(PI()/4),5)</f>
         <v>1.41421</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="104">
         <f>ROUND(SQRT(2),5)</f>
         <v>1.41421</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="104" t="s">
         <v>94</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="104">
         <f>ROUND(_xlfn.CSCH(PI()/3),5)</f>
         <v>0.80040999999999995</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="104">
         <v>0.80040999999999995</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="104" t="s">
         <v>95</v>
       </c>
-      <c r="B40" s="19">
+      <c r="B40" s="18">
         <f>DATE(2020,5,25)</f>
         <v>43976</v>
       </c>
-      <c r="C40" s="19">
+      <c r="C40" s="18">
         <v>43976</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="104" t="s">
         <v>96</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="104">
         <f>DATEVALUE("1969-08-15")</f>
         <v>25430</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="104">
         <v>25430</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="104" t="s">
         <v>97</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="104">
         <f>ROUND(DAVERAGE(G1:K9,"Tot. Score",J12:J13),5)</f>
         <v>151434.625</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="104">
         <v>151434.625</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="104" t="s">
         <v>98</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="104">
         <f>DAY("2020-03-17")</f>
         <v>17</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="104">
         <v>17</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="104" t="s">
         <v>99</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="104">
         <f>_xlfn.DAYS("2022-03-17","2021-03-17")</f>
         <v>365</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="104">
         <v>365</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="104" t="s">
         <v>100</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="104">
         <f>DCOUNT(G1:K9,"Name",H12:H13)</f>
         <v>0</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="104">
         <v>0</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="104" t="s">
         <v>101</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="104">
         <f>DCOUNTA(G1:K9,"Name",H12:H13)</f>
         <v>3</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="104">
         <v>3</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="104" t="s">
         <v>102</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="104">
         <f>_xlfn.DECIMAL(20,16)</f>
         <v>32</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="104">
         <v>32</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="104" t="s">
         <v>103</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="104">
         <f>DEGREES(PI()/4)</f>
         <v>45</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="104">
         <v>45</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="104" t="s">
         <v>104</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="104">
         <f>DGET(G1:K9,"Hours Played",G12:G13)</f>
         <v>252.4</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="104">
         <v>252.4</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="104" t="s">
         <v>105</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="104">
         <f>DMAX(G1:K9,"Tot. Score",I12:I13)</f>
         <v>189576</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="104">
         <f>J7</f>
         <v>189576</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="104" t="s">
         <v>106</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="104">
         <f>DMIN(G1:K9,"Tot. Score",H12:H13)</f>
         <v>5000</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="104">
         <f>J9</f>
         <v>5000</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="104" t="s">
         <v>107</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="104">
         <f>DPRODUCT(G1:K9,"Age",K12:K13)</f>
         <v>333</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="104">
         <v>333</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="104" t="s">
         <v>108</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="104">
         <f>ROUND(DSTDEV(G1:K9,"Age",H12:H13),5)</f>
         <v>6.0277099999999999</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="104">
         <v>6.0277099999999999</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="104" t="s">
         <v>109</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="104">
         <f>ROUND(DSTDEVP(G1:K9,"Age",H12:H13),5)</f>
         <v>4.9216100000000003</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="104">
         <v>4.9216100000000003</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="104" t="s">
         <v>110</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="104">
         <f>DSUM(G1:K9,"Age",I12:I13)</f>
         <v>101</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55" s="104">
         <v>101</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="104" t="s">
         <v>111</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="104">
         <f>ROUND(DVAR(G1:K9,"Hours Played",H12:H13),5)</f>
         <v>17560207.923330002</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56" s="104">
         <v>17560207.923330002</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="104" t="s">
         <v>112</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="104">
         <f>ROUND(DVARP(G1:K9,"Hours Played",H12:H13),5)</f>
         <v>11706805.28222</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="104">
         <v>11706805.28222</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="104" t="s">
         <v>113</v>
       </c>
-      <c r="B58" s="19">
+      <c r="B58" s="18">
         <f>EDATE("1969-07-22",-2)</f>
         <v>25345</v>
       </c>
-      <c r="C58" s="19">
+      <c r="C58" s="18">
         <v>25345</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="104" t="s">
         <v>114</v>
       </c>
-      <c r="B59" s="19">
+      <c r="B59" s="18">
         <f>EOMONTH("2020-07-21",1)</f>
         <v>44074</v>
       </c>
-      <c r="C59" s="19">
+      <c r="C59" s="18">
         <v>44074</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="104" t="s">
         <v>115</v>
       </c>
-      <c r="B60" s="2" t="b">
+      <c r="B60" s="104" t="b">
         <f>EXACT("AbsSdf%","AbsSdf%")</f>
         <v>1</v>
       </c>
-      <c r="C60" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D60" s="2">
+      <c r="C60" s="104" t="b">
+        <v>1</v>
+      </c>
+      <c r="D60" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="104" t="s">
         <v>116</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="104">
         <f>ROUND(EXP(4),5)</f>
         <v>54.598149999999997</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="104">
         <v>54.598149999999997</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="104" t="s">
         <v>117</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="104">
         <f>FIND("A","qbdahbaazo A")</f>
         <v>12</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C62" s="104">
         <v>12</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D62" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="104" t="s">
         <v>118</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="104">
         <f>FLOOR(5.5,2)</f>
         <v>4</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63" s="104">
         <v>4</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D63" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="104" t="s">
         <v>119</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="104">
         <f>_xlfn.FLOOR.MATH(-5.55,2,1)</f>
         <v>-4</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C64" s="104">
         <v>-4</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D64" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="104" t="s">
         <v>120</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="104">
         <f>_xlfn.FLOOR.PRECISE(199,100)</f>
         <v>100</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C65" s="104">
         <v>100</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D65" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="104" t="s">
         <v>121</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="104">
         <f>HLOOKUP("Tot. Score",H1:K9,4,FALSE)</f>
         <v>110120.5</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C66" s="104">
         <v>110120.5</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D66" s="104">
         <f t="shared" ref="D66:D97" si="5">IF(B66=C66,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="104" t="s">
         <v>122</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="104">
         <f>HOUR("02:14:56")</f>
         <v>2</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C67" s="104">
         <v>2</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D67" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="104" t="s">
         <v>123</v>
       </c>
-      <c r="B68" s="2" t="str">
+      <c r="B68" s="104" t="str">
         <f>IF(TRUE,"TABOURET","JAMBON")</f>
         <v>TABOURET</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="104" t="s">
         <v>124</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D68" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="104" t="s">
         <v>125</v>
       </c>
-      <c r="B69" s="2" t="str">
+      <c r="B69" s="104" t="str">
         <f>IFERROR(0/0,"no diving by zero.")</f>
         <v>no diving by zero.</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="104" t="s">
         <v>126</v>
       </c>
-      <c r="D69" s="2">
+      <c r="D69" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="104" t="s">
         <v>127</v>
       </c>
-      <c r="B70" s="2" t="str">
+      <c r="B70" s="104" t="str">
         <f>_xlfn.IFS($H2&gt;$H3,"first player is older",$H3&gt;$H2,"second player is older")</f>
         <v>first player is older</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="104" t="s">
         <v>128</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D70" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="104" t="s">
         <v>129</v>
       </c>
-      <c r="B71" s="2" t="b">
+      <c r="B71" s="104" t="b">
         <f>ISERROR(0/0)</f>
         <v>1</v>
       </c>
-      <c r="C71" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D71" s="2">
+      <c r="C71" s="104" t="b">
+        <v>1</v>
+      </c>
+      <c r="D71" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="104" t="s">
         <v>130</v>
       </c>
-      <c r="B72" s="2" t="b">
+      <c r="B72" s="104" t="b">
         <f>ISEVEN(3)</f>
         <v>0</v>
       </c>
-      <c r="C72" s="2" t="b">
+      <c r="C72" s="104" t="b">
         <v>0</v>
       </c>
-      <c r="D72" s="2">
+      <c r="D72" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="104" t="s">
         <v>131</v>
       </c>
-      <c r="B73" s="2" t="b">
+      <c r="B73" s="104" t="b">
         <f>ISLOGICAL("TRUE")</f>
         <v>0</v>
       </c>
-      <c r="C73" s="2" t="b">
+      <c r="C73" s="104" t="b">
         <v>0</v>
       </c>
-      <c r="D73" s="2">
+      <c r="D73" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A74" s="2" t="s">
+      <c r="A74" s="104" t="s">
         <v>132</v>
       </c>
-      <c r="B74" s="2" t="b">
+      <c r="B74" s="104" t="b">
         <f>ISNONTEXT(TRUE)</f>
         <v>1</v>
       </c>
-      <c r="C74" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D74" s="2">
+      <c r="C74" s="104" t="b">
+        <v>1</v>
+      </c>
+      <c r="D74" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="104" t="s">
         <v>133</v>
       </c>
-      <c r="B75" s="2" t="b">
+      <c r="B75" s="104" t="b">
         <f>ISNUMBER(1231.5)</f>
         <v>1</v>
       </c>
-      <c r="C75" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D75" s="2">
+      <c r="C75" s="104" t="b">
+        <v>1</v>
+      </c>
+      <c r="D75" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A76" s="2" t="s">
+      <c r="A76" s="104" t="s">
         <v>134</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76" s="104">
         <f>ISO.CEILING(-7.89)</f>
         <v>-7</v>
       </c>
-      <c r="C76" s="2">
+      <c r="C76" s="104">
         <v>-7</v>
       </c>
-      <c r="D76" s="2">
+      <c r="D76" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="104" t="s">
         <v>135</v>
       </c>
-      <c r="B77" s="2" t="b">
+      <c r="B77" s="104" t="b">
         <f>ISODD(4)</f>
         <v>0</v>
       </c>
-      <c r="C77" s="2" t="b">
+      <c r="C77" s="104" t="b">
         <v>0</v>
       </c>
-      <c r="D77" s="2">
+      <c r="D77" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A78" s="2" t="s">
+      <c r="A78" s="104" t="s">
         <v>136</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78" s="104">
         <f>_xlfn.ISOWEEKNUM("2016-01-03")</f>
         <v>53</v>
       </c>
-      <c r="C78" s="2">
+      <c r="C78" s="104">
         <v>53</v>
       </c>
-      <c r="D78" s="2">
+      <c r="D78" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A79" s="2" t="s">
+      <c r="A79" s="104" t="s">
         <v>137</v>
       </c>
-      <c r="B79" s="2" t="b">
+      <c r="B79" s="104" t="b">
         <f>ISTEXT("123")</f>
         <v>1</v>
       </c>
-      <c r="C79" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D79" s="2">
+      <c r="C79" s="104" t="b">
+        <v>1</v>
+      </c>
+      <c r="D79" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A80" s="2" t="s">
+      <c r="A80" s="104" t="s">
         <v>138</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B80" s="104">
         <f>LARGE(H2:H9,3)</f>
         <v>30</v>
       </c>
-      <c r="C80" s="2">
+      <c r="C80" s="104">
         <v>30</v>
       </c>
-      <c r="D80" s="2">
+      <c r="D80" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A81" s="2" t="s">
+      <c r="A81" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="B81" s="2" t="str">
+      <c r="B81" s="104" t="str">
         <f>LEFT("Mich",4)</f>
         <v>Mich</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="104" t="s">
         <v>140</v>
       </c>
-      <c r="D81" s="2">
+      <c r="D81" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A82" s="2" t="s">
+      <c r="A82" s="104" t="s">
         <v>141</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82" s="104">
         <f>LEN("anticonstitutionnellement")</f>
         <v>25</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C82" s="104">
         <v>25</v>
       </c>
-      <c r="D82" s="2">
+      <c r="D82" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A83" s="2" t="s">
+      <c r="A83" s="104" t="s">
         <v>142</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83" s="104">
         <f>ROUND(LN(2),5)</f>
         <v>0.69315000000000004</v>
       </c>
-      <c r="C83" s="2">
+      <c r="C83" s="104">
         <v>0.69315000000000004</v>
       </c>
-      <c r="D83" s="2">
+      <c r="D83" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A84" s="2" t="s">
+      <c r="A84" s="104" t="s">
         <v>143</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84" s="104">
         <f>LOOKUP(23000,H3:J3,H5:J5)</f>
         <v>50024</v>
       </c>
-      <c r="C84" s="2">
+      <c r="C84" s="104">
         <v>50024</v>
       </c>
-      <c r="D84" s="2">
+      <c r="D84" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A85" s="2" t="s">
+      <c r="A85" s="104" t="s">
         <v>144</v>
       </c>
-      <c r="B85" s="2" t="str">
+      <c r="B85" s="104" t="str">
         <f>LOWER("オAドB")</f>
         <v>オaドb</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="104" t="s">
         <v>145</v>
       </c>
-      <c r="D85" s="2">
+      <c r="D85" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A86" s="2" t="s">
+      <c r="A86" s="104" t="s">
         <v>146</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B86" s="104">
         <f>MATCH(42,H2:H9,0)</f>
         <v>4</v>
       </c>
-      <c r="C86" s="2">
+      <c r="C86" s="104">
         <v>4</v>
       </c>
-      <c r="D86" s="2">
+      <c r="D86" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A87" s="2" t="s">
+      <c r="A87" s="104" t="s">
         <v>147</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87" s="104">
         <f>MAX(N1:N8)</f>
         <v>0.6</v>
       </c>
-      <c r="C87" s="2">
+      <c r="C87" s="104">
         <v>0.6</v>
       </c>
-      <c r="D87" s="2">
+      <c r="D87" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A88" s="2" t="s">
+      <c r="A88" s="104" t="s">
         <v>148</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88" s="104">
         <f>MAXA(N1:N8)</f>
         <v>1</v>
       </c>
-      <c r="C88" s="2">
-        <v>1</v>
-      </c>
-      <c r="D88" s="2">
+      <c r="C88" s="104">
+        <v>1</v>
+      </c>
+      <c r="D88" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A89" s="2" t="s">
+      <c r="A89" s="104" t="s">
         <v>149</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B89" s="104">
         <f>_xlfn.MAXIFS(H2:H9,K2:K9,"&lt;20",K2:K9,"&lt;&gt;4")</f>
         <v>30</v>
       </c>
-      <c r="C89" s="2">
+      <c r="C89" s="104">
         <v>30</v>
       </c>
-      <c r="D89" s="2">
+      <c r="D89" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A90" s="2" t="s">
+      <c r="A90" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90" s="104">
         <f>MEDIAN(-1,6,7,234,163845)</f>
         <v>7</v>
       </c>
-      <c r="C90" s="2">
+      <c r="C90" s="104">
         <v>7</v>
       </c>
-      <c r="D90" s="2">
+      <c r="D90" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A91" s="2" t="s">
+      <c r="A91" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91" s="104">
         <f>MIN(N1:N8)</f>
         <v>0.1</v>
       </c>
-      <c r="C91" s="2">
+      <c r="C91" s="104">
         <v>0.1</v>
       </c>
-      <c r="D91" s="2">
+      <c r="D91" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A92" s="2" t="s">
+      <c r="A92" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92" s="104">
         <f>MINA(N1:N8)</f>
         <v>0</v>
       </c>
-      <c r="C92" s="2">
+      <c r="C92" s="104">
         <v>0</v>
       </c>
-      <c r="D92" s="2">
+      <c r="D92" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A93" s="2" t="s">
+      <c r="A93" s="104" t="s">
         <v>153</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93" s="104">
         <f>_xlfn.MINIFS(J2:J9,H2:H9,"&gt;20")</f>
         <v>5000</v>
       </c>
-      <c r="C93" s="2">
+      <c r="C93" s="104">
         <v>5000</v>
       </c>
-      <c r="D93" s="2">
+      <c r="D93" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A94" s="2" t="s">
+      <c r="A94" s="104" t="s">
         <v>154</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B94" s="104">
         <f>MINUTE(0.126)</f>
         <v>1</v>
       </c>
-      <c r="C94" s="2">
-        <v>1</v>
-      </c>
-      <c r="D94" s="2">
+      <c r="C94" s="104">
+        <v>1</v>
+      </c>
+      <c r="D94" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A95" s="2" t="s">
+      <c r="A95" s="104" t="s">
         <v>155</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B95" s="104">
         <f>MOD(42,12)</f>
         <v>6</v>
       </c>
-      <c r="C95" s="2">
+      <c r="C95" s="104">
         <v>6</v>
       </c>
-      <c r="D95" s="2">
+      <c r="D95" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A96" s="2" t="s">
+      <c r="A96" s="104" t="s">
         <v>156</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96" s="104">
         <f>MONTH("1954-05-02")</f>
         <v>5</v>
       </c>
-      <c r="C96" s="2">
+      <c r="C96" s="104">
         <v>5</v>
       </c>
-      <c r="D96" s="2">
+      <c r="D96" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A97" s="2" t="s">
+      <c r="A97" s="104" t="s">
         <v>157</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97" s="104">
         <f>NETWORKDAYS("2013-01-01","2013-02-01")</f>
         <v>24</v>
       </c>
-      <c r="C97" s="2">
+      <c r="C97" s="104">
         <v>24</v>
       </c>
-      <c r="D97" s="2">
+      <c r="D97" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A98" s="2" t="s">
+      <c r="A98" s="104" t="s">
         <v>158</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98" s="104">
         <f>NETWORKDAYS.INTL("2013-01-01","2013-02-01","0000111")</f>
         <v>19</v>
       </c>
-      <c r="C98" s="2">
+      <c r="C98" s="104">
         <v>19</v>
       </c>
-      <c r="D98" s="2">
+      <c r="D98" s="104">
         <f t="shared" ref="D98:D99" si="6">IF(B98=C98,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A99" s="2" t="s">
+      <c r="A99" s="104" t="s">
         <v>159</v>
       </c>
-      <c r="B99" s="2" t="b">
+      <c r="B99" s="104" t="b">
         <f>NOT(FALSE)</f>
         <v>1</v>
       </c>
-      <c r="C99" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D99" s="2">
+      <c r="C99" s="104" t="b">
+        <v>1</v>
+      </c>
+      <c r="D99" s="104">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A100" s="2" t="s">
+      <c r="A100" s="104" t="s">
         <v>160</v>
       </c>
-      <c r="B100" s="20">
+      <c r="B100" s="19">
         <f ca="1">NOW()</f>
-        <v>45715.516800810183</v>
-      </c>
-      <c r="D100" s="2">
+        <v>45726.596124884258</v>
+      </c>
+      <c r="D100" s="104">
         <f ca="1">IF(ISNUMBER(B100),1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A101" s="2" t="s">
+      <c r="A101" s="104" t="s">
         <v>161</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B101" s="104">
         <f>ODD(4)</f>
         <v>5</v>
       </c>
-      <c r="C101" s="2">
+      <c r="C101" s="104">
         <v>5</v>
       </c>
-      <c r="D101" s="2">
+      <c r="D101" s="104">
         <f t="shared" ref="D101:D111" si="7">IF(B101=C101,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A102" s="2" t="s">
+      <c r="A102" s="104" t="s">
         <v>162</v>
       </c>
-      <c r="B102" s="2" t="b">
+      <c r="B102" s="104" t="b">
         <f>OR("true",FALSE)</f>
         <v>1</v>
       </c>
-      <c r="C102" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D102" s="2">
+      <c r="C102" s="104" t="b">
+        <v>1</v>
+      </c>
+      <c r="D102" s="104">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A103" s="2" t="s">
+      <c r="A103" s="104" t="s">
         <v>163</v>
       </c>
-      <c r="B103" s="2">
+      <c r="B103" s="104">
         <f>PERCENTILE(N1:N5,1)</f>
         <v>0.6</v>
       </c>
-      <c r="C103" s="2">
+      <c r="C103" s="104">
         <v>0.6</v>
       </c>
-      <c r="D103" s="2">
+      <c r="D103" s="104">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A104" s="2" t="s">
+      <c r="A104" s="104" t="s">
         <v>164</v>
       </c>
-      <c r="B104" s="2">
+      <c r="B104" s="104">
         <f>_xlfn.PERCENTILE.EXC(N1:N5,0.5)</f>
         <v>0.4</v>
       </c>
-      <c r="C104" s="2">
+      <c r="C104" s="104">
         <v>0.4</v>
       </c>
-      <c r="D104" s="2">
+      <c r="D104" s="104">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A105" s="2" t="s">
+      <c r="A105" s="104" t="s">
         <v>165</v>
       </c>
-      <c r="B105" s="2">
+      <c r="B105" s="104">
         <f>_xlfn.PERCENTILE.INC(N1:N5,0)</f>
         <v>0.1</v>
       </c>
-      <c r="C105" s="2">
+      <c r="C105" s="104">
         <v>0.1</v>
       </c>
-      <c r="D105" s="2">
+      <c r="D105" s="104">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A106" s="2" t="s">
+      <c r="A106" s="104" t="s">
         <v>166</v>
       </c>
-      <c r="B106" s="2">
+      <c r="B106" s="104">
         <f>ROUND(PI(),5)</f>
         <v>3.1415899999999999</v>
       </c>
-      <c r="C106" s="2">
+      <c r="C106" s="104">
         <v>3.1415899999999999</v>
       </c>
-      <c r="D106" s="2">
+      <c r="D106" s="104">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A107" s="2" t="s">
+      <c r="A107" s="104" t="s">
         <v>167</v>
       </c>
-      <c r="B107" s="2">
+      <c r="B107" s="104">
         <f>POWER(42,2)</f>
         <v>1764</v>
       </c>
-      <c r="C107" s="2">
+      <c r="C107" s="104">
         <v>1764</v>
       </c>
-      <c r="D107" s="2">
+      <c r="D107" s="104">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A108" s="2" t="s">
+      <c r="A108" s="104" t="s">
         <v>168</v>
       </c>
-      <c r="B108" s="2">
+      <c r="B108" s="104">
         <f>PRODUCT(1,2,3)</f>
         <v>6</v>
       </c>
-      <c r="C108" s="2">
+      <c r="C108" s="104">
         <v>6</v>
       </c>
-      <c r="D108" s="2">
+      <c r="D108" s="104">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A109" s="2" t="s">
+      <c r="A109" s="104" t="s">
         <v>169</v>
       </c>
-      <c r="B109" s="2">
+      <c r="B109" s="104">
         <f>QUARTILE(N1:N5,0)</f>
         <v>0.1</v>
       </c>
-      <c r="C109" s="2">
+      <c r="C109" s="104">
         <v>0.1</v>
       </c>
-      <c r="D109" s="2">
+      <c r="D109" s="104">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A110" s="2" t="s">
+      <c r="A110" s="104" t="s">
         <v>170</v>
       </c>
-      <c r="B110" s="2">
+      <c r="B110" s="104">
         <f>ROUND(_xlfn.QUARTILE.EXC(N1:N5,1),5)</f>
         <v>0.15</v>
       </c>
-      <c r="C110" s="2">
+      <c r="C110" s="104">
         <v>0.15</v>
       </c>
-      <c r="D110" s="2">
+      <c r="D110" s="104">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A111" s="2" t="s">
+      <c r="A111" s="104" t="s">
         <v>171</v>
       </c>
-      <c r="B111" s="2">
+      <c r="B111" s="104">
         <f>_xlfn.QUARTILE.INC(N1:N5,4)</f>
         <v>0.6</v>
       </c>
-      <c r="C111" s="2">
+      <c r="C111" s="104">
         <v>0.6</v>
       </c>
-      <c r="D111" s="2">
+      <c r="D111" s="104">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A112" s="2"/>
-      <c r="B112" s="2"/>
-      <c r="D112" s="2"/>
+      <c r="A112" s="104"/>
+      <c r="B112" s="104"/>
+      <c r="D112" s="104"/>
     </row>
     <row r="113" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A113" s="2" t="s">
+      <c r="A113" s="104" t="s">
         <v>172</v>
       </c>
-      <c r="B113" s="2">
+      <c r="B113" s="104">
         <f ca="1">RANDBETWEEN(1.1,2)</f>
         <v>2</v>
       </c>
-      <c r="C113" s="2">
+      <c r="C113" s="104">
         <v>2</v>
       </c>
-      <c r="D113" s="2">
+      <c r="D113" s="104">
         <f t="shared" ref="D113:D143" ca="1" si="8">IF(B113=C113,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A114" s="2" t="s">
+      <c r="A114" s="104" t="s">
         <v>173</v>
       </c>
-      <c r="B114" s="2" t="str">
+      <c r="B114" s="104" t="str">
         <f>REPLACE("ABZ",2,1,"Y")</f>
         <v>AYZ</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="C114" s="104" t="s">
         <v>174</v>
       </c>
-      <c r="D114" s="2">
+      <c r="D114" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A115" s="2" t="s">
+      <c r="A115" s="104" t="s">
         <v>175</v>
       </c>
-      <c r="B115" s="2" t="str">
+      <c r="B115" s="104" t="str">
         <f>RIGHT("kikou",2)</f>
         <v>ou</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="C115" s="104" t="s">
         <v>176</v>
       </c>
-      <c r="D115" s="2">
+      <c r="D115" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A116" s="2" t="s">
+      <c r="A116" s="104" t="s">
         <v>177</v>
       </c>
-      <c r="B116" s="2">
+      <c r="B116" s="104">
         <f>ROUND(49.9,0)</f>
         <v>50</v>
       </c>
-      <c r="C116" s="2">
+      <c r="C116" s="104">
         <v>50</v>
       </c>
-      <c r="D116" s="2">
+      <c r="D116" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A117" s="2" t="s">
+      <c r="A117" s="104" t="s">
         <v>178</v>
       </c>
-      <c r="B117" s="2">
+      <c r="B117" s="104">
         <f>ROUNDDOWN(42,-1)</f>
         <v>40</v>
       </c>
-      <c r="C117" s="2">
+      <c r="C117" s="104">
         <v>40</v>
       </c>
-      <c r="D117" s="2">
+      <c r="D117" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A118" s="2" t="s">
+      <c r="A118" s="104" t="s">
         <v>179</v>
       </c>
-      <c r="B118" s="2">
+      <c r="B118" s="104">
         <f>ROUNDUP(-1.6,0)</f>
         <v>-2</v>
       </c>
-      <c r="C118" s="2">
+      <c r="C118" s="104">
         <v>-2</v>
       </c>
-      <c r="D118" s="2">
+      <c r="D118" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A119" s="2" t="s">
+      <c r="A119" s="104" t="s">
         <v>180</v>
       </c>
-      <c r="B119" s="2">
+      <c r="B119" s="104">
         <f>ROW(A234)</f>
         <v>234</v>
       </c>
-      <c r="C119" s="2">
+      <c r="C119" s="104">
         <v>234</v>
       </c>
-      <c r="D119" s="2">
+      <c r="D119" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A120" s="2" t="s">
+      <c r="A120" s="104" t="s">
         <v>181</v>
       </c>
-      <c r="B120" s="2">
+      <c r="B120" s="104">
         <f>ROWS(B3:C40)</f>
         <v>38</v>
       </c>
-      <c r="C120" s="2">
+      <c r="C120" s="104">
         <v>38</v>
       </c>
-      <c r="D120" s="2">
+      <c r="D120" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A121" s="2" t="s">
+      <c r="A121" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="B121" s="2">
+      <c r="B121" s="104">
         <f>SEARCH("C","ABCD")</f>
         <v>3</v>
       </c>
-      <c r="C121" s="2">
+      <c r="C121" s="104">
         <v>3</v>
       </c>
-      <c r="D121" s="2">
+      <c r="D121" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A122" s="2" t="s">
+      <c r="A122" s="104" t="s">
         <v>183</v>
       </c>
-      <c r="B122" s="2">
+      <c r="B122" s="104">
         <f>ROUND(_xlfn.SEC(PI()/3),5)</f>
         <v>2</v>
       </c>
-      <c r="C122" s="2">
+      <c r="C122" s="104">
         <v>2</v>
       </c>
-      <c r="D122" s="2">
+      <c r="D122" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A123" s="2" t="s">
+      <c r="A123" s="104" t="s">
         <v>184</v>
       </c>
-      <c r="B123" s="2">
+      <c r="B123" s="104">
         <f>ROUND(_xlfn.SECH(1),5)</f>
         <v>0.64805000000000001</v>
       </c>
-      <c r="C123" s="2">
+      <c r="C123" s="104">
         <v>0.64805000000000001</v>
       </c>
-      <c r="D123" s="2">
+      <c r="D123" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A124" s="2" t="s">
+      <c r="A124" s="104" t="s">
         <v>185</v>
       </c>
-      <c r="B124" s="2">
+      <c r="B124" s="104">
         <f>SECOND("00:21:42")</f>
         <v>42</v>
       </c>
-      <c r="C124" s="2">
+      <c r="C124" s="104">
         <v>42</v>
       </c>
-      <c r="D124" s="2">
+      <c r="D124" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A125" s="2" t="s">
+      <c r="A125" s="104" t="s">
         <v>186</v>
       </c>
-      <c r="B125" s="2">
+      <c r="B125" s="104">
         <f>ROUND(SIN(PI()/6),5)</f>
         <v>0.5</v>
       </c>
-      <c r="C125" s="2">
+      <c r="C125" s="104">
         <v>0.5</v>
       </c>
-      <c r="D125" s="2">
+      <c r="D125" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A126" s="2" t="s">
+      <c r="A126" s="104" t="s">
         <v>187</v>
       </c>
-      <c r="B126" s="2">
+      <c r="B126" s="104">
         <f>ROUND(SINH(1),5)</f>
         <v>1.1752</v>
       </c>
-      <c r="C126" s="2">
+      <c r="C126" s="104">
         <v>1.1752</v>
       </c>
-      <c r="D126" s="2">
+      <c r="D126" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A127" s="2" t="s">
+      <c r="A127" s="104" t="s">
         <v>188</v>
       </c>
-      <c r="B127" s="2">
+      <c r="B127" s="104">
         <f>SMALL(H2:H9,3)</f>
         <v>26</v>
       </c>
-      <c r="C127" s="2">
+      <c r="C127" s="104">
         <v>26</v>
       </c>
-      <c r="D127" s="2">
+      <c r="D127" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A128" s="2" t="s">
+      <c r="A128" s="104" t="s">
         <v>189</v>
       </c>
-      <c r="B128" s="2">
+      <c r="B128" s="104">
         <f>SQRT(4)</f>
         <v>2</v>
       </c>
-      <c r="C128" s="2">
+      <c r="C128" s="104">
         <v>2</v>
       </c>
-      <c r="D128" s="2">
+      <c r="D128" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A129" s="2" t="s">
+      <c r="A129" s="104" t="s">
         <v>190</v>
       </c>
-      <c r="B129" s="2">
+      <c r="B129" s="104">
         <f>STDEV(-2,0,2)</f>
         <v>2</v>
       </c>
-      <c r="C129" s="2">
+      <c r="C129" s="104">
         <v>2</v>
       </c>
-      <c r="D129" s="2">
+      <c r="D129" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A130" s="2" t="s">
+      <c r="A130" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="B130" s="2">
+      <c r="B130" s="104">
         <f>_xlfn.STDEV.P(2,4)</f>
         <v>1</v>
       </c>
-      <c r="C130" s="2">
-        <v>1</v>
-      </c>
-      <c r="D130" s="2">
+      <c r="C130" s="104">
+        <v>1</v>
+      </c>
+      <c r="D130" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A131" s="2" t="s">
+      <c r="A131" s="104" t="s">
         <v>192</v>
       </c>
-      <c r="B131" s="2">
+      <c r="B131" s="104">
         <f>_xlfn.STDEV.S(2,4,6)</f>
         <v>2</v>
       </c>
-      <c r="C131" s="2">
+      <c r="C131" s="104">
         <v>2</v>
       </c>
-      <c r="D131" s="2">
+      <c r="D131" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A132" s="2" t="s">
+      <c r="A132" s="104" t="s">
         <v>193</v>
       </c>
-      <c r="B132" s="2">
+      <c r="B132" s="104">
         <f>STDEVA(TRUE,3,5)</f>
         <v>2</v>
       </c>
-      <c r="C132" s="2">
+      <c r="C132" s="104">
         <v>2</v>
       </c>
-      <c r="D132" s="2">
+      <c r="D132" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A133" s="2" t="s">
+      <c r="A133" s="104" t="s">
         <v>194</v>
       </c>
-      <c r="B133" s="2">
+      <c r="B133" s="104">
         <f>ROUND(STDEVP(2,5,8),2)</f>
         <v>2.4500000000000002</v>
       </c>
-      <c r="C133" s="2">
+      <c r="C133" s="104">
         <v>2.4500000000000002</v>
       </c>
-      <c r="D133" s="2">
+      <c r="D133" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A134" s="2" t="s">
+      <c r="A134" s="104" t="s">
         <v>195</v>
       </c>
-      <c r="B134" s="2">
+      <c r="B134" s="104">
         <f>ROUND(STDEVPA(TRUE,4,7),2)</f>
         <v>2.4500000000000002</v>
       </c>
-      <c r="C134" s="2">
+      <c r="C134" s="104">
         <v>2.4500000000000002</v>
       </c>
-      <c r="D134" s="2">
+      <c r="D134" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A135" s="2" t="s">
+      <c r="A135" s="104" t="s">
         <v>196</v>
       </c>
-      <c r="B135" s="2" t="str">
+      <c r="B135" s="104" t="str">
         <f>SUBSTITUTE("SAP is best","SAP","Odoo")</f>
         <v>Odoo is best</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="C135" s="104" t="s">
         <v>197</v>
       </c>
-      <c r="D135" s="2">
+      <c r="D135" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A136" s="2" t="s">
+      <c r="A136" s="104" t="s">
         <v>198</v>
       </c>
-      <c r="B136" s="2">
+      <c r="B136" s="104">
         <f>SUM(1,2,3,4,5)</f>
         <v>15</v>
       </c>
-      <c r="C136" s="2">
+      <c r="C136" s="104">
         <v>15</v>
       </c>
-      <c r="D136" s="2">
+      <c r="D136" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A137" s="2" t="s">
+      <c r="A137" s="104" t="s">
         <v>199</v>
       </c>
-      <c r="B137" s="2">
+      <c r="B137" s="104">
         <f>SUMIF(K2:K9,"&lt;100")</f>
         <v>52</v>
       </c>
-      <c r="C137" s="2">
+      <c r="C137" s="104">
         <v>52</v>
       </c>
-      <c r="D137" s="2">
+      <c r="D137" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A138" s="2" t="s">
+      <c r="A138" s="104" t="s">
         <v>200</v>
       </c>
-      <c r="B138" s="2">
+      <c r="B138" s="104">
         <f>SUMIFS(H2:H9,K2:K9,"&lt;100")</f>
         <v>201</v>
       </c>
-      <c r="C138" s="2">
+      <c r="C138" s="104">
         <v>201</v>
       </c>
-      <c r="D138" s="2">
+      <c r="D138" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A139" s="2" t="s">
+      <c r="A139" s="104" t="s">
         <v>201</v>
       </c>
-      <c r="B139" s="2">
+      <c r="B139" s="104">
         <f>ROUND(TAN(PI()/4),5)</f>
         <v>1</v>
       </c>
-      <c r="C139" s="2">
-        <v>1</v>
-      </c>
-      <c r="D139" s="2">
+      <c r="C139" s="104">
+        <v>1</v>
+      </c>
+      <c r="D139" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A140" s="2" t="s">
+      <c r="A140" s="104" t="s">
         <v>202</v>
       </c>
-      <c r="B140" s="2">
+      <c r="B140" s="104">
         <f>ROUND(TANH(1),5)</f>
         <v>0.76158999999999999</v>
       </c>
-      <c r="C140" s="2">
+      <c r="C140" s="104">
         <v>0.76158999999999999</v>
       </c>
-      <c r="D140" s="2">
+      <c r="D140" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A141" s="2" t="s">
+      <c r="A141" s="104" t="s">
         <v>203</v>
       </c>
-      <c r="B141" s="2" t="str">
+      <c r="B141" s="104" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,"","1","A","%")</f>
         <v>1-A-%</v>
       </c>
-      <c r="C141" s="2" t="s">
+      <c r="C141" s="104" t="s">
         <v>204</v>
       </c>
-      <c r="D141" s="2">
+      <c r="D141" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A142" s="2" t="s">
+      <c r="A142" s="104" t="s">
         <v>205</v>
       </c>
-      <c r="B142" s="21">
+      <c r="B142" s="20">
         <f>TIME(9,11,31)</f>
         <v>0.38299768518518523</v>
       </c>
-      <c r="C142" s="21">
+      <c r="C142" s="20">
         <v>0.38299768519999999</v>
       </c>
-      <c r="D142" s="2">
+      <c r="D142" s="104">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A143" s="2" t="s">
+      <c r="A143" s="104" t="s">
         <v>206</v>
       </c>
-      <c r="B143" s="2">
+      <c r="B143" s="104">
         <f>TIMEVALUE("18:00:00")</f>
         <v>0.75</v>
       </c>
-      <c r="C143" s="2">
+      <c r="C143" s="104">
         <v>0.75</v>
       </c>
-      <c r="D143" s="2">
+      <c r="D143" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A144" s="2" t="s">
+      <c r="A144" s="104" t="s">
         <v>207</v>
       </c>
-      <c r="B144" s="19">
+      <c r="B144" s="18">
         <f ca="1">TODAY()</f>
-        <v>45715</v>
-      </c>
-      <c r="D144" s="2">
+        <v>45726</v>
+      </c>
+      <c r="D144" s="104">
         <f ca="1">IF(ISNUMBER(B144),1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A145" s="2" t="s">
+      <c r="A145" s="104" t="s">
         <v>208</v>
       </c>
-      <c r="B145" s="2" t="str">
+      <c r="B145" s="104" t="str">
         <f>TRIM(" Jean Ticonstitutionnalise ")</f>
         <v>Jean Ticonstitutionnalise</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="C145" s="104" t="s">
         <v>209</v>
       </c>
-      <c r="D145" s="2">
+      <c r="D145" s="104">
         <f t="shared" ref="D145:D163" si="9">IF(B145=C145,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A146" s="2" t="s">
+      <c r="A146" s="104" t="s">
         <v>210</v>
       </c>
-      <c r="B146" s="2">
+      <c r="B146" s="104">
         <f>TRUNC(42.42,1)</f>
         <v>42.4</v>
       </c>
-      <c r="C146" s="2">
+      <c r="C146" s="104">
         <v>42.4</v>
       </c>
-      <c r="D146" s="2">
+      <c r="D146" s="104">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A147" s="2" t="s">
+      <c r="A147" s="104" t="s">
         <v>211</v>
       </c>
-      <c r="B147" s="2" t="str">
+      <c r="B147" s="104" t="str">
         <f>UPPER("grrrr !")</f>
         <v>GRRRR !</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="C147" s="104" t="s">
         <v>212</v>
       </c>
-      <c r="D147" s="2">
+      <c r="D147" s="104">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A148" s="2" t="s">
+      <c r="A148" s="104" t="s">
         <v>213</v>
       </c>
-      <c r="B148" s="2">
+      <c r="B148" s="104">
         <f>ROUND(VAR(K1:K5),5)</f>
         <v>2.9166699999999999</v>
       </c>
-      <c r="C148" s="2">
+      <c r="C148" s="104">
         <v>2.9166699999999999</v>
       </c>
-      <c r="D148" s="2">
+      <c r="D148" s="104">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A149" s="2" t="s">
+      <c r="A149" s="104" t="s">
         <v>214</v>
       </c>
-      <c r="B149" s="2">
+      <c r="B149" s="104">
         <f>ROUND(_xlfn.VAR.P(K1:K5),5)</f>
         <v>2.1875</v>
       </c>
-      <c r="C149" s="2">
+      <c r="C149" s="104">
         <v>2.1875</v>
       </c>
-      <c r="D149" s="2">
+      <c r="D149" s="104">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A150" s="2" t="s">
+      <c r="A150" s="104" t="s">
         <v>215</v>
       </c>
-      <c r="B150" s="2">
+      <c r="B150" s="104">
         <f>_xlfn.VAR.S(2,5,8)</f>
         <v>9</v>
       </c>
-      <c r="C150" s="2">
+      <c r="C150" s="104">
         <v>9</v>
       </c>
-      <c r="D150" s="2">
+      <c r="D150" s="104">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A151" s="2" t="s">
+      <c r="A151" s="104" t="s">
         <v>216</v>
       </c>
-      <c r="B151" s="2">
+      <c r="B151" s="104">
         <f>ROUND(VARA(K1:K5),5)</f>
         <v>6.7</v>
       </c>
-      <c r="C151" s="2">
+      <c r="C151" s="104">
         <v>6.7</v>
       </c>
-      <c r="D151" s="2">
+      <c r="D151" s="104">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A152" s="2" t="s">
+      <c r="A152" s="104" t="s">
         <v>217</v>
       </c>
-      <c r="B152" s="2">
+      <c r="B152" s="104">
         <f>ROUND(VARP(K1:K5),5)</f>
         <v>2.1875</v>
       </c>
-      <c r="C152" s="2">
+      <c r="C152" s="104">
         <v>2.1875</v>
       </c>
-      <c r="D152" s="2">
+      <c r="D152" s="104">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A153" s="2" t="s">
+      <c r="A153" s="104" t="s">
         <v>218</v>
       </c>
-      <c r="B153" s="2">
+      <c r="B153" s="104">
         <f>ROUND(VARPA(K1:K5),5)</f>
         <v>5.36</v>
       </c>
-      <c r="C153" s="2">
+      <c r="C153" s="104">
         <v>5.36</v>
       </c>
-      <c r="D153" s="2">
+      <c r="D153" s="104">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A154" s="2" t="s">
+      <c r="A154" s="104" t="s">
         <v>219</v>
       </c>
-      <c r="B154" s="2">
+      <c r="B154" s="104">
         <f>VLOOKUP("NotACheater",G1:K9,3,FALSE)</f>
         <v>252.4</v>
       </c>
-      <c r="C154" s="2">
+      <c r="C154" s="104">
         <f>252.4</f>
         <v>252.4</v>
       </c>
-      <c r="D154" s="2">
+      <c r="D154" s="104">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A155" s="2" t="s">
+      <c r="A155" s="104" t="s">
         <v>220</v>
       </c>
-      <c r="B155" s="2">
+      <c r="B155" s="104">
         <f>WEEKDAY("2021-06-12")</f>
         <v>7</v>
       </c>
-      <c r="C155" s="2">
+      <c r="C155" s="104">
         <v>7</v>
       </c>
-      <c r="D155" s="2">
+      <c r="D155" s="104">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A156" s="2" t="s">
+      <c r="A156" s="104" t="s">
         <v>221</v>
       </c>
-      <c r="B156" s="2">
+      <c r="B156" s="104">
         <f>WEEKNUM("2021-06-29")</f>
         <v>27</v>
       </c>
-      <c r="C156" s="2">
+      <c r="C156" s="104">
         <v>27</v>
       </c>
-      <c r="D156" s="2">
+      <c r="D156" s="104">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A157" s="2" t="s">
+      <c r="A157" s="104" t="s">
         <v>222</v>
       </c>
-      <c r="B157" s="19">
+      <c r="B157" s="18">
         <f>WORKDAY("2021-03-15",6)</f>
         <v>44278</v>
       </c>
-      <c r="C157" s="19">
+      <c r="C157" s="18">
         <v>44278</v>
       </c>
-      <c r="D157" s="2">
+      <c r="D157" s="104">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A158" s="2" t="s">
+      <c r="A158" s="104" t="s">
         <v>223</v>
       </c>
-      <c r="B158" s="19">
+      <c r="B158" s="18">
         <f>WORKDAY.INTL("2021-03-15",6,"0111111")</f>
         <v>44312</v>
       </c>
-      <c r="C158" s="19">
+      <c r="C158" s="18">
         <v>44312</v>
       </c>
-      <c r="D158" s="2">
+      <c r="D158" s="104">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A159" s="2" t="s">
+      <c r="A159" s="104" t="s">
         <v>224</v>
       </c>
-      <c r="B159" s="2" t="b">
+      <c r="B159" s="104" t="b">
         <f>_xlfn.XOR(FALSE,TRUE,FALSE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="C159" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D159" s="2">
+      <c r="C159" s="104" t="b">
+        <v>1</v>
+      </c>
+      <c r="D159" s="104">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A160" s="2" t="s">
+      <c r="A160" s="104" t="s">
         <v>225</v>
       </c>
-      <c r="B160" s="2">
+      <c r="B160" s="104">
         <f>YEAR("2012-03-12")</f>
         <v>2012</v>
       </c>
-      <c r="C160" s="2">
+      <c r="C160" s="104">
         <v>2012</v>
       </c>
-      <c r="D160" s="2">
+      <c r="D160" s="104">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A161" s="2" t="s">
+      <c r="A161" s="104" t="s">
         <v>226</v>
       </c>
-      <c r="B161" s="2">
+      <c r="B161" s="104">
         <f>DELTA(1,1)</f>
         <v>1</v>
       </c>
-      <c r="C161" s="2">
-        <v>1</v>
-      </c>
-      <c r="D161" s="2">
+      <c r="C161" s="104">
+        <v>1</v>
+      </c>
+      <c r="D161" s="104">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A162" s="2" t="s">
+      <c r="A162" s="104" t="s">
         <v>227</v>
       </c>
-      <c r="B162" s="2" t="str">
+      <c r="B162" s="104" t="str">
         <f>ADDRESS(1,1,4,FALSE,"sheet!")</f>
         <v>'sheet!'!R[1]C[1]</v>
       </c>
-      <c r="C162" s="2" t="s">
+      <c r="C162" s="104" t="s">
         <v>228</v>
       </c>
-      <c r="D162" s="2">
+      <c r="D162" s="104">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A163" s="2" t="s">
+      <c r="A163" s="104" t="s">
         <v>229</v>
       </c>
-      <c r="B163" s="2">
+      <c r="B163" s="104">
         <f>DATEDIF("2002/01/01","2002/01/02","D")</f>
         <v>1</v>
       </c>
-      <c r="C163" s="2">
-        <v>1</v>
-      </c>
-      <c r="D163" s="2">
+      <c r="C163" s="104">
+        <v>1</v>
+      </c>
+      <c r="D163" s="104">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -11051,14 +11396,14 @@
       <c r="C1" t="s">
         <v>231</v>
       </c>
-      <c r="D1" s="109" t="s">
+      <c r="D1" s="111" t="s">
         <v>232</v>
       </c>
-      <c r="E1" s="109"/>
+      <c r="E1" s="111"/>
       <c r="F1" t="s">
         <v>233</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="34" t="s">
         <v>234</v>
       </c>
     </row>
@@ -11067,18 +11412,18 @@
         <f>SUM(A1)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
       <c r="H2" t="str">
         <f>[1]Feuil1!$A$1</f>
         <v>referenced string</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="85" t="s">
         <v>235</v>
       </c>
-      <c r="F3" s="86" t="s">
+      <c r="F3" s="85" t="s">
         <v>236</v>
       </c>
     </row>
@@ -11130,308 +11475,308 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="13.5" thickBot="1">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="68" t="s">
         <v>239</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="34" t="s">
         <v>240</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="35" t="s">
         <v>241</v>
       </c>
-      <c r="F1" s="37"/>
-      <c r="H1" s="35" t="s">
+      <c r="F1" s="36"/>
+      <c r="H1" s="34" t="s">
         <v>242</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="34" t="s">
         <v>243</v>
       </c>
-      <c r="L1" s="94" t="s">
+      <c r="L1" s="93" t="s">
         <v>244</v>
       </c>
-      <c r="M1" s="37"/>
+      <c r="M1" s="36"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="40" t="s">
         <v>245</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="86" t="s">
         <v>246</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="38" t="s">
         <v>247</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="H2" s="73" t="s">
+      <c r="H2" s="72" t="s">
         <v>249</v>
       </c>
-      <c r="J2" s="84" t="s">
+      <c r="J2" s="83" t="s">
         <v>250</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="L2" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="M2" s="95">
+      <c r="M2" s="94">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="41" t="s">
         <v>252</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="23" t="s">
         <v>248</v>
       </c>
-      <c r="H3" s="72" t="s">
+      <c r="H3" s="71" t="s">
         <v>253</v>
       </c>
-      <c r="J3" s="74" t="s">
+      <c r="J3" s="73" t="s">
         <v>254</v>
       </c>
-      <c r="L3" s="22" t="s">
+      <c r="L3" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="M3" s="96">
+      <c r="M3" s="95">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="42" t="s">
         <v>256</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="56" t="s">
         <v>257</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="38" t="s">
         <v>258</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="24" t="s">
         <v>248</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="H4" s="34" t="s">
         <v>259</v>
       </c>
-      <c r="J4" s="85" t="s">
+      <c r="J4" s="84" t="s">
         <v>260</v>
       </c>
-      <c r="L4" s="22" t="s">
+      <c r="L4" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="M4" s="97">
+      <c r="M4" s="96">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="43" t="s">
         <v>262</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="38" t="s">
         <v>263</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="H5" s="71" t="s">
+      <c r="H5" s="70" t="s">
         <v>264</v>
       </c>
-      <c r="L5" s="22" t="s">
+      <c r="L5" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="M5" s="98">
+      <c r="M5" s="97">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="44" t="s">
         <v>266</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="57" t="s">
         <v>267</v>
       </c>
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="38" t="s">
         <v>268</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="H6" s="70" t="s">
+      <c r="H6" s="69" t="s">
         <v>269</v>
       </c>
-      <c r="L6" s="22" t="s">
+      <c r="L6" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="M6" s="99">
+      <c r="M6" s="98">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="45" t="s">
         <v>271</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="38" t="s">
         <v>272</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="H7" s="83" t="s">
+      <c r="H7" s="82" t="s">
         <v>273</v>
       </c>
-      <c r="L7" s="39" t="s">
+      <c r="L7" s="38" t="s">
         <v>274</v>
       </c>
-      <c r="M7" s="101">
+      <c r="M7" s="100">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="21">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="46" t="s">
         <v>275</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="58" t="s">
         <v>276</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="38" t="s">
         <v>277</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="28" t="s">
         <v>248</v>
       </c>
-      <c r="H8" s="82" t="s">
+      <c r="H8" s="81" t="s">
         <v>278</v>
       </c>
-      <c r="L8" s="39" t="s">
+      <c r="L8" s="38" t="s">
         <v>279</v>
       </c>
-      <c r="M8" s="102">
+      <c r="M8" s="101">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="47" t="s">
         <v>280</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="38" t="s">
         <v>281</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="L9" s="39" t="s">
+      <c r="L9" s="38" t="s">
         <v>282</v>
       </c>
-      <c r="M9" s="103">
+      <c r="M9" s="102">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="48" t="s">
         <v>283</v>
       </c>
-      <c r="C10" s="60" t="s">
+      <c r="C10" s="59" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="13.5" thickBot="1">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="49" t="s">
         <v>285</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="35" t="s">
         <v>286</v>
       </c>
-      <c r="F11" s="37"/>
+      <c r="F11" s="36"/>
     </row>
     <row r="12" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="50" t="s">
         <v>287</v>
       </c>
-      <c r="C12" s="61" t="s">
+      <c r="C12" s="60" t="s">
         <v>288</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="38" t="s">
         <v>289</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="21" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="51" t="s">
         <v>290</v>
       </c>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="31" t="s">
+      <c r="F13" s="30" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="52" t="s">
         <v>291</v>
       </c>
-      <c r="C14" s="62" t="s">
+      <c r="C14" s="61" t="s">
         <v>292</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="38" t="s">
         <v>258</v>
       </c>
-      <c r="F14" s="32" t="s">
+      <c r="F14" s="31" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="53" t="s">
         <v>293</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="38" t="s">
         <v>272</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="F15" s="32" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A16" s="55" t="s">
+      <c r="A16" s="54" t="s">
         <v>294</v>
       </c>
-      <c r="C16" s="63" t="s">
+      <c r="C16" s="62" t="s">
         <v>295</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="E16" s="38" t="s">
         <v>281</v>
       </c>
-      <c r="F16" s="34" t="s">
+      <c r="F16" s="33" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="13.5" thickBot="1">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="55" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="13.5" thickBot="1">
-      <c r="A18" s="75" t="s">
+      <c r="A18" s="74" t="s">
         <v>297</v>
       </c>
-      <c r="C18" s="64" t="s">
+      <c r="C18" s="63" t="s">
         <v>298</v>
       </c>
-      <c r="E18" s="36" t="s">
+      <c r="E18" s="35" t="s">
         <v>299</v>
       </c>
-      <c r="F18" s="37"/>
+      <c r="F18" s="36"/>
     </row>
     <row r="19" spans="1:6" ht="13.5" thickBot="1">
-      <c r="A19" s="76" t="s">
+      <c r="A19" s="75" t="s">
         <v>300</v>
       </c>
-      <c r="E19" s="39" t="s">
+      <c r="E19" s="38" t="s">
         <v>301</v>
       </c>
       <c r="F19" t="s">
@@ -11439,63 +11784,63 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="51.75" thickBot="1">
-      <c r="A20" s="77" t="s">
+      <c r="A20" s="76" t="s">
         <v>303</v>
       </c>
-      <c r="C20" s="65" t="s">
+      <c r="C20" s="64" t="s">
         <v>304</v>
       </c>
-      <c r="E20" s="39" t="s">
+      <c r="E20" s="38" t="s">
         <v>305</v>
       </c>
-      <c r="F20" s="104" t="s">
+      <c r="F20" s="103" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="13.5" thickBot="1">
-      <c r="A21" s="78" t="s">
+      <c r="A21" s="77" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="13.5" thickBot="1">
-      <c r="A22" s="79" t="s">
+      <c r="A22" s="78" t="s">
         <v>307</v>
       </c>
-      <c r="C22" s="66" t="s">
+      <c r="C22" s="65" t="s">
         <v>308</v>
       </c>
-      <c r="E22" s="22"/>
+      <c r="E22" s="21"/>
     </row>
     <row r="23" spans="1:6" ht="13.5" thickBot="1">
-      <c r="A23" s="80" t="s">
+      <c r="A23" s="79" t="s">
         <v>309</v>
       </c>
-      <c r="E23" s="22"/>
+      <c r="E23" s="21"/>
     </row>
     <row r="24" spans="1:6" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A24" s="81" t="s">
+      <c r="A24" s="80" t="s">
         <v>310</v>
       </c>
-      <c r="C24" s="67" t="s">
+      <c r="C24" s="66" t="s">
         <v>311</v>
       </c>
-      <c r="E24" s="22"/>
+      <c r="E24" s="21"/>
     </row>
     <row r="25" spans="1:6" ht="14.25" thickTop="1" thickBot="1"/>
     <row r="26" spans="1:6" ht="14.25" thickTop="1" thickBot="1">
-      <c r="C26" s="68" t="s">
+      <c r="C26" s="67" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="14.25" thickTop="1" thickBot="1"/>
     <row r="28" spans="1:6" ht="14.25" thickTop="1" thickBot="1">
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="88" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="13.5" thickTop="1"/>
     <row r="30" spans="1:6">
-      <c r="C30" s="88" t="s">
+      <c r="C30" s="87" t="s">
         <v>314</v>
       </c>
     </row>
@@ -11520,24 +11865,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="13.5" thickBot="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>315</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="35" t="s">
         <v>316</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="35" t="s">
         <v>317</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="35" t="s">
         <v>318</v>
       </c>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="38" t="s">
         <v>319</v>
       </c>
       <c r="B2">
@@ -11546,30 +11891,30 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="34" t="s">
         <v>320</v>
       </c>
-      <c r="H2" s="22">
+      <c r="H2" s="21">
         <v>5</v>
       </c>
       <c r="I2">
         <v>3</v>
       </c>
-      <c r="J2" s="22">
+      <c r="J2" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="38" t="s">
         <v>321</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>322</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="34" t="s">
         <v>324</v>
       </c>
       <c r="H3">
@@ -11583,13 +11928,13 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="38" t="s">
         <v>325</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="21" t="s">
         <v>326</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="34" t="s">
         <v>327</v>
       </c>
       <c r="H4">
@@ -11603,7 +11948,7 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="38" t="s">
         <v>328</v>
       </c>
       <c r="B5" t="e">
@@ -11613,7 +11958,7 @@
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="34" t="s">
         <v>329</v>
       </c>
       <c r="H5">
@@ -11627,16 +11972,16 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="38" t="s">
         <v>330</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>331</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="34" t="s">
         <v>332</v>
       </c>
       <c r="H6">
@@ -11650,19 +11995,19 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>334</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="21" t="s">
         <v>335</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="21" t="s">
         <v>334</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="34" t="s">
         <v>336</v>
       </c>
       <c r="H7">
@@ -11676,27 +12021,27 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="38" t="s">
         <v>337</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="21" t="s">
         <v>338</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="21" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="38" t="s">
         <v>339</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="21" t="s">
         <v>326</v>
       </c>
-      <c r="C9" s="22"/>
+      <c r="C9" s="21"/>
     </row>
     <row r="10" spans="1:10" ht="13.5" thickBot="1">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="38" t="s">
         <v>340</v>
       </c>
       <c r="B10">
@@ -11706,24 +12051,24 @@
         <f>0/0</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G10" s="35" t="s">
         <v>341</v>
       </c>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="38" t="s">
         <v>342</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="21" t="s">
         <v>338</v>
       </c>
-      <c r="G11" s="35" t="s">
+      <c r="G11" s="34" t="s">
         <v>343</v>
       </c>
       <c r="H11">
@@ -11737,18 +12082,18 @@
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="38" t="s">
         <v>344</v>
       </c>
-      <c r="B12" s="40">
+      <c r="B12" s="39">
         <f ca="1">TODAY()</f>
-        <v>45715</v>
-      </c>
-      <c r="C12" s="40">
+        <v>45726</v>
+      </c>
+      <c r="C12" s="39">
         <f>DATE(2010,10,2)</f>
         <v>40453</v>
       </c>
-      <c r="G12" s="35" t="s">
+      <c r="G12" s="34" t="s">
         <v>345</v>
       </c>
       <c r="H12">
@@ -11762,7 +12107,7 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="38" t="s">
         <v>346</v>
       </c>
       <c r="B13">
@@ -11771,7 +12116,7 @@
       <c r="C13">
         <v>5</v>
       </c>
-      <c r="G13" s="35" t="s">
+      <c r="G13" s="34" t="s">
         <v>347</v>
       </c>
       <c r="H13">
@@ -11785,19 +12130,19 @@
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="38" t="s">
         <v>348</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="21" t="s">
         <v>335</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="21" t="s">
         <v>334</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="21" t="s">
         <v>334</v>
       </c>
-      <c r="G14" s="35" t="s">
+      <c r="G14" s="34" t="s">
         <v>349</v>
       </c>
       <c r="H14">
@@ -11811,13 +12156,13 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="38" t="s">
         <v>350</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="G15" s="35" t="s">
+      <c r="G15" s="34" t="s">
         <v>351</v>
       </c>
       <c r="H15">
@@ -11831,7 +12176,7 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="38" t="s">
         <v>352</v>
       </c>
       <c r="B16">
@@ -11840,7 +12185,7 @@
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="G16" s="35" t="s">
+      <c r="G16" s="34" t="s">
         <v>353</v>
       </c>
       <c r="H16">
@@ -11854,7 +12199,7 @@
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="38" t="s">
         <v>354</v>
       </c>
       <c r="B17">
@@ -11863,7 +12208,7 @@
       <c r="C17">
         <v>2</v>
       </c>
-      <c r="G17" s="35" t="s">
+      <c r="G17" s="34" t="s">
         <v>355</v>
       </c>
       <c r="H17">
@@ -11877,7 +12222,7 @@
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="38" t="s">
         <v>356</v>
       </c>
       <c r="B18">
@@ -11886,7 +12231,7 @@
       <c r="C18">
         <v>0</v>
       </c>
-      <c r="G18" s="35" t="s">
+      <c r="G18" s="34" t="s">
         <v>357</v>
       </c>
       <c r="H18">
@@ -11900,7 +12245,7 @@
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="38" t="s">
         <v>358</v>
       </c>
       <c r="B19">
@@ -11909,7 +12254,7 @@
       <c r="C19">
         <v>0</v>
       </c>
-      <c r="G19" s="35" t="s">
+      <c r="G19" s="34" t="s">
         <v>359</v>
       </c>
       <c r="H19">
@@ -11923,7 +12268,7 @@
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="38" t="s">
         <v>360</v>
       </c>
       <c r="B20">
@@ -11932,7 +12277,7 @@
       <c r="C20">
         <v>2</v>
       </c>
-      <c r="G20" s="35" t="s">
+      <c r="G20" s="34" t="s">
         <v>361</v>
       </c>
       <c r="H20">
@@ -11946,7 +12291,7 @@
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="38" t="s">
         <v>362</v>
       </c>
       <c r="B21">
@@ -11955,7 +12300,7 @@
       <c r="C21">
         <v>3</v>
       </c>
-      <c r="G21" s="35" t="s">
+      <c r="G21" s="34" t="s">
         <v>363</v>
       </c>
       <c r="H21">
@@ -11972,7 +12317,7 @@
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="38" t="s">
         <v>364</v>
       </c>
       <c r="B22">
@@ -11981,7 +12326,7 @@
       <c r="C22">
         <v>0</v>
       </c>
-      <c r="G22" s="35" t="s">
+      <c r="G22" s="34" t="s">
         <v>365</v>
       </c>
       <c r="H22">
@@ -11998,7 +12343,7 @@
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="38" t="s">
         <v>366</v>
       </c>
       <c r="B23">
@@ -12007,7 +12352,7 @@
       <c r="C23">
         <v>2</v>
       </c>
-      <c r="G23" s="35" t="s">
+      <c r="G23" s="34" t="s">
         <v>367</v>
       </c>
       <c r="H23">
@@ -12024,7 +12369,7 @@
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="G24" s="35" t="s">
+      <c r="G24" s="34" t="s">
         <v>368</v>
       </c>
       <c r="H24">
@@ -12041,7 +12386,7 @@
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="38" t="s">
         <v>369</v>
       </c>
       <c r="B25">
@@ -12050,7 +12395,7 @@
       <c r="C25">
         <v>2</v>
       </c>
-      <c r="G25" s="35" t="s">
+      <c r="G25" s="34" t="s">
         <v>370</v>
       </c>
       <c r="H25">
@@ -12067,7 +12412,7 @@
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="G26" s="35" t="s">
+      <c r="G26" s="34" t="s">
         <v>371</v>
       </c>
       <c r="H26">
@@ -12087,13 +12432,13 @@
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="21" t="s">
         <v>372</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
-      <c r="G27" s="35" t="s">
+      <c r="G27" s="34" t="s">
         <v>373</v>
       </c>
       <c r="H27">
@@ -12113,7 +12458,7 @@
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="G28" s="35" t="s">
+      <c r="G28" s="34" t="s">
         <v>374</v>
       </c>
       <c r="H28">
@@ -12133,7 +12478,7 @@
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="G29" s="35" t="s">
+      <c r="G29" s="34" t="s">
         <v>375</v>
       </c>
       <c r="H29">
@@ -12153,7 +12498,7 @@
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="G30" s="35" t="s">
+      <c r="G30" s="34" t="s">
         <v>376</v>
       </c>
       <c r="H30">
@@ -12173,21 +12518,21 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="13.5" thickBot="1">
-      <c r="G31" s="36" t="s">
+      <c r="G31" s="35" t="s">
         <v>377</v>
       </c>
-      <c r="H31" s="37">
+      <c r="H31" s="36">
         <v>5</v>
       </c>
-      <c r="I31" s="37">
+      <c r="I31" s="36">
         <v>3</v>
       </c>
-      <c r="J31" s="37">
+      <c r="J31" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="G32" s="35" t="s">
+      <c r="G32" s="34" t="s">
         <v>378</v>
       </c>
       <c r="H32">
@@ -12201,7 +12546,7 @@
       </c>
     </row>
     <row r="33" spans="7:10">
-      <c r="G33" s="35" t="s">
+      <c r="G33" s="34" t="s">
         <v>379</v>
       </c>
       <c r="H33">
@@ -12215,7 +12560,7 @@
       </c>
     </row>
     <row r="34" spans="7:10">
-      <c r="G34" s="35" t="s">
+      <c r="G34" s="34" t="s">
         <v>380</v>
       </c>
       <c r="H34">
@@ -12229,7 +12574,7 @@
       </c>
     </row>
     <row r="35" spans="7:10">
-      <c r="G35" s="35" t="s">
+      <c r="G35" s="34" t="s">
         <v>381</v>
       </c>
       <c r="H35">
@@ -12243,7 +12588,7 @@
       </c>
     </row>
     <row r="36" spans="7:10">
-      <c r="G36" s="35" t="s">
+      <c r="G36" s="34" t="s">
         <v>382</v>
       </c>
       <c r="H36">
@@ -12257,7 +12602,7 @@
       </c>
     </row>
     <row r="37" spans="7:10">
-      <c r="G37" s="35" t="s">
+      <c r="G37" s="34" t="s">
         <v>383</v>
       </c>
       <c r="H37">
@@ -12271,7 +12616,7 @@
       </c>
     </row>
     <row r="39" spans="7:10">
-      <c r="G39" s="35"/>
+      <c r="G39" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="21" type="noConversion"/>
@@ -12834,7 +13179,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5CCC4B1-5C65-4837-AA26-56CCF06B63BB}">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -12856,122 +13201,122 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15">
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>385</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="17" t="s">
         <v>386</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="17" t="s">
         <v>387</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="17" t="s">
         <v>388</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="17" t="s">
         <v>389</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="17" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="104">
         <v>26</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="104">
         <v>5</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="104">
         <f>Table3[[#This Row],[Rank]]+Table3[[#This Row],[Age]]</f>
         <v>31</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="104">
         <f>SUM(Table3[Rank])</f>
         <v>12</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="104">
         <f>SUM(Table3[[#All],[Rank]])</f>
         <v>24</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="104">
         <f>Table3[[#Totals],[Rank]]</f>
         <v>12</v>
       </c>
-      <c r="J4" s="2" t="str">
+      <c r="J4" s="104" t="str">
         <f>Table3[[#Headers],[Rank]]</f>
         <v>Rank</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="104">
         <v>13</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="104">
         <v>7</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="104">
         <f>Table3[[#This Row],[Rank]]+Table3[[#This Row],[Age]]</f>
         <v>20</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="104">
         <f>SUM(Table3[Rank])</f>
         <v>12</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="104">
         <f>SUM(Table3[[#All],[Rank]])</f>
         <v>24</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="104">
         <f>Table3[[#Totals],[Rank]]</f>
         <v>12</v>
       </c>
-      <c r="J5" s="2" t="str">
+      <c r="J5" s="104" t="str">
         <f>Table3[[#Headers],[Rank]]</f>
         <v>Rank</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="104" t="s">
         <v>391</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="104">
         <f>SUBTOTAL(109,Table3[Age])</f>
         <v>39</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="104">
         <f>SUBTOTAL(109,Table3[Rank])</f>
         <v>12</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="104">
         <f>SUBTOTAL(109,Table3[Rank+Age =E4+D4])</f>
         <v>51</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="104">
         <f>SUBTOTAL(109,Table3[Data =SUM(E4:E5)])</f>
         <v>24</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="104">
         <f>SUBTOTAL(109,Table3[All =SUM(E3:E6)])</f>
         <v>48</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="104">
         <f>SUBTOTAL(109,Table3[Totals =E6])</f>
         <v>24</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="104">
         <f>SUBTOTAL(109,Table3[Headers =E3])</f>
         <v>0</v>
       </c>
@@ -13232,37 +13577,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="92" t="s">
         <v>412</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="A2" s="104"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="90" t="s">
+      <c r="A3" s="104"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="89" t="s">
         <v>413</v>
       </c>
-      <c r="D3" s="90" t="s">
+      <c r="D3" s="89" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="90" t="s">
+      <c r="A4" s="104"/>
+      <c r="B4" s="104"/>
+      <c r="C4" s="89" t="s">
         <v>415</v>
       </c>
       <c r="D4">
@@ -13294,9 +13639,9 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="91" t="s">
+      <c r="A5" s="104"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="90" t="s">
         <v>55</v>
       </c>
       <c r="K5">
@@ -13307,9 +13652,9 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="92">
+      <c r="A6" s="104"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="91">
         <v>256018</v>
       </c>
       <c r="K6">
@@ -13320,9 +13665,9 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="91" t="s">
+      <c r="A7" s="104"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="90" t="s">
         <v>46</v>
       </c>
       <c r="E7">
@@ -13333,9 +13678,9 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="92">
+      <c r="A8" s="104"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="91">
         <v>110120.5</v>
       </c>
       <c r="E8">
@@ -13346,9 +13691,9 @@
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="91" t="s">
+      <c r="A9" s="104"/>
+      <c r="B9" s="104"/>
+      <c r="C9" s="90" t="s">
         <v>42</v>
       </c>
       <c r="G9">
@@ -13359,9 +13704,9 @@
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="92">
+      <c r="A10" s="104"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="91">
         <v>25618</v>
       </c>
       <c r="G10">
@@ -13372,7 +13717,7 @@
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="C11" s="91" t="s">
+      <c r="C11" s="90" t="s">
         <v>44</v>
       </c>
       <c r="F11">
@@ -13383,7 +13728,7 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="C12" s="92">
+      <c r="C12" s="91">
         <v>23000</v>
       </c>
       <c r="F12">
@@ -13394,7 +13739,7 @@
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="C13" s="91" t="s">
+      <c r="C13" s="90" t="s">
         <v>50</v>
       </c>
       <c r="D13">
@@ -13405,7 +13750,7 @@
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="C14" s="92">
+      <c r="C14" s="91">
         <v>2</v>
       </c>
       <c r="D14">
@@ -13416,7 +13761,7 @@
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="C15" s="91" t="s">
+      <c r="C15" s="90" t="s">
         <v>48</v>
       </c>
       <c r="I15">
@@ -13427,7 +13772,7 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="C16" s="92">
+      <c r="C16" s="91">
         <v>50024</v>
       </c>
       <c r="I16">
@@ -13438,7 +13783,7 @@
       </c>
     </row>
     <row r="17" spans="3:12">
-      <c r="C17" s="91" t="s">
+      <c r="C17" s="90" t="s">
         <v>53</v>
       </c>
       <c r="H17">
@@ -13449,7 +13794,7 @@
       </c>
     </row>
     <row r="18" spans="3:12">
-      <c r="C18" s="92">
+      <c r="C18" s="91">
         <v>189576</v>
       </c>
       <c r="H18">
@@ -13460,7 +13805,7 @@
       </c>
     </row>
     <row r="19" spans="3:12">
-      <c r="C19" s="91" t="s">
+      <c r="C19" s="90" t="s">
         <v>57</v>
       </c>
       <c r="J19">
@@ -13471,7 +13816,7 @@
       </c>
     </row>
     <row r="20" spans="3:12">
-      <c r="C20" s="92">
+      <c r="C20" s="91">
         <v>5000</v>
       </c>
       <c r="J20">
@@ -13482,7 +13827,7 @@
       </c>
     </row>
     <row r="21" spans="3:12">
-      <c r="C21" s="91" t="s">
+      <c r="C21" s="90" t="s">
         <v>416</v>
       </c>
       <c r="D21">
@@ -13523,7 +13868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C47BF70-BA80-4124-B359-67CBCB635390}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -13542,7 +13887,7 @@
       <c r="A2" t="s">
         <v>418</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="104"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -13571,7 +13916,7 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:2" ht="38.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="99" t="s">
         <v>421</v>
       </c>
       <c r="B1" t="s">
@@ -13579,50 +13924,50 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="105" t="s">
         <v>407</v>
       </c>
-      <c r="B7" s="110" t="s">
+      <c r="B7" s="105" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="110">
-        <v>1</v>
-      </c>
-      <c r="B8" s="110">
+      <c r="A8" s="105">
+        <v>1</v>
+      </c>
+      <c r="B8" s="105">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="110">
+      <c r="A9" s="105">
         <v>2</v>
       </c>
-      <c r="B9" s="110">
+      <c r="B9" s="105">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="110">
+      <c r="A10" s="105">
         <v>3</v>
       </c>
-      <c r="B10" s="110">
+      <c r="B10" s="105">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="110">
+      <c r="A11" s="105">
         <v>4</v>
       </c>
-      <c r="B11" s="110">
+      <c r="B11" s="105">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="110">
+      <c r="A12" s="105">
         <v>5</v>
       </c>
-      <c r="B12" s="110">
+      <c r="B12" s="105">
         <v>5</v>
       </c>
     </row>

--- a/tests/__xlsx__/xlsx_demo_data.xlsx
+++ b/tests/__xlsx__/xlsx_demo_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28706"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28712"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Odoo\spreadsheet\tests\__xlsx__\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C3FAEF4-9495-4537-B722-A5A16F9D6A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{56D2B3AE-90E1-4188-9C8D-3AC7FB91336E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
   </externalReferences>
   <calcPr calcId="191028" calcCompleted="0"/>
   <pivotCaches>
-    <pivotCache cacheId="5972" r:id="rId16"/>
+    <pivotCache cacheId="5902" r:id="rId16"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2390,6 +2390,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2402,7 +2403,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -4000,7 +4000,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -5283,7 +5283,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -5719,7 +5719,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
+      <c:legendPos val="l"/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -6425,25 +6425,6 @@
         </a:solidFill>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0">
-            <a:defRPr sz="1000" b="0" i="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="1"/>
@@ -7936,7 +7917,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9B3CE3F5-58D8-48A3-B9C6-24D1506C9F5C}" name="PivotTable1" cacheId="5972" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9B3CE3F5-58D8-48A3-B9C6-24D1506C9F5C}" name="PivotTable1" cacheId="5902" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C3:L21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -8570,7 +8551,7 @@
       <c r="H2" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="123"/>
+      <c r="I2" s="119"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:12" ht="17.25" customHeight="1">
@@ -8580,10 +8561,10 @@
       <c r="G3" s="117">
         <v>8</v>
       </c>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="119">
+      <c r="K3" s="120">
         <v>5</v>
       </c>
       <c r="L3" s="6"/>
@@ -8601,10 +8582,10 @@
       <c r="G4" s="117">
         <v>9</v>
       </c>
-      <c r="H4" s="123"/>
-      <c r="I4" s="123"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="120"/>
+      <c r="K4" s="121"/>
       <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:12" ht="17.25" customHeight="1">
@@ -8614,10 +8595,10 @@
       <c r="G5" s="117">
         <v>15</v>
       </c>
-      <c r="H5" s="123"/>
-      <c r="I5" s="123"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="120"/>
+      <c r="K5" s="121"/>
       <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:12" ht="17.25" customHeight="1">
@@ -8625,7 +8606,7 @@
         <v>22</v>
       </c>
       <c r="J6" s="5"/>
-      <c r="K6" s="120"/>
+      <c r="K6" s="121"/>
       <c r="L6" s="6"/>
     </row>
     <row r="7" spans="1:12" ht="17.25" customHeight="1">
@@ -8633,7 +8614,7 @@
         <v>3</v>
       </c>
       <c r="J7" s="5"/>
-      <c r="K7" s="120"/>
+      <c r="K7" s="121"/>
       <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:12" ht="17.25" customHeight="1">
@@ -8641,7 +8622,7 @@
         <v>30</v>
       </c>
       <c r="J8" s="5"/>
-      <c r="K8" s="121"/>
+      <c r="K8" s="122"/>
       <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:12" ht="17.25" customHeight="1">
@@ -11140,7 +11121,7 @@
       </c>
       <c r="B100" s="19">
         <f ca="1">NOW()</f>
-        <v>45728.469061574076</v>
+        <v>45733.681173842589</v>
       </c>
       <c r="D100" s="117">
         <f ca="1">IF(ISNUMBER(B100),1,0)</f>
@@ -11830,7 +11811,7 @@
       </c>
       <c r="B144" s="18">
         <f ca="1">TODAY()</f>
-        <v>45728</v>
+        <v>45733</v>
       </c>
       <c r="D144" s="117">
         <f ca="1">IF(ISNUMBER(B144),1,0)</f>
@@ -12184,10 +12165,10 @@
       <c r="C1" t="s">
         <v>231</v>
       </c>
-      <c r="D1" s="122" t="s">
+      <c r="D1" s="123" t="s">
         <v>232</v>
       </c>
-      <c r="E1" s="122"/>
+      <c r="E1" s="123"/>
       <c r="F1" t="s">
         <v>233</v>
       </c>
@@ -12200,8 +12181,8 @@
         <f>SUM(A1)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
       <c r="H2" t="str">
         <f>[1]Feuil1!$A$1</f>
         <v>referenced string</v>
@@ -12875,7 +12856,7 @@
       </c>
       <c r="B12" s="39">
         <f ca="1">TODAY()</f>
-        <v>45728</v>
+        <v>45733</v>
       </c>
       <c r="C12" s="39">
         <f>DATE(2010,10,2)</f>
@@ -14656,7 +14637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C47BF70-BA80-4124-B359-67CBCB635390}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>

--- a/tests/__xlsx__/xlsx_demo_data.xlsx
+++ b/tests/__xlsx__/xlsx_demo_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28706"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28715"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Odoo\spreadsheet\tests\__xlsx__\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C3FAEF4-9495-4537-B722-A5A16F9D6A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4ABEBB5E-CC42-4D3F-B076-13470D76BC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
   </externalReferences>
   <calcPr calcId="191028" calcCompleted="0"/>
   <pivotCaches>
-    <pivotCache cacheId="5972" r:id="rId16"/>
+    <pivotCache cacheId="3062" r:id="rId16"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2390,6 +2390,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2402,7 +2403,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -4000,7 +4000,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -5283,7 +5283,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -5718,25 +5718,6 @@
         </a:solidFill>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0">
-            <a:defRPr sz="1000" b="0" i="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="1"/>
@@ -6426,23 +6407,8 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
+      <c:legendPos val="l"/>
       <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0">
-            <a:defRPr sz="1000" b="0" i="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
@@ -7936,7 +7902,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9B3CE3F5-58D8-48A3-B9C6-24D1506C9F5C}" name="PivotTable1" cacheId="5972" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9B3CE3F5-58D8-48A3-B9C6-24D1506C9F5C}" name="PivotTable1" cacheId="3062" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C3:L21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -8570,7 +8536,7 @@
       <c r="H2" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="123"/>
+      <c r="I2" s="119"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:12" ht="17.25" customHeight="1">
@@ -8580,10 +8546,10 @@
       <c r="G3" s="117">
         <v>8</v>
       </c>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="119">
+      <c r="K3" s="120">
         <v>5</v>
       </c>
       <c r="L3" s="6"/>
@@ -8601,10 +8567,10 @@
       <c r="G4" s="117">
         <v>9</v>
       </c>
-      <c r="H4" s="123"/>
-      <c r="I4" s="123"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="120"/>
+      <c r="K4" s="121"/>
       <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:12" ht="17.25" customHeight="1">
@@ -8614,10 +8580,10 @@
       <c r="G5" s="117">
         <v>15</v>
       </c>
-      <c r="H5" s="123"/>
-      <c r="I5" s="123"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="120"/>
+      <c r="K5" s="121"/>
       <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:12" ht="17.25" customHeight="1">
@@ -8625,7 +8591,7 @@
         <v>22</v>
       </c>
       <c r="J6" s="5"/>
-      <c r="K6" s="120"/>
+      <c r="K6" s="121"/>
       <c r="L6" s="6"/>
     </row>
     <row r="7" spans="1:12" ht="17.25" customHeight="1">
@@ -8633,7 +8599,7 @@
         <v>3</v>
       </c>
       <c r="J7" s="5"/>
-      <c r="K7" s="120"/>
+      <c r="K7" s="121"/>
       <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:12" ht="17.25" customHeight="1">
@@ -8641,7 +8607,7 @@
         <v>30</v>
       </c>
       <c r="J8" s="5"/>
-      <c r="K8" s="121"/>
+      <c r="K8" s="122"/>
       <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:12" ht="17.25" customHeight="1">
@@ -11140,7 +11106,7 @@
       </c>
       <c r="B100" s="19">
         <f ca="1">NOW()</f>
-        <v>45728.469061574076</v>
+        <v>45736.475918171294</v>
       </c>
       <c r="D100" s="117">
         <f ca="1">IF(ISNUMBER(B100),1,0)</f>
@@ -11830,7 +11796,7 @@
       </c>
       <c r="B144" s="18">
         <f ca="1">TODAY()</f>
-        <v>45728</v>
+        <v>45736</v>
       </c>
       <c r="D144" s="117">
         <f ca="1">IF(ISNUMBER(B144),1,0)</f>
@@ -12184,10 +12150,10 @@
       <c r="C1" t="s">
         <v>231</v>
       </c>
-      <c r="D1" s="122" t="s">
+      <c r="D1" s="123" t="s">
         <v>232</v>
       </c>
-      <c r="E1" s="122"/>
+      <c r="E1" s="123"/>
       <c r="F1" t="s">
         <v>233</v>
       </c>
@@ -12200,8 +12166,8 @@
         <f>SUM(A1)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
       <c r="H2" t="str">
         <f>[1]Feuil1!$A$1</f>
         <v>referenced string</v>
@@ -12875,7 +12841,7 @@
       </c>
       <c r="B12" s="39">
         <f ca="1">TODAY()</f>
-        <v>45728</v>
+        <v>45736</v>
       </c>
       <c r="C12" s="39">
         <f>DATE(2010,10,2)</f>
@@ -14656,7 +14622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C47BF70-BA80-4124-B359-67CBCB635390}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>

--- a/tests/__xlsx__/xlsx_demo_data.xlsx
+++ b/tests/__xlsx__/xlsx_demo_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28627"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28715"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Odoo\spreadsheet\tests\__xlsx__\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C51FAFF-3D07-447D-AAB5-87B45B302B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2620C4B2-3EB6-459A-A478-DA53E5B1E6DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
   </externalReferences>
   <calcPr calcId="191028" calcCompleted="0"/>
   <pivotCaches>
-    <pivotCache cacheId="8211" r:id="rId15"/>
+    <pivotCache cacheId="1958" r:id="rId15"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2215,10 +2215,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3903,7 +3903,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -5186,7 +5186,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -5621,25 +5621,6 @@
         </a:solidFill>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0">
-            <a:defRPr sz="1000" b="0" i="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="1"/>
@@ -5927,23 +5908,8 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
+      <c:legendPos val="l"/>
       <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0">
-            <a:defRPr sz="1000" b="0" i="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
@@ -7028,6 +6994,9 @@
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CC27214-40A9-4FF9-BB37-40F876B2768B}"/>
             </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{1E90E321-E964-46C8-9CE7-DEE1186146D9}"/>
+            </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
@@ -7065,6 +7034,9 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5685A00-859E-4641-A529-E7042819F3BF}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6CC27214-40A9-4FF9-BB37-40F876B2768B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7384,7 +7356,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9B3CE3F5-58D8-48A3-B9C6-24D1506C9F5C}" name="PivotTable1" cacheId="8211" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9B3CE3F5-58D8-48A3-B9C6-24D1506C9F5C}" name="PivotTable1" cacheId="1958" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C3:L21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -7998,7 +7970,7 @@
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="104" t="s">
+      <c r="G1" s="105" t="s">
         <v>1</v>
       </c>
     </row>
@@ -8009,7 +7981,7 @@
       <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="104">
+      <c r="G2" s="105">
         <v>5</v>
       </c>
       <c r="H2" s="106" t="s">
@@ -8022,7 +7994,7 @@
       <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="104">
+      <c r="G3" s="105">
         <v>8</v>
       </c>
       <c r="H3" s="107"/>
@@ -8037,13 +8009,13 @@
       <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="104">
+      <c r="C4" s="105">
         <v>12.4</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="104">
+      <c r="G4" s="105">
         <v>9</v>
       </c>
       <c r="H4" s="107"/>
@@ -8053,10 +8025,10 @@
       <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:12" ht="17.25" customHeight="1">
-      <c r="C5" s="104">
+      <c r="C5" s="105">
         <v>42</v>
       </c>
-      <c r="G5" s="104">
+      <c r="G5" s="105">
         <v>15</v>
       </c>
       <c r="H5" s="107"/>
@@ -8066,7 +8038,7 @@
       <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:12" ht="17.25" customHeight="1">
-      <c r="G6" s="104">
+      <c r="G6" s="105">
         <v>22</v>
       </c>
       <c r="J6" s="5"/>
@@ -8074,7 +8046,7 @@
       <c r="L6" s="6"/>
     </row>
     <row r="7" spans="1:12" ht="17.25" customHeight="1">
-      <c r="C7" s="104">
+      <c r="C7" s="105">
         <v>3</v>
       </c>
       <c r="J7" s="5"/>
@@ -8082,7 +8054,7 @@
       <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:12" ht="17.25" customHeight="1">
-      <c r="G8" s="104">
+      <c r="G8" s="105">
         <v>30</v>
       </c>
       <c r="J8" s="5"/>
@@ -8093,38 +8065,38 @@
       <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="104">
+      <c r="C9" s="105">
         <f>SUM(C4:C5)</f>
         <v>54.4</v>
       </c>
       <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:12" ht="17.25" customHeight="1">
-      <c r="C10" s="104">
+      <c r="C10" s="105">
         <f>SUM(C4:C7)</f>
         <v>57.4</v>
       </c>
-      <c r="D10" s="104" t="s">
+      <c r="D10" s="105" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="17.25" customHeight="1">
-      <c r="C11" s="104">
+      <c r="C11" s="105">
         <f>-(3+C7*SUM(C4:C7))</f>
         <v>-175.2</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="17.25" customHeight="1">
-      <c r="C12" s="104">
+      <c r="C12" s="105">
         <f>SUM(C9:C11)</f>
         <v>-63.399999999999991</v>
       </c>
-      <c r="D12" s="104" t="s">
+      <c r="D12" s="105" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="17.25" customHeight="1">
-      <c r="G13" s="104">
+      <c r="G13" s="105">
         <f>A1+A2+A3+A4+A5+A6+A7+A8+A9+A10+A11+A12+A13+A14+A15+A16+A17+A18</f>
         <v>0</v>
       </c>
@@ -8133,29 +8105,29 @@
       <c r="B14" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="104" t="str">
+      <c r="C14" s="105" t="str">
         <f ca="1">C14</f>
         <v>#CYCLE</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="17.25" customHeight="1">
-      <c r="C15" s="104" t="s">
+      <c r="C15" s="105" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="17.25" customHeight="1">
-      <c r="C16" s="104" t="str">
+      <c r="C16" s="105" t="str">
         <f>C15</f>
         <v>=(+</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="17.25" customHeight="1">
-      <c r="C17" s="104" t="s">
+      <c r="C17" s="105" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="17.25" customHeight="1">
-      <c r="C18" s="104" t="s">
+      <c r="C18" s="105" t="s">
         <v>14</v>
       </c>
     </row>
@@ -8194,10 +8166,10 @@
       <c r="C23" s="15">
         <v>0.43</v>
       </c>
-      <c r="H23" s="104">
+      <c r="H23" s="105">
         <v>0</v>
       </c>
-      <c r="I23" s="104">
+      <c r="I23" s="105">
         <v>0</v>
       </c>
     </row>
@@ -8205,10 +8177,10 @@
       <c r="C24" s="16">
         <v>10</v>
       </c>
-      <c r="H24" s="104">
-        <v>1</v>
-      </c>
-      <c r="I24" s="104">
+      <c r="H24" s="105">
+        <v>1</v>
+      </c>
+      <c r="I24" s="105">
         <v>1</v>
       </c>
     </row>
@@ -8216,165 +8188,165 @@
       <c r="C25" s="16">
         <v>10.122999999999999</v>
       </c>
-      <c r="H25" s="104">
+      <c r="H25" s="105">
         <v>2</v>
       </c>
-      <c r="I25" s="104">
+      <c r="I25" s="105">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="17.25" customHeight="1">
-      <c r="B26" s="104" t="s">
+      <c r="B26" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="104" t="s">
+      <c r="C26" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="H26" s="104">
+      <c r="H26" s="105">
         <v>3</v>
       </c>
-      <c r="I26" s="104">
+      <c r="I26" s="105">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A27" s="104" t="s">
+      <c r="A27" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="104">
+      <c r="B27" s="105">
         <v>12</v>
       </c>
-      <c r="C27" s="104">
+      <c r="C27" s="105">
         <v>24</v>
       </c>
-      <c r="H27" s="104">
+      <c r="H27" s="105">
         <v>4</v>
       </c>
-      <c r="I27" s="104">
+      <c r="I27" s="105">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A28" s="104" t="s">
+      <c r="A28" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="104">
+      <c r="B28" s="105">
         <v>48</v>
       </c>
-      <c r="C28" s="104">
+      <c r="C28" s="105">
         <v>12</v>
       </c>
-      <c r="H28" s="104">
+      <c r="H28" s="105">
         <v>5</v>
       </c>
-      <c r="I28" s="104">
+      <c r="I28" s="105">
         <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A29" s="104" t="s">
+      <c r="A29" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="104">
+      <c r="B29" s="105">
         <v>45</v>
       </c>
-      <c r="C29" s="104">
+      <c r="C29" s="105">
         <v>27</v>
       </c>
-      <c r="H29" s="104">
+      <c r="H29" s="105">
         <v>6</v>
       </c>
-      <c r="I29" s="104">
+      <c r="I29" s="105">
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A30" s="104" t="s">
+      <c r="A30" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="104">
-        <v>1</v>
-      </c>
-      <c r="C30" s="104">
+      <c r="B30" s="105">
+        <v>1</v>
+      </c>
+      <c r="C30" s="105">
         <v>9</v>
       </c>
-      <c r="H30" s="104">
+      <c r="H30" s="105">
         <v>7</v>
       </c>
-      <c r="I30" s="104">
+      <c r="I30" s="105">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A31" s="104" t="s">
+      <c r="A31" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="104">
+      <c r="B31" s="105">
         <v>25</v>
       </c>
-      <c r="C31" s="104">
+      <c r="C31" s="105">
         <v>45</v>
       </c>
-      <c r="H31" s="104">
+      <c r="H31" s="105">
         <v>8</v>
       </c>
-      <c r="I31" s="104">
+      <c r="I31" s="105">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A32" s="104" t="s">
+      <c r="A32" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="104">
+      <c r="B32" s="105">
         <v>31</v>
       </c>
-      <c r="C32" s="104">
+      <c r="C32" s="105">
         <v>17</v>
       </c>
-      <c r="H32" s="104">
+      <c r="H32" s="105">
         <v>9</v>
       </c>
-      <c r="I32" s="104">
+      <c r="I32" s="105">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A33" s="104" t="s">
+      <c r="A33" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="104">
+      <c r="B33" s="105">
         <v>20</v>
       </c>
-      <c r="C33" s="104">
+      <c r="C33" s="105">
         <v>43</v>
       </c>
-      <c r="H33" s="104">
+      <c r="H33" s="105">
         <v>10</v>
       </c>
-      <c r="I33" s="104">
+      <c r="I33" s="105">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A34" s="104" t="s">
+      <c r="A34" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="104">
+      <c r="B34" s="105">
         <v>19</v>
       </c>
-      <c r="C34" s="104">
+      <c r="C34" s="105">
         <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A35" s="104" t="s">
+      <c r="A35" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="104">
+      <c r="B35" s="105">
         <v>16</v>
       </c>
-      <c r="C35" s="104">
+      <c r="C35" s="105">
         <v>16</v>
       </c>
     </row>
@@ -8506,16 +8478,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="104" t="s">
+      <c r="C1" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="104" t="s">
+      <c r="D1" s="105" t="s">
         <v>34</v>
       </c>
       <c r="G1" s="17" t="s">
@@ -8533,7 +8505,7 @@
       <c r="K1" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="104">
+      <c r="N1" s="105">
         <v>0.1</v>
       </c>
       <c r="P1" s="17" t="s">
@@ -8541,36 +8513,36 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="104">
+      <c r="B2" s="105">
         <f>ABS(-5.5)</f>
         <v>5.5</v>
       </c>
-      <c r="C2" s="104">
+      <c r="C2" s="105">
         <v>5.5</v>
       </c>
-      <c r="D2" s="104">
+      <c r="D2" s="105">
         <f t="shared" ref="D2:D33" si="0">IF(B2=C2,1,0)</f>
         <v>1</v>
       </c>
-      <c r="G2" s="104" t="s">
+      <c r="G2" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="104">
+      <c r="H2" s="105">
         <v>26</v>
       </c>
-      <c r="I2" s="104">
+      <c r="I2" s="105">
         <v>1204.7</v>
       </c>
-      <c r="J2" s="104">
+      <c r="J2" s="105">
         <v>25618</v>
       </c>
-      <c r="K2" s="104">
+      <c r="K2" s="105">
         <v>5</v>
       </c>
-      <c r="N2" s="104">
+      <c r="N2" s="105">
         <v>0.2</v>
       </c>
       <c r="P2">
@@ -8587,36 +8559,36 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="104">
+      <c r="B3" s="105">
         <f>ACOS(1)</f>
         <v>0</v>
       </c>
-      <c r="C3" s="104">
+      <c r="C3" s="105">
         <v>0</v>
       </c>
-      <c r="D3" s="104">
+      <c r="D3" s="105">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G3" s="104" t="s">
+      <c r="G3" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="104">
+      <c r="H3" s="105">
         <v>13</v>
       </c>
-      <c r="I3" s="104">
+      <c r="I3" s="105">
         <v>500.9</v>
       </c>
-      <c r="J3" s="104">
+      <c r="J3" s="105">
         <v>23000</v>
       </c>
-      <c r="K3" s="104">
+      <c r="K3" s="105">
         <v>7</v>
       </c>
-      <c r="N3" s="104">
+      <c r="N3" s="105">
         <v>0.4</v>
       </c>
       <c r="P3">
@@ -8633,36 +8605,36 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="104">
+      <c r="B4" s="105">
         <f>ROUND(ACOSH(2),5)</f>
         <v>1.3169599999999999</v>
       </c>
-      <c r="C4" s="104">
+      <c r="C4" s="105">
         <v>1.3169599999999999</v>
       </c>
-      <c r="D4" s="104">
+      <c r="D4" s="105">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G4" s="104" t="s">
+      <c r="G4" s="105" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="104">
+      <c r="H4" s="105">
         <v>26</v>
       </c>
-      <c r="I4" s="104">
+      <c r="I4" s="105">
         <v>252.4</v>
       </c>
-      <c r="J4" s="104">
+      <c r="J4" s="105">
         <v>110120.5</v>
       </c>
-      <c r="K4" s="104">
+      <c r="K4" s="105">
         <v>3</v>
       </c>
-      <c r="N4" s="104">
+      <c r="N4" s="105">
         <v>0.5</v>
       </c>
       <c r="P4">
@@ -8679,36 +8651,36 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="104">
+      <c r="B5" s="105">
         <f>ROUND(_xlfn.ACOT(1),5)</f>
         <v>0.78539999999999999</v>
       </c>
-      <c r="C5" s="104">
+      <c r="C5" s="105">
         <v>0.78539999999999999</v>
       </c>
-      <c r="D5" s="104">
+      <c r="D5" s="105">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G5" s="104" t="s">
+      <c r="G5" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="104">
+      <c r="H5" s="105">
         <v>42</v>
       </c>
-      <c r="I5" s="104">
+      <c r="I5" s="105">
         <v>4701.3</v>
       </c>
-      <c r="J5" s="104">
+      <c r="J5" s="105">
         <v>50024</v>
       </c>
-      <c r="K5" s="104">
+      <c r="K5" s="105">
         <v>4</v>
       </c>
-      <c r="N5" s="104">
+      <c r="N5" s="105">
         <v>0.6</v>
       </c>
       <c r="P5">
@@ -8725,36 +8697,36 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="105" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="104">
+      <c r="B6" s="105">
         <f>ROUND(_xlfn.ACOTH(2),5)</f>
         <v>0.54930999999999996</v>
       </c>
-      <c r="C6" s="104">
+      <c r="C6" s="105">
         <v>0.54930999999999996</v>
       </c>
-      <c r="D6" s="104">
+      <c r="D6" s="105">
         <f>IF(B6=C6,1,0)</f>
         <v>1</v>
       </c>
-      <c r="G6" s="104" t="s">
+      <c r="G6" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="H6" s="104">
+      <c r="H6" s="105">
         <v>9</v>
       </c>
-      <c r="I6" s="104">
+      <c r="I6" s="105">
         <v>12.1</v>
       </c>
-      <c r="J6" s="104">
+      <c r="J6" s="105">
         <v>2</v>
       </c>
-      <c r="K6" s="104">
+      <c r="K6" s="105">
         <v>1000</v>
       </c>
-      <c r="N6" s="104" t="s">
+      <c r="N6" s="105" t="s">
         <v>51</v>
       </c>
       <c r="P6">
@@ -8771,151 +8743,151 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="105" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="104" t="b">
+      <c r="B7" s="105" t="b">
         <f>AND(TRUE,TRUE)</f>
         <v>1</v>
       </c>
-      <c r="C7" s="104" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" s="104">
+      <c r="C7" s="105" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="105">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G7" s="104" t="s">
+      <c r="G7" s="105" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="104">
+      <c r="H7" s="105">
         <v>27</v>
       </c>
-      <c r="I7" s="104">
+      <c r="I7" s="105">
         <v>4000</v>
       </c>
-      <c r="J7" s="104">
+      <c r="J7" s="105">
         <v>189576</v>
       </c>
-      <c r="K7" s="104">
+      <c r="K7" s="105">
         <v>2</v>
       </c>
-      <c r="N7" s="104" t="b">
+      <c r="N7" s="105" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="105" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="104">
+      <c r="B8" s="105">
         <f>ROUND(ASIN(0.5),5)</f>
         <v>0.52359999999999995</v>
       </c>
-      <c r="C8" s="104">
+      <c r="C8" s="105">
         <v>0.52359999999999995</v>
       </c>
-      <c r="D8" s="104">
+      <c r="D8" s="105">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G8" s="104" t="s">
+      <c r="G8" s="105" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="104">
+      <c r="H8" s="105">
         <v>30</v>
       </c>
-      <c r="I8" s="104">
+      <c r="I8" s="105">
         <v>12052</v>
       </c>
-      <c r="J8" s="104">
+      <c r="J8" s="105">
         <v>256018</v>
       </c>
-      <c r="K8" s="104">
-        <v>1</v>
-      </c>
-      <c r="N8" s="104" t="b">
+      <c r="K8" s="105">
+        <v>1</v>
+      </c>
+      <c r="N8" s="105" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A9" s="104" t="s">
+      <c r="A9" s="105" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="104">
+      <c r="B9" s="105">
         <f>ROUND(ASINH(2),5)</f>
         <v>1.44364</v>
       </c>
-      <c r="C9" s="104">
+      <c r="C9" s="105">
         <v>1.44364</v>
       </c>
-      <c r="D9" s="104">
+      <c r="D9" s="105">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G9" s="104" t="s">
+      <c r="G9" s="105" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="104">
+      <c r="H9" s="105">
         <v>37</v>
       </c>
-      <c r="I9" s="104">
+      <c r="I9" s="105">
         <v>4890.1000000000004</v>
       </c>
-      <c r="J9" s="104">
+      <c r="J9" s="105">
         <v>5000</v>
       </c>
-      <c r="K9" s="104">
+      <c r="K9" s="105">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A10" s="104" t="s">
+      <c r="A10" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="104">
+      <c r="B10" s="105">
         <f>ROUND(ATAN(1),5)</f>
         <v>0.78539999999999999</v>
       </c>
-      <c r="C10" s="104">
+      <c r="C10" s="105">
         <v>0.78539999999999999</v>
       </c>
-      <c r="D10" s="104">
+      <c r="D10" s="105">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A11" s="104" t="s">
+      <c r="A11" s="105" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="104">
+      <c r="B11" s="105">
         <f>ROUND(ATAN2(-1,0),5)</f>
         <v>3.1415899999999999</v>
       </c>
-      <c r="C11" s="104">
+      <c r="C11" s="105">
         <v>3.1415899999999999</v>
       </c>
-      <c r="D11" s="104">
+      <c r="D11" s="105">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G11" s="104" t="s">
+      <c r="G11" s="105" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A12" s="104" t="s">
+      <c r="A12" s="105" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="104">
+      <c r="B12" s="105">
         <f>ROUND(ATANH(0.7),5)</f>
         <v>0.86729999999999996</v>
       </c>
-      <c r="C12" s="104">
+      <c r="C12" s="105">
         <v>0.86729999999999996</v>
       </c>
-      <c r="D12" s="104">
+      <c r="D12" s="105">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -8936,457 +8908,457 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A13" s="104" t="s">
+      <c r="A13" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="104">
+      <c r="B13" s="105">
         <f>ROUND(AVEDEV(I2:I9),5)</f>
         <v>2959.1624999999999</v>
       </c>
-      <c r="C13" s="104">
+      <c r="C13" s="105">
         <v>2959.1624999999999</v>
       </c>
-      <c r="D13" s="104">
+      <c r="D13" s="105">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G13" s="104" t="s">
+      <c r="G13" s="105" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="104" t="s">
+      <c r="H13" s="105" t="s">
         <v>63</v>
       </c>
-      <c r="I13" s="104" t="s">
+      <c r="I13" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="J13" s="104" t="s">
+      <c r="J13" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="K13" s="104" t="s">
+      <c r="K13" s="105" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A14" s="104" t="s">
+      <c r="A14" s="105" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="104">
+      <c r="B14" s="105">
         <f>ROUND(AVERAGE(H2:H9),5)</f>
         <v>26.25</v>
       </c>
-      <c r="C14" s="104">
+      <c r="C14" s="105">
         <v>26.25</v>
       </c>
-      <c r="D14" s="104">
+      <c r="D14" s="105">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A15" s="104" t="s">
+      <c r="A15" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="104">
+      <c r="B15" s="105">
         <f>AVERAGEA(G2:H9)</f>
         <v>13.125</v>
       </c>
-      <c r="C15" s="104">
+      <c r="C15" s="105">
         <v>13.125</v>
       </c>
-      <c r="D15" s="104">
+      <c r="D15" s="105">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A16" s="104" t="s">
+      <c r="A16" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="104">
+      <c r="B16" s="105">
         <f>ROUND(AVERAGEIF(J2:J9,"&gt;150000"),5)</f>
         <v>222797</v>
       </c>
-      <c r="C16" s="104">
+      <c r="C16" s="105">
         <v>222797</v>
       </c>
-      <c r="D16" s="104">
+      <c r="D16" s="105">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A17" s="104" t="s">
+      <c r="A17" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="104">
+      <c r="B17" s="105">
         <f>ROUND(AVERAGEIFS(I2:I9,H2:H9,"&gt;=30",K2:K9,"&lt;10"),5)</f>
         <v>8376.65</v>
       </c>
-      <c r="C17" s="104">
+      <c r="C17" s="105">
         <v>8376.65</v>
       </c>
-      <c r="D17" s="104">
+      <c r="D17" s="105">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A18" s="104" t="s">
+      <c r="A18" s="105" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="104">
+      <c r="B18" s="105">
         <f>CEILING(20.4,1)</f>
         <v>21</v>
       </c>
-      <c r="C18" s="104">
+      <c r="C18" s="105">
         <v>21</v>
       </c>
-      <c r="D18" s="104">
+      <c r="D18" s="105">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A19" s="104" t="s">
+      <c r="A19" s="105" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="104">
+      <c r="B19" s="105">
         <f>_xlfn.CEILING.MATH(-5.5,1,0)</f>
         <v>-5</v>
       </c>
-      <c r="C19" s="104">
+      <c r="C19" s="105">
         <v>-5</v>
       </c>
-      <c r="D19" s="104">
+      <c r="D19" s="105">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A20" s="104" t="s">
+      <c r="A20" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="104">
+      <c r="B20" s="105">
         <f>_xlfn.CEILING.PRECISE(230,100)</f>
         <v>300</v>
       </c>
-      <c r="C20" s="104">
+      <c r="C20" s="105">
         <v>300</v>
       </c>
-      <c r="D20" s="104">
+      <c r="D20" s="105">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A21" s="104" t="s">
+      <c r="A21" s="105" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="104" t="str">
+      <c r="B21" s="105" t="str">
         <f>CHAR(74)</f>
         <v>J</v>
       </c>
-      <c r="C21" s="104" t="s">
+      <c r="C21" s="105" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="104">
+      <c r="D21" s="105">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A22" s="104" t="s">
+      <c r="A22" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="B22" s="104">
+      <c r="B22" s="105">
         <f>COLUMN(C4)</f>
         <v>3</v>
       </c>
-      <c r="C22" s="104">
+      <c r="C22" s="105">
         <v>3</v>
       </c>
-      <c r="D22" s="104">
+      <c r="D22" s="105">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A23" s="104" t="s">
+      <c r="A23" s="105" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="104">
+      <c r="B23" s="105">
         <f>COLUMNS(A5:D12)</f>
         <v>4</v>
       </c>
-      <c r="C23" s="104">
+      <c r="C23" s="105">
         <v>4</v>
       </c>
-      <c r="D23" s="104">
+      <c r="D23" s="105">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A24" s="104" t="s">
+      <c r="A24" s="105" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="104" t="str">
+      <c r="B24" s="105" t="str">
         <f>_xlfn.CONCAT(1,23)</f>
         <v>123</v>
       </c>
-      <c r="C24" s="104" t="str">
+      <c r="C24" s="105" t="str">
         <f>"123"</f>
         <v>123</v>
       </c>
-      <c r="D24" s="104">
+      <c r="D24" s="105">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A25" s="104" t="s">
+      <c r="A25" s="105" t="s">
         <v>79</v>
       </c>
-      <c r="B25" s="104" t="str">
+      <c r="B25" s="105" t="str">
         <f>CONCATENATE("BUT, ","MICHEL")</f>
         <v>BUT, MICHEL</v>
       </c>
-      <c r="C25" s="104" t="s">
+      <c r="C25" s="105" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="104">
+      <c r="D25" s="105">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A26" s="104" t="s">
+      <c r="A26" s="105" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="104">
+      <c r="B26" s="105">
         <f>ROUND(COS(PI()/3),2)</f>
         <v>0.5</v>
       </c>
-      <c r="C26" s="104">
+      <c r="C26" s="105">
         <v>0.5</v>
       </c>
-      <c r="D26" s="104">
+      <c r="D26" s="105">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A27" s="104" t="s">
+      <c r="A27" s="105" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="104">
+      <c r="B27" s="105">
         <f>ROUND(COSH(2),5)</f>
         <v>3.7622</v>
       </c>
-      <c r="C27" s="104">
+      <c r="C27" s="105">
         <v>3.7622</v>
       </c>
-      <c r="D27" s="104">
+      <c r="D27" s="105">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A28" s="104" t="s">
+      <c r="A28" s="105" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="104">
+      <c r="B28" s="105">
         <f>ROUND(_xlfn.COT(PI()/6),5)</f>
         <v>1.7320500000000001</v>
       </c>
-      <c r="C28" s="104">
+      <c r="C28" s="105">
         <f>ROUND(SQRT(3),5)</f>
         <v>1.7320500000000001</v>
       </c>
-      <c r="D28" s="104">
+      <c r="D28" s="105">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A29" s="104" t="s">
+      <c r="A29" s="105" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="104">
+      <c r="B29" s="105">
         <f>ROUND(_xlfn.COTH(0.5),5)</f>
         <v>2.1639499999999998</v>
       </c>
-      <c r="C29" s="104">
+      <c r="C29" s="105">
         <v>2.1639499999999998</v>
       </c>
-      <c r="D29" s="104">
+      <c r="D29" s="105">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A30" s="104" t="s">
+      <c r="A30" s="105" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="104">
+      <c r="B30" s="105">
         <f>COUNT(1,"a","5","2021-03-14")</f>
         <v>3</v>
       </c>
-      <c r="C30" s="104">
+      <c r="C30" s="105">
         <v>2</v>
       </c>
-      <c r="D30" s="104">
+      <c r="D30" s="105">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A31" s="104" t="s">
+      <c r="A31" s="105" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="104">
+      <c r="B31" s="105">
         <f>COUNTA(1,"a","5","2021-03-14")</f>
         <v>4</v>
       </c>
-      <c r="C31" s="104">
+      <c r="C31" s="105">
         <v>4</v>
       </c>
-      <c r="D31" s="104">
+      <c r="D31" s="105">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A32" s="104" t="s">
+      <c r="A32" s="105" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="104">
+      <c r="B32" s="105">
         <f>COUNTBLANK(F1:G1)</f>
         <v>1</v>
       </c>
-      <c r="C32" s="104">
-        <v>1</v>
-      </c>
-      <c r="D32" s="104">
+      <c r="C32" s="105">
+        <v>1</v>
+      </c>
+      <c r="D32" s="105">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A33" s="104" t="s">
+      <c r="A33" s="105" t="s">
         <v>88</v>
       </c>
-      <c r="B33" s="104">
+      <c r="B33" s="105">
         <f>COUNTIF(H2:H9,"&gt;30")</f>
         <v>2</v>
       </c>
-      <c r="C33" s="104">
+      <c r="C33" s="105">
         <v>2</v>
       </c>
-      <c r="D33" s="104">
+      <c r="D33" s="105">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A34" s="104" t="s">
+      <c r="A34" s="105" t="s">
         <v>89</v>
       </c>
-      <c r="B34" s="104">
+      <c r="B34" s="105">
         <f>COUNTIFS(H2:H9,"&gt;25",K2:K9,"&lt;4")</f>
         <v>3</v>
       </c>
-      <c r="C34" s="104">
+      <c r="C34" s="105">
         <v>3</v>
       </c>
-      <c r="D34" s="104">
+      <c r="D34" s="105">
         <f t="shared" ref="D34:D65" si="4">IF(B34=C34,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A35" s="104" t="s">
+      <c r="A35" s="105" t="s">
         <v>90</v>
       </c>
-      <c r="B35" s="104">
+      <c r="B35" s="105">
         <f>ROUND(COVAR(H2:H9,K2:K9),5)</f>
         <v>-2119.25</v>
       </c>
-      <c r="C35" s="104">
+      <c r="C35" s="105">
         <v>-2119.25</v>
       </c>
-      <c r="D35" s="104">
+      <c r="D35" s="105">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A36" s="104" t="s">
+      <c r="A36" s="105" t="s">
         <v>91</v>
       </c>
-      <c r="B36" s="104">
+      <c r="B36" s="105">
         <f>ROUND(_xlfn.COVARIANCE.P(K2:K9,H2:H9),5)</f>
         <v>-2119.25</v>
       </c>
-      <c r="C36" s="104">
+      <c r="C36" s="105">
         <v>-2119.25</v>
       </c>
-      <c r="D36" s="104">
+      <c r="D36" s="105">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A37" s="104" t="s">
+      <c r="A37" s="105" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="104">
+      <c r="B37" s="105">
         <f>ROUND(_xlfn.COVARIANCE.P(I2:I9,J2:J9),5)</f>
         <v>237217364.71641001</v>
       </c>
-      <c r="C37" s="104">
+      <c r="C37" s="105">
         <v>237217364.71641001</v>
       </c>
-      <c r="D37" s="104">
+      <c r="D37" s="105">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A38" s="104" t="s">
+      <c r="A38" s="105" t="s">
         <v>93</v>
       </c>
-      <c r="B38" s="104">
+      <c r="B38" s="105">
         <f>ROUND(_xlfn.CSC(PI()/4),5)</f>
         <v>1.41421</v>
       </c>
-      <c r="C38" s="104">
+      <c r="C38" s="105">
         <f>ROUND(SQRT(2),5)</f>
         <v>1.41421</v>
       </c>
-      <c r="D38" s="104">
+      <c r="D38" s="105">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A39" s="104" t="s">
+      <c r="A39" s="105" t="s">
         <v>94</v>
       </c>
-      <c r="B39" s="104">
+      <c r="B39" s="105">
         <f>ROUND(_xlfn.CSCH(PI()/3),5)</f>
         <v>0.80040999999999995</v>
       </c>
-      <c r="C39" s="104">
+      <c r="C39" s="105">
         <v>0.80040999999999995</v>
       </c>
-      <c r="D39" s="104">
+      <c r="D39" s="105">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A40" s="104" t="s">
+      <c r="A40" s="105" t="s">
         <v>95</v>
       </c>
       <c r="B40" s="18">
@@ -9396,287 +9368,287 @@
       <c r="C40" s="18">
         <v>43976</v>
       </c>
-      <c r="D40" s="104">
+      <c r="D40" s="105">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A41" s="104" t="s">
+      <c r="A41" s="105" t="s">
         <v>96</v>
       </c>
-      <c r="B41" s="104">
+      <c r="B41" s="105">
         <f>DATEVALUE("1969-08-15")</f>
         <v>25430</v>
       </c>
-      <c r="C41" s="104">
+      <c r="C41" s="105">
         <v>25430</v>
       </c>
-      <c r="D41" s="104">
+      <c r="D41" s="105">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A42" s="104" t="s">
+      <c r="A42" s="105" t="s">
         <v>97</v>
       </c>
-      <c r="B42" s="104">
+      <c r="B42" s="105">
         <f>ROUND(DAVERAGE(G1:K9,"Tot. Score",J12:J13),5)</f>
         <v>151434.625</v>
       </c>
-      <c r="C42" s="104">
+      <c r="C42" s="105">
         <v>151434.625</v>
       </c>
-      <c r="D42" s="104">
+      <c r="D42" s="105">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A43" s="104" t="s">
+      <c r="A43" s="105" t="s">
         <v>98</v>
       </c>
-      <c r="B43" s="104">
+      <c r="B43" s="105">
         <f>DAY("2020-03-17")</f>
         <v>17</v>
       </c>
-      <c r="C43" s="104">
+      <c r="C43" s="105">
         <v>17</v>
       </c>
-      <c r="D43" s="104">
+      <c r="D43" s="105">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A44" s="104" t="s">
+      <c r="A44" s="105" t="s">
         <v>99</v>
       </c>
-      <c r="B44" s="104">
+      <c r="B44" s="105">
         <f>_xlfn.DAYS("2022-03-17","2021-03-17")</f>
         <v>365</v>
       </c>
-      <c r="C44" s="104">
+      <c r="C44" s="105">
         <v>365</v>
       </c>
-      <c r="D44" s="104">
+      <c r="D44" s="105">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A45" s="104" t="s">
+      <c r="A45" s="105" t="s">
         <v>100</v>
       </c>
-      <c r="B45" s="104">
+      <c r="B45" s="105">
         <f>DCOUNT(G1:K9,"Name",H12:H13)</f>
         <v>0</v>
       </c>
-      <c r="C45" s="104">
+      <c r="C45" s="105">
         <v>0</v>
       </c>
-      <c r="D45" s="104">
+      <c r="D45" s="105">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A46" s="104" t="s">
+      <c r="A46" s="105" t="s">
         <v>101</v>
       </c>
-      <c r="B46" s="104">
+      <c r="B46" s="105">
         <f>DCOUNTA(G1:K9,"Name",H12:H13)</f>
         <v>3</v>
       </c>
-      <c r="C46" s="104">
+      <c r="C46" s="105">
         <v>3</v>
       </c>
-      <c r="D46" s="104">
+      <c r="D46" s="105">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A47" s="104" t="s">
+      <c r="A47" s="105" t="s">
         <v>102</v>
       </c>
-      <c r="B47" s="104">
+      <c r="B47" s="105">
         <f>_xlfn.DECIMAL(20,16)</f>
         <v>32</v>
       </c>
-      <c r="C47" s="104">
+      <c r="C47" s="105">
         <v>32</v>
       </c>
-      <c r="D47" s="104">
+      <c r="D47" s="105">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A48" s="104" t="s">
+      <c r="A48" s="105" t="s">
         <v>103</v>
       </c>
-      <c r="B48" s="104">
+      <c r="B48" s="105">
         <f>DEGREES(PI()/4)</f>
         <v>45</v>
       </c>
-      <c r="C48" s="104">
+      <c r="C48" s="105">
         <v>45</v>
       </c>
-      <c r="D48" s="104">
+      <c r="D48" s="105">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A49" s="104" t="s">
+      <c r="A49" s="105" t="s">
         <v>104</v>
       </c>
-      <c r="B49" s="104">
+      <c r="B49" s="105">
         <f>DGET(G1:K9,"Hours Played",G12:G13)</f>
         <v>252.4</v>
       </c>
-      <c r="C49" s="104">
+      <c r="C49" s="105">
         <v>252.4</v>
       </c>
-      <c r="D49" s="104">
+      <c r="D49" s="105">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A50" s="104" t="s">
+      <c r="A50" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="B50" s="104">
+      <c r="B50" s="105">
         <f>DMAX(G1:K9,"Tot. Score",I12:I13)</f>
         <v>189576</v>
       </c>
-      <c r="C50" s="104">
+      <c r="C50" s="105">
         <f>J7</f>
         <v>189576</v>
       </c>
-      <c r="D50" s="104">
+      <c r="D50" s="105">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A51" s="104" t="s">
+      <c r="A51" s="105" t="s">
         <v>106</v>
       </c>
-      <c r="B51" s="104">
+      <c r="B51" s="105">
         <f>DMIN(G1:K9,"Tot. Score",H12:H13)</f>
         <v>5000</v>
       </c>
-      <c r="C51" s="104">
+      <c r="C51" s="105">
         <f>J9</f>
         <v>5000</v>
       </c>
-      <c r="D51" s="104">
+      <c r="D51" s="105">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A52" s="104" t="s">
+      <c r="A52" s="105" t="s">
         <v>107</v>
       </c>
-      <c r="B52" s="104">
+      <c r="B52" s="105">
         <f>DPRODUCT(G1:K9,"Age",K12:K13)</f>
         <v>333</v>
       </c>
-      <c r="C52" s="104">
+      <c r="C52" s="105">
         <v>333</v>
       </c>
-      <c r="D52" s="104">
+      <c r="D52" s="105">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A53" s="104" t="s">
+      <c r="A53" s="105" t="s">
         <v>108</v>
       </c>
-      <c r="B53" s="104">
+      <c r="B53" s="105">
         <f>ROUND(DSTDEV(G1:K9,"Age",H12:H13),5)</f>
         <v>6.0277099999999999</v>
       </c>
-      <c r="C53" s="104">
+      <c r="C53" s="105">
         <v>6.0277099999999999</v>
       </c>
-      <c r="D53" s="104">
+      <c r="D53" s="105">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A54" s="104" t="s">
+      <c r="A54" s="105" t="s">
         <v>109</v>
       </c>
-      <c r="B54" s="104">
+      <c r="B54" s="105">
         <f>ROUND(DSTDEVP(G1:K9,"Age",H12:H13),5)</f>
         <v>4.9216100000000003</v>
       </c>
-      <c r="C54" s="104">
+      <c r="C54" s="105">
         <v>4.9216100000000003</v>
       </c>
-      <c r="D54" s="104">
+      <c r="D54" s="105">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A55" s="104" t="s">
+      <c r="A55" s="105" t="s">
         <v>110</v>
       </c>
-      <c r="B55" s="104">
+      <c r="B55" s="105">
         <f>DSUM(G1:K9,"Age",I12:I13)</f>
         <v>101</v>
       </c>
-      <c r="C55" s="104">
+      <c r="C55" s="105">
         <v>101</v>
       </c>
-      <c r="D55" s="104">
+      <c r="D55" s="105">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A56" s="104" t="s">
+      <c r="A56" s="105" t="s">
         <v>111</v>
       </c>
-      <c r="B56" s="104">
+      <c r="B56" s="105">
         <f>ROUND(DVAR(G1:K9,"Hours Played",H12:H13),5)</f>
         <v>17560207.923330002</v>
       </c>
-      <c r="C56" s="104">
+      <c r="C56" s="105">
         <v>17560207.923330002</v>
       </c>
-      <c r="D56" s="104">
+      <c r="D56" s="105">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A57" s="104" t="s">
+      <c r="A57" s="105" t="s">
         <v>112</v>
       </c>
-      <c r="B57" s="104">
+      <c r="B57" s="105">
         <f>ROUND(DVARP(G1:K9,"Hours Played",H12:H13),5)</f>
         <v>11706805.28222</v>
       </c>
-      <c r="C57" s="104">
+      <c r="C57" s="105">
         <v>11706805.28222</v>
       </c>
-      <c r="D57" s="104">
+      <c r="D57" s="105">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A58" s="104" t="s">
+      <c r="A58" s="105" t="s">
         <v>113</v>
       </c>
       <c r="B58" s="18">
@@ -9686,13 +9658,13 @@
       <c r="C58" s="18">
         <v>25345</v>
       </c>
-      <c r="D58" s="104">
+      <c r="D58" s="105">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A59" s="104" t="s">
+      <c r="A59" s="105" t="s">
         <v>114</v>
       </c>
       <c r="B59" s="18">
@@ -9702,1311 +9674,1311 @@
       <c r="C59" s="18">
         <v>44074</v>
       </c>
-      <c r="D59" s="104">
+      <c r="D59" s="105">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A60" s="104" t="s">
+      <c r="A60" s="105" t="s">
         <v>115</v>
       </c>
-      <c r="B60" s="104" t="b">
+      <c r="B60" s="105" t="b">
         <f>EXACT("AbsSdf%","AbsSdf%")</f>
         <v>1</v>
       </c>
-      <c r="C60" s="104" t="b">
-        <v>1</v>
-      </c>
-      <c r="D60" s="104">
+      <c r="C60" s="105" t="b">
+        <v>1</v>
+      </c>
+      <c r="D60" s="105">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A61" s="104" t="s">
+      <c r="A61" s="105" t="s">
         <v>116</v>
       </c>
-      <c r="B61" s="104">
+      <c r="B61" s="105">
         <f>ROUND(EXP(4),5)</f>
         <v>54.598149999999997</v>
       </c>
-      <c r="C61" s="104">
+      <c r="C61" s="105">
         <v>54.598149999999997</v>
       </c>
-      <c r="D61" s="104">
+      <c r="D61" s="105">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A62" s="104" t="s">
+      <c r="A62" s="105" t="s">
         <v>117</v>
       </c>
-      <c r="B62" s="104">
+      <c r="B62" s="105">
         <f>FIND("A","qbdahbaazo A")</f>
         <v>12</v>
       </c>
-      <c r="C62" s="104">
+      <c r="C62" s="105">
         <v>12</v>
       </c>
-      <c r="D62" s="104">
+      <c r="D62" s="105">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A63" s="104" t="s">
+      <c r="A63" s="105" t="s">
         <v>118</v>
       </c>
-      <c r="B63" s="104">
+      <c r="B63" s="105">
         <f>FLOOR(5.5,2)</f>
         <v>4</v>
       </c>
-      <c r="C63" s="104">
+      <c r="C63" s="105">
         <v>4</v>
       </c>
-      <c r="D63" s="104">
+      <c r="D63" s="105">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A64" s="104" t="s">
+      <c r="A64" s="105" t="s">
         <v>119</v>
       </c>
-      <c r="B64" s="104">
+      <c r="B64" s="105">
         <f>_xlfn.FLOOR.MATH(-5.55,2,1)</f>
         <v>-4</v>
       </c>
-      <c r="C64" s="104">
+      <c r="C64" s="105">
         <v>-4</v>
       </c>
-      <c r="D64" s="104">
+      <c r="D64" s="105">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A65" s="104" t="s">
+      <c r="A65" s="105" t="s">
         <v>120</v>
       </c>
-      <c r="B65" s="104">
+      <c r="B65" s="105">
         <f>_xlfn.FLOOR.PRECISE(199,100)</f>
         <v>100</v>
       </c>
-      <c r="C65" s="104">
+      <c r="C65" s="105">
         <v>100</v>
       </c>
-      <c r="D65" s="104">
+      <c r="D65" s="105">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A66" s="104" t="s">
+      <c r="A66" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="B66" s="104">
+      <c r="B66" s="105">
         <f>HLOOKUP("Tot. Score",H1:K9,4,FALSE)</f>
         <v>110120.5</v>
       </c>
-      <c r="C66" s="104">
+      <c r="C66" s="105">
         <v>110120.5</v>
       </c>
-      <c r="D66" s="104">
+      <c r="D66" s="105">
         <f t="shared" ref="D66:D97" si="5">IF(B66=C66,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A67" s="104" t="s">
+      <c r="A67" s="105" t="s">
         <v>122</v>
       </c>
-      <c r="B67" s="104">
+      <c r="B67" s="105">
         <f>HOUR("02:14:56")</f>
         <v>2</v>
       </c>
-      <c r="C67" s="104">
+      <c r="C67" s="105">
         <v>2</v>
       </c>
-      <c r="D67" s="104">
+      <c r="D67" s="105">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A68" s="104" t="s">
+      <c r="A68" s="105" t="s">
         <v>123</v>
       </c>
-      <c r="B68" s="104" t="str">
+      <c r="B68" s="105" t="str">
         <f>IF(TRUE,"TABOURET","JAMBON")</f>
         <v>TABOURET</v>
       </c>
-      <c r="C68" s="104" t="s">
+      <c r="C68" s="105" t="s">
         <v>124</v>
       </c>
-      <c r="D68" s="104">
+      <c r="D68" s="105">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A69" s="104" t="s">
+      <c r="A69" s="105" t="s">
         <v>125</v>
       </c>
-      <c r="B69" s="104" t="str">
+      <c r="B69" s="105" t="str">
         <f>IFERROR(0/0,"no diving by zero.")</f>
         <v>no diving by zero.</v>
       </c>
-      <c r="C69" s="104" t="s">
+      <c r="C69" s="105" t="s">
         <v>126</v>
       </c>
-      <c r="D69" s="104">
+      <c r="D69" s="105">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A70" s="104" t="s">
+      <c r="A70" s="105" t="s">
         <v>127</v>
       </c>
-      <c r="B70" s="104" t="str">
+      <c r="B70" s="105" t="str">
         <f>_xlfn.IFS($H2&gt;$H3,"first player is older",$H3&gt;$H2,"second player is older")</f>
         <v>first player is older</v>
       </c>
-      <c r="C70" s="104" t="s">
+      <c r="C70" s="105" t="s">
         <v>128</v>
       </c>
-      <c r="D70" s="104">
+      <c r="D70" s="105">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A71" s="104" t="s">
+      <c r="A71" s="105" t="s">
         <v>129</v>
       </c>
-      <c r="B71" s="104" t="b">
+      <c r="B71" s="105" t="b">
         <f>ISERROR(0/0)</f>
         <v>1</v>
       </c>
-      <c r="C71" s="104" t="b">
-        <v>1</v>
-      </c>
-      <c r="D71" s="104">
+      <c r="C71" s="105" t="b">
+        <v>1</v>
+      </c>
+      <c r="D71" s="105">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A72" s="104" t="s">
+      <c r="A72" s="105" t="s">
         <v>130</v>
       </c>
-      <c r="B72" s="104" t="b">
+      <c r="B72" s="105" t="b">
         <f>ISEVEN(3)</f>
         <v>0</v>
       </c>
-      <c r="C72" s="104" t="b">
+      <c r="C72" s="105" t="b">
         <v>0</v>
       </c>
-      <c r="D72" s="104">
+      <c r="D72" s="105">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A73" s="104" t="s">
+      <c r="A73" s="105" t="s">
         <v>131</v>
       </c>
-      <c r="B73" s="104" t="b">
+      <c r="B73" s="105" t="b">
         <f>ISLOGICAL("TRUE")</f>
         <v>0</v>
       </c>
-      <c r="C73" s="104" t="b">
+      <c r="C73" s="105" t="b">
         <v>0</v>
       </c>
-      <c r="D73" s="104">
+      <c r="D73" s="105">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A74" s="104" t="s">
+      <c r="A74" s="105" t="s">
         <v>132</v>
       </c>
-      <c r="B74" s="104" t="b">
+      <c r="B74" s="105" t="b">
         <f>ISNONTEXT(TRUE)</f>
         <v>1</v>
       </c>
-      <c r="C74" s="104" t="b">
-        <v>1</v>
-      </c>
-      <c r="D74" s="104">
+      <c r="C74" s="105" t="b">
+        <v>1</v>
+      </c>
+      <c r="D74" s="105">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A75" s="104" t="s">
+      <c r="A75" s="105" t="s">
         <v>133</v>
       </c>
-      <c r="B75" s="104" t="b">
+      <c r="B75" s="105" t="b">
         <f>ISNUMBER(1231.5)</f>
         <v>1</v>
       </c>
-      <c r="C75" s="104" t="b">
-        <v>1</v>
-      </c>
-      <c r="D75" s="104">
+      <c r="C75" s="105" t="b">
+        <v>1</v>
+      </c>
+      <c r="D75" s="105">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A76" s="104" t="s">
+      <c r="A76" s="105" t="s">
         <v>134</v>
       </c>
-      <c r="B76" s="104">
+      <c r="B76" s="105">
         <f>ISO.CEILING(-7.89)</f>
         <v>-7</v>
       </c>
-      <c r="C76" s="104">
+      <c r="C76" s="105">
         <v>-7</v>
       </c>
-      <c r="D76" s="104">
+      <c r="D76" s="105">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A77" s="104" t="s">
+      <c r="A77" s="105" t="s">
         <v>135</v>
       </c>
-      <c r="B77" s="104" t="b">
+      <c r="B77" s="105" t="b">
         <f>ISODD(4)</f>
         <v>0</v>
       </c>
-      <c r="C77" s="104" t="b">
+      <c r="C77" s="105" t="b">
         <v>0</v>
       </c>
-      <c r="D77" s="104">
+      <c r="D77" s="105">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A78" s="104" t="s">
+      <c r="A78" s="105" t="s">
         <v>136</v>
       </c>
-      <c r="B78" s="104">
+      <c r="B78" s="105">
         <f>_xlfn.ISOWEEKNUM("2016-01-03")</f>
         <v>53</v>
       </c>
-      <c r="C78" s="104">
+      <c r="C78" s="105">
         <v>53</v>
       </c>
-      <c r="D78" s="104">
+      <c r="D78" s="105">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A79" s="104" t="s">
+      <c r="A79" s="105" t="s">
         <v>137</v>
       </c>
-      <c r="B79" s="104" t="b">
+      <c r="B79" s="105" t="b">
         <f>ISTEXT("123")</f>
         <v>1</v>
       </c>
-      <c r="C79" s="104" t="b">
-        <v>1</v>
-      </c>
-      <c r="D79" s="104">
+      <c r="C79" s="105" t="b">
+        <v>1</v>
+      </c>
+      <c r="D79" s="105">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A80" s="104" t="s">
+      <c r="A80" s="105" t="s">
         <v>138</v>
       </c>
-      <c r="B80" s="104">
+      <c r="B80" s="105">
         <f>LARGE(H2:H9,3)</f>
         <v>30</v>
       </c>
-      <c r="C80" s="104">
+      <c r="C80" s="105">
         <v>30</v>
       </c>
-      <c r="D80" s="104">
+      <c r="D80" s="105">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A81" s="104" t="s">
+      <c r="A81" s="105" t="s">
         <v>139</v>
       </c>
-      <c r="B81" s="104" t="str">
+      <c r="B81" s="105" t="str">
         <f>LEFT("Mich",4)</f>
         <v>Mich</v>
       </c>
-      <c r="C81" s="104" t="s">
+      <c r="C81" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="D81" s="104">
+      <c r="D81" s="105">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A82" s="104" t="s">
+      <c r="A82" s="105" t="s">
         <v>141</v>
       </c>
-      <c r="B82" s="104">
+      <c r="B82" s="105">
         <f>LEN("anticonstitutionnellement")</f>
         <v>25</v>
       </c>
-      <c r="C82" s="104">
+      <c r="C82" s="105">
         <v>25</v>
       </c>
-      <c r="D82" s="104">
+      <c r="D82" s="105">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A83" s="104" t="s">
+      <c r="A83" s="105" t="s">
         <v>142</v>
       </c>
-      <c r="B83" s="104">
+      <c r="B83" s="105">
         <f>ROUND(LN(2),5)</f>
         <v>0.69315000000000004</v>
       </c>
-      <c r="C83" s="104">
+      <c r="C83" s="105">
         <v>0.69315000000000004</v>
       </c>
-      <c r="D83" s="104">
+      <c r="D83" s="105">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A84" s="104" t="s">
+      <c r="A84" s="105" t="s">
         <v>143</v>
       </c>
-      <c r="B84" s="104">
+      <c r="B84" s="105">
         <f>LOOKUP(23000,H3:J3,H5:J5)</f>
         <v>50024</v>
       </c>
-      <c r="C84" s="104">
+      <c r="C84" s="105">
         <v>50024</v>
       </c>
-      <c r="D84" s="104">
+      <c r="D84" s="105">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A85" s="104" t="s">
+      <c r="A85" s="105" t="s">
         <v>144</v>
       </c>
-      <c r="B85" s="104" t="str">
+      <c r="B85" s="105" t="str">
         <f>LOWER("オAドB")</f>
         <v>オaドb</v>
       </c>
-      <c r="C85" s="104" t="s">
+      <c r="C85" s="105" t="s">
         <v>145</v>
       </c>
-      <c r="D85" s="104">
+      <c r="D85" s="105">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A86" s="104" t="s">
+      <c r="A86" s="105" t="s">
         <v>146</v>
       </c>
-      <c r="B86" s="104">
+      <c r="B86" s="105">
         <f>MATCH(42,H2:H9,0)</f>
         <v>4</v>
       </c>
-      <c r="C86" s="104">
+      <c r="C86" s="105">
         <v>4</v>
       </c>
-      <c r="D86" s="104">
+      <c r="D86" s="105">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A87" s="104" t="s">
+      <c r="A87" s="105" t="s">
         <v>147</v>
       </c>
-      <c r="B87" s="104">
+      <c r="B87" s="105">
         <f>MAX(N1:N8)</f>
         <v>0.6</v>
       </c>
-      <c r="C87" s="104">
+      <c r="C87" s="105">
         <v>0.6</v>
       </c>
-      <c r="D87" s="104">
+      <c r="D87" s="105">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A88" s="104" t="s">
+      <c r="A88" s="105" t="s">
         <v>148</v>
       </c>
-      <c r="B88" s="104">
+      <c r="B88" s="105">
         <f>MAXA(N1:N8)</f>
         <v>1</v>
       </c>
-      <c r="C88" s="104">
-        <v>1</v>
-      </c>
-      <c r="D88" s="104">
+      <c r="C88" s="105">
+        <v>1</v>
+      </c>
+      <c r="D88" s="105">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A89" s="104" t="s">
+      <c r="A89" s="105" t="s">
         <v>149</v>
       </c>
-      <c r="B89" s="104">
+      <c r="B89" s="105">
         <f>_xlfn.MAXIFS(H2:H9,K2:K9,"&lt;20",K2:K9,"&lt;&gt;4")</f>
         <v>30</v>
       </c>
-      <c r="C89" s="104">
+      <c r="C89" s="105">
         <v>30</v>
       </c>
-      <c r="D89" s="104">
+      <c r="D89" s="105">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A90" s="104" t="s">
+      <c r="A90" s="105" t="s">
         <v>150</v>
       </c>
-      <c r="B90" s="104">
+      <c r="B90" s="105">
         <f>MEDIAN(-1,6,7,234,163845)</f>
         <v>7</v>
       </c>
-      <c r="C90" s="104">
+      <c r="C90" s="105">
         <v>7</v>
       </c>
-      <c r="D90" s="104">
+      <c r="D90" s="105">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A91" s="104" t="s">
+      <c r="A91" s="105" t="s">
         <v>151</v>
       </c>
-      <c r="B91" s="104">
+      <c r="B91" s="105">
         <f>MIN(N1:N8)</f>
         <v>0.1</v>
       </c>
-      <c r="C91" s="104">
+      <c r="C91" s="105">
         <v>0.1</v>
       </c>
-      <c r="D91" s="104">
+      <c r="D91" s="105">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A92" s="104" t="s">
+      <c r="A92" s="105" t="s">
         <v>152</v>
       </c>
-      <c r="B92" s="104">
+      <c r="B92" s="105">
         <f>MINA(N1:N8)</f>
         <v>0</v>
       </c>
-      <c r="C92" s="104">
+      <c r="C92" s="105">
         <v>0</v>
       </c>
-      <c r="D92" s="104">
+      <c r="D92" s="105">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A93" s="104" t="s">
+      <c r="A93" s="105" t="s">
         <v>153</v>
       </c>
-      <c r="B93" s="104">
+      <c r="B93" s="105">
         <f>_xlfn.MINIFS(J2:J9,H2:H9,"&gt;20")</f>
         <v>5000</v>
       </c>
-      <c r="C93" s="104">
+      <c r="C93" s="105">
         <v>5000</v>
       </c>
-      <c r="D93" s="104">
+      <c r="D93" s="105">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A94" s="104" t="s">
+      <c r="A94" s="105" t="s">
         <v>154</v>
       </c>
-      <c r="B94" s="104">
+      <c r="B94" s="105">
         <f>MINUTE(0.126)</f>
         <v>1</v>
       </c>
-      <c r="C94" s="104">
-        <v>1</v>
-      </c>
-      <c r="D94" s="104">
+      <c r="C94" s="105">
+        <v>1</v>
+      </c>
+      <c r="D94" s="105">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A95" s="104" t="s">
+      <c r="A95" s="105" t="s">
         <v>155</v>
       </c>
-      <c r="B95" s="104">
+      <c r="B95" s="105">
         <f>MOD(42,12)</f>
         <v>6</v>
       </c>
-      <c r="C95" s="104">
+      <c r="C95" s="105">
         <v>6</v>
       </c>
-      <c r="D95" s="104">
+      <c r="D95" s="105">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A96" s="104" t="s">
+      <c r="A96" s="105" t="s">
         <v>156</v>
       </c>
-      <c r="B96" s="104">
+      <c r="B96" s="105">
         <f>MONTH("1954-05-02")</f>
         <v>5</v>
       </c>
-      <c r="C96" s="104">
+      <c r="C96" s="105">
         <v>5</v>
       </c>
-      <c r="D96" s="104">
+      <c r="D96" s="105">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A97" s="104" t="s">
+      <c r="A97" s="105" t="s">
         <v>157</v>
       </c>
-      <c r="B97" s="104">
+      <c r="B97" s="105">
         <f>NETWORKDAYS("2013-01-01","2013-02-01")</f>
         <v>24</v>
       </c>
-      <c r="C97" s="104">
+      <c r="C97" s="105">
         <v>24</v>
       </c>
-      <c r="D97" s="104">
+      <c r="D97" s="105">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A98" s="104" t="s">
+      <c r="A98" s="105" t="s">
         <v>158</v>
       </c>
-      <c r="B98" s="104">
+      <c r="B98" s="105">
         <f>NETWORKDAYS.INTL("2013-01-01","2013-02-01","0000111")</f>
         <v>19</v>
       </c>
-      <c r="C98" s="104">
+      <c r="C98" s="105">
         <v>19</v>
       </c>
-      <c r="D98" s="104">
+      <c r="D98" s="105">
         <f t="shared" ref="D98:D99" si="6">IF(B98=C98,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A99" s="104" t="s">
+      <c r="A99" s="105" t="s">
         <v>159</v>
       </c>
-      <c r="B99" s="104" t="b">
+      <c r="B99" s="105" t="b">
         <f>NOT(FALSE)</f>
         <v>1</v>
       </c>
-      <c r="C99" s="104" t="b">
-        <v>1</v>
-      </c>
-      <c r="D99" s="104">
+      <c r="C99" s="105" t="b">
+        <v>1</v>
+      </c>
+      <c r="D99" s="105">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A100" s="104" t="s">
+      <c r="A100" s="105" t="s">
         <v>160</v>
       </c>
       <c r="B100" s="19">
         <f ca="1">NOW()</f>
-        <v>45726.596124884258</v>
-      </c>
-      <c r="D100" s="104">
+        <v>45736.456867129629</v>
+      </c>
+      <c r="D100" s="105">
         <f ca="1">IF(ISNUMBER(B100),1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A101" s="104" t="s">
+      <c r="A101" s="105" t="s">
         <v>161</v>
       </c>
-      <c r="B101" s="104">
+      <c r="B101" s="105">
         <f>ODD(4)</f>
         <v>5</v>
       </c>
-      <c r="C101" s="104">
+      <c r="C101" s="105">
         <v>5</v>
       </c>
-      <c r="D101" s="104">
+      <c r="D101" s="105">
         <f t="shared" ref="D101:D111" si="7">IF(B101=C101,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A102" s="104" t="s">
+      <c r="A102" s="105" t="s">
         <v>162</v>
       </c>
-      <c r="B102" s="104" t="b">
+      <c r="B102" s="105" t="b">
         <f>OR("true",FALSE)</f>
         <v>1</v>
       </c>
-      <c r="C102" s="104" t="b">
-        <v>1</v>
-      </c>
-      <c r="D102" s="104">
+      <c r="C102" s="105" t="b">
+        <v>1</v>
+      </c>
+      <c r="D102" s="105">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A103" s="104" t="s">
+      <c r="A103" s="105" t="s">
         <v>163</v>
       </c>
-      <c r="B103" s="104">
+      <c r="B103" s="105">
         <f>PERCENTILE(N1:N5,1)</f>
         <v>0.6</v>
       </c>
-      <c r="C103" s="104">
+      <c r="C103" s="105">
         <v>0.6</v>
       </c>
-      <c r="D103" s="104">
+      <c r="D103" s="105">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A104" s="104" t="s">
+      <c r="A104" s="105" t="s">
         <v>164</v>
       </c>
-      <c r="B104" s="104">
+      <c r="B104" s="105">
         <f>_xlfn.PERCENTILE.EXC(N1:N5,0.5)</f>
         <v>0.4</v>
       </c>
-      <c r="C104" s="104">
+      <c r="C104" s="105">
         <v>0.4</v>
       </c>
-      <c r="D104" s="104">
+      <c r="D104" s="105">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A105" s="104" t="s">
+      <c r="A105" s="105" t="s">
         <v>165</v>
       </c>
-      <c r="B105" s="104">
+      <c r="B105" s="105">
         <f>_xlfn.PERCENTILE.INC(N1:N5,0)</f>
         <v>0.1</v>
       </c>
-      <c r="C105" s="104">
+      <c r="C105" s="105">
         <v>0.1</v>
       </c>
-      <c r="D105" s="104">
+      <c r="D105" s="105">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A106" s="104" t="s">
+      <c r="A106" s="105" t="s">
         <v>166</v>
       </c>
-      <c r="B106" s="104">
+      <c r="B106" s="105">
         <f>ROUND(PI(),5)</f>
         <v>3.1415899999999999</v>
       </c>
-      <c r="C106" s="104">
+      <c r="C106" s="105">
         <v>3.1415899999999999</v>
       </c>
-      <c r="D106" s="104">
+      <c r="D106" s="105">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A107" s="104" t="s">
+      <c r="A107" s="105" t="s">
         <v>167</v>
       </c>
-      <c r="B107" s="104">
+      <c r="B107" s="105">
         <f>POWER(42,2)</f>
         <v>1764</v>
       </c>
-      <c r="C107" s="104">
+      <c r="C107" s="105">
         <v>1764</v>
       </c>
-      <c r="D107" s="104">
+      <c r="D107" s="105">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A108" s="104" t="s">
+      <c r="A108" s="105" t="s">
         <v>168</v>
       </c>
-      <c r="B108" s="104">
+      <c r="B108" s="105">
         <f>PRODUCT(1,2,3)</f>
         <v>6</v>
       </c>
-      <c r="C108" s="104">
+      <c r="C108" s="105">
         <v>6</v>
       </c>
-      <c r="D108" s="104">
+      <c r="D108" s="105">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A109" s="104" t="s">
+      <c r="A109" s="105" t="s">
         <v>169</v>
       </c>
-      <c r="B109" s="104">
+      <c r="B109" s="105">
         <f>QUARTILE(N1:N5,0)</f>
         <v>0.1</v>
       </c>
-      <c r="C109" s="104">
+      <c r="C109" s="105">
         <v>0.1</v>
       </c>
-      <c r="D109" s="104">
+      <c r="D109" s="105">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A110" s="104" t="s">
+      <c r="A110" s="105" t="s">
         <v>170</v>
       </c>
-      <c r="B110" s="104">
+      <c r="B110" s="105">
         <f>ROUND(_xlfn.QUARTILE.EXC(N1:N5,1),5)</f>
         <v>0.15</v>
       </c>
-      <c r="C110" s="104">
+      <c r="C110" s="105">
         <v>0.15</v>
       </c>
-      <c r="D110" s="104">
+      <c r="D110" s="105">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A111" s="104" t="s">
+      <c r="A111" s="105" t="s">
         <v>171</v>
       </c>
-      <c r="B111" s="104">
+      <c r="B111" s="105">
         <f>_xlfn.QUARTILE.INC(N1:N5,4)</f>
         <v>0.6</v>
       </c>
-      <c r="C111" s="104">
+      <c r="C111" s="105">
         <v>0.6</v>
       </c>
-      <c r="D111" s="104">
+      <c r="D111" s="105">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A112" s="104"/>
-      <c r="B112" s="104"/>
-      <c r="D112" s="104"/>
+      <c r="A112" s="105"/>
+      <c r="B112" s="105"/>
+      <c r="D112" s="105"/>
     </row>
     <row r="113" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A113" s="104" t="s">
+      <c r="A113" s="105" t="s">
         <v>172</v>
       </c>
-      <c r="B113" s="104">
+      <c r="B113" s="105">
         <f ca="1">RANDBETWEEN(1.1,2)</f>
         <v>2</v>
       </c>
-      <c r="C113" s="104">
+      <c r="C113" s="105">
         <v>2</v>
       </c>
-      <c r="D113" s="104">
+      <c r="D113" s="105">
         <f t="shared" ref="D113:D143" ca="1" si="8">IF(B113=C113,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A114" s="104" t="s">
+      <c r="A114" s="105" t="s">
         <v>173</v>
       </c>
-      <c r="B114" s="104" t="str">
+      <c r="B114" s="105" t="str">
         <f>REPLACE("ABZ",2,1,"Y")</f>
         <v>AYZ</v>
       </c>
-      <c r="C114" s="104" t="s">
+      <c r="C114" s="105" t="s">
         <v>174</v>
       </c>
-      <c r="D114" s="104">
+      <c r="D114" s="105">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A115" s="104" t="s">
+      <c r="A115" s="105" t="s">
         <v>175</v>
       </c>
-      <c r="B115" s="104" t="str">
+      <c r="B115" s="105" t="str">
         <f>RIGHT("kikou",2)</f>
         <v>ou</v>
       </c>
-      <c r="C115" s="104" t="s">
+      <c r="C115" s="105" t="s">
         <v>176</v>
       </c>
-      <c r="D115" s="104">
+      <c r="D115" s="105">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A116" s="104" t="s">
+      <c r="A116" s="105" t="s">
         <v>177</v>
       </c>
-      <c r="B116" s="104">
+      <c r="B116" s="105">
         <f>ROUND(49.9,0)</f>
         <v>50</v>
       </c>
-      <c r="C116" s="104">
+      <c r="C116" s="105">
         <v>50</v>
       </c>
-      <c r="D116" s="104">
+      <c r="D116" s="105">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A117" s="104" t="s">
+      <c r="A117" s="105" t="s">
         <v>178</v>
       </c>
-      <c r="B117" s="104">
+      <c r="B117" s="105">
         <f>ROUNDDOWN(42,-1)</f>
         <v>40</v>
       </c>
-      <c r="C117" s="104">
+      <c r="C117" s="105">
         <v>40</v>
       </c>
-      <c r="D117" s="104">
+      <c r="D117" s="105">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A118" s="104" t="s">
+      <c r="A118" s="105" t="s">
         <v>179</v>
       </c>
-      <c r="B118" s="104">
+      <c r="B118" s="105">
         <f>ROUNDUP(-1.6,0)</f>
         <v>-2</v>
       </c>
-      <c r="C118" s="104">
+      <c r="C118" s="105">
         <v>-2</v>
       </c>
-      <c r="D118" s="104">
+      <c r="D118" s="105">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A119" s="104" t="s">
+      <c r="A119" s="105" t="s">
         <v>180</v>
       </c>
-      <c r="B119" s="104">
+      <c r="B119" s="105">
         <f>ROW(A234)</f>
         <v>234</v>
       </c>
-      <c r="C119" s="104">
+      <c r="C119" s="105">
         <v>234</v>
       </c>
-      <c r="D119" s="104">
+      <c r="D119" s="105">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A120" s="104" t="s">
+      <c r="A120" s="105" t="s">
         <v>181</v>
       </c>
-      <c r="B120" s="104">
+      <c r="B120" s="105">
         <f>ROWS(B3:C40)</f>
         <v>38</v>
       </c>
-      <c r="C120" s="104">
+      <c r="C120" s="105">
         <v>38</v>
       </c>
-      <c r="D120" s="104">
+      <c r="D120" s="105">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A121" s="104" t="s">
+      <c r="A121" s="105" t="s">
         <v>182</v>
       </c>
-      <c r="B121" s="104">
+      <c r="B121" s="105">
         <f>SEARCH("C","ABCD")</f>
         <v>3</v>
       </c>
-      <c r="C121" s="104">
+      <c r="C121" s="105">
         <v>3</v>
       </c>
-      <c r="D121" s="104">
+      <c r="D121" s="105">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A122" s="104" t="s">
+      <c r="A122" s="105" t="s">
         <v>183</v>
       </c>
-      <c r="B122" s="104">
+      <c r="B122" s="105">
         <f>ROUND(_xlfn.SEC(PI()/3),5)</f>
         <v>2</v>
       </c>
-      <c r="C122" s="104">
+      <c r="C122" s="105">
         <v>2</v>
       </c>
-      <c r="D122" s="104">
+      <c r="D122" s="105">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A123" s="104" t="s">
+      <c r="A123" s="105" t="s">
         <v>184</v>
       </c>
-      <c r="B123" s="104">
+      <c r="B123" s="105">
         <f>ROUND(_xlfn.SECH(1),5)</f>
         <v>0.64805000000000001</v>
       </c>
-      <c r="C123" s="104">
+      <c r="C123" s="105">
         <v>0.64805000000000001</v>
       </c>
-      <c r="D123" s="104">
+      <c r="D123" s="105">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A124" s="104" t="s">
+      <c r="A124" s="105" t="s">
         <v>185</v>
       </c>
-      <c r="B124" s="104">
+      <c r="B124" s="105">
         <f>SECOND("00:21:42")</f>
         <v>42</v>
       </c>
-      <c r="C124" s="104">
+      <c r="C124" s="105">
         <v>42</v>
       </c>
-      <c r="D124" s="104">
+      <c r="D124" s="105">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A125" s="104" t="s">
+      <c r="A125" s="105" t="s">
         <v>186</v>
       </c>
-      <c r="B125" s="104">
+      <c r="B125" s="105">
         <f>ROUND(SIN(PI()/6),5)</f>
         <v>0.5</v>
       </c>
-      <c r="C125" s="104">
+      <c r="C125" s="105">
         <v>0.5</v>
       </c>
-      <c r="D125" s="104">
+      <c r="D125" s="105">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A126" s="104" t="s">
+      <c r="A126" s="105" t="s">
         <v>187</v>
       </c>
-      <c r="B126" s="104">
+      <c r="B126" s="105">
         <f>ROUND(SINH(1),5)</f>
         <v>1.1752</v>
       </c>
-      <c r="C126" s="104">
+      <c r="C126" s="105">
         <v>1.1752</v>
       </c>
-      <c r="D126" s="104">
+      <c r="D126" s="105">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A127" s="104" t="s">
+      <c r="A127" s="105" t="s">
         <v>188</v>
       </c>
-      <c r="B127" s="104">
+      <c r="B127" s="105">
         <f>SMALL(H2:H9,3)</f>
         <v>26</v>
       </c>
-      <c r="C127" s="104">
+      <c r="C127" s="105">
         <v>26</v>
       </c>
-      <c r="D127" s="104">
+      <c r="D127" s="105">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A128" s="104" t="s">
+      <c r="A128" s="105" t="s">
         <v>189</v>
       </c>
-      <c r="B128" s="104">
+      <c r="B128" s="105">
         <f>SQRT(4)</f>
         <v>2</v>
       </c>
-      <c r="C128" s="104">
+      <c r="C128" s="105">
         <v>2</v>
       </c>
-      <c r="D128" s="104">
+      <c r="D128" s="105">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A129" s="104" t="s">
+      <c r="A129" s="105" t="s">
         <v>190</v>
       </c>
-      <c r="B129" s="104">
+      <c r="B129" s="105">
         <f>STDEV(-2,0,2)</f>
         <v>2</v>
       </c>
-      <c r="C129" s="104">
+      <c r="C129" s="105">
         <v>2</v>
       </c>
-      <c r="D129" s="104">
+      <c r="D129" s="105">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A130" s="104" t="s">
+      <c r="A130" s="105" t="s">
         <v>191</v>
       </c>
-      <c r="B130" s="104">
+      <c r="B130" s="105">
         <f>_xlfn.STDEV.P(2,4)</f>
         <v>1</v>
       </c>
-      <c r="C130" s="104">
-        <v>1</v>
-      </c>
-      <c r="D130" s="104">
+      <c r="C130" s="105">
+        <v>1</v>
+      </c>
+      <c r="D130" s="105">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A131" s="104" t="s">
+      <c r="A131" s="105" t="s">
         <v>192</v>
       </c>
-      <c r="B131" s="104">
+      <c r="B131" s="105">
         <f>_xlfn.STDEV.S(2,4,6)</f>
         <v>2</v>
       </c>
-      <c r="C131" s="104">
+      <c r="C131" s="105">
         <v>2</v>
       </c>
-      <c r="D131" s="104">
+      <c r="D131" s="105">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A132" s="104" t="s">
+      <c r="A132" s="105" t="s">
         <v>193</v>
       </c>
-      <c r="B132" s="104">
+      <c r="B132" s="105">
         <f>STDEVA(TRUE,3,5)</f>
         <v>2</v>
       </c>
-      <c r="C132" s="104">
+      <c r="C132" s="105">
         <v>2</v>
       </c>
-      <c r="D132" s="104">
+      <c r="D132" s="105">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A133" s="104" t="s">
+      <c r="A133" s="105" t="s">
         <v>194</v>
       </c>
-      <c r="B133" s="104">
+      <c r="B133" s="105">
         <f>ROUND(STDEVP(2,5,8),2)</f>
         <v>2.4500000000000002</v>
       </c>
-      <c r="C133" s="104">
+      <c r="C133" s="105">
         <v>2.4500000000000002</v>
       </c>
-      <c r="D133" s="104">
+      <c r="D133" s="105">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A134" s="104" t="s">
+      <c r="A134" s="105" t="s">
         <v>195</v>
       </c>
-      <c r="B134" s="104">
+      <c r="B134" s="105">
         <f>ROUND(STDEVPA(TRUE,4,7),2)</f>
         <v>2.4500000000000002</v>
       </c>
-      <c r="C134" s="104">
+      <c r="C134" s="105">
         <v>2.4500000000000002</v>
       </c>
-      <c r="D134" s="104">
+      <c r="D134" s="105">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A135" s="104" t="s">
+      <c r="A135" s="105" t="s">
         <v>196</v>
       </c>
-      <c r="B135" s="104" t="str">
+      <c r="B135" s="105" t="str">
         <f>SUBSTITUTE("SAP is best","SAP","Odoo")</f>
         <v>Odoo is best</v>
       </c>
-      <c r="C135" s="104" t="s">
+      <c r="C135" s="105" t="s">
         <v>197</v>
       </c>
-      <c r="D135" s="104">
+      <c r="D135" s="105">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A136" s="104" t="s">
+      <c r="A136" s="105" t="s">
         <v>198</v>
       </c>
-      <c r="B136" s="104">
+      <c r="B136" s="105">
         <f>SUM(1,2,3,4,5)</f>
         <v>15</v>
       </c>
-      <c r="C136" s="104">
+      <c r="C136" s="105">
         <v>15</v>
       </c>
-      <c r="D136" s="104">
+      <c r="D136" s="105">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A137" s="104" t="s">
+      <c r="A137" s="105" t="s">
         <v>199</v>
       </c>
-      <c r="B137" s="104">
+      <c r="B137" s="105">
         <f>SUMIF(K2:K9,"&lt;100")</f>
         <v>52</v>
       </c>
-      <c r="C137" s="104">
+      <c r="C137" s="105">
         <v>52</v>
       </c>
-      <c r="D137" s="104">
+      <c r="D137" s="105">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A138" s="104" t="s">
+      <c r="A138" s="105" t="s">
         <v>200</v>
       </c>
-      <c r="B138" s="104">
+      <c r="B138" s="105">
         <f>SUMIFS(H2:H9,K2:K9,"&lt;100")</f>
         <v>201</v>
       </c>
-      <c r="C138" s="104">
+      <c r="C138" s="105">
         <v>201</v>
       </c>
-      <c r="D138" s="104">
+      <c r="D138" s="105">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A139" s="104" t="s">
+      <c r="A139" s="105" t="s">
         <v>201</v>
       </c>
-      <c r="B139" s="104">
+      <c r="B139" s="105">
         <f>ROUND(TAN(PI()/4),5)</f>
         <v>1</v>
       </c>
-      <c r="C139" s="104">
-        <v>1</v>
-      </c>
-      <c r="D139" s="104">
+      <c r="C139" s="105">
+        <v>1</v>
+      </c>
+      <c r="D139" s="105">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A140" s="104" t="s">
+      <c r="A140" s="105" t="s">
         <v>202</v>
       </c>
-      <c r="B140" s="104">
+      <c r="B140" s="105">
         <f>ROUND(TANH(1),5)</f>
         <v>0.76158999999999999</v>
       </c>
-      <c r="C140" s="104">
+      <c r="C140" s="105">
         <v>0.76158999999999999</v>
       </c>
-      <c r="D140" s="104">
+      <c r="D140" s="105">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A141" s="104" t="s">
+      <c r="A141" s="105" t="s">
         <v>203</v>
       </c>
-      <c r="B141" s="104" t="str">
+      <c r="B141" s="105" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,"","1","A","%")</f>
         <v>1-A-%</v>
       </c>
-      <c r="C141" s="104" t="s">
+      <c r="C141" s="105" t="s">
         <v>204</v>
       </c>
-      <c r="D141" s="104">
+      <c r="D141" s="105">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A142" s="104" t="s">
+      <c r="A142" s="105" t="s">
         <v>205</v>
       </c>
       <c r="B142" s="20">
@@ -11016,235 +10988,235 @@
       <c r="C142" s="20">
         <v>0.38299768519999999</v>
       </c>
-      <c r="D142" s="104">
+      <c r="D142" s="105">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A143" s="104" t="s">
+      <c r="A143" s="105" t="s">
         <v>206</v>
       </c>
-      <c r="B143" s="104">
+      <c r="B143" s="105">
         <f>TIMEVALUE("18:00:00")</f>
         <v>0.75</v>
       </c>
-      <c r="C143" s="104">
+      <c r="C143" s="105">
         <v>0.75</v>
       </c>
-      <c r="D143" s="104">
+      <c r="D143" s="105">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A144" s="104" t="s">
+      <c r="A144" s="105" t="s">
         <v>207</v>
       </c>
       <c r="B144" s="18">
         <f ca="1">TODAY()</f>
-        <v>45726</v>
-      </c>
-      <c r="D144" s="104">
+        <v>45736</v>
+      </c>
+      <c r="D144" s="105">
         <f ca="1">IF(ISNUMBER(B144),1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A145" s="104" t="s">
+      <c r="A145" s="105" t="s">
         <v>208</v>
       </c>
-      <c r="B145" s="104" t="str">
+      <c r="B145" s="105" t="str">
         <f>TRIM(" Jean Ticonstitutionnalise ")</f>
         <v>Jean Ticonstitutionnalise</v>
       </c>
-      <c r="C145" s="104" t="s">
+      <c r="C145" s="105" t="s">
         <v>209</v>
       </c>
-      <c r="D145" s="104">
+      <c r="D145" s="105">
         <f t="shared" ref="D145:D163" si="9">IF(B145=C145,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A146" s="104" t="s">
+      <c r="A146" s="105" t="s">
         <v>210</v>
       </c>
-      <c r="B146" s="104">
+      <c r="B146" s="105">
         <f>TRUNC(42.42,1)</f>
         <v>42.4</v>
       </c>
-      <c r="C146" s="104">
+      <c r="C146" s="105">
         <v>42.4</v>
       </c>
-      <c r="D146" s="104">
+      <c r="D146" s="105">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A147" s="104" t="s">
+      <c r="A147" s="105" t="s">
         <v>211</v>
       </c>
-      <c r="B147" s="104" t="str">
+      <c r="B147" s="105" t="str">
         <f>UPPER("grrrr !")</f>
         <v>GRRRR !</v>
       </c>
-      <c r="C147" s="104" t="s">
+      <c r="C147" s="105" t="s">
         <v>212</v>
       </c>
-      <c r="D147" s="104">
+      <c r="D147" s="105">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A148" s="104" t="s">
+      <c r="A148" s="105" t="s">
         <v>213</v>
       </c>
-      <c r="B148" s="104">
+      <c r="B148" s="105">
         <f>ROUND(VAR(K1:K5),5)</f>
         <v>2.9166699999999999</v>
       </c>
-      <c r="C148" s="104">
+      <c r="C148" s="105">
         <v>2.9166699999999999</v>
       </c>
-      <c r="D148" s="104">
+      <c r="D148" s="105">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A149" s="104" t="s">
+      <c r="A149" s="105" t="s">
         <v>214</v>
       </c>
-      <c r="B149" s="104">
+      <c r="B149" s="105">
         <f>ROUND(_xlfn.VAR.P(K1:K5),5)</f>
         <v>2.1875</v>
       </c>
-      <c r="C149" s="104">
+      <c r="C149" s="105">
         <v>2.1875</v>
       </c>
-      <c r="D149" s="104">
+      <c r="D149" s="105">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A150" s="104" t="s">
+      <c r="A150" s="105" t="s">
         <v>215</v>
       </c>
-      <c r="B150" s="104">
+      <c r="B150" s="105">
         <f>_xlfn.VAR.S(2,5,8)</f>
         <v>9</v>
       </c>
-      <c r="C150" s="104">
+      <c r="C150" s="105">
         <v>9</v>
       </c>
-      <c r="D150" s="104">
+      <c r="D150" s="105">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A151" s="104" t="s">
+      <c r="A151" s="105" t="s">
         <v>216</v>
       </c>
-      <c r="B151" s="104">
+      <c r="B151" s="105">
         <f>ROUND(VARA(K1:K5),5)</f>
         <v>6.7</v>
       </c>
-      <c r="C151" s="104">
+      <c r="C151" s="105">
         <v>6.7</v>
       </c>
-      <c r="D151" s="104">
+      <c r="D151" s="105">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A152" s="104" t="s">
+      <c r="A152" s="105" t="s">
         <v>217</v>
       </c>
-      <c r="B152" s="104">
+      <c r="B152" s="105">
         <f>ROUND(VARP(K1:K5),5)</f>
         <v>2.1875</v>
       </c>
-      <c r="C152" s="104">
+      <c r="C152" s="105">
         <v>2.1875</v>
       </c>
-      <c r="D152" s="104">
+      <c r="D152" s="105">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A153" s="104" t="s">
+      <c r="A153" s="105" t="s">
         <v>218</v>
       </c>
-      <c r="B153" s="104">
+      <c r="B153" s="105">
         <f>ROUND(VARPA(K1:K5),5)</f>
         <v>5.36</v>
       </c>
-      <c r="C153" s="104">
+      <c r="C153" s="105">
         <v>5.36</v>
       </c>
-      <c r="D153" s="104">
+      <c r="D153" s="105">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A154" s="104" t="s">
+      <c r="A154" s="105" t="s">
         <v>219</v>
       </c>
-      <c r="B154" s="104">
+      <c r="B154" s="105">
         <f>VLOOKUP("NotACheater",G1:K9,3,FALSE)</f>
         <v>252.4</v>
       </c>
-      <c r="C154" s="104">
+      <c r="C154" s="105">
         <f>252.4</f>
         <v>252.4</v>
       </c>
-      <c r="D154" s="104">
+      <c r="D154" s="105">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A155" s="104" t="s">
+      <c r="A155" s="105" t="s">
         <v>220</v>
       </c>
-      <c r="B155" s="104">
+      <c r="B155" s="105">
         <f>WEEKDAY("2021-06-12")</f>
         <v>7</v>
       </c>
-      <c r="C155" s="104">
+      <c r="C155" s="105">
         <v>7</v>
       </c>
-      <c r="D155" s="104">
+      <c r="D155" s="105">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A156" s="104" t="s">
+      <c r="A156" s="105" t="s">
         <v>221</v>
       </c>
-      <c r="B156" s="104">
+      <c r="B156" s="105">
         <f>WEEKNUM("2021-06-29")</f>
         <v>27</v>
       </c>
-      <c r="C156" s="104">
+      <c r="C156" s="105">
         <v>27</v>
       </c>
-      <c r="D156" s="104">
+      <c r="D156" s="105">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A157" s="104" t="s">
+      <c r="A157" s="105" t="s">
         <v>222</v>
       </c>
       <c r="B157" s="18">
@@ -11254,13 +11226,13 @@
       <c r="C157" s="18">
         <v>44278</v>
       </c>
-      <c r="D157" s="104">
+      <c r="D157" s="105">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A158" s="104" t="s">
+      <c r="A158" s="105" t="s">
         <v>223</v>
       </c>
       <c r="B158" s="18">
@@ -11270,87 +11242,87 @@
       <c r="C158" s="18">
         <v>44312</v>
       </c>
-      <c r="D158" s="104">
+      <c r="D158" s="105">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A159" s="104" t="s">
+      <c r="A159" s="105" t="s">
         <v>224</v>
       </c>
-      <c r="B159" s="104" t="b">
+      <c r="B159" s="105" t="b">
         <f>_xlfn.XOR(FALSE,TRUE,FALSE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="C159" s="104" t="b">
-        <v>1</v>
-      </c>
-      <c r="D159" s="104">
+      <c r="C159" s="105" t="b">
+        <v>1</v>
+      </c>
+      <c r="D159" s="105">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A160" s="104" t="s">
+      <c r="A160" s="105" t="s">
         <v>225</v>
       </c>
-      <c r="B160" s="104">
+      <c r="B160" s="105">
         <f>YEAR("2012-03-12")</f>
         <v>2012</v>
       </c>
-      <c r="C160" s="104">
+      <c r="C160" s="105">
         <v>2012</v>
       </c>
-      <c r="D160" s="104">
+      <c r="D160" s="105">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A161" s="104" t="s">
+      <c r="A161" s="105" t="s">
         <v>226</v>
       </c>
-      <c r="B161" s="104">
+      <c r="B161" s="105">
         <f>DELTA(1,1)</f>
         <v>1</v>
       </c>
-      <c r="C161" s="104">
-        <v>1</v>
-      </c>
-      <c r="D161" s="104">
+      <c r="C161" s="105">
+        <v>1</v>
+      </c>
+      <c r="D161" s="105">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A162" s="104" t="s">
+      <c r="A162" s="105" t="s">
         <v>227</v>
       </c>
-      <c r="B162" s="104" t="str">
+      <c r="B162" s="105" t="str">
         <f>ADDRESS(1,1,4,FALSE,"sheet!")</f>
         <v>'sheet!'!R[1]C[1]</v>
       </c>
-      <c r="C162" s="104" t="s">
+      <c r="C162" s="105" t="s">
         <v>228</v>
       </c>
-      <c r="D162" s="104">
+      <c r="D162" s="105">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A163" s="104" t="s">
+      <c r="A163" s="105" t="s">
         <v>229</v>
       </c>
-      <c r="B163" s="104">
+      <c r="B163" s="105">
         <f>DATEDIF("2002/01/01","2002/01/02","D")</f>
         <v>1</v>
       </c>
-      <c r="C163" s="104">
-        <v>1</v>
-      </c>
-      <c r="D163" s="104">
+      <c r="C163" s="105">
+        <v>1</v>
+      </c>
+      <c r="D163" s="105">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -12087,7 +12059,7 @@
       </c>
       <c r="B12" s="39">
         <f ca="1">TODAY()</f>
-        <v>45726</v>
+        <v>45736</v>
       </c>
       <c r="C12" s="39">
         <f>DATE(2010,10,2)</f>
@@ -13227,96 +13199,96 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="C4" s="104" t="s">
+      <c r="C4" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="104">
+      <c r="D4" s="105">
         <v>26</v>
       </c>
-      <c r="E4" s="104">
+      <c r="E4" s="105">
         <v>5</v>
       </c>
-      <c r="F4" s="104">
+      <c r="F4" s="105">
         <f>Table3[[#This Row],[Rank]]+Table3[[#This Row],[Age]]</f>
         <v>31</v>
       </c>
-      <c r="G4" s="104">
+      <c r="G4" s="105">
         <f>SUM(Table3[Rank])</f>
         <v>12</v>
       </c>
-      <c r="H4" s="104">
+      <c r="H4" s="105">
         <f>SUM(Table3[[#All],[Rank]])</f>
         <v>24</v>
       </c>
-      <c r="I4" s="104">
+      <c r="I4" s="105">
         <f>Table3[[#Totals],[Rank]]</f>
         <v>12</v>
       </c>
-      <c r="J4" s="104" t="str">
+      <c r="J4" s="105" t="str">
         <f>Table3[[#Headers],[Rank]]</f>
         <v>Rank</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="C5" s="104" t="s">
+      <c r="C5" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="104">
+      <c r="D5" s="105">
         <v>13</v>
       </c>
-      <c r="E5" s="104">
+      <c r="E5" s="105">
         <v>7</v>
       </c>
-      <c r="F5" s="104">
+      <c r="F5" s="105">
         <f>Table3[[#This Row],[Rank]]+Table3[[#This Row],[Age]]</f>
         <v>20</v>
       </c>
-      <c r="G5" s="104">
+      <c r="G5" s="105">
         <f>SUM(Table3[Rank])</f>
         <v>12</v>
       </c>
-      <c r="H5" s="104">
+      <c r="H5" s="105">
         <f>SUM(Table3[[#All],[Rank]])</f>
         <v>24</v>
       </c>
-      <c r="I5" s="104">
+      <c r="I5" s="105">
         <f>Table3[[#Totals],[Rank]]</f>
         <v>12</v>
       </c>
-      <c r="J5" s="104" t="str">
+      <c r="J5" s="105" t="str">
         <f>Table3[[#Headers],[Rank]]</f>
         <v>Rank</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="C6" s="104" t="s">
+      <c r="C6" s="105" t="s">
         <v>391</v>
       </c>
-      <c r="D6" s="104">
+      <c r="D6" s="105">
         <f>SUBTOTAL(109,Table3[Age])</f>
         <v>39</v>
       </c>
-      <c r="E6" s="104">
+      <c r="E6" s="105">
         <f>SUBTOTAL(109,Table3[Rank])</f>
         <v>12</v>
       </c>
-      <c r="F6" s="104">
+      <c r="F6" s="105">
         <f>SUBTOTAL(109,Table3[Rank+Age =E4+D4])</f>
         <v>51</v>
       </c>
-      <c r="G6" s="104">
+      <c r="G6" s="105">
         <f>SUBTOTAL(109,Table3[Data =SUM(E4:E5)])</f>
         <v>24</v>
       </c>
-      <c r="H6" s="104">
+      <c r="H6" s="105">
         <f>SUBTOTAL(109,Table3[All =SUM(E3:E6)])</f>
         <v>48</v>
       </c>
-      <c r="I6" s="104">
+      <c r="I6" s="105">
         <f>SUBTOTAL(109,Table3[Totals =E6])</f>
         <v>24</v>
       </c>
-      <c r="J6" s="104">
+      <c r="J6" s="105">
         <f>SUBTOTAL(109,Table3[Headers =E3])</f>
         <v>0</v>
       </c>
@@ -13587,16 +13559,16 @@
       <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="104"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
+      <c r="A2" s="105"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="104"/>
-      <c r="B3" s="104"/>
+      <c r="A3" s="105"/>
+      <c r="B3" s="105"/>
       <c r="C3" s="89" t="s">
         <v>413</v>
       </c>
@@ -13605,8 +13577,8 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="104"/>
-      <c r="B4" s="104"/>
+      <c r="A4" s="105"/>
+      <c r="B4" s="105"/>
       <c r="C4" s="89" t="s">
         <v>415</v>
       </c>
@@ -13639,8 +13611,8 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="104"/>
-      <c r="B5" s="104"/>
+      <c r="A5" s="105"/>
+      <c r="B5" s="105"/>
       <c r="C5" s="90" t="s">
         <v>55</v>
       </c>
@@ -13652,8 +13624,8 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="104"/>
-      <c r="B6" s="104"/>
+      <c r="A6" s="105"/>
+      <c r="B6" s="105"/>
       <c r="C6" s="91">
         <v>256018</v>
       </c>
@@ -13665,8 +13637,8 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="104"/>
-      <c r="B7" s="104"/>
+      <c r="A7" s="105"/>
+      <c r="B7" s="105"/>
       <c r="C7" s="90" t="s">
         <v>46</v>
       </c>
@@ -13678,8 +13650,8 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="104"/>
-      <c r="B8" s="104"/>
+      <c r="A8" s="105"/>
+      <c r="B8" s="105"/>
       <c r="C8" s="91">
         <v>110120.5</v>
       </c>
@@ -13691,8 +13663,8 @@
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="104"/>
-      <c r="B9" s="104"/>
+      <c r="A9" s="105"/>
+      <c r="B9" s="105"/>
       <c r="C9" s="90" t="s">
         <v>42</v>
       </c>
@@ -13704,8 +13676,8 @@
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="104"/>
-      <c r="B10" s="104"/>
+      <c r="A10" s="105"/>
+      <c r="B10" s="105"/>
       <c r="C10" s="91">
         <v>25618</v>
       </c>
@@ -13868,7 +13840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C47BF70-BA80-4124-B359-67CBCB635390}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B34" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -13887,7 +13859,7 @@
       <c r="A2" t="s">
         <v>418</v>
       </c>
-      <c r="B2" s="104"/>
+      <c r="B2" s="105"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -13924,50 +13896,50 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="105" t="s">
+      <c r="A7" s="104" t="s">
         <v>407</v>
       </c>
-      <c r="B7" s="105" t="s">
+      <c r="B7" s="104" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="105">
-        <v>1</v>
-      </c>
-      <c r="B8" s="105">
+      <c r="A8" s="104">
+        <v>1</v>
+      </c>
+      <c r="B8" s="104">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="105">
+      <c r="A9" s="104">
         <v>2</v>
       </c>
-      <c r="B9" s="105">
+      <c r="B9" s="104">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="105">
+      <c r="A10" s="104">
         <v>3</v>
       </c>
-      <c r="B10" s="105">
+      <c r="B10" s="104">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="105">
+      <c r="A11" s="104">
         <v>4</v>
       </c>
-      <c r="B11" s="105">
+      <c r="B11" s="104">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="105">
+      <c r="A12" s="104">
         <v>5</v>
       </c>
-      <c r="B12" s="105">
+      <c r="B12" s="104">
         <v>5</v>
       </c>
     </row>

--- a/tests/__xlsx__/xlsx_demo_data.xlsx
+++ b/tests/__xlsx__/xlsx_demo_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28724"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Odoo\spreadsheet\tests\__xlsx__\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4ABEBB5E-CC42-4D3F-B076-13470D76BC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0F3413D-2983-43BC-B7D9-48EACAB90F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,9 +31,14 @@
   <externalReferences>
     <externalReference r:id="rId15"/>
   </externalReferences>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$27:$A$35</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$26</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$27:$B$35</definedName>
+  </definedNames>
   <calcPr calcId="191028" calcCompleted="0"/>
   <pivotCaches>
-    <pivotCache cacheId="3062" r:id="rId16"/>
+    <pivotCache cacheId="1259" r:id="rId16"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -3608,6 +3613,793 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2200"/>
+              <a:t>doughnut chart with hole</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.30285577409492809"/>
+          <c:y val="1.397398743755821E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>first dataset</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="1F77B4"/>
+              </a:solidFill>
+              <a:ln w="14288" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000014-D17F-47AA-A8EC-52019D60CBD0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF7F0E"/>
+              </a:solidFill>
+              <a:ln w="14288" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000016-D17F-47AA-A8EC-52019D60CBD0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="AEC7E8"/>
+              </a:solidFill>
+              <a:ln w="14288" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000018-D17F-47AA-A8EC-52019D60CBD0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFBB78"/>
+              </a:solidFill>
+              <a:ln w="14288" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001A-D17F-47AA-A8EC-52019D60CBD0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="2CA02C"/>
+              </a:solidFill>
+              <a:ln w="14288" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001C-D17F-47AA-A8EC-52019D60CBD0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="98DF8A"/>
+              </a:solidFill>
+              <a:ln w="14288" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001E-D17F-47AA-A8EC-52019D60CBD0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="D62728"/>
+              </a:solidFill>
+              <a:ln w="14288" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000020-D17F-47AA-A8EC-52019D60CBD0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF9896"/>
+              </a:solidFill>
+              <a:ln w="14288" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000022-D17F-47AA-A8EC-52019D60CBD0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="9467BD"/>
+              </a:solidFill>
+              <a:ln w="14288" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000024-D17F-47AA-A8EC-52019D60CBD0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$27:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Emily Anderson (Emmy)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sophie Allen (Saffi)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Chloe Adams</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Megan Alexander (Meg)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Lucy Arnold (Lulu)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Hannah Alvarez</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jessica Alcock (Jess)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Charlotte Anaya</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Lauren Anthony</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$27:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000025-D17F-47AA-A8EC-52019D60CBD0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="50"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr sz="1000" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln cmpd="sng">
+      <a:solidFill>
+        <a:srgbClr val="000000"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>first dataset</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4472C4"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="1"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$27:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Emily Anderson (Emmy)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sophie Allen (Saffi)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Chloe Adams</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Megan Alexander (Meg)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Lucy Arnold (Lulu)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Hannah Alvarez</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jessica Alcock (Jess)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Charlotte Anaya</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Lauren Anthony</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$27:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln cmpd="sng">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D94B-45A0-8AD6-3E4F4E7665C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>second dataset</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ED7D31"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="1"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$27:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Emily Anderson (Emmy)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sophie Allen (Saffi)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Chloe Adams</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Megan Alexander (Meg)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Lucy Arnold (Lulu)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Hannah Alvarez</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jessica Alcock (Jess)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Charlotte Anaya</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Lauren Anthony</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$27:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln cmpd="sng">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D94B-45A0-8AD6-3E4F4E7665C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="998664793"/>
+        <c:axId val="344680958"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="998664793"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="344680958"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="344680958"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="998664793"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -6436,38 +7228,58 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="1"/>
-  <c:style val="2"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2200"/>
+              <a:t>horizontal bar chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="col"/>
+        <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="1"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$26</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>first dataset</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4472C4"/>
+              <a:srgbClr val="7030A0"/>
             </a:solidFill>
-            <a:ln cmpd="sng">
+            <a:ln>
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="1"/>
@@ -6549,41 +7361,32 @@
                   <a:solidFill>
                     <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
-                  <a:ln cmpd="sng">
+                  <a:ln>
                     <a:solidFill>
-                      <a:srgbClr val="000000"/>
+                      <a:srgbClr val="7030A0"/>
                     </a:solidFill>
+                    <a:prstDash val="solid"/>
                   </a:ln>
                 </c14:spPr>
               </c14:invertSolidFillFmt>
             </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D94B-45A0-8AD6-3E4F4E7665C2}"/>
+              <c16:uniqueId val="{00000000-2AE2-4EDC-856C-ECBD6B1ECD21}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$26</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>second dataset</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ED7D31"/>
+              <a:srgbClr val="C65911"/>
             </a:solidFill>
-            <a:ln cmpd="sng">
+            <a:ln>
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:srgbClr val="C65911"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="1"/>
@@ -6665,16 +7468,17 @@
                   <a:solidFill>
                     <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
-                  <a:ln cmpd="sng">
+                  <a:ln>
                     <a:solidFill>
-                      <a:srgbClr val="000000"/>
+                      <a:srgbClr val="C65911"/>
                     </a:solidFill>
+                    <a:prstDash val="solid"/>
                   </a:ln>
                 </c14:spPr>
               </c14:invertSolidFillFmt>
             </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D94B-45A0-8AD6-3E4F4E7665C2}"/>
+              <c16:uniqueId val="{00000001-2AE2-4EDC-856C-ECBD6B1ECD21}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6686,17 +7490,26 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="998664793"/>
-        <c:axId val="344680958"/>
+        <c:gapWidth val="70"/>
+        <c:axId val="17781237"/>
+        <c:axId val="88853993"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="998664793"/>
+        <c:axId val="17781237"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -6711,14 +7524,14 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:overlay val="1"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
@@ -6726,7 +7539,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0">
+              <a:defRPr sz="1000" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -6736,7 +7549,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="344680958"/>
+        <c:crossAx val="88853993"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6744,32 +7557,21 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="344680958"/>
+        <c:axId val="88853993"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln>
+            <a:ln cmpd="sng">
               <a:solidFill>
                 <a:srgbClr val="B7B7B7"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="CCCCCC">
-                  <a:alpha val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -6784,25 +7586,22 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:overlay val="1"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln/>
-        </c:spPr>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0">
+              <a:defRPr sz="1000" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -6812,10 +7611,15 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="998664793"/>
+        <c:crossAx val="17781237"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -6825,9 +7629,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr lvl="0">
-            <a:defRPr b="0">
+            <a:defRPr sz="1000" b="0" i="0">
               <a:solidFill>
-                <a:srgbClr val="1A1A1A"/>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
@@ -6840,12 +7644,163 @@
     <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln cmpd="sng">
+      <a:solidFill>
+        <a:srgbClr val="000000"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.2</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Chart Title</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="7F7F7F"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:t>Chart Title</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="waterfall" uniqueId="{5051EC33-743B-4C68-89C0-7179D8BFE55F}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:v>first dataset</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataLabels pos="outEnd">
+            <cx:txPr>
+              <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="1200" b="0" i="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr/>
+              </a:p>
+            </cx:txPr>
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:subtotals/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0.5"/>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1200" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1200" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0">
+      <cx:txPr>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </cx:txPr>
+    </cx:legend>
+  </cx:chart>
+</cx:chartSpace>
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6888,7 +7843,555 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="395">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="2">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7324,6 +8827,89 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB44F912-9067-8FA7-675B-52C07F194DE5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>4</xdr:row>
@@ -7643,10 +9229,92 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9" title="Chart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B187E09F-172F-47EE-A6CD-3039B7DE0CE4}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5D2716A1-A175-44F9-BBD0-26D27F88F15C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10" title="Chart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89D5E293-E7D5-4DCE-B066-872C6428DD51}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B187E09F-172F-47EE-A6CD-3039B7DE0CE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7694,7 +9362,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -7902,7 +9570,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9B3CE3F5-58D8-48A3-B9C6-24D1506C9F5C}" name="PivotTable1" cacheId="3062" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9B3CE3F5-58D8-48A3-B9C6-24D1506C9F5C}" name="PivotTable1" cacheId="1259" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C3:L21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -8502,7 +10170,7 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="A26" sqref="A26:B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75"/>
@@ -8944,6 +10612,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -11106,7 +12775,7 @@
       </c>
       <c r="B100" s="19">
         <f ca="1">NOW()</f>
-        <v>45736.475918171294</v>
+        <v>45748.695485300923</v>
       </c>
       <c r="D100" s="117">
         <f ca="1">IF(ISNUMBER(B100),1,0)</f>
@@ -11796,7 +13465,7 @@
       </c>
       <c r="B144" s="18">
         <f ca="1">TODAY()</f>
-        <v>45736</v>
+        <v>45748</v>
       </c>
       <c r="D144" s="117">
         <f ca="1">IF(ISNUMBER(B144),1,0)</f>
@@ -12841,7 +14510,7 @@
       </c>
       <c r="B12" s="39">
         <f ca="1">TODAY()</f>
-        <v>45736</v>
+        <v>45748</v>
       </c>
       <c r="C12" s="39">
         <f>DATE(2010,10,2)</f>
@@ -14622,8 +16291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C47BF70-BA80-4124-B359-67CBCB635390}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="B40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N56" sqref="N56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75"/>

--- a/tests/__xlsx__/xlsx_demo_data.xlsx
+++ b/tests/__xlsx__/xlsx_demo_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28723"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28919"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Odoo\spreadsheet\tests\__xlsx__\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4533F51F-F931-45DF-A942-2AE56A765B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{680A992B-769D-4DF5-8BBD-9B4319917BDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
   </externalReferences>
   <calcPr calcId="191028" calcCompleted="0"/>
   <pivotCaches>
-    <pivotCache cacheId="5712" r:id="rId16"/>
+    <pivotCache cacheId="11034" r:id="rId16"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -3624,6 +3624,785 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2200"/>
+              <a:t>doughnut chart with hole</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>first dataset</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="1F77B4"/>
+              </a:solidFill>
+              <a:ln w="14288" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000014-4968-47CD-A428-E1CFDB94D5E6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF7F0E"/>
+              </a:solidFill>
+              <a:ln w="14288" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000016-4968-47CD-A428-E1CFDB94D5E6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="AEC7E8"/>
+              </a:solidFill>
+              <a:ln w="14288" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000018-4968-47CD-A428-E1CFDB94D5E6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFBB78"/>
+              </a:solidFill>
+              <a:ln w="14288" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001A-4968-47CD-A428-E1CFDB94D5E6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="2CA02C"/>
+              </a:solidFill>
+              <a:ln w="14288" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001C-4968-47CD-A428-E1CFDB94D5E6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="98DF8A"/>
+              </a:solidFill>
+              <a:ln w="14288" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001E-4968-47CD-A428-E1CFDB94D5E6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="D62728"/>
+              </a:solidFill>
+              <a:ln w="14288" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000020-4968-47CD-A428-E1CFDB94D5E6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF9896"/>
+              </a:solidFill>
+              <a:ln w="14288" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000022-4968-47CD-A428-E1CFDB94D5E6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="9467BD"/>
+              </a:solidFill>
+              <a:ln w="14288" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000024-4968-47CD-A428-E1CFDB94D5E6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$27:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Emily Anderson (Emmy)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sophie Allen (Saffi)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Chloe Adams</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Megan Alexander (Meg)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Lucy Arnold (Lulu)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Hannah Alvarez</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jessica Alcock (Jess)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Charlotte Anaya</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Lauren Anthony</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$27:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000025-4968-47CD-A428-E1CFDB94D5E6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="50"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr sz="1000" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln cmpd="sng">
+      <a:solidFill>
+        <a:srgbClr val="000000"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>first dataset</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4472C4"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="1"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$27:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Emily Anderson (Emmy)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sophie Allen (Saffi)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Chloe Adams</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Megan Alexander (Meg)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Lucy Arnold (Lulu)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Hannah Alvarez</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jessica Alcock (Jess)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Charlotte Anaya</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Lauren Anthony</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$27:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln cmpd="sng">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D94B-45A0-8AD6-3E4F4E7665C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>second dataset</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ED7D31"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="1"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$27:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Emily Anderson (Emmy)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sophie Allen (Saffi)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Chloe Adams</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Megan Alexander (Meg)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Lucy Arnold (Lulu)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Hannah Alvarez</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jessica Alcock (Jess)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Charlotte Anaya</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Lauren Anthony</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$27:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln cmpd="sng">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D94B-45A0-8AD6-3E4F4E7665C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="998664793"/>
+        <c:axId val="344680958"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="998664793"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="344680958"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="344680958"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="998664793"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -6505,41 +7284,74 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="1"/>
-  <c:style val="2"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2200"/>
+              <a:t>horizontal bar chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="col"/>
+        <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="1"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$26</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>first dataset</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4472C4"/>
+              <a:srgbClr val="7030A0"/>
             </a:solidFill>
-            <a:ln cmpd="sng">
+            <a:ln>
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="1"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="ED7D31"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$27:$A$35</c:f>
@@ -6618,41 +7430,32 @@
                   <a:solidFill>
                     <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
-                  <a:ln cmpd="sng">
+                  <a:ln>
                     <a:solidFill>
-                      <a:srgbClr val="000000"/>
+                      <a:srgbClr val="7030A0"/>
                     </a:solidFill>
+                    <a:prstDash val="solid"/>
                   </a:ln>
                 </c14:spPr>
               </c14:invertSolidFillFmt>
             </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D94B-45A0-8AD6-3E4F4E7665C2}"/>
+              <c16:uniqueId val="{00000001-4F1A-4275-B2BE-C9AFCD205303}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$26</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>second dataset</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ED7D31"/>
+              <a:srgbClr val="C65911"/>
             </a:solidFill>
-            <a:ln cmpd="sng">
+            <a:ln>
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:srgbClr val="C65911"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="1"/>
@@ -6734,16 +7537,17 @@
                   <a:solidFill>
                     <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
-                  <a:ln cmpd="sng">
+                  <a:ln>
                     <a:solidFill>
-                      <a:srgbClr val="000000"/>
+                      <a:srgbClr val="C65911"/>
                     </a:solidFill>
+                    <a:prstDash val="solid"/>
                   </a:ln>
                 </c14:spPr>
               </c14:invertSolidFillFmt>
             </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D94B-45A0-8AD6-3E4F4E7665C2}"/>
+              <c16:uniqueId val="{00000002-4F1A-4275-B2BE-C9AFCD205303}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6755,17 +7559,26 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="998664793"/>
-        <c:axId val="344680958"/>
+        <c:gapWidth val="70"/>
+        <c:axId val="17781237"/>
+        <c:axId val="88853993"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="998664793"/>
+        <c:axId val="17781237"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -6780,14 +7593,14 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:overlay val="1"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
@@ -6795,7 +7608,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0">
+              <a:defRPr sz="1000" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -6805,7 +7618,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="344680958"/>
+        <c:crossAx val="88853993"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6813,32 +7626,21 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="344680958"/>
+        <c:axId val="88853993"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln>
+            <a:ln cmpd="sng">
               <a:solidFill>
                 <a:srgbClr val="B7B7B7"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="CCCCCC">
-                  <a:alpha val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -6853,25 +7655,22 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:overlay val="1"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln/>
-        </c:spPr>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0">
+              <a:defRPr sz="1000" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -6881,10 +7680,15 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="998664793"/>
+        <c:crossAx val="17781237"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -6894,9 +7698,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr lvl="0">
-            <a:defRPr b="0">
+            <a:defRPr sz="1000" b="0" i="0">
               <a:solidFill>
-                <a:srgbClr val="1A1A1A"/>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
@@ -6909,6 +7713,16 @@
     <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln cmpd="sng">
+      <a:solidFill>
+        <a:srgbClr val="000000"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -7712,6 +8526,88 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9" title="Chart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8A2F032-405F-4BA7-AB00-B42F129443DB}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5D2716A1-A175-44F9-BBD0-26D27F88F15C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10" title="Chart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C61D9073-4096-46BA-BD71-5483ACC71F2A}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B8A2F032-405F-4BA7-AB00-B42F129443DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7971,7 +8867,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9B3CE3F5-58D8-48A3-B9C6-24D1506C9F5C}" name="PivotTable1" cacheId="5712" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9B3CE3F5-58D8-48A3-B9C6-24D1506C9F5C}" name="PivotTable1" cacheId="11034" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C3:L21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -11175,7 +12071,7 @@
       </c>
       <c r="B100" s="19">
         <f ca="1">NOW()</f>
-        <v>45741.742819212966</v>
+        <v>45799.563060763889</v>
       </c>
       <c r="D100" s="117">
         <f ca="1">IF(ISNUMBER(B100),1,0)</f>
@@ -11865,7 +12761,7 @@
       </c>
       <c r="B144" s="18">
         <f ca="1">TODAY()</f>
-        <v>45741</v>
+        <v>45799</v>
       </c>
       <c r="D144" s="117">
         <f ca="1">IF(ISNUMBER(B144),1,0)</f>
@@ -12910,7 +13806,7 @@
       </c>
       <c r="B12" s="39">
         <f ca="1">TODAY()</f>
-        <v>45741</v>
+        <v>45799</v>
       </c>
       <c r="C12" s="39">
         <f>DATE(2010,10,2)</f>
@@ -14691,7 +15587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C47BF70-BA80-4124-B359-67CBCB635390}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>

--- a/tests/__xlsx__/xlsx_demo_data.xlsx
+++ b/tests/__xlsx__/xlsx_demo_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28723"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Odoo\spreadsheet\tests\__xlsx__\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4533F51F-F931-45DF-A942-2AE56A765B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67BF2DA-E551-4A38-8BB6-2C727149A759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,9 @@
   <externalReferences>
     <externalReference r:id="rId15"/>
   </externalReferences>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="5712" r:id="rId16"/>
+    <pivotCache cacheId="1" r:id="rId16"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="441">
   <si>
     <t>CF =42</t>
   </si>
@@ -1376,6 +1376,9 @@
   </si>
   <si>
     <t>A1234556</t>
+  </si>
+  <si>
+    <t>CF with formulas</t>
   </si>
 </sst>
 </file>
@@ -1390,7 +1393,7 @@
     <numFmt numFmtId="168" formatCode="#,##0&quot; EUR €&quot;"/>
     <numFmt numFmtId="169" formatCode="&quot;€&quot;#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2390,7 +2393,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2409,155 +2412,11 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{1493241F-B85D-4F84-BBA0-86191B8FD032}"/>
   </cellStyles>
-  <dxfs count="46">
+  <dxfs count="47">
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike/>
-        <u/>
-        <color theme="7"/>
-      </font>
-      <numFmt numFmtId="170" formatCode="dd/mm/yyyy"/>
-      <fill>
-        <patternFill patternType="lightTrellis">
-          <fgColor theme="4"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE06666"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB6D7A8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2967,6 +2826,157 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike/>
+        <u/>
+        <color theme="7"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="lightTrellis">
+          <fgColor theme="4"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE06666"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB6D7A8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="4"/>
         </patternFill>
       </fill>
@@ -2981,8 +2991,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Table Style 1" pivot="0" count="2" xr9:uid="{33B8EB55-D8D8-4B00-B5CF-C84A8AC9E775}">
-      <tableStyleElement type="wholeTable" dxfId="45"/>
-      <tableStyleElement type="firstRowStripe" dxfId="44"/>
+      <tableStyleElement type="wholeTable" dxfId="46"/>
+      <tableStyleElement type="firstRowStripe" dxfId="45"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -6264,7 +6274,7 @@
           </c:trendline>
           <c:xVal>
             <c:strRef>
-              <c:f>Sheet1!A27:A35</c:f>
+              <c:f>Sheet1!$A$27:$A$35</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -7971,7 +7981,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9B3CE3F5-58D8-48A3-B9C6-24D1506C9F5C}" name="PivotTable1" cacheId="5712" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9B3CE3F5-58D8-48A3-B9C6-24D1506C9F5C}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C3:L21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -8121,7 +8131,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{09C35CC7-7259-4A97-8FEA-EDB47375DF08}" name="Table3" displayName="Table3" ref="C3:J6" totalsRowCount="1" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{09C35CC7-7259-4A97-8FEA-EDB47375DF08}" name="Table3" displayName="Table3" ref="C3:J6" totalsRowCount="1" headerRowDxfId="44" dataDxfId="43">
   <autoFilter ref="C3:J5" xr:uid="{09C35CC7-7259-4A97-8FEA-EDB47375DF08}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -8133,22 +8143,22 @@
     <filterColumn colId="7" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{C4EE018E-238B-42BA-9035-DB01FA5420D3}" name="Name" totalsRowLabel="Total" dataDxfId="14" totalsRowDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{C1F6911F-9482-4C98-BBFB-21D9CAA66DA4}" name="Age" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{3CE9F5DA-0A57-4696-B4E0-53601C3B7798}" name="Rank" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{34912838-665C-4472-B558-25990E5B148D}" name="Rank+Age =E4+D4" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="9">
+    <tableColumn id="1" xr3:uid="{C4EE018E-238B-42BA-9035-DB01FA5420D3}" name="Name" totalsRowLabel="Total" dataDxfId="42" totalsRowDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{C1F6911F-9482-4C98-BBFB-21D9CAA66DA4}" name="Age" totalsRowFunction="sum" dataDxfId="40" totalsRowDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{3CE9F5DA-0A57-4696-B4E0-53601C3B7798}" name="Rank" totalsRowFunction="sum" dataDxfId="38" totalsRowDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{34912838-665C-4472-B558-25990E5B148D}" name="Rank+Age =E4+D4" totalsRowFunction="sum" dataDxfId="36" totalsRowDxfId="35">
       <calculatedColumnFormula>Table3[[#This Row],[Rank]]+Table3[[#This Row],[Age]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{89D90022-7073-4067-BAF8-1587D27C4AFB}" name="Data =SUM(E4:E5)" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="7">
+    <tableColumn id="7" xr3:uid="{89D90022-7073-4067-BAF8-1587D27C4AFB}" name="Data =SUM(E4:E5)" totalsRowFunction="sum" dataDxfId="34" totalsRowDxfId="33">
       <calculatedColumnFormula>SUM(Table3[Rank])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{B2A7E5BB-A379-492B-9484-72F2FD1FF3A0}" name="All =SUM(E3:E6)" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="5">
+    <tableColumn id="8" xr3:uid="{B2A7E5BB-A379-492B-9484-72F2FD1FF3A0}" name="All =SUM(E3:E6)" totalsRowFunction="sum" dataDxfId="32" totalsRowDxfId="31">
       <calculatedColumnFormula>SUM(Table3[[#All],[Rank]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{3C532A69-E4BC-4A20-A922-4BCAA0D3FEC9}" name="Totals =E6" totalsRowFunction="sum" dataDxfId="2" totalsRowDxfId="3">
+    <tableColumn id="9" xr3:uid="{3C532A69-E4BC-4A20-A922-4BCAA0D3FEC9}" name="Totals =E6" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="29">
       <calculatedColumnFormula>Table3[[#Totals],[Rank]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{35E9E9C3-9148-468A-85B6-19290CEB6F00}" name="Headers =E3" totalsRowFunction="sum" dataDxfId="0" totalsRowDxfId="1">
+    <tableColumn id="10" xr3:uid="{35E9E9C3-9148-468A-85B6-19290CEB6F00}" name="Headers =E3" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="27">
       <calculatedColumnFormula>Table3[[#Headers],[Rank]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8269,9 +8279,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -8309,7 +8319,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -8415,7 +8425,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8557,7 +8567,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8574,7 +8584,7 @@
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.28515625" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
@@ -8583,7 +8593,7 @@
     <col min="6" max="26" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="38.25" customHeight="1">
+    <row r="1" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="21"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -8592,7 +8602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="27.75">
+    <row r="2" spans="1:12" ht="27.75" x14ac:dyDescent="0.2">
       <c r="B2" s="22" t="s">
         <v>2</v>
       </c>
@@ -8608,7 +8618,7 @@
       <c r="I2" s="119"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="17.25" customHeight="1">
+    <row r="3" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
@@ -8623,7 +8633,7 @@
       </c>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12" ht="17.25" customHeight="1">
+    <row r="4" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
@@ -8642,7 +8652,7 @@
       <c r="K4" s="121"/>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:12" ht="17.25" customHeight="1">
+    <row r="5" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="117">
         <v>42</v>
       </c>
@@ -8655,7 +8665,7 @@
       <c r="K5" s="121"/>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:12" ht="17.25" customHeight="1">
+    <row r="6" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G6" s="117">
         <v>22</v>
       </c>
@@ -8663,7 +8673,7 @@
       <c r="K6" s="121"/>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:12" ht="17.25" customHeight="1">
+    <row r="7" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="117">
         <v>3</v>
       </c>
@@ -8671,7 +8681,7 @@
       <c r="K7" s="121"/>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="1:12" ht="17.25" customHeight="1">
+    <row r="8" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G8" s="117">
         <v>30</v>
       </c>
@@ -8679,7 +8689,7 @@
       <c r="K8" s="122"/>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="1:12" ht="17.25" customHeight="1">
+    <row r="9" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
@@ -8689,7 +8699,7 @@
       </c>
       <c r="K9" s="10"/>
     </row>
-    <row r="10" spans="1:12" ht="17.25" customHeight="1">
+    <row r="10" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="117">
         <f>SUM(C4:C7)</f>
         <v>57.4</v>
@@ -8698,13 +8708,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="17.25" customHeight="1">
+    <row r="11" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="117">
         <f>-(3+C7*SUM(C4:C7))</f>
         <v>-175.2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="17.25" customHeight="1">
+    <row r="12" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="117">
         <f>SUM(C9:C11)</f>
         <v>-63.399999999999991</v>
@@ -8713,13 +8723,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="17.25" customHeight="1">
+    <row r="13" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G13" s="117">
         <f>A1+A2+A3+A4+A5+A6+A7+A8+A9+A10+A11+A12+A13+A14+A15+A16+A17+A18</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="17.25" customHeight="1">
+    <row r="14" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="11" t="s">
         <v>11</v>
       </c>
@@ -8728,32 +8738,32 @@
         <v>#CYCLE</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="17.25" customHeight="1">
+    <row r="15" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="117" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="17.25" customHeight="1">
+    <row r="16" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="117" t="str">
         <f>C15</f>
         <v>=(+</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="17.25" customHeight="1">
+    <row r="17" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="117" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="17.25" customHeight="1">
+    <row r="18" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="117" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="17.25" customHeight="1">
+    <row r="19" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:9" ht="17.25" customHeight="1">
+    <row r="20" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="5"/>
       <c r="C20" s="6" t="s">
         <v>15</v>
@@ -8767,7 +8777,7 @@
       </c>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:9" ht="17.25" customHeight="1">
+    <row r="21" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
         <v>18</v>
       </c>
@@ -8777,7 +8787,7 @@
       </c>
       <c r="G21" s="10"/>
     </row>
-    <row r="23" spans="1:9" ht="17.25" customHeight="1">
+    <row r="23" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>19</v>
       </c>
@@ -8791,7 +8801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="17.25" customHeight="1">
+    <row r="24" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="16">
         <v>10</v>
       </c>
@@ -8802,7 +8812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="17.25" customHeight="1">
+    <row r="25" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="16">
         <v>10.122999999999999</v>
       </c>
@@ -8813,7 +8823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="17.25" customHeight="1">
+    <row r="26" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="117" t="s">
         <v>20</v>
       </c>
@@ -8827,7 +8837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="17.25" customHeight="1">
+    <row r="27" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="117" t="s">
         <v>22</v>
       </c>
@@ -8844,7 +8854,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="17.25" customHeight="1">
+    <row r="28" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="117" t="s">
         <v>23</v>
       </c>
@@ -8861,7 +8871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="17.25" customHeight="1">
+    <row r="29" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="117" t="s">
         <v>24</v>
       </c>
@@ -8878,7 +8888,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="17.25" customHeight="1">
+    <row r="30" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="117" t="s">
         <v>25</v>
       </c>
@@ -8895,7 +8905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="17.25" customHeight="1">
+    <row r="31" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="117" t="s">
         <v>26</v>
       </c>
@@ -8912,7 +8922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="17.25" customHeight="1">
+    <row r="32" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="117" t="s">
         <v>27</v>
       </c>
@@ -8929,7 +8939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="17.25" customHeight="1">
+    <row r="33" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="117" t="s">
         <v>28</v>
       </c>
@@ -8946,7 +8956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="17.25" customHeight="1">
+    <row r="34" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="117" t="s">
         <v>29</v>
       </c>
@@ -8957,7 +8967,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="17.25" customHeight="1">
+    <row r="35" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="117" t="s">
         <v>30</v>
       </c>
@@ -8974,7 +8984,7 @@
     <mergeCell ref="K3:K8"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:C100 B21">
-    <cfRule type="cellIs" dxfId="43" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
       <formula>42</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9024,7 +9034,7 @@
       <selection sqref="A1:N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9036,12 +9046,12 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
       <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
-      <selection pane="topRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9055,7 +9065,7 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="65.140625" customWidth="1"/>
     <col min="2" max="26" width="13.7109375" customWidth="1"/>
@@ -9075,7 +9085,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9090,7 +9100,7 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="4" width="14.28515625" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" customWidth="1"/>
@@ -9099,7 +9109,7 @@
     <col min="9" max="9" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="114" t="s">
         <v>423</v>
       </c>
@@ -9128,7 +9138,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="104">
         <v>4</v>
       </c>
@@ -9157,7 +9167,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="104">
         <v>3</v>
       </c>
@@ -9186,7 +9196,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="104">
         <v>9</v>
       </c>
@@ -9215,7 +9225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="104">
         <v>5</v>
       </c>
@@ -9244,7 +9254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="109">
         <v>7</v>
       </c>
@@ -9322,12 +9332,12 @@
       <selection activeCell="G115" sqref="G115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="26" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="17.25" customHeight="1">
+    <row r="1" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="117" t="s">
         <v>31</v>
       </c>
@@ -9362,7 +9372,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="17.25" customHeight="1">
+    <row r="2" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="117" t="s">
         <v>41</v>
       </c>
@@ -9408,7 +9418,7 @@
         <v>1230.7</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="17.25" customHeight="1">
+    <row r="3" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="117" t="s">
         <v>43</v>
       </c>
@@ -9454,7 +9464,7 @@
         <v>1217.7</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="17.25" customHeight="1">
+    <row r="4" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="117" t="s">
         <v>45</v>
       </c>
@@ -9500,7 +9510,7 @@
         <v>1230.7</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="17.25" customHeight="1">
+    <row r="5" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="117" t="s">
         <v>47</v>
       </c>
@@ -9546,7 +9556,7 @@
         <v>1246.7</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="17.25" customHeight="1">
+    <row r="6" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="117" t="s">
         <v>49</v>
       </c>
@@ -9592,7 +9602,7 @@
         <v>1213.7</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="17.25" customHeight="1">
+    <row r="7" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="117" t="s">
         <v>52</v>
       </c>
@@ -9626,7 +9636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="17.25" customHeight="1">
+    <row r="8" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="117" t="s">
         <v>54</v>
       </c>
@@ -9660,7 +9670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="17.25" customHeight="1">
+    <row r="9" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="117" t="s">
         <v>56</v>
       </c>
@@ -9691,7 +9701,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="17.25" customHeight="1">
+    <row r="10" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="117" t="s">
         <v>58</v>
       </c>
@@ -9707,7 +9717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="17.25" customHeight="1">
+    <row r="11" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="117" t="s">
         <v>59</v>
       </c>
@@ -9726,7 +9736,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="17.25" customHeight="1">
+    <row r="12" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="117" t="s">
         <v>61</v>
       </c>
@@ -9757,7 +9767,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="17.25" customHeight="1">
+    <row r="13" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="117" t="s">
         <v>62</v>
       </c>
@@ -9788,7 +9798,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="17.25" customHeight="1">
+    <row r="14" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="117" t="s">
         <v>67</v>
       </c>
@@ -9804,7 +9814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="17.25" customHeight="1">
+    <row r="15" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="117" t="s">
         <v>68</v>
       </c>
@@ -9820,7 +9830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="17.25" customHeight="1">
+    <row r="16" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="117" t="s">
         <v>69</v>
       </c>
@@ -9836,7 +9846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="17.25" customHeight="1">
+    <row r="17" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="117" t="s">
         <v>70</v>
       </c>
@@ -9852,7 +9862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="17.25" customHeight="1">
+    <row r="18" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="117" t="s">
         <v>71</v>
       </c>
@@ -9868,7 +9878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17.25" customHeight="1">
+    <row r="19" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="117" t="s">
         <v>72</v>
       </c>
@@ -9884,7 +9894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="17.25" customHeight="1">
+    <row r="20" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="117" t="s">
         <v>73</v>
       </c>
@@ -9900,7 +9910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="17.25" customHeight="1">
+    <row r="21" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="117" t="s">
         <v>74</v>
       </c>
@@ -9916,7 +9926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="17.25" customHeight="1">
+    <row r="22" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="117" t="s">
         <v>76</v>
       </c>
@@ -9932,7 +9942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="17.25" customHeight="1">
+    <row r="23" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="117" t="s">
         <v>77</v>
       </c>
@@ -9948,7 +9958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="17.25" customHeight="1">
+    <row r="24" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="117" t="s">
         <v>78</v>
       </c>
@@ -9965,7 +9975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="17.25" customHeight="1">
+    <row r="25" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="117" t="s">
         <v>79</v>
       </c>
@@ -9981,7 +9991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="17.25" customHeight="1">
+    <row r="26" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="117" t="s">
         <v>81</v>
       </c>
@@ -9997,7 +10007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="17.25" customHeight="1">
+    <row r="27" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="117" t="s">
         <v>82</v>
       </c>
@@ -10013,7 +10023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="17.25" customHeight="1">
+    <row r="28" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="117" t="s">
         <v>83</v>
       </c>
@@ -10030,7 +10040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="17.25" customHeight="1">
+    <row r="29" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="117" t="s">
         <v>84</v>
       </c>
@@ -10046,7 +10056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="17.25" customHeight="1">
+    <row r="30" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="117" t="s">
         <v>85</v>
       </c>
@@ -10062,7 +10072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="17.25" customHeight="1">
+    <row r="31" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="117" t="s">
         <v>86</v>
       </c>
@@ -10078,7 +10088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="17.25" customHeight="1">
+    <row r="32" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="117" t="s">
         <v>87</v>
       </c>
@@ -10094,7 +10104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="17.25" customHeight="1">
+    <row r="33" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="117" t="s">
         <v>88</v>
       </c>
@@ -10110,7 +10120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="17.25" customHeight="1">
+    <row r="34" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="117" t="s">
         <v>89</v>
       </c>
@@ -10126,7 +10136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="17.25" customHeight="1">
+    <row r="35" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="117" t="s">
         <v>90</v>
       </c>
@@ -10142,7 +10152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="17.25" customHeight="1">
+    <row r="36" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="117" t="s">
         <v>91</v>
       </c>
@@ -10158,7 +10168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="17.25" customHeight="1">
+    <row r="37" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="117" t="s">
         <v>92</v>
       </c>
@@ -10174,7 +10184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="17.25" customHeight="1">
+    <row r="38" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="117" t="s">
         <v>93</v>
       </c>
@@ -10191,7 +10201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="17.25" customHeight="1">
+    <row r="39" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="117" t="s">
         <v>94</v>
       </c>
@@ -10207,7 +10217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="17.25" customHeight="1">
+    <row r="40" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="117" t="s">
         <v>95</v>
       </c>
@@ -10223,7 +10233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="17.25" customHeight="1">
+    <row r="41" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="117" t="s">
         <v>96</v>
       </c>
@@ -10239,7 +10249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="17.25" customHeight="1">
+    <row r="42" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="117" t="s">
         <v>97</v>
       </c>
@@ -10255,7 +10265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="17.25" customHeight="1">
+    <row r="43" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="117" t="s">
         <v>98</v>
       </c>
@@ -10271,7 +10281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="17.25" customHeight="1">
+    <row r="44" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="117" t="s">
         <v>99</v>
       </c>
@@ -10287,7 +10297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="17.25" customHeight="1">
+    <row r="45" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="117" t="s">
         <v>100</v>
       </c>
@@ -10303,7 +10313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="17.25" customHeight="1">
+    <row r="46" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="117" t="s">
         <v>101</v>
       </c>
@@ -10319,7 +10329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="17.25" customHeight="1">
+    <row r="47" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="117" t="s">
         <v>102</v>
       </c>
@@ -10335,7 +10345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="17.25" customHeight="1">
+    <row r="48" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="117" t="s">
         <v>103</v>
       </c>
@@ -10351,7 +10361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="17.25" customHeight="1">
+    <row r="49" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="117" t="s">
         <v>104</v>
       </c>
@@ -10367,7 +10377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="17.25" customHeight="1">
+    <row r="50" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="117" t="s">
         <v>105</v>
       </c>
@@ -10384,7 +10394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="17.25" customHeight="1">
+    <row r="51" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="117" t="s">
         <v>106</v>
       </c>
@@ -10401,7 +10411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="17.25" customHeight="1">
+    <row r="52" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="117" t="s">
         <v>107</v>
       </c>
@@ -10417,7 +10427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="17.25" customHeight="1">
+    <row r="53" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="117" t="s">
         <v>108</v>
       </c>
@@ -10433,7 +10443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="17.25" customHeight="1">
+    <row r="54" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="117" t="s">
         <v>109</v>
       </c>
@@ -10449,7 +10459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="17.25" customHeight="1">
+    <row r="55" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="117" t="s">
         <v>110</v>
       </c>
@@ -10465,7 +10475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="17.25" customHeight="1">
+    <row r="56" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="117" t="s">
         <v>111</v>
       </c>
@@ -10481,7 +10491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="17.25" customHeight="1">
+    <row r="57" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="117" t="s">
         <v>112</v>
       </c>
@@ -10497,7 +10507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="17.25" customHeight="1">
+    <row r="58" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="117" t="s">
         <v>113</v>
       </c>
@@ -10513,7 +10523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="17.25" customHeight="1">
+    <row r="59" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="117" t="s">
         <v>114</v>
       </c>
@@ -10529,7 +10539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="17.25" customHeight="1">
+    <row r="60" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="117" t="s">
         <v>115</v>
       </c>
@@ -10545,7 +10555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="17.25" customHeight="1">
+    <row r="61" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="117" t="s">
         <v>116</v>
       </c>
@@ -10561,7 +10571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="17.25" customHeight="1">
+    <row r="62" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="117" t="s">
         <v>117</v>
       </c>
@@ -10577,7 +10587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="17.25" customHeight="1">
+    <row r="63" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="117" t="s">
         <v>118</v>
       </c>
@@ -10593,7 +10603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="17.25" customHeight="1">
+    <row r="64" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="117" t="s">
         <v>119</v>
       </c>
@@ -10609,7 +10619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="17.25" customHeight="1">
+    <row r="65" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="117" t="s">
         <v>120</v>
       </c>
@@ -10625,7 +10635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="17.25" customHeight="1">
+    <row r="66" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="117" t="s">
         <v>121</v>
       </c>
@@ -10641,7 +10651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="17.25" customHeight="1">
+    <row r="67" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="117" t="s">
         <v>122</v>
       </c>
@@ -10657,7 +10667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="17.25" customHeight="1">
+    <row r="68" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="117" t="s">
         <v>123</v>
       </c>
@@ -10673,7 +10683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="17.25" customHeight="1">
+    <row r="69" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="117" t="s">
         <v>125</v>
       </c>
@@ -10689,7 +10699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="17.25" customHeight="1">
+    <row r="70" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="117" t="s">
         <v>127</v>
       </c>
@@ -10705,7 +10715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="17.25" customHeight="1">
+    <row r="71" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="117" t="s">
         <v>129</v>
       </c>
@@ -10721,7 +10731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="17.25" customHeight="1">
+    <row r="72" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="117" t="s">
         <v>130</v>
       </c>
@@ -10737,7 +10747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="17.25" customHeight="1">
+    <row r="73" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="117" t="s">
         <v>131</v>
       </c>
@@ -10753,7 +10763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="17.25" customHeight="1">
+    <row r="74" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="117" t="s">
         <v>132</v>
       </c>
@@ -10769,7 +10779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="17.25" customHeight="1">
+    <row r="75" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="117" t="s">
         <v>133</v>
       </c>
@@ -10785,7 +10795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="17.25" customHeight="1">
+    <row r="76" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="117" t="s">
         <v>134</v>
       </c>
@@ -10801,7 +10811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="17.25" customHeight="1">
+    <row r="77" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="117" t="s">
         <v>135</v>
       </c>
@@ -10817,7 +10827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="17.25" customHeight="1">
+    <row r="78" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="117" t="s">
         <v>136</v>
       </c>
@@ -10833,7 +10843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="17.25" customHeight="1">
+    <row r="79" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="117" t="s">
         <v>137</v>
       </c>
@@ -10849,7 +10859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="17.25" customHeight="1">
+    <row r="80" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="117" t="s">
         <v>138</v>
       </c>
@@ -10865,7 +10875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="17.25" customHeight="1">
+    <row r="81" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="117" t="s">
         <v>139</v>
       </c>
@@ -10881,7 +10891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="17.25" customHeight="1">
+    <row r="82" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="117" t="s">
         <v>141</v>
       </c>
@@ -10897,7 +10907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="17.25" customHeight="1">
+    <row r="83" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="117" t="s">
         <v>142</v>
       </c>
@@ -10913,7 +10923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="17.25" customHeight="1">
+    <row r="84" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="117" t="s">
         <v>143</v>
       </c>
@@ -10929,7 +10939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="17.25" customHeight="1">
+    <row r="85" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="117" t="s">
         <v>144</v>
       </c>
@@ -10945,7 +10955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="17.25" customHeight="1">
+    <row r="86" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="117" t="s">
         <v>146</v>
       </c>
@@ -10961,7 +10971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="17.25" customHeight="1">
+    <row r="87" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="117" t="s">
         <v>147</v>
       </c>
@@ -10977,7 +10987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="17.25" customHeight="1">
+    <row r="88" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="117" t="s">
         <v>148</v>
       </c>
@@ -10993,7 +11003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="17.25" customHeight="1">
+    <row r="89" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="117" t="s">
         <v>149</v>
       </c>
@@ -11009,7 +11019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="17.25" customHeight="1">
+    <row r="90" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="117" t="s">
         <v>150</v>
       </c>
@@ -11025,7 +11035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="17.25" customHeight="1">
+    <row r="91" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="117" t="s">
         <v>151</v>
       </c>
@@ -11041,7 +11051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="17.25" customHeight="1">
+    <row r="92" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="117" t="s">
         <v>152</v>
       </c>
@@ -11057,7 +11067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="17.25" customHeight="1">
+    <row r="93" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="117" t="s">
         <v>153</v>
       </c>
@@ -11073,7 +11083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="17.25" customHeight="1">
+    <row r="94" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="117" t="s">
         <v>154</v>
       </c>
@@ -11089,7 +11099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="17.25" customHeight="1">
+    <row r="95" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="117" t="s">
         <v>155</v>
       </c>
@@ -11105,7 +11115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="17.25" customHeight="1">
+    <row r="96" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="117" t="s">
         <v>156</v>
       </c>
@@ -11121,7 +11131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="17.25" customHeight="1">
+    <row r="97" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="117" t="s">
         <v>157</v>
       </c>
@@ -11137,7 +11147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="17.25" customHeight="1">
+    <row r="98" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="117" t="s">
         <v>158</v>
       </c>
@@ -11153,7 +11163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="17.25" customHeight="1">
+    <row r="99" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="117" t="s">
         <v>159</v>
       </c>
@@ -11169,20 +11179,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="17.25" customHeight="1">
+    <row r="100" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="117" t="s">
         <v>160</v>
       </c>
       <c r="B100" s="19">
         <f ca="1">NOW()</f>
-        <v>45741.742819212966</v>
+        <v>45903.455123148146</v>
       </c>
       <c r="D100" s="117">
         <f ca="1">IF(ISNUMBER(B100),1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="17.25" customHeight="1">
+    <row r="101" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="117" t="s">
         <v>161</v>
       </c>
@@ -11198,7 +11208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="17.25" customHeight="1">
+    <row r="102" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="117" t="s">
         <v>162</v>
       </c>
@@ -11214,7 +11224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="17.25" customHeight="1">
+    <row r="103" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="117" t="s">
         <v>163</v>
       </c>
@@ -11230,7 +11240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="17.25" customHeight="1">
+    <row r="104" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="117" t="s">
         <v>164</v>
       </c>
@@ -11246,7 +11256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="17.25" customHeight="1">
+    <row r="105" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="117" t="s">
         <v>165</v>
       </c>
@@ -11262,7 +11272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="17.25" customHeight="1">
+    <row r="106" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="117" t="s">
         <v>166</v>
       </c>
@@ -11278,7 +11288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="17.25" customHeight="1">
+    <row r="107" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="117" t="s">
         <v>167</v>
       </c>
@@ -11294,7 +11304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="17.25" customHeight="1">
+    <row r="108" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="117" t="s">
         <v>168</v>
       </c>
@@ -11310,7 +11320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="17.25" customHeight="1">
+    <row r="109" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="117" t="s">
         <v>169</v>
       </c>
@@ -11326,7 +11336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="17.25" customHeight="1">
+    <row r="110" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="117" t="s">
         <v>170</v>
       </c>
@@ -11342,7 +11352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="17.25" customHeight="1">
+    <row r="111" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="117" t="s">
         <v>171</v>
       </c>
@@ -11358,12 +11368,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="17.25" customHeight="1">
+    <row r="112" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="117"/>
       <c r="B112" s="117"/>
       <c r="D112" s="117"/>
     </row>
-    <row r="113" spans="1:4" ht="17.25" customHeight="1">
+    <row r="113" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="117" t="s">
         <v>172</v>
       </c>
@@ -11379,7 +11389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="17.25" customHeight="1">
+    <row r="114" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="117" t="s">
         <v>173</v>
       </c>
@@ -11395,7 +11405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="17.25" customHeight="1">
+    <row r="115" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="117" t="s">
         <v>175</v>
       </c>
@@ -11411,7 +11421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="17.25" customHeight="1">
+    <row r="116" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="117" t="s">
         <v>177</v>
       </c>
@@ -11427,7 +11437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="17.25" customHeight="1">
+    <row r="117" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="117" t="s">
         <v>178</v>
       </c>
@@ -11443,7 +11453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="17.25" customHeight="1">
+    <row r="118" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="117" t="s">
         <v>179</v>
       </c>
@@ -11459,7 +11469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="17.25" customHeight="1">
+    <row r="119" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="117" t="s">
         <v>180</v>
       </c>
@@ -11475,7 +11485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="17.25" customHeight="1">
+    <row r="120" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="117" t="s">
         <v>181</v>
       </c>
@@ -11491,7 +11501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="17.25" customHeight="1">
+    <row r="121" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="117" t="s">
         <v>182</v>
       </c>
@@ -11507,7 +11517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="17.25" customHeight="1">
+    <row r="122" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="117" t="s">
         <v>183</v>
       </c>
@@ -11523,7 +11533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="17.25" customHeight="1">
+    <row r="123" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="117" t="s">
         <v>184</v>
       </c>
@@ -11539,7 +11549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="17.25" customHeight="1">
+    <row r="124" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="117" t="s">
         <v>185</v>
       </c>
@@ -11555,7 +11565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="17.25" customHeight="1">
+    <row r="125" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="117" t="s">
         <v>186</v>
       </c>
@@ -11571,7 +11581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="17.25" customHeight="1">
+    <row r="126" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="117" t="s">
         <v>187</v>
       </c>
@@ -11587,7 +11597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="17.25" customHeight="1">
+    <row r="127" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="117" t="s">
         <v>188</v>
       </c>
@@ -11603,7 +11613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="17.25" customHeight="1">
+    <row r="128" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="117" t="s">
         <v>189</v>
       </c>
@@ -11619,7 +11629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="17.25" customHeight="1">
+    <row r="129" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="117" t="s">
         <v>190</v>
       </c>
@@ -11635,7 +11645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="17.25" customHeight="1">
+    <row r="130" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="117" t="s">
         <v>191</v>
       </c>
@@ -11651,7 +11661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="17.25" customHeight="1">
+    <row r="131" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="117" t="s">
         <v>192</v>
       </c>
@@ -11667,7 +11677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="17.25" customHeight="1">
+    <row r="132" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="117" t="s">
         <v>193</v>
       </c>
@@ -11683,7 +11693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="17.25" customHeight="1">
+    <row r="133" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="117" t="s">
         <v>194</v>
       </c>
@@ -11699,7 +11709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="17.25" customHeight="1">
+    <row r="134" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="117" t="s">
         <v>195</v>
       </c>
@@ -11715,7 +11725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="17.25" customHeight="1">
+    <row r="135" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="117" t="s">
         <v>196</v>
       </c>
@@ -11731,7 +11741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="17.25" customHeight="1">
+    <row r="136" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="117" t="s">
         <v>198</v>
       </c>
@@ -11747,7 +11757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="17.25" customHeight="1">
+    <row r="137" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="117" t="s">
         <v>199</v>
       </c>
@@ -11763,7 +11773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="17.25" customHeight="1">
+    <row r="138" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="117" t="s">
         <v>200</v>
       </c>
@@ -11779,7 +11789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="17.25" customHeight="1">
+    <row r="139" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="117" t="s">
         <v>201</v>
       </c>
@@ -11795,7 +11805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="17.25" customHeight="1">
+    <row r="140" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="117" t="s">
         <v>202</v>
       </c>
@@ -11811,7 +11821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="17.25" customHeight="1">
+    <row r="141" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="117" t="s">
         <v>203</v>
       </c>
@@ -11827,7 +11837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="17.25" customHeight="1">
+    <row r="142" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="117" t="s">
         <v>205</v>
       </c>
@@ -11843,7 +11853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="17.25" customHeight="1">
+    <row r="143" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="117" t="s">
         <v>206</v>
       </c>
@@ -11859,20 +11869,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="17.25" customHeight="1">
+    <row r="144" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="117" t="s">
         <v>207</v>
       </c>
       <c r="B144" s="18">
         <f ca="1">TODAY()</f>
-        <v>45741</v>
+        <v>45903</v>
       </c>
       <c r="D144" s="117">
         <f ca="1">IF(ISNUMBER(B144),1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="17.25" customHeight="1">
+    <row r="145" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="117" t="s">
         <v>208</v>
       </c>
@@ -11888,7 +11898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="17.25" customHeight="1">
+    <row r="146" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="117" t="s">
         <v>210</v>
       </c>
@@ -11904,7 +11914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="17.25" customHeight="1">
+    <row r="147" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="117" t="s">
         <v>211</v>
       </c>
@@ -11920,7 +11930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="17.25" customHeight="1">
+    <row r="148" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="117" t="s">
         <v>213</v>
       </c>
@@ -11936,7 +11946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="17.25" customHeight="1">
+    <row r="149" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="117" t="s">
         <v>214</v>
       </c>
@@ -11952,7 +11962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="17.25" customHeight="1">
+    <row r="150" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="117" t="s">
         <v>215</v>
       </c>
@@ -11968,7 +11978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="17.25" customHeight="1">
+    <row r="151" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="117" t="s">
         <v>216</v>
       </c>
@@ -11984,7 +11994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="17.25" customHeight="1">
+    <row r="152" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="117" t="s">
         <v>217</v>
       </c>
@@ -12000,7 +12010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="17.25" customHeight="1">
+    <row r="153" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="117" t="s">
         <v>218</v>
       </c>
@@ -12016,7 +12026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="17.25" customHeight="1">
+    <row r="154" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="117" t="s">
         <v>219</v>
       </c>
@@ -12033,7 +12043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="17.25" customHeight="1">
+    <row r="155" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="117" t="s">
         <v>220</v>
       </c>
@@ -12049,7 +12059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="17.25" customHeight="1">
+    <row r="156" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="117" t="s">
         <v>221</v>
       </c>
@@ -12065,7 +12075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="17.25" customHeight="1">
+    <row r="157" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="117" t="s">
         <v>222</v>
       </c>
@@ -12081,7 +12091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="17.25" customHeight="1">
+    <row r="158" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="117" t="s">
         <v>223</v>
       </c>
@@ -12097,7 +12107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="17.25" customHeight="1">
+    <row r="159" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="117" t="s">
         <v>224</v>
       </c>
@@ -12113,7 +12123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="17.25" customHeight="1">
+    <row r="160" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="117" t="s">
         <v>225</v>
       </c>
@@ -12129,7 +12139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="17.25" customHeight="1">
+    <row r="161" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="117" t="s">
         <v>226</v>
       </c>
@@ -12145,7 +12155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="17.25" customHeight="1">
+    <row r="162" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="117" t="s">
         <v>227</v>
       </c>
@@ -12161,7 +12171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="17.25" customHeight="1">
+    <row r="163" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="117" t="s">
         <v>229</v>
       </c>
@@ -12179,10 +12189,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D180">
-    <cfRule type="cellIs" dxfId="42" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12202,7 +12212,7 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelRow="2" outlineLevelCol="2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" customWidth="1"/>
@@ -12212,7 +12222,7 @@
     <col min="15" max="18" width="9.140625" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>230</v>
       </c>
@@ -12230,7 +12240,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>SUM(A1)</f>
         <v>0</v>
@@ -12242,7 +12252,7 @@
         <v>referenced string</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D3" s="85" t="s">
         <v>235</v>
       </c>
@@ -12250,25 +12260,25 @@
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="75" customHeight="1">
+    <row r="5" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="10" spans="1:8" outlineLevel="1"/>
-    <row r="11" spans="1:8" outlineLevel="1"/>
-    <row r="12" spans="1:8" hidden="1" outlineLevel="2"/>
-    <row r="13" spans="1:8" hidden="1" outlineLevel="2"/>
-    <row r="14" spans="1:8" hidden="1" outlineLevel="2"/>
-    <row r="15" spans="1:8" outlineLevel="1" collapsed="1"/>
-    <row r="16" spans="1:8" outlineLevel="1"/>
-    <row r="17" outlineLevel="1"/>
-    <row r="18" outlineLevel="1"/>
+    <row r="10" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:8" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="17" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="18" outlineLevel="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D1:E2"/>
@@ -12290,14 +12300,14 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" customWidth="1"/>
     <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="13.5" thickBot="1">
+    <row r="1" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="68" t="s">
         <v>239</v>
       </c>
@@ -12319,7 +12329,7 @@
       </c>
       <c r="M1" s="36"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
         <v>245</v>
       </c>
@@ -12345,7 +12355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="41" t="s">
         <v>252</v>
       </c>
@@ -12368,7 +12378,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15">
+    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="42" t="s">
         <v>256</v>
       </c>
@@ -12394,7 +12404,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="43" t="s">
         <v>262</v>
       </c>
@@ -12414,7 +12424,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="44" t="s">
         <v>266</v>
       </c>
@@ -12437,7 +12447,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.75">
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="45" t="s">
         <v>271</v>
       </c>
@@ -12457,7 +12467,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="21">
+    <row r="8" spans="1:13" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="46" t="s">
         <v>275</v>
       </c>
@@ -12480,7 +12490,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="47" t="s">
         <v>280</v>
       </c>
@@ -12497,7 +12507,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="48" t="s">
         <v>283</v>
       </c>
@@ -12505,7 +12515,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="13.5" thickBot="1">
+    <row r="11" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="49" t="s">
         <v>285</v>
       </c>
@@ -12514,7 +12524,7 @@
       </c>
       <c r="F11" s="36"/>
     </row>
-    <row r="12" spans="1:13" ht="18.75" customHeight="1">
+    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="50" t="s">
         <v>287</v>
       </c>
@@ -12528,7 +12538,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="18.75" customHeight="1" thickBot="1">
+    <row r="13" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="51" t="s">
         <v>290</v>
       </c>
@@ -12539,7 +12549,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="18.75" customHeight="1" thickBot="1">
+    <row r="14" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="52" t="s">
         <v>291</v>
       </c>
@@ -12553,7 +12563,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="18.75" customHeight="1" thickBot="1">
+    <row r="15" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="53" t="s">
         <v>293</v>
       </c>
@@ -12564,7 +12574,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="19.5" customHeight="1" thickBot="1">
+    <row r="16" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="54" t="s">
         <v>294</v>
       </c>
@@ -12578,12 +12588,12 @@
         <v>248</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.5" thickBot="1">
+    <row r="17" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.5" thickBot="1">
+    <row r="18" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="74" t="s">
         <v>297</v>
       </c>
@@ -12595,7 +12605,7 @@
       </c>
       <c r="F18" s="36"/>
     </row>
-    <row r="19" spans="1:6" ht="13.5" thickBot="1">
+    <row r="19" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="75" t="s">
         <v>300</v>
       </c>
@@ -12606,7 +12616,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="51.75" thickBot="1">
+    <row r="20" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="76" t="s">
         <v>303</v>
       </c>
@@ -12620,12 +12630,12 @@
         <v>302</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.5" thickBot="1">
+    <row r="21" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="77" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.5" thickBot="1">
+    <row r="22" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="78" t="s">
         <v>307</v>
       </c>
@@ -12634,13 +12644,13 @@
       </c>
       <c r="E22" s="21"/>
     </row>
-    <row r="23" spans="1:6" ht="13.5" thickBot="1">
+    <row r="23" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="79" t="s">
         <v>309</v>
       </c>
       <c r="E23" s="21"/>
     </row>
-    <row r="24" spans="1:6" ht="14.25" thickTop="1" thickBot="1">
+    <row r="24" spans="1:6" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="80" t="s">
         <v>310</v>
       </c>
@@ -12649,20 +12659,20 @@
       </c>
       <c r="E24" s="21"/>
     </row>
-    <row r="25" spans="1:6" ht="14.25" thickTop="1" thickBot="1"/>
-    <row r="26" spans="1:6" ht="14.25" thickTop="1" thickBot="1">
+    <row r="25" spans="1:6" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:6" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C26" s="67" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="14.25" thickTop="1" thickBot="1"/>
-    <row r="28" spans="1:6" ht="14.25" thickTop="1" thickBot="1">
+    <row r="27" spans="1:6" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:6" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C28" s="88" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="13.5" thickTop="1"/>
-    <row r="30" spans="1:6">
+    <row r="29" spans="1:6" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C30" s="87" t="s">
         <v>314</v>
       </c>
@@ -12677,17 +12687,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D919E811-4385-4D35-A19E-3B7E0E659A89}">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.140625" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13.5" thickBot="1">
+    <row r="1" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
         <v>315</v>
       </c>
@@ -12704,7 +12714,7 @@
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="s">
         <v>319</v>
       </c>
@@ -12727,7 +12737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="38" t="s">
         <v>321</v>
       </c>
@@ -12750,7 +12760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="38" t="s">
         <v>325</v>
       </c>
@@ -12770,7 +12780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="38" t="s">
         <v>328</v>
       </c>
@@ -12794,7 +12804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="38" t="s">
         <v>330</v>
       </c>
@@ -12817,7 +12827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="38" t="s">
         <v>333</v>
       </c>
@@ -12843,7 +12853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="38" t="s">
         <v>337</v>
       </c>
@@ -12854,7 +12864,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="38" t="s">
         <v>339</v>
       </c>
@@ -12863,7 +12873,7 @@
       </c>
       <c r="C9" s="21"/>
     </row>
-    <row r="10" spans="1:10" ht="13.5" thickBot="1">
+    <row r="10" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>340</v>
       </c>
@@ -12881,7 +12891,7 @@
       <c r="I10" s="36"/>
       <c r="J10" s="36"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
         <v>342</v>
       </c>
@@ -12904,13 +12914,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
         <v>344</v>
       </c>
       <c r="B12" s="39">
         <f ca="1">TODAY()</f>
-        <v>45741</v>
+        <v>45903</v>
       </c>
       <c r="C12" s="39">
         <f>DATE(2010,10,2)</f>
@@ -12929,7 +12939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="38" t="s">
         <v>346</v>
       </c>
@@ -12952,7 +12962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="38" t="s">
         <v>348</v>
       </c>
@@ -12978,7 +12988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="38" t="s">
         <v>350</v>
       </c>
@@ -12998,7 +13008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
         <v>352</v>
       </c>
@@ -13021,7 +13031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="38" t="s">
         <v>354</v>
       </c>
@@ -13044,7 +13054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="38" t="s">
         <v>356</v>
       </c>
@@ -13067,7 +13077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="38" t="s">
         <v>358</v>
       </c>
@@ -13090,7 +13100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="38" t="s">
         <v>360</v>
       </c>
@@ -13113,7 +13123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="38" t="s">
         <v>362</v>
       </c>
@@ -13139,7 +13149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="38" t="s">
         <v>364</v>
       </c>
@@ -13165,7 +13175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="38" t="s">
         <v>366</v>
       </c>
@@ -13191,7 +13201,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G24" s="34" t="s">
         <v>368</v>
       </c>
@@ -13208,7 +13218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="38" t="s">
         <v>369</v>
       </c>
@@ -13234,7 +13244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G26" s="34" t="s">
         <v>371</v>
       </c>
@@ -13254,7 +13264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="21" t="s">
         <v>372</v>
       </c>
@@ -13280,7 +13290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G28" s="34" t="s">
         <v>374</v>
       </c>
@@ -13300,7 +13310,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="38" t="s">
+        <v>440</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
       <c r="G29" s="34" t="s">
         <v>375</v>
       </c>
@@ -13320,7 +13339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G30" s="34" t="s">
         <v>376</v>
       </c>
@@ -13340,7 +13359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="13.5" thickBot="1">
+    <row r="31" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G31" s="35" t="s">
         <v>377</v>
       </c>
@@ -13354,7 +13373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G32" s="34" t="s">
         <v>378</v>
       </c>
@@ -13368,7 +13387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="7:10">
+    <row r="33" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G33" s="34" t="s">
         <v>379</v>
       </c>
@@ -13382,7 +13401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="7:10">
+    <row r="34" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G34" s="34" t="s">
         <v>380</v>
       </c>
@@ -13396,7 +13415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="7:10">
+    <row r="35" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G35" s="34" t="s">
         <v>381</v>
       </c>
@@ -13410,7 +13429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="7:10">
+    <row r="36" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G36" s="34" t="s">
         <v>382</v>
       </c>
@@ -13424,7 +13443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="7:10">
+    <row r="37" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G37" s="34" t="s">
         <v>383</v>
       </c>
@@ -13438,116 +13457,116 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="7:10">
+    <row r="39" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G39" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="21" type="noConversion"/>
   <conditionalFormatting sqref="B15">
-    <cfRule type="expression" dxfId="40" priority="58">
+    <cfRule type="expression" dxfId="23" priority="59">
       <formula>ODD(B15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B27">
-    <cfRule type="cellIs" dxfId="39" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="47" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C2">
-    <cfRule type="aboveAverage" dxfId="38" priority="114"/>
+    <cfRule type="aboveAverage" dxfId="21" priority="115"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3">
-    <cfRule type="beginsWith" dxfId="37" priority="73" operator="beginsWith" text="rule">
+    <cfRule type="beginsWith" dxfId="20" priority="74" operator="beginsWith" text="rule">
       <formula>LEFT(B3,LEN("rule"))="rule"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:C4">
-    <cfRule type="containsBlanks" dxfId="36" priority="71">
+    <cfRule type="containsBlanks" dxfId="19" priority="72">
       <formula>LEN(TRIM(B4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="containsErrors" dxfId="35" priority="70">
+    <cfRule type="containsErrors" dxfId="18" priority="71">
       <formula>ISERROR(B5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:C6">
-    <cfRule type="containsText" dxfId="34" priority="69" operator="containsText" text="rule">
+    <cfRule type="containsText" dxfId="17" priority="70" operator="containsText" text="rule">
       <formula>NOT(ISERROR(SEARCH("rule",B6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:C8">
-    <cfRule type="endsWith" dxfId="33" priority="67" operator="endsWith" text="rule">
+    <cfRule type="endsWith" dxfId="16" priority="68" operator="endsWith" text="rule">
       <formula>RIGHT(B8,LEN("rule"))="rule"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:C9">
-    <cfRule type="notContainsBlanks" dxfId="32" priority="66">
+    <cfRule type="notContainsBlanks" dxfId="15" priority="67">
       <formula>LEN(TRIM(B9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:C10">
-    <cfRule type="notContainsErrors" dxfId="31" priority="65">
+    <cfRule type="notContainsErrors" dxfId="14" priority="66">
       <formula>NOT(ISERROR(B10))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11">
-    <cfRule type="notContainsText" dxfId="30" priority="64" operator="notContains" text="rule">
+    <cfRule type="notContainsText" dxfId="13" priority="65" operator="notContains" text="rule">
       <formula>ISERROR(SEARCH("rule",B11))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:C12">
-    <cfRule type="timePeriod" dxfId="29" priority="63" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="12" priority="64" timePeriod="today">
       <formula>FLOOR(B12,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:C13">
-    <cfRule type="top10" dxfId="28" priority="115" rank="1"/>
+    <cfRule type="top10" dxfId="11" priority="116" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:C16">
-    <cfRule type="cellIs" dxfId="27" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="46" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:C17">
-    <cfRule type="cellIs" dxfId="26" priority="56" operator="notEqual">
+    <cfRule type="cellIs" dxfId="9" priority="57" operator="notEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:C18">
-    <cfRule type="cellIs" dxfId="25" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="greaterThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:C19">
-    <cfRule type="cellIs" dxfId="24" priority="5" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:C20">
-    <cfRule type="cellIs" dxfId="23" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="lessThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:C21">
-    <cfRule type="cellIs" dxfId="22" priority="3" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:C22">
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="between">
       <formula>2</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:C23">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="notBetween">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="notBetween">
       <formula>2</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:C24">
-    <cfRule type="dataBar" priority="100">
+    <cfRule type="dataBar" priority="101">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -13561,7 +13580,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:C25">
-    <cfRule type="dataBar" priority="7">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -13575,13 +13594,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:D7">
-    <cfRule type="duplicateValues" dxfId="19" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:D14">
-    <cfRule type="uniqueValues" dxfId="18" priority="96"/>
+    <cfRule type="uniqueValues" dxfId="1" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:J2">
-    <cfRule type="colorScale" priority="44">
+    <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -13591,7 +13610,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:J3">
-    <cfRule type="colorScale" priority="42">
+    <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13603,7 +13622,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:J4">
-    <cfRule type="colorScale" priority="41">
+    <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="num" val="1"/>
         <cfvo type="num" val="5"/>
@@ -13613,7 +13632,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:J5">
-    <cfRule type="colorScale" priority="40">
+    <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="percent" val="10"/>
         <cfvo type="percent" val="90"/>
@@ -13623,7 +13642,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:J6">
-    <cfRule type="colorScale" priority="39">
+    <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="percentile" val="10"/>
         <cfvo type="percentile" val="90"/>
@@ -13633,7 +13652,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:J7">
-    <cfRule type="colorScale" priority="37">
+    <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="formula" val="$J$6"/>
         <cfvo type="formula" val="$H$6"/>
@@ -13643,7 +13662,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:J11">
-    <cfRule type="iconSet" priority="36">
+    <cfRule type="iconSet" priority="37">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -13652,7 +13671,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:J12">
-    <cfRule type="iconSet" priority="35">
+    <cfRule type="iconSet" priority="36">
       <iconSet iconSet="3ArrowsGray">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="2"/>
@@ -13661,7 +13680,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:J13">
-    <cfRule type="iconSet" priority="34">
+    <cfRule type="iconSet" priority="35">
       <iconSet iconSet="3Flags">
         <cfvo type="percent" val="0"/>
         <cfvo type="percentile" val="33"/>
@@ -13670,7 +13689,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14:J14">
-    <cfRule type="iconSet" priority="33">
+    <cfRule type="iconSet" priority="34">
       <iconSet>
         <cfvo type="percent" val="0"/>
         <cfvo type="formula" val="$I$14"/>
@@ -13679,7 +13698,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15:J15">
-    <cfRule type="iconSet" priority="32">
+    <cfRule type="iconSet" priority="33">
       <iconSet iconSet="3TrafficLights2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -13688,7 +13707,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16:J16">
-    <cfRule type="iconSet" priority="31">
+    <cfRule type="iconSet" priority="32">
       <iconSet iconSet="3Signs">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -13697,7 +13716,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:J17">
-    <cfRule type="iconSet" priority="30">
+    <cfRule type="iconSet" priority="31">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -13706,7 +13725,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18:J18">
-    <cfRule type="iconSet" priority="29">
+    <cfRule type="iconSet" priority="30">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -13715,7 +13734,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32:J32">
-    <cfRule type="iconSet" priority="28">
+    <cfRule type="iconSet" priority="29">
       <iconSet iconSet="3Arrows" reverse="1">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -13724,7 +13743,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33:J33">
-    <cfRule type="iconSet" priority="27">
+    <cfRule type="iconSet" priority="28">
       <iconSet iconSet="3Arrows" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -13733,7 +13752,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34:J34">
-    <cfRule type="iconSet" priority="26">
+    <cfRule type="iconSet" priority="27">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="0" gte="0"/>
@@ -13742,7 +13761,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21:K21">
-    <cfRule type="iconSet" priority="18">
+    <cfRule type="iconSet" priority="19">
       <iconSet iconSet="4Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -13752,7 +13771,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:K22">
-    <cfRule type="iconSet" priority="17">
+    <cfRule type="iconSet" priority="18">
       <iconSet iconSet="4ArrowsGray">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -13762,7 +13781,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23:K23">
-    <cfRule type="iconSet" priority="16">
+    <cfRule type="iconSet" priority="17">
       <iconSet iconSet="4RedToBlack">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -13772,7 +13791,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24:K24">
-    <cfRule type="iconSet" priority="15">
+    <cfRule type="iconSet" priority="16">
       <iconSet iconSet="4Rating">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -13782,7 +13801,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25:K25">
-    <cfRule type="iconSet" priority="14">
+    <cfRule type="iconSet" priority="15">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -13792,7 +13811,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26:L26">
-    <cfRule type="iconSet" priority="13">
+    <cfRule type="iconSet" priority="14">
       <iconSet iconSet="5Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="20"/>
@@ -13803,7 +13822,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27:L27">
-    <cfRule type="iconSet" priority="12">
+    <cfRule type="iconSet" priority="13">
       <iconSet iconSet="5ArrowsGray">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="20"/>
@@ -13814,7 +13833,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28:L28">
-    <cfRule type="iconSet" priority="11">
+    <cfRule type="iconSet" priority="12">
       <iconSet iconSet="5Rating">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="20"/>
@@ -13825,7 +13844,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29:L29">
-    <cfRule type="iconSet" priority="10">
+    <cfRule type="iconSet" priority="11">
       <iconSet iconSet="5Quarters">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="20"/>
@@ -13833,6 +13852,12 @@
         <cfvo type="percent" val="60"/>
         <cfvo type="percent" val="80"/>
       </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:C29">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
+      <formula>$B$23</formula>
+      <formula>2+2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13863,7 +13888,7 @@
           <xm:sqref>B25:C25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="20" id="{0776DCAB-3210-41C4-A113-32FD4847A5ED}">
+          <x14:cfRule type="iconSet" priority="21" id="{0776DCAB-3210-41C4-A113-32FD4847A5ED}">
             <x14:iconSet iconSet="3Stars">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13879,7 +13904,7 @@
           <xm:sqref>H19:J19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="19" id="{367C8C3A-A19C-489B-B02C-135E717D92A5}">
+          <x14:cfRule type="iconSet" priority="20" id="{367C8C3A-A19C-489B-B02C-135E717D92A5}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13895,7 +13920,7 @@
           <xm:sqref>H20:J20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="8" id="{2F0448E0-FD4B-4CC6-8AFB-1FCD78ED3F40}">
+          <x14:cfRule type="iconSet" priority="9" id="{2F0448E0-FD4B-4CC6-8AFB-1FCD78ED3F40}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13914,7 +13939,7 @@
           <xm:sqref>H31:J31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="25" id="{EDB615C5-C26E-42E3-8D7C-CFC96E348794}">
+          <x14:cfRule type="iconSet" priority="26" id="{EDB615C5-C26E-42E3-8D7C-CFC96E348794}">
             <x14:iconSet iconSet="3Arrows" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13933,7 +13958,7 @@
           <xm:sqref>H35:J35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="24" id="{3673FAEE-9C58-4DC2-8FFB-38004FA3122F}">
+          <x14:cfRule type="iconSet" priority="25" id="{3673FAEE-9C58-4DC2-8FFB-38004FA3122F}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13952,7 +13977,7 @@
           <xm:sqref>H36:J36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="23" id="{BEA8CADB-6314-47A4-B945-05492B4E899C}">
+          <x14:cfRule type="iconSet" priority="24" id="{BEA8CADB-6314-47A4-B945-05492B4E899C}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13971,7 +13996,7 @@
           <xm:sqref>H37:J37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="9" id="{DD78C548-721C-42F8-BA23-99215A699C4C}">
+          <x14:cfRule type="iconSet" priority="10" id="{DD78C548-721C-42F8-BA23-99215A699C4C}">
             <x14:iconSet iconSet="5Boxes">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14006,7 +14031,7 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="17.28515625" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" customWidth="1"/>
@@ -14018,12 +14043,12 @@
     <col min="10" max="10" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15">
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C3" s="17" t="s">
         <v>35</v>
       </c>
@@ -14049,7 +14074,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C4" s="117" t="s">
         <v>42</v>
       </c>
@@ -14080,7 +14105,7 @@
         <v>Rank</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C5" s="117" t="s">
         <v>44</v>
       </c>
@@ -14111,7 +14136,7 @@
         <v>Rank</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C6" s="117" t="s">
         <v>391</v>
       </c>
@@ -14144,7 +14169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>392</v>
       </c>
@@ -14170,7 +14195,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C9">
         <v>3</v>
       </c>
@@ -14198,7 +14223,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>398</v>
       </c>
@@ -14209,7 +14234,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C12">
         <v>3</v>
       </c>
@@ -14217,7 +14242,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>401</v>
       </c>
@@ -14228,7 +14253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C15">
         <v>3</v>
       </c>
@@ -14236,7 +14261,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>402</v>
       </c>
@@ -14247,7 +14272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C18">
         <v>3</v>
       </c>
@@ -14255,7 +14280,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>403</v>
       </c>
@@ -14266,7 +14291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C21">
         <v>3</v>
       </c>
@@ -14274,7 +14299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>404</v>
       </c>
@@ -14285,7 +14310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:4">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C24">
         <v>3</v>
       </c>
@@ -14293,7 +14318,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="2:4">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>405</v>
       </c>
@@ -14304,7 +14329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:4">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C27">
         <v>3</v>
       </c>
@@ -14312,7 +14337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
         <v>391</v>
       </c>
@@ -14321,7 +14346,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="2:4">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>406</v>
       </c>
@@ -14332,7 +14357,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="31" spans="2:4" hidden="1">
+    <row r="31" spans="2:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
         <v>409</v>
       </c>
@@ -14340,7 +14365,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="32" spans="2:4">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
         <v>410</v>
       </c>
@@ -14348,7 +14373,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>411</v>
       </c>
@@ -14378,7 +14403,7 @@
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
@@ -14399,7 +14424,7 @@
     <col min="21" max="21" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15">
+    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="92" t="s">
         <v>412</v>
       </c>
@@ -14409,7 +14434,7 @@
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="117"/>
       <c r="B2" s="117"/>
       <c r="C2" s="117"/>
@@ -14417,7 +14442,7 @@
       <c r="E2" s="117"/>
       <c r="F2" s="117"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="117"/>
       <c r="B3" s="117"/>
       <c r="C3" s="89" t="s">
@@ -14427,7 +14452,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="117"/>
       <c r="B4" s="117"/>
       <c r="C4" s="89" t="s">
@@ -14461,7 +14486,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="117"/>
       <c r="B5" s="117"/>
       <c r="C5" s="90" t="s">
@@ -14474,7 +14499,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="117"/>
       <c r="B6" s="117"/>
       <c r="C6" s="91">
@@ -14487,7 +14512,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="117"/>
       <c r="B7" s="117"/>
       <c r="C7" s="90" t="s">
@@ -14500,7 +14525,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="117"/>
       <c r="B8" s="117"/>
       <c r="C8" s="91">
@@ -14513,7 +14538,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="117"/>
       <c r="B9" s="117"/>
       <c r="C9" s="90" t="s">
@@ -14526,7 +14551,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="117"/>
       <c r="B10" s="117"/>
       <c r="C10" s="91">
@@ -14539,7 +14564,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="90" t="s">
         <v>44</v>
       </c>
@@ -14550,7 +14575,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="91">
         <v>23000</v>
       </c>
@@ -14561,7 +14586,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="90" t="s">
         <v>50</v>
       </c>
@@ -14572,7 +14597,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="91">
         <v>2</v>
       </c>
@@ -14583,7 +14608,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="90" t="s">
         <v>48</v>
       </c>
@@ -14594,7 +14619,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C16" s="91">
         <v>50024</v>
       </c>
@@ -14605,7 +14630,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="3:12">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="90" t="s">
         <v>53</v>
       </c>
@@ -14616,7 +14641,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="3:12">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="91">
         <v>189576</v>
       </c>
@@ -14627,7 +14652,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="3:12">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="90" t="s">
         <v>57</v>
       </c>
@@ -14638,7 +14663,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="3:12">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="91">
         <v>5000</v>
       </c>
@@ -14649,7 +14674,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="3:12">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="90" t="s">
         <v>416</v>
       </c>
@@ -14691,33 +14716,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C47BF70-BA80-4124-B359-67CBCB635390}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="65.140625" customWidth="1"/>
     <col min="2" max="26" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>418</v>
       </c>
       <c r="B2" s="117"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>420</v>
       </c>
@@ -14736,9 +14761,9 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="51">
+    <row r="1" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
         <v>421</v>
       </c>
@@ -14746,7 +14771,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>407</v>
       </c>
@@ -14754,7 +14779,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -14762,7 +14787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -14770,7 +14795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3</v>
       </c>
@@ -14778,7 +14803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>4</v>
       </c>
@@ -14786,7 +14811,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>5</v>
       </c>

--- a/tests/__xlsx__/xlsx_demo_data.xlsx
+++ b/tests/__xlsx__/xlsx_demo_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28919"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Odoo\spreadsheet\tests\__xlsx__\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{680A992B-769D-4DF5-8BBD-9B4319917BDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9003E72D-71B4-4E14-8DCF-7E699CA4C21F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,9 @@
   <externalReferences>
     <externalReference r:id="rId15"/>
   </externalReferences>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="11034" r:id="rId16"/>
+    <pivotCache cacheId="1" r:id="rId16"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="441">
   <si>
     <t>CF =42</t>
   </si>
@@ -1376,6 +1376,9 @@
   </si>
   <si>
     <t>A1234556</t>
+  </si>
+  <si>
+    <t>CF with formulas</t>
   </si>
 </sst>
 </file>
@@ -1390,7 +1393,7 @@
     <numFmt numFmtId="168" formatCode="#,##0&quot; EUR €&quot;"/>
     <numFmt numFmtId="169" formatCode="&quot;€&quot;#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2390,7 +2393,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2409,155 +2412,11 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{1493241F-B85D-4F84-BBA0-86191B8FD032}"/>
   </cellStyles>
-  <dxfs count="46">
+  <dxfs count="47">
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike/>
-        <u/>
-        <color theme="7"/>
-      </font>
-      <numFmt numFmtId="170" formatCode="dd/mm/yyyy"/>
-      <fill>
-        <patternFill patternType="lightTrellis">
-          <fgColor theme="4"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE06666"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB6D7A8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2967,6 +2826,157 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike/>
+        <u/>
+        <color theme="7"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="lightTrellis">
+          <fgColor theme="4"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE06666"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB6D7A8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="4"/>
         </patternFill>
       </fill>
@@ -2981,8 +2991,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Table Style 1" pivot="0" count="2" xr9:uid="{33B8EB55-D8D8-4B00-B5CF-C84A8AC9E775}">
-      <tableStyleElement type="wholeTable" dxfId="45"/>
-      <tableStyleElement type="firstRowStripe" dxfId="44"/>
+      <tableStyleElement type="wholeTable" dxfId="46"/>
+      <tableStyleElement type="firstRowStripe" dxfId="45"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -7043,7 +7053,7 @@
           </c:trendline>
           <c:xVal>
             <c:strRef>
-              <c:f>Sheet1!A27:A35</c:f>
+              <c:f>Sheet1!$A$27:$A$35</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -8867,7 +8877,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9B3CE3F5-58D8-48A3-B9C6-24D1506C9F5C}" name="PivotTable1" cacheId="11034" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9B3CE3F5-58D8-48A3-B9C6-24D1506C9F5C}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C3:L21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -9017,7 +9027,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{09C35CC7-7259-4A97-8FEA-EDB47375DF08}" name="Table3" displayName="Table3" ref="C3:J6" totalsRowCount="1" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{09C35CC7-7259-4A97-8FEA-EDB47375DF08}" name="Table3" displayName="Table3" ref="C3:J6" totalsRowCount="1" headerRowDxfId="44" dataDxfId="43">
   <autoFilter ref="C3:J5" xr:uid="{09C35CC7-7259-4A97-8FEA-EDB47375DF08}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -9029,22 +9039,22 @@
     <filterColumn colId="7" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{C4EE018E-238B-42BA-9035-DB01FA5420D3}" name="Name" totalsRowLabel="Total" dataDxfId="14" totalsRowDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{C1F6911F-9482-4C98-BBFB-21D9CAA66DA4}" name="Age" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{3CE9F5DA-0A57-4696-B4E0-53601C3B7798}" name="Rank" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{34912838-665C-4472-B558-25990E5B148D}" name="Rank+Age =E4+D4" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="9">
+    <tableColumn id="1" xr3:uid="{C4EE018E-238B-42BA-9035-DB01FA5420D3}" name="Name" totalsRowLabel="Total" dataDxfId="42" totalsRowDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{C1F6911F-9482-4C98-BBFB-21D9CAA66DA4}" name="Age" totalsRowFunction="sum" dataDxfId="40" totalsRowDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{3CE9F5DA-0A57-4696-B4E0-53601C3B7798}" name="Rank" totalsRowFunction="sum" dataDxfId="38" totalsRowDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{34912838-665C-4472-B558-25990E5B148D}" name="Rank+Age =E4+D4" totalsRowFunction="sum" dataDxfId="36" totalsRowDxfId="35">
       <calculatedColumnFormula>Table3[[#This Row],[Rank]]+Table3[[#This Row],[Age]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{89D90022-7073-4067-BAF8-1587D27C4AFB}" name="Data =SUM(E4:E5)" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="7">
+    <tableColumn id="7" xr3:uid="{89D90022-7073-4067-BAF8-1587D27C4AFB}" name="Data =SUM(E4:E5)" totalsRowFunction="sum" dataDxfId="34" totalsRowDxfId="33">
       <calculatedColumnFormula>SUM(Table3[Rank])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{B2A7E5BB-A379-492B-9484-72F2FD1FF3A0}" name="All =SUM(E3:E6)" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="5">
+    <tableColumn id="8" xr3:uid="{B2A7E5BB-A379-492B-9484-72F2FD1FF3A0}" name="All =SUM(E3:E6)" totalsRowFunction="sum" dataDxfId="32" totalsRowDxfId="31">
       <calculatedColumnFormula>SUM(Table3[[#All],[Rank]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{3C532A69-E4BC-4A20-A922-4BCAA0D3FEC9}" name="Totals =E6" totalsRowFunction="sum" dataDxfId="2" totalsRowDxfId="3">
+    <tableColumn id="9" xr3:uid="{3C532A69-E4BC-4A20-A922-4BCAA0D3FEC9}" name="Totals =E6" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="29">
       <calculatedColumnFormula>Table3[[#Totals],[Rank]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{35E9E9C3-9148-468A-85B6-19290CEB6F00}" name="Headers =E3" totalsRowFunction="sum" dataDxfId="0" totalsRowDxfId="1">
+    <tableColumn id="10" xr3:uid="{35E9E9C3-9148-468A-85B6-19290CEB6F00}" name="Headers =E3" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="27">
       <calculatedColumnFormula>Table3[[#Headers],[Rank]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9165,9 +9175,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -9205,7 +9215,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -9311,7 +9321,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9453,7 +9463,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -9470,7 +9480,7 @@
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.28515625" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
@@ -9479,7 +9489,7 @@
     <col min="6" max="26" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="38.25" customHeight="1">
+    <row r="1" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="21"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -9488,7 +9498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="27.75">
+    <row r="2" spans="1:12" ht="27.75" x14ac:dyDescent="0.2">
       <c r="B2" s="22" t="s">
         <v>2</v>
       </c>
@@ -9504,7 +9514,7 @@
       <c r="I2" s="119"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="17.25" customHeight="1">
+    <row r="3" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
@@ -9519,7 +9529,7 @@
       </c>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12" ht="17.25" customHeight="1">
+    <row r="4" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
@@ -9538,7 +9548,7 @@
       <c r="K4" s="121"/>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:12" ht="17.25" customHeight="1">
+    <row r="5" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="117">
         <v>42</v>
       </c>
@@ -9551,7 +9561,7 @@
       <c r="K5" s="121"/>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:12" ht="17.25" customHeight="1">
+    <row r="6" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G6" s="117">
         <v>22</v>
       </c>
@@ -9559,7 +9569,7 @@
       <c r="K6" s="121"/>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:12" ht="17.25" customHeight="1">
+    <row r="7" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="117">
         <v>3</v>
       </c>
@@ -9567,7 +9577,7 @@
       <c r="K7" s="121"/>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="1:12" ht="17.25" customHeight="1">
+    <row r="8" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G8" s="117">
         <v>30</v>
       </c>
@@ -9575,7 +9585,7 @@
       <c r="K8" s="122"/>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="1:12" ht="17.25" customHeight="1">
+    <row r="9" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
@@ -9585,7 +9595,7 @@
       </c>
       <c r="K9" s="10"/>
     </row>
-    <row r="10" spans="1:12" ht="17.25" customHeight="1">
+    <row r="10" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="117">
         <f>SUM(C4:C7)</f>
         <v>57.4</v>
@@ -9594,13 +9604,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="17.25" customHeight="1">
+    <row r="11" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="117">
         <f>-(3+C7*SUM(C4:C7))</f>
         <v>-175.2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="17.25" customHeight="1">
+    <row r="12" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="117">
         <f>SUM(C9:C11)</f>
         <v>-63.399999999999991</v>
@@ -9609,13 +9619,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="17.25" customHeight="1">
+    <row r="13" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G13" s="117">
         <f>A1+A2+A3+A4+A5+A6+A7+A8+A9+A10+A11+A12+A13+A14+A15+A16+A17+A18</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="17.25" customHeight="1">
+    <row r="14" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="11" t="s">
         <v>11</v>
       </c>
@@ -9624,32 +9634,32 @@
         <v>#CYCLE</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="17.25" customHeight="1">
+    <row r="15" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="117" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="17.25" customHeight="1">
+    <row r="16" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="117" t="str">
         <f>C15</f>
         <v>=(+</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="17.25" customHeight="1">
+    <row r="17" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="117" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="17.25" customHeight="1">
+    <row r="18" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="117" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="17.25" customHeight="1">
+    <row r="19" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:9" ht="17.25" customHeight="1">
+    <row r="20" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="5"/>
       <c r="C20" s="6" t="s">
         <v>15</v>
@@ -9663,7 +9673,7 @@
       </c>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:9" ht="17.25" customHeight="1">
+    <row r="21" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
         <v>18</v>
       </c>
@@ -9673,7 +9683,7 @@
       </c>
       <c r="G21" s="10"/>
     </row>
-    <row r="23" spans="1:9" ht="17.25" customHeight="1">
+    <row r="23" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>19</v>
       </c>
@@ -9687,7 +9697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="17.25" customHeight="1">
+    <row r="24" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="16">
         <v>10</v>
       </c>
@@ -9698,7 +9708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="17.25" customHeight="1">
+    <row r="25" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="16">
         <v>10.122999999999999</v>
       </c>
@@ -9709,7 +9719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="17.25" customHeight="1">
+    <row r="26" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="117" t="s">
         <v>20</v>
       </c>
@@ -9723,7 +9733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="17.25" customHeight="1">
+    <row r="27" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="117" t="s">
         <v>22</v>
       </c>
@@ -9740,7 +9750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="17.25" customHeight="1">
+    <row r="28" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="117" t="s">
         <v>23</v>
       </c>
@@ -9757,7 +9767,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="17.25" customHeight="1">
+    <row r="29" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="117" t="s">
         <v>24</v>
       </c>
@@ -9774,7 +9784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="17.25" customHeight="1">
+    <row r="30" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="117" t="s">
         <v>25</v>
       </c>
@@ -9791,7 +9801,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="17.25" customHeight="1">
+    <row r="31" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="117" t="s">
         <v>26</v>
       </c>
@@ -9808,7 +9818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="17.25" customHeight="1">
+    <row r="32" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="117" t="s">
         <v>27</v>
       </c>
@@ -9825,7 +9835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="17.25" customHeight="1">
+    <row r="33" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="117" t="s">
         <v>28</v>
       </c>
@@ -9842,7 +9852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="17.25" customHeight="1">
+    <row r="34" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="117" t="s">
         <v>29</v>
       </c>
@@ -9853,7 +9863,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="17.25" customHeight="1">
+    <row r="35" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="117" t="s">
         <v>30</v>
       </c>
@@ -9870,7 +9880,7 @@
     <mergeCell ref="K3:K8"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:C100 B21">
-    <cfRule type="cellIs" dxfId="43" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
       <formula>42</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9920,7 +9930,7 @@
       <selection sqref="A1:N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9932,12 +9942,12 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
       <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
-      <selection pane="topRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9951,7 +9961,7 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="65.140625" customWidth="1"/>
     <col min="2" max="26" width="13.7109375" customWidth="1"/>
@@ -9971,7 +9981,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9986,7 +9996,7 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="4" width="14.28515625" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" customWidth="1"/>
@@ -9995,7 +10005,7 @@
     <col min="9" max="9" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="114" t="s">
         <v>423</v>
       </c>
@@ -10024,7 +10034,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="104">
         <v>4</v>
       </c>
@@ -10053,7 +10063,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="104">
         <v>3</v>
       </c>
@@ -10082,7 +10092,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="104">
         <v>9</v>
       </c>
@@ -10111,7 +10121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="104">
         <v>5</v>
       </c>
@@ -10140,7 +10150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="109">
         <v>7</v>
       </c>
@@ -10218,12 +10228,12 @@
       <selection activeCell="G115" sqref="G115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="26" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="17.25" customHeight="1">
+    <row r="1" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="117" t="s">
         <v>31</v>
       </c>
@@ -10258,7 +10268,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="17.25" customHeight="1">
+    <row r="2" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="117" t="s">
         <v>41</v>
       </c>
@@ -10304,7 +10314,7 @@
         <v>1230.7</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="17.25" customHeight="1">
+    <row r="3" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="117" t="s">
         <v>43</v>
       </c>
@@ -10350,7 +10360,7 @@
         <v>1217.7</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="17.25" customHeight="1">
+    <row r="4" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="117" t="s">
         <v>45</v>
       </c>
@@ -10396,7 +10406,7 @@
         <v>1230.7</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="17.25" customHeight="1">
+    <row r="5" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="117" t="s">
         <v>47</v>
       </c>
@@ -10442,7 +10452,7 @@
         <v>1246.7</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="17.25" customHeight="1">
+    <row r="6" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="117" t="s">
         <v>49</v>
       </c>
@@ -10488,7 +10498,7 @@
         <v>1213.7</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="17.25" customHeight="1">
+    <row r="7" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="117" t="s">
         <v>52</v>
       </c>
@@ -10522,7 +10532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="17.25" customHeight="1">
+    <row r="8" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="117" t="s">
         <v>54</v>
       </c>
@@ -10556,7 +10566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="17.25" customHeight="1">
+    <row r="9" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="117" t="s">
         <v>56</v>
       </c>
@@ -10587,7 +10597,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="17.25" customHeight="1">
+    <row r="10" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="117" t="s">
         <v>58</v>
       </c>
@@ -10603,7 +10613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="17.25" customHeight="1">
+    <row r="11" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="117" t="s">
         <v>59</v>
       </c>
@@ -10622,7 +10632,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="17.25" customHeight="1">
+    <row r="12" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="117" t="s">
         <v>61</v>
       </c>
@@ -10653,7 +10663,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="17.25" customHeight="1">
+    <row r="13" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="117" t="s">
         <v>62</v>
       </c>
@@ -10684,7 +10694,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="17.25" customHeight="1">
+    <row r="14" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="117" t="s">
         <v>67</v>
       </c>
@@ -10700,7 +10710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="17.25" customHeight="1">
+    <row r="15" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="117" t="s">
         <v>68</v>
       </c>
@@ -10716,7 +10726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="17.25" customHeight="1">
+    <row r="16" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="117" t="s">
         <v>69</v>
       </c>
@@ -10732,7 +10742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="17.25" customHeight="1">
+    <row r="17" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="117" t="s">
         <v>70</v>
       </c>
@@ -10748,7 +10758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="17.25" customHeight="1">
+    <row r="18" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="117" t="s">
         <v>71</v>
       </c>
@@ -10764,7 +10774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17.25" customHeight="1">
+    <row r="19" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="117" t="s">
         <v>72</v>
       </c>
@@ -10780,7 +10790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="17.25" customHeight="1">
+    <row r="20" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="117" t="s">
         <v>73</v>
       </c>
@@ -10796,7 +10806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="17.25" customHeight="1">
+    <row r="21" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="117" t="s">
         <v>74</v>
       </c>
@@ -10812,7 +10822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="17.25" customHeight="1">
+    <row r="22" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="117" t="s">
         <v>76</v>
       </c>
@@ -10828,7 +10838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="17.25" customHeight="1">
+    <row r="23" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="117" t="s">
         <v>77</v>
       </c>
@@ -10844,7 +10854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="17.25" customHeight="1">
+    <row r="24" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="117" t="s">
         <v>78</v>
       </c>
@@ -10861,7 +10871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="17.25" customHeight="1">
+    <row r="25" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="117" t="s">
         <v>79</v>
       </c>
@@ -10877,7 +10887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="17.25" customHeight="1">
+    <row r="26" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="117" t="s">
         <v>81</v>
       </c>
@@ -10893,7 +10903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="17.25" customHeight="1">
+    <row r="27" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="117" t="s">
         <v>82</v>
       </c>
@@ -10909,7 +10919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="17.25" customHeight="1">
+    <row r="28" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="117" t="s">
         <v>83</v>
       </c>
@@ -10926,7 +10936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="17.25" customHeight="1">
+    <row r="29" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="117" t="s">
         <v>84</v>
       </c>
@@ -10942,7 +10952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="17.25" customHeight="1">
+    <row r="30" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="117" t="s">
         <v>85</v>
       </c>
@@ -10958,7 +10968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="17.25" customHeight="1">
+    <row r="31" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="117" t="s">
         <v>86</v>
       </c>
@@ -10974,7 +10984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="17.25" customHeight="1">
+    <row r="32" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="117" t="s">
         <v>87</v>
       </c>
@@ -10990,7 +11000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="17.25" customHeight="1">
+    <row r="33" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="117" t="s">
         <v>88</v>
       </c>
@@ -11006,7 +11016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="17.25" customHeight="1">
+    <row r="34" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="117" t="s">
         <v>89</v>
       </c>
@@ -11022,7 +11032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="17.25" customHeight="1">
+    <row r="35" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="117" t="s">
         <v>90</v>
       </c>
@@ -11038,7 +11048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="17.25" customHeight="1">
+    <row r="36" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="117" t="s">
         <v>91</v>
       </c>
@@ -11054,7 +11064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="17.25" customHeight="1">
+    <row r="37" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="117" t="s">
         <v>92</v>
       </c>
@@ -11070,7 +11080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="17.25" customHeight="1">
+    <row r="38" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="117" t="s">
         <v>93</v>
       </c>
@@ -11087,7 +11097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="17.25" customHeight="1">
+    <row r="39" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="117" t="s">
         <v>94</v>
       </c>
@@ -11103,7 +11113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="17.25" customHeight="1">
+    <row r="40" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="117" t="s">
         <v>95</v>
       </c>
@@ -11119,7 +11129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="17.25" customHeight="1">
+    <row r="41" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="117" t="s">
         <v>96</v>
       </c>
@@ -11135,7 +11145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="17.25" customHeight="1">
+    <row r="42" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="117" t="s">
         <v>97</v>
       </c>
@@ -11151,7 +11161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="17.25" customHeight="1">
+    <row r="43" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="117" t="s">
         <v>98</v>
       </c>
@@ -11167,7 +11177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="17.25" customHeight="1">
+    <row r="44" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="117" t="s">
         <v>99</v>
       </c>
@@ -11183,7 +11193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="17.25" customHeight="1">
+    <row r="45" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="117" t="s">
         <v>100</v>
       </c>
@@ -11199,7 +11209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="17.25" customHeight="1">
+    <row r="46" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="117" t="s">
         <v>101</v>
       </c>
@@ -11215,7 +11225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="17.25" customHeight="1">
+    <row r="47" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="117" t="s">
         <v>102</v>
       </c>
@@ -11231,7 +11241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="17.25" customHeight="1">
+    <row r="48" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="117" t="s">
         <v>103</v>
       </c>
@@ -11247,7 +11257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="17.25" customHeight="1">
+    <row r="49" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="117" t="s">
         <v>104</v>
       </c>
@@ -11263,7 +11273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="17.25" customHeight="1">
+    <row r="50" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="117" t="s">
         <v>105</v>
       </c>
@@ -11280,7 +11290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="17.25" customHeight="1">
+    <row r="51" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="117" t="s">
         <v>106</v>
       </c>
@@ -11297,7 +11307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="17.25" customHeight="1">
+    <row r="52" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="117" t="s">
         <v>107</v>
       </c>
@@ -11313,7 +11323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="17.25" customHeight="1">
+    <row r="53" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="117" t="s">
         <v>108</v>
       </c>
@@ -11329,7 +11339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="17.25" customHeight="1">
+    <row r="54" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="117" t="s">
         <v>109</v>
       </c>
@@ -11345,7 +11355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="17.25" customHeight="1">
+    <row r="55" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="117" t="s">
         <v>110</v>
       </c>
@@ -11361,7 +11371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="17.25" customHeight="1">
+    <row r="56" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="117" t="s">
         <v>111</v>
       </c>
@@ -11377,7 +11387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="17.25" customHeight="1">
+    <row r="57" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="117" t="s">
         <v>112</v>
       </c>
@@ -11393,7 +11403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="17.25" customHeight="1">
+    <row r="58" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="117" t="s">
         <v>113</v>
       </c>
@@ -11409,7 +11419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="17.25" customHeight="1">
+    <row r="59" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="117" t="s">
         <v>114</v>
       </c>
@@ -11425,7 +11435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="17.25" customHeight="1">
+    <row r="60" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="117" t="s">
         <v>115</v>
       </c>
@@ -11441,7 +11451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="17.25" customHeight="1">
+    <row r="61" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="117" t="s">
         <v>116</v>
       </c>
@@ -11457,7 +11467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="17.25" customHeight="1">
+    <row r="62" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="117" t="s">
         <v>117</v>
       </c>
@@ -11473,7 +11483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="17.25" customHeight="1">
+    <row r="63" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="117" t="s">
         <v>118</v>
       </c>
@@ -11489,7 +11499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="17.25" customHeight="1">
+    <row r="64" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="117" t="s">
         <v>119</v>
       </c>
@@ -11505,7 +11515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="17.25" customHeight="1">
+    <row r="65" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="117" t="s">
         <v>120</v>
       </c>
@@ -11521,7 +11531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="17.25" customHeight="1">
+    <row r="66" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="117" t="s">
         <v>121</v>
       </c>
@@ -11537,7 +11547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="17.25" customHeight="1">
+    <row r="67" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="117" t="s">
         <v>122</v>
       </c>
@@ -11553,7 +11563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="17.25" customHeight="1">
+    <row r="68" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="117" t="s">
         <v>123</v>
       </c>
@@ -11569,7 +11579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="17.25" customHeight="1">
+    <row r="69" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="117" t="s">
         <v>125</v>
       </c>
@@ -11585,7 +11595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="17.25" customHeight="1">
+    <row r="70" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="117" t="s">
         <v>127</v>
       </c>
@@ -11601,7 +11611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="17.25" customHeight="1">
+    <row r="71" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="117" t="s">
         <v>129</v>
       </c>
@@ -11617,7 +11627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="17.25" customHeight="1">
+    <row r="72" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="117" t="s">
         <v>130</v>
       </c>
@@ -11633,7 +11643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="17.25" customHeight="1">
+    <row r="73" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="117" t="s">
         <v>131</v>
       </c>
@@ -11649,7 +11659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="17.25" customHeight="1">
+    <row r="74" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="117" t="s">
         <v>132</v>
       </c>
@@ -11665,7 +11675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="17.25" customHeight="1">
+    <row r="75" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="117" t="s">
         <v>133</v>
       </c>
@@ -11681,7 +11691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="17.25" customHeight="1">
+    <row r="76" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="117" t="s">
         <v>134</v>
       </c>
@@ -11697,7 +11707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="17.25" customHeight="1">
+    <row r="77" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="117" t="s">
         <v>135</v>
       </c>
@@ -11713,7 +11723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="17.25" customHeight="1">
+    <row r="78" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="117" t="s">
         <v>136</v>
       </c>
@@ -11729,7 +11739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="17.25" customHeight="1">
+    <row r="79" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="117" t="s">
         <v>137</v>
       </c>
@@ -11745,7 +11755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="17.25" customHeight="1">
+    <row r="80" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="117" t="s">
         <v>138</v>
       </c>
@@ -11761,7 +11771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="17.25" customHeight="1">
+    <row r="81" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="117" t="s">
         <v>139</v>
       </c>
@@ -11777,7 +11787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="17.25" customHeight="1">
+    <row r="82" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="117" t="s">
         <v>141</v>
       </c>
@@ -11793,7 +11803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="17.25" customHeight="1">
+    <row r="83" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="117" t="s">
         <v>142</v>
       </c>
@@ -11809,7 +11819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="17.25" customHeight="1">
+    <row r="84" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="117" t="s">
         <v>143</v>
       </c>
@@ -11825,7 +11835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="17.25" customHeight="1">
+    <row r="85" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="117" t="s">
         <v>144</v>
       </c>
@@ -11841,7 +11851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="17.25" customHeight="1">
+    <row r="86" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="117" t="s">
         <v>146</v>
       </c>
@@ -11857,7 +11867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="17.25" customHeight="1">
+    <row r="87" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="117" t="s">
         <v>147</v>
       </c>
@@ -11873,7 +11883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="17.25" customHeight="1">
+    <row r="88" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="117" t="s">
         <v>148</v>
       </c>
@@ -11889,7 +11899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="17.25" customHeight="1">
+    <row r="89" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="117" t="s">
         <v>149</v>
       </c>
@@ -11905,7 +11915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="17.25" customHeight="1">
+    <row r="90" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="117" t="s">
         <v>150</v>
       </c>
@@ -11921,7 +11931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="17.25" customHeight="1">
+    <row r="91" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="117" t="s">
         <v>151</v>
       </c>
@@ -11937,7 +11947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="17.25" customHeight="1">
+    <row r="92" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="117" t="s">
         <v>152</v>
       </c>
@@ -11953,7 +11963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="17.25" customHeight="1">
+    <row r="93" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="117" t="s">
         <v>153</v>
       </c>
@@ -11969,7 +11979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="17.25" customHeight="1">
+    <row r="94" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="117" t="s">
         <v>154</v>
       </c>
@@ -11985,7 +11995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="17.25" customHeight="1">
+    <row r="95" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="117" t="s">
         <v>155</v>
       </c>
@@ -12001,7 +12011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="17.25" customHeight="1">
+    <row r="96" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="117" t="s">
         <v>156</v>
       </c>
@@ -12017,7 +12027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="17.25" customHeight="1">
+    <row r="97" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="117" t="s">
         <v>157</v>
       </c>
@@ -12033,7 +12043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="17.25" customHeight="1">
+    <row r="98" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="117" t="s">
         <v>158</v>
       </c>
@@ -12049,7 +12059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="17.25" customHeight="1">
+    <row r="99" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="117" t="s">
         <v>159</v>
       </c>
@@ -12065,20 +12075,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="17.25" customHeight="1">
+    <row r="100" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="117" t="s">
         <v>160</v>
       </c>
       <c r="B100" s="19">
         <f ca="1">NOW()</f>
-        <v>45799.563060763889</v>
+        <v>45903.478782407408</v>
       </c>
       <c r="D100" s="117">
         <f ca="1">IF(ISNUMBER(B100),1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="17.25" customHeight="1">
+    <row r="101" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="117" t="s">
         <v>161</v>
       </c>
@@ -12094,7 +12104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="17.25" customHeight="1">
+    <row r="102" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="117" t="s">
         <v>162</v>
       </c>
@@ -12110,7 +12120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="17.25" customHeight="1">
+    <row r="103" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="117" t="s">
         <v>163</v>
       </c>
@@ -12126,7 +12136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="17.25" customHeight="1">
+    <row r="104" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="117" t="s">
         <v>164</v>
       </c>
@@ -12142,7 +12152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="17.25" customHeight="1">
+    <row r="105" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="117" t="s">
         <v>165</v>
       </c>
@@ -12158,7 +12168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="17.25" customHeight="1">
+    <row r="106" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="117" t="s">
         <v>166</v>
       </c>
@@ -12174,7 +12184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="17.25" customHeight="1">
+    <row r="107" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="117" t="s">
         <v>167</v>
       </c>
@@ -12190,7 +12200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="17.25" customHeight="1">
+    <row r="108" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="117" t="s">
         <v>168</v>
       </c>
@@ -12206,7 +12216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="17.25" customHeight="1">
+    <row r="109" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="117" t="s">
         <v>169</v>
       </c>
@@ -12222,7 +12232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="17.25" customHeight="1">
+    <row r="110" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="117" t="s">
         <v>170</v>
       </c>
@@ -12238,7 +12248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="17.25" customHeight="1">
+    <row r="111" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="117" t="s">
         <v>171</v>
       </c>
@@ -12254,12 +12264,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="17.25" customHeight="1">
+    <row r="112" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="117"/>
       <c r="B112" s="117"/>
       <c r="D112" s="117"/>
     </row>
-    <row r="113" spans="1:4" ht="17.25" customHeight="1">
+    <row r="113" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="117" t="s">
         <v>172</v>
       </c>
@@ -12275,7 +12285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="17.25" customHeight="1">
+    <row r="114" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="117" t="s">
         <v>173</v>
       </c>
@@ -12291,7 +12301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="17.25" customHeight="1">
+    <row r="115" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="117" t="s">
         <v>175</v>
       </c>
@@ -12307,7 +12317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="17.25" customHeight="1">
+    <row r="116" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="117" t="s">
         <v>177</v>
       </c>
@@ -12323,7 +12333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="17.25" customHeight="1">
+    <row r="117" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="117" t="s">
         <v>178</v>
       </c>
@@ -12339,7 +12349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="17.25" customHeight="1">
+    <row r="118" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="117" t="s">
         <v>179</v>
       </c>
@@ -12355,7 +12365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="17.25" customHeight="1">
+    <row r="119" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="117" t="s">
         <v>180</v>
       </c>
@@ -12371,7 +12381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="17.25" customHeight="1">
+    <row r="120" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="117" t="s">
         <v>181</v>
       </c>
@@ -12387,7 +12397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="17.25" customHeight="1">
+    <row r="121" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="117" t="s">
         <v>182</v>
       </c>
@@ -12403,7 +12413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="17.25" customHeight="1">
+    <row r="122" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="117" t="s">
         <v>183</v>
       </c>
@@ -12419,7 +12429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="17.25" customHeight="1">
+    <row r="123" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="117" t="s">
         <v>184</v>
       </c>
@@ -12435,7 +12445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="17.25" customHeight="1">
+    <row r="124" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="117" t="s">
         <v>185</v>
       </c>
@@ -12451,7 +12461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="17.25" customHeight="1">
+    <row r="125" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="117" t="s">
         <v>186</v>
       </c>
@@ -12467,7 +12477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="17.25" customHeight="1">
+    <row r="126" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="117" t="s">
         <v>187</v>
       </c>
@@ -12483,7 +12493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="17.25" customHeight="1">
+    <row r="127" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="117" t="s">
         <v>188</v>
       </c>
@@ -12499,7 +12509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="17.25" customHeight="1">
+    <row r="128" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="117" t="s">
         <v>189</v>
       </c>
@@ -12515,7 +12525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="17.25" customHeight="1">
+    <row r="129" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="117" t="s">
         <v>190</v>
       </c>
@@ -12531,7 +12541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="17.25" customHeight="1">
+    <row r="130" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="117" t="s">
         <v>191</v>
       </c>
@@ -12547,7 +12557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="17.25" customHeight="1">
+    <row r="131" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="117" t="s">
         <v>192</v>
       </c>
@@ -12563,7 +12573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="17.25" customHeight="1">
+    <row r="132" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="117" t="s">
         <v>193</v>
       </c>
@@ -12579,7 +12589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="17.25" customHeight="1">
+    <row r="133" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="117" t="s">
         <v>194</v>
       </c>
@@ -12595,7 +12605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="17.25" customHeight="1">
+    <row r="134" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="117" t="s">
         <v>195</v>
       </c>
@@ -12611,7 +12621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="17.25" customHeight="1">
+    <row r="135" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="117" t="s">
         <v>196</v>
       </c>
@@ -12627,7 +12637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="17.25" customHeight="1">
+    <row r="136" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="117" t="s">
         <v>198</v>
       </c>
@@ -12643,7 +12653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="17.25" customHeight="1">
+    <row r="137" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="117" t="s">
         <v>199</v>
       </c>
@@ -12659,7 +12669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="17.25" customHeight="1">
+    <row r="138" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="117" t="s">
         <v>200</v>
       </c>
@@ -12675,7 +12685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="17.25" customHeight="1">
+    <row r="139" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="117" t="s">
         <v>201</v>
       </c>
@@ -12691,7 +12701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="17.25" customHeight="1">
+    <row r="140" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="117" t="s">
         <v>202</v>
       </c>
@@ -12707,7 +12717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="17.25" customHeight="1">
+    <row r="141" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="117" t="s">
         <v>203</v>
       </c>
@@ -12723,7 +12733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="17.25" customHeight="1">
+    <row r="142" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="117" t="s">
         <v>205</v>
       </c>
@@ -12739,7 +12749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="17.25" customHeight="1">
+    <row r="143" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="117" t="s">
         <v>206</v>
       </c>
@@ -12755,20 +12765,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="17.25" customHeight="1">
+    <row r="144" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="117" t="s">
         <v>207</v>
       </c>
       <c r="B144" s="18">
         <f ca="1">TODAY()</f>
-        <v>45799</v>
+        <v>45903</v>
       </c>
       <c r="D144" s="117">
         <f ca="1">IF(ISNUMBER(B144),1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="17.25" customHeight="1">
+    <row r="145" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="117" t="s">
         <v>208</v>
       </c>
@@ -12784,7 +12794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="17.25" customHeight="1">
+    <row r="146" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="117" t="s">
         <v>210</v>
       </c>
@@ -12800,7 +12810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="17.25" customHeight="1">
+    <row r="147" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="117" t="s">
         <v>211</v>
       </c>
@@ -12816,7 +12826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="17.25" customHeight="1">
+    <row r="148" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="117" t="s">
         <v>213</v>
       </c>
@@ -12832,7 +12842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="17.25" customHeight="1">
+    <row r="149" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="117" t="s">
         <v>214</v>
       </c>
@@ -12848,7 +12858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="17.25" customHeight="1">
+    <row r="150" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="117" t="s">
         <v>215</v>
       </c>
@@ -12864,7 +12874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="17.25" customHeight="1">
+    <row r="151" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="117" t="s">
         <v>216</v>
       </c>
@@ -12880,7 +12890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="17.25" customHeight="1">
+    <row r="152" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="117" t="s">
         <v>217</v>
       </c>
@@ -12896,7 +12906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="17.25" customHeight="1">
+    <row r="153" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="117" t="s">
         <v>218</v>
       </c>
@@ -12912,7 +12922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="17.25" customHeight="1">
+    <row r="154" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="117" t="s">
         <v>219</v>
       </c>
@@ -12929,7 +12939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="17.25" customHeight="1">
+    <row r="155" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="117" t="s">
         <v>220</v>
       </c>
@@ -12945,7 +12955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="17.25" customHeight="1">
+    <row r="156" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="117" t="s">
         <v>221</v>
       </c>
@@ -12961,7 +12971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="17.25" customHeight="1">
+    <row r="157" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="117" t="s">
         <v>222</v>
       </c>
@@ -12977,7 +12987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="17.25" customHeight="1">
+    <row r="158" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="117" t="s">
         <v>223</v>
       </c>
@@ -12993,7 +13003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="17.25" customHeight="1">
+    <row r="159" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="117" t="s">
         <v>224</v>
       </c>
@@ -13009,7 +13019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="17.25" customHeight="1">
+    <row r="160" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="117" t="s">
         <v>225</v>
       </c>
@@ -13025,7 +13035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="17.25" customHeight="1">
+    <row r="161" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="117" t="s">
         <v>226</v>
       </c>
@@ -13041,7 +13051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="17.25" customHeight="1">
+    <row r="162" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="117" t="s">
         <v>227</v>
       </c>
@@ -13057,7 +13067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="17.25" customHeight="1">
+    <row r="163" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="117" t="s">
         <v>229</v>
       </c>
@@ -13075,10 +13085,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D180">
-    <cfRule type="cellIs" dxfId="42" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13098,7 +13108,7 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelRow="2" outlineLevelCol="2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" customWidth="1"/>
@@ -13108,7 +13118,7 @@
     <col min="15" max="18" width="9.140625" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>230</v>
       </c>
@@ -13126,7 +13136,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>SUM(A1)</f>
         <v>0</v>
@@ -13138,7 +13148,7 @@
         <v>referenced string</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D3" s="85" t="s">
         <v>235</v>
       </c>
@@ -13146,25 +13156,25 @@
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="75" customHeight="1">
+    <row r="5" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="10" spans="1:8" outlineLevel="1"/>
-    <row r="11" spans="1:8" outlineLevel="1"/>
-    <row r="12" spans="1:8" hidden="1" outlineLevel="2"/>
-    <row r="13" spans="1:8" hidden="1" outlineLevel="2"/>
-    <row r="14" spans="1:8" hidden="1" outlineLevel="2"/>
-    <row r="15" spans="1:8" outlineLevel="1" collapsed="1"/>
-    <row r="16" spans="1:8" outlineLevel="1"/>
-    <row r="17" outlineLevel="1"/>
-    <row r="18" outlineLevel="1"/>
+    <row r="10" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:8" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="17" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="18" outlineLevel="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D1:E2"/>
@@ -13186,14 +13196,14 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" customWidth="1"/>
     <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="13.5" thickBot="1">
+    <row r="1" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="68" t="s">
         <v>239</v>
       </c>
@@ -13215,7 +13225,7 @@
       </c>
       <c r="M1" s="36"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
         <v>245</v>
       </c>
@@ -13241,7 +13251,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="41" t="s">
         <v>252</v>
       </c>
@@ -13264,7 +13274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15">
+    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="42" t="s">
         <v>256</v>
       </c>
@@ -13290,7 +13300,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="43" t="s">
         <v>262</v>
       </c>
@@ -13310,7 +13320,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="44" t="s">
         <v>266</v>
       </c>
@@ -13333,7 +13343,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.75">
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="45" t="s">
         <v>271</v>
       </c>
@@ -13353,7 +13363,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="21">
+    <row r="8" spans="1:13" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="46" t="s">
         <v>275</v>
       </c>
@@ -13376,7 +13386,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="47" t="s">
         <v>280</v>
       </c>
@@ -13393,7 +13403,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="48" t="s">
         <v>283</v>
       </c>
@@ -13401,7 +13411,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="13.5" thickBot="1">
+    <row r="11" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="49" t="s">
         <v>285</v>
       </c>
@@ -13410,7 +13420,7 @@
       </c>
       <c r="F11" s="36"/>
     </row>
-    <row r="12" spans="1:13" ht="18.75" customHeight="1">
+    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="50" t="s">
         <v>287</v>
       </c>
@@ -13424,7 +13434,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="18.75" customHeight="1" thickBot="1">
+    <row r="13" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="51" t="s">
         <v>290</v>
       </c>
@@ -13435,7 +13445,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="18.75" customHeight="1" thickBot="1">
+    <row r="14" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="52" t="s">
         <v>291</v>
       </c>
@@ -13449,7 +13459,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="18.75" customHeight="1" thickBot="1">
+    <row r="15" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="53" t="s">
         <v>293</v>
       </c>
@@ -13460,7 +13470,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="19.5" customHeight="1" thickBot="1">
+    <row r="16" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="54" t="s">
         <v>294</v>
       </c>
@@ -13474,12 +13484,12 @@
         <v>248</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.5" thickBot="1">
+    <row r="17" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.5" thickBot="1">
+    <row r="18" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="74" t="s">
         <v>297</v>
       </c>
@@ -13491,7 +13501,7 @@
       </c>
       <c r="F18" s="36"/>
     </row>
-    <row r="19" spans="1:6" ht="13.5" thickBot="1">
+    <row r="19" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="75" t="s">
         <v>300</v>
       </c>
@@ -13502,7 +13512,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="51.75" thickBot="1">
+    <row r="20" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="76" t="s">
         <v>303</v>
       </c>
@@ -13516,12 +13526,12 @@
         <v>302</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.5" thickBot="1">
+    <row r="21" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="77" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.5" thickBot="1">
+    <row r="22" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="78" t="s">
         <v>307</v>
       </c>
@@ -13530,13 +13540,13 @@
       </c>
       <c r="E22" s="21"/>
     </row>
-    <row r="23" spans="1:6" ht="13.5" thickBot="1">
+    <row r="23" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="79" t="s">
         <v>309</v>
       </c>
       <c r="E23" s="21"/>
     </row>
-    <row r="24" spans="1:6" ht="14.25" thickTop="1" thickBot="1">
+    <row r="24" spans="1:6" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="80" t="s">
         <v>310</v>
       </c>
@@ -13545,20 +13555,20 @@
       </c>
       <c r="E24" s="21"/>
     </row>
-    <row r="25" spans="1:6" ht="14.25" thickTop="1" thickBot="1"/>
-    <row r="26" spans="1:6" ht="14.25" thickTop="1" thickBot="1">
+    <row r="25" spans="1:6" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:6" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C26" s="67" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="14.25" thickTop="1" thickBot="1"/>
-    <row r="28" spans="1:6" ht="14.25" thickTop="1" thickBot="1">
+    <row r="27" spans="1:6" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:6" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C28" s="88" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="13.5" thickTop="1"/>
-    <row r="30" spans="1:6">
+    <row r="29" spans="1:6" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C30" s="87" t="s">
         <v>314</v>
       </c>
@@ -13573,17 +13583,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D919E811-4385-4D35-A19E-3B7E0E659A89}">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.140625" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13.5" thickBot="1">
+    <row r="1" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
         <v>315</v>
       </c>
@@ -13600,7 +13610,7 @@
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="s">
         <v>319</v>
       </c>
@@ -13623,7 +13633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="38" t="s">
         <v>321</v>
       </c>
@@ -13646,7 +13656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="38" t="s">
         <v>325</v>
       </c>
@@ -13666,7 +13676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="38" t="s">
         <v>328</v>
       </c>
@@ -13690,7 +13700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="38" t="s">
         <v>330</v>
       </c>
@@ -13713,7 +13723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="38" t="s">
         <v>333</v>
       </c>
@@ -13739,7 +13749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="38" t="s">
         <v>337</v>
       </c>
@@ -13750,7 +13760,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="38" t="s">
         <v>339</v>
       </c>
@@ -13759,7 +13769,7 @@
       </c>
       <c r="C9" s="21"/>
     </row>
-    <row r="10" spans="1:10" ht="13.5" thickBot="1">
+    <row r="10" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>340</v>
       </c>
@@ -13777,7 +13787,7 @@
       <c r="I10" s="36"/>
       <c r="J10" s="36"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
         <v>342</v>
       </c>
@@ -13800,13 +13810,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
         <v>344</v>
       </c>
       <c r="B12" s="39">
         <f ca="1">TODAY()</f>
-        <v>45799</v>
+        <v>45903</v>
       </c>
       <c r="C12" s="39">
         <f>DATE(2010,10,2)</f>
@@ -13825,7 +13835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="38" t="s">
         <v>346</v>
       </c>
@@ -13848,7 +13858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="38" t="s">
         <v>348</v>
       </c>
@@ -13874,7 +13884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="38" t="s">
         <v>350</v>
       </c>
@@ -13894,7 +13904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
         <v>352</v>
       </c>
@@ -13917,7 +13927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="38" t="s">
         <v>354</v>
       </c>
@@ -13940,7 +13950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="38" t="s">
         <v>356</v>
       </c>
@@ -13963,7 +13973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="38" t="s">
         <v>358</v>
       </c>
@@ -13986,7 +13996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="38" t="s">
         <v>360</v>
       </c>
@@ -14009,7 +14019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="38" t="s">
         <v>362</v>
       </c>
@@ -14035,7 +14045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="38" t="s">
         <v>364</v>
       </c>
@@ -14061,7 +14071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="38" t="s">
         <v>366</v>
       </c>
@@ -14087,7 +14097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G24" s="34" t="s">
         <v>368</v>
       </c>
@@ -14104,7 +14114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="38" t="s">
         <v>369</v>
       </c>
@@ -14130,7 +14140,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G26" s="34" t="s">
         <v>371</v>
       </c>
@@ -14150,7 +14160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="21" t="s">
         <v>372</v>
       </c>
@@ -14176,7 +14186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G28" s="34" t="s">
         <v>374</v>
       </c>
@@ -14196,7 +14206,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="38" t="s">
+        <v>440</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
       <c r="G29" s="34" t="s">
         <v>375</v>
       </c>
@@ -14216,7 +14235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G30" s="34" t="s">
         <v>376</v>
       </c>
@@ -14236,7 +14255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="13.5" thickBot="1">
+    <row r="31" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G31" s="35" t="s">
         <v>377</v>
       </c>
@@ -14250,7 +14269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G32" s="34" t="s">
         <v>378</v>
       </c>
@@ -14264,7 +14283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="7:10">
+    <row r="33" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G33" s="34" t="s">
         <v>379</v>
       </c>
@@ -14278,7 +14297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="7:10">
+    <row r="34" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G34" s="34" t="s">
         <v>380</v>
       </c>
@@ -14292,7 +14311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="7:10">
+    <row r="35" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G35" s="34" t="s">
         <v>381</v>
       </c>
@@ -14306,7 +14325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="7:10">
+    <row r="36" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G36" s="34" t="s">
         <v>382</v>
       </c>
@@ -14320,7 +14339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="7:10">
+    <row r="37" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G37" s="34" t="s">
         <v>383</v>
       </c>
@@ -14334,116 +14353,116 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="7:10">
+    <row r="39" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G39" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="21" type="noConversion"/>
   <conditionalFormatting sqref="B15">
-    <cfRule type="expression" dxfId="40" priority="58">
+    <cfRule type="expression" dxfId="23" priority="59">
       <formula>ODD(B15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B27">
-    <cfRule type="cellIs" dxfId="39" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="47" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C2">
-    <cfRule type="aboveAverage" dxfId="38" priority="114"/>
+    <cfRule type="aboveAverage" dxfId="21" priority="115"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3">
-    <cfRule type="beginsWith" dxfId="37" priority="73" operator="beginsWith" text="rule">
+    <cfRule type="beginsWith" dxfId="20" priority="74" operator="beginsWith" text="rule">
       <formula>LEFT(B3,LEN("rule"))="rule"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:C4">
-    <cfRule type="containsBlanks" dxfId="36" priority="71">
+    <cfRule type="containsBlanks" dxfId="19" priority="72">
       <formula>LEN(TRIM(B4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="containsErrors" dxfId="35" priority="70">
+    <cfRule type="containsErrors" dxfId="18" priority="71">
       <formula>ISERROR(B5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:C6">
-    <cfRule type="containsText" dxfId="34" priority="69" operator="containsText" text="rule">
+    <cfRule type="containsText" dxfId="17" priority="70" operator="containsText" text="rule">
       <formula>NOT(ISERROR(SEARCH("rule",B6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:C8">
-    <cfRule type="endsWith" dxfId="33" priority="67" operator="endsWith" text="rule">
+    <cfRule type="endsWith" dxfId="16" priority="68" operator="endsWith" text="rule">
       <formula>RIGHT(B8,LEN("rule"))="rule"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:C9">
-    <cfRule type="notContainsBlanks" dxfId="32" priority="66">
+    <cfRule type="notContainsBlanks" dxfId="15" priority="67">
       <formula>LEN(TRIM(B9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:C10">
-    <cfRule type="notContainsErrors" dxfId="31" priority="65">
+    <cfRule type="notContainsErrors" dxfId="14" priority="66">
       <formula>NOT(ISERROR(B10))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11">
-    <cfRule type="notContainsText" dxfId="30" priority="64" operator="notContains" text="rule">
+    <cfRule type="notContainsText" dxfId="13" priority="65" operator="notContains" text="rule">
       <formula>ISERROR(SEARCH("rule",B11))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:C12">
-    <cfRule type="timePeriod" dxfId="29" priority="63" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="12" priority="64" timePeriod="today">
       <formula>FLOOR(B12,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:C13">
-    <cfRule type="top10" dxfId="28" priority="115" rank="1"/>
+    <cfRule type="top10" dxfId="11" priority="116" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:C16">
-    <cfRule type="cellIs" dxfId="27" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="46" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:C17">
-    <cfRule type="cellIs" dxfId="26" priority="56" operator="notEqual">
+    <cfRule type="cellIs" dxfId="9" priority="57" operator="notEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:C18">
-    <cfRule type="cellIs" dxfId="25" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="greaterThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:C19">
-    <cfRule type="cellIs" dxfId="24" priority="5" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:C20">
-    <cfRule type="cellIs" dxfId="23" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="lessThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:C21">
-    <cfRule type="cellIs" dxfId="22" priority="3" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:C22">
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="between">
       <formula>2</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:C23">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="notBetween">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="notBetween">
       <formula>2</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:C24">
-    <cfRule type="dataBar" priority="100">
+    <cfRule type="dataBar" priority="101">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14457,7 +14476,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:C25">
-    <cfRule type="dataBar" priority="7">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14471,13 +14490,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:D7">
-    <cfRule type="duplicateValues" dxfId="19" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:D14">
-    <cfRule type="uniqueValues" dxfId="18" priority="96"/>
+    <cfRule type="uniqueValues" dxfId="1" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:J2">
-    <cfRule type="colorScale" priority="44">
+    <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14487,7 +14506,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:J3">
-    <cfRule type="colorScale" priority="42">
+    <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14499,7 +14518,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:J4">
-    <cfRule type="colorScale" priority="41">
+    <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="num" val="1"/>
         <cfvo type="num" val="5"/>
@@ -14509,7 +14528,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:J5">
-    <cfRule type="colorScale" priority="40">
+    <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="percent" val="10"/>
         <cfvo type="percent" val="90"/>
@@ -14519,7 +14538,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:J6">
-    <cfRule type="colorScale" priority="39">
+    <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="percentile" val="10"/>
         <cfvo type="percentile" val="90"/>
@@ -14529,7 +14548,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:J7">
-    <cfRule type="colorScale" priority="37">
+    <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="formula" val="$J$6"/>
         <cfvo type="formula" val="$H$6"/>
@@ -14539,7 +14558,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:J11">
-    <cfRule type="iconSet" priority="36">
+    <cfRule type="iconSet" priority="37">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -14548,7 +14567,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:J12">
-    <cfRule type="iconSet" priority="35">
+    <cfRule type="iconSet" priority="36">
       <iconSet iconSet="3ArrowsGray">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="2"/>
@@ -14557,7 +14576,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:J13">
-    <cfRule type="iconSet" priority="34">
+    <cfRule type="iconSet" priority="35">
       <iconSet iconSet="3Flags">
         <cfvo type="percent" val="0"/>
         <cfvo type="percentile" val="33"/>
@@ -14566,7 +14585,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14:J14">
-    <cfRule type="iconSet" priority="33">
+    <cfRule type="iconSet" priority="34">
       <iconSet>
         <cfvo type="percent" val="0"/>
         <cfvo type="formula" val="$I$14"/>
@@ -14575,7 +14594,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15:J15">
-    <cfRule type="iconSet" priority="32">
+    <cfRule type="iconSet" priority="33">
       <iconSet iconSet="3TrafficLights2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -14584,7 +14603,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16:J16">
-    <cfRule type="iconSet" priority="31">
+    <cfRule type="iconSet" priority="32">
       <iconSet iconSet="3Signs">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -14593,7 +14612,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:J17">
-    <cfRule type="iconSet" priority="30">
+    <cfRule type="iconSet" priority="31">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -14602,7 +14621,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18:J18">
-    <cfRule type="iconSet" priority="29">
+    <cfRule type="iconSet" priority="30">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -14611,7 +14630,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32:J32">
-    <cfRule type="iconSet" priority="28">
+    <cfRule type="iconSet" priority="29">
       <iconSet iconSet="3Arrows" reverse="1">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -14620,7 +14639,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33:J33">
-    <cfRule type="iconSet" priority="27">
+    <cfRule type="iconSet" priority="28">
       <iconSet iconSet="3Arrows" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -14629,7 +14648,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34:J34">
-    <cfRule type="iconSet" priority="26">
+    <cfRule type="iconSet" priority="27">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="0" gte="0"/>
@@ -14638,7 +14657,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21:K21">
-    <cfRule type="iconSet" priority="18">
+    <cfRule type="iconSet" priority="19">
       <iconSet iconSet="4Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -14648,7 +14667,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:K22">
-    <cfRule type="iconSet" priority="17">
+    <cfRule type="iconSet" priority="18">
       <iconSet iconSet="4ArrowsGray">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -14658,7 +14677,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23:K23">
-    <cfRule type="iconSet" priority="16">
+    <cfRule type="iconSet" priority="17">
       <iconSet iconSet="4RedToBlack">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -14668,7 +14687,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24:K24">
-    <cfRule type="iconSet" priority="15">
+    <cfRule type="iconSet" priority="16">
       <iconSet iconSet="4Rating">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -14678,7 +14697,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25:K25">
-    <cfRule type="iconSet" priority="14">
+    <cfRule type="iconSet" priority="15">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -14688,7 +14707,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26:L26">
-    <cfRule type="iconSet" priority="13">
+    <cfRule type="iconSet" priority="14">
       <iconSet iconSet="5Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="20"/>
@@ -14699,7 +14718,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27:L27">
-    <cfRule type="iconSet" priority="12">
+    <cfRule type="iconSet" priority="13">
       <iconSet iconSet="5ArrowsGray">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="20"/>
@@ -14710,7 +14729,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28:L28">
-    <cfRule type="iconSet" priority="11">
+    <cfRule type="iconSet" priority="12">
       <iconSet iconSet="5Rating">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="20"/>
@@ -14721,7 +14740,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29:L29">
-    <cfRule type="iconSet" priority="10">
+    <cfRule type="iconSet" priority="11">
       <iconSet iconSet="5Quarters">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="20"/>
@@ -14729,6 +14748,12 @@
         <cfvo type="percent" val="60"/>
         <cfvo type="percent" val="80"/>
       </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:C29">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
+      <formula>$B$23</formula>
+      <formula>2+2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14759,7 +14784,7 @@
           <xm:sqref>B25:C25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="20" id="{0776DCAB-3210-41C4-A113-32FD4847A5ED}">
+          <x14:cfRule type="iconSet" priority="21" id="{0776DCAB-3210-41C4-A113-32FD4847A5ED}">
             <x14:iconSet iconSet="3Stars">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14775,7 +14800,7 @@
           <xm:sqref>H19:J19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="19" id="{367C8C3A-A19C-489B-B02C-135E717D92A5}">
+          <x14:cfRule type="iconSet" priority="20" id="{367C8C3A-A19C-489B-B02C-135E717D92A5}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14791,7 +14816,7 @@
           <xm:sqref>H20:J20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="8" id="{2F0448E0-FD4B-4CC6-8AFB-1FCD78ED3F40}">
+          <x14:cfRule type="iconSet" priority="9" id="{2F0448E0-FD4B-4CC6-8AFB-1FCD78ED3F40}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14810,7 +14835,7 @@
           <xm:sqref>H31:J31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="25" id="{EDB615C5-C26E-42E3-8D7C-CFC96E348794}">
+          <x14:cfRule type="iconSet" priority="26" id="{EDB615C5-C26E-42E3-8D7C-CFC96E348794}">
             <x14:iconSet iconSet="3Arrows" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14829,7 +14854,7 @@
           <xm:sqref>H35:J35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="24" id="{3673FAEE-9C58-4DC2-8FFB-38004FA3122F}">
+          <x14:cfRule type="iconSet" priority="25" id="{3673FAEE-9C58-4DC2-8FFB-38004FA3122F}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14848,7 +14873,7 @@
           <xm:sqref>H36:J36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="23" id="{BEA8CADB-6314-47A4-B945-05492B4E899C}">
+          <x14:cfRule type="iconSet" priority="24" id="{BEA8CADB-6314-47A4-B945-05492B4E899C}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14867,7 +14892,7 @@
           <xm:sqref>H37:J37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="9" id="{DD78C548-721C-42F8-BA23-99215A699C4C}">
+          <x14:cfRule type="iconSet" priority="10" id="{DD78C548-721C-42F8-BA23-99215A699C4C}">
             <x14:iconSet iconSet="5Boxes">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14902,7 +14927,7 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="17.28515625" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" customWidth="1"/>
@@ -14914,12 +14939,12 @@
     <col min="10" max="10" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15">
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C3" s="17" t="s">
         <v>35</v>
       </c>
@@ -14945,7 +14970,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C4" s="117" t="s">
         <v>42</v>
       </c>
@@ -14976,7 +15001,7 @@
         <v>Rank</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C5" s="117" t="s">
         <v>44</v>
       </c>
@@ -15007,7 +15032,7 @@
         <v>Rank</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C6" s="117" t="s">
         <v>391</v>
       </c>
@@ -15040,7 +15065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>392</v>
       </c>
@@ -15066,7 +15091,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C9">
         <v>3</v>
       </c>
@@ -15094,7 +15119,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>398</v>
       </c>
@@ -15105,7 +15130,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C12">
         <v>3</v>
       </c>
@@ -15113,7 +15138,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>401</v>
       </c>
@@ -15124,7 +15149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C15">
         <v>3</v>
       </c>
@@ -15132,7 +15157,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>402</v>
       </c>
@@ -15143,7 +15168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C18">
         <v>3</v>
       </c>
@@ -15151,7 +15176,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>403</v>
       </c>
@@ -15162,7 +15187,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C21">
         <v>3</v>
       </c>
@@ -15170,7 +15195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>404</v>
       </c>
@@ -15181,7 +15206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:4">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C24">
         <v>3</v>
       </c>
@@ -15189,7 +15214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="2:4">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>405</v>
       </c>
@@ -15200,7 +15225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:4">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C27">
         <v>3</v>
       </c>
@@ -15208,7 +15233,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
         <v>391</v>
       </c>
@@ -15217,7 +15242,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="2:4">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>406</v>
       </c>
@@ -15228,7 +15253,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="31" spans="2:4" hidden="1">
+    <row r="31" spans="2:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
         <v>409</v>
       </c>
@@ -15236,7 +15261,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="32" spans="2:4">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
         <v>410</v>
       </c>
@@ -15244,7 +15269,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>411</v>
       </c>
@@ -15274,7 +15299,7 @@
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
@@ -15295,7 +15320,7 @@
     <col min="21" max="21" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15">
+    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="92" t="s">
         <v>412</v>
       </c>
@@ -15305,7 +15330,7 @@
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="117"/>
       <c r="B2" s="117"/>
       <c r="C2" s="117"/>
@@ -15313,7 +15338,7 @@
       <c r="E2" s="117"/>
       <c r="F2" s="117"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="117"/>
       <c r="B3" s="117"/>
       <c r="C3" s="89" t="s">
@@ -15323,7 +15348,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="117"/>
       <c r="B4" s="117"/>
       <c r="C4" s="89" t="s">
@@ -15357,7 +15382,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="117"/>
       <c r="B5" s="117"/>
       <c r="C5" s="90" t="s">
@@ -15370,7 +15395,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="117"/>
       <c r="B6" s="117"/>
       <c r="C6" s="91">
@@ -15383,7 +15408,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="117"/>
       <c r="B7" s="117"/>
       <c r="C7" s="90" t="s">
@@ -15396,7 +15421,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="117"/>
       <c r="B8" s="117"/>
       <c r="C8" s="91">
@@ -15409,7 +15434,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="117"/>
       <c r="B9" s="117"/>
       <c r="C9" s="90" t="s">
@@ -15422,7 +15447,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="117"/>
       <c r="B10" s="117"/>
       <c r="C10" s="91">
@@ -15435,7 +15460,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="90" t="s">
         <v>44</v>
       </c>
@@ -15446,7 +15471,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="91">
         <v>23000</v>
       </c>
@@ -15457,7 +15482,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="90" t="s">
         <v>50</v>
       </c>
@@ -15468,7 +15493,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="91">
         <v>2</v>
       </c>
@@ -15479,7 +15504,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="90" t="s">
         <v>48</v>
       </c>
@@ -15490,7 +15515,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C16" s="91">
         <v>50024</v>
       </c>
@@ -15501,7 +15526,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="3:12">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="90" t="s">
         <v>53</v>
       </c>
@@ -15512,7 +15537,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="3:12">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="91">
         <v>189576</v>
       </c>
@@ -15523,7 +15548,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="3:12">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="90" t="s">
         <v>57</v>
       </c>
@@ -15534,7 +15559,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="3:12">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="91">
         <v>5000</v>
       </c>
@@ -15545,7 +15570,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="3:12">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="90" t="s">
         <v>416</v>
       </c>
@@ -15587,33 +15612,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C47BF70-BA80-4124-B359-67CBCB635390}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="65.140625" customWidth="1"/>
     <col min="2" max="26" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>418</v>
       </c>
       <c r="B2" s="117"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>420</v>
       </c>
@@ -15632,9 +15657,9 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="51">
+    <row r="1" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
         <v>421</v>
       </c>
@@ -15642,7 +15667,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>407</v>
       </c>
@@ -15650,7 +15675,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -15658,7 +15683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -15666,7 +15691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3</v>
       </c>
@@ -15674,7 +15699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>4</v>
       </c>
@@ -15682,7 +15707,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>5</v>
       </c>

--- a/tests/__xlsx__/xlsx_demo_data.xlsx
+++ b/tests/__xlsx__/xlsx_demo_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Odoo\spreadsheet\tests\__xlsx__\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4ABEBB5E-CC42-4D3F-B076-13470D76BC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCA15CC-80FD-451D-A815-3D3194402FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,9 @@
   <externalReferences>
     <externalReference r:id="rId15"/>
   </externalReferences>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="3062" r:id="rId16"/>
+    <pivotCache cacheId="1" r:id="rId16"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="441">
   <si>
     <t>CF =42</t>
   </si>
@@ -1376,6 +1376,9 @@
   </si>
   <si>
     <t>A1234556</t>
+  </si>
+  <si>
+    <t>CF with formulas</t>
   </si>
 </sst>
 </file>
@@ -1390,7 +1393,7 @@
     <numFmt numFmtId="168" formatCode="#,##0&quot; EUR €&quot;"/>
     <numFmt numFmtId="169" formatCode="&quot;€&quot;#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2390,7 +2393,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2409,155 +2412,11 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{1493241F-B85D-4F84-BBA0-86191B8FD032}"/>
   </cellStyles>
-  <dxfs count="46">
+  <dxfs count="47">
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike/>
-        <u/>
-        <color theme="7"/>
-      </font>
-      <numFmt numFmtId="170" formatCode="dd/mm/yyyy"/>
-      <fill>
-        <patternFill patternType="lightTrellis">
-          <fgColor theme="4"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE06666"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB6D7A8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2967,6 +2826,157 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike/>
+        <u/>
+        <color theme="7"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="lightTrellis">
+          <fgColor theme="4"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE06666"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB6D7A8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="4"/>
         </patternFill>
       </fill>
@@ -2981,8 +2991,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Table Style 1" pivot="0" count="2" xr9:uid="{33B8EB55-D8D8-4B00-B5CF-C84A8AC9E775}">
-      <tableStyleElement type="wholeTable" dxfId="45"/>
-      <tableStyleElement type="firstRowStripe" dxfId="44"/>
+      <tableStyleElement type="wholeTable" dxfId="46"/>
+      <tableStyleElement type="firstRowStripe" dxfId="45"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -6195,7 +6205,7 @@
           </c:spPr>
           <c:xVal>
             <c:strRef>
-              <c:f>Sheet1!A27:A35</c:f>
+              <c:f>Sheet1!$A$27:$A$35</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -7902,7 +7912,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9B3CE3F5-58D8-48A3-B9C6-24D1506C9F5C}" name="PivotTable1" cacheId="3062" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9B3CE3F5-58D8-48A3-B9C6-24D1506C9F5C}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C3:L21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -8052,7 +8062,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{09C35CC7-7259-4A97-8FEA-EDB47375DF08}" name="Table3" displayName="Table3" ref="C3:J6" totalsRowCount="1" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{09C35CC7-7259-4A97-8FEA-EDB47375DF08}" name="Table3" displayName="Table3" ref="C3:J6" totalsRowCount="1" headerRowDxfId="44" dataDxfId="43">
   <autoFilter ref="C3:J5" xr:uid="{09C35CC7-7259-4A97-8FEA-EDB47375DF08}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -8064,22 +8074,22 @@
     <filterColumn colId="7" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{C4EE018E-238B-42BA-9035-DB01FA5420D3}" name="Name" totalsRowLabel="Total" dataDxfId="14" totalsRowDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{C1F6911F-9482-4C98-BBFB-21D9CAA66DA4}" name="Age" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{3CE9F5DA-0A57-4696-B4E0-53601C3B7798}" name="Rank" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{34912838-665C-4472-B558-25990E5B148D}" name="Rank+Age =E4+D4" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="9">
+    <tableColumn id="1" xr3:uid="{C4EE018E-238B-42BA-9035-DB01FA5420D3}" name="Name" totalsRowLabel="Total" dataDxfId="42" totalsRowDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{C1F6911F-9482-4C98-BBFB-21D9CAA66DA4}" name="Age" totalsRowFunction="sum" dataDxfId="40" totalsRowDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{3CE9F5DA-0A57-4696-B4E0-53601C3B7798}" name="Rank" totalsRowFunction="sum" dataDxfId="38" totalsRowDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{34912838-665C-4472-B558-25990E5B148D}" name="Rank+Age =E4+D4" totalsRowFunction="sum" dataDxfId="36" totalsRowDxfId="35">
       <calculatedColumnFormula>Table3[[#This Row],[Rank]]+Table3[[#This Row],[Age]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{89D90022-7073-4067-BAF8-1587D27C4AFB}" name="Data =SUM(E4:E5)" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="7">
+    <tableColumn id="7" xr3:uid="{89D90022-7073-4067-BAF8-1587D27C4AFB}" name="Data =SUM(E4:E5)" totalsRowFunction="sum" dataDxfId="34" totalsRowDxfId="33">
       <calculatedColumnFormula>SUM(Table3[Rank])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{B2A7E5BB-A379-492B-9484-72F2FD1FF3A0}" name="All =SUM(E3:E6)" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="5">
+    <tableColumn id="8" xr3:uid="{B2A7E5BB-A379-492B-9484-72F2FD1FF3A0}" name="All =SUM(E3:E6)" totalsRowFunction="sum" dataDxfId="32" totalsRowDxfId="31">
       <calculatedColumnFormula>SUM(Table3[[#All],[Rank]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{3C532A69-E4BC-4A20-A922-4BCAA0D3FEC9}" name="Totals =E6" totalsRowFunction="sum" dataDxfId="2" totalsRowDxfId="3">
+    <tableColumn id="9" xr3:uid="{3C532A69-E4BC-4A20-A922-4BCAA0D3FEC9}" name="Totals =E6" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="29">
       <calculatedColumnFormula>Table3[[#Totals],[Rank]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{35E9E9C3-9148-468A-85B6-19290CEB6F00}" name="Headers =E3" totalsRowFunction="sum" dataDxfId="0" totalsRowDxfId="1">
+    <tableColumn id="10" xr3:uid="{35E9E9C3-9148-468A-85B6-19290CEB6F00}" name="Headers =E3" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="27">
       <calculatedColumnFormula>Table3[[#Headers],[Rank]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8200,9 +8210,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -8240,7 +8250,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -8346,7 +8356,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8488,7 +8498,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8505,7 +8515,7 @@
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.28515625" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
@@ -8514,7 +8524,7 @@
     <col min="6" max="26" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="38.25" customHeight="1">
+    <row r="1" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="21"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -8523,7 +8533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="27.75">
+    <row r="2" spans="1:12" ht="27.75" x14ac:dyDescent="0.2">
       <c r="B2" s="22" t="s">
         <v>2</v>
       </c>
@@ -8539,7 +8549,7 @@
       <c r="I2" s="119"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="17.25" customHeight="1">
+    <row r="3" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
@@ -8554,7 +8564,7 @@
       </c>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12" ht="17.25" customHeight="1">
+    <row r="4" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
@@ -8573,7 +8583,7 @@
       <c r="K4" s="121"/>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:12" ht="17.25" customHeight="1">
+    <row r="5" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="117">
         <v>42</v>
       </c>
@@ -8586,7 +8596,7 @@
       <c r="K5" s="121"/>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:12" ht="17.25" customHeight="1">
+    <row r="6" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G6" s="117">
         <v>22</v>
       </c>
@@ -8594,7 +8604,7 @@
       <c r="K6" s="121"/>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:12" ht="17.25" customHeight="1">
+    <row r="7" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="117">
         <v>3</v>
       </c>
@@ -8602,7 +8612,7 @@
       <c r="K7" s="121"/>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="1:12" ht="17.25" customHeight="1">
+    <row r="8" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G8" s="117">
         <v>30</v>
       </c>
@@ -8610,7 +8620,7 @@
       <c r="K8" s="122"/>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="1:12" ht="17.25" customHeight="1">
+    <row r="9" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
@@ -8620,7 +8630,7 @@
       </c>
       <c r="K9" s="10"/>
     </row>
-    <row r="10" spans="1:12" ht="17.25" customHeight="1">
+    <row r="10" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="117">
         <f>SUM(C4:C7)</f>
         <v>57.4</v>
@@ -8629,13 +8639,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="17.25" customHeight="1">
+    <row r="11" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="117">
         <f>-(3+C7*SUM(C4:C7))</f>
         <v>-175.2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="17.25" customHeight="1">
+    <row r="12" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="117">
         <f>SUM(C9:C11)</f>
         <v>-63.399999999999991</v>
@@ -8644,13 +8654,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="17.25" customHeight="1">
+    <row r="13" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G13" s="117">
         <f>A1+A2+A3+A4+A5+A6+A7+A8+A9+A10+A11+A12+A13+A14+A15+A16+A17+A18</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="17.25" customHeight="1">
+    <row r="14" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="11" t="s">
         <v>11</v>
       </c>
@@ -8659,32 +8669,32 @@
         <v>#CYCLE</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="17.25" customHeight="1">
+    <row r="15" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="117" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="17.25" customHeight="1">
+    <row r="16" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="117" t="str">
         <f>C15</f>
         <v>=(+</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="17.25" customHeight="1">
+    <row r="17" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="117" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="17.25" customHeight="1">
+    <row r="18" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="117" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="17.25" customHeight="1">
+    <row r="19" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:9" ht="17.25" customHeight="1">
+    <row r="20" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="5"/>
       <c r="C20" s="6" t="s">
         <v>15</v>
@@ -8698,7 +8708,7 @@
       </c>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:9" ht="17.25" customHeight="1">
+    <row r="21" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
         <v>18</v>
       </c>
@@ -8708,7 +8718,7 @@
       </c>
       <c r="G21" s="10"/>
     </row>
-    <row r="23" spans="1:9" ht="17.25" customHeight="1">
+    <row r="23" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>19</v>
       </c>
@@ -8722,7 +8732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="17.25" customHeight="1">
+    <row r="24" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="16">
         <v>10</v>
       </c>
@@ -8733,7 +8743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="17.25" customHeight="1">
+    <row r="25" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="16">
         <v>10.122999999999999</v>
       </c>
@@ -8744,7 +8754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="17.25" customHeight="1">
+    <row r="26" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="117" t="s">
         <v>20</v>
       </c>
@@ -8758,7 +8768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="17.25" customHeight="1">
+    <row r="27" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="117" t="s">
         <v>22</v>
       </c>
@@ -8775,7 +8785,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="17.25" customHeight="1">
+    <row r="28" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="117" t="s">
         <v>23</v>
       </c>
@@ -8792,7 +8802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="17.25" customHeight="1">
+    <row r="29" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="117" t="s">
         <v>24</v>
       </c>
@@ -8809,7 +8819,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="17.25" customHeight="1">
+    <row r="30" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="117" t="s">
         <v>25</v>
       </c>
@@ -8826,7 +8836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="17.25" customHeight="1">
+    <row r="31" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="117" t="s">
         <v>26</v>
       </c>
@@ -8843,7 +8853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="17.25" customHeight="1">
+    <row r="32" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="117" t="s">
         <v>27</v>
       </c>
@@ -8860,7 +8870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="17.25" customHeight="1">
+    <row r="33" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="117" t="s">
         <v>28</v>
       </c>
@@ -8877,7 +8887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="17.25" customHeight="1">
+    <row r="34" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="117" t="s">
         <v>29</v>
       </c>
@@ -8888,7 +8898,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="17.25" customHeight="1">
+    <row r="35" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="117" t="s">
         <v>30</v>
       </c>
@@ -8905,7 +8915,7 @@
     <mergeCell ref="K3:K8"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:C100 B21">
-    <cfRule type="cellIs" dxfId="43" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
       <formula>42</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8955,7 +8965,7 @@
       <selection sqref="A1:N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8967,12 +8977,12 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
       <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
-      <selection pane="topRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8986,7 +8996,7 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="65.140625" customWidth="1"/>
     <col min="2" max="26" width="13.7109375" customWidth="1"/>
@@ -9006,7 +9016,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9021,7 +9031,7 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="4" width="14.28515625" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" customWidth="1"/>
@@ -9030,7 +9040,7 @@
     <col min="9" max="9" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="114" t="s">
         <v>423</v>
       </c>
@@ -9059,7 +9069,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="104">
         <v>4</v>
       </c>
@@ -9088,7 +9098,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="104">
         <v>3</v>
       </c>
@@ -9117,7 +9127,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="104">
         <v>9</v>
       </c>
@@ -9146,7 +9156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="104">
         <v>5</v>
       </c>
@@ -9175,7 +9185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="109">
         <v>7</v>
       </c>
@@ -9253,12 +9263,12 @@
       <selection activeCell="G115" sqref="G115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="26" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="17.25" customHeight="1">
+    <row r="1" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="117" t="s">
         <v>31</v>
       </c>
@@ -9293,7 +9303,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="17.25" customHeight="1">
+    <row r="2" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="117" t="s">
         <v>41</v>
       </c>
@@ -9339,7 +9349,7 @@
         <v>1230.7</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="17.25" customHeight="1">
+    <row r="3" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="117" t="s">
         <v>43</v>
       </c>
@@ -9385,7 +9395,7 @@
         <v>1217.7</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="17.25" customHeight="1">
+    <row r="4" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="117" t="s">
         <v>45</v>
       </c>
@@ -9431,7 +9441,7 @@
         <v>1230.7</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="17.25" customHeight="1">
+    <row r="5" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="117" t="s">
         <v>47</v>
       </c>
@@ -9477,7 +9487,7 @@
         <v>1246.7</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="17.25" customHeight="1">
+    <row r="6" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="117" t="s">
         <v>49</v>
       </c>
@@ -9523,7 +9533,7 @@
         <v>1213.7</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="17.25" customHeight="1">
+    <row r="7" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="117" t="s">
         <v>52</v>
       </c>
@@ -9557,7 +9567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="17.25" customHeight="1">
+    <row r="8" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="117" t="s">
         <v>54</v>
       </c>
@@ -9591,7 +9601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="17.25" customHeight="1">
+    <row r="9" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="117" t="s">
         <v>56</v>
       </c>
@@ -9622,7 +9632,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="17.25" customHeight="1">
+    <row r="10" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="117" t="s">
         <v>58</v>
       </c>
@@ -9638,7 +9648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="17.25" customHeight="1">
+    <row r="11" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="117" t="s">
         <v>59</v>
       </c>
@@ -9657,7 +9667,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="17.25" customHeight="1">
+    <row r="12" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="117" t="s">
         <v>61</v>
       </c>
@@ -9688,7 +9698,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="17.25" customHeight="1">
+    <row r="13" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="117" t="s">
         <v>62</v>
       </c>
@@ -9719,7 +9729,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="17.25" customHeight="1">
+    <row r="14" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="117" t="s">
         <v>67</v>
       </c>
@@ -9735,7 +9745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="17.25" customHeight="1">
+    <row r="15" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="117" t="s">
         <v>68</v>
       </c>
@@ -9751,7 +9761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="17.25" customHeight="1">
+    <row r="16" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="117" t="s">
         <v>69</v>
       </c>
@@ -9767,7 +9777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="17.25" customHeight="1">
+    <row r="17" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="117" t="s">
         <v>70</v>
       </c>
@@ -9783,7 +9793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="17.25" customHeight="1">
+    <row r="18" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="117" t="s">
         <v>71</v>
       </c>
@@ -9799,7 +9809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17.25" customHeight="1">
+    <row r="19" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="117" t="s">
         <v>72</v>
       </c>
@@ -9815,7 +9825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="17.25" customHeight="1">
+    <row r="20" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="117" t="s">
         <v>73</v>
       </c>
@@ -9831,7 +9841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="17.25" customHeight="1">
+    <row r="21" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="117" t="s">
         <v>74</v>
       </c>
@@ -9847,7 +9857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="17.25" customHeight="1">
+    <row r="22" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="117" t="s">
         <v>76</v>
       </c>
@@ -9863,7 +9873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="17.25" customHeight="1">
+    <row r="23" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="117" t="s">
         <v>77</v>
       </c>
@@ -9879,7 +9889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="17.25" customHeight="1">
+    <row r="24" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="117" t="s">
         <v>78</v>
       </c>
@@ -9896,7 +9906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="17.25" customHeight="1">
+    <row r="25" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="117" t="s">
         <v>79</v>
       </c>
@@ -9912,7 +9922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="17.25" customHeight="1">
+    <row r="26" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="117" t="s">
         <v>81</v>
       </c>
@@ -9928,7 +9938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="17.25" customHeight="1">
+    <row r="27" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="117" t="s">
         <v>82</v>
       </c>
@@ -9944,7 +9954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="17.25" customHeight="1">
+    <row r="28" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="117" t="s">
         <v>83</v>
       </c>
@@ -9961,7 +9971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="17.25" customHeight="1">
+    <row r="29" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="117" t="s">
         <v>84</v>
       </c>
@@ -9977,7 +9987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="17.25" customHeight="1">
+    <row r="30" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="117" t="s">
         <v>85</v>
       </c>
@@ -9993,7 +10003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="17.25" customHeight="1">
+    <row r="31" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="117" t="s">
         <v>86</v>
       </c>
@@ -10009,7 +10019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="17.25" customHeight="1">
+    <row r="32" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="117" t="s">
         <v>87</v>
       </c>
@@ -10025,7 +10035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="17.25" customHeight="1">
+    <row r="33" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="117" t="s">
         <v>88</v>
       </c>
@@ -10041,7 +10051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="17.25" customHeight="1">
+    <row r="34" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="117" t="s">
         <v>89</v>
       </c>
@@ -10057,7 +10067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="17.25" customHeight="1">
+    <row r="35" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="117" t="s">
         <v>90</v>
       </c>
@@ -10073,7 +10083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="17.25" customHeight="1">
+    <row r="36" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="117" t="s">
         <v>91</v>
       </c>
@@ -10089,7 +10099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="17.25" customHeight="1">
+    <row r="37" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="117" t="s">
         <v>92</v>
       </c>
@@ -10105,7 +10115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="17.25" customHeight="1">
+    <row r="38" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="117" t="s">
         <v>93</v>
       </c>
@@ -10122,7 +10132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="17.25" customHeight="1">
+    <row r="39" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="117" t="s">
         <v>94</v>
       </c>
@@ -10138,7 +10148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="17.25" customHeight="1">
+    <row r="40" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="117" t="s">
         <v>95</v>
       </c>
@@ -10154,7 +10164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="17.25" customHeight="1">
+    <row r="41" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="117" t="s">
         <v>96</v>
       </c>
@@ -10170,7 +10180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="17.25" customHeight="1">
+    <row r="42" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="117" t="s">
         <v>97</v>
       </c>
@@ -10186,7 +10196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="17.25" customHeight="1">
+    <row r="43" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="117" t="s">
         <v>98</v>
       </c>
@@ -10202,7 +10212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="17.25" customHeight="1">
+    <row r="44" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="117" t="s">
         <v>99</v>
       </c>
@@ -10218,7 +10228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="17.25" customHeight="1">
+    <row r="45" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="117" t="s">
         <v>100</v>
       </c>
@@ -10234,7 +10244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="17.25" customHeight="1">
+    <row r="46" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="117" t="s">
         <v>101</v>
       </c>
@@ -10250,7 +10260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="17.25" customHeight="1">
+    <row r="47" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="117" t="s">
         <v>102</v>
       </c>
@@ -10266,7 +10276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="17.25" customHeight="1">
+    <row r="48" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="117" t="s">
         <v>103</v>
       </c>
@@ -10282,7 +10292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="17.25" customHeight="1">
+    <row r="49" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="117" t="s">
         <v>104</v>
       </c>
@@ -10298,7 +10308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="17.25" customHeight="1">
+    <row r="50" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="117" t="s">
         <v>105</v>
       </c>
@@ -10315,7 +10325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="17.25" customHeight="1">
+    <row r="51" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="117" t="s">
         <v>106</v>
       </c>
@@ -10332,7 +10342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="17.25" customHeight="1">
+    <row r="52" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="117" t="s">
         <v>107</v>
       </c>
@@ -10348,7 +10358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="17.25" customHeight="1">
+    <row r="53" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="117" t="s">
         <v>108</v>
       </c>
@@ -10364,7 +10374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="17.25" customHeight="1">
+    <row r="54" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="117" t="s">
         <v>109</v>
       </c>
@@ -10380,7 +10390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="17.25" customHeight="1">
+    <row r="55" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="117" t="s">
         <v>110</v>
       </c>
@@ -10396,7 +10406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="17.25" customHeight="1">
+    <row r="56" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="117" t="s">
         <v>111</v>
       </c>
@@ -10412,7 +10422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="17.25" customHeight="1">
+    <row r="57" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="117" t="s">
         <v>112</v>
       </c>
@@ -10428,7 +10438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="17.25" customHeight="1">
+    <row r="58" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="117" t="s">
         <v>113</v>
       </c>
@@ -10444,7 +10454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="17.25" customHeight="1">
+    <row r="59" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="117" t="s">
         <v>114</v>
       </c>
@@ -10460,7 +10470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="17.25" customHeight="1">
+    <row r="60" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="117" t="s">
         <v>115</v>
       </c>
@@ -10476,7 +10486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="17.25" customHeight="1">
+    <row r="61" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="117" t="s">
         <v>116</v>
       </c>
@@ -10492,7 +10502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="17.25" customHeight="1">
+    <row r="62" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="117" t="s">
         <v>117</v>
       </c>
@@ -10508,7 +10518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="17.25" customHeight="1">
+    <row r="63" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="117" t="s">
         <v>118</v>
       </c>
@@ -10524,7 +10534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="17.25" customHeight="1">
+    <row r="64" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="117" t="s">
         <v>119</v>
       </c>
@@ -10540,7 +10550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="17.25" customHeight="1">
+    <row r="65" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="117" t="s">
         <v>120</v>
       </c>
@@ -10556,7 +10566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="17.25" customHeight="1">
+    <row r="66" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="117" t="s">
         <v>121</v>
       </c>
@@ -10572,7 +10582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="17.25" customHeight="1">
+    <row r="67" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="117" t="s">
         <v>122</v>
       </c>
@@ -10588,7 +10598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="17.25" customHeight="1">
+    <row r="68" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="117" t="s">
         <v>123</v>
       </c>
@@ -10604,7 +10614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="17.25" customHeight="1">
+    <row r="69" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="117" t="s">
         <v>125</v>
       </c>
@@ -10620,7 +10630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="17.25" customHeight="1">
+    <row r="70" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="117" t="s">
         <v>127</v>
       </c>
@@ -10636,7 +10646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="17.25" customHeight="1">
+    <row r="71" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="117" t="s">
         <v>129</v>
       </c>
@@ -10652,7 +10662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="17.25" customHeight="1">
+    <row r="72" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="117" t="s">
         <v>130</v>
       </c>
@@ -10668,7 +10678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="17.25" customHeight="1">
+    <row r="73" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="117" t="s">
         <v>131</v>
       </c>
@@ -10684,7 +10694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="17.25" customHeight="1">
+    <row r="74" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="117" t="s">
         <v>132</v>
       </c>
@@ -10700,7 +10710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="17.25" customHeight="1">
+    <row r="75" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="117" t="s">
         <v>133</v>
       </c>
@@ -10716,7 +10726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="17.25" customHeight="1">
+    <row r="76" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="117" t="s">
         <v>134</v>
       </c>
@@ -10732,7 +10742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="17.25" customHeight="1">
+    <row r="77" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="117" t="s">
         <v>135</v>
       </c>
@@ -10748,7 +10758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="17.25" customHeight="1">
+    <row r="78" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="117" t="s">
         <v>136</v>
       </c>
@@ -10764,7 +10774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="17.25" customHeight="1">
+    <row r="79" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="117" t="s">
         <v>137</v>
       </c>
@@ -10780,7 +10790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="17.25" customHeight="1">
+    <row r="80" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="117" t="s">
         <v>138</v>
       </c>
@@ -10796,7 +10806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="17.25" customHeight="1">
+    <row r="81" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="117" t="s">
         <v>139</v>
       </c>
@@ -10812,7 +10822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="17.25" customHeight="1">
+    <row r="82" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="117" t="s">
         <v>141</v>
       </c>
@@ -10828,7 +10838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="17.25" customHeight="1">
+    <row r="83" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="117" t="s">
         <v>142</v>
       </c>
@@ -10844,7 +10854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="17.25" customHeight="1">
+    <row r="84" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="117" t="s">
         <v>143</v>
       </c>
@@ -10860,7 +10870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="17.25" customHeight="1">
+    <row r="85" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="117" t="s">
         <v>144</v>
       </c>
@@ -10876,7 +10886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="17.25" customHeight="1">
+    <row r="86" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="117" t="s">
         <v>146</v>
       </c>
@@ -10892,7 +10902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="17.25" customHeight="1">
+    <row r="87" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="117" t="s">
         <v>147</v>
       </c>
@@ -10908,7 +10918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="17.25" customHeight="1">
+    <row r="88" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="117" t="s">
         <v>148</v>
       </c>
@@ -10924,7 +10934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="17.25" customHeight="1">
+    <row r="89" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="117" t="s">
         <v>149</v>
       </c>
@@ -10940,7 +10950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="17.25" customHeight="1">
+    <row r="90" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="117" t="s">
         <v>150</v>
       </c>
@@ -10956,7 +10966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="17.25" customHeight="1">
+    <row r="91" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="117" t="s">
         <v>151</v>
       </c>
@@ -10972,7 +10982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="17.25" customHeight="1">
+    <row r="92" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="117" t="s">
         <v>152</v>
       </c>
@@ -10988,7 +10998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="17.25" customHeight="1">
+    <row r="93" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="117" t="s">
         <v>153</v>
       </c>
@@ -11004,7 +11014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="17.25" customHeight="1">
+    <row r="94" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="117" t="s">
         <v>154</v>
       </c>
@@ -11020,7 +11030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="17.25" customHeight="1">
+    <row r="95" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="117" t="s">
         <v>155</v>
       </c>
@@ -11036,7 +11046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="17.25" customHeight="1">
+    <row r="96" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="117" t="s">
         <v>156</v>
       </c>
@@ -11052,7 +11062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="17.25" customHeight="1">
+    <row r="97" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="117" t="s">
         <v>157</v>
       </c>
@@ -11068,7 +11078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="17.25" customHeight="1">
+    <row r="98" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="117" t="s">
         <v>158</v>
       </c>
@@ -11084,7 +11094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="17.25" customHeight="1">
+    <row r="99" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="117" t="s">
         <v>159</v>
       </c>
@@ -11100,20 +11110,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="17.25" customHeight="1">
+    <row r="100" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="117" t="s">
         <v>160</v>
       </c>
       <c r="B100" s="19">
         <f ca="1">NOW()</f>
-        <v>45736.475918171294</v>
+        <v>45903.380486458336</v>
       </c>
       <c r="D100" s="117">
         <f ca="1">IF(ISNUMBER(B100),1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="17.25" customHeight="1">
+    <row r="101" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="117" t="s">
         <v>161</v>
       </c>
@@ -11129,7 +11139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="17.25" customHeight="1">
+    <row r="102" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="117" t="s">
         <v>162</v>
       </c>
@@ -11145,7 +11155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="17.25" customHeight="1">
+    <row r="103" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="117" t="s">
         <v>163</v>
       </c>
@@ -11161,7 +11171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="17.25" customHeight="1">
+    <row r="104" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="117" t="s">
         <v>164</v>
       </c>
@@ -11177,7 +11187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="17.25" customHeight="1">
+    <row r="105" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="117" t="s">
         <v>165</v>
       </c>
@@ -11193,7 +11203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="17.25" customHeight="1">
+    <row r="106" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="117" t="s">
         <v>166</v>
       </c>
@@ -11209,7 +11219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="17.25" customHeight="1">
+    <row r="107" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="117" t="s">
         <v>167</v>
       </c>
@@ -11225,7 +11235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="17.25" customHeight="1">
+    <row r="108" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="117" t="s">
         <v>168</v>
       </c>
@@ -11241,7 +11251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="17.25" customHeight="1">
+    <row r="109" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="117" t="s">
         <v>169</v>
       </c>
@@ -11257,7 +11267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="17.25" customHeight="1">
+    <row r="110" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="117" t="s">
         <v>170</v>
       </c>
@@ -11273,7 +11283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="17.25" customHeight="1">
+    <row r="111" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="117" t="s">
         <v>171</v>
       </c>
@@ -11289,12 +11299,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="17.25" customHeight="1">
+    <row r="112" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="117"/>
       <c r="B112" s="117"/>
       <c r="D112" s="117"/>
     </row>
-    <row r="113" spans="1:4" ht="17.25" customHeight="1">
+    <row r="113" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="117" t="s">
         <v>172</v>
       </c>
@@ -11310,7 +11320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="17.25" customHeight="1">
+    <row r="114" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="117" t="s">
         <v>173</v>
       </c>
@@ -11326,7 +11336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="17.25" customHeight="1">
+    <row r="115" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="117" t="s">
         <v>175</v>
       </c>
@@ -11342,7 +11352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="17.25" customHeight="1">
+    <row r="116" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="117" t="s">
         <v>177</v>
       </c>
@@ -11358,7 +11368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="17.25" customHeight="1">
+    <row r="117" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="117" t="s">
         <v>178</v>
       </c>
@@ -11374,7 +11384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="17.25" customHeight="1">
+    <row r="118" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="117" t="s">
         <v>179</v>
       </c>
@@ -11390,7 +11400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="17.25" customHeight="1">
+    <row r="119" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="117" t="s">
         <v>180</v>
       </c>
@@ -11406,7 +11416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="17.25" customHeight="1">
+    <row r="120" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="117" t="s">
         <v>181</v>
       </c>
@@ -11422,7 +11432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="17.25" customHeight="1">
+    <row r="121" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="117" t="s">
         <v>182</v>
       </c>
@@ -11438,7 +11448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="17.25" customHeight="1">
+    <row r="122" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="117" t="s">
         <v>183</v>
       </c>
@@ -11454,7 +11464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="17.25" customHeight="1">
+    <row r="123" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="117" t="s">
         <v>184</v>
       </c>
@@ -11470,7 +11480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="17.25" customHeight="1">
+    <row r="124" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="117" t="s">
         <v>185</v>
       </c>
@@ -11486,7 +11496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="17.25" customHeight="1">
+    <row r="125" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="117" t="s">
         <v>186</v>
       </c>
@@ -11502,7 +11512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="17.25" customHeight="1">
+    <row r="126" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="117" t="s">
         <v>187</v>
       </c>
@@ -11518,7 +11528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="17.25" customHeight="1">
+    <row r="127" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="117" t="s">
         <v>188</v>
       </c>
@@ -11534,7 +11544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="17.25" customHeight="1">
+    <row r="128" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="117" t="s">
         <v>189</v>
       </c>
@@ -11550,7 +11560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="17.25" customHeight="1">
+    <row r="129" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="117" t="s">
         <v>190</v>
       </c>
@@ -11566,7 +11576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="17.25" customHeight="1">
+    <row r="130" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="117" t="s">
         <v>191</v>
       </c>
@@ -11582,7 +11592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="17.25" customHeight="1">
+    <row r="131" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="117" t="s">
         <v>192</v>
       </c>
@@ -11598,7 +11608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="17.25" customHeight="1">
+    <row r="132" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="117" t="s">
         <v>193</v>
       </c>
@@ -11614,7 +11624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="17.25" customHeight="1">
+    <row r="133" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="117" t="s">
         <v>194</v>
       </c>
@@ -11630,7 +11640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="17.25" customHeight="1">
+    <row r="134" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="117" t="s">
         <v>195</v>
       </c>
@@ -11646,7 +11656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="17.25" customHeight="1">
+    <row r="135" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="117" t="s">
         <v>196</v>
       </c>
@@ -11662,7 +11672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="17.25" customHeight="1">
+    <row r="136" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="117" t="s">
         <v>198</v>
       </c>
@@ -11678,7 +11688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="17.25" customHeight="1">
+    <row r="137" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="117" t="s">
         <v>199</v>
       </c>
@@ -11694,7 +11704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="17.25" customHeight="1">
+    <row r="138" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="117" t="s">
         <v>200</v>
       </c>
@@ -11710,7 +11720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="17.25" customHeight="1">
+    <row r="139" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="117" t="s">
         <v>201</v>
       </c>
@@ -11726,7 +11736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="17.25" customHeight="1">
+    <row r="140" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="117" t="s">
         <v>202</v>
       </c>
@@ -11742,7 +11752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="17.25" customHeight="1">
+    <row r="141" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="117" t="s">
         <v>203</v>
       </c>
@@ -11758,7 +11768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="17.25" customHeight="1">
+    <row r="142" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="117" t="s">
         <v>205</v>
       </c>
@@ -11774,7 +11784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="17.25" customHeight="1">
+    <row r="143" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="117" t="s">
         <v>206</v>
       </c>
@@ -11790,20 +11800,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="17.25" customHeight="1">
+    <row r="144" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="117" t="s">
         <v>207</v>
       </c>
       <c r="B144" s="18">
         <f ca="1">TODAY()</f>
-        <v>45736</v>
+        <v>45903</v>
       </c>
       <c r="D144" s="117">
         <f ca="1">IF(ISNUMBER(B144),1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="17.25" customHeight="1">
+    <row r="145" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="117" t="s">
         <v>208</v>
       </c>
@@ -11819,7 +11829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="17.25" customHeight="1">
+    <row r="146" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="117" t="s">
         <v>210</v>
       </c>
@@ -11835,7 +11845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="17.25" customHeight="1">
+    <row r="147" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="117" t="s">
         <v>211</v>
       </c>
@@ -11851,7 +11861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="17.25" customHeight="1">
+    <row r="148" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="117" t="s">
         <v>213</v>
       </c>
@@ -11867,7 +11877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="17.25" customHeight="1">
+    <row r="149" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="117" t="s">
         <v>214</v>
       </c>
@@ -11883,7 +11893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="17.25" customHeight="1">
+    <row r="150" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="117" t="s">
         <v>215</v>
       </c>
@@ -11899,7 +11909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="17.25" customHeight="1">
+    <row r="151" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="117" t="s">
         <v>216</v>
       </c>
@@ -11915,7 +11925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="17.25" customHeight="1">
+    <row r="152" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="117" t="s">
         <v>217</v>
       </c>
@@ -11931,7 +11941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="17.25" customHeight="1">
+    <row r="153" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="117" t="s">
         <v>218</v>
       </c>
@@ -11947,7 +11957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="17.25" customHeight="1">
+    <row r="154" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="117" t="s">
         <v>219</v>
       </c>
@@ -11964,7 +11974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="17.25" customHeight="1">
+    <row r="155" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="117" t="s">
         <v>220</v>
       </c>
@@ -11980,7 +11990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="17.25" customHeight="1">
+    <row r="156" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="117" t="s">
         <v>221</v>
       </c>
@@ -11996,7 +12006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="17.25" customHeight="1">
+    <row r="157" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="117" t="s">
         <v>222</v>
       </c>
@@ -12012,7 +12022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="17.25" customHeight="1">
+    <row r="158" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="117" t="s">
         <v>223</v>
       </c>
@@ -12028,7 +12038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="17.25" customHeight="1">
+    <row r="159" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="117" t="s">
         <v>224</v>
       </c>
@@ -12044,7 +12054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="17.25" customHeight="1">
+    <row r="160" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="117" t="s">
         <v>225</v>
       </c>
@@ -12060,7 +12070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="17.25" customHeight="1">
+    <row r="161" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="117" t="s">
         <v>226</v>
       </c>
@@ -12076,7 +12086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="17.25" customHeight="1">
+    <row r="162" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="117" t="s">
         <v>227</v>
       </c>
@@ -12092,7 +12102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="17.25" customHeight="1">
+    <row r="163" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="117" t="s">
         <v>229</v>
       </c>
@@ -12110,10 +12120,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D180">
-    <cfRule type="cellIs" dxfId="42" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12133,7 +12143,7 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelRow="2" outlineLevelCol="2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" customWidth="1"/>
@@ -12143,7 +12153,7 @@
     <col min="15" max="18" width="9.140625" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>230</v>
       </c>
@@ -12161,7 +12171,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>SUM(A1)</f>
         <v>0</v>
@@ -12173,7 +12183,7 @@
         <v>referenced string</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D3" s="85" t="s">
         <v>235</v>
       </c>
@@ -12181,25 +12191,25 @@
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="75" customHeight="1">
+    <row r="5" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="10" spans="1:8" outlineLevel="1"/>
-    <row r="11" spans="1:8" outlineLevel="1"/>
-    <row r="12" spans="1:8" hidden="1" outlineLevel="2"/>
-    <row r="13" spans="1:8" hidden="1" outlineLevel="2"/>
-    <row r="14" spans="1:8" hidden="1" outlineLevel="2"/>
-    <row r="15" spans="1:8" outlineLevel="1" collapsed="1"/>
-    <row r="16" spans="1:8" outlineLevel="1"/>
-    <row r="17" outlineLevel="1"/>
-    <row r="18" outlineLevel="1"/>
+    <row r="10" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:8" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="17" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="18" outlineLevel="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D1:E2"/>
@@ -12221,14 +12231,14 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" customWidth="1"/>
     <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="13.5" thickBot="1">
+    <row r="1" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="68" t="s">
         <v>239</v>
       </c>
@@ -12250,7 +12260,7 @@
       </c>
       <c r="M1" s="36"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
         <v>245</v>
       </c>
@@ -12276,7 +12286,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="41" t="s">
         <v>252</v>
       </c>
@@ -12299,7 +12309,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15">
+    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="42" t="s">
         <v>256</v>
       </c>
@@ -12325,7 +12335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="43" t="s">
         <v>262</v>
       </c>
@@ -12345,7 +12355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="44" t="s">
         <v>266</v>
       </c>
@@ -12368,7 +12378,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.75">
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="45" t="s">
         <v>271</v>
       </c>
@@ -12388,7 +12398,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="21">
+    <row r="8" spans="1:13" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="46" t="s">
         <v>275</v>
       </c>
@@ -12411,7 +12421,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="47" t="s">
         <v>280</v>
       </c>
@@ -12428,7 +12438,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="48" t="s">
         <v>283</v>
       </c>
@@ -12436,7 +12446,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="13.5" thickBot="1">
+    <row r="11" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="49" t="s">
         <v>285</v>
       </c>
@@ -12445,7 +12455,7 @@
       </c>
       <c r="F11" s="36"/>
     </row>
-    <row r="12" spans="1:13" ht="18.75" customHeight="1">
+    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="50" t="s">
         <v>287</v>
       </c>
@@ -12459,7 +12469,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="18.75" customHeight="1" thickBot="1">
+    <row r="13" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="51" t="s">
         <v>290</v>
       </c>
@@ -12470,7 +12480,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="18.75" customHeight="1" thickBot="1">
+    <row r="14" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="52" t="s">
         <v>291</v>
       </c>
@@ -12484,7 +12494,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="18.75" customHeight="1" thickBot="1">
+    <row r="15" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="53" t="s">
         <v>293</v>
       </c>
@@ -12495,7 +12505,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="19.5" customHeight="1" thickBot="1">
+    <row r="16" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="54" t="s">
         <v>294</v>
       </c>
@@ -12509,12 +12519,12 @@
         <v>248</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.5" thickBot="1">
+    <row r="17" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.5" thickBot="1">
+    <row r="18" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="74" t="s">
         <v>297</v>
       </c>
@@ -12526,7 +12536,7 @@
       </c>
       <c r="F18" s="36"/>
     </row>
-    <row r="19" spans="1:6" ht="13.5" thickBot="1">
+    <row r="19" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="75" t="s">
         <v>300</v>
       </c>
@@ -12537,7 +12547,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="51.75" thickBot="1">
+    <row r="20" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="76" t="s">
         <v>303</v>
       </c>
@@ -12551,12 +12561,12 @@
         <v>302</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.5" thickBot="1">
+    <row r="21" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="77" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.5" thickBot="1">
+    <row r="22" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="78" t="s">
         <v>307</v>
       </c>
@@ -12565,13 +12575,13 @@
       </c>
       <c r="E22" s="21"/>
     </row>
-    <row r="23" spans="1:6" ht="13.5" thickBot="1">
+    <row r="23" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="79" t="s">
         <v>309</v>
       </c>
       <c r="E23" s="21"/>
     </row>
-    <row r="24" spans="1:6" ht="14.25" thickTop="1" thickBot="1">
+    <row r="24" spans="1:6" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="80" t="s">
         <v>310</v>
       </c>
@@ -12580,20 +12590,20 @@
       </c>
       <c r="E24" s="21"/>
     </row>
-    <row r="25" spans="1:6" ht="14.25" thickTop="1" thickBot="1"/>
-    <row r="26" spans="1:6" ht="14.25" thickTop="1" thickBot="1">
+    <row r="25" spans="1:6" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:6" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C26" s="67" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="14.25" thickTop="1" thickBot="1"/>
-    <row r="28" spans="1:6" ht="14.25" thickTop="1" thickBot="1">
+    <row r="27" spans="1:6" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:6" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C28" s="88" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="13.5" thickTop="1"/>
-    <row r="30" spans="1:6">
+    <row r="29" spans="1:6" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C30" s="87" t="s">
         <v>314</v>
       </c>
@@ -12608,17 +12618,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D919E811-4385-4D35-A19E-3B7E0E659A89}">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.140625" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13.5" thickBot="1">
+    <row r="1" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
         <v>315</v>
       </c>
@@ -12635,7 +12645,7 @@
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="s">
         <v>319</v>
       </c>
@@ -12658,7 +12668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="38" t="s">
         <v>321</v>
       </c>
@@ -12681,7 +12691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="38" t="s">
         <v>325</v>
       </c>
@@ -12701,7 +12711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="38" t="s">
         <v>328</v>
       </c>
@@ -12725,7 +12735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="38" t="s">
         <v>330</v>
       </c>
@@ -12748,7 +12758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="38" t="s">
         <v>333</v>
       </c>
@@ -12774,7 +12784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="38" t="s">
         <v>337</v>
       </c>
@@ -12785,7 +12795,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="38" t="s">
         <v>339</v>
       </c>
@@ -12794,7 +12804,7 @@
       </c>
       <c r="C9" s="21"/>
     </row>
-    <row r="10" spans="1:10" ht="13.5" thickBot="1">
+    <row r="10" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>340</v>
       </c>
@@ -12812,7 +12822,7 @@
       <c r="I10" s="36"/>
       <c r="J10" s="36"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
         <v>342</v>
       </c>
@@ -12835,13 +12845,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
         <v>344</v>
       </c>
       <c r="B12" s="39">
         <f ca="1">TODAY()</f>
-        <v>45736</v>
+        <v>45903</v>
       </c>
       <c r="C12" s="39">
         <f>DATE(2010,10,2)</f>
@@ -12860,7 +12870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="38" t="s">
         <v>346</v>
       </c>
@@ -12883,7 +12893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="38" t="s">
         <v>348</v>
       </c>
@@ -12909,7 +12919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="38" t="s">
         <v>350</v>
       </c>
@@ -12929,7 +12939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
         <v>352</v>
       </c>
@@ -12952,7 +12962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="38" t="s">
         <v>354</v>
       </c>
@@ -12975,7 +12985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="38" t="s">
         <v>356</v>
       </c>
@@ -12998,7 +13008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="38" t="s">
         <v>358</v>
       </c>
@@ -13021,7 +13031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="38" t="s">
         <v>360</v>
       </c>
@@ -13044,7 +13054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="38" t="s">
         <v>362</v>
       </c>
@@ -13070,7 +13080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="38" t="s">
         <v>364</v>
       </c>
@@ -13096,7 +13106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="38" t="s">
         <v>366</v>
       </c>
@@ -13122,7 +13132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G24" s="34" t="s">
         <v>368</v>
       </c>
@@ -13139,7 +13149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="38" t="s">
         <v>369</v>
       </c>
@@ -13165,7 +13175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G26" s="34" t="s">
         <v>371</v>
       </c>
@@ -13185,7 +13195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="21" t="s">
         <v>372</v>
       </c>
@@ -13211,7 +13221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G28" s="34" t="s">
         <v>374</v>
       </c>
@@ -13231,7 +13241,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="38" t="s">
+        <v>440</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
       <c r="G29" s="34" t="s">
         <v>375</v>
       </c>
@@ -13251,7 +13270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G30" s="34" t="s">
         <v>376</v>
       </c>
@@ -13271,7 +13290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="13.5" thickBot="1">
+    <row r="31" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G31" s="35" t="s">
         <v>377</v>
       </c>
@@ -13285,7 +13304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G32" s="34" t="s">
         <v>378</v>
       </c>
@@ -13299,7 +13318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="7:10">
+    <row r="33" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G33" s="34" t="s">
         <v>379</v>
       </c>
@@ -13313,7 +13332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="7:10">
+    <row r="34" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G34" s="34" t="s">
         <v>380</v>
       </c>
@@ -13327,7 +13346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="7:10">
+    <row r="35" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G35" s="34" t="s">
         <v>381</v>
       </c>
@@ -13341,7 +13360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="7:10">
+    <row r="36" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G36" s="34" t="s">
         <v>382</v>
       </c>
@@ -13355,7 +13374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="7:10">
+    <row r="37" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G37" s="34" t="s">
         <v>383</v>
       </c>
@@ -13369,116 +13388,116 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="7:10">
+    <row r="39" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G39" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="21" type="noConversion"/>
   <conditionalFormatting sqref="B15">
-    <cfRule type="expression" dxfId="40" priority="58">
+    <cfRule type="expression" dxfId="23" priority="59">
       <formula>ODD(B15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B27">
-    <cfRule type="cellIs" dxfId="39" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="47" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C2">
-    <cfRule type="aboveAverage" dxfId="38" priority="114"/>
+    <cfRule type="aboveAverage" dxfId="21" priority="115"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3">
-    <cfRule type="beginsWith" dxfId="37" priority="73" operator="beginsWith" text="rule">
+    <cfRule type="beginsWith" dxfId="20" priority="74" operator="beginsWith" text="rule">
       <formula>LEFT(B3,LEN("rule"))="rule"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:C4">
-    <cfRule type="containsBlanks" dxfId="36" priority="71">
+    <cfRule type="containsBlanks" dxfId="19" priority="72">
       <formula>LEN(TRIM(B4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="containsErrors" dxfId="35" priority="70">
+    <cfRule type="containsErrors" dxfId="18" priority="71">
       <formula>ISERROR(B5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:C6">
-    <cfRule type="containsText" dxfId="34" priority="69" operator="containsText" text="rule">
+    <cfRule type="containsText" dxfId="17" priority="70" operator="containsText" text="rule">
       <formula>NOT(ISERROR(SEARCH("rule",B6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:C8">
-    <cfRule type="endsWith" dxfId="33" priority="67" operator="endsWith" text="rule">
+    <cfRule type="endsWith" dxfId="16" priority="68" operator="endsWith" text="rule">
       <formula>RIGHT(B8,LEN("rule"))="rule"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:C9">
-    <cfRule type="notContainsBlanks" dxfId="32" priority="66">
+    <cfRule type="notContainsBlanks" dxfId="15" priority="67">
       <formula>LEN(TRIM(B9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:C10">
-    <cfRule type="notContainsErrors" dxfId="31" priority="65">
+    <cfRule type="notContainsErrors" dxfId="14" priority="66">
       <formula>NOT(ISERROR(B10))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11">
-    <cfRule type="notContainsText" dxfId="30" priority="64" operator="notContains" text="rule">
+    <cfRule type="notContainsText" dxfId="13" priority="65" operator="notContains" text="rule">
       <formula>ISERROR(SEARCH("rule",B11))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:C12">
-    <cfRule type="timePeriod" dxfId="29" priority="63" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="12" priority="64" timePeriod="today">
       <formula>FLOOR(B12,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:C13">
-    <cfRule type="top10" dxfId="28" priority="115" rank="1"/>
+    <cfRule type="top10" dxfId="11" priority="116" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:C16">
-    <cfRule type="cellIs" dxfId="27" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="46" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:C17">
-    <cfRule type="cellIs" dxfId="26" priority="56" operator="notEqual">
+    <cfRule type="cellIs" dxfId="9" priority="57" operator="notEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:C18">
-    <cfRule type="cellIs" dxfId="25" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="greaterThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:C19">
-    <cfRule type="cellIs" dxfId="24" priority="5" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:C20">
-    <cfRule type="cellIs" dxfId="23" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="lessThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:C21">
-    <cfRule type="cellIs" dxfId="22" priority="3" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:C22">
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="between">
       <formula>2</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:C23">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="notBetween">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="notBetween">
       <formula>2</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:C24">
-    <cfRule type="dataBar" priority="100">
+    <cfRule type="dataBar" priority="101">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -13492,7 +13511,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:C25">
-    <cfRule type="dataBar" priority="7">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -13506,13 +13525,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:D7">
-    <cfRule type="duplicateValues" dxfId="19" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:D14">
-    <cfRule type="uniqueValues" dxfId="18" priority="96"/>
+    <cfRule type="uniqueValues" dxfId="1" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:J2">
-    <cfRule type="colorScale" priority="44">
+    <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -13522,7 +13541,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:J3">
-    <cfRule type="colorScale" priority="42">
+    <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13534,7 +13553,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:J4">
-    <cfRule type="colorScale" priority="41">
+    <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="num" val="1"/>
         <cfvo type="num" val="5"/>
@@ -13544,7 +13563,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:J5">
-    <cfRule type="colorScale" priority="40">
+    <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="percent" val="10"/>
         <cfvo type="percent" val="90"/>
@@ -13554,7 +13573,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:J6">
-    <cfRule type="colorScale" priority="39">
+    <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="percentile" val="10"/>
         <cfvo type="percentile" val="90"/>
@@ -13564,7 +13583,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:J7">
-    <cfRule type="colorScale" priority="37">
+    <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="formula" val="$J$6"/>
         <cfvo type="formula" val="$H$6"/>
@@ -13574,7 +13593,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:J11">
-    <cfRule type="iconSet" priority="36">
+    <cfRule type="iconSet" priority="37">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -13583,7 +13602,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:J12">
-    <cfRule type="iconSet" priority="35">
+    <cfRule type="iconSet" priority="36">
       <iconSet iconSet="3ArrowsGray">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="2"/>
@@ -13592,7 +13611,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:J13">
-    <cfRule type="iconSet" priority="34">
+    <cfRule type="iconSet" priority="35">
       <iconSet iconSet="3Flags">
         <cfvo type="percent" val="0"/>
         <cfvo type="percentile" val="33"/>
@@ -13601,7 +13620,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14:J14">
-    <cfRule type="iconSet" priority="33">
+    <cfRule type="iconSet" priority="34">
       <iconSet>
         <cfvo type="percent" val="0"/>
         <cfvo type="formula" val="$I$14"/>
@@ -13610,7 +13629,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15:J15">
-    <cfRule type="iconSet" priority="32">
+    <cfRule type="iconSet" priority="33">
       <iconSet iconSet="3TrafficLights2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -13619,7 +13638,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16:J16">
-    <cfRule type="iconSet" priority="31">
+    <cfRule type="iconSet" priority="32">
       <iconSet iconSet="3Signs">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -13628,7 +13647,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:J17">
-    <cfRule type="iconSet" priority="30">
+    <cfRule type="iconSet" priority="31">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -13637,7 +13656,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18:J18">
-    <cfRule type="iconSet" priority="29">
+    <cfRule type="iconSet" priority="30">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -13646,7 +13665,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32:J32">
-    <cfRule type="iconSet" priority="28">
+    <cfRule type="iconSet" priority="29">
       <iconSet iconSet="3Arrows" reverse="1">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -13655,7 +13674,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33:J33">
-    <cfRule type="iconSet" priority="27">
+    <cfRule type="iconSet" priority="28">
       <iconSet iconSet="3Arrows" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -13664,7 +13683,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34:J34">
-    <cfRule type="iconSet" priority="26">
+    <cfRule type="iconSet" priority="27">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="0" gte="0"/>
@@ -13673,7 +13692,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21:K21">
-    <cfRule type="iconSet" priority="18">
+    <cfRule type="iconSet" priority="19">
       <iconSet iconSet="4Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -13683,7 +13702,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:K22">
-    <cfRule type="iconSet" priority="17">
+    <cfRule type="iconSet" priority="18">
       <iconSet iconSet="4ArrowsGray">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -13693,7 +13712,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23:K23">
-    <cfRule type="iconSet" priority="16">
+    <cfRule type="iconSet" priority="17">
       <iconSet iconSet="4RedToBlack">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -13703,7 +13722,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24:K24">
-    <cfRule type="iconSet" priority="15">
+    <cfRule type="iconSet" priority="16">
       <iconSet iconSet="4Rating">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -13713,7 +13732,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25:K25">
-    <cfRule type="iconSet" priority="14">
+    <cfRule type="iconSet" priority="15">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -13723,7 +13742,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26:L26">
-    <cfRule type="iconSet" priority="13">
+    <cfRule type="iconSet" priority="14">
       <iconSet iconSet="5Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="20"/>
@@ -13734,7 +13753,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27:L27">
-    <cfRule type="iconSet" priority="12">
+    <cfRule type="iconSet" priority="13">
       <iconSet iconSet="5ArrowsGray">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="20"/>
@@ -13745,7 +13764,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28:L28">
-    <cfRule type="iconSet" priority="11">
+    <cfRule type="iconSet" priority="12">
       <iconSet iconSet="5Rating">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="20"/>
@@ -13756,7 +13775,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29:L29">
-    <cfRule type="iconSet" priority="10">
+    <cfRule type="iconSet" priority="11">
       <iconSet iconSet="5Quarters">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="20"/>
@@ -13764,6 +13783,12 @@
         <cfvo type="percent" val="60"/>
         <cfvo type="percent" val="80"/>
       </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:C29">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
+      <formula>$B$23</formula>
+      <formula>2+2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13794,7 +13819,7 @@
           <xm:sqref>B25:C25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="20" id="{0776DCAB-3210-41C4-A113-32FD4847A5ED}">
+          <x14:cfRule type="iconSet" priority="21" id="{0776DCAB-3210-41C4-A113-32FD4847A5ED}">
             <x14:iconSet iconSet="3Stars">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13810,7 +13835,7 @@
           <xm:sqref>H19:J19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="19" id="{367C8C3A-A19C-489B-B02C-135E717D92A5}">
+          <x14:cfRule type="iconSet" priority="20" id="{367C8C3A-A19C-489B-B02C-135E717D92A5}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13826,7 +13851,7 @@
           <xm:sqref>H20:J20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="8" id="{2F0448E0-FD4B-4CC6-8AFB-1FCD78ED3F40}">
+          <x14:cfRule type="iconSet" priority="9" id="{2F0448E0-FD4B-4CC6-8AFB-1FCD78ED3F40}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13845,7 +13870,7 @@
           <xm:sqref>H31:J31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="25" id="{EDB615C5-C26E-42E3-8D7C-CFC96E348794}">
+          <x14:cfRule type="iconSet" priority="26" id="{EDB615C5-C26E-42E3-8D7C-CFC96E348794}">
             <x14:iconSet iconSet="3Arrows" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13864,7 +13889,7 @@
           <xm:sqref>H35:J35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="24" id="{3673FAEE-9C58-4DC2-8FFB-38004FA3122F}">
+          <x14:cfRule type="iconSet" priority="25" id="{3673FAEE-9C58-4DC2-8FFB-38004FA3122F}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13883,7 +13908,7 @@
           <xm:sqref>H36:J36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="23" id="{BEA8CADB-6314-47A4-B945-05492B4E899C}">
+          <x14:cfRule type="iconSet" priority="24" id="{BEA8CADB-6314-47A4-B945-05492B4E899C}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13902,7 +13927,7 @@
           <xm:sqref>H37:J37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="9" id="{DD78C548-721C-42F8-BA23-99215A699C4C}">
+          <x14:cfRule type="iconSet" priority="10" id="{DD78C548-721C-42F8-BA23-99215A699C4C}">
             <x14:iconSet iconSet="5Boxes">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13937,7 +13962,7 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="17.28515625" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" customWidth="1"/>
@@ -13949,12 +13974,12 @@
     <col min="10" max="10" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15">
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C3" s="17" t="s">
         <v>35</v>
       </c>
@@ -13980,7 +14005,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C4" s="117" t="s">
         <v>42</v>
       </c>
@@ -14011,7 +14036,7 @@
         <v>Rank</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C5" s="117" t="s">
         <v>44</v>
       </c>
@@ -14042,7 +14067,7 @@
         <v>Rank</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C6" s="117" t="s">
         <v>391</v>
       </c>
@@ -14075,7 +14100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>392</v>
       </c>
@@ -14101,7 +14126,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C9">
         <v>3</v>
       </c>
@@ -14129,7 +14154,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>398</v>
       </c>
@@ -14140,7 +14165,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C12">
         <v>3</v>
       </c>
@@ -14148,7 +14173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>401</v>
       </c>
@@ -14159,7 +14184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C15">
         <v>3</v>
       </c>
@@ -14167,7 +14192,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>402</v>
       </c>
@@ -14178,7 +14203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C18">
         <v>3</v>
       </c>
@@ -14186,7 +14211,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>403</v>
       </c>
@@ -14197,7 +14222,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C21">
         <v>3</v>
       </c>
@@ -14205,7 +14230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>404</v>
       </c>
@@ -14216,7 +14241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:4">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C24">
         <v>3</v>
       </c>
@@ -14224,7 +14249,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="2:4">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>405</v>
       </c>
@@ -14235,7 +14260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:4">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C27">
         <v>3</v>
       </c>
@@ -14243,7 +14268,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
         <v>391</v>
       </c>
@@ -14252,7 +14277,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="2:4">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>406</v>
       </c>
@@ -14263,7 +14288,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="31" spans="2:4" hidden="1">
+    <row r="31" spans="2:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
         <v>409</v>
       </c>
@@ -14271,7 +14296,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="32" spans="2:4">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
         <v>410</v>
       </c>
@@ -14279,7 +14304,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>411</v>
       </c>
@@ -14309,7 +14334,7 @@
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
@@ -14330,7 +14355,7 @@
     <col min="21" max="21" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15">
+    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="92" t="s">
         <v>412</v>
       </c>
@@ -14340,7 +14365,7 @@
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="117"/>
       <c r="B2" s="117"/>
       <c r="C2" s="117"/>
@@ -14348,7 +14373,7 @@
       <c r="E2" s="117"/>
       <c r="F2" s="117"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="117"/>
       <c r="B3" s="117"/>
       <c r="C3" s="89" t="s">
@@ -14358,7 +14383,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="117"/>
       <c r="B4" s="117"/>
       <c r="C4" s="89" t="s">
@@ -14392,7 +14417,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="117"/>
       <c r="B5" s="117"/>
       <c r="C5" s="90" t="s">
@@ -14405,7 +14430,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="117"/>
       <c r="B6" s="117"/>
       <c r="C6" s="91">
@@ -14418,7 +14443,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="117"/>
       <c r="B7" s="117"/>
       <c r="C7" s="90" t="s">
@@ -14431,7 +14456,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="117"/>
       <c r="B8" s="117"/>
       <c r="C8" s="91">
@@ -14444,7 +14469,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="117"/>
       <c r="B9" s="117"/>
       <c r="C9" s="90" t="s">
@@ -14457,7 +14482,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="117"/>
       <c r="B10" s="117"/>
       <c r="C10" s="91">
@@ -14470,7 +14495,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="90" t="s">
         <v>44</v>
       </c>
@@ -14481,7 +14506,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="91">
         <v>23000</v>
       </c>
@@ -14492,7 +14517,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="90" t="s">
         <v>50</v>
       </c>
@@ -14503,7 +14528,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="91">
         <v>2</v>
       </c>
@@ -14514,7 +14539,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="90" t="s">
         <v>48</v>
       </c>
@@ -14525,7 +14550,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C16" s="91">
         <v>50024</v>
       </c>
@@ -14536,7 +14561,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="3:12">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="90" t="s">
         <v>53</v>
       </c>
@@ -14547,7 +14572,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="3:12">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="91">
         <v>189576</v>
       </c>
@@ -14558,7 +14583,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="3:12">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="90" t="s">
         <v>57</v>
       </c>
@@ -14569,7 +14594,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="3:12">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="91">
         <v>5000</v>
       </c>
@@ -14580,7 +14605,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="3:12">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="90" t="s">
         <v>416</v>
       </c>
@@ -14622,33 +14647,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C47BF70-BA80-4124-B359-67CBCB635390}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="65.140625" customWidth="1"/>
     <col min="2" max="26" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>418</v>
       </c>
       <c r="B2" s="117"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>420</v>
       </c>
@@ -14667,9 +14692,9 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="51">
+    <row r="1" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
         <v>421</v>
       </c>
@@ -14677,7 +14702,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>407</v>
       </c>
@@ -14685,7 +14710,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -14693,7 +14718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -14701,7 +14726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3</v>
       </c>
@@ -14709,7 +14734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>4</v>
       </c>
@@ -14717,7 +14742,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>5</v>
       </c>

--- a/tests/__xlsx__/xlsx_demo_data.xlsx
+++ b/tests/__xlsx__/xlsx_demo_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Odoo\spreadsheet\tests\__xlsx__\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dhrutik Patel\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCA15CC-80FD-451D-A815-3D3194402FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DA6F05-B302-48AE-B11C-1FB2528D58DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
   </externalReferences>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId16"/>
+    <pivotCache cacheId="0" r:id="rId16"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -46,12 +46,33 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2414,13 +2435,6 @@
   </cellStyles>
   <dxfs count="47">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2458,6 +2472,13 @@
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -7912,7 +7933,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9B3CE3F5-58D8-48A3-B9C6-24D1506C9F5C}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9B3CE3F5-58D8-48A3-B9C6-24D1506C9F5C}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C3:L21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -8210,9 +8231,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -8250,7 +8271,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -8356,7 +8377,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8498,7 +8519,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -11116,7 +11137,7 @@
       </c>
       <c r="B100" s="19">
         <f ca="1">NOW()</f>
-        <v>45903.380486458336</v>
+        <v>45905.868253935187</v>
       </c>
       <c r="D100" s="117">
         <f ca="1">IF(ISNUMBER(B100),1,0)</f>
@@ -11806,7 +11827,7 @@
       </c>
       <c r="B144" s="18">
         <f ca="1">TODAY()</f>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="D144" s="117">
         <f ca="1">IF(ISNUMBER(B144),1,0)</f>
@@ -12137,10 +12158,10 @@
     <tabColor rgb="FFFF0000"/>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelRow="2" outlineLevelCol="2" x14ac:dyDescent="0.2"/>
@@ -12208,8 +12229,14 @@
     <row r="14" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:8" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="17" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="18" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="e" cm="1">
+        <f t="array" aca="1" ref="A30" ca="1">RANDARRAY(2, 2)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D1:E2"/>
@@ -12851,7 +12878,7 @@
       </c>
       <c r="B12" s="39">
         <f ca="1">TODAY()</f>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="C12" s="39">
         <f>DATE(2010,10,2)</f>
@@ -13524,11 +13551,17 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B29:C29">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="between">
+      <formula>$B$23</formula>
+      <formula>2+2</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B7:D7">
-    <cfRule type="duplicateValues" dxfId="2" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:D14">
-    <cfRule type="uniqueValues" dxfId="1" priority="97"/>
+    <cfRule type="uniqueValues" dxfId="0" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:J2">
     <cfRule type="colorScale" priority="45">
@@ -13785,12 +13818,6 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B29:C29">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
-      <formula>$B$23</formula>
-      <formula>2+2</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <extLst>

--- a/tests/__xlsx__/xlsx_demo_data.xlsx
+++ b/tests/__xlsx__/xlsx_demo_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Odoo\spreadsheet\tests\__xlsx__\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dhrutik Patel\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67BF2DA-E551-4A38-8BB6-2C727149A759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB856E1D-492D-4977-BBBF-6527B5D7DB19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,22 +33,11 @@
   </externalReferences>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId16"/>
+    <pivotCache cacheId="0" r:id="rId16"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2414,13 +2403,6 @@
   </cellStyles>
   <dxfs count="47">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2458,6 +2440,13 @@
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -7981,7 +7970,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9B3CE3F5-58D8-48A3-B9C6-24D1506C9F5C}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9B3CE3F5-58D8-48A3-B9C6-24D1506C9F5C}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C3:L21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -8279,9 +8268,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -8319,7 +8308,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -8425,7 +8414,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8567,7 +8556,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -11185,7 +11174,7 @@
       </c>
       <c r="B100" s="19">
         <f ca="1">NOW()</f>
-        <v>45903.455123148146</v>
+        <v>45905.920118287038</v>
       </c>
       <c r="D100" s="117">
         <f ca="1">IF(ISNUMBER(B100),1,0)</f>
@@ -11875,7 +11864,7 @@
       </c>
       <c r="B144" s="18">
         <f ca="1">TODAY()</f>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="D144" s="117">
         <f ca="1">IF(ISNUMBER(B144),1,0)</f>
@@ -12206,10 +12195,10 @@
     <tabColor rgb="FFFF0000"/>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelRow="2" outlineLevelCol="2" x14ac:dyDescent="0.2"/>
@@ -12277,8 +12266,14 @@
     <row r="14" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:8" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="17" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="18" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="e">
+        <f ca="1">RANDARRAY(2,2)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D1:E2"/>
@@ -12920,7 +12915,7 @@
       </c>
       <c r="B12" s="39">
         <f ca="1">TODAY()</f>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="C12" s="39">
         <f>DATE(2010,10,2)</f>
@@ -13593,11 +13588,17 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B29:C29">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="between">
+      <formula>$B$23</formula>
+      <formula>2+2</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B7:D7">
-    <cfRule type="duplicateValues" dxfId="2" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:D14">
-    <cfRule type="uniqueValues" dxfId="1" priority="97"/>
+    <cfRule type="uniqueValues" dxfId="0" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:J2">
     <cfRule type="colorScale" priority="45">
@@ -13854,12 +13855,6 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B29:C29">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
-      <formula>$B$23</formula>
-      <formula>2+2</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <extLst>

--- a/tests/__xlsx__/xlsx_demo_data.xlsx
+++ b/tests/__xlsx__/xlsx_demo_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Odoo\spreadsheet\tests\__xlsx__\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dhrutik Patel\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9003E72D-71B4-4E14-8DCF-7E699CA4C21F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D228786-E91E-430E-99C6-E04C2E52416C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,22 +33,11 @@
   </externalReferences>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId16"/>
+    <pivotCache cacheId="0" r:id="rId16"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2414,13 +2403,6 @@
   </cellStyles>
   <dxfs count="47">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2458,6 +2440,13 @@
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -8877,7 +8866,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9B3CE3F5-58D8-48A3-B9C6-24D1506C9F5C}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9B3CE3F5-58D8-48A3-B9C6-24D1506C9F5C}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C3:L21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -9175,9 +9164,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -9215,7 +9204,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -9321,7 +9310,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9463,7 +9452,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -12081,7 +12070,7 @@
       </c>
       <c r="B100" s="19">
         <f ca="1">NOW()</f>
-        <v>45903.478782407408</v>
+        <v>45905.93424490741</v>
       </c>
       <c r="D100" s="117">
         <f ca="1">IF(ISNUMBER(B100),1,0)</f>
@@ -12771,7 +12760,7 @@
       </c>
       <c r="B144" s="18">
         <f ca="1">TODAY()</f>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="D144" s="117">
         <f ca="1">IF(ISNUMBER(B144),1,0)</f>
@@ -13102,10 +13091,10 @@
     <tabColor rgb="FFFF0000"/>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelRow="2" outlineLevelCol="2" x14ac:dyDescent="0.2"/>
@@ -13173,8 +13162,14 @@
     <row r="14" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:8" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="17" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="18" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="e">
+        <f ca="1">RANDARRAY(2,2)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D1:E2"/>
@@ -13816,7 +13811,7 @@
       </c>
       <c r="B12" s="39">
         <f ca="1">TODAY()</f>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="C12" s="39">
         <f>DATE(2010,10,2)</f>
@@ -14489,11 +14484,17 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B29:C29">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="between">
+      <formula>$B$23</formula>
+      <formula>2+2</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B7:D7">
-    <cfRule type="duplicateValues" dxfId="2" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:D14">
-    <cfRule type="uniqueValues" dxfId="1" priority="97"/>
+    <cfRule type="uniqueValues" dxfId="0" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:J2">
     <cfRule type="colorScale" priority="45">
@@ -14750,12 +14751,6 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B29:C29">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
-      <formula>$B$23</formula>
-      <formula>2+2</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <extLst>

--- a/tests/__xlsx__/xlsx_demo_data.xlsx
+++ b/tests/__xlsx__/xlsx_demo_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dhrutik Patel\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Odoo\spreadsheet\tests\__xlsx__\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB856E1D-492D-4977-BBBF-6527B5D7DB19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BDD1BF-8B7C-4698-8737-50DE51528459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
   <externalReferences>
     <externalReference r:id="rId15"/>
   </externalReferences>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId16"/>
   </pivotCaches>
@@ -39,12 +39,45 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="442">
   <si>
     <t>CF =42</t>
   </si>
@@ -1368,6 +1401,9 @@
   </si>
   <si>
     <t>CF with formulas</t>
+  </si>
+  <si>
+    <t>Decimal with formula</t>
   </si>
 </sst>
 </file>
@@ -1547,7 +1583,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="30">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1728,14 +1764,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="36">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -2089,61 +2119,10 @@
         <color rgb="FF000000"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2152,9 +2131,7 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2165,9 +2142,7 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -2176,7 +2151,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2357,27 +2332,21 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="20" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="29" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="29" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -6779,7 +6748,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr/>
+                <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -6852,7 +6821,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr/>
+                <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -8268,9 +8237,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -8308,7 +8277,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -8414,7 +8383,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8556,7 +8525,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8587,7 +8556,7 @@
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="117" t="s">
+      <c r="G1" s="104" t="s">
         <v>1</v>
       </c>
     </row>
@@ -8598,26 +8567,26 @@
       <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="117">
+      <c r="G2" s="104">
         <v>5</v>
       </c>
-      <c r="H2" s="118" t="s">
+      <c r="H2" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="119"/>
+      <c r="I2" s="111"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="117">
+      <c r="G3" s="104">
         <v>8</v>
       </c>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="120">
+      <c r="K3" s="112">
         <v>5</v>
       </c>
       <c r="L3" s="6"/>
@@ -8626,94 +8595,94 @@
       <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="117">
+      <c r="C4" s="104">
         <v>12.4</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="117">
+      <c r="G4" s="104">
         <v>9</v>
       </c>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="121"/>
+      <c r="K4" s="113"/>
       <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="117">
+      <c r="C5" s="104">
         <v>42</v>
       </c>
-      <c r="G5" s="117">
+      <c r="G5" s="104">
         <v>15</v>
       </c>
-      <c r="H5" s="119"/>
-      <c r="I5" s="119"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="121"/>
+      <c r="K5" s="113"/>
       <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G6" s="117">
+      <c r="G6" s="104">
         <v>22</v>
       </c>
       <c r="J6" s="5"/>
-      <c r="K6" s="121"/>
+      <c r="K6" s="113"/>
       <c r="L6" s="6"/>
     </row>
     <row r="7" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="117">
+      <c r="C7" s="104">
         <v>3</v>
       </c>
       <c r="J7" s="5"/>
-      <c r="K7" s="121"/>
+      <c r="K7" s="113"/>
       <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G8" s="117">
+      <c r="G8" s="104">
         <v>30</v>
       </c>
       <c r="J8" s="5"/>
-      <c r="K8" s="122"/>
+      <c r="K8" s="114"/>
       <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="117">
+      <c r="C9" s="104">
         <f>SUM(C4:C5)</f>
         <v>54.4</v>
       </c>
       <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="117">
+      <c r="C10" s="104">
         <f>SUM(C4:C7)</f>
         <v>57.4</v>
       </c>
-      <c r="D10" s="117" t="s">
+      <c r="D10" s="104" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="117">
+      <c r="C11" s="104">
         <f>-(3+C7*SUM(C4:C7))</f>
         <v>-175.2</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="117">
+      <c r="C12" s="104">
         <f>SUM(C9:C11)</f>
         <v>-63.399999999999991</v>
       </c>
-      <c r="D12" s="117" t="s">
+      <c r="D12" s="104" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G13" s="117">
+      <c r="G13" s="104">
         <f>A1+A2+A3+A4+A5+A6+A7+A8+A9+A10+A11+A12+A13+A14+A15+A16+A17+A18</f>
         <v>0</v>
       </c>
@@ -8722,29 +8691,29 @@
       <c r="B14" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="117" t="str">
+      <c r="C14" s="104" t="str">
         <f ca="1">C14</f>
         <v>#CYCLE</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="117" t="s">
+      <c r="C15" s="104" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="117" t="str">
+      <c r="C16" s="104" t="str">
         <f>C15</f>
         <v>=(+</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="117" t="s">
+      <c r="C17" s="104" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="117" t="s">
+      <c r="C18" s="104" t="s">
         <v>14</v>
       </c>
     </row>
@@ -8783,10 +8752,10 @@
       <c r="C23" s="15">
         <v>0.43</v>
       </c>
-      <c r="H23" s="117">
+      <c r="H23" s="104">
         <v>0</v>
       </c>
-      <c r="I23" s="117">
+      <c r="I23" s="104">
         <v>0</v>
       </c>
     </row>
@@ -8794,10 +8763,10 @@
       <c r="C24" s="16">
         <v>10</v>
       </c>
-      <c r="H24" s="117">
-        <v>1</v>
-      </c>
-      <c r="I24" s="117">
+      <c r="H24" s="104">
+        <v>1</v>
+      </c>
+      <c r="I24" s="104">
         <v>1</v>
       </c>
     </row>
@@ -8805,165 +8774,165 @@
       <c r="C25" s="16">
         <v>10.122999999999999</v>
       </c>
-      <c r="H25" s="117">
+      <c r="H25" s="104">
         <v>2</v>
       </c>
-      <c r="I25" s="117">
+      <c r="I25" s="104">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="117" t="s">
+      <c r="B26" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="117" t="s">
+      <c r="C26" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="H26" s="117">
+      <c r="H26" s="104">
         <v>3</v>
       </c>
-      <c r="I26" s="117">
+      <c r="I26" s="104">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="117" t="s">
+      <c r="A27" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="117">
+      <c r="B27" s="104">
         <v>12</v>
       </c>
-      <c r="C27" s="117">
+      <c r="C27" s="104">
         <v>24</v>
       </c>
-      <c r="H27" s="117">
+      <c r="H27" s="104">
         <v>4</v>
       </c>
-      <c r="I27" s="117">
+      <c r="I27" s="104">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="117" t="s">
+      <c r="A28" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="117">
+      <c r="B28" s="104">
         <v>48</v>
       </c>
-      <c r="C28" s="117">
+      <c r="C28" s="104">
         <v>12</v>
       </c>
-      <c r="H28" s="117">
+      <c r="H28" s="104">
         <v>5</v>
       </c>
-      <c r="I28" s="117">
+      <c r="I28" s="104">
         <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="117" t="s">
+      <c r="A29" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="117">
+      <c r="B29" s="104">
         <v>45</v>
       </c>
-      <c r="C29" s="117">
+      <c r="C29" s="104">
         <v>27</v>
       </c>
-      <c r="H29" s="117">
+      <c r="H29" s="104">
         <v>6</v>
       </c>
-      <c r="I29" s="117">
+      <c r="I29" s="104">
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="117" t="s">
+      <c r="A30" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="117">
-        <v>1</v>
-      </c>
-      <c r="C30" s="117">
+      <c r="B30" s="104">
+        <v>1</v>
+      </c>
+      <c r="C30" s="104">
         <v>9</v>
       </c>
-      <c r="H30" s="117">
+      <c r="H30" s="104">
         <v>7</v>
       </c>
-      <c r="I30" s="117">
+      <c r="I30" s="104">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="117" t="s">
+      <c r="A31" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="117">
+      <c r="B31" s="104">
         <v>25</v>
       </c>
-      <c r="C31" s="117">
+      <c r="C31" s="104">
         <v>45</v>
       </c>
-      <c r="H31" s="117">
+      <c r="H31" s="104">
         <v>8</v>
       </c>
-      <c r="I31" s="117">
+      <c r="I31" s="104">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="117" t="s">
+      <c r="A32" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="117">
+      <c r="B32" s="104">
         <v>31</v>
       </c>
-      <c r="C32" s="117">
+      <c r="C32" s="104">
         <v>17</v>
       </c>
-      <c r="H32" s="117">
+      <c r="H32" s="104">
         <v>9</v>
       </c>
-      <c r="I32" s="117">
+      <c r="I32" s="104">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="117" t="s">
+      <c r="A33" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="117">
+      <c r="B33" s="104">
         <v>20</v>
       </c>
-      <c r="C33" s="117">
+      <c r="C33" s="104">
         <v>43</v>
       </c>
-      <c r="H33" s="117">
+      <c r="H33" s="104">
         <v>10</v>
       </c>
-      <c r="I33" s="117">
+      <c r="I33" s="104">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="117" t="s">
+      <c r="A34" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="117">
+      <c r="B34" s="104">
         <v>19</v>
       </c>
-      <c r="C34" s="117">
+      <c r="C34" s="104">
         <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="117" t="s">
+      <c r="A35" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="117">
+      <c r="B35" s="104">
         <v>16</v>
       </c>
-      <c r="C35" s="117">
+      <c r="C35" s="104">
         <v>16</v>
       </c>
     </row>
@@ -9083,10 +9052,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025F2510-D243-4DA1-81DE-BBDDA9BC3681}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9096,184 +9065,203 @@
     <col min="7" max="7" width="14.28515625" customWidth="1"/>
     <col min="8" max="8" width="20.28515625" customWidth="1"/>
     <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="114" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="105" t="s">
         <v>423</v>
       </c>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="106" t="s">
         <v>424</v>
       </c>
-      <c r="C1" s="115" t="s">
+      <c r="C1" s="106" t="s">
         <v>425</v>
       </c>
-      <c r="D1" s="115" t="s">
+      <c r="D1" s="106" t="s">
         <v>426</v>
       </c>
-      <c r="E1" s="115" t="s">
+      <c r="E1" s="106" t="s">
         <v>427</v>
       </c>
-      <c r="F1" s="115" t="s">
+      <c r="F1" s="106" t="s">
         <v>428</v>
       </c>
-      <c r="G1" s="115" t="s">
+      <c r="G1" s="106" t="s">
         <v>429</v>
       </c>
-      <c r="H1" s="115" t="s">
+      <c r="H1" s="106" t="s">
         <v>430</v>
       </c>
-      <c r="I1" s="116" t="s">
+      <c r="I1" s="107" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="104">
+      <c r="J1" s="109" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>4</v>
       </c>
-      <c r="B2" s="105">
+      <c r="B2">
         <v>99.5</v>
       </c>
-      <c r="C2" s="105">
-        <v>1</v>
-      </c>
-      <c r="D2" s="105" t="s">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>432</v>
       </c>
-      <c r="E2" s="106">
+      <c r="E2" s="39">
         <v>45575</v>
       </c>
-      <c r="F2" s="107">
+      <c r="F2" s="108">
         <v>0.64583333333333337</v>
       </c>
-      <c r="G2" s="107" t="s">
+      <c r="G2" s="108" t="s">
         <v>433</v>
       </c>
-      <c r="H2" s="106">
+      <c r="H2" s="39">
         <v>45292</v>
       </c>
-      <c r="I2" s="108">
+      <c r="I2">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="104">
+      <c r="J2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>3</v>
       </c>
-      <c r="B3" s="105">
+      <c r="B3">
         <v>40</v>
       </c>
-      <c r="C3" s="105">
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="105" t="s">
+      <c r="D3" t="s">
         <v>434</v>
       </c>
-      <c r="E3" s="106">
+      <c r="E3" s="39">
         <v>45576</v>
       </c>
-      <c r="F3" s="107">
+      <c r="F3" s="108">
         <v>0.57638888888888884</v>
       </c>
-      <c r="G3" s="107" t="s">
+      <c r="G3" s="108" t="s">
         <v>435</v>
       </c>
-      <c r="H3" s="106">
+      <c r="H3" s="39">
         <v>45231</v>
       </c>
-      <c r="I3" s="108" t="s">
+      <c r="I3" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="104">
+      <c r="J3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>9</v>
       </c>
-      <c r="B4" s="105">
+      <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4" s="105">
+      <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4" s="105" t="s">
+      <c r="D4" t="s">
         <v>436</v>
       </c>
-      <c r="E4" s="106">
+      <c r="E4" s="39">
         <v>45574</v>
       </c>
-      <c r="F4" s="107">
+      <c r="F4" s="108">
         <v>0.73958333333333337</v>
       </c>
-      <c r="G4" s="107" t="s">
+      <c r="G4" s="108" t="s">
         <v>437</v>
       </c>
-      <c r="H4" s="106">
+      <c r="H4" s="39">
         <v>45325</v>
       </c>
-      <c r="I4" s="108">
+      <c r="I4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="104">
+      <c r="J4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>5</v>
       </c>
-      <c r="B5" s="105">
+      <c r="B5">
         <v>120</v>
       </c>
-      <c r="C5" s="105">
+      <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5" s="105" t="s">
+      <c r="D5" t="s">
         <v>434</v>
       </c>
-      <c r="E5" s="106">
+      <c r="E5" s="39">
         <v>45573</v>
       </c>
-      <c r="F5" s="107">
+      <c r="F5" s="108">
         <v>0.66666666666666663</v>
       </c>
-      <c r="G5" s="105" t="s">
+      <c r="G5" t="s">
         <v>438</v>
       </c>
-      <c r="H5" s="106">
+      <c r="H5" s="39">
         <v>45084</v>
       </c>
-      <c r="I5" s="108">
+      <c r="I5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="109">
+      <c r="J5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>7</v>
       </c>
-      <c r="B6" s="110">
+      <c r="B6">
         <v>12</v>
       </c>
-      <c r="C6" s="110">
+      <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6" s="110" t="s">
+      <c r="D6" t="s">
         <v>436</v>
       </c>
-      <c r="E6" s="111">
+      <c r="E6" s="39">
         <v>45566</v>
       </c>
-      <c r="F6" s="112">
+      <c r="F6" s="108">
         <v>0.5229166666666667</v>
       </c>
-      <c r="G6" s="110" t="s">
+      <c r="G6" t="s">
         <v>439</v>
       </c>
-      <c r="H6" s="111">
+      <c r="H6" s="39">
         <v>45420</v>
       </c>
-      <c r="I6" s="113" t="s">
+      <c r="I6" t="s">
         <v>438</v>
       </c>
+      <c r="J6">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="9">
+  <dataValidations count="10">
     <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A6" xr:uid="{B9309757-E2F4-49A1-880B-2F47F04364D6}">
       <formula1>1</formula1>
       <formula2>5</formula2>
@@ -9305,6 +9293,10 @@
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6" xr:uid="{1E18A174-B5CF-4015-B7DC-F1491351E054}">
       <formula1>"option1,option2,option3"</formula1>
     </dataValidation>
+    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J6" xr:uid="{CC682EDA-A1E6-46CD-A99D-94400B180B55}">
+      <formula1>$A$2</formula1>
+      <formula2>2+10</formula2>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9327,16 +9319,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="117" t="s">
+      <c r="B1" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="117" t="s">
+      <c r="C1" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="117" t="s">
+      <c r="D1" s="104" t="s">
         <v>34</v>
       </c>
       <c r="G1" s="17" t="s">
@@ -9354,7 +9346,7 @@
       <c r="K1" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="117">
+      <c r="N1" s="104">
         <v>0.1</v>
       </c>
       <c r="P1" s="17" t="s">
@@ -9362,36 +9354,36 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="117" t="s">
+      <c r="A2" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="117">
+      <c r="B2" s="104">
         <f>ABS(-5.5)</f>
         <v>5.5</v>
       </c>
-      <c r="C2" s="117">
+      <c r="C2" s="104">
         <v>5.5</v>
       </c>
-      <c r="D2" s="117">
+      <c r="D2" s="104">
         <f t="shared" ref="D2:D33" si="0">IF(B2=C2,1,0)</f>
         <v>1</v>
       </c>
-      <c r="G2" s="117" t="s">
+      <c r="G2" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="117">
+      <c r="H2" s="104">
         <v>26</v>
       </c>
-      <c r="I2" s="117">
+      <c r="I2" s="104">
         <v>1204.7</v>
       </c>
-      <c r="J2" s="117">
+      <c r="J2" s="104">
         <v>25618</v>
       </c>
-      <c r="K2" s="117">
+      <c r="K2" s="104">
         <v>5</v>
       </c>
-      <c r="N2" s="117">
+      <c r="N2" s="104">
         <v>0.2</v>
       </c>
       <c r="P2">
@@ -9408,36 +9400,36 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="117">
+      <c r="B3" s="104">
         <f>ACOS(1)</f>
         <v>0</v>
       </c>
-      <c r="C3" s="117">
+      <c r="C3" s="104">
         <v>0</v>
       </c>
-      <c r="D3" s="117">
+      <c r="D3" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G3" s="117" t="s">
+      <c r="G3" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="117">
+      <c r="H3" s="104">
         <v>13</v>
       </c>
-      <c r="I3" s="117">
+      <c r="I3" s="104">
         <v>500.9</v>
       </c>
-      <c r="J3" s="117">
+      <c r="J3" s="104">
         <v>23000</v>
       </c>
-      <c r="K3" s="117">
+      <c r="K3" s="104">
         <v>7</v>
       </c>
-      <c r="N3" s="117">
+      <c r="N3" s="104">
         <v>0.4</v>
       </c>
       <c r="P3">
@@ -9454,36 +9446,36 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="117">
+      <c r="B4" s="104">
         <f>ROUND(ACOSH(2),5)</f>
         <v>1.3169599999999999</v>
       </c>
-      <c r="C4" s="117">
+      <c r="C4" s="104">
         <v>1.3169599999999999</v>
       </c>
-      <c r="D4" s="117">
+      <c r="D4" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G4" s="117" t="s">
+      <c r="G4" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="117">
+      <c r="H4" s="104">
         <v>26</v>
       </c>
-      <c r="I4" s="117">
+      <c r="I4" s="104">
         <v>252.4</v>
       </c>
-      <c r="J4" s="117">
+      <c r="J4" s="104">
         <v>110120.5</v>
       </c>
-      <c r="K4" s="117">
+      <c r="K4" s="104">
         <v>3</v>
       </c>
-      <c r="N4" s="117">
+      <c r="N4" s="104">
         <v>0.5</v>
       </c>
       <c r="P4">
@@ -9500,36 +9492,36 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="117" t="s">
+      <c r="A5" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="117">
+      <c r="B5" s="104">
         <f>ROUND(_xlfn.ACOT(1),5)</f>
         <v>0.78539999999999999</v>
       </c>
-      <c r="C5" s="117">
+      <c r="C5" s="104">
         <v>0.78539999999999999</v>
       </c>
-      <c r="D5" s="117">
+      <c r="D5" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G5" s="117" t="s">
+      <c r="G5" s="104" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="117">
+      <c r="H5" s="104">
         <v>42</v>
       </c>
-      <c r="I5" s="117">
+      <c r="I5" s="104">
         <v>4701.3</v>
       </c>
-      <c r="J5" s="117">
+      <c r="J5" s="104">
         <v>50024</v>
       </c>
-      <c r="K5" s="117">
+      <c r="K5" s="104">
         <v>4</v>
       </c>
-      <c r="N5" s="117">
+      <c r="N5" s="104">
         <v>0.6</v>
       </c>
       <c r="P5">
@@ -9546,36 +9538,36 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="117" t="s">
+      <c r="A6" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="117">
+      <c r="B6" s="104">
         <f>ROUND(_xlfn.ACOTH(2),5)</f>
         <v>0.54930999999999996</v>
       </c>
-      <c r="C6" s="117">
+      <c r="C6" s="104">
         <v>0.54930999999999996</v>
       </c>
-      <c r="D6" s="117">
+      <c r="D6" s="104">
         <f>IF(B6=C6,1,0)</f>
         <v>1</v>
       </c>
-      <c r="G6" s="117" t="s">
+      <c r="G6" s="104" t="s">
         <v>50</v>
       </c>
-      <c r="H6" s="117">
+      <c r="H6" s="104">
         <v>9</v>
       </c>
-      <c r="I6" s="117">
+      <c r="I6" s="104">
         <v>12.1</v>
       </c>
-      <c r="J6" s="117">
+      <c r="J6" s="104">
         <v>2</v>
       </c>
-      <c r="K6" s="117">
+      <c r="K6" s="104">
         <v>1000</v>
       </c>
-      <c r="N6" s="117" t="s">
+      <c r="N6" s="104" t="s">
         <v>51</v>
       </c>
       <c r="P6">
@@ -9592,151 +9584,151 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="117" t="s">
+      <c r="A7" s="104" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="117" t="b">
+      <c r="B7" s="104" t="b">
         <f>AND(TRUE,TRUE)</f>
         <v>1</v>
       </c>
-      <c r="C7" s="117" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" s="117">
+      <c r="C7" s="104" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G7" s="117" t="s">
+      <c r="G7" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="117">
+      <c r="H7" s="104">
         <v>27</v>
       </c>
-      <c r="I7" s="117">
+      <c r="I7" s="104">
         <v>4000</v>
       </c>
-      <c r="J7" s="117">
+      <c r="J7" s="104">
         <v>189576</v>
       </c>
-      <c r="K7" s="117">
+      <c r="K7" s="104">
         <v>2</v>
       </c>
-      <c r="N7" s="117" t="b">
+      <c r="N7" s="104" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="117" t="s">
+      <c r="A8" s="104" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="117">
+      <c r="B8" s="104">
         <f>ROUND(ASIN(0.5),5)</f>
         <v>0.52359999999999995</v>
       </c>
-      <c r="C8" s="117">
+      <c r="C8" s="104">
         <v>0.52359999999999995</v>
       </c>
-      <c r="D8" s="117">
+      <c r="D8" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G8" s="117" t="s">
+      <c r="G8" s="104" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="117">
+      <c r="H8" s="104">
         <v>30</v>
       </c>
-      <c r="I8" s="117">
+      <c r="I8" s="104">
         <v>12052</v>
       </c>
-      <c r="J8" s="117">
+      <c r="J8" s="104">
         <v>256018</v>
       </c>
-      <c r="K8" s="117">
-        <v>1</v>
-      </c>
-      <c r="N8" s="117" t="b">
+      <c r="K8" s="104">
+        <v>1</v>
+      </c>
+      <c r="N8" s="104" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="117" t="s">
+      <c r="A9" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="117">
+      <c r="B9" s="104">
         <f>ROUND(ASINH(2),5)</f>
         <v>1.44364</v>
       </c>
-      <c r="C9" s="117">
+      <c r="C9" s="104">
         <v>1.44364</v>
       </c>
-      <c r="D9" s="117">
+      <c r="D9" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G9" s="117" t="s">
+      <c r="G9" s="104" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="117">
+      <c r="H9" s="104">
         <v>37</v>
       </c>
-      <c r="I9" s="117">
+      <c r="I9" s="104">
         <v>4890.1000000000004</v>
       </c>
-      <c r="J9" s="117">
+      <c r="J9" s="104">
         <v>5000</v>
       </c>
-      <c r="K9" s="117">
+      <c r="K9" s="104">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="117" t="s">
+      <c r="A10" s="104" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="117">
+      <c r="B10" s="104">
         <f>ROUND(ATAN(1),5)</f>
         <v>0.78539999999999999</v>
       </c>
-      <c r="C10" s="117">
+      <c r="C10" s="104">
         <v>0.78539999999999999</v>
       </c>
-      <c r="D10" s="117">
+      <c r="D10" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="117" t="s">
+      <c r="A11" s="104" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="117">
+      <c r="B11" s="104">
         <f>ROUND(ATAN2(-1,0),5)</f>
         <v>3.1415899999999999</v>
       </c>
-      <c r="C11" s="117">
+      <c r="C11" s="104">
         <v>3.1415899999999999</v>
       </c>
-      <c r="D11" s="117">
+      <c r="D11" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G11" s="117" t="s">
+      <c r="G11" s="104" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="117" t="s">
+      <c r="A12" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="117">
+      <c r="B12" s="104">
         <f>ROUND(ATANH(0.7),5)</f>
         <v>0.86729999999999996</v>
       </c>
-      <c r="C12" s="117">
+      <c r="C12" s="104">
         <v>0.86729999999999996</v>
       </c>
-      <c r="D12" s="117">
+      <c r="D12" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -9757,457 +9749,457 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="117" t="s">
+      <c r="A13" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="117">
+      <c r="B13" s="104">
         <f>ROUND(AVEDEV(I2:I9),5)</f>
         <v>2959.1624999999999</v>
       </c>
-      <c r="C13" s="117">
+      <c r="C13" s="104">
         <v>2959.1624999999999</v>
       </c>
-      <c r="D13" s="117">
+      <c r="D13" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G13" s="117" t="s">
+      <c r="G13" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="117" t="s">
+      <c r="H13" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="I13" s="117" t="s">
+      <c r="I13" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="J13" s="117" t="s">
+      <c r="J13" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="K13" s="117" t="s">
+      <c r="K13" s="104" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="117" t="s">
+      <c r="A14" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="117">
+      <c r="B14" s="104">
         <f>ROUND(AVERAGE(H2:H9),5)</f>
         <v>26.25</v>
       </c>
-      <c r="C14" s="117">
+      <c r="C14" s="104">
         <v>26.25</v>
       </c>
-      <c r="D14" s="117">
+      <c r="D14" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="117" t="s">
+      <c r="A15" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="117">
+      <c r="B15" s="104">
         <f>AVERAGEA(G2:H9)</f>
         <v>13.125</v>
       </c>
-      <c r="C15" s="117">
+      <c r="C15" s="104">
         <v>13.125</v>
       </c>
-      <c r="D15" s="117">
+      <c r="D15" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="117" t="s">
+      <c r="A16" s="104" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="117">
+      <c r="B16" s="104">
         <f>ROUND(AVERAGEIF(J2:J9,"&gt;150000"),5)</f>
         <v>222797</v>
       </c>
-      <c r="C16" s="117">
+      <c r="C16" s="104">
         <v>222797</v>
       </c>
-      <c r="D16" s="117">
+      <c r="D16" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="117" t="s">
+      <c r="A17" s="104" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="117">
+      <c r="B17" s="104">
         <f>ROUND(AVERAGEIFS(I2:I9,H2:H9,"&gt;=30",K2:K9,"&lt;10"),5)</f>
         <v>8376.65</v>
       </c>
-      <c r="C17" s="117">
+      <c r="C17" s="104">
         <v>8376.65</v>
       </c>
-      <c r="D17" s="117">
+      <c r="D17" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="117" t="s">
+      <c r="A18" s="104" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="117">
+      <c r="B18" s="104">
         <f>CEILING(20.4,1)</f>
         <v>21</v>
       </c>
-      <c r="C18" s="117">
+      <c r="C18" s="104">
         <v>21</v>
       </c>
-      <c r="D18" s="117">
+      <c r="D18" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="117" t="s">
+      <c r="A19" s="104" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="117">
+      <c r="B19" s="104">
         <f>_xlfn.CEILING.MATH(-5.5,1,0)</f>
         <v>-5</v>
       </c>
-      <c r="C19" s="117">
+      <c r="C19" s="104">
         <v>-5</v>
       </c>
-      <c r="D19" s="117">
+      <c r="D19" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="117" t="s">
+      <c r="A20" s="104" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="117">
+      <c r="B20" s="104">
         <f>_xlfn.CEILING.PRECISE(230,100)</f>
         <v>300</v>
       </c>
-      <c r="C20" s="117">
+      <c r="C20" s="104">
         <v>300</v>
       </c>
-      <c r="D20" s="117">
+      <c r="D20" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="117" t="s">
+      <c r="A21" s="104" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="117" t="str">
+      <c r="B21" s="104" t="str">
         <f>CHAR(74)</f>
         <v>J</v>
       </c>
-      <c r="C21" s="117" t="s">
+      <c r="C21" s="104" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="117">
+      <c r="D21" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="117" t="s">
+      <c r="A22" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="B22" s="117">
+      <c r="B22" s="104">
         <f>COLUMN(C4)</f>
         <v>3</v>
       </c>
-      <c r="C22" s="117">
+      <c r="C22" s="104">
         <v>3</v>
       </c>
-      <c r="D22" s="117">
+      <c r="D22" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="117" t="s">
+      <c r="A23" s="104" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="117">
+      <c r="B23" s="104">
         <f>COLUMNS(A5:D12)</f>
         <v>4</v>
       </c>
-      <c r="C23" s="117">
+      <c r="C23" s="104">
         <v>4</v>
       </c>
-      <c r="D23" s="117">
+      <c r="D23" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="117" t="s">
+      <c r="A24" s="104" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="117" t="str">
+      <c r="B24" s="104" t="str">
         <f>_xlfn.CONCAT(1,23)</f>
         <v>123</v>
       </c>
-      <c r="C24" s="117" t="str">
+      <c r="C24" s="104" t="str">
         <f>"123"</f>
         <v>123</v>
       </c>
-      <c r="D24" s="117">
+      <c r="D24" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="117" t="s">
+      <c r="A25" s="104" t="s">
         <v>79</v>
       </c>
-      <c r="B25" s="117" t="str">
+      <c r="B25" s="104" t="str">
         <f>CONCATENATE("BUT, ","MICHEL")</f>
         <v>BUT, MICHEL</v>
       </c>
-      <c r="C25" s="117" t="s">
+      <c r="C25" s="104" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="117">
+      <c r="D25" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="117" t="s">
+      <c r="A26" s="104" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="117">
+      <c r="B26" s="104">
         <f>ROUND(COS(PI()/3),2)</f>
         <v>0.5</v>
       </c>
-      <c r="C26" s="117">
+      <c r="C26" s="104">
         <v>0.5</v>
       </c>
-      <c r="D26" s="117">
+      <c r="D26" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="117" t="s">
+      <c r="A27" s="104" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="117">
+      <c r="B27" s="104">
         <f>ROUND(COSH(2),5)</f>
         <v>3.7622</v>
       </c>
-      <c r="C27" s="117">
+      <c r="C27" s="104">
         <v>3.7622</v>
       </c>
-      <c r="D27" s="117">
+      <c r="D27" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="117" t="s">
+      <c r="A28" s="104" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="117">
+      <c r="B28" s="104">
         <f>ROUND(_xlfn.COT(PI()/6),5)</f>
         <v>1.7320500000000001</v>
       </c>
-      <c r="C28" s="117">
+      <c r="C28" s="104">
         <f>ROUND(SQRT(3),5)</f>
         <v>1.7320500000000001</v>
       </c>
-      <c r="D28" s="117">
+      <c r="D28" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="117" t="s">
+      <c r="A29" s="104" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="117">
+      <c r="B29" s="104">
         <f>ROUND(_xlfn.COTH(0.5),5)</f>
         <v>2.1639499999999998</v>
       </c>
-      <c r="C29" s="117">
+      <c r="C29" s="104">
         <v>2.1639499999999998</v>
       </c>
-      <c r="D29" s="117">
+      <c r="D29" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="117" t="s">
+      <c r="A30" s="104" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="117">
+      <c r="B30" s="104">
         <f>COUNT(1,"a","5","2021-03-14")</f>
         <v>3</v>
       </c>
-      <c r="C30" s="117">
+      <c r="C30" s="104">
         <v>2</v>
       </c>
-      <c r="D30" s="117">
+      <c r="D30" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="117" t="s">
+      <c r="A31" s="104" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="117">
+      <c r="B31" s="104">
         <f>COUNTA(1,"a","5","2021-03-14")</f>
         <v>4</v>
       </c>
-      <c r="C31" s="117">
+      <c r="C31" s="104">
         <v>4</v>
       </c>
-      <c r="D31" s="117">
+      <c r="D31" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="117" t="s">
+      <c r="A32" s="104" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="117">
+      <c r="B32" s="104">
         <f>COUNTBLANK(F1:G1)</f>
         <v>1</v>
       </c>
-      <c r="C32" s="117">
-        <v>1</v>
-      </c>
-      <c r="D32" s="117">
+      <c r="C32" s="104">
+        <v>1</v>
+      </c>
+      <c r="D32" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="117" t="s">
+      <c r="A33" s="104" t="s">
         <v>88</v>
       </c>
-      <c r="B33" s="117">
+      <c r="B33" s="104">
         <f>COUNTIF(H2:H9,"&gt;30")</f>
         <v>2</v>
       </c>
-      <c r="C33" s="117">
+      <c r="C33" s="104">
         <v>2</v>
       </c>
-      <c r="D33" s="117">
+      <c r="D33" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="117" t="s">
+      <c r="A34" s="104" t="s">
         <v>89</v>
       </c>
-      <c r="B34" s="117">
+      <c r="B34" s="104">
         <f>COUNTIFS(H2:H9,"&gt;25",K2:K9,"&lt;4")</f>
         <v>3</v>
       </c>
-      <c r="C34" s="117">
+      <c r="C34" s="104">
         <v>3</v>
       </c>
-      <c r="D34" s="117">
+      <c r="D34" s="104">
         <f t="shared" ref="D34:D65" si="4">IF(B34=C34,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="117" t="s">
+      <c r="A35" s="104" t="s">
         <v>90</v>
       </c>
-      <c r="B35" s="117">
+      <c r="B35" s="104">
         <f>ROUND(COVAR(H2:H9,K2:K9),5)</f>
         <v>-2119.25</v>
       </c>
-      <c r="C35" s="117">
+      <c r="C35" s="104">
         <v>-2119.25</v>
       </c>
-      <c r="D35" s="117">
+      <c r="D35" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="117" t="s">
+      <c r="A36" s="104" t="s">
         <v>91</v>
       </c>
-      <c r="B36" s="117">
+      <c r="B36" s="104">
         <f>ROUND(_xlfn.COVARIANCE.P(K2:K9,H2:H9),5)</f>
         <v>-2119.25</v>
       </c>
-      <c r="C36" s="117">
+      <c r="C36" s="104">
         <v>-2119.25</v>
       </c>
-      <c r="D36" s="117">
+      <c r="D36" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="117" t="s">
+      <c r="A37" s="104" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="117">
+      <c r="B37" s="104">
         <f>ROUND(_xlfn.COVARIANCE.P(I2:I9,J2:J9),5)</f>
         <v>237217364.71641001</v>
       </c>
-      <c r="C37" s="117">
+      <c r="C37" s="104">
         <v>237217364.71641001</v>
       </c>
-      <c r="D37" s="117">
+      <c r="D37" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="117" t="s">
+      <c r="A38" s="104" t="s">
         <v>93</v>
       </c>
-      <c r="B38" s="117">
+      <c r="B38" s="104">
         <f>ROUND(_xlfn.CSC(PI()/4),5)</f>
         <v>1.41421</v>
       </c>
-      <c r="C38" s="117">
+      <c r="C38" s="104">
         <f>ROUND(SQRT(2),5)</f>
         <v>1.41421</v>
       </c>
-      <c r="D38" s="117">
+      <c r="D38" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="117" t="s">
+      <c r="A39" s="104" t="s">
         <v>94</v>
       </c>
-      <c r="B39" s="117">
+      <c r="B39" s="104">
         <f>ROUND(_xlfn.CSCH(PI()/3),5)</f>
         <v>0.80040999999999995</v>
       </c>
-      <c r="C39" s="117">
+      <c r="C39" s="104">
         <v>0.80040999999999995</v>
       </c>
-      <c r="D39" s="117">
+      <c r="D39" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="117" t="s">
+      <c r="A40" s="104" t="s">
         <v>95</v>
       </c>
       <c r="B40" s="18">
@@ -10217,287 +10209,287 @@
       <c r="C40" s="18">
         <v>43976</v>
       </c>
-      <c r="D40" s="117">
+      <c r="D40" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="117" t="s">
+      <c r="A41" s="104" t="s">
         <v>96</v>
       </c>
-      <c r="B41" s="117">
+      <c r="B41" s="104">
         <f>DATEVALUE("1969-08-15")</f>
         <v>25430</v>
       </c>
-      <c r="C41" s="117">
+      <c r="C41" s="104">
         <v>25430</v>
       </c>
-      <c r="D41" s="117">
+      <c r="D41" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="117" t="s">
+      <c r="A42" s="104" t="s">
         <v>97</v>
       </c>
-      <c r="B42" s="117">
+      <c r="B42" s="104">
         <f>ROUND(DAVERAGE(G1:K9,"Tot. Score",J12:J13),5)</f>
         <v>151434.625</v>
       </c>
-      <c r="C42" s="117">
+      <c r="C42" s="104">
         <v>151434.625</v>
       </c>
-      <c r="D42" s="117">
+      <c r="D42" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="117" t="s">
+      <c r="A43" s="104" t="s">
         <v>98</v>
       </c>
-      <c r="B43" s="117">
+      <c r="B43" s="104">
         <f>DAY("2020-03-17")</f>
         <v>17</v>
       </c>
-      <c r="C43" s="117">
+      <c r="C43" s="104">
         <v>17</v>
       </c>
-      <c r="D43" s="117">
+      <c r="D43" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="117" t="s">
+      <c r="A44" s="104" t="s">
         <v>99</v>
       </c>
-      <c r="B44" s="117">
+      <c r="B44" s="104">
         <f>_xlfn.DAYS("2022-03-17","2021-03-17")</f>
         <v>365</v>
       </c>
-      <c r="C44" s="117">
+      <c r="C44" s="104">
         <v>365</v>
       </c>
-      <c r="D44" s="117">
+      <c r="D44" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="117" t="s">
+      <c r="A45" s="104" t="s">
         <v>100</v>
       </c>
-      <c r="B45" s="117">
+      <c r="B45" s="104">
         <f>DCOUNT(G1:K9,"Name",H12:H13)</f>
         <v>0</v>
       </c>
-      <c r="C45" s="117">
+      <c r="C45" s="104">
         <v>0</v>
       </c>
-      <c r="D45" s="117">
+      <c r="D45" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="117" t="s">
+      <c r="A46" s="104" t="s">
         <v>101</v>
       </c>
-      <c r="B46" s="117">
+      <c r="B46" s="104">
         <f>DCOUNTA(G1:K9,"Name",H12:H13)</f>
         <v>3</v>
       </c>
-      <c r="C46" s="117">
+      <c r="C46" s="104">
         <v>3</v>
       </c>
-      <c r="D46" s="117">
+      <c r="D46" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="117" t="s">
+      <c r="A47" s="104" t="s">
         <v>102</v>
       </c>
-      <c r="B47" s="117">
+      <c r="B47" s="104">
         <f>_xlfn.DECIMAL(20,16)</f>
         <v>32</v>
       </c>
-      <c r="C47" s="117">
+      <c r="C47" s="104">
         <v>32</v>
       </c>
-      <c r="D47" s="117">
+      <c r="D47" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="117" t="s">
+      <c r="A48" s="104" t="s">
         <v>103</v>
       </c>
-      <c r="B48" s="117">
+      <c r="B48" s="104">
         <f>DEGREES(PI()/4)</f>
         <v>45</v>
       </c>
-      <c r="C48" s="117">
+      <c r="C48" s="104">
         <v>45</v>
       </c>
-      <c r="D48" s="117">
+      <c r="D48" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="117" t="s">
+      <c r="A49" s="104" t="s">
         <v>104</v>
       </c>
-      <c r="B49" s="117">
+      <c r="B49" s="104">
         <f>DGET(G1:K9,"Hours Played",G12:G13)</f>
         <v>252.4</v>
       </c>
-      <c r="C49" s="117">
+      <c r="C49" s="104">
         <v>252.4</v>
       </c>
-      <c r="D49" s="117">
+      <c r="D49" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="117" t="s">
+      <c r="A50" s="104" t="s">
         <v>105</v>
       </c>
-      <c r="B50" s="117">
+      <c r="B50" s="104">
         <f>DMAX(G1:K9,"Tot. Score",I12:I13)</f>
         <v>189576</v>
       </c>
-      <c r="C50" s="117">
+      <c r="C50" s="104">
         <f>J7</f>
         <v>189576</v>
       </c>
-      <c r="D50" s="117">
+      <c r="D50" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="117" t="s">
+      <c r="A51" s="104" t="s">
         <v>106</v>
       </c>
-      <c r="B51" s="117">
+      <c r="B51" s="104">
         <f>DMIN(G1:K9,"Tot. Score",H12:H13)</f>
         <v>5000</v>
       </c>
-      <c r="C51" s="117">
+      <c r="C51" s="104">
         <f>J9</f>
         <v>5000</v>
       </c>
-      <c r="D51" s="117">
+      <c r="D51" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="117" t="s">
+      <c r="A52" s="104" t="s">
         <v>107</v>
       </c>
-      <c r="B52" s="117">
+      <c r="B52" s="104">
         <f>DPRODUCT(G1:K9,"Age",K12:K13)</f>
         <v>333</v>
       </c>
-      <c r="C52" s="117">
+      <c r="C52" s="104">
         <v>333</v>
       </c>
-      <c r="D52" s="117">
+      <c r="D52" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="117" t="s">
+      <c r="A53" s="104" t="s">
         <v>108</v>
       </c>
-      <c r="B53" s="117">
+      <c r="B53" s="104">
         <f>ROUND(DSTDEV(G1:K9,"Age",H12:H13),5)</f>
         <v>6.0277099999999999</v>
       </c>
-      <c r="C53" s="117">
+      <c r="C53" s="104">
         <v>6.0277099999999999</v>
       </c>
-      <c r="D53" s="117">
+      <c r="D53" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="117" t="s">
+      <c r="A54" s="104" t="s">
         <v>109</v>
       </c>
-      <c r="B54" s="117">
+      <c r="B54" s="104">
         <f>ROUND(DSTDEVP(G1:K9,"Age",H12:H13),5)</f>
         <v>4.9216100000000003</v>
       </c>
-      <c r="C54" s="117">
+      <c r="C54" s="104">
         <v>4.9216100000000003</v>
       </c>
-      <c r="D54" s="117">
+      <c r="D54" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="117" t="s">
+      <c r="A55" s="104" t="s">
         <v>110</v>
       </c>
-      <c r="B55" s="117">
+      <c r="B55" s="104">
         <f>DSUM(G1:K9,"Age",I12:I13)</f>
         <v>101</v>
       </c>
-      <c r="C55" s="117">
+      <c r="C55" s="104">
         <v>101</v>
       </c>
-      <c r="D55" s="117">
+      <c r="D55" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="117" t="s">
+      <c r="A56" s="104" t="s">
         <v>111</v>
       </c>
-      <c r="B56" s="117">
+      <c r="B56" s="104">
         <f>ROUND(DVAR(G1:K9,"Hours Played",H12:H13),5)</f>
         <v>17560207.923330002</v>
       </c>
-      <c r="C56" s="117">
+      <c r="C56" s="104">
         <v>17560207.923330002</v>
       </c>
-      <c r="D56" s="117">
+      <c r="D56" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="117" t="s">
+      <c r="A57" s="104" t="s">
         <v>112</v>
       </c>
-      <c r="B57" s="117">
+      <c r="B57" s="104">
         <f>ROUND(DVARP(G1:K9,"Hours Played",H12:H13),5)</f>
         <v>11706805.28222</v>
       </c>
-      <c r="C57" s="117">
+      <c r="C57" s="104">
         <v>11706805.28222</v>
       </c>
-      <c r="D57" s="117">
+      <c r="D57" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="117" t="s">
+      <c r="A58" s="104" t="s">
         <v>113</v>
       </c>
       <c r="B58" s="18">
@@ -10507,13 +10499,13 @@
       <c r="C58" s="18">
         <v>25345</v>
       </c>
-      <c r="D58" s="117">
+      <c r="D58" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="117" t="s">
+      <c r="A59" s="104" t="s">
         <v>114</v>
       </c>
       <c r="B59" s="18">
@@ -10523,1549 +10515,1549 @@
       <c r="C59" s="18">
         <v>44074</v>
       </c>
-      <c r="D59" s="117">
+      <c r="D59" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="117" t="s">
+      <c r="A60" s="104" t="s">
         <v>115</v>
       </c>
-      <c r="B60" s="117" t="b">
+      <c r="B60" s="104" t="b">
         <f>EXACT("AbsSdf%","AbsSdf%")</f>
         <v>1</v>
       </c>
-      <c r="C60" s="117" t="b">
-        <v>1</v>
-      </c>
-      <c r="D60" s="117">
+      <c r="C60" s="104" t="b">
+        <v>1</v>
+      </c>
+      <c r="D60" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="117" t="s">
+      <c r="A61" s="104" t="s">
         <v>116</v>
       </c>
-      <c r="B61" s="117">
+      <c r="B61" s="104">
         <f>ROUND(EXP(4),5)</f>
         <v>54.598149999999997</v>
       </c>
-      <c r="C61" s="117">
+      <c r="C61" s="104">
         <v>54.598149999999997</v>
       </c>
-      <c r="D61" s="117">
+      <c r="D61" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="117" t="s">
+      <c r="A62" s="104" t="s">
         <v>117</v>
       </c>
-      <c r="B62" s="117">
+      <c r="B62" s="104">
         <f>FIND("A","qbdahbaazo A")</f>
         <v>12</v>
       </c>
-      <c r="C62" s="117">
+      <c r="C62" s="104">
         <v>12</v>
       </c>
-      <c r="D62" s="117">
+      <c r="D62" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="117" t="s">
+      <c r="A63" s="104" t="s">
         <v>118</v>
       </c>
-      <c r="B63" s="117">
+      <c r="B63" s="104">
         <f>FLOOR(5.5,2)</f>
         <v>4</v>
       </c>
-      <c r="C63" s="117">
+      <c r="C63" s="104">
         <v>4</v>
       </c>
-      <c r="D63" s="117">
+      <c r="D63" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="117" t="s">
+      <c r="A64" s="104" t="s">
         <v>119</v>
       </c>
-      <c r="B64" s="117">
+      <c r="B64" s="104">
         <f>_xlfn.FLOOR.MATH(-5.55,2,1)</f>
         <v>-4</v>
       </c>
-      <c r="C64" s="117">
+      <c r="C64" s="104">
         <v>-4</v>
       </c>
-      <c r="D64" s="117">
+      <c r="D64" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="117" t="s">
+      <c r="A65" s="104" t="s">
         <v>120</v>
       </c>
-      <c r="B65" s="117">
+      <c r="B65" s="104">
         <f>_xlfn.FLOOR.PRECISE(199,100)</f>
         <v>100</v>
       </c>
-      <c r="C65" s="117">
+      <c r="C65" s="104">
         <v>100</v>
       </c>
-      <c r="D65" s="117">
+      <c r="D65" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="117" t="s">
+      <c r="A66" s="104" t="s">
         <v>121</v>
       </c>
-      <c r="B66" s="117">
+      <c r="B66" s="104">
         <f>HLOOKUP("Tot. Score",H1:K9,4,FALSE)</f>
         <v>110120.5</v>
       </c>
-      <c r="C66" s="117">
+      <c r="C66" s="104">
         <v>110120.5</v>
       </c>
-      <c r="D66" s="117">
+      <c r="D66" s="104">
         <f t="shared" ref="D66:D97" si="5">IF(B66=C66,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="117" t="s">
+      <c r="A67" s="104" t="s">
         <v>122</v>
       </c>
-      <c r="B67" s="117">
+      <c r="B67" s="104">
         <f>HOUR("02:14:56")</f>
         <v>2</v>
       </c>
-      <c r="C67" s="117">
+      <c r="C67" s="104">
         <v>2</v>
       </c>
-      <c r="D67" s="117">
+      <c r="D67" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="117" t="s">
+      <c r="A68" s="104" t="s">
         <v>123</v>
       </c>
-      <c r="B68" s="117" t="str">
+      <c r="B68" s="104" t="str">
         <f>IF(TRUE,"TABOURET","JAMBON")</f>
         <v>TABOURET</v>
       </c>
-      <c r="C68" s="117" t="s">
+      <c r="C68" s="104" t="s">
         <v>124</v>
       </c>
-      <c r="D68" s="117">
+      <c r="D68" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="117" t="s">
+      <c r="A69" s="104" t="s">
         <v>125</v>
       </c>
-      <c r="B69" s="117" t="str">
+      <c r="B69" s="104" t="str">
         <f>IFERROR(0/0,"no diving by zero.")</f>
         <v>no diving by zero.</v>
       </c>
-      <c r="C69" s="117" t="s">
+      <c r="C69" s="104" t="s">
         <v>126</v>
       </c>
-      <c r="D69" s="117">
+      <c r="D69" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="117" t="s">
+      <c r="A70" s="104" t="s">
         <v>127</v>
       </c>
-      <c r="B70" s="117" t="str">
+      <c r="B70" s="104" t="str">
         <f>_xlfn.IFS($H2&gt;$H3,"first player is older",$H3&gt;$H2,"second player is older")</f>
         <v>first player is older</v>
       </c>
-      <c r="C70" s="117" t="s">
+      <c r="C70" s="104" t="s">
         <v>128</v>
       </c>
-      <c r="D70" s="117">
+      <c r="D70" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="117" t="s">
+      <c r="A71" s="104" t="s">
         <v>129</v>
       </c>
-      <c r="B71" s="117" t="b">
+      <c r="B71" s="104" t="b">
         <f>ISERROR(0/0)</f>
         <v>1</v>
       </c>
-      <c r="C71" s="117" t="b">
-        <v>1</v>
-      </c>
-      <c r="D71" s="117">
+      <c r="C71" s="104" t="b">
+        <v>1</v>
+      </c>
+      <c r="D71" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="117" t="s">
+      <c r="A72" s="104" t="s">
         <v>130</v>
       </c>
-      <c r="B72" s="117" t="b">
+      <c r="B72" s="104" t="b">
         <f>ISEVEN(3)</f>
         <v>0</v>
       </c>
-      <c r="C72" s="117" t="b">
+      <c r="C72" s="104" t="b">
         <v>0</v>
       </c>
-      <c r="D72" s="117">
+      <c r="D72" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="117" t="s">
+      <c r="A73" s="104" t="s">
         <v>131</v>
       </c>
-      <c r="B73" s="117" t="b">
+      <c r="B73" s="104" t="b">
         <f>ISLOGICAL("TRUE")</f>
         <v>0</v>
       </c>
-      <c r="C73" s="117" t="b">
+      <c r="C73" s="104" t="b">
         <v>0</v>
       </c>
-      <c r="D73" s="117">
+      <c r="D73" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="117" t="s">
+      <c r="A74" s="104" t="s">
         <v>132</v>
       </c>
-      <c r="B74" s="117" t="b">
+      <c r="B74" s="104" t="b">
         <f>ISNONTEXT(TRUE)</f>
         <v>1</v>
       </c>
-      <c r="C74" s="117" t="b">
-        <v>1</v>
-      </c>
-      <c r="D74" s="117">
+      <c r="C74" s="104" t="b">
+        <v>1</v>
+      </c>
+      <c r="D74" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="117" t="s">
+      <c r="A75" s="104" t="s">
         <v>133</v>
       </c>
-      <c r="B75" s="117" t="b">
+      <c r="B75" s="104" t="b">
         <f>ISNUMBER(1231.5)</f>
         <v>1</v>
       </c>
-      <c r="C75" s="117" t="b">
-        <v>1</v>
-      </c>
-      <c r="D75" s="117">
+      <c r="C75" s="104" t="b">
+        <v>1</v>
+      </c>
+      <c r="D75" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="117" t="s">
+      <c r="A76" s="104" t="s">
         <v>134</v>
       </c>
-      <c r="B76" s="117">
+      <c r="B76" s="104">
         <f>ISO.CEILING(-7.89)</f>
         <v>-7</v>
       </c>
-      <c r="C76" s="117">
+      <c r="C76" s="104">
         <v>-7</v>
       </c>
-      <c r="D76" s="117">
+      <c r="D76" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="117" t="s">
+      <c r="A77" s="104" t="s">
         <v>135</v>
       </c>
-      <c r="B77" s="117" t="b">
+      <c r="B77" s="104" t="b">
         <f>ISODD(4)</f>
         <v>0</v>
       </c>
-      <c r="C77" s="117" t="b">
+      <c r="C77" s="104" t="b">
         <v>0</v>
       </c>
-      <c r="D77" s="117">
+      <c r="D77" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="117" t="s">
+      <c r="A78" s="104" t="s">
         <v>136</v>
       </c>
-      <c r="B78" s="117">
+      <c r="B78" s="104">
         <f>_xlfn.ISOWEEKNUM("2016-01-03")</f>
         <v>53</v>
       </c>
-      <c r="C78" s="117">
+      <c r="C78" s="104">
         <v>53</v>
       </c>
-      <c r="D78" s="117">
+      <c r="D78" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="117" t="s">
+      <c r="A79" s="104" t="s">
         <v>137</v>
       </c>
-      <c r="B79" s="117" t="b">
+      <c r="B79" s="104" t="b">
         <f>ISTEXT("123")</f>
         <v>1</v>
       </c>
-      <c r="C79" s="117" t="b">
-        <v>1</v>
-      </c>
-      <c r="D79" s="117">
+      <c r="C79" s="104" t="b">
+        <v>1</v>
+      </c>
+      <c r="D79" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="117" t="s">
+      <c r="A80" s="104" t="s">
         <v>138</v>
       </c>
-      <c r="B80" s="117">
+      <c r="B80" s="104">
         <f>LARGE(H2:H9,3)</f>
         <v>30</v>
       </c>
-      <c r="C80" s="117">
+      <c r="C80" s="104">
         <v>30</v>
       </c>
-      <c r="D80" s="117">
+      <c r="D80" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="117" t="s">
+      <c r="A81" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="B81" s="117" t="str">
+      <c r="B81" s="104" t="str">
         <f>LEFT("Mich",4)</f>
         <v>Mich</v>
       </c>
-      <c r="C81" s="117" t="s">
+      <c r="C81" s="104" t="s">
         <v>140</v>
       </c>
-      <c r="D81" s="117">
+      <c r="D81" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="117" t="s">
+      <c r="A82" s="104" t="s">
         <v>141</v>
       </c>
-      <c r="B82" s="117">
+      <c r="B82" s="104">
         <f>LEN("anticonstitutionnellement")</f>
         <v>25</v>
       </c>
-      <c r="C82" s="117">
+      <c r="C82" s="104">
         <v>25</v>
       </c>
-      <c r="D82" s="117">
+      <c r="D82" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="117" t="s">
+      <c r="A83" s="104" t="s">
         <v>142</v>
       </c>
-      <c r="B83" s="117">
+      <c r="B83" s="104">
         <f>ROUND(LN(2),5)</f>
         <v>0.69315000000000004</v>
       </c>
-      <c r="C83" s="117">
+      <c r="C83" s="104">
         <v>0.69315000000000004</v>
       </c>
-      <c r="D83" s="117">
+      <c r="D83" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="117" t="s">
+      <c r="A84" s="104" t="s">
         <v>143</v>
       </c>
-      <c r="B84" s="117">
+      <c r="B84" s="104">
         <f>LOOKUP(23000,H3:J3,H5:J5)</f>
         <v>50024</v>
       </c>
-      <c r="C84" s="117">
+      <c r="C84" s="104">
         <v>50024</v>
       </c>
-      <c r="D84" s="117">
+      <c r="D84" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="117" t="s">
+      <c r="A85" s="104" t="s">
         <v>144</v>
       </c>
-      <c r="B85" s="117" t="str">
+      <c r="B85" s="104" t="str">
         <f>LOWER("オAドB")</f>
         <v>オaドb</v>
       </c>
-      <c r="C85" s="117" t="s">
+      <c r="C85" s="104" t="s">
         <v>145</v>
       </c>
-      <c r="D85" s="117">
+      <c r="D85" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="117" t="s">
+      <c r="A86" s="104" t="s">
         <v>146</v>
       </c>
-      <c r="B86" s="117">
+      <c r="B86" s="104">
         <f>MATCH(42,H2:H9,0)</f>
         <v>4</v>
       </c>
-      <c r="C86" s="117">
+      <c r="C86" s="104">
         <v>4</v>
       </c>
-      <c r="D86" s="117">
+      <c r="D86" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="117" t="s">
+      <c r="A87" s="104" t="s">
         <v>147</v>
       </c>
-      <c r="B87" s="117">
+      <c r="B87" s="104">
         <f>MAX(N1:N8)</f>
         <v>0.6</v>
       </c>
-      <c r="C87" s="117">
+      <c r="C87" s="104">
         <v>0.6</v>
       </c>
-      <c r="D87" s="117">
+      <c r="D87" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="117" t="s">
+      <c r="A88" s="104" t="s">
         <v>148</v>
       </c>
-      <c r="B88" s="117">
+      <c r="B88" s="104">
         <f>MAXA(N1:N8)</f>
         <v>1</v>
       </c>
-      <c r="C88" s="117">
-        <v>1</v>
-      </c>
-      <c r="D88" s="117">
+      <c r="C88" s="104">
+        <v>1</v>
+      </c>
+      <c r="D88" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="117" t="s">
+      <c r="A89" s="104" t="s">
         <v>149</v>
       </c>
-      <c r="B89" s="117">
+      <c r="B89" s="104">
         <f>_xlfn.MAXIFS(H2:H9,K2:K9,"&lt;20",K2:K9,"&lt;&gt;4")</f>
         <v>30</v>
       </c>
-      <c r="C89" s="117">
+      <c r="C89" s="104">
         <v>30</v>
       </c>
-      <c r="D89" s="117">
+      <c r="D89" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="117" t="s">
+      <c r="A90" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="B90" s="117">
+      <c r="B90" s="104">
         <f>MEDIAN(-1,6,7,234,163845)</f>
         <v>7</v>
       </c>
-      <c r="C90" s="117">
+      <c r="C90" s="104">
         <v>7</v>
       </c>
-      <c r="D90" s="117">
+      <c r="D90" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="117" t="s">
+      <c r="A91" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="B91" s="117">
+      <c r="B91" s="104">
         <f>MIN(N1:N8)</f>
         <v>0.1</v>
       </c>
-      <c r="C91" s="117">
+      <c r="C91" s="104">
         <v>0.1</v>
       </c>
-      <c r="D91" s="117">
+      <c r="D91" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="117" t="s">
+      <c r="A92" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="B92" s="117">
+      <c r="B92" s="104">
         <f>MINA(N1:N8)</f>
         <v>0</v>
       </c>
-      <c r="C92" s="117">
+      <c r="C92" s="104">
         <v>0</v>
       </c>
-      <c r="D92" s="117">
+      <c r="D92" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="117" t="s">
+      <c r="A93" s="104" t="s">
         <v>153</v>
       </c>
-      <c r="B93" s="117">
+      <c r="B93" s="104">
         <f>_xlfn.MINIFS(J2:J9,H2:H9,"&gt;20")</f>
         <v>5000</v>
       </c>
-      <c r="C93" s="117">
+      <c r="C93" s="104">
         <v>5000</v>
       </c>
-      <c r="D93" s="117">
+      <c r="D93" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="117" t="s">
+      <c r="A94" s="104" t="s">
         <v>154</v>
       </c>
-      <c r="B94" s="117">
+      <c r="B94" s="104">
         <f>MINUTE(0.126)</f>
         <v>1</v>
       </c>
-      <c r="C94" s="117">
-        <v>1</v>
-      </c>
-      <c r="D94" s="117">
+      <c r="C94" s="104">
+        <v>1</v>
+      </c>
+      <c r="D94" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="117" t="s">
+      <c r="A95" s="104" t="s">
         <v>155</v>
       </c>
-      <c r="B95" s="117">
+      <c r="B95" s="104">
         <f>MOD(42,12)</f>
         <v>6</v>
       </c>
-      <c r="C95" s="117">
+      <c r="C95" s="104">
         <v>6</v>
       </c>
-      <c r="D95" s="117">
+      <c r="D95" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="117" t="s">
+      <c r="A96" s="104" t="s">
         <v>156</v>
       </c>
-      <c r="B96" s="117">
+      <c r="B96" s="104">
         <f>MONTH("1954-05-02")</f>
         <v>5</v>
       </c>
-      <c r="C96" s="117">
+      <c r="C96" s="104">
         <v>5</v>
       </c>
-      <c r="D96" s="117">
+      <c r="D96" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="117" t="s">
+      <c r="A97" s="104" t="s">
         <v>157</v>
       </c>
-      <c r="B97" s="117">
+      <c r="B97" s="104">
         <f>NETWORKDAYS("2013-01-01","2013-02-01")</f>
         <v>24</v>
       </c>
-      <c r="C97" s="117">
+      <c r="C97" s="104">
         <v>24</v>
       </c>
-      <c r="D97" s="117">
+      <c r="D97" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="117" t="s">
+      <c r="A98" s="104" t="s">
         <v>158</v>
       </c>
-      <c r="B98" s="117">
+      <c r="B98" s="104">
         <f>NETWORKDAYS.INTL("2013-01-01","2013-02-01","0000111")</f>
         <v>19</v>
       </c>
-      <c r="C98" s="117">
+      <c r="C98" s="104">
         <v>19</v>
       </c>
-      <c r="D98" s="117">
+      <c r="D98" s="104">
         <f t="shared" ref="D98:D99" si="6">IF(B98=C98,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="117" t="s">
+      <c r="A99" s="104" t="s">
         <v>159</v>
       </c>
-      <c r="B99" s="117" t="b">
+      <c r="B99" s="104" t="b">
         <f>NOT(FALSE)</f>
         <v>1</v>
       </c>
-      <c r="C99" s="117" t="b">
-        <v>1</v>
-      </c>
-      <c r="D99" s="117">
+      <c r="C99" s="104" t="b">
+        <v>1</v>
+      </c>
+      <c r="D99" s="104">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="117" t="s">
+      <c r="A100" s="104" t="s">
         <v>160</v>
       </c>
       <c r="B100" s="19">
         <f ca="1">NOW()</f>
-        <v>45905.920118287038</v>
-      </c>
-      <c r="D100" s="117">
+        <v>45938.472979861108</v>
+      </c>
+      <c r="D100" s="104">
         <f ca="1">IF(ISNUMBER(B100),1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="117" t="s">
+      <c r="A101" s="104" t="s">
         <v>161</v>
       </c>
-      <c r="B101" s="117">
+      <c r="B101" s="104">
         <f>ODD(4)</f>
         <v>5</v>
       </c>
-      <c r="C101" s="117">
+      <c r="C101" s="104">
         <v>5</v>
       </c>
-      <c r="D101" s="117">
+      <c r="D101" s="104">
         <f t="shared" ref="D101:D111" si="7">IF(B101=C101,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="117" t="s">
+      <c r="A102" s="104" t="s">
         <v>162</v>
       </c>
-      <c r="B102" s="117" t="b">
+      <c r="B102" s="104" t="b">
         <f>OR("true",FALSE)</f>
         <v>1</v>
       </c>
-      <c r="C102" s="117" t="b">
-        <v>1</v>
-      </c>
-      <c r="D102" s="117">
+      <c r="C102" s="104" t="b">
+        <v>1</v>
+      </c>
+      <c r="D102" s="104">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="117" t="s">
+      <c r="A103" s="104" t="s">
         <v>163</v>
       </c>
-      <c r="B103" s="117">
+      <c r="B103" s="104">
         <f>PERCENTILE(N1:N5,1)</f>
         <v>0.6</v>
       </c>
-      <c r="C103" s="117">
+      <c r="C103" s="104">
         <v>0.6</v>
       </c>
-      <c r="D103" s="117">
+      <c r="D103" s="104">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="117" t="s">
+      <c r="A104" s="104" t="s">
         <v>164</v>
       </c>
-      <c r="B104" s="117">
+      <c r="B104" s="104">
         <f>_xlfn.PERCENTILE.EXC(N1:N5,0.5)</f>
         <v>0.4</v>
       </c>
-      <c r="C104" s="117">
+      <c r="C104" s="104">
         <v>0.4</v>
       </c>
-      <c r="D104" s="117">
+      <c r="D104" s="104">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="117" t="s">
+      <c r="A105" s="104" t="s">
         <v>165</v>
       </c>
-      <c r="B105" s="117">
+      <c r="B105" s="104">
         <f>_xlfn.PERCENTILE.INC(N1:N5,0)</f>
         <v>0.1</v>
       </c>
-      <c r="C105" s="117">
+      <c r="C105" s="104">
         <v>0.1</v>
       </c>
-      <c r="D105" s="117">
+      <c r="D105" s="104">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="117" t="s">
+      <c r="A106" s="104" t="s">
         <v>166</v>
       </c>
-      <c r="B106" s="117">
+      <c r="B106" s="104">
         <f>ROUND(PI(),5)</f>
         <v>3.1415899999999999</v>
       </c>
-      <c r="C106" s="117">
+      <c r="C106" s="104">
         <v>3.1415899999999999</v>
       </c>
-      <c r="D106" s="117">
+      <c r="D106" s="104">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="117" t="s">
+      <c r="A107" s="104" t="s">
         <v>167</v>
       </c>
-      <c r="B107" s="117">
+      <c r="B107" s="104">
         <f>POWER(42,2)</f>
         <v>1764</v>
       </c>
-      <c r="C107" s="117">
+      <c r="C107" s="104">
         <v>1764</v>
       </c>
-      <c r="D107" s="117">
+      <c r="D107" s="104">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="117" t="s">
+      <c r="A108" s="104" t="s">
         <v>168</v>
       </c>
-      <c r="B108" s="117">
+      <c r="B108" s="104">
         <f>PRODUCT(1,2,3)</f>
         <v>6</v>
       </c>
-      <c r="C108" s="117">
+      <c r="C108" s="104">
         <v>6</v>
       </c>
-      <c r="D108" s="117">
+      <c r="D108" s="104">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="117" t="s">
+      <c r="A109" s="104" t="s">
         <v>169</v>
       </c>
-      <c r="B109" s="117">
+      <c r="B109" s="104">
         <f>QUARTILE(N1:N5,0)</f>
         <v>0.1</v>
       </c>
-      <c r="C109" s="117">
+      <c r="C109" s="104">
         <v>0.1</v>
       </c>
-      <c r="D109" s="117">
+      <c r="D109" s="104">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="117" t="s">
+      <c r="A110" s="104" t="s">
         <v>170</v>
       </c>
-      <c r="B110" s="117">
+      <c r="B110" s="104">
         <f>ROUND(_xlfn.QUARTILE.EXC(N1:N5,1),5)</f>
         <v>0.15</v>
       </c>
-      <c r="C110" s="117">
+      <c r="C110" s="104">
         <v>0.15</v>
       </c>
-      <c r="D110" s="117">
+      <c r="D110" s="104">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="117" t="s">
+      <c r="A111" s="104" t="s">
         <v>171</v>
       </c>
-      <c r="B111" s="117">
+      <c r="B111" s="104">
         <f>_xlfn.QUARTILE.INC(N1:N5,4)</f>
         <v>0.6</v>
       </c>
-      <c r="C111" s="117">
+      <c r="C111" s="104">
         <v>0.6</v>
       </c>
-      <c r="D111" s="117">
+      <c r="D111" s="104">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="117"/>
-      <c r="B112" s="117"/>
-      <c r="D112" s="117"/>
+      <c r="A112" s="104"/>
+      <c r="B112" s="104"/>
+      <c r="D112" s="104"/>
     </row>
     <row r="113" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="117" t="s">
+      <c r="A113" s="104" t="s">
         <v>172</v>
       </c>
-      <c r="B113" s="117">
+      <c r="B113" s="104">
         <f ca="1">RANDBETWEEN(1.1,2)</f>
         <v>2</v>
       </c>
-      <c r="C113" s="117">
+      <c r="C113" s="104">
         <v>2</v>
       </c>
-      <c r="D113" s="117">
+      <c r="D113" s="104">
         <f t="shared" ref="D113:D143" ca="1" si="8">IF(B113=C113,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="117" t="s">
+      <c r="A114" s="104" t="s">
         <v>173</v>
       </c>
-      <c r="B114" s="117" t="str">
+      <c r="B114" s="104" t="str">
         <f>REPLACE("ABZ",2,1,"Y")</f>
         <v>AYZ</v>
       </c>
-      <c r="C114" s="117" t="s">
+      <c r="C114" s="104" t="s">
         <v>174</v>
       </c>
-      <c r="D114" s="117">
+      <c r="D114" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="117" t="s">
+      <c r="A115" s="104" t="s">
         <v>175</v>
       </c>
-      <c r="B115" s="117" t="str">
+      <c r="B115" s="104" t="str">
         <f>RIGHT("kikou",2)</f>
         <v>ou</v>
       </c>
-      <c r="C115" s="117" t="s">
+      <c r="C115" s="104" t="s">
         <v>176</v>
       </c>
-      <c r="D115" s="117">
+      <c r="D115" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="117" t="s">
+      <c r="A116" s="104" t="s">
         <v>177</v>
       </c>
-      <c r="B116" s="117">
+      <c r="B116" s="104">
         <f>ROUND(49.9,0)</f>
         <v>50</v>
       </c>
-      <c r="C116" s="117">
+      <c r="C116" s="104">
         <v>50</v>
       </c>
-      <c r="D116" s="117">
+      <c r="D116" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="117" t="s">
+      <c r="A117" s="104" t="s">
         <v>178</v>
       </c>
-      <c r="B117" s="117">
+      <c r="B117" s="104">
         <f>ROUNDDOWN(42,-1)</f>
         <v>40</v>
       </c>
-      <c r="C117" s="117">
+      <c r="C117" s="104">
         <v>40</v>
       </c>
-      <c r="D117" s="117">
+      <c r="D117" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="117" t="s">
+      <c r="A118" s="104" t="s">
         <v>179</v>
       </c>
-      <c r="B118" s="117">
+      <c r="B118" s="104">
         <f>ROUNDUP(-1.6,0)</f>
         <v>-2</v>
       </c>
-      <c r="C118" s="117">
+      <c r="C118" s="104">
         <v>-2</v>
       </c>
-      <c r="D118" s="117">
+      <c r="D118" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="117" t="s">
+      <c r="A119" s="104" t="s">
         <v>180</v>
       </c>
-      <c r="B119" s="117">
+      <c r="B119" s="104">
         <f>ROW(A234)</f>
         <v>234</v>
       </c>
-      <c r="C119" s="117">
+      <c r="C119" s="104">
         <v>234</v>
       </c>
-      <c r="D119" s="117">
+      <c r="D119" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="117" t="s">
+      <c r="A120" s="104" t="s">
         <v>181</v>
       </c>
-      <c r="B120" s="117">
+      <c r="B120" s="104">
         <f>ROWS(B3:C40)</f>
         <v>38</v>
       </c>
-      <c r="C120" s="117">
+      <c r="C120" s="104">
         <v>38</v>
       </c>
-      <c r="D120" s="117">
+      <c r="D120" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="117" t="s">
+      <c r="A121" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="B121" s="117">
+      <c r="B121" s="104">
         <f>SEARCH("C","ABCD")</f>
         <v>3</v>
       </c>
-      <c r="C121" s="117">
+      <c r="C121" s="104">
         <v>3</v>
       </c>
-      <c r="D121" s="117">
+      <c r="D121" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="117" t="s">
+      <c r="A122" s="104" t="s">
         <v>183</v>
       </c>
-      <c r="B122" s="117">
+      <c r="B122" s="104">
         <f>ROUND(_xlfn.SEC(PI()/3),5)</f>
         <v>2</v>
       </c>
-      <c r="C122" s="117">
+      <c r="C122" s="104">
         <v>2</v>
       </c>
-      <c r="D122" s="117">
+      <c r="D122" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="117" t="s">
+      <c r="A123" s="104" t="s">
         <v>184</v>
       </c>
-      <c r="B123" s="117">
+      <c r="B123" s="104">
         <f>ROUND(_xlfn.SECH(1),5)</f>
         <v>0.64805000000000001</v>
       </c>
-      <c r="C123" s="117">
+      <c r="C123" s="104">
         <v>0.64805000000000001</v>
       </c>
-      <c r="D123" s="117">
+      <c r="D123" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="117" t="s">
+      <c r="A124" s="104" t="s">
         <v>185</v>
       </c>
-      <c r="B124" s="117">
+      <c r="B124" s="104">
         <f>SECOND("00:21:42")</f>
         <v>42</v>
       </c>
-      <c r="C124" s="117">
+      <c r="C124" s="104">
         <v>42</v>
       </c>
-      <c r="D124" s="117">
+      <c r="D124" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="117" t="s">
+      <c r="A125" s="104" t="s">
         <v>186</v>
       </c>
-      <c r="B125" s="117">
+      <c r="B125" s="104">
         <f>ROUND(SIN(PI()/6),5)</f>
         <v>0.5</v>
       </c>
-      <c r="C125" s="117">
+      <c r="C125" s="104">
         <v>0.5</v>
       </c>
-      <c r="D125" s="117">
+      <c r="D125" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="117" t="s">
+      <c r="A126" s="104" t="s">
         <v>187</v>
       </c>
-      <c r="B126" s="117">
+      <c r="B126" s="104">
         <f>ROUND(SINH(1),5)</f>
         <v>1.1752</v>
       </c>
-      <c r="C126" s="117">
+      <c r="C126" s="104">
         <v>1.1752</v>
       </c>
-      <c r="D126" s="117">
+      <c r="D126" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="117" t="s">
+      <c r="A127" s="104" t="s">
         <v>188</v>
       </c>
-      <c r="B127" s="117">
+      <c r="B127" s="104">
         <f>SMALL(H2:H9,3)</f>
         <v>26</v>
       </c>
-      <c r="C127" s="117">
+      <c r="C127" s="104">
         <v>26</v>
       </c>
-      <c r="D127" s="117">
+      <c r="D127" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="117" t="s">
+      <c r="A128" s="104" t="s">
         <v>189</v>
       </c>
-      <c r="B128" s="117">
+      <c r="B128" s="104">
         <f>SQRT(4)</f>
         <v>2</v>
       </c>
-      <c r="C128" s="117">
+      <c r="C128" s="104">
         <v>2</v>
       </c>
-      <c r="D128" s="117">
+      <c r="D128" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="117" t="s">
+      <c r="A129" s="104" t="s">
         <v>190</v>
       </c>
-      <c r="B129" s="117">
+      <c r="B129" s="104">
         <f>STDEV(-2,0,2)</f>
         <v>2</v>
       </c>
-      <c r="C129" s="117">
+      <c r="C129" s="104">
         <v>2</v>
       </c>
-      <c r="D129" s="117">
+      <c r="D129" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="117" t="s">
+      <c r="A130" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="B130" s="117">
+      <c r="B130" s="104">
         <f>_xlfn.STDEV.P(2,4)</f>
         <v>1</v>
       </c>
-      <c r="C130" s="117">
-        <v>1</v>
-      </c>
-      <c r="D130" s="117">
+      <c r="C130" s="104">
+        <v>1</v>
+      </c>
+      <c r="D130" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="117" t="s">
+      <c r="A131" s="104" t="s">
         <v>192</v>
       </c>
-      <c r="B131" s="117">
+      <c r="B131" s="104">
         <f>_xlfn.STDEV.S(2,4,6)</f>
         <v>2</v>
       </c>
-      <c r="C131" s="117">
+      <c r="C131" s="104">
         <v>2</v>
       </c>
-      <c r="D131" s="117">
+      <c r="D131" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="117" t="s">
+      <c r="A132" s="104" t="s">
         <v>193</v>
       </c>
-      <c r="B132" s="117">
+      <c r="B132" s="104">
         <f>STDEVA(TRUE,3,5)</f>
         <v>2</v>
       </c>
-      <c r="C132" s="117">
+      <c r="C132" s="104">
         <v>2</v>
       </c>
-      <c r="D132" s="117">
+      <c r="D132" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="117" t="s">
+      <c r="A133" s="104" t="s">
         <v>194</v>
       </c>
-      <c r="B133" s="117">
+      <c r="B133" s="104">
         <f>ROUND(STDEVP(2,5,8),2)</f>
         <v>2.4500000000000002</v>
       </c>
-      <c r="C133" s="117">
+      <c r="C133" s="104">
         <v>2.4500000000000002</v>
       </c>
-      <c r="D133" s="117">
+      <c r="D133" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="117" t="s">
+      <c r="A134" s="104" t="s">
         <v>195</v>
       </c>
-      <c r="B134" s="117">
+      <c r="B134" s="104">
         <f>ROUND(STDEVPA(TRUE,4,7),2)</f>
         <v>2.4500000000000002</v>
       </c>
-      <c r="C134" s="117">
+      <c r="C134" s="104">
         <v>2.4500000000000002</v>
       </c>
-      <c r="D134" s="117">
+      <c r="D134" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="117" t="s">
+      <c r="A135" s="104" t="s">
         <v>196</v>
       </c>
-      <c r="B135" s="117" t="str">
+      <c r="B135" s="104" t="str">
         <f>SUBSTITUTE("SAP is best","SAP","Odoo")</f>
         <v>Odoo is best</v>
       </c>
-      <c r="C135" s="117" t="s">
+      <c r="C135" s="104" t="s">
         <v>197</v>
       </c>
-      <c r="D135" s="117">
+      <c r="D135" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="117" t="s">
+      <c r="A136" s="104" t="s">
         <v>198</v>
       </c>
-      <c r="B136" s="117">
+      <c r="B136" s="104">
         <f>SUM(1,2,3,4,5)</f>
         <v>15</v>
       </c>
-      <c r="C136" s="117">
+      <c r="C136" s="104">
         <v>15</v>
       </c>
-      <c r="D136" s="117">
+      <c r="D136" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="117" t="s">
+      <c r="A137" s="104" t="s">
         <v>199</v>
       </c>
-      <c r="B137" s="117">
+      <c r="B137" s="104">
         <f>SUMIF(K2:K9,"&lt;100")</f>
         <v>52</v>
       </c>
-      <c r="C137" s="117">
+      <c r="C137" s="104">
         <v>52</v>
       </c>
-      <c r="D137" s="117">
+      <c r="D137" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="117" t="s">
+      <c r="A138" s="104" t="s">
         <v>200</v>
       </c>
-      <c r="B138" s="117">
+      <c r="B138" s="104">
         <f>SUMIFS(H2:H9,K2:K9,"&lt;100")</f>
         <v>201</v>
       </c>
-      <c r="C138" s="117">
+      <c r="C138" s="104">
         <v>201</v>
       </c>
-      <c r="D138" s="117">
+      <c r="D138" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="117" t="s">
+      <c r="A139" s="104" t="s">
         <v>201</v>
       </c>
-      <c r="B139" s="117">
+      <c r="B139" s="104">
         <f>ROUND(TAN(PI()/4),5)</f>
         <v>1</v>
       </c>
-      <c r="C139" s="117">
-        <v>1</v>
-      </c>
-      <c r="D139" s="117">
+      <c r="C139" s="104">
+        <v>1</v>
+      </c>
+      <c r="D139" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="117" t="s">
+      <c r="A140" s="104" t="s">
         <v>202</v>
       </c>
-      <c r="B140" s="117">
+      <c r="B140" s="104">
         <f>ROUND(TANH(1),5)</f>
         <v>0.76158999999999999</v>
       </c>
-      <c r="C140" s="117">
+      <c r="C140" s="104">
         <v>0.76158999999999999</v>
       </c>
-      <c r="D140" s="117">
+      <c r="D140" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="117" t="s">
+      <c r="A141" s="104" t="s">
         <v>203</v>
       </c>
-      <c r="B141" s="117" t="str">
+      <c r="B141" s="104" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,"","1","A","%")</f>
         <v>1-A-%</v>
       </c>
-      <c r="C141" s="117" t="s">
+      <c r="C141" s="104" t="s">
         <v>204</v>
       </c>
-      <c r="D141" s="117">
+      <c r="D141" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="117" t="s">
+      <c r="A142" s="104" t="s">
         <v>205</v>
       </c>
       <c r="B142" s="20">
         <f>TIME(9,11,31)</f>
-        <v>0.38299768518518523</v>
+        <v>0.38299768518518518</v>
       </c>
       <c r="C142" s="20">
         <v>0.38299768519999999</v>
       </c>
-      <c r="D142" s="117">
+      <c r="D142" s="104">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="117" t="s">
+      <c r="A143" s="104" t="s">
         <v>206</v>
       </c>
-      <c r="B143" s="117">
+      <c r="B143" s="104">
         <f>TIMEVALUE("18:00:00")</f>
         <v>0.75</v>
       </c>
-      <c r="C143" s="117">
+      <c r="C143" s="104">
         <v>0.75</v>
       </c>
-      <c r="D143" s="117">
+      <c r="D143" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="117" t="s">
+      <c r="A144" s="104" t="s">
         <v>207</v>
       </c>
       <c r="B144" s="18">
         <f ca="1">TODAY()</f>
-        <v>45905</v>
-      </c>
-      <c r="D144" s="117">
+        <v>45938</v>
+      </c>
+      <c r="D144" s="104">
         <f ca="1">IF(ISNUMBER(B144),1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="117" t="s">
+      <c r="A145" s="104" t="s">
         <v>208</v>
       </c>
-      <c r="B145" s="117" t="str">
+      <c r="B145" s="104" t="str">
         <f>TRIM(" Jean Ticonstitutionnalise ")</f>
         <v>Jean Ticonstitutionnalise</v>
       </c>
-      <c r="C145" s="117" t="s">
+      <c r="C145" s="104" t="s">
         <v>209</v>
       </c>
-      <c r="D145" s="117">
+      <c r="D145" s="104">
         <f t="shared" ref="D145:D163" si="9">IF(B145=C145,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="117" t="s">
+      <c r="A146" s="104" t="s">
         <v>210</v>
       </c>
-      <c r="B146" s="117">
+      <c r="B146" s="104">
         <f>TRUNC(42.42,1)</f>
         <v>42.4</v>
       </c>
-      <c r="C146" s="117">
+      <c r="C146" s="104">
         <v>42.4</v>
       </c>
-      <c r="D146" s="117">
+      <c r="D146" s="104">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="117" t="s">
+      <c r="A147" s="104" t="s">
         <v>211</v>
       </c>
-      <c r="B147" s="117" t="str">
+      <c r="B147" s="104" t="str">
         <f>UPPER("grrrr !")</f>
         <v>GRRRR !</v>
       </c>
-      <c r="C147" s="117" t="s">
+      <c r="C147" s="104" t="s">
         <v>212</v>
       </c>
-      <c r="D147" s="117">
+      <c r="D147" s="104">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="117" t="s">
+      <c r="A148" s="104" t="s">
         <v>213</v>
       </c>
-      <c r="B148" s="117">
+      <c r="B148" s="104">
         <f>ROUND(VAR(K1:K5),5)</f>
         <v>2.9166699999999999</v>
       </c>
-      <c r="C148" s="117">
+      <c r="C148" s="104">
         <v>2.9166699999999999</v>
       </c>
-      <c r="D148" s="117">
+      <c r="D148" s="104">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="117" t="s">
+      <c r="A149" s="104" t="s">
         <v>214</v>
       </c>
-      <c r="B149" s="117">
+      <c r="B149" s="104">
         <f>ROUND(_xlfn.VAR.P(K1:K5),5)</f>
         <v>2.1875</v>
       </c>
-      <c r="C149" s="117">
+      <c r="C149" s="104">
         <v>2.1875</v>
       </c>
-      <c r="D149" s="117">
+      <c r="D149" s="104">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="117" t="s">
+      <c r="A150" s="104" t="s">
         <v>215</v>
       </c>
-      <c r="B150" s="117">
+      <c r="B150" s="104">
         <f>_xlfn.VAR.S(2,5,8)</f>
         <v>9</v>
       </c>
-      <c r="C150" s="117">
+      <c r="C150" s="104">
         <v>9</v>
       </c>
-      <c r="D150" s="117">
+      <c r="D150" s="104">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="117" t="s">
+      <c r="A151" s="104" t="s">
         <v>216</v>
       </c>
-      <c r="B151" s="117">
+      <c r="B151" s="104">
         <f>ROUND(VARA(K1:K5),5)</f>
         <v>6.7</v>
       </c>
-      <c r="C151" s="117">
+      <c r="C151" s="104">
         <v>6.7</v>
       </c>
-      <c r="D151" s="117">
+      <c r="D151" s="104">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="117" t="s">
+      <c r="A152" s="104" t="s">
         <v>217</v>
       </c>
-      <c r="B152" s="117">
+      <c r="B152" s="104">
         <f>ROUND(VARP(K1:K5),5)</f>
         <v>2.1875</v>
       </c>
-      <c r="C152" s="117">
+      <c r="C152" s="104">
         <v>2.1875</v>
       </c>
-      <c r="D152" s="117">
+      <c r="D152" s="104">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="117" t="s">
+      <c r="A153" s="104" t="s">
         <v>218</v>
       </c>
-      <c r="B153" s="117">
+      <c r="B153" s="104">
         <f>ROUND(VARPA(K1:K5),5)</f>
         <v>5.36</v>
       </c>
-      <c r="C153" s="117">
+      <c r="C153" s="104">
         <v>5.36</v>
       </c>
-      <c r="D153" s="117">
+      <c r="D153" s="104">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="117" t="s">
+      <c r="A154" s="104" t="s">
         <v>219</v>
       </c>
-      <c r="B154" s="117">
+      <c r="B154" s="104">
         <f>VLOOKUP("NotACheater",G1:K9,3,FALSE)</f>
         <v>252.4</v>
       </c>
-      <c r="C154" s="117">
+      <c r="C154" s="104">
         <f>252.4</f>
         <v>252.4</v>
       </c>
-      <c r="D154" s="117">
+      <c r="D154" s="104">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="117" t="s">
+      <c r="A155" s="104" t="s">
         <v>220</v>
       </c>
-      <c r="B155" s="117">
+      <c r="B155" s="104">
         <f>WEEKDAY("2021-06-12")</f>
         <v>7</v>
       </c>
-      <c r="C155" s="117">
+      <c r="C155" s="104">
         <v>7</v>
       </c>
-      <c r="D155" s="117">
+      <c r="D155" s="104">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="117" t="s">
+      <c r="A156" s="104" t="s">
         <v>221</v>
       </c>
-      <c r="B156" s="117">
+      <c r="B156" s="104">
         <f>WEEKNUM("2021-06-29")</f>
         <v>27</v>
       </c>
-      <c r="C156" s="117">
+      <c r="C156" s="104">
         <v>27</v>
       </c>
-      <c r="D156" s="117">
+      <c r="D156" s="104">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="117" t="s">
+      <c r="A157" s="104" t="s">
         <v>222</v>
       </c>
       <c r="B157" s="18">
@@ -12075,13 +12067,13 @@
       <c r="C157" s="18">
         <v>44278</v>
       </c>
-      <c r="D157" s="117">
+      <c r="D157" s="104">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="117" t="s">
+      <c r="A158" s="104" t="s">
         <v>223</v>
       </c>
       <c r="B158" s="18">
@@ -12091,87 +12083,87 @@
       <c r="C158" s="18">
         <v>44312</v>
       </c>
-      <c r="D158" s="117">
+      <c r="D158" s="104">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="117" t="s">
+      <c r="A159" s="104" t="s">
         <v>224</v>
       </c>
-      <c r="B159" s="117" t="b">
+      <c r="B159" s="104" t="b">
         <f>_xlfn.XOR(FALSE,TRUE,FALSE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="C159" s="117" t="b">
-        <v>1</v>
-      </c>
-      <c r="D159" s="117">
+      <c r="C159" s="104" t="b">
+        <v>1</v>
+      </c>
+      <c r="D159" s="104">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="117" t="s">
+      <c r="A160" s="104" t="s">
         <v>225</v>
       </c>
-      <c r="B160" s="117">
+      <c r="B160" s="104">
         <f>YEAR("2012-03-12")</f>
         <v>2012</v>
       </c>
-      <c r="C160" s="117">
+      <c r="C160" s="104">
         <v>2012</v>
       </c>
-      <c r="D160" s="117">
+      <c r="D160" s="104">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="117" t="s">
+      <c r="A161" s="104" t="s">
         <v>226</v>
       </c>
-      <c r="B161" s="117">
+      <c r="B161" s="104">
         <f>DELTA(1,1)</f>
         <v>1</v>
       </c>
-      <c r="C161" s="117">
-        <v>1</v>
-      </c>
-      <c r="D161" s="117">
+      <c r="C161" s="104">
+        <v>1</v>
+      </c>
+      <c r="D161" s="104">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="117" t="s">
+      <c r="A162" s="104" t="s">
         <v>227</v>
       </c>
-      <c r="B162" s="117" t="str">
+      <c r="B162" s="104" t="str">
         <f>ADDRESS(1,1,4,FALSE,"sheet!")</f>
         <v>'sheet!'!R[1]C[1]</v>
       </c>
-      <c r="C162" s="117" t="s">
+      <c r="C162" s="104" t="s">
         <v>228</v>
       </c>
-      <c r="D162" s="117">
+      <c r="D162" s="104">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="117" t="s">
+      <c r="A163" s="104" t="s">
         <v>229</v>
       </c>
-      <c r="B163" s="117">
+      <c r="B163" s="104">
         <f>DATEDIF("2002/01/01","2002/01/02","D")</f>
         <v>1</v>
       </c>
-      <c r="C163" s="117">
-        <v>1</v>
-      </c>
-      <c r="D163" s="117">
+      <c r="C163" s="104">
+        <v>1</v>
+      </c>
+      <c r="D163" s="104">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -12195,10 +12187,10 @@
     <tabColor rgb="FFFF0000"/>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:R30"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelRow="2" outlineLevelCol="2" x14ac:dyDescent="0.2"/>
@@ -12218,10 +12210,10 @@
       <c r="C1" t="s">
         <v>231</v>
       </c>
-      <c r="D1" s="123" t="s">
+      <c r="D1" s="115" t="s">
         <v>232</v>
       </c>
-      <c r="E1" s="123"/>
+      <c r="E1" s="115"/>
       <c r="F1" t="s">
         <v>233</v>
       </c>
@@ -12234,8 +12226,8 @@
         <f>SUM(A1)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
       <c r="H2" t="str">
         <f>[1]Feuil1!$A$1</f>
         <v>referenced string</v>
@@ -12266,12 +12258,26 @@
     <row r="14" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:8" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" t="e">
-        <f ca="1">RANDARRAY(2,2)</f>
-        <v>#NAME?</v>
+    <row r="17" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" cm="1">
+        <f t="array" aca="1" ref="A30:B31" ca="1">_xlfn.RANDARRAY(2,2)</f>
+        <v>0.60650847613574932</v>
+      </c>
+      <c r="B30">
+        <f ca="1"/>
+        <v>7.2059783935487509E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <f ca="1"/>
+        <v>0.6277759180882303</v>
+      </c>
+      <c r="B31">
+        <f ca="1"/>
+        <v>9.0550182320831452E-2</v>
       </c>
     </row>
   </sheetData>
@@ -12682,7 +12688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D919E811-4385-4D35-A19E-3B7E0E659A89}">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -12915,7 +12921,7 @@
       </c>
       <c r="B12" s="39">
         <f ca="1">TODAY()</f>
-        <v>45905</v>
+        <v>45938</v>
       </c>
       <c r="C12" s="39">
         <f>DATE(2010,10,2)</f>
@@ -14070,96 +14076,96 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C4" s="117" t="s">
+      <c r="C4" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="117">
+      <c r="D4" s="104">
         <v>26</v>
       </c>
-      <c r="E4" s="117">
+      <c r="E4" s="104">
         <v>5</v>
       </c>
-      <c r="F4" s="117">
+      <c r="F4" s="104">
         <f>Table3[[#This Row],[Rank]]+Table3[[#This Row],[Age]]</f>
         <v>31</v>
       </c>
-      <c r="G4" s="117">
+      <c r="G4" s="104">
         <f>SUM(Table3[Rank])</f>
         <v>12</v>
       </c>
-      <c r="H4" s="117">
+      <c r="H4" s="104">
         <f>SUM(Table3[[#All],[Rank]])</f>
         <v>24</v>
       </c>
-      <c r="I4" s="117">
+      <c r="I4" s="104">
         <f>Table3[[#Totals],[Rank]]</f>
         <v>12</v>
       </c>
-      <c r="J4" s="117" t="str">
+      <c r="J4" s="104" t="str">
         <f>Table3[[#Headers],[Rank]]</f>
         <v>Rank</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C5" s="117" t="s">
+      <c r="C5" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="117">
+      <c r="D5" s="104">
         <v>13</v>
       </c>
-      <c r="E5" s="117">
+      <c r="E5" s="104">
         <v>7</v>
       </c>
-      <c r="F5" s="117">
+      <c r="F5" s="104">
         <f>Table3[[#This Row],[Rank]]+Table3[[#This Row],[Age]]</f>
         <v>20</v>
       </c>
-      <c r="G5" s="117">
+      <c r="G5" s="104">
         <f>SUM(Table3[Rank])</f>
         <v>12</v>
       </c>
-      <c r="H5" s="117">
+      <c r="H5" s="104">
         <f>SUM(Table3[[#All],[Rank]])</f>
         <v>24</v>
       </c>
-      <c r="I5" s="117">
+      <c r="I5" s="104">
         <f>Table3[[#Totals],[Rank]]</f>
         <v>12</v>
       </c>
-      <c r="J5" s="117" t="str">
+      <c r="J5" s="104" t="str">
         <f>Table3[[#Headers],[Rank]]</f>
         <v>Rank</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C6" s="117" t="s">
+      <c r="C6" s="104" t="s">
         <v>391</v>
       </c>
-      <c r="D6" s="117">
+      <c r="D6" s="104">
         <f>SUBTOTAL(109,Table3[Age])</f>
         <v>39</v>
       </c>
-      <c r="E6" s="117">
+      <c r="E6" s="104">
         <f>SUBTOTAL(109,Table3[Rank])</f>
         <v>12</v>
       </c>
-      <c r="F6" s="117">
+      <c r="F6" s="104">
         <f>SUBTOTAL(109,Table3[Rank+Age =E4+D4])</f>
         <v>51</v>
       </c>
-      <c r="G6" s="117">
+      <c r="G6" s="104">
         <f>SUBTOTAL(109,Table3[Data =SUM(E4:E5)])</f>
         <v>24</v>
       </c>
-      <c r="H6" s="117">
+      <c r="H6" s="104">
         <f>SUBTOTAL(109,Table3[All =SUM(E3:E6)])</f>
         <v>48</v>
       </c>
-      <c r="I6" s="117">
+      <c r="I6" s="104">
         <f>SUBTOTAL(109,Table3[Totals =E6])</f>
         <v>24</v>
       </c>
-      <c r="J6" s="117">
+      <c r="J6" s="104">
         <f>SUBTOTAL(109,Table3[Headers =E3])</f>
         <v>0</v>
       </c>
@@ -14430,16 +14436,16 @@
       <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="117"/>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
+      <c r="A2" s="104"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="117"/>
-      <c r="B3" s="117"/>
+      <c r="A3" s="104"/>
+      <c r="B3" s="104"/>
       <c r="C3" s="89" t="s">
         <v>413</v>
       </c>
@@ -14448,8 +14454,8 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="117"/>
-      <c r="B4" s="117"/>
+      <c r="A4" s="104"/>
+      <c r="B4" s="104"/>
       <c r="C4" s="89" t="s">
         <v>415</v>
       </c>
@@ -14482,8 +14488,8 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="117"/>
-      <c r="B5" s="117"/>
+      <c r="A5" s="104"/>
+      <c r="B5" s="104"/>
       <c r="C5" s="90" t="s">
         <v>55</v>
       </c>
@@ -14495,8 +14501,8 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="117"/>
-      <c r="B6" s="117"/>
+      <c r="A6" s="104"/>
+      <c r="B6" s="104"/>
       <c r="C6" s="91">
         <v>256018</v>
       </c>
@@ -14508,8 +14514,8 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="117"/>
-      <c r="B7" s="117"/>
+      <c r="A7" s="104"/>
+      <c r="B7" s="104"/>
       <c r="C7" s="90" t="s">
         <v>46</v>
       </c>
@@ -14521,8 +14527,8 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="117"/>
-      <c r="B8" s="117"/>
+      <c r="A8" s="104"/>
+      <c r="B8" s="104"/>
       <c r="C8" s="91">
         <v>110120.5</v>
       </c>
@@ -14534,8 +14540,8 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="117"/>
-      <c r="B9" s="117"/>
+      <c r="A9" s="104"/>
+      <c r="B9" s="104"/>
       <c r="C9" s="90" t="s">
         <v>42</v>
       </c>
@@ -14547,8 +14553,8 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="117"/>
-      <c r="B10" s="117"/>
+      <c r="A10" s="104"/>
+      <c r="B10" s="104"/>
       <c r="C10" s="91">
         <v>25618</v>
       </c>
@@ -14730,7 +14736,7 @@
       <c r="A2" t="s">
         <v>418</v>
       </c>
-      <c r="B2" s="117"/>
+      <c r="B2" s="104"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">

--- a/tests/__xlsx__/xlsx_demo_data.xlsx
+++ b/tests/__xlsx__/xlsx_demo_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dhrutik Patel\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Odoo\spreadsheet\tests\__xlsx__\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DA6F05-B302-48AE-B11C-1FB2528D58DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444A07EC-3A17-4988-8802-1F976514FE27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5445" yWindow="765" windowWidth="21600" windowHeight="13185" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="442">
   <si>
     <t>CF =42</t>
   </si>
@@ -1400,6 +1400,9 @@
   </si>
   <si>
     <t>CF with formulas</t>
+  </si>
+  <si>
+    <t>Decimal with formula</t>
   </si>
 </sst>
 </file>
@@ -1579,7 +1582,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="30">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1760,14 +1763,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="36">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -2121,61 +2118,10 @@
         <color rgb="FF000000"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2184,9 +2130,7 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2197,9 +2141,7 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -2208,7 +2150,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2389,28 +2331,22 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="20" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="29" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="29" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -8231,9 +8167,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -8271,7 +8207,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -8377,7 +8313,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8519,7 +8455,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8550,7 +8486,7 @@
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="117" t="s">
+      <c r="G1" s="104" t="s">
         <v>1</v>
       </c>
     </row>
@@ -8561,26 +8497,26 @@
       <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="117">
+      <c r="G2" s="104">
         <v>5</v>
       </c>
-      <c r="H2" s="118" t="s">
+      <c r="H2" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="119"/>
+      <c r="I2" s="111"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="117">
+      <c r="G3" s="104">
         <v>8</v>
       </c>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="120">
+      <c r="K3" s="112">
         <v>5</v>
       </c>
       <c r="L3" s="6"/>
@@ -8589,94 +8525,94 @@
       <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="117">
+      <c r="C4" s="104">
         <v>12.4</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="117">
+      <c r="G4" s="104">
         <v>9</v>
       </c>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="121"/>
+      <c r="K4" s="113"/>
       <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="117">
+      <c r="C5" s="104">
         <v>42</v>
       </c>
-      <c r="G5" s="117">
+      <c r="G5" s="104">
         <v>15</v>
       </c>
-      <c r="H5" s="119"/>
-      <c r="I5" s="119"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="121"/>
+      <c r="K5" s="113"/>
       <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G6" s="117">
+      <c r="G6" s="104">
         <v>22</v>
       </c>
       <c r="J6" s="5"/>
-      <c r="K6" s="121"/>
+      <c r="K6" s="113"/>
       <c r="L6" s="6"/>
     </row>
     <row r="7" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="117">
+      <c r="C7" s="104">
         <v>3</v>
       </c>
       <c r="J7" s="5"/>
-      <c r="K7" s="121"/>
+      <c r="K7" s="113"/>
       <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G8" s="117">
+      <c r="G8" s="104">
         <v>30</v>
       </c>
       <c r="J8" s="5"/>
-      <c r="K8" s="122"/>
+      <c r="K8" s="114"/>
       <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="117">
+      <c r="C9" s="104">
         <f>SUM(C4:C5)</f>
         <v>54.4</v>
       </c>
       <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="117">
+      <c r="C10" s="104">
         <f>SUM(C4:C7)</f>
         <v>57.4</v>
       </c>
-      <c r="D10" s="117" t="s">
+      <c r="D10" s="104" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="117">
+      <c r="C11" s="104">
         <f>-(3+C7*SUM(C4:C7))</f>
         <v>-175.2</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="117">
+      <c r="C12" s="104">
         <f>SUM(C9:C11)</f>
         <v>-63.399999999999991</v>
       </c>
-      <c r="D12" s="117" t="s">
+      <c r="D12" s="104" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G13" s="117">
+      <c r="G13" s="104">
         <f>A1+A2+A3+A4+A5+A6+A7+A8+A9+A10+A11+A12+A13+A14+A15+A16+A17+A18</f>
         <v>0</v>
       </c>
@@ -8685,29 +8621,29 @@
       <c r="B14" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="117" t="str">
+      <c r="C14" s="104" t="str">
         <f ca="1">C14</f>
         <v>#CYCLE</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="117" t="s">
+      <c r="C15" s="104" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="117" t="str">
+      <c r="C16" s="104" t="str">
         <f>C15</f>
         <v>=(+</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="117" t="s">
+      <c r="C17" s="104" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="117" t="s">
+      <c r="C18" s="104" t="s">
         <v>14</v>
       </c>
     </row>
@@ -8746,10 +8682,10 @@
       <c r="C23" s="15">
         <v>0.43</v>
       </c>
-      <c r="H23" s="117">
+      <c r="H23" s="104">
         <v>0</v>
       </c>
-      <c r="I23" s="117">
+      <c r="I23" s="104">
         <v>0</v>
       </c>
     </row>
@@ -8757,10 +8693,10 @@
       <c r="C24" s="16">
         <v>10</v>
       </c>
-      <c r="H24" s="117">
-        <v>1</v>
-      </c>
-      <c r="I24" s="117">
+      <c r="H24" s="104">
+        <v>1</v>
+      </c>
+      <c r="I24" s="104">
         <v>1</v>
       </c>
     </row>
@@ -8768,165 +8704,165 @@
       <c r="C25" s="16">
         <v>10.122999999999999</v>
       </c>
-      <c r="H25" s="117">
+      <c r="H25" s="104">
         <v>2</v>
       </c>
-      <c r="I25" s="117">
+      <c r="I25" s="104">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="117" t="s">
+      <c r="B26" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="117" t="s">
+      <c r="C26" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="H26" s="117">
+      <c r="H26" s="104">
         <v>3</v>
       </c>
-      <c r="I26" s="117">
+      <c r="I26" s="104">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="117" t="s">
+      <c r="A27" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="117">
+      <c r="B27" s="104">
         <v>12</v>
       </c>
-      <c r="C27" s="117">
+      <c r="C27" s="104">
         <v>24</v>
       </c>
-      <c r="H27" s="117">
+      <c r="H27" s="104">
         <v>4</v>
       </c>
-      <c r="I27" s="117">
+      <c r="I27" s="104">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="117" t="s">
+      <c r="A28" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="117">
+      <c r="B28" s="104">
         <v>48</v>
       </c>
-      <c r="C28" s="117">
+      <c r="C28" s="104">
         <v>12</v>
       </c>
-      <c r="H28" s="117">
+      <c r="H28" s="104">
         <v>5</v>
       </c>
-      <c r="I28" s="117">
+      <c r="I28" s="104">
         <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="117" t="s">
+      <c r="A29" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="117">
+      <c r="B29" s="104">
         <v>45</v>
       </c>
-      <c r="C29" s="117">
+      <c r="C29" s="104">
         <v>27</v>
       </c>
-      <c r="H29" s="117">
+      <c r="H29" s="104">
         <v>6</v>
       </c>
-      <c r="I29" s="117">
+      <c r="I29" s="104">
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="117" t="s">
+      <c r="A30" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="117">
-        <v>1</v>
-      </c>
-      <c r="C30" s="117">
+      <c r="B30" s="104">
+        <v>1</v>
+      </c>
+      <c r="C30" s="104">
         <v>9</v>
       </c>
-      <c r="H30" s="117">
+      <c r="H30" s="104">
         <v>7</v>
       </c>
-      <c r="I30" s="117">
+      <c r="I30" s="104">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="117" t="s">
+      <c r="A31" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="117">
+      <c r="B31" s="104">
         <v>25</v>
       </c>
-      <c r="C31" s="117">
+      <c r="C31" s="104">
         <v>45</v>
       </c>
-      <c r="H31" s="117">
+      <c r="H31" s="104">
         <v>8</v>
       </c>
-      <c r="I31" s="117">
+      <c r="I31" s="104">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="117" t="s">
+      <c r="A32" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="117">
+      <c r="B32" s="104">
         <v>31</v>
       </c>
-      <c r="C32" s="117">
+      <c r="C32" s="104">
         <v>17</v>
       </c>
-      <c r="H32" s="117">
+      <c r="H32" s="104">
         <v>9</v>
       </c>
-      <c r="I32" s="117">
+      <c r="I32" s="104">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="117" t="s">
+      <c r="A33" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="117">
+      <c r="B33" s="104">
         <v>20</v>
       </c>
-      <c r="C33" s="117">
+      <c r="C33" s="104">
         <v>43</v>
       </c>
-      <c r="H33" s="117">
+      <c r="H33" s="104">
         <v>10</v>
       </c>
-      <c r="I33" s="117">
+      <c r="I33" s="104">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="117" t="s">
+      <c r="A34" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="117">
+      <c r="B34" s="104">
         <v>19</v>
       </c>
-      <c r="C34" s="117">
+      <c r="C34" s="104">
         <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="117" t="s">
+      <c r="A35" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="117">
+      <c r="B35" s="104">
         <v>16</v>
       </c>
-      <c r="C35" s="117">
+      <c r="C35" s="104">
         <v>16</v>
       </c>
     </row>
@@ -9046,10 +8982,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025F2510-D243-4DA1-81DE-BBDDA9BC3681}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9058,185 +8994,204 @@
     <col min="5" max="5" width="14.7109375" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" customWidth="1"/>
     <col min="8" max="8" width="20.28515625" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="114" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="106" t="s">
         <v>423</v>
       </c>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="107" t="s">
         <v>424</v>
       </c>
-      <c r="C1" s="115" t="s">
+      <c r="C1" s="107" t="s">
         <v>425</v>
       </c>
-      <c r="D1" s="115" t="s">
+      <c r="D1" s="107" t="s">
         <v>426</v>
       </c>
-      <c r="E1" s="115" t="s">
+      <c r="E1" s="107" t="s">
         <v>427</v>
       </c>
-      <c r="F1" s="115" t="s">
+      <c r="F1" s="107" t="s">
         <v>428</v>
       </c>
-      <c r="G1" s="115" t="s">
+      <c r="G1" s="107" t="s">
         <v>429</v>
       </c>
-      <c r="H1" s="115" t="s">
+      <c r="H1" s="107" t="s">
         <v>430</v>
       </c>
-      <c r="I1" s="116" t="s">
+      <c r="I1" s="108" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="104">
+      <c r="J1" s="105" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>4</v>
       </c>
-      <c r="B2" s="105">
+      <c r="B2">
         <v>99.5</v>
       </c>
-      <c r="C2" s="105">
-        <v>1</v>
-      </c>
-      <c r="D2" s="105" t="s">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>432</v>
       </c>
-      <c r="E2" s="106">
+      <c r="E2" s="39">
         <v>45575</v>
       </c>
-      <c r="F2" s="107">
+      <c r="F2" s="109">
         <v>0.64583333333333337</v>
       </c>
-      <c r="G2" s="107" t="s">
+      <c r="G2" s="109" t="s">
         <v>433</v>
       </c>
-      <c r="H2" s="106">
+      <c r="H2" s="39">
         <v>45292</v>
       </c>
-      <c r="I2" s="108">
+      <c r="I2">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="104">
+      <c r="J2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>3</v>
       </c>
-      <c r="B3" s="105">
+      <c r="B3">
         <v>40</v>
       </c>
-      <c r="C3" s="105">
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="105" t="s">
+      <c r="D3" t="s">
         <v>434</v>
       </c>
-      <c r="E3" s="106">
+      <c r="E3" s="39">
         <v>45576</v>
       </c>
-      <c r="F3" s="107">
+      <c r="F3" s="109">
         <v>0.57638888888888884</v>
       </c>
-      <c r="G3" s="107" t="s">
+      <c r="G3" s="109" t="s">
         <v>435</v>
       </c>
-      <c r="H3" s="106">
+      <c r="H3" s="39">
         <v>45231</v>
       </c>
-      <c r="I3" s="108" t="s">
+      <c r="I3" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="104">
+      <c r="J3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>9</v>
       </c>
-      <c r="B4" s="105">
+      <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4" s="105">
+      <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4" s="105" t="s">
+      <c r="D4" t="s">
         <v>436</v>
       </c>
-      <c r="E4" s="106">
+      <c r="E4" s="39">
         <v>45574</v>
       </c>
-      <c r="F4" s="107">
+      <c r="F4" s="109">
         <v>0.73958333333333337</v>
       </c>
-      <c r="G4" s="107" t="s">
+      <c r="G4" s="109" t="s">
         <v>437</v>
       </c>
-      <c r="H4" s="106">
+      <c r="H4" s="39">
         <v>45325</v>
       </c>
-      <c r="I4" s="108">
+      <c r="I4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="104">
+      <c r="J4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>5</v>
       </c>
-      <c r="B5" s="105">
+      <c r="B5">
         <v>120</v>
       </c>
-      <c r="C5" s="105">
+      <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5" s="105" t="s">
+      <c r="D5" t="s">
         <v>434</v>
       </c>
-      <c r="E5" s="106">
+      <c r="E5" s="39">
         <v>45573</v>
       </c>
-      <c r="F5" s="107">
+      <c r="F5" s="109">
         <v>0.66666666666666663</v>
       </c>
-      <c r="G5" s="105" t="s">
+      <c r="G5" t="s">
         <v>438</v>
       </c>
-      <c r="H5" s="106">
+      <c r="H5" s="39">
         <v>45084</v>
       </c>
-      <c r="I5" s="108">
+      <c r="I5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="109">
+      <c r="J5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>7</v>
       </c>
-      <c r="B6" s="110">
+      <c r="B6">
         <v>12</v>
       </c>
-      <c r="C6" s="110">
+      <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6" s="110" t="s">
+      <c r="D6" t="s">
         <v>436</v>
       </c>
-      <c r="E6" s="111">
+      <c r="E6" s="39">
         <v>45566</v>
       </c>
-      <c r="F6" s="112">
+      <c r="F6" s="109">
         <v>0.5229166666666667</v>
       </c>
-      <c r="G6" s="110" t="s">
+      <c r="G6" t="s">
         <v>439</v>
       </c>
-      <c r="H6" s="111">
+      <c r="H6" s="39">
         <v>45420</v>
       </c>
-      <c r="I6" s="113" t="s">
+      <c r="I6" t="s">
         <v>438</v>
       </c>
+      <c r="J6">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="9">
+  <dataValidations count="10">
     <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A6" xr:uid="{B9309757-E2F4-49A1-880B-2F47F04364D6}">
       <formula1>1</formula1>
       <formula2>5</formula2>
@@ -9268,6 +9223,10 @@
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6" xr:uid="{1E18A174-B5CF-4015-B7DC-F1491351E054}">
       <formula1>"option1,option2,option3"</formula1>
     </dataValidation>
+    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J6" xr:uid="{7E7A448B-9259-46C3-AD31-D258EDD57C2A}">
+      <formula1>$A$2</formula1>
+      <formula2>2+10</formula2>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9290,16 +9249,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="117" t="s">
+      <c r="B1" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="117" t="s">
+      <c r="C1" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="117" t="s">
+      <c r="D1" s="104" t="s">
         <v>34</v>
       </c>
       <c r="G1" s="17" t="s">
@@ -9317,7 +9276,7 @@
       <c r="K1" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="117">
+      <c r="N1" s="104">
         <v>0.1</v>
       </c>
       <c r="P1" s="17" t="s">
@@ -9325,36 +9284,36 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="117" t="s">
+      <c r="A2" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="117">
+      <c r="B2" s="104">
         <f>ABS(-5.5)</f>
         <v>5.5</v>
       </c>
-      <c r="C2" s="117">
+      <c r="C2" s="104">
         <v>5.5</v>
       </c>
-      <c r="D2" s="117">
+      <c r="D2" s="104">
         <f t="shared" ref="D2:D33" si="0">IF(B2=C2,1,0)</f>
         <v>1</v>
       </c>
-      <c r="G2" s="117" t="s">
+      <c r="G2" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="117">
+      <c r="H2" s="104">
         <v>26</v>
       </c>
-      <c r="I2" s="117">
+      <c r="I2" s="104">
         <v>1204.7</v>
       </c>
-      <c r="J2" s="117">
+      <c r="J2" s="104">
         <v>25618</v>
       </c>
-      <c r="K2" s="117">
+      <c r="K2" s="104">
         <v>5</v>
       </c>
-      <c r="N2" s="117">
+      <c r="N2" s="104">
         <v>0.2</v>
       </c>
       <c r="P2">
@@ -9371,36 +9330,36 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="117">
+      <c r="B3" s="104">
         <f>ACOS(1)</f>
         <v>0</v>
       </c>
-      <c r="C3" s="117">
+      <c r="C3" s="104">
         <v>0</v>
       </c>
-      <c r="D3" s="117">
+      <c r="D3" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G3" s="117" t="s">
+      <c r="G3" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="117">
+      <c r="H3" s="104">
         <v>13</v>
       </c>
-      <c r="I3" s="117">
+      <c r="I3" s="104">
         <v>500.9</v>
       </c>
-      <c r="J3" s="117">
+      <c r="J3" s="104">
         <v>23000</v>
       </c>
-      <c r="K3" s="117">
+      <c r="K3" s="104">
         <v>7</v>
       </c>
-      <c r="N3" s="117">
+      <c r="N3" s="104">
         <v>0.4</v>
       </c>
       <c r="P3">
@@ -9417,36 +9376,36 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="117">
+      <c r="B4" s="104">
         <f>ROUND(ACOSH(2),5)</f>
         <v>1.3169599999999999</v>
       </c>
-      <c r="C4" s="117">
+      <c r="C4" s="104">
         <v>1.3169599999999999</v>
       </c>
-      <c r="D4" s="117">
+      <c r="D4" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G4" s="117" t="s">
+      <c r="G4" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="117">
+      <c r="H4" s="104">
         <v>26</v>
       </c>
-      <c r="I4" s="117">
+      <c r="I4" s="104">
         <v>252.4</v>
       </c>
-      <c r="J4" s="117">
+      <c r="J4" s="104">
         <v>110120.5</v>
       </c>
-      <c r="K4" s="117">
+      <c r="K4" s="104">
         <v>3</v>
       </c>
-      <c r="N4" s="117">
+      <c r="N4" s="104">
         <v>0.5</v>
       </c>
       <c r="P4">
@@ -9463,36 +9422,36 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="117" t="s">
+      <c r="A5" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="117">
+      <c r="B5" s="104">
         <f>ROUND(_xlfn.ACOT(1),5)</f>
         <v>0.78539999999999999</v>
       </c>
-      <c r="C5" s="117">
+      <c r="C5" s="104">
         <v>0.78539999999999999</v>
       </c>
-      <c r="D5" s="117">
+      <c r="D5" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G5" s="117" t="s">
+      <c r="G5" s="104" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="117">
+      <c r="H5" s="104">
         <v>42</v>
       </c>
-      <c r="I5" s="117">
+      <c r="I5" s="104">
         <v>4701.3</v>
       </c>
-      <c r="J5" s="117">
+      <c r="J5" s="104">
         <v>50024</v>
       </c>
-      <c r="K5" s="117">
+      <c r="K5" s="104">
         <v>4</v>
       </c>
-      <c r="N5" s="117">
+      <c r="N5" s="104">
         <v>0.6</v>
       </c>
       <c r="P5">
@@ -9509,36 +9468,36 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="117" t="s">
+      <c r="A6" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="117">
+      <c r="B6" s="104">
         <f>ROUND(_xlfn.ACOTH(2),5)</f>
         <v>0.54930999999999996</v>
       </c>
-      <c r="C6" s="117">
+      <c r="C6" s="104">
         <v>0.54930999999999996</v>
       </c>
-      <c r="D6" s="117">
+      <c r="D6" s="104">
         <f>IF(B6=C6,1,0)</f>
         <v>1</v>
       </c>
-      <c r="G6" s="117" t="s">
+      <c r="G6" s="104" t="s">
         <v>50</v>
       </c>
-      <c r="H6" s="117">
+      <c r="H6" s="104">
         <v>9</v>
       </c>
-      <c r="I6" s="117">
+      <c r="I6" s="104">
         <v>12.1</v>
       </c>
-      <c r="J6" s="117">
+      <c r="J6" s="104">
         <v>2</v>
       </c>
-      <c r="K6" s="117">
+      <c r="K6" s="104">
         <v>1000</v>
       </c>
-      <c r="N6" s="117" t="s">
+      <c r="N6" s="104" t="s">
         <v>51</v>
       </c>
       <c r="P6">
@@ -9555,151 +9514,151 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="117" t="s">
+      <c r="A7" s="104" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="117" t="b">
+      <c r="B7" s="104" t="b">
         <f>AND(TRUE,TRUE)</f>
         <v>1</v>
       </c>
-      <c r="C7" s="117" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" s="117">
+      <c r="C7" s="104" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G7" s="117" t="s">
+      <c r="G7" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="117">
+      <c r="H7" s="104">
         <v>27</v>
       </c>
-      <c r="I7" s="117">
+      <c r="I7" s="104">
         <v>4000</v>
       </c>
-      <c r="J7" s="117">
+      <c r="J7" s="104">
         <v>189576</v>
       </c>
-      <c r="K7" s="117">
+      <c r="K7" s="104">
         <v>2</v>
       </c>
-      <c r="N7" s="117" t="b">
+      <c r="N7" s="104" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="117" t="s">
+      <c r="A8" s="104" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="117">
+      <c r="B8" s="104">
         <f>ROUND(ASIN(0.5),5)</f>
         <v>0.52359999999999995</v>
       </c>
-      <c r="C8" s="117">
+      <c r="C8" s="104">
         <v>0.52359999999999995</v>
       </c>
-      <c r="D8" s="117">
+      <c r="D8" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G8" s="117" t="s">
+      <c r="G8" s="104" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="117">
+      <c r="H8" s="104">
         <v>30</v>
       </c>
-      <c r="I8" s="117">
+      <c r="I8" s="104">
         <v>12052</v>
       </c>
-      <c r="J8" s="117">
+      <c r="J8" s="104">
         <v>256018</v>
       </c>
-      <c r="K8" s="117">
-        <v>1</v>
-      </c>
-      <c r="N8" s="117" t="b">
+      <c r="K8" s="104">
+        <v>1</v>
+      </c>
+      <c r="N8" s="104" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="117" t="s">
+      <c r="A9" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="117">
+      <c r="B9" s="104">
         <f>ROUND(ASINH(2),5)</f>
         <v>1.44364</v>
       </c>
-      <c r="C9" s="117">
+      <c r="C9" s="104">
         <v>1.44364</v>
       </c>
-      <c r="D9" s="117">
+      <c r="D9" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G9" s="117" t="s">
+      <c r="G9" s="104" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="117">
+      <c r="H9" s="104">
         <v>37</v>
       </c>
-      <c r="I9" s="117">
+      <c r="I9" s="104">
         <v>4890.1000000000004</v>
       </c>
-      <c r="J9" s="117">
+      <c r="J9" s="104">
         <v>5000</v>
       </c>
-      <c r="K9" s="117">
+      <c r="K9" s="104">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="117" t="s">
+      <c r="A10" s="104" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="117">
+      <c r="B10" s="104">
         <f>ROUND(ATAN(1),5)</f>
         <v>0.78539999999999999</v>
       </c>
-      <c r="C10" s="117">
+      <c r="C10" s="104">
         <v>0.78539999999999999</v>
       </c>
-      <c r="D10" s="117">
+      <c r="D10" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="117" t="s">
+      <c r="A11" s="104" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="117">
+      <c r="B11" s="104">
         <f>ROUND(ATAN2(-1,0),5)</f>
         <v>3.1415899999999999</v>
       </c>
-      <c r="C11" s="117">
+      <c r="C11" s="104">
         <v>3.1415899999999999</v>
       </c>
-      <c r="D11" s="117">
+      <c r="D11" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G11" s="117" t="s">
+      <c r="G11" s="104" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="117" t="s">
+      <c r="A12" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="117">
+      <c r="B12" s="104">
         <f>ROUND(ATANH(0.7),5)</f>
         <v>0.86729999999999996</v>
       </c>
-      <c r="C12" s="117">
+      <c r="C12" s="104">
         <v>0.86729999999999996</v>
       </c>
-      <c r="D12" s="117">
+      <c r="D12" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -9720,457 +9679,457 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="117" t="s">
+      <c r="A13" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="117">
+      <c r="B13" s="104">
         <f>ROUND(AVEDEV(I2:I9),5)</f>
         <v>2959.1624999999999</v>
       </c>
-      <c r="C13" s="117">
+      <c r="C13" s="104">
         <v>2959.1624999999999</v>
       </c>
-      <c r="D13" s="117">
+      <c r="D13" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G13" s="117" t="s">
+      <c r="G13" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="117" t="s">
+      <c r="H13" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="I13" s="117" t="s">
+      <c r="I13" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="J13" s="117" t="s">
+      <c r="J13" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="K13" s="117" t="s">
+      <c r="K13" s="104" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="117" t="s">
+      <c r="A14" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="117">
+      <c r="B14" s="104">
         <f>ROUND(AVERAGE(H2:H9),5)</f>
         <v>26.25</v>
       </c>
-      <c r="C14" s="117">
+      <c r="C14" s="104">
         <v>26.25</v>
       </c>
-      <c r="D14" s="117">
+      <c r="D14" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="117" t="s">
+      <c r="A15" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="117">
+      <c r="B15" s="104">
         <f>AVERAGEA(G2:H9)</f>
         <v>13.125</v>
       </c>
-      <c r="C15" s="117">
+      <c r="C15" s="104">
         <v>13.125</v>
       </c>
-      <c r="D15" s="117">
+      <c r="D15" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="117" t="s">
+      <c r="A16" s="104" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="117">
+      <c r="B16" s="104">
         <f>ROUND(AVERAGEIF(J2:J9,"&gt;150000"),5)</f>
         <v>222797</v>
       </c>
-      <c r="C16" s="117">
+      <c r="C16" s="104">
         <v>222797</v>
       </c>
-      <c r="D16" s="117">
+      <c r="D16" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="117" t="s">
+      <c r="A17" s="104" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="117">
+      <c r="B17" s="104">
         <f>ROUND(AVERAGEIFS(I2:I9,H2:H9,"&gt;=30",K2:K9,"&lt;10"),5)</f>
         <v>8376.65</v>
       </c>
-      <c r="C17" s="117">
+      <c r="C17" s="104">
         <v>8376.65</v>
       </c>
-      <c r="D17" s="117">
+      <c r="D17" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="117" t="s">
+      <c r="A18" s="104" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="117">
+      <c r="B18" s="104">
         <f>CEILING(20.4,1)</f>
         <v>21</v>
       </c>
-      <c r="C18" s="117">
+      <c r="C18" s="104">
         <v>21</v>
       </c>
-      <c r="D18" s="117">
+      <c r="D18" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="117" t="s">
+      <c r="A19" s="104" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="117">
+      <c r="B19" s="104">
         <f>_xlfn.CEILING.MATH(-5.5,1,0)</f>
         <v>-5</v>
       </c>
-      <c r="C19" s="117">
+      <c r="C19" s="104">
         <v>-5</v>
       </c>
-      <c r="D19" s="117">
+      <c r="D19" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="117" t="s">
+      <c r="A20" s="104" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="117">
+      <c r="B20" s="104">
         <f>_xlfn.CEILING.PRECISE(230,100)</f>
         <v>300</v>
       </c>
-      <c r="C20" s="117">
+      <c r="C20" s="104">
         <v>300</v>
       </c>
-      <c r="D20" s="117">
+      <c r="D20" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="117" t="s">
+      <c r="A21" s="104" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="117" t="str">
+      <c r="B21" s="104" t="str">
         <f>CHAR(74)</f>
         <v>J</v>
       </c>
-      <c r="C21" s="117" t="s">
+      <c r="C21" s="104" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="117">
+      <c r="D21" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="117" t="s">
+      <c r="A22" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="B22" s="117">
+      <c r="B22" s="104">
         <f>COLUMN(C4)</f>
         <v>3</v>
       </c>
-      <c r="C22" s="117">
+      <c r="C22" s="104">
         <v>3</v>
       </c>
-      <c r="D22" s="117">
+      <c r="D22" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="117" t="s">
+      <c r="A23" s="104" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="117">
+      <c r="B23" s="104">
         <f>COLUMNS(A5:D12)</f>
         <v>4</v>
       </c>
-      <c r="C23" s="117">
+      <c r="C23" s="104">
         <v>4</v>
       </c>
-      <c r="D23" s="117">
+      <c r="D23" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="117" t="s">
+      <c r="A24" s="104" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="117" t="str">
+      <c r="B24" s="104" t="str">
         <f>_xlfn.CONCAT(1,23)</f>
         <v>123</v>
       </c>
-      <c r="C24" s="117" t="str">
+      <c r="C24" s="104" t="str">
         <f>"123"</f>
         <v>123</v>
       </c>
-      <c r="D24" s="117">
+      <c r="D24" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="117" t="s">
+      <c r="A25" s="104" t="s">
         <v>79</v>
       </c>
-      <c r="B25" s="117" t="str">
+      <c r="B25" s="104" t="str">
         <f>CONCATENATE("BUT, ","MICHEL")</f>
         <v>BUT, MICHEL</v>
       </c>
-      <c r="C25" s="117" t="s">
+      <c r="C25" s="104" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="117">
+      <c r="D25" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="117" t="s">
+      <c r="A26" s="104" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="117">
+      <c r="B26" s="104">
         <f>ROUND(COS(PI()/3),2)</f>
         <v>0.5</v>
       </c>
-      <c r="C26" s="117">
+      <c r="C26" s="104">
         <v>0.5</v>
       </c>
-      <c r="D26" s="117">
+      <c r="D26" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="117" t="s">
+      <c r="A27" s="104" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="117">
+      <c r="B27" s="104">
         <f>ROUND(COSH(2),5)</f>
         <v>3.7622</v>
       </c>
-      <c r="C27" s="117">
+      <c r="C27" s="104">
         <v>3.7622</v>
       </c>
-      <c r="D27" s="117">
+      <c r="D27" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="117" t="s">
+      <c r="A28" s="104" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="117">
+      <c r="B28" s="104">
         <f>ROUND(_xlfn.COT(PI()/6),5)</f>
         <v>1.7320500000000001</v>
       </c>
-      <c r="C28" s="117">
+      <c r="C28" s="104">
         <f>ROUND(SQRT(3),5)</f>
         <v>1.7320500000000001</v>
       </c>
-      <c r="D28" s="117">
+      <c r="D28" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="117" t="s">
+      <c r="A29" s="104" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="117">
+      <c r="B29" s="104">
         <f>ROUND(_xlfn.COTH(0.5),5)</f>
         <v>2.1639499999999998</v>
       </c>
-      <c r="C29" s="117">
+      <c r="C29" s="104">
         <v>2.1639499999999998</v>
       </c>
-      <c r="D29" s="117">
+      <c r="D29" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="117" t="s">
+      <c r="A30" s="104" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="117">
+      <c r="B30" s="104">
         <f>COUNT(1,"a","5","2021-03-14")</f>
         <v>3</v>
       </c>
-      <c r="C30" s="117">
+      <c r="C30" s="104">
         <v>2</v>
       </c>
-      <c r="D30" s="117">
+      <c r="D30" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="117" t="s">
+      <c r="A31" s="104" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="117">
+      <c r="B31" s="104">
         <f>COUNTA(1,"a","5","2021-03-14")</f>
         <v>4</v>
       </c>
-      <c r="C31" s="117">
+      <c r="C31" s="104">
         <v>4</v>
       </c>
-      <c r="D31" s="117">
+      <c r="D31" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="117" t="s">
+      <c r="A32" s="104" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="117">
+      <c r="B32" s="104">
         <f>COUNTBLANK(F1:G1)</f>
         <v>1</v>
       </c>
-      <c r="C32" s="117">
-        <v>1</v>
-      </c>
-      <c r="D32" s="117">
+      <c r="C32" s="104">
+        <v>1</v>
+      </c>
+      <c r="D32" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="117" t="s">
+      <c r="A33" s="104" t="s">
         <v>88</v>
       </c>
-      <c r="B33" s="117">
+      <c r="B33" s="104">
         <f>COUNTIF(H2:H9,"&gt;30")</f>
         <v>2</v>
       </c>
-      <c r="C33" s="117">
+      <c r="C33" s="104">
         <v>2</v>
       </c>
-      <c r="D33" s="117">
+      <c r="D33" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="117" t="s">
+      <c r="A34" s="104" t="s">
         <v>89</v>
       </c>
-      <c r="B34" s="117">
+      <c r="B34" s="104">
         <f>COUNTIFS(H2:H9,"&gt;25",K2:K9,"&lt;4")</f>
         <v>3</v>
       </c>
-      <c r="C34" s="117">
+      <c r="C34" s="104">
         <v>3</v>
       </c>
-      <c r="D34" s="117">
+      <c r="D34" s="104">
         <f t="shared" ref="D34:D65" si="4">IF(B34=C34,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="117" t="s">
+      <c r="A35" s="104" t="s">
         <v>90</v>
       </c>
-      <c r="B35" s="117">
+      <c r="B35" s="104">
         <f>ROUND(COVAR(H2:H9,K2:K9),5)</f>
         <v>-2119.25</v>
       </c>
-      <c r="C35" s="117">
+      <c r="C35" s="104">
         <v>-2119.25</v>
       </c>
-      <c r="D35" s="117">
+      <c r="D35" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="117" t="s">
+      <c r="A36" s="104" t="s">
         <v>91</v>
       </c>
-      <c r="B36" s="117">
+      <c r="B36" s="104">
         <f>ROUND(_xlfn.COVARIANCE.P(K2:K9,H2:H9),5)</f>
         <v>-2119.25</v>
       </c>
-      <c r="C36" s="117">
+      <c r="C36" s="104">
         <v>-2119.25</v>
       </c>
-      <c r="D36" s="117">
+      <c r="D36" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="117" t="s">
+      <c r="A37" s="104" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="117">
+      <c r="B37" s="104">
         <f>ROUND(_xlfn.COVARIANCE.P(I2:I9,J2:J9),5)</f>
         <v>237217364.71641001</v>
       </c>
-      <c r="C37" s="117">
+      <c r="C37" s="104">
         <v>237217364.71641001</v>
       </c>
-      <c r="D37" s="117">
+      <c r="D37" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="117" t="s">
+      <c r="A38" s="104" t="s">
         <v>93</v>
       </c>
-      <c r="B38" s="117">
+      <c r="B38" s="104">
         <f>ROUND(_xlfn.CSC(PI()/4),5)</f>
         <v>1.41421</v>
       </c>
-      <c r="C38" s="117">
+      <c r="C38" s="104">
         <f>ROUND(SQRT(2),5)</f>
         <v>1.41421</v>
       </c>
-      <c r="D38" s="117">
+      <c r="D38" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="117" t="s">
+      <c r="A39" s="104" t="s">
         <v>94</v>
       </c>
-      <c r="B39" s="117">
+      <c r="B39" s="104">
         <f>ROUND(_xlfn.CSCH(PI()/3),5)</f>
         <v>0.80040999999999995</v>
       </c>
-      <c r="C39" s="117">
+      <c r="C39" s="104">
         <v>0.80040999999999995</v>
       </c>
-      <c r="D39" s="117">
+      <c r="D39" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="117" t="s">
+      <c r="A40" s="104" t="s">
         <v>95</v>
       </c>
       <c r="B40" s="18">
@@ -10180,287 +10139,287 @@
       <c r="C40" s="18">
         <v>43976</v>
       </c>
-      <c r="D40" s="117">
+      <c r="D40" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="117" t="s">
+      <c r="A41" s="104" t="s">
         <v>96</v>
       </c>
-      <c r="B41" s="117">
+      <c r="B41" s="104">
         <f>DATEVALUE("1969-08-15")</f>
         <v>25430</v>
       </c>
-      <c r="C41" s="117">
+      <c r="C41" s="104">
         <v>25430</v>
       </c>
-      <c r="D41" s="117">
+      <c r="D41" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="117" t="s">
+      <c r="A42" s="104" t="s">
         <v>97</v>
       </c>
-      <c r="B42" s="117">
+      <c r="B42" s="104">
         <f>ROUND(DAVERAGE(G1:K9,"Tot. Score",J12:J13),5)</f>
         <v>151434.625</v>
       </c>
-      <c r="C42" s="117">
+      <c r="C42" s="104">
         <v>151434.625</v>
       </c>
-      <c r="D42" s="117">
+      <c r="D42" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="117" t="s">
+      <c r="A43" s="104" t="s">
         <v>98</v>
       </c>
-      <c r="B43" s="117">
+      <c r="B43" s="104">
         <f>DAY("2020-03-17")</f>
         <v>17</v>
       </c>
-      <c r="C43" s="117">
+      <c r="C43" s="104">
         <v>17</v>
       </c>
-      <c r="D43" s="117">
+      <c r="D43" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="117" t="s">
+      <c r="A44" s="104" t="s">
         <v>99</v>
       </c>
-      <c r="B44" s="117">
+      <c r="B44" s="104">
         <f>_xlfn.DAYS("2022-03-17","2021-03-17")</f>
         <v>365</v>
       </c>
-      <c r="C44" s="117">
+      <c r="C44" s="104">
         <v>365</v>
       </c>
-      <c r="D44" s="117">
+      <c r="D44" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="117" t="s">
+      <c r="A45" s="104" t="s">
         <v>100</v>
       </c>
-      <c r="B45" s="117">
+      <c r="B45" s="104">
         <f>DCOUNT(G1:K9,"Name",H12:H13)</f>
         <v>0</v>
       </c>
-      <c r="C45" s="117">
+      <c r="C45" s="104">
         <v>0</v>
       </c>
-      <c r="D45" s="117">
+      <c r="D45" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="117" t="s">
+      <c r="A46" s="104" t="s">
         <v>101</v>
       </c>
-      <c r="B46" s="117">
+      <c r="B46" s="104">
         <f>DCOUNTA(G1:K9,"Name",H12:H13)</f>
         <v>3</v>
       </c>
-      <c r="C46" s="117">
+      <c r="C46" s="104">
         <v>3</v>
       </c>
-      <c r="D46" s="117">
+      <c r="D46" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="117" t="s">
+      <c r="A47" s="104" t="s">
         <v>102</v>
       </c>
-      <c r="B47" s="117">
+      <c r="B47" s="104">
         <f>_xlfn.DECIMAL(20,16)</f>
         <v>32</v>
       </c>
-      <c r="C47" s="117">
+      <c r="C47" s="104">
         <v>32</v>
       </c>
-      <c r="D47" s="117">
+      <c r="D47" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="117" t="s">
+      <c r="A48" s="104" t="s">
         <v>103</v>
       </c>
-      <c r="B48" s="117">
+      <c r="B48" s="104">
         <f>DEGREES(PI()/4)</f>
         <v>45</v>
       </c>
-      <c r="C48" s="117">
+      <c r="C48" s="104">
         <v>45</v>
       </c>
-      <c r="D48" s="117">
+      <c r="D48" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="117" t="s">
+      <c r="A49" s="104" t="s">
         <v>104</v>
       </c>
-      <c r="B49" s="117">
+      <c r="B49" s="104">
         <f>DGET(G1:K9,"Hours Played",G12:G13)</f>
         <v>252.4</v>
       </c>
-      <c r="C49" s="117">
+      <c r="C49" s="104">
         <v>252.4</v>
       </c>
-      <c r="D49" s="117">
+      <c r="D49" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="117" t="s">
+      <c r="A50" s="104" t="s">
         <v>105</v>
       </c>
-      <c r="B50" s="117">
+      <c r="B50" s="104">
         <f>DMAX(G1:K9,"Tot. Score",I12:I13)</f>
         <v>189576</v>
       </c>
-      <c r="C50" s="117">
+      <c r="C50" s="104">
         <f>J7</f>
         <v>189576</v>
       </c>
-      <c r="D50" s="117">
+      <c r="D50" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="117" t="s">
+      <c r="A51" s="104" t="s">
         <v>106</v>
       </c>
-      <c r="B51" s="117">
+      <c r="B51" s="104">
         <f>DMIN(G1:K9,"Tot. Score",H12:H13)</f>
         <v>5000</v>
       </c>
-      <c r="C51" s="117">
+      <c r="C51" s="104">
         <f>J9</f>
         <v>5000</v>
       </c>
-      <c r="D51" s="117">
+      <c r="D51" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="117" t="s">
+      <c r="A52" s="104" t="s">
         <v>107</v>
       </c>
-      <c r="B52" s="117">
+      <c r="B52" s="104">
         <f>DPRODUCT(G1:K9,"Age",K12:K13)</f>
         <v>333</v>
       </c>
-      <c r="C52" s="117">
+      <c r="C52" s="104">
         <v>333</v>
       </c>
-      <c r="D52" s="117">
+      <c r="D52" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="117" t="s">
+      <c r="A53" s="104" t="s">
         <v>108</v>
       </c>
-      <c r="B53" s="117">
+      <c r="B53" s="104">
         <f>ROUND(DSTDEV(G1:K9,"Age",H12:H13),5)</f>
         <v>6.0277099999999999</v>
       </c>
-      <c r="C53" s="117">
+      <c r="C53" s="104">
         <v>6.0277099999999999</v>
       </c>
-      <c r="D53" s="117">
+      <c r="D53" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="117" t="s">
+      <c r="A54" s="104" t="s">
         <v>109</v>
       </c>
-      <c r="B54" s="117">
+      <c r="B54" s="104">
         <f>ROUND(DSTDEVP(G1:K9,"Age",H12:H13),5)</f>
         <v>4.9216100000000003</v>
       </c>
-      <c r="C54" s="117">
+      <c r="C54" s="104">
         <v>4.9216100000000003</v>
       </c>
-      <c r="D54" s="117">
+      <c r="D54" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="117" t="s">
+      <c r="A55" s="104" t="s">
         <v>110</v>
       </c>
-      <c r="B55" s="117">
+      <c r="B55" s="104">
         <f>DSUM(G1:K9,"Age",I12:I13)</f>
         <v>101</v>
       </c>
-      <c r="C55" s="117">
+      <c r="C55" s="104">
         <v>101</v>
       </c>
-      <c r="D55" s="117">
+      <c r="D55" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="117" t="s">
+      <c r="A56" s="104" t="s">
         <v>111</v>
       </c>
-      <c r="B56" s="117">
+      <c r="B56" s="104">
         <f>ROUND(DVAR(G1:K9,"Hours Played",H12:H13),5)</f>
         <v>17560207.923330002</v>
       </c>
-      <c r="C56" s="117">
+      <c r="C56" s="104">
         <v>17560207.923330002</v>
       </c>
-      <c r="D56" s="117">
+      <c r="D56" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="117" t="s">
+      <c r="A57" s="104" t="s">
         <v>112</v>
       </c>
-      <c r="B57" s="117">
+      <c r="B57" s="104">
         <f>ROUND(DVARP(G1:K9,"Hours Played",H12:H13),5)</f>
         <v>11706805.28222</v>
       </c>
-      <c r="C57" s="117">
+      <c r="C57" s="104">
         <v>11706805.28222</v>
       </c>
-      <c r="D57" s="117">
+      <c r="D57" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="117" t="s">
+      <c r="A58" s="104" t="s">
         <v>113</v>
       </c>
       <c r="B58" s="18">
@@ -10470,13 +10429,13 @@
       <c r="C58" s="18">
         <v>25345</v>
       </c>
-      <c r="D58" s="117">
+      <c r="D58" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="117" t="s">
+      <c r="A59" s="104" t="s">
         <v>114</v>
       </c>
       <c r="B59" s="18">
@@ -10486,1311 +10445,1311 @@
       <c r="C59" s="18">
         <v>44074</v>
       </c>
-      <c r="D59" s="117">
+      <c r="D59" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="117" t="s">
+      <c r="A60" s="104" t="s">
         <v>115</v>
       </c>
-      <c r="B60" s="117" t="b">
+      <c r="B60" s="104" t="b">
         <f>EXACT("AbsSdf%","AbsSdf%")</f>
         <v>1</v>
       </c>
-      <c r="C60" s="117" t="b">
-        <v>1</v>
-      </c>
-      <c r="D60" s="117">
+      <c r="C60" s="104" t="b">
+        <v>1</v>
+      </c>
+      <c r="D60" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="117" t="s">
+      <c r="A61" s="104" t="s">
         <v>116</v>
       </c>
-      <c r="B61" s="117">
+      <c r="B61" s="104">
         <f>ROUND(EXP(4),5)</f>
         <v>54.598149999999997</v>
       </c>
-      <c r="C61" s="117">
+      <c r="C61" s="104">
         <v>54.598149999999997</v>
       </c>
-      <c r="D61" s="117">
+      <c r="D61" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="117" t="s">
+      <c r="A62" s="104" t="s">
         <v>117</v>
       </c>
-      <c r="B62" s="117">
+      <c r="B62" s="104">
         <f>FIND("A","qbdahbaazo A")</f>
         <v>12</v>
       </c>
-      <c r="C62" s="117">
+      <c r="C62" s="104">
         <v>12</v>
       </c>
-      <c r="D62" s="117">
+      <c r="D62" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="117" t="s">
+      <c r="A63" s="104" t="s">
         <v>118</v>
       </c>
-      <c r="B63" s="117">
+      <c r="B63" s="104">
         <f>FLOOR(5.5,2)</f>
         <v>4</v>
       </c>
-      <c r="C63" s="117">
+      <c r="C63" s="104">
         <v>4</v>
       </c>
-      <c r="D63" s="117">
+      <c r="D63" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="117" t="s">
+      <c r="A64" s="104" t="s">
         <v>119</v>
       </c>
-      <c r="B64" s="117">
+      <c r="B64" s="104">
         <f>_xlfn.FLOOR.MATH(-5.55,2,1)</f>
         <v>-4</v>
       </c>
-      <c r="C64" s="117">
+      <c r="C64" s="104">
         <v>-4</v>
       </c>
-      <c r="D64" s="117">
+      <c r="D64" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="117" t="s">
+      <c r="A65" s="104" t="s">
         <v>120</v>
       </c>
-      <c r="B65" s="117">
+      <c r="B65" s="104">
         <f>_xlfn.FLOOR.PRECISE(199,100)</f>
         <v>100</v>
       </c>
-      <c r="C65" s="117">
+      <c r="C65" s="104">
         <v>100</v>
       </c>
-      <c r="D65" s="117">
+      <c r="D65" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="117" t="s">
+      <c r="A66" s="104" t="s">
         <v>121</v>
       </c>
-      <c r="B66" s="117">
+      <c r="B66" s="104">
         <f>HLOOKUP("Tot. Score",H1:K9,4,FALSE)</f>
         <v>110120.5</v>
       </c>
-      <c r="C66" s="117">
+      <c r="C66" s="104">
         <v>110120.5</v>
       </c>
-      <c r="D66" s="117">
+      <c r="D66" s="104">
         <f t="shared" ref="D66:D97" si="5">IF(B66=C66,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="117" t="s">
+      <c r="A67" s="104" t="s">
         <v>122</v>
       </c>
-      <c r="B67" s="117">
+      <c r="B67" s="104">
         <f>HOUR("02:14:56")</f>
         <v>2</v>
       </c>
-      <c r="C67" s="117">
+      <c r="C67" s="104">
         <v>2</v>
       </c>
-      <c r="D67" s="117">
+      <c r="D67" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="117" t="s">
+      <c r="A68" s="104" t="s">
         <v>123</v>
       </c>
-      <c r="B68" s="117" t="str">
+      <c r="B68" s="104" t="str">
         <f>IF(TRUE,"TABOURET","JAMBON")</f>
         <v>TABOURET</v>
       </c>
-      <c r="C68" s="117" t="s">
+      <c r="C68" s="104" t="s">
         <v>124</v>
       </c>
-      <c r="D68" s="117">
+      <c r="D68" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="117" t="s">
+      <c r="A69" s="104" t="s">
         <v>125</v>
       </c>
-      <c r="B69" s="117" t="str">
+      <c r="B69" s="104" t="str">
         <f>IFERROR(0/0,"no diving by zero.")</f>
         <v>no diving by zero.</v>
       </c>
-      <c r="C69" s="117" t="s">
+      <c r="C69" s="104" t="s">
         <v>126</v>
       </c>
-      <c r="D69" s="117">
+      <c r="D69" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="117" t="s">
+      <c r="A70" s="104" t="s">
         <v>127</v>
       </c>
-      <c r="B70" s="117" t="str">
+      <c r="B70" s="104" t="str">
         <f>_xlfn.IFS($H2&gt;$H3,"first player is older",$H3&gt;$H2,"second player is older")</f>
         <v>first player is older</v>
       </c>
-      <c r="C70" s="117" t="s">
+      <c r="C70" s="104" t="s">
         <v>128</v>
       </c>
-      <c r="D70" s="117">
+      <c r="D70" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="117" t="s">
+      <c r="A71" s="104" t="s">
         <v>129</v>
       </c>
-      <c r="B71" s="117" t="b">
+      <c r="B71" s="104" t="b">
         <f>ISERROR(0/0)</f>
         <v>1</v>
       </c>
-      <c r="C71" s="117" t="b">
-        <v>1</v>
-      </c>
-      <c r="D71" s="117">
+      <c r="C71" s="104" t="b">
+        <v>1</v>
+      </c>
+      <c r="D71" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="117" t="s">
+      <c r="A72" s="104" t="s">
         <v>130</v>
       </c>
-      <c r="B72" s="117" t="b">
+      <c r="B72" s="104" t="b">
         <f>ISEVEN(3)</f>
         <v>0</v>
       </c>
-      <c r="C72" s="117" t="b">
+      <c r="C72" s="104" t="b">
         <v>0</v>
       </c>
-      <c r="D72" s="117">
+      <c r="D72" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="117" t="s">
+      <c r="A73" s="104" t="s">
         <v>131</v>
       </c>
-      <c r="B73" s="117" t="b">
+      <c r="B73" s="104" t="b">
         <f>ISLOGICAL("TRUE")</f>
         <v>0</v>
       </c>
-      <c r="C73" s="117" t="b">
+      <c r="C73" s="104" t="b">
         <v>0</v>
       </c>
-      <c r="D73" s="117">
+      <c r="D73" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="117" t="s">
+      <c r="A74" s="104" t="s">
         <v>132</v>
       </c>
-      <c r="B74" s="117" t="b">
+      <c r="B74" s="104" t="b">
         <f>ISNONTEXT(TRUE)</f>
         <v>1</v>
       </c>
-      <c r="C74" s="117" t="b">
-        <v>1</v>
-      </c>
-      <c r="D74" s="117">
+      <c r="C74" s="104" t="b">
+        <v>1</v>
+      </c>
+      <c r="D74" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="117" t="s">
+      <c r="A75" s="104" t="s">
         <v>133</v>
       </c>
-      <c r="B75" s="117" t="b">
+      <c r="B75" s="104" t="b">
         <f>ISNUMBER(1231.5)</f>
         <v>1</v>
       </c>
-      <c r="C75" s="117" t="b">
-        <v>1</v>
-      </c>
-      <c r="D75" s="117">
+      <c r="C75" s="104" t="b">
+        <v>1</v>
+      </c>
+      <c r="D75" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="117" t="s">
+      <c r="A76" s="104" t="s">
         <v>134</v>
       </c>
-      <c r="B76" s="117">
+      <c r="B76" s="104">
         <f>ISO.CEILING(-7.89)</f>
         <v>-7</v>
       </c>
-      <c r="C76" s="117">
+      <c r="C76" s="104">
         <v>-7</v>
       </c>
-      <c r="D76" s="117">
+      <c r="D76" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="117" t="s">
+      <c r="A77" s="104" t="s">
         <v>135</v>
       </c>
-      <c r="B77" s="117" t="b">
+      <c r="B77" s="104" t="b">
         <f>ISODD(4)</f>
         <v>0</v>
       </c>
-      <c r="C77" s="117" t="b">
+      <c r="C77" s="104" t="b">
         <v>0</v>
       </c>
-      <c r="D77" s="117">
+      <c r="D77" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="117" t="s">
+      <c r="A78" s="104" t="s">
         <v>136</v>
       </c>
-      <c r="B78" s="117">
+      <c r="B78" s="104">
         <f>_xlfn.ISOWEEKNUM("2016-01-03")</f>
         <v>53</v>
       </c>
-      <c r="C78" s="117">
+      <c r="C78" s="104">
         <v>53</v>
       </c>
-      <c r="D78" s="117">
+      <c r="D78" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="117" t="s">
+      <c r="A79" s="104" t="s">
         <v>137</v>
       </c>
-      <c r="B79" s="117" t="b">
+      <c r="B79" s="104" t="b">
         <f>ISTEXT("123")</f>
         <v>1</v>
       </c>
-      <c r="C79" s="117" t="b">
-        <v>1</v>
-      </c>
-      <c r="D79" s="117">
+      <c r="C79" s="104" t="b">
+        <v>1</v>
+      </c>
+      <c r="D79" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="117" t="s">
+      <c r="A80" s="104" t="s">
         <v>138</v>
       </c>
-      <c r="B80" s="117">
+      <c r="B80" s="104">
         <f>LARGE(H2:H9,3)</f>
         <v>30</v>
       </c>
-      <c r="C80" s="117">
+      <c r="C80" s="104">
         <v>30</v>
       </c>
-      <c r="D80" s="117">
+      <c r="D80" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="117" t="s">
+      <c r="A81" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="B81" s="117" t="str">
+      <c r="B81" s="104" t="str">
         <f>LEFT("Mich",4)</f>
         <v>Mich</v>
       </c>
-      <c r="C81" s="117" t="s">
+      <c r="C81" s="104" t="s">
         <v>140</v>
       </c>
-      <c r="D81" s="117">
+      <c r="D81" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="117" t="s">
+      <c r="A82" s="104" t="s">
         <v>141</v>
       </c>
-      <c r="B82" s="117">
+      <c r="B82" s="104">
         <f>LEN("anticonstitutionnellement")</f>
         <v>25</v>
       </c>
-      <c r="C82" s="117">
+      <c r="C82" s="104">
         <v>25</v>
       </c>
-      <c r="D82" s="117">
+      <c r="D82" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="117" t="s">
+      <c r="A83" s="104" t="s">
         <v>142</v>
       </c>
-      <c r="B83" s="117">
+      <c r="B83" s="104">
         <f>ROUND(LN(2),5)</f>
         <v>0.69315000000000004</v>
       </c>
-      <c r="C83" s="117">
+      <c r="C83" s="104">
         <v>0.69315000000000004</v>
       </c>
-      <c r="D83" s="117">
+      <c r="D83" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="117" t="s">
+      <c r="A84" s="104" t="s">
         <v>143</v>
       </c>
-      <c r="B84" s="117">
+      <c r="B84" s="104">
         <f>LOOKUP(23000,H3:J3,H5:J5)</f>
         <v>50024</v>
       </c>
-      <c r="C84" s="117">
+      <c r="C84" s="104">
         <v>50024</v>
       </c>
-      <c r="D84" s="117">
+      <c r="D84" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="117" t="s">
+      <c r="A85" s="104" t="s">
         <v>144</v>
       </c>
-      <c r="B85" s="117" t="str">
+      <c r="B85" s="104" t="str">
         <f>LOWER("オAドB")</f>
         <v>オaドb</v>
       </c>
-      <c r="C85" s="117" t="s">
+      <c r="C85" s="104" t="s">
         <v>145</v>
       </c>
-      <c r="D85" s="117">
+      <c r="D85" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="117" t="s">
+      <c r="A86" s="104" t="s">
         <v>146</v>
       </c>
-      <c r="B86" s="117">
+      <c r="B86" s="104">
         <f>MATCH(42,H2:H9,0)</f>
         <v>4</v>
       </c>
-      <c r="C86" s="117">
+      <c r="C86" s="104">
         <v>4</v>
       </c>
-      <c r="D86" s="117">
+      <c r="D86" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="117" t="s">
+      <c r="A87" s="104" t="s">
         <v>147</v>
       </c>
-      <c r="B87" s="117">
+      <c r="B87" s="104">
         <f>MAX(N1:N8)</f>
         <v>0.6</v>
       </c>
-      <c r="C87" s="117">
+      <c r="C87" s="104">
         <v>0.6</v>
       </c>
-      <c r="D87" s="117">
+      <c r="D87" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="117" t="s">
+      <c r="A88" s="104" t="s">
         <v>148</v>
       </c>
-      <c r="B88" s="117">
+      <c r="B88" s="104">
         <f>MAXA(N1:N8)</f>
         <v>1</v>
       </c>
-      <c r="C88" s="117">
-        <v>1</v>
-      </c>
-      <c r="D88" s="117">
+      <c r="C88" s="104">
+        <v>1</v>
+      </c>
+      <c r="D88" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="117" t="s">
+      <c r="A89" s="104" t="s">
         <v>149</v>
       </c>
-      <c r="B89" s="117">
+      <c r="B89" s="104">
         <f>_xlfn.MAXIFS(H2:H9,K2:K9,"&lt;20",K2:K9,"&lt;&gt;4")</f>
         <v>30</v>
       </c>
-      <c r="C89" s="117">
+      <c r="C89" s="104">
         <v>30</v>
       </c>
-      <c r="D89" s="117">
+      <c r="D89" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="117" t="s">
+      <c r="A90" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="B90" s="117">
+      <c r="B90" s="104">
         <f>MEDIAN(-1,6,7,234,163845)</f>
         <v>7</v>
       </c>
-      <c r="C90" s="117">
+      <c r="C90" s="104">
         <v>7</v>
       </c>
-      <c r="D90" s="117">
+      <c r="D90" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="117" t="s">
+      <c r="A91" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="B91" s="117">
+      <c r="B91" s="104">
         <f>MIN(N1:N8)</f>
         <v>0.1</v>
       </c>
-      <c r="C91" s="117">
+      <c r="C91" s="104">
         <v>0.1</v>
       </c>
-      <c r="D91" s="117">
+      <c r="D91" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="117" t="s">
+      <c r="A92" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="B92" s="117">
+      <c r="B92" s="104">
         <f>MINA(N1:N8)</f>
         <v>0</v>
       </c>
-      <c r="C92" s="117">
+      <c r="C92" s="104">
         <v>0</v>
       </c>
-      <c r="D92" s="117">
+      <c r="D92" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="117" t="s">
+      <c r="A93" s="104" t="s">
         <v>153</v>
       </c>
-      <c r="B93" s="117">
+      <c r="B93" s="104">
         <f>_xlfn.MINIFS(J2:J9,H2:H9,"&gt;20")</f>
         <v>5000</v>
       </c>
-      <c r="C93" s="117">
+      <c r="C93" s="104">
         <v>5000</v>
       </c>
-      <c r="D93" s="117">
+      <c r="D93" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="117" t="s">
+      <c r="A94" s="104" t="s">
         <v>154</v>
       </c>
-      <c r="B94" s="117">
+      <c r="B94" s="104">
         <f>MINUTE(0.126)</f>
         <v>1</v>
       </c>
-      <c r="C94" s="117">
-        <v>1</v>
-      </c>
-      <c r="D94" s="117">
+      <c r="C94" s="104">
+        <v>1</v>
+      </c>
+      <c r="D94" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="117" t="s">
+      <c r="A95" s="104" t="s">
         <v>155</v>
       </c>
-      <c r="B95" s="117">
+      <c r="B95" s="104">
         <f>MOD(42,12)</f>
         <v>6</v>
       </c>
-      <c r="C95" s="117">
+      <c r="C95" s="104">
         <v>6</v>
       </c>
-      <c r="D95" s="117">
+      <c r="D95" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="117" t="s">
+      <c r="A96" s="104" t="s">
         <v>156</v>
       </c>
-      <c r="B96" s="117">
+      <c r="B96" s="104">
         <f>MONTH("1954-05-02")</f>
         <v>5</v>
       </c>
-      <c r="C96" s="117">
+      <c r="C96" s="104">
         <v>5</v>
       </c>
-      <c r="D96" s="117">
+      <c r="D96" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="117" t="s">
+      <c r="A97" s="104" t="s">
         <v>157</v>
       </c>
-      <c r="B97" s="117">
+      <c r="B97" s="104">
         <f>NETWORKDAYS("2013-01-01","2013-02-01")</f>
         <v>24</v>
       </c>
-      <c r="C97" s="117">
+      <c r="C97" s="104">
         <v>24</v>
       </c>
-      <c r="D97" s="117">
+      <c r="D97" s="104">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="117" t="s">
+      <c r="A98" s="104" t="s">
         <v>158</v>
       </c>
-      <c r="B98" s="117">
+      <c r="B98" s="104">
         <f>NETWORKDAYS.INTL("2013-01-01","2013-02-01","0000111")</f>
         <v>19</v>
       </c>
-      <c r="C98" s="117">
+      <c r="C98" s="104">
         <v>19</v>
       </c>
-      <c r="D98" s="117">
+      <c r="D98" s="104">
         <f t="shared" ref="D98:D99" si="6">IF(B98=C98,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="117" t="s">
+      <c r="A99" s="104" t="s">
         <v>159</v>
       </c>
-      <c r="B99" s="117" t="b">
+      <c r="B99" s="104" t="b">
         <f>NOT(FALSE)</f>
         <v>1</v>
       </c>
-      <c r="C99" s="117" t="b">
-        <v>1</v>
-      </c>
-      <c r="D99" s="117">
+      <c r="C99" s="104" t="b">
+        <v>1</v>
+      </c>
+      <c r="D99" s="104">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="117" t="s">
+      <c r="A100" s="104" t="s">
         <v>160</v>
       </c>
       <c r="B100" s="19">
         <f ca="1">NOW()</f>
-        <v>45905.868253935187</v>
-      </c>
-      <c r="D100" s="117">
+        <v>45938.44940578704</v>
+      </c>
+      <c r="D100" s="104">
         <f ca="1">IF(ISNUMBER(B100),1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="117" t="s">
+      <c r="A101" s="104" t="s">
         <v>161</v>
       </c>
-      <c r="B101" s="117">
+      <c r="B101" s="104">
         <f>ODD(4)</f>
         <v>5</v>
       </c>
-      <c r="C101" s="117">
+      <c r="C101" s="104">
         <v>5</v>
       </c>
-      <c r="D101" s="117">
+      <c r="D101" s="104">
         <f t="shared" ref="D101:D111" si="7">IF(B101=C101,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="117" t="s">
+      <c r="A102" s="104" t="s">
         <v>162</v>
       </c>
-      <c r="B102" s="117" t="b">
+      <c r="B102" s="104" t="b">
         <f>OR("true",FALSE)</f>
         <v>1</v>
       </c>
-      <c r="C102" s="117" t="b">
-        <v>1</v>
-      </c>
-      <c r="D102" s="117">
+      <c r="C102" s="104" t="b">
+        <v>1</v>
+      </c>
+      <c r="D102" s="104">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="117" t="s">
+      <c r="A103" s="104" t="s">
         <v>163</v>
       </c>
-      <c r="B103" s="117">
+      <c r="B103" s="104">
         <f>PERCENTILE(N1:N5,1)</f>
         <v>0.6</v>
       </c>
-      <c r="C103" s="117">
+      <c r="C103" s="104">
         <v>0.6</v>
       </c>
-      <c r="D103" s="117">
+      <c r="D103" s="104">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="117" t="s">
+      <c r="A104" s="104" t="s">
         <v>164</v>
       </c>
-      <c r="B104" s="117">
+      <c r="B104" s="104">
         <f>_xlfn.PERCENTILE.EXC(N1:N5,0.5)</f>
         <v>0.4</v>
       </c>
-      <c r="C104" s="117">
+      <c r="C104" s="104">
         <v>0.4</v>
       </c>
-      <c r="D104" s="117">
+      <c r="D104" s="104">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="117" t="s">
+      <c r="A105" s="104" t="s">
         <v>165</v>
       </c>
-      <c r="B105" s="117">
+      <c r="B105" s="104">
         <f>_xlfn.PERCENTILE.INC(N1:N5,0)</f>
         <v>0.1</v>
       </c>
-      <c r="C105" s="117">
+      <c r="C105" s="104">
         <v>0.1</v>
       </c>
-      <c r="D105" s="117">
+      <c r="D105" s="104">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="117" t="s">
+      <c r="A106" s="104" t="s">
         <v>166</v>
       </c>
-      <c r="B106" s="117">
+      <c r="B106" s="104">
         <f>ROUND(PI(),5)</f>
         <v>3.1415899999999999</v>
       </c>
-      <c r="C106" s="117">
+      <c r="C106" s="104">
         <v>3.1415899999999999</v>
       </c>
-      <c r="D106" s="117">
+      <c r="D106" s="104">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="117" t="s">
+      <c r="A107" s="104" t="s">
         <v>167</v>
       </c>
-      <c r="B107" s="117">
+      <c r="B107" s="104">
         <f>POWER(42,2)</f>
         <v>1764</v>
       </c>
-      <c r="C107" s="117">
+      <c r="C107" s="104">
         <v>1764</v>
       </c>
-      <c r="D107" s="117">
+      <c r="D107" s="104">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="117" t="s">
+      <c r="A108" s="104" t="s">
         <v>168</v>
       </c>
-      <c r="B108" s="117">
+      <c r="B108" s="104">
         <f>PRODUCT(1,2,3)</f>
         <v>6</v>
       </c>
-      <c r="C108" s="117">
+      <c r="C108" s="104">
         <v>6</v>
       </c>
-      <c r="D108" s="117">
+      <c r="D108" s="104">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="117" t="s">
+      <c r="A109" s="104" t="s">
         <v>169</v>
       </c>
-      <c r="B109" s="117">
+      <c r="B109" s="104">
         <f>QUARTILE(N1:N5,0)</f>
         <v>0.1</v>
       </c>
-      <c r="C109" s="117">
+      <c r="C109" s="104">
         <v>0.1</v>
       </c>
-      <c r="D109" s="117">
+      <c r="D109" s="104">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="117" t="s">
+      <c r="A110" s="104" t="s">
         <v>170</v>
       </c>
-      <c r="B110" s="117">
+      <c r="B110" s="104">
         <f>ROUND(_xlfn.QUARTILE.EXC(N1:N5,1),5)</f>
         <v>0.15</v>
       </c>
-      <c r="C110" s="117">
+      <c r="C110" s="104">
         <v>0.15</v>
       </c>
-      <c r="D110" s="117">
+      <c r="D110" s="104">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="117" t="s">
+      <c r="A111" s="104" t="s">
         <v>171</v>
       </c>
-      <c r="B111" s="117">
+      <c r="B111" s="104">
         <f>_xlfn.QUARTILE.INC(N1:N5,4)</f>
         <v>0.6</v>
       </c>
-      <c r="C111" s="117">
+      <c r="C111" s="104">
         <v>0.6</v>
       </c>
-      <c r="D111" s="117">
+      <c r="D111" s="104">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="117"/>
-      <c r="B112" s="117"/>
-      <c r="D112" s="117"/>
+      <c r="A112" s="104"/>
+      <c r="B112" s="104"/>
+      <c r="D112" s="104"/>
     </row>
     <row r="113" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="117" t="s">
+      <c r="A113" s="104" t="s">
         <v>172</v>
       </c>
-      <c r="B113" s="117">
+      <c r="B113" s="104">
         <f ca="1">RANDBETWEEN(1.1,2)</f>
         <v>2</v>
       </c>
-      <c r="C113" s="117">
+      <c r="C113" s="104">
         <v>2</v>
       </c>
-      <c r="D113" s="117">
+      <c r="D113" s="104">
         <f t="shared" ref="D113:D143" ca="1" si="8">IF(B113=C113,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="117" t="s">
+      <c r="A114" s="104" t="s">
         <v>173</v>
       </c>
-      <c r="B114" s="117" t="str">
+      <c r="B114" s="104" t="str">
         <f>REPLACE("ABZ",2,1,"Y")</f>
         <v>AYZ</v>
       </c>
-      <c r="C114" s="117" t="s">
+      <c r="C114" s="104" t="s">
         <v>174</v>
       </c>
-      <c r="D114" s="117">
+      <c r="D114" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="117" t="s">
+      <c r="A115" s="104" t="s">
         <v>175</v>
       </c>
-      <c r="B115" s="117" t="str">
+      <c r="B115" s="104" t="str">
         <f>RIGHT("kikou",2)</f>
         <v>ou</v>
       </c>
-      <c r="C115" s="117" t="s">
+      <c r="C115" s="104" t="s">
         <v>176</v>
       </c>
-      <c r="D115" s="117">
+      <c r="D115" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="117" t="s">
+      <c r="A116" s="104" t="s">
         <v>177</v>
       </c>
-      <c r="B116" s="117">
+      <c r="B116" s="104">
         <f>ROUND(49.9,0)</f>
         <v>50</v>
       </c>
-      <c r="C116" s="117">
+      <c r="C116" s="104">
         <v>50</v>
       </c>
-      <c r="D116" s="117">
+      <c r="D116" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="117" t="s">
+      <c r="A117" s="104" t="s">
         <v>178</v>
       </c>
-      <c r="B117" s="117">
+      <c r="B117" s="104">
         <f>ROUNDDOWN(42,-1)</f>
         <v>40</v>
       </c>
-      <c r="C117" s="117">
+      <c r="C117" s="104">
         <v>40</v>
       </c>
-      <c r="D117" s="117">
+      <c r="D117" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="117" t="s">
+      <c r="A118" s="104" t="s">
         <v>179</v>
       </c>
-      <c r="B118" s="117">
+      <c r="B118" s="104">
         <f>ROUNDUP(-1.6,0)</f>
         <v>-2</v>
       </c>
-      <c r="C118" s="117">
+      <c r="C118" s="104">
         <v>-2</v>
       </c>
-      <c r="D118" s="117">
+      <c r="D118" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="117" t="s">
+      <c r="A119" s="104" t="s">
         <v>180</v>
       </c>
-      <c r="B119" s="117">
+      <c r="B119" s="104">
         <f>ROW(A234)</f>
         <v>234</v>
       </c>
-      <c r="C119" s="117">
+      <c r="C119" s="104">
         <v>234</v>
       </c>
-      <c r="D119" s="117">
+      <c r="D119" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="117" t="s">
+      <c r="A120" s="104" t="s">
         <v>181</v>
       </c>
-      <c r="B120" s="117">
+      <c r="B120" s="104">
         <f>ROWS(B3:C40)</f>
         <v>38</v>
       </c>
-      <c r="C120" s="117">
+      <c r="C120" s="104">
         <v>38</v>
       </c>
-      <c r="D120" s="117">
+      <c r="D120" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="117" t="s">
+      <c r="A121" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="B121" s="117">
+      <c r="B121" s="104">
         <f>SEARCH("C","ABCD")</f>
         <v>3</v>
       </c>
-      <c r="C121" s="117">
+      <c r="C121" s="104">
         <v>3</v>
       </c>
-      <c r="D121" s="117">
+      <c r="D121" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="117" t="s">
+      <c r="A122" s="104" t="s">
         <v>183</v>
       </c>
-      <c r="B122" s="117">
+      <c r="B122" s="104">
         <f>ROUND(_xlfn.SEC(PI()/3),5)</f>
         <v>2</v>
       </c>
-      <c r="C122" s="117">
+      <c r="C122" s="104">
         <v>2</v>
       </c>
-      <c r="D122" s="117">
+      <c r="D122" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="117" t="s">
+      <c r="A123" s="104" t="s">
         <v>184</v>
       </c>
-      <c r="B123" s="117">
+      <c r="B123" s="104">
         <f>ROUND(_xlfn.SECH(1),5)</f>
         <v>0.64805000000000001</v>
       </c>
-      <c r="C123" s="117">
+      <c r="C123" s="104">
         <v>0.64805000000000001</v>
       </c>
-      <c r="D123" s="117">
+      <c r="D123" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="117" t="s">
+      <c r="A124" s="104" t="s">
         <v>185</v>
       </c>
-      <c r="B124" s="117">
+      <c r="B124" s="104">
         <f>SECOND("00:21:42")</f>
         <v>42</v>
       </c>
-      <c r="C124" s="117">
+      <c r="C124" s="104">
         <v>42</v>
       </c>
-      <c r="D124" s="117">
+      <c r="D124" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="117" t="s">
+      <c r="A125" s="104" t="s">
         <v>186</v>
       </c>
-      <c r="B125" s="117">
+      <c r="B125" s="104">
         <f>ROUND(SIN(PI()/6),5)</f>
         <v>0.5</v>
       </c>
-      <c r="C125" s="117">
+      <c r="C125" s="104">
         <v>0.5</v>
       </c>
-      <c r="D125" s="117">
+      <c r="D125" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="117" t="s">
+      <c r="A126" s="104" t="s">
         <v>187</v>
       </c>
-      <c r="B126" s="117">
+      <c r="B126" s="104">
         <f>ROUND(SINH(1),5)</f>
         <v>1.1752</v>
       </c>
-      <c r="C126" s="117">
+      <c r="C126" s="104">
         <v>1.1752</v>
       </c>
-      <c r="D126" s="117">
+      <c r="D126" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="117" t="s">
+      <c r="A127" s="104" t="s">
         <v>188</v>
       </c>
-      <c r="B127" s="117">
+      <c r="B127" s="104">
         <f>SMALL(H2:H9,3)</f>
         <v>26</v>
       </c>
-      <c r="C127" s="117">
+      <c r="C127" s="104">
         <v>26</v>
       </c>
-      <c r="D127" s="117">
+      <c r="D127" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="117" t="s">
+      <c r="A128" s="104" t="s">
         <v>189</v>
       </c>
-      <c r="B128" s="117">
+      <c r="B128" s="104">
         <f>SQRT(4)</f>
         <v>2</v>
       </c>
-      <c r="C128" s="117">
+      <c r="C128" s="104">
         <v>2</v>
       </c>
-      <c r="D128" s="117">
+      <c r="D128" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="117" t="s">
+      <c r="A129" s="104" t="s">
         <v>190</v>
       </c>
-      <c r="B129" s="117">
+      <c r="B129" s="104">
         <f>STDEV(-2,0,2)</f>
         <v>2</v>
       </c>
-      <c r="C129" s="117">
+      <c r="C129" s="104">
         <v>2</v>
       </c>
-      <c r="D129" s="117">
+      <c r="D129" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="117" t="s">
+      <c r="A130" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="B130" s="117">
+      <c r="B130" s="104">
         <f>_xlfn.STDEV.P(2,4)</f>
         <v>1</v>
       </c>
-      <c r="C130" s="117">
-        <v>1</v>
-      </c>
-      <c r="D130" s="117">
+      <c r="C130" s="104">
+        <v>1</v>
+      </c>
+      <c r="D130" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="117" t="s">
+      <c r="A131" s="104" t="s">
         <v>192</v>
       </c>
-      <c r="B131" s="117">
+      <c r="B131" s="104">
         <f>_xlfn.STDEV.S(2,4,6)</f>
         <v>2</v>
       </c>
-      <c r="C131" s="117">
+      <c r="C131" s="104">
         <v>2</v>
       </c>
-      <c r="D131" s="117">
+      <c r="D131" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="117" t="s">
+      <c r="A132" s="104" t="s">
         <v>193</v>
       </c>
-      <c r="B132" s="117">
+      <c r="B132" s="104">
         <f>STDEVA(TRUE,3,5)</f>
         <v>2</v>
       </c>
-      <c r="C132" s="117">
+      <c r="C132" s="104">
         <v>2</v>
       </c>
-      <c r="D132" s="117">
+      <c r="D132" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="117" t="s">
+      <c r="A133" s="104" t="s">
         <v>194</v>
       </c>
-      <c r="B133" s="117">
+      <c r="B133" s="104">
         <f>ROUND(STDEVP(2,5,8),2)</f>
         <v>2.4500000000000002</v>
       </c>
-      <c r="C133" s="117">
+      <c r="C133" s="104">
         <v>2.4500000000000002</v>
       </c>
-      <c r="D133" s="117">
+      <c r="D133" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="117" t="s">
+      <c r="A134" s="104" t="s">
         <v>195</v>
       </c>
-      <c r="B134" s="117">
+      <c r="B134" s="104">
         <f>ROUND(STDEVPA(TRUE,4,7),2)</f>
         <v>2.4500000000000002</v>
       </c>
-      <c r="C134" s="117">
+      <c r="C134" s="104">
         <v>2.4500000000000002</v>
       </c>
-      <c r="D134" s="117">
+      <c r="D134" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="117" t="s">
+      <c r="A135" s="104" t="s">
         <v>196</v>
       </c>
-      <c r="B135" s="117" t="str">
+      <c r="B135" s="104" t="str">
         <f>SUBSTITUTE("SAP is best","SAP","Odoo")</f>
         <v>Odoo is best</v>
       </c>
-      <c r="C135" s="117" t="s">
+      <c r="C135" s="104" t="s">
         <v>197</v>
       </c>
-      <c r="D135" s="117">
+      <c r="D135" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="117" t="s">
+      <c r="A136" s="104" t="s">
         <v>198</v>
       </c>
-      <c r="B136" s="117">
+      <c r="B136" s="104">
         <f>SUM(1,2,3,4,5)</f>
         <v>15</v>
       </c>
-      <c r="C136" s="117">
+      <c r="C136" s="104">
         <v>15</v>
       </c>
-      <c r="D136" s="117">
+      <c r="D136" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="117" t="s">
+      <c r="A137" s="104" t="s">
         <v>199</v>
       </c>
-      <c r="B137" s="117">
+      <c r="B137" s="104">
         <f>SUMIF(K2:K9,"&lt;100")</f>
         <v>52</v>
       </c>
-      <c r="C137" s="117">
+      <c r="C137" s="104">
         <v>52</v>
       </c>
-      <c r="D137" s="117">
+      <c r="D137" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="117" t="s">
+      <c r="A138" s="104" t="s">
         <v>200</v>
       </c>
-      <c r="B138" s="117">
+      <c r="B138" s="104">
         <f>SUMIFS(H2:H9,K2:K9,"&lt;100")</f>
         <v>201</v>
       </c>
-      <c r="C138" s="117">
+      <c r="C138" s="104">
         <v>201</v>
       </c>
-      <c r="D138" s="117">
+      <c r="D138" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="117" t="s">
+      <c r="A139" s="104" t="s">
         <v>201</v>
       </c>
-      <c r="B139" s="117">
+      <c r="B139" s="104">
         <f>ROUND(TAN(PI()/4),5)</f>
         <v>1</v>
       </c>
-      <c r="C139" s="117">
-        <v>1</v>
-      </c>
-      <c r="D139" s="117">
+      <c r="C139" s="104">
+        <v>1</v>
+      </c>
+      <c r="D139" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="117" t="s">
+      <c r="A140" s="104" t="s">
         <v>202</v>
       </c>
-      <c r="B140" s="117">
+      <c r="B140" s="104">
         <f>ROUND(TANH(1),5)</f>
         <v>0.76158999999999999</v>
       </c>
-      <c r="C140" s="117">
+      <c r="C140" s="104">
         <v>0.76158999999999999</v>
       </c>
-      <c r="D140" s="117">
+      <c r="D140" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="117" t="s">
+      <c r="A141" s="104" t="s">
         <v>203</v>
       </c>
-      <c r="B141" s="117" t="str">
+      <c r="B141" s="104" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,"","1","A","%")</f>
         <v>1-A-%</v>
       </c>
-      <c r="C141" s="117" t="s">
+      <c r="C141" s="104" t="s">
         <v>204</v>
       </c>
-      <c r="D141" s="117">
+      <c r="D141" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="117" t="s">
+      <c r="A142" s="104" t="s">
         <v>205</v>
       </c>
       <c r="B142" s="20">
@@ -11800,235 +11759,235 @@
       <c r="C142" s="20">
         <v>0.38299768519999999</v>
       </c>
-      <c r="D142" s="117">
+      <c r="D142" s="104">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="117" t="s">
+      <c r="A143" s="104" t="s">
         <v>206</v>
       </c>
-      <c r="B143" s="117">
+      <c r="B143" s="104">
         <f>TIMEVALUE("18:00:00")</f>
         <v>0.75</v>
       </c>
-      <c r="C143" s="117">
+      <c r="C143" s="104">
         <v>0.75</v>
       </c>
-      <c r="D143" s="117">
+      <c r="D143" s="104">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="117" t="s">
+      <c r="A144" s="104" t="s">
         <v>207</v>
       </c>
       <c r="B144" s="18">
         <f ca="1">TODAY()</f>
-        <v>45905</v>
-      </c>
-      <c r="D144" s="117">
+        <v>45938</v>
+      </c>
+      <c r="D144" s="104">
         <f ca="1">IF(ISNUMBER(B144),1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="117" t="s">
+      <c r="A145" s="104" t="s">
         <v>208</v>
       </c>
-      <c r="B145" s="117" t="str">
+      <c r="B145" s="104" t="str">
         <f>TRIM(" Jean Ticonstitutionnalise ")</f>
         <v>Jean Ticonstitutionnalise</v>
       </c>
-      <c r="C145" s="117" t="s">
+      <c r="C145" s="104" t="s">
         <v>209</v>
       </c>
-      <c r="D145" s="117">
+      <c r="D145" s="104">
         <f t="shared" ref="D145:D163" si="9">IF(B145=C145,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="117" t="s">
+      <c r="A146" s="104" t="s">
         <v>210</v>
       </c>
-      <c r="B146" s="117">
+      <c r="B146" s="104">
         <f>TRUNC(42.42,1)</f>
         <v>42.4</v>
       </c>
-      <c r="C146" s="117">
+      <c r="C146" s="104">
         <v>42.4</v>
       </c>
-      <c r="D146" s="117">
+      <c r="D146" s="104">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="117" t="s">
+      <c r="A147" s="104" t="s">
         <v>211</v>
       </c>
-      <c r="B147" s="117" t="str">
+      <c r="B147" s="104" t="str">
         <f>UPPER("grrrr !")</f>
         <v>GRRRR !</v>
       </c>
-      <c r="C147" s="117" t="s">
+      <c r="C147" s="104" t="s">
         <v>212</v>
       </c>
-      <c r="D147" s="117">
+      <c r="D147" s="104">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="117" t="s">
+      <c r="A148" s="104" t="s">
         <v>213</v>
       </c>
-      <c r="B148" s="117">
+      <c r="B148" s="104">
         <f>ROUND(VAR(K1:K5),5)</f>
         <v>2.9166699999999999</v>
       </c>
-      <c r="C148" s="117">
+      <c r="C148" s="104">
         <v>2.9166699999999999</v>
       </c>
-      <c r="D148" s="117">
+      <c r="D148" s="104">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="117" t="s">
+      <c r="A149" s="104" t="s">
         <v>214</v>
       </c>
-      <c r="B149" s="117">
+      <c r="B149" s="104">
         <f>ROUND(_xlfn.VAR.P(K1:K5),5)</f>
         <v>2.1875</v>
       </c>
-      <c r="C149" s="117">
+      <c r="C149" s="104">
         <v>2.1875</v>
       </c>
-      <c r="D149" s="117">
+      <c r="D149" s="104">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="117" t="s">
+      <c r="A150" s="104" t="s">
         <v>215</v>
       </c>
-      <c r="B150" s="117">
+      <c r="B150" s="104">
         <f>_xlfn.VAR.S(2,5,8)</f>
         <v>9</v>
       </c>
-      <c r="C150" s="117">
+      <c r="C150" s="104">
         <v>9</v>
       </c>
-      <c r="D150" s="117">
+      <c r="D150" s="104">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="117" t="s">
+      <c r="A151" s="104" t="s">
         <v>216</v>
       </c>
-      <c r="B151" s="117">
+      <c r="B151" s="104">
         <f>ROUND(VARA(K1:K5),5)</f>
         <v>6.7</v>
       </c>
-      <c r="C151" s="117">
+      <c r="C151" s="104">
         <v>6.7</v>
       </c>
-      <c r="D151" s="117">
+      <c r="D151" s="104">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="117" t="s">
+      <c r="A152" s="104" t="s">
         <v>217</v>
       </c>
-      <c r="B152" s="117">
+      <c r="B152" s="104">
         <f>ROUND(VARP(K1:K5),5)</f>
         <v>2.1875</v>
       </c>
-      <c r="C152" s="117">
+      <c r="C152" s="104">
         <v>2.1875</v>
       </c>
-      <c r="D152" s="117">
+      <c r="D152" s="104">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="117" t="s">
+      <c r="A153" s="104" t="s">
         <v>218</v>
       </c>
-      <c r="B153" s="117">
+      <c r="B153" s="104">
         <f>ROUND(VARPA(K1:K5),5)</f>
         <v>5.36</v>
       </c>
-      <c r="C153" s="117">
+      <c r="C153" s="104">
         <v>5.36</v>
       </c>
-      <c r="D153" s="117">
+      <c r="D153" s="104">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="117" t="s">
+      <c r="A154" s="104" t="s">
         <v>219</v>
       </c>
-      <c r="B154" s="117">
+      <c r="B154" s="104">
         <f>VLOOKUP("NotACheater",G1:K9,3,FALSE)</f>
         <v>252.4</v>
       </c>
-      <c r="C154" s="117">
+      <c r="C154" s="104">
         <f>252.4</f>
         <v>252.4</v>
       </c>
-      <c r="D154" s="117">
+      <c r="D154" s="104">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="117" t="s">
+      <c r="A155" s="104" t="s">
         <v>220</v>
       </c>
-      <c r="B155" s="117">
+      <c r="B155" s="104">
         <f>WEEKDAY("2021-06-12")</f>
         <v>7</v>
       </c>
-      <c r="C155" s="117">
+      <c r="C155" s="104">
         <v>7</v>
       </c>
-      <c r="D155" s="117">
+      <c r="D155" s="104">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="117" t="s">
+      <c r="A156" s="104" t="s">
         <v>221</v>
       </c>
-      <c r="B156" s="117">
+      <c r="B156" s="104">
         <f>WEEKNUM("2021-06-29")</f>
         <v>27</v>
       </c>
-      <c r="C156" s="117">
+      <c r="C156" s="104">
         <v>27</v>
       </c>
-      <c r="D156" s="117">
+      <c r="D156" s="104">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="117" t="s">
+      <c r="A157" s="104" t="s">
         <v>222</v>
       </c>
       <c r="B157" s="18">
@@ -12038,13 +11997,13 @@
       <c r="C157" s="18">
         <v>44278</v>
       </c>
-      <c r="D157" s="117">
+      <c r="D157" s="104">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="117" t="s">
+      <c r="A158" s="104" t="s">
         <v>223</v>
       </c>
       <c r="B158" s="18">
@@ -12054,87 +12013,87 @@
       <c r="C158" s="18">
         <v>44312</v>
       </c>
-      <c r="D158" s="117">
+      <c r="D158" s="104">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="117" t="s">
+      <c r="A159" s="104" t="s">
         <v>224</v>
       </c>
-      <c r="B159" s="117" t="b">
+      <c r="B159" s="104" t="b">
         <f>_xlfn.XOR(FALSE,TRUE,FALSE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="C159" s="117" t="b">
-        <v>1</v>
-      </c>
-      <c r="D159" s="117">
+      <c r="C159" s="104" t="b">
+        <v>1</v>
+      </c>
+      <c r="D159" s="104">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="117" t="s">
+      <c r="A160" s="104" t="s">
         <v>225</v>
       </c>
-      <c r="B160" s="117">
+      <c r="B160" s="104">
         <f>YEAR("2012-03-12")</f>
         <v>2012</v>
       </c>
-      <c r="C160" s="117">
+      <c r="C160" s="104">
         <v>2012</v>
       </c>
-      <c r="D160" s="117">
+      <c r="D160" s="104">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="117" t="s">
+      <c r="A161" s="104" t="s">
         <v>226</v>
       </c>
-      <c r="B161" s="117">
+      <c r="B161" s="104">
         <f>DELTA(1,1)</f>
         <v>1</v>
       </c>
-      <c r="C161" s="117">
-        <v>1</v>
-      </c>
-      <c r="D161" s="117">
+      <c r="C161" s="104">
+        <v>1</v>
+      </c>
+      <c r="D161" s="104">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="117" t="s">
+      <c r="A162" s="104" t="s">
         <v>227</v>
       </c>
-      <c r="B162" s="117" t="str">
+      <c r="B162" s="104" t="str">
         <f>ADDRESS(1,1,4,FALSE,"sheet!")</f>
         <v>'sheet!'!R[1]C[1]</v>
       </c>
-      <c r="C162" s="117" t="s">
+      <c r="C162" s="104" t="s">
         <v>228</v>
       </c>
-      <c r="D162" s="117">
+      <c r="D162" s="104">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="117" t="s">
+      <c r="A163" s="104" t="s">
         <v>229</v>
       </c>
-      <c r="B163" s="117">
+      <c r="B163" s="104">
         <f>DATEDIF("2002/01/01","2002/01/02","D")</f>
         <v>1</v>
       </c>
-      <c r="C163" s="117">
-        <v>1</v>
-      </c>
-      <c r="D163" s="117">
+      <c r="C163" s="104">
+        <v>1</v>
+      </c>
+      <c r="D163" s="104">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -12158,10 +12117,10 @@
     <tabColor rgb="FFFF0000"/>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:R30"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelRow="2" outlineLevelCol="2" x14ac:dyDescent="0.2"/>
@@ -12181,10 +12140,10 @@
       <c r="C1" t="s">
         <v>231</v>
       </c>
-      <c r="D1" s="123" t="s">
+      <c r="D1" s="115" t="s">
         <v>232</v>
       </c>
-      <c r="E1" s="123"/>
+      <c r="E1" s="115"/>
       <c r="F1" t="s">
         <v>233</v>
       </c>
@@ -12197,8 +12156,8 @@
         <f>SUM(A1)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
       <c r="H2" t="str">
         <f>[1]Feuil1!$A$1</f>
         <v>referenced string</v>
@@ -12229,12 +12188,26 @@
     <row r="14" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:8" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" t="e" cm="1">
-        <f t="array" aca="1" ref="A30" ca="1">RANDARRAY(2, 2)</f>
-        <v>#NAME?</v>
+    <row r="17" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" cm="1">
+        <f t="array" aca="1" ref="A30:B31" ca="1">_xlfn.RANDARRAY(2, 2)</f>
+        <v>0.29199957891180306</v>
+      </c>
+      <c r="B30">
+        <f ca="1"/>
+        <v>0.54943089704437997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <f ca="1"/>
+        <v>0.16052475400670185</v>
+      </c>
+      <c r="B31">
+        <f ca="1"/>
+        <v>0.71515302456246044</v>
       </c>
     </row>
   </sheetData>
@@ -12645,7 +12618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D919E811-4385-4D35-A19E-3B7E0E659A89}">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
@@ -12878,7 +12851,7 @@
       </c>
       <c r="B12" s="39">
         <f ca="1">TODAY()</f>
-        <v>45905</v>
+        <v>45938</v>
       </c>
       <c r="C12" s="39">
         <f>DATE(2010,10,2)</f>
@@ -14033,96 +14006,96 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C4" s="117" t="s">
+      <c r="C4" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="117">
+      <c r="D4" s="104">
         <v>26</v>
       </c>
-      <c r="E4" s="117">
+      <c r="E4" s="104">
         <v>5</v>
       </c>
-      <c r="F4" s="117">
+      <c r="F4" s="104">
         <f>Table3[[#This Row],[Rank]]+Table3[[#This Row],[Age]]</f>
         <v>31</v>
       </c>
-      <c r="G4" s="117">
+      <c r="G4" s="104">
         <f>SUM(Table3[Rank])</f>
         <v>12</v>
       </c>
-      <c r="H4" s="117">
+      <c r="H4" s="104">
         <f>SUM(Table3[[#All],[Rank]])</f>
         <v>24</v>
       </c>
-      <c r="I4" s="117">
+      <c r="I4" s="104">
         <f>Table3[[#Totals],[Rank]]</f>
         <v>12</v>
       </c>
-      <c r="J4" s="117" t="str">
+      <c r="J4" s="104" t="str">
         <f>Table3[[#Headers],[Rank]]</f>
         <v>Rank</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C5" s="117" t="s">
+      <c r="C5" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="117">
+      <c r="D5" s="104">
         <v>13</v>
       </c>
-      <c r="E5" s="117">
+      <c r="E5" s="104">
         <v>7</v>
       </c>
-      <c r="F5" s="117">
+      <c r="F5" s="104">
         <f>Table3[[#This Row],[Rank]]+Table3[[#This Row],[Age]]</f>
         <v>20</v>
       </c>
-      <c r="G5" s="117">
+      <c r="G5" s="104">
         <f>SUM(Table3[Rank])</f>
         <v>12</v>
       </c>
-      <c r="H5" s="117">
+      <c r="H5" s="104">
         <f>SUM(Table3[[#All],[Rank]])</f>
         <v>24</v>
       </c>
-      <c r="I5" s="117">
+      <c r="I5" s="104">
         <f>Table3[[#Totals],[Rank]]</f>
         <v>12</v>
       </c>
-      <c r="J5" s="117" t="str">
+      <c r="J5" s="104" t="str">
         <f>Table3[[#Headers],[Rank]]</f>
         <v>Rank</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C6" s="117" t="s">
+      <c r="C6" s="104" t="s">
         <v>391</v>
       </c>
-      <c r="D6" s="117">
+      <c r="D6" s="104">
         <f>SUBTOTAL(109,Table3[Age])</f>
         <v>39</v>
       </c>
-      <c r="E6" s="117">
+      <c r="E6" s="104">
         <f>SUBTOTAL(109,Table3[Rank])</f>
         <v>12</v>
       </c>
-      <c r="F6" s="117">
+      <c r="F6" s="104">
         <f>SUBTOTAL(109,Table3[Rank+Age =E4+D4])</f>
         <v>51</v>
       </c>
-      <c r="G6" s="117">
+      <c r="G6" s="104">
         <f>SUBTOTAL(109,Table3[Data =SUM(E4:E5)])</f>
         <v>24</v>
       </c>
-      <c r="H6" s="117">
+      <c r="H6" s="104">
         <f>SUBTOTAL(109,Table3[All =SUM(E3:E6)])</f>
         <v>48</v>
       </c>
-      <c r="I6" s="117">
+      <c r="I6" s="104">
         <f>SUBTOTAL(109,Table3[Totals =E6])</f>
         <v>24</v>
       </c>
-      <c r="J6" s="117">
+      <c r="J6" s="104">
         <f>SUBTOTAL(109,Table3[Headers =E3])</f>
         <v>0</v>
       </c>
@@ -14393,16 +14366,16 @@
       <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="117"/>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
+      <c r="A2" s="104"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="117"/>
-      <c r="B3" s="117"/>
+      <c r="A3" s="104"/>
+      <c r="B3" s="104"/>
       <c r="C3" s="89" t="s">
         <v>413</v>
       </c>
@@ -14411,8 +14384,8 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="117"/>
-      <c r="B4" s="117"/>
+      <c r="A4" s="104"/>
+      <c r="B4" s="104"/>
       <c r="C4" s="89" t="s">
         <v>415</v>
       </c>
@@ -14445,8 +14418,8 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="117"/>
-      <c r="B5" s="117"/>
+      <c r="A5" s="104"/>
+      <c r="B5" s="104"/>
       <c r="C5" s="90" t="s">
         <v>55</v>
       </c>
@@ -14458,8 +14431,8 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="117"/>
-      <c r="B6" s="117"/>
+      <c r="A6" s="104"/>
+      <c r="B6" s="104"/>
       <c r="C6" s="91">
         <v>256018</v>
       </c>
@@ -14471,8 +14444,8 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="117"/>
-      <c r="B7" s="117"/>
+      <c r="A7" s="104"/>
+      <c r="B7" s="104"/>
       <c r="C7" s="90" t="s">
         <v>46</v>
       </c>
@@ -14484,8 +14457,8 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="117"/>
-      <c r="B8" s="117"/>
+      <c r="A8" s="104"/>
+      <c r="B8" s="104"/>
       <c r="C8" s="91">
         <v>110120.5</v>
       </c>
@@ -14497,8 +14470,8 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="117"/>
-      <c r="B9" s="117"/>
+      <c r="A9" s="104"/>
+      <c r="B9" s="104"/>
       <c r="C9" s="90" t="s">
         <v>42</v>
       </c>
@@ -14510,8 +14483,8 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="117"/>
-      <c r="B10" s="117"/>
+      <c r="A10" s="104"/>
+      <c r="B10" s="104"/>
       <c r="C10" s="91">
         <v>25618</v>
       </c>
@@ -14693,7 +14666,7 @@
       <c r="A2" t="s">
         <v>418</v>
       </c>
-      <c r="B2" s="117"/>
+      <c r="B2" s="104"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">

--- a/tests/__xlsx__/xlsx_demo_data.xlsx
+++ b/tests/__xlsx__/xlsx_demo_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dhrutik Patel\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Odoo\spreadsheet\tests\__xlsx__\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D228786-E91E-430E-99C6-E04C2E52416C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F832354-F3E9-4BC5-A260-88E8A391D52D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
   <externalReferences>
     <externalReference r:id="rId15"/>
   </externalReferences>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId16"/>
   </pivotCaches>
@@ -39,12 +39,45 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="442">
   <si>
     <t>CF =42</t>
   </si>
@@ -1368,6 +1401,9 @@
   </si>
   <si>
     <t>CF with formulas</t>
+  </si>
+  <si>
+    <t>Decimal with formula</t>
   </si>
 </sst>
 </file>
@@ -1547,7 +1583,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="30">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1728,14 +1764,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="36">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -2089,61 +2119,10 @@
         <color rgb="FF000000"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2152,9 +2131,7 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2165,9 +2142,7 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -2176,7 +2151,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2357,25 +2332,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="20" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="29" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="29" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2395,6 +2351,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -9164,9 +9135,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -9204,7 +9175,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -9310,7 +9281,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9452,7 +9423,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -9483,7 +9454,7 @@
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="117" t="s">
+      <c r="G1" s="104" t="s">
         <v>1</v>
       </c>
     </row>
@@ -9494,26 +9465,26 @@
       <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="117">
+      <c r="G2" s="104">
         <v>5</v>
       </c>
-      <c r="H2" s="118" t="s">
+      <c r="H2" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="119"/>
+      <c r="I2" s="106"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="117">
+      <c r="G3" s="104">
         <v>8</v>
       </c>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="120">
+      <c r="K3" s="107">
         <v>5</v>
       </c>
       <c r="L3" s="6"/>
@@ -9522,94 +9493,94 @@
       <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="117">
+      <c r="C4" s="104">
         <v>12.4</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="117">
+      <c r="G4" s="104">
         <v>9</v>
       </c>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="121"/>
+      <c r="K4" s="108"/>
       <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="117">
+      <c r="C5" s="104">
         <v>42</v>
       </c>
-      <c r="G5" s="117">
+      <c r="G5" s="104">
         <v>15</v>
       </c>
-      <c r="H5" s="119"/>
-      <c r="I5" s="119"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="121"/>
+      <c r="K5" s="108"/>
       <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G6" s="117">
+      <c r="G6" s="104">
         <v>22</v>
       </c>
       <c r="J6" s="5"/>
-      <c r="K6" s="121"/>
+      <c r="K6" s="108"/>
       <c r="L6" s="6"/>
     </row>
     <row r="7" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="117">
+      <c r="C7" s="104">
         <v>3</v>
       </c>
       <c r="J7" s="5"/>
-      <c r="K7" s="121"/>
+      <c r="K7" s="108"/>
       <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G8" s="117">
+      <c r="G8" s="104">
         <v>30</v>
       </c>
       <c r="J8" s="5"/>
-      <c r="K8" s="122"/>
+      <c r="K8" s="109"/>
       <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="117">
+      <c r="C9" s="104">
         <f>SUM(C4:C5)</f>
         <v>54.4</v>
       </c>
       <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="117">
+      <c r="C10" s="104">
         <f>SUM(C4:C7)</f>
         <v>57.4</v>
       </c>
-      <c r="D10" s="117" t="s">
+      <c r="D10" s="104" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="117">
+      <c r="C11" s="104">
         <f>-(3+C7*SUM(C4:C7))</f>
         <v>-175.2</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="117">
+      <c r="C12" s="104">
         <f>SUM(C9:C11)</f>
         <v>-63.399999999999991</v>
       </c>
-      <c r="D12" s="117" t="s">
+      <c r="D12" s="104" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G13" s="117">
+      <c r="G13" s="104">
         <f>A1+A2+A3+A4+A5+A6+A7+A8+A9+A10+A11+A12+A13+A14+A15+A16+A17+A18</f>
         <v>0</v>
       </c>
@@ -9618,29 +9589,29 @@
       <c r="B14" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="117" t="str">
+      <c r="C14" s="104" t="str">
         <f ca="1">C14</f>
         <v>#CYCLE</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="117" t="s">
+      <c r="C15" s="104" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="117" t="str">
+      <c r="C16" s="104" t="str">
         <f>C15</f>
         <v>=(+</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="117" t="s">
+      <c r="C17" s="104" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="117" t="s">
+      <c r="C18" s="104" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9679,10 +9650,10 @@
       <c r="C23" s="15">
         <v>0.43</v>
       </c>
-      <c r="H23" s="117">
+      <c r="H23" s="104">
         <v>0</v>
       </c>
-      <c r="I23" s="117">
+      <c r="I23" s="104">
         <v>0</v>
       </c>
     </row>
@@ -9690,10 +9661,10 @@
       <c r="C24" s="16">
         <v>10</v>
       </c>
-      <c r="H24" s="117">
-        <v>1</v>
-      </c>
-      <c r="I24" s="117">
+      <c r="H24" s="104">
+        <v>1</v>
+      </c>
+      <c r="I24" s="104">
         <v>1</v>
       </c>
     </row>
@@ -9701,165 +9672,165 @@
       <c r="C25" s="16">
         <v>10.122999999999999</v>
       </c>
-      <c r="H25" s="117">
+      <c r="H25" s="104">
         <v>2</v>
       </c>
-      <c r="I25" s="117">
+      <c r="I25" s="104">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="117" t="s">
+      <c r="B26" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="117" t="s">
+      <c r="C26" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="H26" s="117">
+      <c r="H26" s="104">
         <v>3</v>
       </c>
-      <c r="I26" s="117">
+      <c r="I26" s="104">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="117" t="s">
+      <c r="A27" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="117">
+      <c r="B27" s="104">
         <v>12</v>
       </c>
-      <c r="C27" s="117">
+      <c r="C27" s="104">
         <v>24</v>
       </c>
-      <c r="H27" s="117">
+      <c r="H27" s="104">
         <v>4</v>
       </c>
-      <c r="I27" s="117">
+      <c r="I27" s="104">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="117" t="s">
+      <c r="A28" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="117">
+      <c r="B28" s="104">
         <v>48</v>
       </c>
-      <c r="C28" s="117">
+      <c r="C28" s="104">
         <v>12</v>
       </c>
-      <c r="H28" s="117">
+      <c r="H28" s="104">
         <v>5</v>
       </c>
-      <c r="I28" s="117">
+      <c r="I28" s="104">
         <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="117" t="s">
+      <c r="A29" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="117">
+      <c r="B29" s="104">
         <v>45</v>
       </c>
-      <c r="C29" s="117">
+      <c r="C29" s="104">
         <v>27</v>
       </c>
-      <c r="H29" s="117">
+      <c r="H29" s="104">
         <v>6</v>
       </c>
-      <c r="I29" s="117">
+      <c r="I29" s="104">
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="117" t="s">
+      <c r="A30" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="117">
-        <v>1</v>
-      </c>
-      <c r="C30" s="117">
+      <c r="B30" s="104">
+        <v>1</v>
+      </c>
+      <c r="C30" s="104">
         <v>9</v>
       </c>
-      <c r="H30" s="117">
+      <c r="H30" s="104">
         <v>7</v>
       </c>
-      <c r="I30" s="117">
+      <c r="I30" s="104">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="117" t="s">
+      <c r="A31" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="117">
+      <c r="B31" s="104">
         <v>25</v>
       </c>
-      <c r="C31" s="117">
+      <c r="C31" s="104">
         <v>45</v>
       </c>
-      <c r="H31" s="117">
+      <c r="H31" s="104">
         <v>8</v>
       </c>
-      <c r="I31" s="117">
+      <c r="I31" s="104">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="117" t="s">
+      <c r="A32" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="117">
+      <c r="B32" s="104">
         <v>31</v>
       </c>
-      <c r="C32" s="117">
+      <c r="C32" s="104">
         <v>17</v>
       </c>
-      <c r="H32" s="117">
+      <c r="H32" s="104">
         <v>9</v>
       </c>
-      <c r="I32" s="117">
+      <c r="I32" s="104">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="117" t="s">
+      <c r="A33" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="117">
+      <c r="B33" s="104">
         <v>20</v>
       </c>
-      <c r="C33" s="117">
+      <c r="C33" s="104">
         <v>43</v>
       </c>
-      <c r="H33" s="117">
+      <c r="H33" s="104">
         <v>10</v>
       </c>
-      <c r="I33" s="117">
+      <c r="I33" s="104">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="117" t="s">
+      <c r="A34" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="117">
+      <c r="B34" s="104">
         <v>19</v>
       </c>
-      <c r="C34" s="117">
+      <c r="C34" s="104">
         <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="117" t="s">
+      <c r="A35" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="117">
+      <c r="B35" s="104">
         <v>16</v>
       </c>
-      <c r="C35" s="117">
+      <c r="C35" s="104">
         <v>16</v>
       </c>
     </row>
@@ -9979,10 +9950,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025F2510-D243-4DA1-81DE-BBDDA9BC3681}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9992,184 +9963,203 @@
     <col min="7" max="7" width="14.28515625" customWidth="1"/>
     <col min="8" max="8" width="20.28515625" customWidth="1"/>
     <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="114" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="112" t="s">
         <v>423</v>
       </c>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="113" t="s">
         <v>424</v>
       </c>
-      <c r="C1" s="115" t="s">
+      <c r="C1" s="113" t="s">
         <v>425</v>
       </c>
-      <c r="D1" s="115" t="s">
+      <c r="D1" s="113" t="s">
         <v>426</v>
       </c>
-      <c r="E1" s="115" t="s">
+      <c r="E1" s="113" t="s">
         <v>427</v>
       </c>
-      <c r="F1" s="115" t="s">
+      <c r="F1" s="113" t="s">
         <v>428</v>
       </c>
-      <c r="G1" s="115" t="s">
+      <c r="G1" s="113" t="s">
         <v>429</v>
       </c>
-      <c r="H1" s="115" t="s">
+      <c r="H1" s="113" t="s">
         <v>430</v>
       </c>
-      <c r="I1" s="116" t="s">
+      <c r="I1" s="114" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="104">
+      <c r="J1" s="111" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="115">
         <v>4</v>
       </c>
-      <c r="B2" s="105">
+      <c r="B2" s="115">
         <v>99.5</v>
       </c>
-      <c r="C2" s="105">
-        <v>1</v>
-      </c>
-      <c r="D2" s="105" t="s">
+      <c r="C2" s="115">
+        <v>1</v>
+      </c>
+      <c r="D2" s="115" t="s">
         <v>432</v>
       </c>
-      <c r="E2" s="106">
+      <c r="E2" s="116">
         <v>45575</v>
       </c>
-      <c r="F2" s="107">
+      <c r="F2" s="117">
         <v>0.64583333333333337</v>
       </c>
-      <c r="G2" s="107" t="s">
+      <c r="G2" s="117" t="s">
         <v>433</v>
       </c>
-      <c r="H2" s="106">
+      <c r="H2" s="116">
         <v>45292</v>
       </c>
-      <c r="I2" s="108">
+      <c r="I2" s="115">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="104">
+      <c r="J2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="115">
         <v>3</v>
       </c>
-      <c r="B3" s="105">
+      <c r="B3" s="115">
         <v>40</v>
       </c>
-      <c r="C3" s="105">
+      <c r="C3" s="115">
         <v>2</v>
       </c>
-      <c r="D3" s="105" t="s">
+      <c r="D3" s="115" t="s">
         <v>434</v>
       </c>
-      <c r="E3" s="106">
+      <c r="E3" s="116">
         <v>45576</v>
       </c>
-      <c r="F3" s="107">
+      <c r="F3" s="117">
         <v>0.57638888888888884</v>
       </c>
-      <c r="G3" s="107" t="s">
+      <c r="G3" s="117" t="s">
         <v>435</v>
       </c>
-      <c r="H3" s="106">
+      <c r="H3" s="116">
         <v>45231</v>
       </c>
-      <c r="I3" s="108" t="s">
+      <c r="I3" s="115" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="104">
+      <c r="J3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="115">
         <v>9</v>
       </c>
-      <c r="B4" s="105">
+      <c r="B4" s="115">
         <v>0</v>
       </c>
-      <c r="C4" s="105">
+      <c r="C4" s="115">
         <v>3</v>
       </c>
-      <c r="D4" s="105" t="s">
+      <c r="D4" s="115" t="s">
         <v>436</v>
       </c>
-      <c r="E4" s="106">
+      <c r="E4" s="116">
         <v>45574</v>
       </c>
-      <c r="F4" s="107">
+      <c r="F4" s="117">
         <v>0.73958333333333337</v>
       </c>
-      <c r="G4" s="107" t="s">
+      <c r="G4" s="117" t="s">
         <v>437</v>
       </c>
-      <c r="H4" s="106">
+      <c r="H4" s="116">
         <v>45325</v>
       </c>
-      <c r="I4" s="108">
+      <c r="I4" s="115">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="104">
+      <c r="J4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="115">
         <v>5</v>
       </c>
-      <c r="B5" s="105">
+      <c r="B5" s="115">
         <v>120</v>
       </c>
-      <c r="C5" s="105">
+      <c r="C5" s="115">
         <v>4</v>
       </c>
-      <c r="D5" s="105" t="s">
+      <c r="D5" s="115" t="s">
         <v>434</v>
       </c>
-      <c r="E5" s="106">
+      <c r="E5" s="116">
         <v>45573</v>
       </c>
-      <c r="F5" s="107">
+      <c r="F5" s="117">
         <v>0.66666666666666663</v>
       </c>
-      <c r="G5" s="105" t="s">
+      <c r="G5" s="115" t="s">
         <v>438</v>
       </c>
-      <c r="H5" s="106">
+      <c r="H5" s="116">
         <v>45084</v>
       </c>
-      <c r="I5" s="108">
+      <c r="I5" s="115">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="109">
+      <c r="J5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="115">
         <v>7</v>
       </c>
-      <c r="B6" s="110">
+      <c r="B6" s="115">
         <v>12</v>
       </c>
-      <c r="C6" s="110">
+      <c r="C6" s="115">
         <v>5</v>
       </c>
-      <c r="D6" s="110" t="s">
+      <c r="D6" s="115" t="s">
         <v>436</v>
       </c>
-      <c r="E6" s="111">
+      <c r="E6" s="116">
         <v>45566</v>
       </c>
-      <c r="F6" s="112">
+      <c r="F6" s="117">
         <v>0.5229166666666667</v>
       </c>
-      <c r="G6" s="110" t="s">
+      <c r="G6" s="115" t="s">
         <v>439</v>
       </c>
-      <c r="H6" s="111">
+      <c r="H6" s="116">
         <v>45420</v>
       </c>
-      <c r="I6" s="113" t="s">
+      <c r="I6" s="115" t="s">
         <v>438</v>
       </c>
+      <c r="J6">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="9">
+  <dataValidations count="10">
     <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A6" xr:uid="{B9309757-E2F4-49A1-880B-2F47F04364D6}">
       <formula1>1</formula1>
       <formula2>5</formula2>
@@ -10201,6 +10191,10 @@
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6" xr:uid="{1E18A174-B5CF-4015-B7DC-F1491351E054}">
       <formula1>"option1,option2,option3"</formula1>
     </dataValidation>
+    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J6" xr:uid="{17E9313A-2FD1-4622-924C-5610FB03D852}">
+      <formula1>$A$2</formula1>
+      <formula2>2+10</formula2>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10223,16 +10217,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="117" t="s">
+      <c r="B1" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="117" t="s">
+      <c r="C1" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="117" t="s">
+      <c r="D1" s="104" t="s">
         <v>34</v>
       </c>
       <c r="G1" s="17" t="s">
@@ -10250,7 +10244,7 @@
       <c r="K1" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="117">
+      <c r="N1" s="104">
         <v>0.1</v>
       </c>
       <c r="P1" s="17" t="s">
@@ -10258,36 +10252,36 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="117" t="s">
+      <c r="A2" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="117">
+      <c r="B2" s="104">
         <f>ABS(-5.5)</f>
         <v>5.5</v>
       </c>
-      <c r="C2" s="117">
+      <c r="C2" s="104">
         <v>5.5</v>
       </c>
-      <c r="D2" s="117">
+      <c r="D2" s="104">
         <f t="shared" ref="D2:D33" si="0">IF(B2=C2,1,0)</f>
         <v>1</v>
       </c>
-      <c r="G2" s="117" t="s">
+      <c r="G2" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="117">
+      <c r="H2" s="104">
         <v>26</v>
       </c>
-      <c r="I2" s="117">
+      <c r="I2" s="104">
         <v>1204.7</v>
       </c>
-      <c r="J2" s="117">
+      <c r="J2" s="104">
         <v>25618</v>
       </c>
-      <c r="K2" s="117">
+      <c r="K2" s="104">
         <v>5</v>
       </c>
-      <c r="N2" s="117">
+      <c r="N2" s="104">
         <v>0.2</v>
       </c>
       <c r="P2">
@@ -10304,36 +10298,36 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="117">
+      <c r="B3" s="104">
         <f>ACOS(1)</f>
         <v>0</v>
       </c>
-      <c r="C3" s="117">
+      <c r="C3" s="104">
         <v>0</v>
       </c>
-      <c r="D3" s="117">
+      <c r="D3" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G3" s="117" t="s">
+      <c r="G3" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="117">
+      <c r="H3" s="104">
         <v>13</v>
       </c>
-      <c r="I3" s="117">
+      <c r="I3" s="104">
         <v>500.9</v>
       </c>
-      <c r="J3" s="117">
+      <c r="J3" s="104">
         <v>23000</v>
       </c>
-      <c r="K3" s="117">
+      <c r="K3" s="104">
         <v>7</v>
       </c>
-      <c r="N3" s="117">
+      <c r="N3" s="104">
         <v>0.4</v>
       </c>
       <c r="P3">
@@ -10350,36 +10344,36 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="117">
+      <c r="B4" s="104">
         <f>ROUND(ACOSH(2),5)</f>
         <v>1.3169599999999999</v>
       </c>
-      <c r="C4" s="117">
+      <c r="C4" s="104">
         <v>1.3169599999999999</v>
       </c>
-      <c r="D4" s="117">
+      <c r="D4" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G4" s="117" t="s">
+      <c r="G4" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="117">
+      <c r="H4" s="104">
         <v>26</v>
       </c>
-      <c r="I4" s="117">
+      <c r="I4" s="104">
         <v>252.4</v>
       </c>
-      <c r="J4" s="117">
+      <c r="J4" s="104">
         <v>110120.5</v>
       </c>
-      <c r="K4" s="117">
+      <c r="K4" s="104">
         <v>3</v>
       </c>
-      <c r="N4" s="117">
+      <c r="N4" s="104">
         <v>0.5</v>
       </c>
       <c r="P4">
@@ -10396,36 +10390,36 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="117" t="s">
+      <c r="A5" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="117">
+      <c r="B5" s="104">
         <f>ROUND(_xlfn.ACOT(1),5)</f>
         <v>0.78539999999999999</v>
       </c>
-      <c r="C5" s="117">
+      <c r="C5" s="104">
         <v>0.78539999999999999</v>
       </c>
-      <c r="D5" s="117">
+      <c r="D5" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G5" s="117" t="s">
+      <c r="G5" s="104" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="117">
+      <c r="H5" s="104">
         <v>42</v>
       </c>
-      <c r="I5" s="117">
+      <c r="I5" s="104">
         <v>4701.3</v>
       </c>
-      <c r="J5" s="117">
+      <c r="J5" s="104">
         <v>50024</v>
       </c>
-      <c r="K5" s="117">
+      <c r="K5" s="104">
         <v>4</v>
       </c>
-      <c r="N5" s="117">
+      <c r="N5" s="104">
         <v>0.6</v>
       </c>
       <c r="P5">
@@ -10442,36 +10436,36 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="117" t="s">
+      <c r="A6" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="117">
+      <c r="B6" s="104">
         <f>ROUND(_xlfn.ACOTH(2),5)</f>
         <v>0.54930999999999996</v>
       </c>
-      <c r="C6" s="117">
+      <c r="C6" s="104">
         <v>0.54930999999999996</v>
       </c>
-      <c r="D6" s="117">
+      <c r="D6" s="104">
         <f>IF(B6=C6,1,0)</f>
         <v>1</v>
       </c>
-      <c r="G6" s="117" t="s">
+      <c r="G6" s="104" t="s">
         <v>50</v>
       </c>
-      <c r="H6" s="117">
+      <c r="H6" s="104">
         <v>9</v>
       </c>
-      <c r="I6" s="117">
+      <c r="I6" s="104">
         <v>12.1</v>
       </c>
-      <c r="J6" s="117">
+      <c r="J6" s="104">
         <v>2</v>
       </c>
-      <c r="K6" s="117">
+      <c r="K6" s="104">
         <v>1000</v>
       </c>
-      <c r="N6" s="117" t="s">
+      <c r="N6" s="104" t="s">
         <v>51</v>
       </c>
       <c r="P6">
@@ -10488,151 +10482,151 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="117" t="s">
+      <c r="A7" s="104" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="117" t="b">
+      <c r="B7" s="104" t="b">
         <f>AND(TRUE,TRUE)</f>
         <v>1</v>
       </c>
-      <c r="C7" s="117" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" s="117">
+      <c r="C7" s="104" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G7" s="117" t="s">
+      <c r="G7" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="117">
+      <c r="H7" s="104">
         <v>27</v>
       </c>
-      <c r="I7" s="117">
+      <c r="I7" s="104">
         <v>4000</v>
       </c>
-      <c r="J7" s="117">
+      <c r="J7" s="104">
         <v>189576</v>
       </c>
-      <c r="K7" s="117">
+      <c r="K7" s="104">
         <v>2</v>
       </c>
-      <c r="N7" s="117" t="b">
+      <c r="N7" s="104" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="117" t="s">
+      <c r="A8" s="104" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="117">
+      <c r="B8" s="104">
         <f>ROUND(ASIN(0.5),5)</f>
         <v>0.52359999999999995</v>
       </c>
-      <c r="C8" s="117">
+      <c r="C8" s="104">
         <v>0.52359999999999995</v>
       </c>
-      <c r="D8" s="117">
+      <c r="D8" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G8" s="117" t="s">
+      <c r="G8" s="104" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="117">
+      <c r="H8" s="104">
         <v>30</v>
       </c>
-      <c r="I8" s="117">
+      <c r="I8" s="104">
         <v>12052</v>
       </c>
-      <c r="J8" s="117">
+      <c r="J8" s="104">
         <v>256018</v>
       </c>
-      <c r="K8" s="117">
-        <v>1</v>
-      </c>
-      <c r="N8" s="117" t="b">
+      <c r="K8" s="104">
+        <v>1</v>
+      </c>
+      <c r="N8" s="104" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="117" t="s">
+      <c r="A9" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="117">
+      <c r="B9" s="104">
         <f>ROUND(ASINH(2),5)</f>
         <v>1.44364</v>
       </c>
-      <c r="C9" s="117">
+      <c r="C9" s="104">
         <v>1.44364</v>
       </c>
-      <c r="D9" s="117">
+      <c r="D9" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G9" s="117" t="s">
+      <c r="G9" s="104" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="117">
+      <c r="H9" s="104">
         <v>37</v>
       </c>
-      <c r="I9" s="117">
+      <c r="I9" s="104">
         <v>4890.1000000000004</v>
       </c>
-      <c r="J9" s="117">
+      <c r="J9" s="104">
         <v>5000</v>
       </c>
-      <c r="K9" s="117">
+      <c r="K9" s="104">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="117" t="s">
+      <c r="A10" s="104" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="117">
+      <c r="B10" s="104">
         <f>ROUND(ATAN(1),5)</f>
         <v>0.78539999999999999</v>
       </c>
-      <c r="C10" s="117">
+      <c r="C10" s="104">
         <v>0.78539999999999999</v>
       </c>
-      <c r="D10" s="117">
+      <c r="D10" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="117" t="s">
+      <c r="A11" s="104" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="117">
+      <c r="B11" s="104">
         <f>ROUND(ATAN2(-1,0),5)</f>
         <v>3.1415899999999999</v>
       </c>
-      <c r="C11" s="117">
+      <c r="C11" s="104">
         <v>3.1415899999999999</v>
       </c>
-      <c r="D11" s="117">
+      <c r="D11" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G11" s="117" t="s">
+      <c r="G11" s="104" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="117" t="s">
+      <c r="A12" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="117">
+      <c r="B12" s="104">
         <f>ROUND(ATANH(0.7),5)</f>
         <v>0.86729999999999996</v>
       </c>
-      <c r="C12" s="117">
+      <c r="C12" s="104">
         <v>0.86729999999999996</v>
       </c>
-      <c r="D12" s="117">
+      <c r="D12" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -10653,457 +10647,457 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="117" t="s">
+      <c r="A13" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="117">
+      <c r="B13" s="104">
         <f>ROUND(AVEDEV(I2:I9),5)</f>
         <v>2959.1624999999999</v>
       </c>
-      <c r="C13" s="117">
+      <c r="C13" s="104">
         <v>2959.1624999999999</v>
       </c>
-      <c r="D13" s="117">
+      <c r="D13" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G13" s="117" t="s">
+      <c r="G13" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="117" t="s">
+      <c r="H13" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="I13" s="117" t="s">
+      <c r="I13" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="J13" s="117" t="s">
+      <c r="J13" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="K13" s="117" t="s">
+      <c r="K13" s="104" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="117" t="s">
+      <c r="A14" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="117">
+      <c r="B14" s="104">
         <f>ROUND(AVERAGE(H2:H9),5)</f>
         <v>26.25</v>
       </c>
-      <c r="C14" s="117">
+      <c r="C14" s="104">
         <v>26.25</v>
       </c>
-      <c r="D14" s="117">
+      <c r="D14" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="117" t="s">
+      <c r="A15" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="117">
+      <c r="B15" s="104">
         <f>AVERAGEA(G2:H9)</f>
         <v>13.125</v>
       </c>
-      <c r="C15" s="117">
+      <c r="C15" s="104">
         <v>13.125</v>
       </c>
-      <c r="D15" s="117">
+      <c r="D15" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="117" t="s">
+      <c r="A16" s="104" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="117">
+      <c r="B16" s="104">
         <f>ROUND(AVERAGEIF(J2:J9,"&gt;150000"),5)</f>
         <v>222797</v>
       </c>
-      <c r="C16" s="117">
+      <c r="C16" s="104">
         <v>222797</v>
       </c>
-      <c r="D16" s="117">
+      <c r="D16" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="117" t="s">
+      <c r="A17" s="104" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="117">
+      <c r="B17" s="104">
         <f>ROUND(AVERAGEIFS(I2:I9,H2:H9,"&gt;=30",K2:K9,"&lt;10"),5)</f>
         <v>8376.65</v>
       </c>
-      <c r="C17" s="117">
+      <c r="C17" s="104">
         <v>8376.65</v>
       </c>
-      <c r="D17" s="117">
+      <c r="D17" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="117" t="s">
+      <c r="A18" s="104" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="117">
+      <c r="B18" s="104">
         <f>CEILING(20.4,1)</f>
         <v>21</v>
       </c>
-      <c r="C18" s="117">
+      <c r="C18" s="104">
         <v>21</v>
       </c>
-      <c r="D18" s="117">
+      <c r="D18" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="117" t="s">
+      <c r="A19" s="104" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="117">
+      <c r="B19" s="104">
         <f>_xlfn.CEILING.MATH(-5.5,1,0)</f>
         <v>-5</v>
       </c>
-      <c r="C19" s="117">
+      <c r="C19" s="104">
         <v>-5</v>
       </c>
-      <c r="D19" s="117">
+      <c r="D19" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="117" t="s">
+      <c r="A20" s="104" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="117">
+      <c r="B20" s="104">
         <f>_xlfn.CEILING.PRECISE(230,100)</f>
         <v>300</v>
       </c>
-      <c r="C20" s="117">
+      <c r="C20" s="104">
         <v>300</v>
       </c>
-      <c r="D20" s="117">
+      <c r="D20" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="117" t="s">
+      <c r="A21" s="104" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="117" t="str">
+      <c r="B21" s="104" t="str">
         <f>CHAR(74)</f>
         <v>J</v>
       </c>
-      <c r="C21" s="117" t="s">
+      <c r="C21" s="104" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="117">
+      <c r="D21" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="117" t="s">
+      <c r="A22" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="B22" s="117">
+      <c r="B22" s="104">
         <f>COLUMN(C4)</f>
         <v>3</v>
       </c>
-      <c r="C22" s="117">
+      <c r="C22" s="104">
         <v>3</v>
       </c>
-      <c r="D22" s="117">
+      <c r="D22" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="117" t="s">
+      <c r="A23" s="104" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="117">
+      <c r="B23" s="104">
         <f>COLUMNS(A5:D12)</f>
         <v>4</v>
       </c>
-      <c r="C23" s="117">
+      <c r="C23" s="104">
         <v>4</v>
       </c>
-      <c r="D23" s="117">
+      <c r="D23" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="117" t="s">
+      <c r="A24" s="104" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="117" t="str">
+      <c r="B24" s="104" t="str">
         <f>_xlfn.CONCAT(1,23)</f>
         <v>123</v>
       </c>
-      <c r="C24" s="117" t="str">
+      <c r="C24" s="104" t="str">
         <f>"123"</f>
         <v>123</v>
       </c>
-      <c r="D24" s="117">
+      <c r="D24" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="117" t="s">
+      <c r="A25" s="104" t="s">
         <v>79</v>
       </c>
-      <c r="B25" s="117" t="str">
+      <c r="B25" s="104" t="str">
         <f>CONCATENATE("BUT, ","MICHEL")</f>
         <v>BUT, MICHEL</v>
       </c>
-      <c r="C25" s="117" t="s">
+      <c r="C25" s="104" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="117">
+      <c r="D25" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="117" t="s">
+      <c r="A26" s="104" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="117">
+      <c r="B26" s="104">
         <f>ROUND(COS(PI()/3),2)</f>
         <v>0.5</v>
       </c>
-      <c r="C26" s="117">
+      <c r="C26" s="104">
         <v>0.5</v>
       </c>
-      <c r="D26" s="117">
+      <c r="D26" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="117" t="s">
+      <c r="A27" s="104" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="117">
+      <c r="B27" s="104">
         <f>ROUND(COSH(2),5)</f>
         <v>3.7622</v>
       </c>
-      <c r="C27" s="117">
+      <c r="C27" s="104">
         <v>3.7622</v>
       </c>
-      <c r="D27" s="117">
+      <c r="D27" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="117" t="s">
+      <c r="A28" s="104" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="117">
+      <c r="B28" s="104">
         <f>ROUND(_xlfn.COT(PI()/6),5)</f>
         <v>1.7320500000000001</v>
       </c>
-      <c r="C28" s="117">
+      <c r="C28" s="104">
         <f>ROUND(SQRT(3),5)</f>
         <v>1.7320500000000001</v>
       </c>
-      <c r="D28" s="117">
+      <c r="D28" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="117" t="s">
+      <c r="A29" s="104" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="117">
+      <c r="B29" s="104">
         <f>ROUND(_xlfn.COTH(0.5),5)</f>
         <v>2.1639499999999998</v>
       </c>
-      <c r="C29" s="117">
+      <c r="C29" s="104">
         <v>2.1639499999999998</v>
       </c>
-      <c r="D29" s="117">
+      <c r="D29" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="117" t="s">
+      <c r="A30" s="104" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="117">
+      <c r="B30" s="104">
         <f>COUNT(1,"a","5","2021-03-14")</f>
         <v>3</v>
       </c>
-      <c r="C30" s="117">
+      <c r="C30" s="104">
         <v>2</v>
       </c>
-      <c r="D30" s="117">
+      <c r="D30" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="117" t="s">
+      <c r="A31" s="104" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="117">
+      <c r="B31" s="104">
         <f>COUNTA(1,"a","5","2021-03-14")</f>
         <v>4</v>
       </c>
-      <c r="C31" s="117">
+      <c r="C31" s="104">
         <v>4</v>
       </c>
-      <c r="D31" s="117">
+      <c r="D31" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="117" t="s">
+      <c r="A32" s="104" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="117">
+      <c r="B32" s="104">
         <f>COUNTBLANK(F1:G1)</f>
         <v>1</v>
       </c>
-      <c r="C32" s="117">
-        <v>1</v>
-      </c>
-      <c r="D32" s="117">
+      <c r="C32" s="104">
+        <v>1</v>
+      </c>
+      <c r="D32" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="117" t="s">
+      <c r="A33" s="104" t="s">
         <v>88</v>
       </c>
-      <c r="B33" s="117">
+      <c r="B33" s="104">
         <f>COUNTIF(H2:H9,"&gt;30")</f>
         <v>2</v>
       </c>
-      <c r="C33" s="117">
+      <c r="C33" s="104">
         <v>2</v>
       </c>
-      <c r="D33" s="117">
+      <c r="D33" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="117" t="s">
+      <c r="A34" s="104" t="s">
         <v>89</v>
       </c>
-      <c r="B34" s="117">
+      <c r="B34" s="104">
         <f>COUNTIFS(H2:H9,"&gt;25",K2:K9,"&lt;4")</f>
         <v>3</v>
       </c>
-      <c r="C34" s="117">
+      <c r="C34" s="104">
         <v>3</v>
       </c>
-      <c r="D34" s="117">
+      <c r="D34" s="104">
         <f t="shared" ref="D34:D65" si="4">IF(B34=C34,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="117" t="s">
+      <c r="A35" s="104" t="s">
         <v>90</v>
       </c>
-      <c r="B35" s="117">
+      <c r="B35" s="104">
         <f>ROUND(COVAR(H2:H9,K2:K9),5)</f>
         <v>-2119.25</v>
       </c>
-      <c r="C35" s="117">
+      <c r="C35" s="104">
         <v>-2119.25</v>
       </c>
-      <c r="D35" s="117">
+      <c r="D35" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="117" t="s">
+      <c r="A36" s="104" t="s">
         <v>91</v>
       </c>
-      <c r="B36" s="117">
+      <c r="B36" s="104">
         <f>ROUND(_xlfn.COVARIANCE.P(K2:K9,H2:H9),5)</f>
         <v>-2119.25</v>
       </c>
-      <c r="C36" s="117">
+      <c r="C36" s="104">
         <v>-2119.25</v>
       </c>
-      <c r="D36" s="117">
+      <c r="D36" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="117" t="s">
+      <c r="A37" s="104" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="117">
+      <c r="B37" s="104">
         <f>ROUND(_xlfn.COVARIANCE.P(I2:I9,J2:J9),5)</f>
         <v>237217364.71641001</v>
       </c>
-      <c r="C37" s="117">
+      <c r="C37" s="104">
         <v>237217364.71641001</v>
       </c>
-      <c r="D37" s="117">
+      <c r="D37" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="117" t="s">
+      <c r="A38" s="104" t="s">
         <v>93</v>
       </c>
-      <c r="B38" s="117">
+      <c r="B38" s="104">
         <f>ROUND(_xlfn.CSC(PI()/4),5)</f>
         <v>1.41421</v>
       </c>
-      <c r="C38" s="117">
+      <c r="C38" s="104">
         <f>ROUND(SQRT(2),5)</f>
         <v>1.41421</v>
       </c>
-      <c r="D38" s="117">
+      <c r="D38" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="117" t="s">
+      <c r="A39" s="104" t="s">
         <v>94</v>
       </c>
-      <c r="B39" s="117">
+      <c r="B39" s="104">
         <f>ROUND(_xlfn.CSCH(PI()/3),5)</f>
         <v>0.80040999999999995</v>
       </c>
-      <c r="C39" s="117">
+      <c r="C39" s="104">
         <v>0.80040999999999995</v>
       </c>
-      <c r="D39" s="117">
+      <c r="D39" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="117" t="s">
+      <c r="A40" s="104" t="s">
         <v>95</v>
       </c>
       <c r="B40" s="18">
@@ -11113,287 +11107,287 @@
       <c r="C40" s="18">
         <v>43976</v>
       </c>
-      <c r="D40" s="117">
+      <c r="D40" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="117" t="s">
+      <c r="A41" s="104" t="s">
         <v>96</v>
       </c>
-      <c r="B41" s="117">
+      <c r="B41" s="104">
         <f>DATEVALUE("1969-08-15")</f>
         <v>25430</v>
       </c>
-      <c r="C41" s="117">
+      <c r="C41" s="104">
         <v>25430</v>
       </c>
-      <c r="D41" s="117">
+      <c r="D41" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="117" t="s">
+      <c r="A42" s="104" t="s">
         <v>97</v>
       </c>
-      <c r="B42" s="117">
+      <c r="B42" s="104">
         <f>ROUND(DAVERAGE(G1:K9,"Tot. Score",J12:J13),5)</f>
         <v>151434.625</v>
       </c>
-      <c r="C42" s="117">
+      <c r="C42" s="104">
         <v>151434.625</v>
       </c>
-      <c r="D42" s="117">
+      <c r="D42" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="117" t="s">
+      <c r="A43" s="104" t="s">
         <v>98</v>
       </c>
-      <c r="B43" s="117">
+      <c r="B43" s="104">
         <f>DAY("2020-03-17")</f>
         <v>17</v>
       </c>
-      <c r="C43" s="117">
+      <c r="C43" s="104">
         <v>17</v>
       </c>
-      <c r="D43" s="117">
+      <c r="D43" s="104">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="117" t="s">
+      <c r="A44" s="104" t="s">
         <v>99</v>
       </c>
-      <c r="B44" s="117">
+      <c r="B44" s="104">
         <f>_xlfn.DAYS("2022-